--- a/0 DyTech Informations/Dytech Balance.xlsx
+++ b/0 DyTech Informations/Dytech Balance.xlsx
@@ -4622,8 +4622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35:P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5251,7 +5251,7 @@
         <v>0.9</v>
       </c>
       <c r="G18" s="86">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H18" s="87" t="s">
         <v>53</v>
@@ -5292,7 +5292,7 @@
         <v>0.8</v>
       </c>
       <c r="G19" s="86">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="H19" s="87" t="s">
         <v>53</v>
@@ -5333,7 +5333,7 @@
         <v>0.7</v>
       </c>
       <c r="G20" s="86">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H20" s="87" t="s">
         <v>53</v>
@@ -5417,11 +5417,11 @@
       </c>
       <c r="G22" s="89">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="H22" s="90">
         <f t="shared" ref="H22:H24" si="10">IFERROR(60/F22*G22,"")</f>
-        <v>16.666666666666668</v>
+        <v>25</v>
       </c>
       <c r="I22" s="91">
         <f t="shared" ref="I22:L22" si="11">I$6*I18</f>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="N22" s="89">
         <f t="shared" ref="N22:N24" si="12">IFERROR(K22/M22*H22,"")</f>
-        <v>5.0250000000000004</v>
+        <v>7.5374999999999996</v>
       </c>
       <c r="O22" s="89"/>
       <c r="P22" s="92">
@@ -5468,11 +5468,11 @@
       </c>
       <c r="G23" s="89">
         <f t="shared" si="14"/>
-        <v>6.25</v>
+        <v>8.75</v>
       </c>
       <c r="H23" s="90">
         <f t="shared" si="10"/>
-        <v>23.4375</v>
+        <v>32.8125</v>
       </c>
       <c r="I23" s="91">
         <f t="shared" ref="I23:L23" si="15">I$6*I19</f>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="N23" s="89">
         <f t="shared" si="12"/>
-        <v>6.28125</v>
+        <v>8.7937500000000011</v>
       </c>
       <c r="O23" s="89"/>
       <c r="P23" s="92">
@@ -5519,11 +5519,11 @@
       </c>
       <c r="G24" s="89">
         <f t="shared" si="16"/>
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="H24" s="90">
         <f t="shared" si="10"/>
-        <v>32.142857142857139</v>
+        <v>42.857142857142854</v>
       </c>
       <c r="I24" s="91">
         <f t="shared" ref="I24:L24" si="17">I$6*I20</f>
@@ -5547,7 +5547,7 @@
       </c>
       <c r="N24" s="89">
         <f t="shared" si="12"/>
-        <v>7.5374999999999996</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="O24" s="89"/>
       <c r="P24" s="92">
@@ -5607,10 +5607,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="93">
+        <v>0.9</v>
+      </c>
+      <c r="G27" s="93">
         <v>1</v>
-      </c>
-      <c r="G27" s="93">
-        <v>1.5</v>
       </c>
       <c r="H27" s="94" t="s">
         <v>53</v>
@@ -5619,13 +5619,13 @@
         <v>1.5</v>
       </c>
       <c r="J27" s="93">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K27" s="93">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L27" s="93">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="M27" s="94" t="s">
         <v>53</v>
@@ -5648,10 +5648,10 @@
         <v>2</v>
       </c>
       <c r="F28" s="93">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G28" s="93">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="H28" s="94" t="s">
         <v>53</v>
@@ -5660,13 +5660,13 @@
         <v>1.625</v>
       </c>
       <c r="J28" s="93">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="K28" s="93">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="L28" s="93">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="M28" s="94" t="s">
         <v>53</v>
@@ -5689,7 +5689,7 @@
         <v>3</v>
       </c>
       <c r="F29" s="93">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G29" s="93">
         <v>2</v>
@@ -5707,7 +5707,7 @@
         <v>0.6</v>
       </c>
       <c r="L29" s="93">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="M29" s="94" t="s">
         <v>53</v>
@@ -5772,15 +5772,15 @@
       </c>
       <c r="F31" s="97">
         <f t="shared" ref="F31:G31" si="18">F$6*F27</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G31" s="97">
         <f t="shared" si="18"/>
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="H31" s="97">
         <f t="shared" ref="H31:H33" si="19">IFERROR(60/F31*G31,"")</f>
-        <v>22.5</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="I31" s="98">
         <f t="shared" ref="I31:L31" si="20">I$6*I27</f>
@@ -5788,23 +5788,23 @@
       </c>
       <c r="J31" s="97">
         <f t="shared" si="20"/>
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K31" s="97">
         <f t="shared" si="20"/>
-        <v>201</v>
+        <v>160.80000000000001</v>
       </c>
       <c r="L31" s="97">
         <f t="shared" si="20"/>
-        <v>4.5</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="M31" s="97">
         <f>60/F31*J31</f>
-        <v>600</v>
+        <v>533.33333333333337</v>
       </c>
       <c r="N31" s="97">
         <f t="shared" ref="N31:N33" si="21">IFERROR(K31/M31*H31,"")</f>
-        <v>7.5375000000000005</v>
+        <v>5.0250000000000004</v>
       </c>
       <c r="O31" s="97"/>
       <c r="P31" s="99">
@@ -5823,15 +5823,15 @@
       </c>
       <c r="F32" s="97">
         <f t="shared" ref="F32:G32" si="23">F$6*F28</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G32" s="97">
         <f t="shared" si="23"/>
-        <v>8.75</v>
+        <v>7.5</v>
       </c>
       <c r="H32" s="97">
         <f t="shared" si="19"/>
-        <v>26.25</v>
+        <v>25</v>
       </c>
       <c r="I32" s="98">
         <f t="shared" ref="I32:L32" si="24">I$6*I28</f>
@@ -5839,23 +5839,23 @@
       </c>
       <c r="J32" s="97">
         <f t="shared" si="24"/>
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K32" s="97">
         <f t="shared" si="24"/>
-        <v>150.75</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="L32" s="97">
         <f t="shared" si="24"/>
-        <v>4.5</v>
+        <v>4.1999999999999993</v>
       </c>
       <c r="M32" s="97">
         <f>60/F32*J32</f>
-        <v>450</v>
+        <v>466.66666666666669</v>
       </c>
       <c r="N32" s="97">
         <f t="shared" si="21"/>
-        <v>8.7937500000000011</v>
+        <v>7.5374999999999996</v>
       </c>
       <c r="O32" s="97"/>
       <c r="P32" s="99">
@@ -5874,7 +5874,7 @@
       </c>
       <c r="F33" s="97">
         <f t="shared" ref="F33:G33" si="25">F$6*F29</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G33" s="97">
         <f t="shared" si="25"/>
@@ -5882,7 +5882,7 @@
       </c>
       <c r="H33" s="97">
         <f t="shared" si="19"/>
-        <v>30</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="I33" s="98">
         <f t="shared" ref="I33:L33" si="26">I$6*I29</f>
@@ -5898,15 +5898,15 @@
       </c>
       <c r="L33" s="97">
         <f t="shared" si="26"/>
-        <v>4.5</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="M33" s="97">
         <f>60/F33*J33</f>
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="N33" s="97">
         <f t="shared" si="21"/>
-        <v>10.049999999999999</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="O33" s="97"/>
       <c r="P33" s="99">
@@ -5966,7 +5966,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G36" s="101">
         <v>5</v>
@@ -6007,7 +6007,7 @@
         <v>2</v>
       </c>
       <c r="F37" s="101">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="G37" s="101">
         <v>7.5</v>
@@ -6048,7 +6048,7 @@
         <v>3</v>
       </c>
       <c r="F38" s="101">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G38" s="101">
         <v>10</v>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="F40" s="105">
         <f t="shared" ref="F40:G40" si="27">F$6*F36</f>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G40" s="105">
         <f t="shared" si="27"/>
@@ -6139,7 +6139,7 @@
       </c>
       <c r="H40" s="105">
         <f t="shared" ref="H40:H42" si="28">IFERROR(60/F40*G40,"")</f>
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="I40" s="106">
         <f t="shared" ref="I40:L40" si="29">I$6*I36</f>
@@ -6159,11 +6159,11 @@
       </c>
       <c r="M40" s="105">
         <f>60/F40*J40</f>
-        <v>1050</v>
+        <v>350</v>
       </c>
       <c r="N40" s="105">
         <f t="shared" ref="N40:N42" si="30">IFERROR(K40/M40*H40,"")</f>
-        <v>25.125</v>
+        <v>25.124999999999996</v>
       </c>
       <c r="O40" s="105"/>
       <c r="P40" s="107">
@@ -6182,7 +6182,7 @@
       </c>
       <c r="F41" s="105">
         <f t="shared" ref="F41:G41" si="32">F$6*F37</f>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G41" s="105">
         <f t="shared" si="32"/>
@@ -6190,7 +6190,7 @@
       </c>
       <c r="H41" s="105">
         <f t="shared" si="28"/>
-        <v>112.5</v>
+        <v>50</v>
       </c>
       <c r="I41" s="106">
         <f t="shared" ref="I41:L41" si="33">I$6*I37</f>
@@ -6210,11 +6210,11 @@
       </c>
       <c r="M41" s="105">
         <f>60/F41*J41</f>
-        <v>1200</v>
+        <v>533.33333333333326</v>
       </c>
       <c r="N41" s="105">
         <f t="shared" si="30"/>
-        <v>37.6875</v>
+        <v>37.687500000000007</v>
       </c>
       <c r="O41" s="105"/>
       <c r="P41" s="107">
@@ -6233,7 +6233,7 @@
       </c>
       <c r="F42" s="105">
         <f t="shared" ref="F42:G42" si="34">F$6*F38</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G42" s="105">
         <f t="shared" si="34"/>
@@ -6241,7 +6241,7 @@
       </c>
       <c r="H42" s="105">
         <f t="shared" si="28"/>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="I42" s="106">
         <f t="shared" ref="I42:L42" si="35">I$6*I38</f>
@@ -6261,11 +6261,11 @@
       </c>
       <c r="M42" s="105">
         <f>60/F42*J42</f>
-        <v>1350</v>
+        <v>900</v>
       </c>
       <c r="N42" s="105">
         <f t="shared" si="30"/>
-        <v>50.25</v>
+        <v>50.249999999999993</v>
       </c>
       <c r="O42" s="105"/>
       <c r="P42" s="107">

--- a/0 DyTech Informations/Dytech Balance.xlsx
+++ b/0 DyTech Informations/Dytech Balance.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DyTech\0 DyTech Informations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jort\Documents\GitHub\Dytech\0 DyTech Informations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12135" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12135" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
     <sheet name="Steam" sheetId="2" r:id="rId2"/>
     <sheet name="Solar Panels" sheetId="8" r:id="rId3"/>
-    <sheet name="Laser Turrets" sheetId="3" r:id="rId4"/>
-    <sheet name="Empty Sheet" sheetId="9" r:id="rId5"/>
-    <sheet name="Gems" sheetId="10" r:id="rId6"/>
-    <sheet name="Msc" sheetId="5" r:id="rId7"/>
-    <sheet name="Dytech Balance" sheetId="6" state="hidden" r:id="rId8"/>
-    <sheet name="Msc2" sheetId="7" r:id="rId9"/>
+    <sheet name="Nuclear Reactor" sheetId="11" r:id="rId4"/>
+    <sheet name="Laser Turrets" sheetId="3" r:id="rId5"/>
+    <sheet name="Empty Sheet" sheetId="9" r:id="rId6"/>
+    <sheet name="Gems" sheetId="10" r:id="rId7"/>
+    <sheet name="Msc" sheetId="5" r:id="rId8"/>
+    <sheet name="Dytech Balance" sheetId="6" state="hidden" r:id="rId9"/>
+    <sheet name="Msc2" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -560,7 +561,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="345">
   <si>
     <t>README</t>
   </si>
@@ -1526,6 +1527,75 @@
   </si>
   <si>
     <t>Mk 1 Needed to compare power</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>U-235-0.7</t>
+  </si>
+  <si>
+    <t>U-235-1.0</t>
+  </si>
+  <si>
+    <t>U-235-1.5</t>
+  </si>
+  <si>
+    <t>U-235-2.0</t>
+  </si>
+  <si>
+    <t>U-235-2.5</t>
+  </si>
+  <si>
+    <t>U-235-3.0</t>
+  </si>
+  <si>
+    <t>U-235-3.5</t>
+  </si>
+  <si>
+    <t>U-235-4.0</t>
+  </si>
+  <si>
+    <t>U-235-4.5</t>
+  </si>
+  <si>
+    <t>U-235-5.0</t>
+  </si>
+  <si>
+    <t>Recipes</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Clean-water</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>(seconds)</t>
+  </si>
+  <si>
+    <t>only energy cost</t>
+  </si>
+  <si>
+    <t>Minable -&gt;</t>
+  </si>
+  <si>
+    <t>(kW)</t>
+  </si>
+  <si>
+    <t>Clean water recipe is based on the 500 -&gt; 460 recipe</t>
   </si>
 </sst>
 </file>
@@ -1540,7 +1610,7 @@
     <numFmt numFmtId="167" formatCode="#,##0.000"/>
     <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1631,8 +1701,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1846,6 +1922,18 @@
         <fgColor theme="6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1885,7 +1973,7 @@
     <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2090,6 +2178,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2438,6 +2532,102 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2864,6 +3054,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 15"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9677400" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 15"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9677400" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3120,6 +3406,102 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9553575"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9553575"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3440,6 +3822,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 26"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 26"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3708,7 +4186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -3733,68 +4211,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="156"/>
-      <c r="B1" s="153" t="s">
+      <c r="A1" s="162"/>
+      <c r="B1" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="153" t="s">
+      <c r="C1" s="151"/>
+      <c r="D1" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="153" t="s">
+      <c r="M1" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="145"/>
-      <c r="O1" s="145"/>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="156"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="162"/>
       <c r="U1" s="9"/>
-      <c r="V1" s="151"/>
-      <c r="W1" s="145"/>
-      <c r="X1" s="145"/>
+      <c r="V1" s="157"/>
+      <c r="W1" s="151"/>
+      <c r="X1" s="151"/>
     </row>
     <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="145"/>
-      <c r="B2" s="147" t="s">
+      <c r="A2" s="151"/>
+      <c r="B2" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="152" t="s">
+      <c r="C2" s="151"/>
+      <c r="D2" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="152" t="s">
+      <c r="L2" s="160"/>
+      <c r="M2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="144"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
+      <c r="V2" s="150"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="151"/>
     </row>
     <row r="3" spans="1:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="145"/>
+      <c r="A3" s="151"/>
       <c r="B3" s="18" t="s">
         <v>23</v>
       </c>
@@ -3817,7 +4295,7 @@
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
-      <c r="L3" s="145"/>
+      <c r="L3" s="151"/>
       <c r="M3" s="24" t="s">
         <v>82</v>
       </c>
@@ -3828,7 +4306,7 @@
         <v>84</v>
       </c>
       <c r="P3" s="24"/>
-      <c r="Q3" s="145"/>
+      <c r="Q3" s="151"/>
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
@@ -3838,7 +4316,7 @@
       <c r="X3" s="27"/>
     </row>
     <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="145"/>
+      <c r="A4" s="151"/>
       <c r="B4" s="18" t="s">
         <v>101</v>
       </c>
@@ -3860,7 +4338,7 @@
       <c r="I4" s="36"/>
       <c r="J4" s="36"/>
       <c r="K4" s="36"/>
-      <c r="L4" s="145"/>
+      <c r="L4" s="151"/>
       <c r="M4" s="29">
         <v>1</v>
       </c>
@@ -3871,7 +4349,7 @@
         <v>0.1</v>
       </c>
       <c r="P4" s="42"/>
-      <c r="Q4" s="145"/>
+      <c r="Q4" s="151"/>
       <c r="R4" s="43"/>
       <c r="S4" s="39"/>
       <c r="U4" s="43"/>
@@ -3880,7 +4358,7 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="145"/>
+      <c r="A5" s="151"/>
       <c r="B5" s="18" t="s">
         <v>108</v>
       </c>
@@ -3906,7 +4384,7 @@
       <c r="I5" s="36"/>
       <c r="J5" s="36"/>
       <c r="K5" s="36"/>
-      <c r="L5" s="145"/>
+      <c r="L5" s="151"/>
       <c r="M5" s="29">
         <v>2</v>
       </c>
@@ -3917,7 +4395,7 @@
         <v>0.2</v>
       </c>
       <c r="P5" s="42"/>
-      <c r="Q5" s="145"/>
+      <c r="Q5" s="151"/>
       <c r="R5" s="43"/>
       <c r="S5" s="39"/>
       <c r="T5" s="10"/>
@@ -3927,7 +4405,7 @@
       <c r="X5" s="10"/>
     </row>
     <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="145"/>
+      <c r="A6" s="151"/>
       <c r="B6" s="14"/>
       <c r="C6" s="45"/>
       <c r="D6" s="29">
@@ -3951,7 +4429,7 @@
       <c r="I6" s="36"/>
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
-      <c r="L6" s="145"/>
+      <c r="L6" s="151"/>
       <c r="M6" s="29">
         <v>3</v>
       </c>
@@ -3962,7 +4440,7 @@
         <v>0.3</v>
       </c>
       <c r="P6" s="42"/>
-      <c r="Q6" s="145"/>
+      <c r="Q6" s="151"/>
       <c r="R6" s="43"/>
       <c r="S6" s="39"/>
       <c r="U6" s="43"/>
@@ -3971,7 +4449,7 @@
       <c r="X6" s="10"/>
     </row>
     <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="145"/>
+      <c r="A7" s="151"/>
       <c r="B7" s="14"/>
       <c r="C7" s="45"/>
       <c r="D7" s="29">
@@ -3993,7 +4471,7 @@
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
       <c r="K7" s="36"/>
-      <c r="L7" s="145"/>
+      <c r="L7" s="151"/>
       <c r="M7" s="29">
         <v>4</v>
       </c>
@@ -4004,14 +4482,14 @@
         <v>0.4</v>
       </c>
       <c r="P7" s="42"/>
-      <c r="Q7" s="145"/>
+      <c r="Q7" s="151"/>
       <c r="R7" s="43"/>
       <c r="S7" s="39"/>
       <c r="U7" s="43"/>
       <c r="V7" s="43"/>
     </row>
     <row r="8" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="145"/>
+      <c r="A8" s="151"/>
       <c r="B8" s="14"/>
       <c r="C8" s="45"/>
       <c r="D8" s="29">
@@ -4035,7 +4513,7 @@
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
-      <c r="L8" s="145"/>
+      <c r="L8" s="151"/>
       <c r="M8" s="29">
         <v>5</v>
       </c>
@@ -4046,14 +4524,14 @@
         <v>0.5</v>
       </c>
       <c r="P8" s="42"/>
-      <c r="Q8" s="145"/>
+      <c r="Q8" s="151"/>
       <c r="R8" s="43"/>
       <c r="S8" s="39"/>
       <c r="U8" s="43"/>
       <c r="V8" s="43"/>
     </row>
     <row r="9" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="145"/>
+      <c r="A9" s="151"/>
       <c r="B9" s="14"/>
       <c r="C9" s="45"/>
       <c r="D9" s="29">
@@ -4075,7 +4553,7 @@
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
-      <c r="L9" s="145"/>
+      <c r="L9" s="151"/>
       <c r="M9" s="29">
         <v>6</v>
       </c>
@@ -4086,14 +4564,14 @@
         <v>0.6</v>
       </c>
       <c r="P9" s="42"/>
-      <c r="Q9" s="145"/>
+      <c r="Q9" s="151"/>
       <c r="R9" s="43"/>
       <c r="S9" s="39"/>
       <c r="U9" s="43"/>
       <c r="V9" s="43"/>
     </row>
     <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="145"/>
+      <c r="A10" s="151"/>
       <c r="B10" s="14"/>
       <c r="C10" s="45"/>
       <c r="D10" s="29">
@@ -4117,7 +4595,7 @@
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
-      <c r="L10" s="145"/>
+      <c r="L10" s="151"/>
       <c r="M10" s="29">
         <v>7</v>
       </c>
@@ -4128,14 +4606,14 @@
         <v>0.7</v>
       </c>
       <c r="P10" s="42"/>
-      <c r="Q10" s="145"/>
+      <c r="Q10" s="151"/>
       <c r="R10" s="43"/>
       <c r="S10" s="39"/>
       <c r="U10" s="43"/>
       <c r="V10" s="43"/>
     </row>
     <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="145"/>
+      <c r="A11" s="151"/>
       <c r="B11" s="14"/>
       <c r="C11" s="45"/>
       <c r="D11" s="29">
@@ -4159,7 +4637,7 @@
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
-      <c r="L11" s="145"/>
+      <c r="L11" s="151"/>
       <c r="M11" s="29">
         <v>8</v>
       </c>
@@ -4170,30 +4648,30 @@
         <v>0.8</v>
       </c>
       <c r="P11" s="42"/>
-      <c r="Q11" s="145"/>
+      <c r="Q11" s="151"/>
       <c r="R11" s="43"/>
       <c r="S11" s="39"/>
       <c r="U11" s="43"/>
       <c r="V11" s="43"/>
     </row>
     <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="145"/>
-      <c r="B12" s="148"/>
-      <c r="C12" s="145"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
+      <c r="A12" s="151"/>
+      <c r="B12" s="154"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="151"/>
       <c r="H12" s="56"/>
       <c r="I12" s="56"/>
       <c r="J12" s="56"/>
       <c r="K12" s="56"/>
-      <c r="L12" s="145"/>
-      <c r="M12" s="149"/>
-      <c r="N12" s="145"/>
-      <c r="O12" s="145"/>
-      <c r="P12" s="145"/>
-      <c r="Q12" s="145"/>
+      <c r="L12" s="151"/>
+      <c r="M12" s="155"/>
+      <c r="N12" s="151"/>
+      <c r="O12" s="151"/>
+      <c r="P12" s="151"/>
+      <c r="Q12" s="151"/>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
@@ -4203,37 +4681,37 @@
       <c r="X12" s="17"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="145"/>
-      <c r="B13" s="147"/>
-      <c r="C13" s="145"/>
-      <c r="D13" s="150" t="s">
+      <c r="A13" s="151"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
       <c r="H13" s="58"/>
       <c r="I13" s="58"/>
       <c r="J13" s="58"/>
       <c r="K13" s="58"/>
-      <c r="L13" s="145"/>
-      <c r="M13" s="150" t="s">
+      <c r="L13" s="151"/>
+      <c r="M13" s="156" t="s">
         <v>144</v>
       </c>
-      <c r="N13" s="145"/>
-      <c r="O13" s="145"/>
-      <c r="P13" s="145"/>
-      <c r="Q13" s="145"/>
+      <c r="N13" s="151"/>
+      <c r="O13" s="151"/>
+      <c r="P13" s="151"/>
+      <c r="Q13" s="151"/>
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
-      <c r="V13" s="144"/>
-      <c r="W13" s="145"/>
-      <c r="X13" s="145"/>
+      <c r="V13" s="150"/>
+      <c r="W13" s="151"/>
+      <c r="X13" s="151"/>
     </row>
     <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="145"/>
+      <c r="A14" s="151"/>
       <c r="B14" s="14"/>
       <c r="C14" s="45"/>
       <c r="D14" s="60" t="s">
@@ -4254,7 +4732,7 @@
       <c r="I14" s="60"/>
       <c r="J14" s="60"/>
       <c r="K14" s="60"/>
-      <c r="L14" s="145"/>
+      <c r="L14" s="151"/>
       <c r="M14" s="60" t="s">
         <v>151</v>
       </c>
@@ -4263,7 +4741,7 @@
       </c>
       <c r="O14" s="60"/>
       <c r="P14" s="60"/>
-      <c r="Q14" s="145"/>
+      <c r="Q14" s="151"/>
       <c r="R14" s="27"/>
       <c r="S14" s="27"/>
       <c r="T14" s="27"/>
@@ -4273,7 +4751,7 @@
       <c r="X14" s="27"/>
     </row>
     <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="145"/>
+      <c r="A15" s="151"/>
       <c r="B15" s="14"/>
       <c r="C15" s="45"/>
       <c r="D15" s="62">
@@ -4293,7 +4771,7 @@
       <c r="I15" s="68"/>
       <c r="J15" s="68"/>
       <c r="K15" s="68"/>
-      <c r="L15" s="145"/>
+      <c r="L15" s="151"/>
       <c r="M15" s="62">
         <v>1</v>
       </c>
@@ -4302,7 +4780,7 @@
       </c>
       <c r="O15" s="65"/>
       <c r="P15" s="65"/>
-      <c r="Q15" s="145"/>
+      <c r="Q15" s="151"/>
       <c r="R15" s="43"/>
       <c r="S15" s="39"/>
       <c r="U15" s="43"/>
@@ -4310,7 +4788,7 @@
       <c r="W15" s="10"/>
     </row>
     <row r="16" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="145"/>
+      <c r="A16" s="151"/>
       <c r="B16" s="14"/>
       <c r="C16" s="45"/>
       <c r="D16" s="62">
@@ -4332,7 +4810,7 @@
       <c r="I16" s="68"/>
       <c r="J16" s="68"/>
       <c r="K16" s="68"/>
-      <c r="L16" s="145"/>
+      <c r="L16" s="151"/>
       <c r="M16" s="62">
         <v>2</v>
       </c>
@@ -4341,7 +4819,7 @@
       </c>
       <c r="O16" s="65"/>
       <c r="P16" s="65"/>
-      <c r="Q16" s="145"/>
+      <c r="Q16" s="151"/>
       <c r="R16" s="43"/>
       <c r="S16" s="39"/>
       <c r="U16" s="43"/>
@@ -4349,7 +4827,7 @@
       <c r="W16" s="10"/>
     </row>
     <row r="17" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="145"/>
+      <c r="A17" s="151"/>
       <c r="B17" s="14"/>
       <c r="C17" s="45"/>
       <c r="D17" s="62">
@@ -4373,7 +4851,7 @@
       <c r="I17" s="68"/>
       <c r="J17" s="68"/>
       <c r="K17" s="68"/>
-      <c r="L17" s="145"/>
+      <c r="L17" s="151"/>
       <c r="M17" s="62">
         <v>3</v>
       </c>
@@ -4382,7 +4860,7 @@
       </c>
       <c r="O17" s="65"/>
       <c r="P17" s="65"/>
-      <c r="Q17" s="145"/>
+      <c r="Q17" s="151"/>
       <c r="R17" s="43"/>
       <c r="S17" s="39"/>
       <c r="U17" s="43"/>
@@ -4390,7 +4868,7 @@
       <c r="W17" s="10"/>
     </row>
     <row r="18" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="145"/>
+      <c r="A18" s="151"/>
       <c r="B18" s="14"/>
       <c r="C18" s="45"/>
       <c r="D18" s="62">
@@ -4412,7 +4890,7 @@
       <c r="I18" s="68"/>
       <c r="J18" s="68"/>
       <c r="K18" s="68"/>
-      <c r="L18" s="145"/>
+      <c r="L18" s="151"/>
       <c r="M18" s="62">
         <v>4</v>
       </c>
@@ -4421,13 +4899,13 @@
       </c>
       <c r="O18" s="65"/>
       <c r="P18" s="65"/>
-      <c r="Q18" s="145"/>
+      <c r="Q18" s="151"/>
       <c r="R18" s="43"/>
       <c r="U18" s="43"/>
       <c r="V18" s="43"/>
     </row>
     <row r="19" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="145"/>
+      <c r="A19" s="151"/>
       <c r="B19" s="14"/>
       <c r="C19" s="45"/>
       <c r="D19" s="62">
@@ -4451,7 +4929,7 @@
       <c r="I19" s="68"/>
       <c r="J19" s="68"/>
       <c r="K19" s="68"/>
-      <c r="L19" s="145"/>
+      <c r="L19" s="151"/>
       <c r="M19" s="62">
         <v>5</v>
       </c>
@@ -4460,13 +4938,13 @@
       </c>
       <c r="O19" s="65"/>
       <c r="P19" s="65"/>
-      <c r="Q19" s="145"/>
+      <c r="Q19" s="151"/>
       <c r="R19" s="43"/>
       <c r="U19" s="43"/>
       <c r="V19" s="43"/>
     </row>
     <row r="20" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="145"/>
+      <c r="A20" s="151"/>
       <c r="B20" s="14"/>
       <c r="C20" s="45"/>
       <c r="D20" s="62">
@@ -4488,7 +4966,7 @@
       <c r="I20" s="68"/>
       <c r="J20" s="68"/>
       <c r="K20" s="68"/>
-      <c r="L20" s="145"/>
+      <c r="L20" s="151"/>
       <c r="M20" s="62">
         <v>6</v>
       </c>
@@ -4497,14 +4975,14 @@
       </c>
       <c r="O20" s="65"/>
       <c r="P20" s="65"/>
-      <c r="Q20" s="145"/>
+      <c r="Q20" s="151"/>
       <c r="R20" s="43"/>
       <c r="S20" s="39"/>
       <c r="U20" s="43"/>
       <c r="V20" s="43"/>
     </row>
     <row r="21" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="145"/>
+      <c r="A21" s="151"/>
       <c r="B21" s="14"/>
       <c r="C21" s="45"/>
       <c r="D21" s="62">
@@ -4528,7 +5006,7 @@
       <c r="I21" s="68"/>
       <c r="J21" s="68"/>
       <c r="K21" s="68"/>
-      <c r="L21" s="145"/>
+      <c r="L21" s="151"/>
       <c r="M21" s="62">
         <v>7</v>
       </c>
@@ -4537,14 +5015,14 @@
       </c>
       <c r="O21" s="65"/>
       <c r="P21" s="65"/>
-      <c r="Q21" s="145"/>
+      <c r="Q21" s="151"/>
       <c r="R21" s="43"/>
       <c r="S21" s="39"/>
       <c r="U21" s="43"/>
       <c r="V21" s="43"/>
     </row>
     <row r="22" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="145"/>
+      <c r="A22" s="151"/>
       <c r="B22" s="14"/>
       <c r="C22" s="45"/>
       <c r="D22" s="62">
@@ -4568,7 +5046,7 @@
       <c r="I22" s="68"/>
       <c r="J22" s="68"/>
       <c r="K22" s="68"/>
-      <c r="L22" s="145"/>
+      <c r="L22" s="151"/>
       <c r="M22" s="62">
         <v>8</v>
       </c>
@@ -4577,30 +5055,30 @@
       </c>
       <c r="O22" s="65"/>
       <c r="P22" s="65"/>
-      <c r="Q22" s="145"/>
+      <c r="Q22" s="151"/>
       <c r="R22" s="43"/>
       <c r="S22" s="39"/>
       <c r="U22" s="43"/>
       <c r="V22" s="43"/>
     </row>
     <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="145"/>
-      <c r="B23" s="148"/>
-      <c r="C23" s="145"/>
-      <c r="D23" s="149"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
+      <c r="A23" s="151"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="151"/>
       <c r="H23" s="56"/>
       <c r="I23" s="56"/>
       <c r="J23" s="56"/>
       <c r="K23" s="56"/>
-      <c r="L23" s="145"/>
-      <c r="M23" s="149"/>
-      <c r="N23" s="145"/>
-      <c r="O23" s="145"/>
-      <c r="P23" s="145"/>
-      <c r="Q23" s="145"/>
+      <c r="L23" s="151"/>
+      <c r="M23" s="155"/>
+      <c r="N23" s="151"/>
+      <c r="O23" s="151"/>
+      <c r="P23" s="151"/>
+      <c r="Q23" s="151"/>
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
       <c r="T23" s="17"/>
@@ -4610,39 +5088,39 @@
       <c r="X23" s="17"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="145"/>
-      <c r="B24" s="147" t="s">
+      <c r="A24" s="151"/>
+      <c r="B24" s="153" t="s">
         <v>177</v>
       </c>
-      <c r="C24" s="145"/>
-      <c r="D24" s="146" t="s">
+      <c r="C24" s="151"/>
+      <c r="D24" s="152" t="s">
         <v>178</v>
       </c>
-      <c r="E24" s="145"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="145"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
       <c r="H24" s="74"/>
       <c r="I24" s="74"/>
       <c r="J24" s="74"/>
       <c r="K24" s="74"/>
-      <c r="L24" s="145"/>
-      <c r="M24" s="146" t="s">
+      <c r="L24" s="151"/>
+      <c r="M24" s="152" t="s">
         <v>179</v>
       </c>
-      <c r="N24" s="145"/>
-      <c r="O24" s="145"/>
-      <c r="P24" s="145"/>
-      <c r="Q24" s="145"/>
+      <c r="N24" s="151"/>
+      <c r="O24" s="151"/>
+      <c r="P24" s="151"/>
+      <c r="Q24" s="151"/>
       <c r="R24" s="17"/>
       <c r="S24" s="17"/>
       <c r="T24" s="17"/>
       <c r="U24" s="17"/>
-      <c r="V24" s="144"/>
-      <c r="W24" s="145"/>
-      <c r="X24" s="145"/>
+      <c r="V24" s="150"/>
+      <c r="W24" s="151"/>
+      <c r="X24" s="151"/>
     </row>
     <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="145"/>
+      <c r="A25" s="151"/>
       <c r="B25" s="14" t="s">
         <v>180</v>
       </c>
@@ -4673,7 +5151,7 @@
       <c r="K25" s="76" t="s">
         <v>190</v>
       </c>
-      <c r="L25" s="145"/>
+      <c r="L25" s="151"/>
       <c r="M25" s="76" t="s">
         <v>191</v>
       </c>
@@ -4686,7 +5164,7 @@
       <c r="P25" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="Q25" s="145"/>
+      <c r="Q25" s="151"/>
       <c r="R25" s="27"/>
       <c r="S25" s="27"/>
       <c r="T25" s="27"/>
@@ -4696,7 +5174,7 @@
       <c r="X25" s="27"/>
     </row>
     <row r="26" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="145"/>
+      <c r="A26" s="151"/>
       <c r="B26" s="14" t="s">
         <v>195</v>
       </c>
@@ -4730,7 +5208,7 @@
         <f>E26/E26</f>
         <v>1</v>
       </c>
-      <c r="L26" s="145"/>
+      <c r="L26" s="151"/>
       <c r="M26" s="77">
         <v>1</v>
       </c>
@@ -4743,7 +5221,7 @@
       <c r="P26" s="81">
         <v>0.2</v>
       </c>
-      <c r="Q26" s="145"/>
+      <c r="Q26" s="151"/>
       <c r="R26" s="43"/>
       <c r="U26" s="43"/>
       <c r="V26" s="43"/>
@@ -4751,7 +5229,7 @@
       <c r="X26" s="10"/>
     </row>
     <row r="27" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="145"/>
+      <c r="A27" s="151"/>
       <c r="B27" s="14"/>
       <c r="C27" s="45"/>
       <c r="D27" s="77">
@@ -4782,7 +5260,7 @@
         <f t="shared" ref="K27:K33" si="11">E27/E$26</f>
         <v>2</v>
       </c>
-      <c r="L27" s="145"/>
+      <c r="L27" s="151"/>
       <c r="M27" s="77">
         <v>2</v>
       </c>
@@ -4795,7 +5273,7 @@
       <c r="P27" s="81">
         <v>0.4</v>
       </c>
-      <c r="Q27" s="145"/>
+      <c r="Q27" s="151"/>
       <c r="R27" s="43"/>
       <c r="U27" s="43"/>
       <c r="V27" s="43"/>
@@ -4803,7 +5281,7 @@
       <c r="X27" s="10"/>
     </row>
     <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="145"/>
+      <c r="A28" s="151"/>
       <c r="B28" s="14"/>
       <c r="C28" s="45"/>
       <c r="D28" s="77">
@@ -4836,7 +5314,7 @@
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="L28" s="145"/>
+      <c r="L28" s="151"/>
       <c r="M28" s="77">
         <v>3</v>
       </c>
@@ -4849,7 +5327,7 @@
       <c r="P28" s="81">
         <v>0.6</v>
       </c>
-      <c r="Q28" s="145"/>
+      <c r="Q28" s="151"/>
       <c r="R28" s="43"/>
       <c r="U28" s="43"/>
       <c r="V28" s="43"/>
@@ -4857,7 +5335,7 @@
       <c r="X28" s="10"/>
     </row>
     <row r="29" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="145"/>
+      <c r="A29" s="151"/>
       <c r="B29" s="14"/>
       <c r="C29" s="45"/>
       <c r="D29" s="77">
@@ -4888,7 +5366,7 @@
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="L29" s="145"/>
+      <c r="L29" s="151"/>
       <c r="M29" s="77">
         <v>4</v>
       </c>
@@ -4901,13 +5379,13 @@
       <c r="P29" s="81">
         <v>0.8</v>
       </c>
-      <c r="Q29" s="145"/>
+      <c r="Q29" s="151"/>
       <c r="R29" s="43"/>
       <c r="U29" s="43"/>
       <c r="V29" s="43"/>
     </row>
     <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="145"/>
+      <c r="A30" s="151"/>
       <c r="B30" s="14"/>
       <c r="C30" s="45"/>
       <c r="D30" s="77">
@@ -4940,7 +5418,7 @@
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="L30" s="145"/>
+      <c r="L30" s="151"/>
       <c r="M30" s="77">
         <v>5</v>
       </c>
@@ -4953,13 +5431,13 @@
       <c r="P30" s="81">
         <v>1</v>
       </c>
-      <c r="Q30" s="145"/>
+      <c r="Q30" s="151"/>
       <c r="R30" s="43"/>
       <c r="U30" s="43"/>
       <c r="V30" s="43"/>
     </row>
     <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="145"/>
+      <c r="A31" s="151"/>
       <c r="B31" s="14"/>
       <c r="C31" s="45"/>
       <c r="D31" s="77">
@@ -4990,7 +5468,7 @@
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="L31" s="145"/>
+      <c r="L31" s="151"/>
       <c r="M31" s="77">
         <v>6</v>
       </c>
@@ -5003,13 +5481,13 @@
       <c r="P31" s="81">
         <v>1.2</v>
       </c>
-      <c r="Q31" s="145"/>
+      <c r="Q31" s="151"/>
       <c r="R31" s="43"/>
       <c r="U31" s="43"/>
       <c r="V31" s="43"/>
     </row>
     <row r="32" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="145"/>
+      <c r="A32" s="151"/>
       <c r="B32" s="14"/>
       <c r="C32" s="45"/>
       <c r="D32" s="77">
@@ -5042,7 +5520,7 @@
         <f t="shared" si="11"/>
         <v>13.999999999999998</v>
       </c>
-      <c r="L32" s="145"/>
+      <c r="L32" s="151"/>
       <c r="M32" s="77">
         <v>7</v>
       </c>
@@ -5055,13 +5533,13 @@
       <c r="P32" s="81">
         <v>1.6</v>
       </c>
-      <c r="Q32" s="145"/>
+      <c r="Q32" s="151"/>
       <c r="R32" s="43"/>
       <c r="U32" s="43"/>
       <c r="V32" s="43"/>
     </row>
     <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="145"/>
+      <c r="A33" s="151"/>
       <c r="B33" s="14"/>
       <c r="C33" s="45"/>
       <c r="D33" s="77">
@@ -5094,7 +5572,7 @@
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="L33" s="145"/>
+      <c r="L33" s="151"/>
       <c r="M33" s="77">
         <v>8</v>
       </c>
@@ -5107,55 +5585,55 @@
       <c r="P33" s="81">
         <v>2</v>
       </c>
-      <c r="Q33" s="145"/>
+      <c r="Q33" s="151"/>
       <c r="R33" s="43"/>
       <c r="U33" s="43"/>
       <c r="V33" s="43"/>
     </row>
     <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="145"/>
-      <c r="B34" s="148"/>
-      <c r="C34" s="145"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="145"/>
-      <c r="F34" s="145"/>
-      <c r="G34" s="145"/>
+      <c r="A34" s="151"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="151"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="151"/>
+      <c r="F34" s="151"/>
+      <c r="G34" s="151"/>
       <c r="H34" s="56"/>
       <c r="I34" s="56"/>
       <c r="J34" s="56"/>
       <c r="K34" s="56"/>
-      <c r="L34" s="145"/>
-      <c r="M34" s="149"/>
-      <c r="N34" s="145"/>
-      <c r="O34" s="145"/>
-      <c r="P34" s="145"/>
-      <c r="Q34" s="145"/>
+      <c r="L34" s="151"/>
+      <c r="M34" s="155"/>
+      <c r="N34" s="151"/>
+      <c r="O34" s="151"/>
+      <c r="P34" s="151"/>
+      <c r="Q34" s="151"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="145"/>
-      <c r="B35" s="147"/>
-      <c r="C35" s="145"/>
-      <c r="D35" s="155" t="s">
+      <c r="A35" s="151"/>
+      <c r="B35" s="153"/>
+      <c r="C35" s="151"/>
+      <c r="D35" s="161" t="s">
         <v>238</v>
       </c>
-      <c r="E35" s="145"/>
-      <c r="F35" s="145"/>
-      <c r="G35" s="145"/>
+      <c r="E35" s="151"/>
+      <c r="F35" s="151"/>
+      <c r="G35" s="151"/>
       <c r="H35" s="96"/>
       <c r="I35" s="96"/>
       <c r="J35" s="96"/>
       <c r="K35" s="96"/>
-      <c r="L35" s="145"/>
-      <c r="M35" s="155" t="s">
+      <c r="L35" s="151"/>
+      <c r="M35" s="161" t="s">
         <v>239</v>
       </c>
-      <c r="N35" s="145"/>
-      <c r="O35" s="145"/>
-      <c r="P35" s="145"/>
-      <c r="Q35" s="145"/>
+      <c r="N35" s="151"/>
+      <c r="O35" s="151"/>
+      <c r="P35" s="151"/>
+      <c r="Q35" s="151"/>
     </row>
     <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="145"/>
+      <c r="A36" s="151"/>
       <c r="B36" s="14"/>
       <c r="C36" s="45"/>
       <c r="D36" s="97" t="s">
@@ -5174,7 +5652,7 @@
       <c r="I36" s="97"/>
       <c r="J36" s="97"/>
       <c r="K36" s="97"/>
-      <c r="L36" s="145"/>
+      <c r="L36" s="151"/>
       <c r="M36" s="97" t="s">
         <v>244</v>
       </c>
@@ -5183,10 +5661,10 @@
       </c>
       <c r="O36" s="97"/>
       <c r="P36" s="97"/>
-      <c r="Q36" s="145"/>
+      <c r="Q36" s="151"/>
     </row>
     <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="145"/>
+      <c r="A37" s="151"/>
       <c r="B37" s="14"/>
       <c r="C37" s="45"/>
       <c r="D37" s="99">
@@ -5204,7 +5682,7 @@
       <c r="I37" s="53"/>
       <c r="J37" s="53"/>
       <c r="K37" s="53"/>
-      <c r="L37" s="145"/>
+      <c r="L37" s="151"/>
       <c r="M37" s="99">
         <v>1</v>
       </c>
@@ -5213,10 +5691,10 @@
       </c>
       <c r="O37" s="53"/>
       <c r="P37" s="53"/>
-      <c r="Q37" s="145"/>
+      <c r="Q37" s="151"/>
     </row>
     <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="145"/>
+      <c r="A38" s="151"/>
       <c r="B38" s="14"/>
       <c r="C38" s="45"/>
       <c r="D38" s="99">
@@ -5235,7 +5713,7 @@
       <c r="I38" s="53"/>
       <c r="J38" s="53"/>
       <c r="K38" s="53"/>
-      <c r="L38" s="145"/>
+      <c r="L38" s="151"/>
       <c r="M38" s="99">
         <v>2</v>
       </c>
@@ -5244,10 +5722,10 @@
       </c>
       <c r="O38" s="53"/>
       <c r="P38" s="53"/>
-      <c r="Q38" s="145"/>
+      <c r="Q38" s="151"/>
     </row>
     <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="145"/>
+      <c r="A39" s="151"/>
       <c r="B39" s="14"/>
       <c r="C39" s="45"/>
       <c r="D39" s="99">
@@ -5268,7 +5746,7 @@
       <c r="I39" s="53"/>
       <c r="J39" s="53"/>
       <c r="K39" s="53"/>
-      <c r="L39" s="145"/>
+      <c r="L39" s="151"/>
       <c r="M39" s="99">
         <v>3</v>
       </c>
@@ -5277,10 +5755,10 @@
       </c>
       <c r="O39" s="53"/>
       <c r="P39" s="53"/>
-      <c r="Q39" s="145"/>
+      <c r="Q39" s="151"/>
     </row>
     <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="145"/>
+      <c r="A40" s="151"/>
       <c r="B40" s="14"/>
       <c r="C40" s="45"/>
       <c r="D40" s="99">
@@ -5299,7 +5777,7 @@
       <c r="I40" s="53"/>
       <c r="J40" s="53"/>
       <c r="K40" s="53"/>
-      <c r="L40" s="145"/>
+      <c r="L40" s="151"/>
       <c r="M40" s="99">
         <v>4</v>
       </c>
@@ -5308,10 +5786,10 @@
       </c>
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
-      <c r="Q40" s="145"/>
+      <c r="Q40" s="151"/>
     </row>
     <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="145"/>
+      <c r="A41" s="151"/>
       <c r="B41" s="14"/>
       <c r="C41" s="45"/>
       <c r="D41" s="99">
@@ -5332,7 +5810,7 @@
       <c r="I41" s="53"/>
       <c r="J41" s="53"/>
       <c r="K41" s="53"/>
-      <c r="L41" s="145"/>
+      <c r="L41" s="151"/>
       <c r="M41" s="99">
         <v>5</v>
       </c>
@@ -5341,10 +5819,10 @@
       </c>
       <c r="O41" s="53"/>
       <c r="P41" s="53"/>
-      <c r="Q41" s="145"/>
+      <c r="Q41" s="151"/>
     </row>
     <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="145"/>
+      <c r="A42" s="151"/>
       <c r="B42" s="14"/>
       <c r="C42" s="45"/>
       <c r="D42" s="99">
@@ -5363,7 +5841,7 @@
       <c r="I42" s="53"/>
       <c r="J42" s="53"/>
       <c r="K42" s="53"/>
-      <c r="L42" s="145"/>
+      <c r="L42" s="151"/>
       <c r="M42" s="99">
         <v>6</v>
       </c>
@@ -5372,10 +5850,10 @@
       </c>
       <c r="O42" s="53"/>
       <c r="P42" s="53"/>
-      <c r="Q42" s="145"/>
+      <c r="Q42" s="151"/>
     </row>
     <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="145"/>
+      <c r="A43" s="151"/>
       <c r="B43" s="14"/>
       <c r="C43" s="45"/>
       <c r="D43" s="99">
@@ -5396,7 +5874,7 @@
       <c r="I43" s="53"/>
       <c r="J43" s="53"/>
       <c r="K43" s="53"/>
-      <c r="L43" s="145"/>
+      <c r="L43" s="151"/>
       <c r="M43" s="99">
         <v>7</v>
       </c>
@@ -5405,10 +5883,10 @@
       </c>
       <c r="O43" s="53"/>
       <c r="P43" s="53"/>
-      <c r="Q43" s="145"/>
+      <c r="Q43" s="151"/>
     </row>
     <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="145"/>
+      <c r="A44" s="151"/>
       <c r="B44" s="14"/>
       <c r="C44" s="45"/>
       <c r="D44" s="99">
@@ -5429,7 +5907,7 @@
       <c r="I44" s="53"/>
       <c r="J44" s="53"/>
       <c r="K44" s="53"/>
-      <c r="L44" s="145"/>
+      <c r="L44" s="151"/>
       <c r="M44" s="99">
         <v>8</v>
       </c>
@@ -5438,52 +5916,52 @@
       </c>
       <c r="O44" s="53"/>
       <c r="P44" s="53"/>
-      <c r="Q44" s="145"/>
+      <c r="Q44" s="151"/>
     </row>
     <row r="45" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="145"/>
-      <c r="B45" s="148"/>
-      <c r="C45" s="145"/>
-      <c r="D45" s="149"/>
-      <c r="E45" s="145"/>
-      <c r="F45" s="145"/>
-      <c r="G45" s="145"/>
+      <c r="A45" s="151"/>
+      <c r="B45" s="154"/>
+      <c r="C45" s="151"/>
+      <c r="D45" s="155"/>
+      <c r="E45" s="151"/>
+      <c r="F45" s="151"/>
+      <c r="G45" s="151"/>
       <c r="H45" s="56"/>
       <c r="I45" s="56"/>
       <c r="J45" s="56"/>
       <c r="K45" s="56"/>
-      <c r="L45" s="145"/>
-      <c r="M45" s="149"/>
-      <c r="N45" s="145"/>
-      <c r="O45" s="145"/>
-      <c r="P45" s="145"/>
-      <c r="Q45" s="145"/>
+      <c r="L45" s="151"/>
+      <c r="M45" s="155"/>
+      <c r="N45" s="151"/>
+      <c r="O45" s="151"/>
+      <c r="P45" s="151"/>
+      <c r="Q45" s="151"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="145"/>
-      <c r="B46" s="147"/>
-      <c r="C46" s="145"/>
-      <c r="D46" s="157" t="s">
+      <c r="A46" s="151"/>
+      <c r="B46" s="153"/>
+      <c r="C46" s="151"/>
+      <c r="D46" s="163" t="s">
         <v>258</v>
       </c>
-      <c r="E46" s="145"/>
-      <c r="F46" s="145"/>
-      <c r="G46" s="145"/>
+      <c r="E46" s="151"/>
+      <c r="F46" s="151"/>
+      <c r="G46" s="151"/>
       <c r="H46" s="106"/>
       <c r="I46" s="106"/>
       <c r="J46" s="106"/>
       <c r="K46" s="106"/>
-      <c r="L46" s="145"/>
-      <c r="M46" s="157" t="s">
+      <c r="L46" s="151"/>
+      <c r="M46" s="163" t="s">
         <v>262</v>
       </c>
-      <c r="N46" s="145"/>
-      <c r="O46" s="145"/>
-      <c r="P46" s="145"/>
-      <c r="Q46" s="145"/>
+      <c r="N46" s="151"/>
+      <c r="O46" s="151"/>
+      <c r="P46" s="151"/>
+      <c r="Q46" s="151"/>
     </row>
     <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="145"/>
+      <c r="A47" s="151"/>
       <c r="B47" s="14"/>
       <c r="C47" s="45"/>
       <c r="D47" s="108" t="s">
@@ -5500,7 +5978,7 @@
       <c r="I47" s="108"/>
       <c r="J47" s="108"/>
       <c r="K47" s="108"/>
-      <c r="L47" s="145"/>
+      <c r="L47" s="151"/>
       <c r="M47" s="108" t="s">
         <v>273</v>
       </c>
@@ -5509,10 +5987,10 @@
       </c>
       <c r="O47" s="108"/>
       <c r="P47" s="108"/>
-      <c r="Q47" s="145"/>
+      <c r="Q47" s="151"/>
     </row>
     <row r="48" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="145"/>
+      <c r="A48" s="151"/>
       <c r="B48" s="14"/>
       <c r="C48" s="45"/>
       <c r="D48" s="110">
@@ -5527,7 +6005,7 @@
       <c r="I48" s="113"/>
       <c r="J48" s="113"/>
       <c r="K48" s="113"/>
-      <c r="L48" s="145"/>
+      <c r="L48" s="151"/>
       <c r="M48" s="110">
         <v>1</v>
       </c>
@@ -5536,10 +6014,10 @@
       </c>
       <c r="O48" s="113"/>
       <c r="P48" s="113"/>
-      <c r="Q48" s="145"/>
+      <c r="Q48" s="151"/>
     </row>
     <row r="49" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="145"/>
+      <c r="A49" s="151"/>
       <c r="B49" s="14"/>
       <c r="C49" s="45"/>
       <c r="D49" s="110">
@@ -5555,7 +6033,7 @@
       <c r="I49" s="113"/>
       <c r="J49" s="113"/>
       <c r="K49" s="113"/>
-      <c r="L49" s="145"/>
+      <c r="L49" s="151"/>
       <c r="M49" s="110">
         <v>2</v>
       </c>
@@ -5564,10 +6042,10 @@
       </c>
       <c r="O49" s="113"/>
       <c r="P49" s="113"/>
-      <c r="Q49" s="145"/>
+      <c r="Q49" s="151"/>
     </row>
     <row r="50" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="145"/>
+      <c r="A50" s="151"/>
       <c r="B50" s="14"/>
       <c r="C50" s="45"/>
       <c r="D50" s="110">
@@ -5585,7 +6063,7 @@
       <c r="I50" s="113"/>
       <c r="J50" s="113"/>
       <c r="K50" s="113"/>
-      <c r="L50" s="145"/>
+      <c r="L50" s="151"/>
       <c r="M50" s="110">
         <v>3</v>
       </c>
@@ -5594,10 +6072,10 @@
       </c>
       <c r="O50" s="113"/>
       <c r="P50" s="113"/>
-      <c r="Q50" s="145"/>
+      <c r="Q50" s="151"/>
     </row>
     <row r="51" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="145"/>
+      <c r="A51" s="151"/>
       <c r="B51" s="14"/>
       <c r="C51" s="45"/>
       <c r="D51" s="110">
@@ -5613,7 +6091,7 @@
       <c r="I51" s="113"/>
       <c r="J51" s="113"/>
       <c r="K51" s="113"/>
-      <c r="L51" s="145"/>
+      <c r="L51" s="151"/>
       <c r="M51" s="110">
         <v>4</v>
       </c>
@@ -5622,10 +6100,10 @@
       </c>
       <c r="O51" s="113"/>
       <c r="P51" s="113"/>
-      <c r="Q51" s="145"/>
+      <c r="Q51" s="151"/>
     </row>
     <row r="52" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="145"/>
+      <c r="A52" s="151"/>
       <c r="B52" s="14"/>
       <c r="C52" s="45"/>
       <c r="D52" s="110">
@@ -5643,7 +6121,7 @@
       <c r="I52" s="113"/>
       <c r="J52" s="113"/>
       <c r="K52" s="113"/>
-      <c r="L52" s="145"/>
+      <c r="L52" s="151"/>
       <c r="M52" s="110">
         <v>5</v>
       </c>
@@ -5652,10 +6130,10 @@
       </c>
       <c r="O52" s="113"/>
       <c r="P52" s="113"/>
-      <c r="Q52" s="145"/>
+      <c r="Q52" s="151"/>
     </row>
     <row r="53" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="145"/>
+      <c r="A53" s="151"/>
       <c r="B53" s="14"/>
       <c r="C53" s="45"/>
       <c r="D53" s="110">
@@ -5671,7 +6149,7 @@
       <c r="I53" s="113"/>
       <c r="J53" s="113"/>
       <c r="K53" s="113"/>
-      <c r="L53" s="145"/>
+      <c r="L53" s="151"/>
       <c r="M53" s="110">
         <v>6</v>
       </c>
@@ -5680,10 +6158,10 @@
       </c>
       <c r="O53" s="113"/>
       <c r="P53" s="113"/>
-      <c r="Q53" s="145"/>
+      <c r="Q53" s="151"/>
     </row>
     <row r="54" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="145"/>
+      <c r="A54" s="151"/>
       <c r="B54" s="14"/>
       <c r="C54" s="45"/>
       <c r="D54" s="110">
@@ -5701,7 +6179,7 @@
       <c r="I54" s="113"/>
       <c r="J54" s="113"/>
       <c r="K54" s="113"/>
-      <c r="L54" s="145"/>
+      <c r="L54" s="151"/>
       <c r="M54" s="110">
         <v>7</v>
       </c>
@@ -5710,10 +6188,10 @@
       </c>
       <c r="O54" s="113"/>
       <c r="P54" s="113"/>
-      <c r="Q54" s="145"/>
+      <c r="Q54" s="151"/>
     </row>
     <row r="55" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="145"/>
+      <c r="A55" s="151"/>
       <c r="B55" s="14"/>
       <c r="C55" s="45"/>
       <c r="D55" s="110">
@@ -5731,7 +6209,7 @@
       <c r="I55" s="113"/>
       <c r="J55" s="113"/>
       <c r="K55" s="113"/>
-      <c r="L55" s="145"/>
+      <c r="L55" s="151"/>
       <c r="M55" s="110">
         <v>8</v>
       </c>
@@ -5740,26 +6218,26 @@
       </c>
       <c r="O55" s="113"/>
       <c r="P55" s="113"/>
-      <c r="Q55" s="145"/>
+      <c r="Q55" s="151"/>
     </row>
     <row r="56" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="145"/>
+      <c r="A56" s="151"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="156"/>
-      <c r="E56" s="145"/>
-      <c r="F56" s="145"/>
-      <c r="G56" s="145"/>
-      <c r="H56" s="145"/>
-      <c r="I56" s="145"/>
-      <c r="J56" s="145"/>
-      <c r="K56" s="145"/>
-      <c r="L56" s="145"/>
-      <c r="M56" s="145"/>
-      <c r="N56" s="145"/>
-      <c r="O56" s="145"/>
-      <c r="P56" s="145"/>
-      <c r="Q56" s="145"/>
+      <c r="D56" s="162"/>
+      <c r="E56" s="151"/>
+      <c r="F56" s="151"/>
+      <c r="G56" s="151"/>
+      <c r="H56" s="151"/>
+      <c r="I56" s="151"/>
+      <c r="J56" s="151"/>
+      <c r="K56" s="151"/>
+      <c r="L56" s="151"/>
+      <c r="M56" s="151"/>
+      <c r="N56" s="151"/>
+      <c r="O56" s="151"/>
+      <c r="P56" s="151"/>
+      <c r="Q56" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -5808,12 +6286,416 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <f>65+14</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <f>B1*14</f>
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <f>B1*10</f>
+        <v>790</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <f>B3*510/1000</f>
+        <v>402.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <f>B4/25</f>
+        <v>16.116</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C6" si="0">B5*60</f>
+        <v>966.96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <f>B4/8</f>
+        <v>50.362499999999997</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>3021.75</v>
+      </c>
+      <c r="D6">
+        <f>5000000/C6</f>
+        <v>1654.670306941342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <f>D6/60</f>
+        <v>27.577838449022366</v>
+      </c>
+      <c r="G7">
+        <f>G8*8</f>
+        <v>299.52</v>
+      </c>
+      <c r="H7">
+        <f>G7*35</f>
+        <v>10483.199999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="10">
+        <v>1.56</v>
+      </c>
+      <c r="G8">
+        <f>G9*F8/F9</f>
+        <v>37.44</v>
+      </c>
+      <c r="H8">
+        <f>G8*H9</f>
+        <v>1347.84</v>
+      </c>
+      <c r="I8">
+        <f>H8*3</f>
+        <v>4043.5199999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1.56</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="H9" s="10">
+        <v>36</v>
+      </c>
+      <c r="I9">
+        <f>I8/6</f>
+        <v>673.92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="10">
+        <v>70</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <f>8*6</f>
+        <v>48</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10">
+        <f>I8/G15</f>
+        <v>673.92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <f>B9*2</f>
+        <v>3.12</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11">
+        <f>I10/37.5</f>
+        <v>17.9712</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <f>B11*B10</f>
+        <v>218.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="10">
+        <v>6</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="10">
+        <v>6</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16">
+        <f>G14/G15</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="10">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <f>8*2*1.5</f>
+        <v>24</v>
+      </c>
+      <c r="F18" s="10">
+        <f>11*6</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="10">
+        <v>510</v>
+      </c>
+      <c r="F19">
+        <f>25</f>
+        <v>25</v>
+      </c>
+      <c r="G19">
+        <f>200-25</f>
+        <v>175</v>
+      </c>
+      <c r="H19">
+        <f>13/10</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20">
+        <f>B19*B18</f>
+        <v>5100</v>
+      </c>
+      <c r="E20">
+        <f>0.3*2.4</f>
+        <v>0.72</v>
+      </c>
+      <c r="H20">
+        <f>638*8</f>
+        <v>5104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E21">
+        <f>E20*25*1.1</f>
+        <v>19.8</v>
+      </c>
+      <c r="F21">
+        <f>E21*2</f>
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="10">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <f>E21*8</f>
+        <v>158.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23">
+        <f>B22/B21</f>
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <f>62*1000000</f>
+        <v>62000000</v>
+      </c>
+      <c r="I23" s="10">
+        <f>8*6*1.3</f>
+        <v>62.400000000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="10">
+        <f>390*13</f>
+        <v>5070</v>
+      </c>
+      <c r="G24">
+        <f>G23/500</f>
+        <v>124000</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <f>G24/60/60</f>
+        <v>34.444444444444443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <v>1</v>
+      </c>
+      <c r="B27" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
+        <v>390</v>
+      </c>
+      <c r="B28">
+        <f>B27*A28/A27</f>
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E31" s="10">
+        <v>390</v>
+      </c>
+      <c r="F31">
+        <f>F32*E31</f>
+        <v>3120</v>
+      </c>
+      <c r="H31" s="10">
+        <f>6*1.5</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="10">
+        <v>1</v>
+      </c>
+      <c r="F32" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <f>8*9</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <f>7.5/25*2.4</f>
+        <v>0.72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5834,18 +6716,18 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
       <c r="L1" s="12"/>
       <c r="M1" s="117"/>
       <c r="N1" s="117"/>
@@ -6244,11 +7126,11 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="162" t="s">
+      <c r="A9" s="168" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="145"/>
-      <c r="C9" s="145"/>
+      <c r="B9" s="151"/>
+      <c r="C9" s="151"/>
       <c r="M9" s="140" t="s">
         <v>293</v>
       </c>
@@ -6258,10 +7140,10 @@
       <c r="O9" s="140"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="161" t="s">
+      <c r="A10" s="167" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="145"/>
+      <c r="B10" s="151"/>
       <c r="C10" s="50">
         <f>C4*14/5100</f>
         <v>1.6016000000000001</v>
@@ -6273,20 +7155,20 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="161" t="s">
+      <c r="A11" s="167" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="145"/>
+      <c r="B11" s="151"/>
       <c r="C11" s="51">
         <v>1</v>
       </c>
       <c r="D11" s="51"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="161" t="s">
+      <c r="A12" s="167" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="145"/>
+      <c r="B12" s="151"/>
       <c r="C12" s="121">
         <v>1.55</v>
       </c>
@@ -6298,10 +7180,10 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="161" t="s">
+      <c r="A13" s="167" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="145"/>
+      <c r="B13" s="151"/>
       <c r="C13" s="53">
         <v>0.8</v>
       </c>
@@ -6317,10 +7199,10 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="161" t="s">
+      <c r="A14" s="167" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="145"/>
+      <c r="B14" s="151"/>
       <c r="C14" s="53">
         <v>10</v>
       </c>
@@ -6335,10 +7217,10 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="159" t="s">
+      <c r="A15" s="165" t="s">
         <v>311</v>
       </c>
-      <c r="B15" s="145"/>
+      <c r="B15" s="151"/>
       <c r="C15" s="121">
         <v>1.3</v>
       </c>
@@ -6357,10 +7239,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="160" t="s">
+      <c r="A16" s="166" t="s">
         <v>312</v>
       </c>
-      <c r="B16" s="145"/>
+      <c r="B16" s="151"/>
       <c r="C16" s="138">
         <v>1.1000000000000001</v>
       </c>
@@ -6376,10 +7258,10 @@
       <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="160" t="s">
+      <c r="A17" s="166" t="s">
         <v>310</v>
       </c>
-      <c r="B17" s="145"/>
+      <c r="B17" s="151"/>
       <c r="C17" s="138">
         <v>1</v>
       </c>
@@ -6395,8 +7277,8 @@
       <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="158"/>
-      <c r="B18" s="145"/>
+      <c r="A18" s="164"/>
+      <c r="B18" s="151"/>
       <c r="C18" s="53"/>
       <c r="D18" s="53"/>
       <c r="E18" s="10">
@@ -6410,8 +7292,8 @@
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="158"/>
-      <c r="B19" s="145"/>
+      <c r="A19" s="164"/>
+      <c r="B19" s="151"/>
       <c r="C19" s="53"/>
       <c r="D19" s="53"/>
     </row>
@@ -6526,7 +7408,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="A26" sqref="A26:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6541,13 +7423,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="D1" s="163" t="s">
+      <c r="D1" s="169" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="D2" s="130" t="s">
@@ -6871,92 +7753,92 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="162" t="s">
+      <c r="A26" s="168" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="145"/>
-      <c r="C26" s="145"/>
+      <c r="B26" s="151"/>
+      <c r="C26" s="151"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="159" t="s">
+      <c r="A27" s="165" t="s">
         <v>302</v>
       </c>
-      <c r="B27" s="145"/>
+      <c r="B27" s="151"/>
       <c r="C27" s="129">
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="159"/>
-      <c r="B28" s="145"/>
+      <c r="A28" s="165"/>
+      <c r="B28" s="151"/>
       <c r="C28" s="139"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="159" t="s">
+      <c r="A29" s="165" t="s">
         <v>303</v>
       </c>
-      <c r="B29" s="145"/>
+      <c r="B29" s="151"/>
       <c r="C29" s="121">
         <v>0.79</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="159" t="s">
+      <c r="A30" s="165" t="s">
         <v>299</v>
       </c>
-      <c r="B30" s="159"/>
+      <c r="B30" s="165"/>
       <c r="C30" s="138">
         <f>C29*C$34</f>
         <v>1.1850000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="159" t="s">
+      <c r="A31" s="165" t="s">
         <v>298</v>
       </c>
-      <c r="B31" s="159"/>
+      <c r="B31" s="165"/>
       <c r="C31" s="138">
         <f t="shared" ref="C31:C33" si="5">C30*C$34</f>
         <v>1.7775000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="159" t="s">
+      <c r="A32" s="165" t="s">
         <v>300</v>
       </c>
-      <c r="B32" s="159"/>
+      <c r="B32" s="165"/>
       <c r="C32" s="138">
         <f t="shared" si="5"/>
         <v>2.6662500000000002</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="160" t="s">
+      <c r="A33" s="166" t="s">
         <v>301</v>
       </c>
-      <c r="B33" s="158"/>
+      <c r="B33" s="164"/>
       <c r="C33" s="138">
         <f t="shared" si="5"/>
         <v>3.9993750000000006</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="160" t="s">
+      <c r="A34" s="166" t="s">
         <v>304</v>
       </c>
-      <c r="B34" s="145"/>
+      <c r="B34" s="151"/>
       <c r="C34" s="53">
         <v>1.5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="158"/>
-      <c r="B35" s="145"/>
+      <c r="A35" s="164"/>
+      <c r="B35" s="151"/>
       <c r="C35" s="53"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="158"/>
-      <c r="B36" s="145"/>
+      <c r="A36" s="164"/>
+      <c r="B36" s="151"/>
       <c r="C36" s="53"/>
     </row>
   </sheetData>
@@ -6979,11 +7861,195 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:O21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="144" t="s">
+        <v>333</v>
+      </c>
+      <c r="D3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="145" t="s">
+        <v>322</v>
+      </c>
+      <c r="B6" s="146"/>
+      <c r="C6" s="147" t="s">
+        <v>334</v>
+      </c>
+      <c r="D6" s="146"/>
+      <c r="E6" s="147" t="s">
+        <v>336</v>
+      </c>
+      <c r="F6" s="146"/>
+      <c r="G6" s="147" t="s">
+        <v>335</v>
+      </c>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147" t="s">
+        <v>338</v>
+      </c>
+      <c r="K6" s="147" t="s">
+        <v>339</v>
+      </c>
+      <c r="O6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="148" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" s="119"/>
+      <c r="G7" t="s">
+        <v>343</v>
+      </c>
+      <c r="J7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K7" t="s">
+        <v>340</v>
+      </c>
+      <c r="O7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="149"/>
+      <c r="C8" s="136" t="s">
+        <v>342</v>
+      </c>
+      <c r="D8" s="136"/>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="119">
+        <v>360</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <f>J8</f>
+        <v>4</v>
+      </c>
+      <c r="O8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="149"/>
+      <c r="C9" s="136" t="s">
+        <v>341</v>
+      </c>
+      <c r="D9" s="136"/>
+      <c r="O9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="149"/>
+      <c r="O10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="148" t="s">
+        <v>324</v>
+      </c>
+      <c r="C11" s="119" t="s">
+        <v>323</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <f>G8*2</f>
+        <v>720</v>
+      </c>
+      <c r="J11">
+        <f>J8*2</f>
+        <v>8</v>
+      </c>
+      <c r="O11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="149"/>
+      <c r="C12" s="119" t="s">
+        <v>337</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="O12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="149"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="149"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="149"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="149"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="149"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="149"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="149"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="149"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="149"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7007,94 +8073,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="165"/>
-      <c r="B1" s="165"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="145"/>
-      <c r="O1" s="145"/>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="165"/>
+      <c r="A1" s="171"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="171"/>
     </row>
     <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="145"/>
-      <c r="B2" s="164" t="s">
+      <c r="A2" s="151"/>
+      <c r="B2" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="173" t="s">
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="145"/>
-      <c r="G2" s="174" t="s">
+      <c r="F2" s="151"/>
+      <c r="G2" s="180" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="145"/>
-      <c r="B3" s="165"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="145"/>
-      <c r="M3" s="145"/>
-      <c r="N3" s="145"/>
-      <c r="O3" s="145"/>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
+      <c r="A3" s="151"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="151"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="151"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="145"/>
-      <c r="B4" s="166"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="172" t="s">
+      <c r="A4" s="151"/>
+      <c r="B4" s="172"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="178" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="145"/>
-      <c r="N4" s="145"/>
-      <c r="O4" s="145"/>
-      <c r="P4" s="145"/>
-      <c r="Q4" s="145"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="151"/>
+      <c r="P4" s="151"/>
+      <c r="Q4" s="151"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="145"/>
+      <c r="A5" s="151"/>
       <c r="B5" s="11"/>
       <c r="C5" s="34"/>
-      <c r="D5" s="145"/>
+      <c r="D5" s="151"/>
       <c r="E5" s="35" t="s">
         <v>104</v>
       </c>
@@ -7131,13 +8197,13 @@
       <c r="P5" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="Q5" s="145"/>
+      <c r="Q5" s="151"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="145"/>
+      <c r="A6" s="151"/>
       <c r="B6" s="11"/>
       <c r="C6" s="34"/>
-      <c r="D6" s="145"/>
+      <c r="D6" s="151"/>
       <c r="E6" s="47">
         <v>0</v>
       </c>
@@ -7176,55 +8242,55 @@
       <c r="P6" s="47">
         <v>150</v>
       </c>
-      <c r="Q6" s="145"/>
+      <c r="Q6" s="151"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="145"/>
-      <c r="B7" s="167"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="165"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="145"/>
-      <c r="N7" s="145"/>
-      <c r="O7" s="145"/>
-      <c r="P7" s="145"/>
-      <c r="Q7" s="145"/>
+      <c r="A7" s="151"/>
+      <c r="B7" s="173"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="151"/>
+      <c r="M7" s="151"/>
+      <c r="N7" s="151"/>
+      <c r="O7" s="151"/>
+      <c r="P7" s="151"/>
+      <c r="Q7" s="151"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="145"/>
-      <c r="B8" s="166" t="s">
+      <c r="A8" s="151"/>
+      <c r="B8" s="172" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="145"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="168" t="s">
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="174" t="s">
         <v>123</v>
       </c>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="145"/>
-      <c r="K8" s="145"/>
-      <c r="L8" s="145"/>
-      <c r="M8" s="145"/>
-      <c r="N8" s="145"/>
-      <c r="O8" s="145"/>
-      <c r="P8" s="145"/>
-      <c r="Q8" s="145"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="151"/>
+      <c r="K8" s="151"/>
+      <c r="L8" s="151"/>
+      <c r="M8" s="151"/>
+      <c r="N8" s="151"/>
+      <c r="O8" s="151"/>
+      <c r="P8" s="151"/>
+      <c r="Q8" s="151"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="145"/>
+      <c r="A9" s="151"/>
       <c r="B9" s="11"/>
       <c r="C9" s="54"/>
-      <c r="D9" s="145"/>
+      <c r="D9" s="151"/>
       <c r="E9" s="55">
         <v>1</v>
       </c>
@@ -7259,13 +8325,13 @@
       <c r="P9" s="59">
         <v>1</v>
       </c>
-      <c r="Q9" s="145"/>
+      <c r="Q9" s="151"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="145"/>
+      <c r="A10" s="151"/>
       <c r="B10" s="11"/>
       <c r="C10" s="54"/>
-      <c r="D10" s="145"/>
+      <c r="D10" s="151"/>
       <c r="E10" s="55">
         <v>2</v>
       </c>
@@ -7300,13 +8366,13 @@
       <c r="P10" s="59">
         <v>1.5</v>
       </c>
-      <c r="Q10" s="145"/>
+      <c r="Q10" s="151"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="145"/>
+      <c r="A11" s="151"/>
       <c r="B11" s="11"/>
       <c r="C11" s="54"/>
-      <c r="D11" s="145"/>
+      <c r="D11" s="151"/>
       <c r="E11" s="55">
         <v>3</v>
       </c>
@@ -7341,17 +8407,17 @@
       <c r="P11" s="59">
         <v>2</v>
       </c>
-      <c r="Q11" s="145"/>
+      <c r="Q11" s="151"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="145"/>
+      <c r="A12" s="151"/>
       <c r="B12" s="11" t="s">
         <v>161</v>
       </c>
       <c r="C12" s="54">
         <v>1</v>
       </c>
-      <c r="D12" s="145"/>
+      <c r="D12" s="151"/>
       <c r="E12" s="11" t="s">
         <v>162</v>
       </c>
@@ -7388,17 +8454,17 @@
       <c r="P12" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="Q12" s="145"/>
+      <c r="Q12" s="151"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="145"/>
+      <c r="A13" s="151"/>
       <c r="B13" s="11" t="s">
         <v>174</v>
       </c>
       <c r="C13" s="54">
         <v>1</v>
       </c>
-      <c r="D13" s="145"/>
+      <c r="D13" s="151"/>
       <c r="E13" s="55">
         <v>1</v>
       </c>
@@ -7446,17 +8512,17 @@
         <f t="shared" ref="P13:P15" si="5">P$6*P9</f>
         <v>150</v>
       </c>
-      <c r="Q13" s="145"/>
+      <c r="Q13" s="151"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="145"/>
+      <c r="A14" s="151"/>
       <c r="B14" s="11" t="s">
         <v>176</v>
       </c>
       <c r="C14" s="54">
         <v>1</v>
       </c>
-      <c r="D14" s="145"/>
+      <c r="D14" s="151"/>
       <c r="E14" s="55">
         <v>2</v>
       </c>
@@ -7501,13 +8567,13 @@
         <f t="shared" si="5"/>
         <v>225</v>
       </c>
-      <c r="Q14" s="145"/>
+      <c r="Q14" s="151"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="145"/>
+      <c r="A15" s="151"/>
       <c r="B15" s="11"/>
       <c r="C15" s="34"/>
-      <c r="D15" s="145"/>
+      <c r="D15" s="151"/>
       <c r="E15" s="55">
         <v>3</v>
       </c>
@@ -7552,55 +8618,55 @@
         <f t="shared" si="5"/>
         <v>300</v>
       </c>
-      <c r="Q15" s="145"/>
+      <c r="Q15" s="151"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="145"/>
-      <c r="B16" s="167"/>
-      <c r="C16" s="145"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="165"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="145"/>
-      <c r="K16" s="145"/>
-      <c r="L16" s="145"/>
-      <c r="M16" s="145"/>
+      <c r="A16" s="151"/>
+      <c r="B16" s="173"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
+      <c r="M16" s="151"/>
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
-      <c r="Q16" s="145"/>
+      <c r="Q16" s="151"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="145"/>
-      <c r="B17" s="166" t="s">
+      <c r="A17" s="151"/>
+      <c r="B17" s="172" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="145"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="170" t="s">
+      <c r="C17" s="151"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="176" t="s">
         <v>183</v>
       </c>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="145"/>
-      <c r="K17" s="145"/>
-      <c r="L17" s="145"/>
-      <c r="M17" s="145"/>
-      <c r="N17" s="145"/>
-      <c r="O17" s="145"/>
-      <c r="P17" s="145"/>
-      <c r="Q17" s="145"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="151"/>
+      <c r="K17" s="151"/>
+      <c r="L17" s="151"/>
+      <c r="M17" s="151"/>
+      <c r="N17" s="151"/>
+      <c r="O17" s="151"/>
+      <c r="P17" s="151"/>
+      <c r="Q17" s="151"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="145"/>
+      <c r="A18" s="151"/>
       <c r="B18" s="11"/>
       <c r="C18" s="34"/>
-      <c r="D18" s="145"/>
+      <c r="D18" s="151"/>
       <c r="E18" s="42">
         <v>1</v>
       </c>
@@ -7629,13 +8695,13 @@
       <c r="P18" s="78">
         <v>2</v>
       </c>
-      <c r="Q18" s="145"/>
+      <c r="Q18" s="151"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="145"/>
+      <c r="A19" s="151"/>
       <c r="B19" s="11"/>
       <c r="C19" s="34"/>
-      <c r="D19" s="145"/>
+      <c r="D19" s="151"/>
       <c r="E19" s="42">
         <v>2</v>
       </c>
@@ -7664,13 +8730,13 @@
       <c r="P19" s="78">
         <v>3</v>
       </c>
-      <c r="Q19" s="145"/>
+      <c r="Q19" s="151"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="145"/>
+      <c r="A20" s="151"/>
       <c r="B20" s="11"/>
       <c r="C20" s="34"/>
-      <c r="D20" s="145"/>
+      <c r="D20" s="151"/>
       <c r="E20" s="42">
         <v>3</v>
       </c>
@@ -7699,13 +8765,13 @@
       <c r="P20" s="78">
         <v>4</v>
       </c>
-      <c r="Q20" s="145"/>
+      <c r="Q20" s="151"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="145"/>
+      <c r="A21" s="151"/>
       <c r="B21" s="11"/>
       <c r="C21" s="34"/>
-      <c r="D21" s="145"/>
+      <c r="D21" s="151"/>
       <c r="E21" s="20" t="s">
         <v>205</v>
       </c>
@@ -7740,13 +8806,13 @@
       <c r="P21" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="Q21" s="145"/>
+      <c r="Q21" s="151"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="145"/>
+      <c r="A22" s="151"/>
       <c r="B22" s="11"/>
       <c r="C22" s="34"/>
-      <c r="D22" s="145"/>
+      <c r="D22" s="151"/>
       <c r="E22" s="42">
         <v>1</v>
       </c>
@@ -7791,13 +8857,13 @@
         <f t="shared" ref="P22:P24" si="15">P$6*P18</f>
         <v>300</v>
       </c>
-      <c r="Q22" s="145"/>
+      <c r="Q22" s="151"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="145"/>
+      <c r="A23" s="151"/>
       <c r="B23" s="11"/>
       <c r="C23" s="34"/>
-      <c r="D23" s="145"/>
+      <c r="D23" s="151"/>
       <c r="E23" s="42">
         <v>2</v>
       </c>
@@ -7842,13 +8908,13 @@
         <f t="shared" si="15"/>
         <v>450</v>
       </c>
-      <c r="Q23" s="145"/>
+      <c r="Q23" s="151"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="145"/>
+      <c r="A24" s="151"/>
       <c r="B24" s="11"/>
       <c r="C24" s="34"/>
-      <c r="D24" s="145"/>
+      <c r="D24" s="151"/>
       <c r="E24" s="42">
         <v>3</v>
       </c>
@@ -7893,55 +8959,55 @@
         <f t="shared" si="15"/>
         <v>600</v>
       </c>
-      <c r="Q24" s="145"/>
+      <c r="Q24" s="151"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="145"/>
-      <c r="B25" s="167"/>
-      <c r="C25" s="145"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="165"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="145"/>
-      <c r="K25" s="145"/>
-      <c r="L25" s="145"/>
-      <c r="M25" s="145"/>
+      <c r="A25" s="151"/>
+      <c r="B25" s="173"/>
+      <c r="C25" s="151"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="151"/>
+      <c r="K25" s="151"/>
+      <c r="L25" s="151"/>
+      <c r="M25" s="151"/>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
-      <c r="Q25" s="145"/>
+      <c r="Q25" s="151"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="145"/>
-      <c r="B26" s="166" t="s">
+      <c r="A26" s="151"/>
+      <c r="B26" s="172" t="s">
         <v>216</v>
       </c>
-      <c r="C26" s="145"/>
-      <c r="D26" s="145"/>
-      <c r="E26" s="171" t="s">
+      <c r="C26" s="151"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="177" t="s">
         <v>217</v>
       </c>
-      <c r="F26" s="145"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="145"/>
-      <c r="K26" s="145"/>
-      <c r="L26" s="145"/>
-      <c r="M26" s="145"/>
-      <c r="N26" s="145"/>
-      <c r="O26" s="145"/>
-      <c r="P26" s="145"/>
-      <c r="Q26" s="145"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="151"/>
+      <c r="K26" s="151"/>
+      <c r="L26" s="151"/>
+      <c r="M26" s="151"/>
+      <c r="N26" s="151"/>
+      <c r="O26" s="151"/>
+      <c r="P26" s="151"/>
+      <c r="Q26" s="151"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="145"/>
+      <c r="A27" s="151"/>
       <c r="B27" s="11"/>
       <c r="C27" s="34"/>
-      <c r="D27" s="145"/>
+      <c r="D27" s="151"/>
       <c r="E27" s="72">
         <v>1</v>
       </c>
@@ -7964,13 +9030,13 @@
       </c>
       <c r="O27" s="92"/>
       <c r="P27" s="91"/>
-      <c r="Q27" s="145"/>
+      <c r="Q27" s="151"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="145"/>
+      <c r="A28" s="151"/>
       <c r="B28" s="11"/>
       <c r="C28" s="34"/>
-      <c r="D28" s="145"/>
+      <c r="D28" s="151"/>
       <c r="E28" s="72">
         <v>2</v>
       </c>
@@ -7993,13 +9059,13 @@
       </c>
       <c r="O28" s="92"/>
       <c r="P28" s="91"/>
-      <c r="Q28" s="145"/>
+      <c r="Q28" s="151"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="145"/>
+      <c r="A29" s="151"/>
       <c r="B29" s="11"/>
       <c r="C29" s="34"/>
-      <c r="D29" s="145"/>
+      <c r="D29" s="151"/>
       <c r="E29" s="72">
         <v>3</v>
       </c>
@@ -8022,13 +9088,13 @@
       </c>
       <c r="O29" s="92"/>
       <c r="P29" s="91"/>
-      <c r="Q29" s="145"/>
+      <c r="Q29" s="151"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="145"/>
+      <c r="A30" s="151"/>
       <c r="B30" s="11"/>
       <c r="C30" s="34"/>
-      <c r="D30" s="145"/>
+      <c r="D30" s="151"/>
       <c r="E30" s="3" t="s">
         <v>227</v>
       </c>
@@ -8063,13 +9129,13 @@
       <c r="P30" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="Q30" s="145"/>
+      <c r="Q30" s="151"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="145"/>
+      <c r="A31" s="151"/>
       <c r="B31" s="11"/>
       <c r="C31" s="34"/>
-      <c r="D31" s="145"/>
+      <c r="D31" s="151"/>
       <c r="E31" s="72">
         <v>1</v>
       </c>
@@ -8114,13 +9180,13 @@
         <f t="shared" ref="P31:P33" si="25">P$6*P27</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="145"/>
+      <c r="Q31" s="151"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="145"/>
+      <c r="A32" s="151"/>
       <c r="B32" s="11"/>
       <c r="C32" s="34"/>
-      <c r="D32" s="145"/>
+      <c r="D32" s="151"/>
       <c r="E32" s="72">
         <v>2</v>
       </c>
@@ -8165,13 +9231,13 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="145"/>
+      <c r="Q32" s="151"/>
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="145"/>
+      <c r="A33" s="151"/>
       <c r="B33" s="11"/>
       <c r="C33" s="34"/>
-      <c r="D33" s="145"/>
+      <c r="D33" s="151"/>
       <c r="E33" s="72">
         <v>3</v>
       </c>
@@ -8216,55 +9282,55 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="145"/>
+      <c r="Q33" s="151"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="145"/>
-      <c r="B34" s="167"/>
-      <c r="C34" s="145"/>
-      <c r="D34" s="145"/>
-      <c r="E34" s="165"/>
-      <c r="F34" s="145"/>
-      <c r="G34" s="145"/>
-      <c r="H34" s="145"/>
-      <c r="I34" s="145"/>
-      <c r="J34" s="145"/>
-      <c r="K34" s="145"/>
-      <c r="L34" s="145"/>
-      <c r="M34" s="145"/>
+      <c r="A34" s="151"/>
+      <c r="B34" s="173"/>
+      <c r="C34" s="151"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="171"/>
+      <c r="F34" s="151"/>
+      <c r="G34" s="151"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="151"/>
+      <c r="K34" s="151"/>
+      <c r="L34" s="151"/>
+      <c r="M34" s="151"/>
       <c r="N34" s="15"/>
       <c r="O34" s="15"/>
       <c r="P34" s="15"/>
-      <c r="Q34" s="145"/>
+      <c r="Q34" s="151"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="145"/>
-      <c r="B35" s="166" t="s">
+      <c r="A35" s="151"/>
+      <c r="B35" s="172" t="s">
         <v>246</v>
       </c>
-      <c r="C35" s="145"/>
-      <c r="D35" s="145"/>
-      <c r="E35" s="169" t="s">
+      <c r="C35" s="151"/>
+      <c r="D35" s="151"/>
+      <c r="E35" s="175" t="s">
         <v>247</v>
       </c>
-      <c r="F35" s="145"/>
-      <c r="G35" s="145"/>
-      <c r="H35" s="145"/>
-      <c r="I35" s="145"/>
-      <c r="J35" s="145"/>
-      <c r="K35" s="145"/>
-      <c r="L35" s="145"/>
-      <c r="M35" s="145"/>
-      <c r="N35" s="145"/>
-      <c r="O35" s="145"/>
-      <c r="P35" s="145"/>
-      <c r="Q35" s="145"/>
+      <c r="F35" s="151"/>
+      <c r="G35" s="151"/>
+      <c r="H35" s="151"/>
+      <c r="I35" s="151"/>
+      <c r="J35" s="151"/>
+      <c r="K35" s="151"/>
+      <c r="L35" s="151"/>
+      <c r="M35" s="151"/>
+      <c r="N35" s="151"/>
+      <c r="O35" s="151"/>
+      <c r="P35" s="151"/>
+      <c r="Q35" s="151"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="145"/>
+      <c r="A36" s="151"/>
       <c r="B36" s="11"/>
       <c r="C36" s="34"/>
-      <c r="D36" s="145"/>
+      <c r="D36" s="151"/>
       <c r="E36" s="102">
         <v>1</v>
       </c>
@@ -8287,13 +9353,13 @@
       </c>
       <c r="O36" s="104"/>
       <c r="P36" s="103"/>
-      <c r="Q36" s="145"/>
+      <c r="Q36" s="151"/>
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="145"/>
+      <c r="A37" s="151"/>
       <c r="B37" s="11"/>
       <c r="C37" s="34"/>
-      <c r="D37" s="145"/>
+      <c r="D37" s="151"/>
       <c r="E37" s="102">
         <v>2</v>
       </c>
@@ -8316,13 +9382,13 @@
       </c>
       <c r="O37" s="104"/>
       <c r="P37" s="103"/>
-      <c r="Q37" s="145"/>
+      <c r="Q37" s="151"/>
     </row>
     <row r="38" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="145"/>
+      <c r="A38" s="151"/>
       <c r="B38" s="11"/>
       <c r="C38" s="34"/>
-      <c r="D38" s="145"/>
+      <c r="D38" s="151"/>
       <c r="E38" s="102">
         <v>3</v>
       </c>
@@ -8345,13 +9411,13 @@
       </c>
       <c r="O38" s="104"/>
       <c r="P38" s="103"/>
-      <c r="Q38" s="145"/>
+      <c r="Q38" s="151"/>
     </row>
     <row r="39" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="145"/>
+      <c r="A39" s="151"/>
       <c r="B39" s="11"/>
       <c r="C39" s="34"/>
-      <c r="D39" s="145"/>
+      <c r="D39" s="151"/>
       <c r="E39" s="105" t="s">
         <v>257</v>
       </c>
@@ -8386,13 +9452,13 @@
       <c r="P39" s="105" t="s">
         <v>270</v>
       </c>
-      <c r="Q39" s="145"/>
+      <c r="Q39" s="151"/>
     </row>
     <row r="40" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="145"/>
+      <c r="A40" s="151"/>
       <c r="B40" s="11"/>
       <c r="C40" s="34"/>
-      <c r="D40" s="145"/>
+      <c r="D40" s="151"/>
       <c r="E40" s="102">
         <v>1</v>
       </c>
@@ -8437,13 +9503,13 @@
         <f t="shared" ref="P40:P42" si="35">P$6*P36</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="145"/>
+      <c r="Q40" s="151"/>
     </row>
     <row r="41" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="145"/>
+      <c r="A41" s="151"/>
       <c r="B41" s="11"/>
       <c r="C41" s="34"/>
-      <c r="D41" s="145"/>
+      <c r="D41" s="151"/>
       <c r="E41" s="102">
         <v>2</v>
       </c>
@@ -8488,13 +9554,13 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="145"/>
+      <c r="Q41" s="151"/>
     </row>
     <row r="42" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="145"/>
+      <c r="A42" s="151"/>
       <c r="B42" s="11"/>
       <c r="C42" s="34"/>
-      <c r="D42" s="145"/>
+      <c r="D42" s="151"/>
       <c r="E42" s="102">
         <v>3</v>
       </c>
@@ -8539,13 +9605,13 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="145"/>
+      <c r="Q42" s="151"/>
     </row>
     <row r="43" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="145"/>
+      <c r="A43" s="151"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="145"/>
+      <c r="D43" s="151"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
@@ -8558,7 +9624,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="15"/>
       <c r="P43" s="15"/>
-      <c r="Q43" s="145"/>
+      <c r="Q43" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -8597,12 +9663,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A26:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8613,60 +9679,60 @@
   </cols>
   <sheetData>
     <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="162" t="s">
+      <c r="A26" s="168" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="145"/>
-      <c r="C26" s="145"/>
+      <c r="B26" s="151"/>
+      <c r="C26" s="151"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="161"/>
-      <c r="B27" s="145"/>
+      <c r="A27" s="167"/>
+      <c r="B27" s="151"/>
       <c r="C27" s="50"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="161"/>
-      <c r="B28" s="145"/>
+      <c r="A28" s="167"/>
+      <c r="B28" s="151"/>
       <c r="C28" s="51"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="161"/>
-      <c r="B29" s="145"/>
+      <c r="A29" s="167"/>
+      <c r="B29" s="151"/>
       <c r="C29" s="121"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="161"/>
-      <c r="B30" s="145"/>
+      <c r="A30" s="167"/>
+      <c r="B30" s="151"/>
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="161"/>
-      <c r="B31" s="145"/>
+      <c r="A31" s="167"/>
+      <c r="B31" s="151"/>
       <c r="C31" s="53"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="159"/>
-      <c r="B32" s="145"/>
+      <c r="A32" s="165"/>
+      <c r="B32" s="151"/>
       <c r="C32" s="121"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="158"/>
-      <c r="B33" s="145"/>
+      <c r="A33" s="164"/>
+      <c r="B33" s="151"/>
       <c r="C33" s="53"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="158"/>
-      <c r="B34" s="145"/>
+      <c r="A34" s="164"/>
+      <c r="B34" s="151"/>
       <c r="C34" s="53"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="158"/>
-      <c r="B35" s="145"/>
+      <c r="A35" s="164"/>
+      <c r="B35" s="151"/>
       <c r="C35" s="53"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="158"/>
-      <c r="B36" s="145"/>
+      <c r="A36" s="164"/>
+      <c r="B36" s="151"/>
       <c r="C36" s="53"/>
     </row>
   </sheetData>
@@ -8687,11 +9753,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A26:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -8703,90 +9769,90 @@
   </cols>
   <sheetData>
     <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="162" t="s">
+      <c r="A26" s="168" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="145"/>
-      <c r="C26" s="145"/>
+      <c r="B26" s="151"/>
+      <c r="C26" s="151"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="161"/>
-      <c r="B27" s="145"/>
+      <c r="A27" s="167"/>
+      <c r="B27" s="151"/>
       <c r="C27" s="50"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="161"/>
-      <c r="B28" s="145"/>
+      <c r="A28" s="167"/>
+      <c r="B28" s="151"/>
       <c r="C28" s="51"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="161"/>
-      <c r="B29" s="145"/>
+      <c r="A29" s="167"/>
+      <c r="B29" s="151"/>
       <c r="C29" s="121"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="161"/>
-      <c r="B30" s="145"/>
+      <c r="A30" s="167"/>
+      <c r="B30" s="151"/>
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="161"/>
-      <c r="B31" s="145"/>
+      <c r="A31" s="167"/>
+      <c r="B31" s="151"/>
       <c r="C31" s="53"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="159"/>
-      <c r="B32" s="145"/>
+      <c r="A32" s="165"/>
+      <c r="B32" s="151"/>
       <c r="C32" s="121"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="158"/>
-      <c r="B33" s="145"/>
+      <c r="A33" s="164"/>
+      <c r="B33" s="151"/>
       <c r="C33" s="53"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="158"/>
-      <c r="B34" s="145"/>
+      <c r="A34" s="164"/>
+      <c r="B34" s="151"/>
       <c r="C34" s="53"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="158"/>
-      <c r="B35" s="145"/>
+      <c r="A35" s="164"/>
+      <c r="B35" s="151"/>
       <c r="C35" s="53"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="158"/>
-      <c r="B36" s="145"/>
+      <c r="A36" s="164"/>
+      <c r="B36" s="151"/>
       <c r="C36" s="53"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="158"/>
-      <c r="B37" s="145"/>
+      <c r="A37" s="164"/>
+      <c r="B37" s="151"/>
       <c r="C37" s="53"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="158"/>
-      <c r="B38" s="145"/>
+      <c r="A38" s="164"/>
+      <c r="B38" s="151"/>
       <c r="C38" s="53"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="158"/>
-      <c r="B39" s="145"/>
+      <c r="A39" s="164"/>
+      <c r="B39" s="151"/>
       <c r="C39" s="53"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="158"/>
-      <c r="B40" s="145"/>
+      <c r="A40" s="164"/>
+      <c r="B40" s="151"/>
       <c r="C40" s="53"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="158"/>
-      <c r="B41" s="145"/>
+      <c r="A41" s="164"/>
+      <c r="B41" s="151"/>
       <c r="C41" s="53"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="158"/>
-      <c r="B42" s="145"/>
+      <c r="A42" s="164"/>
+      <c r="B42" s="151"/>
       <c r="C42" s="53"/>
     </row>
   </sheetData>
@@ -8796,11 +9862,6 @@
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:B27"/>
@@ -8808,12 +9869,17 @@
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
@@ -8928,7 +9994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD26"/>
   <sheetViews>
@@ -8991,17 +10057,17 @@
       <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -9029,20 +10095,20 @@
       <c r="P4" s="19"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
-      <c r="L5" s="145"/>
+      <c r="B5" s="151"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="151"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -9061,10 +10127,10 @@
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
-      <c r="K6" s="175" t="s">
+      <c r="K6" s="181" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="145"/>
+      <c r="L6" s="151"/>
       <c r="M6" s="23"/>
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
@@ -9431,20 +10497,20 @@
       <c r="P13" s="10"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="152" t="s">
+      <c r="A15" s="158" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="145"/>
-      <c r="C15" s="145"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="145"/>
-      <c r="L15" s="145"/>
+      <c r="B15" s="151"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="151"/>
+      <c r="K15" s="151"/>
+      <c r="L15" s="151"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
@@ -9475,10 +10541,10 @@
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="K16" s="175" t="s">
+      <c r="K16" s="181" t="s">
         <v>120</v>
       </c>
-      <c r="L16" s="145"/>
+      <c r="L16" s="151"/>
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
@@ -9492,10 +10558,10 @@
       <c r="W16" s="43"/>
       <c r="X16" s="43"/>
       <c r="Y16" s="43"/>
-      <c r="Z16" s="177"/>
-      <c r="AA16" s="145"/>
-      <c r="AB16" s="177"/>
-      <c r="AC16" s="145"/>
+      <c r="Z16" s="183"/>
+      <c r="AA16" s="151"/>
+      <c r="AB16" s="183"/>
+      <c r="AC16" s="151"/>
       <c r="AD16" s="57"/>
     </row>
     <row r="17" spans="1:28" ht="15" x14ac:dyDescent="0.25">
@@ -9891,408 +10957,4 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <f>65+14</f>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <f>B1*14</f>
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <f>B1*10</f>
-        <v>790</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <f>B3*510/1000</f>
-        <v>402.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <f>B4/25</f>
-        <v>16.116</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ref="C5:C6" si="0">B5*60</f>
-        <v>966.96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <f>B4/8</f>
-        <v>50.362499999999997</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>3021.75</v>
-      </c>
-      <c r="D6">
-        <f>5000000/C6</f>
-        <v>1654.670306941342</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D7">
-        <f>D6/60</f>
-        <v>27.577838449022366</v>
-      </c>
-      <c r="G7">
-        <f>G8*8</f>
-        <v>299.52</v>
-      </c>
-      <c r="H7">
-        <f>G7*35</f>
-        <v>10483.199999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F8" s="10">
-        <v>1.56</v>
-      </c>
-      <c r="G8">
-        <f>G9*F8/F9</f>
-        <v>37.44</v>
-      </c>
-      <c r="H8">
-        <f>G8*H9</f>
-        <v>1347.84</v>
-      </c>
-      <c r="I8">
-        <f>H8*3</f>
-        <v>4043.5199999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="10">
-        <v>1.56</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="G9" s="10">
-        <v>2.4</v>
-      </c>
-      <c r="H9" s="10">
-        <v>36</v>
-      </c>
-      <c r="I9">
-        <f>I8/6</f>
-        <v>673.92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="10">
-        <v>70</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10">
-        <f>8*6</f>
-        <v>48</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10">
-        <f>I8/G15</f>
-        <v>673.92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11">
-        <f>B9*2</f>
-        <v>3.12</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11">
-        <f>I10/37.5</f>
-        <v>17.9712</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12">
-        <f>B11*B10</f>
-        <v>218.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G13" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="10">
-        <v>6</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="10">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="10">
-        <v>6</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16">
-        <f>G14/G15</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="10">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <f>8*2*1.5</f>
-        <v>24</v>
-      </c>
-      <c r="F18" s="10">
-        <f>11*6</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="10">
-        <v>510</v>
-      </c>
-      <c r="F19">
-        <f>25</f>
-        <v>25</v>
-      </c>
-      <c r="G19">
-        <f>200-25</f>
-        <v>175</v>
-      </c>
-      <c r="H19">
-        <f>13/10</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20">
-        <f>B19*B18</f>
-        <v>5100</v>
-      </c>
-      <c r="E20">
-        <f>0.3*2.4</f>
-        <v>0.72</v>
-      </c>
-      <c r="H20">
-        <f>638*8</f>
-        <v>5104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E21">
-        <f>E20*25*1.1</f>
-        <v>19.8</v>
-      </c>
-      <c r="F21">
-        <f>E21*2</f>
-        <v>39.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="10">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <f>E21*8</f>
-        <v>158.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23">
-        <f>B22/B21</f>
-        <v>10</v>
-      </c>
-      <c r="G23">
-        <f>62*1000000</f>
-        <v>62000000</v>
-      </c>
-      <c r="I23" s="10">
-        <f>8*6*1.3</f>
-        <v>62.400000000000006</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" s="10">
-        <f>390*13</f>
-        <v>5070</v>
-      </c>
-      <c r="G24">
-        <f>G23/500</f>
-        <v>124000</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G25">
-        <f>G24/60/60</f>
-        <v>34.444444444444443</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
-        <v>1</v>
-      </c>
-      <c r="B27" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
-        <v>390</v>
-      </c>
-      <c r="B28">
-        <f>B27*A28/A27</f>
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E31" s="10">
-        <v>390</v>
-      </c>
-      <c r="F31">
-        <f>F32*E31</f>
-        <v>3120</v>
-      </c>
-      <c r="H31" s="10">
-        <f>6*1.5</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E32" s="10">
-        <v>1</v>
-      </c>
-      <c r="F32" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G34">
-        <f>8*9</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C40">
-        <f>7.5/25*2.4</f>
-        <v>0.72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/0 DyTech Informations/Dytech Balance.xlsx
+++ b/0 DyTech Informations/Dytech Balance.xlsx
@@ -208,6 +208,64 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Jort Geurts</author>
+  </authors>
+  <commentList>
+    <comment ref="G6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MagicLegend:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Energy required to create the specific item per 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MagicLegend:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sum of energy required to create all the items for the recipe</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
     <author/>
   </authors>
   <commentList>
@@ -238,7 +296,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -561,7 +619,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="368">
   <si>
     <t>README</t>
   </si>
@@ -1595,7 +1653,76 @@
     <t>(kW)</t>
   </si>
   <si>
-    <t>Clean water recipe is based on the 500 -&gt; 460 recipe</t>
+    <t>Total Energy</t>
+  </si>
+  <si>
+    <t>Clean water is based on the 500 -&gt; 460 recipe</t>
+  </si>
+  <si>
+    <t>Mining energy is based on the basic mk 1 miner</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Time to create item</t>
+  </si>
+  <si>
+    <t>U-235-10</t>
+  </si>
+  <si>
+    <t>U-235-20</t>
+  </si>
+  <si>
+    <t>U-235-30</t>
+  </si>
+  <si>
+    <t>U-235-40</t>
+  </si>
+  <si>
+    <t>U-235-50</t>
+  </si>
+  <si>
+    <t>U-235-60</t>
+  </si>
+  <si>
+    <t>U-235-70</t>
+  </si>
+  <si>
+    <t>U-235-80</t>
+  </si>
+  <si>
+    <t>U-235-90</t>
+  </si>
+  <si>
+    <t>U-235-99</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>54 minuten</t>
+  </si>
+  <si>
+    <t>Energy consumption</t>
+  </si>
+  <si>
+    <t>Chemical processor</t>
+  </si>
+  <si>
+    <t>(kW/s)</t>
+  </si>
+  <si>
+    <t>Mk 1 miner</t>
+  </si>
+  <si>
+    <t>Multiply by…</t>
+  </si>
+  <si>
+    <t>(0.5 speed)</t>
+  </si>
+  <si>
+    <t>Water cleaner</t>
   </si>
 </sst>
 </file>
@@ -1610,7 +1737,7 @@
     <numFmt numFmtId="167" formatCode="#,##0.000"/>
     <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1707,8 +1834,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1934,8 +2074,74 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1965,6 +2171,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1973,7 +2274,7 @@
     <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2184,20 +2485,33 @@
     <xf numFmtId="0" fontId="15" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2206,43 +2520,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="36" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2251,6 +2546,13 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2258,6 +2560,62 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="15" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="15" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="40" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="40" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="40" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -2628,6 +2986,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3150,6 +3556,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 15"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9677400" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3502,6 +3956,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9553575"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3918,6 +4420,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 26"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4211,68 +4761,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="162"/>
-      <c r="B1" s="159" t="s">
+      <c r="A1" s="153"/>
+      <c r="B1" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="151"/>
-      <c r="D1" s="159" t="s">
+      <c r="C1" s="152"/>
+      <c r="D1" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="159" t="s">
+      <c r="M1" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="162"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="153"/>
       <c r="U1" s="9"/>
-      <c r="V1" s="157"/>
-      <c r="W1" s="151"/>
-      <c r="X1" s="151"/>
+      <c r="V1" s="162"/>
+      <c r="W1" s="152"/>
+      <c r="X1" s="152"/>
     </row>
     <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="151"/>
-      <c r="B2" s="153" t="s">
+      <c r="A2" s="152"/>
+      <c r="B2" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="158" t="s">
+      <c r="C2" s="152"/>
+      <c r="D2" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="158" t="s">
+      <c r="L2" s="157"/>
+      <c r="M2" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="151"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="151"/>
-      <c r="Q2" s="151"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="152"/>
+      <c r="P2" s="152"/>
+      <c r="Q2" s="152"/>
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="150"/>
-      <c r="W2" s="151"/>
-      <c r="X2" s="151"/>
+      <c r="V2" s="163"/>
+      <c r="W2" s="152"/>
+      <c r="X2" s="152"/>
     </row>
     <row r="3" spans="1:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="151"/>
+      <c r="A3" s="152"/>
       <c r="B3" s="18" t="s">
         <v>23</v>
       </c>
@@ -4295,7 +4845,7 @@
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
-      <c r="L3" s="151"/>
+      <c r="L3" s="152"/>
       <c r="M3" s="24" t="s">
         <v>82</v>
       </c>
@@ -4306,7 +4856,7 @@
         <v>84</v>
       </c>
       <c r="P3" s="24"/>
-      <c r="Q3" s="151"/>
+      <c r="Q3" s="152"/>
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
@@ -4316,7 +4866,7 @@
       <c r="X3" s="27"/>
     </row>
     <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="151"/>
+      <c r="A4" s="152"/>
       <c r="B4" s="18" t="s">
         <v>101</v>
       </c>
@@ -4338,7 +4888,7 @@
       <c r="I4" s="36"/>
       <c r="J4" s="36"/>
       <c r="K4" s="36"/>
-      <c r="L4" s="151"/>
+      <c r="L4" s="152"/>
       <c r="M4" s="29">
         <v>1</v>
       </c>
@@ -4349,7 +4899,7 @@
         <v>0.1</v>
       </c>
       <c r="P4" s="42"/>
-      <c r="Q4" s="151"/>
+      <c r="Q4" s="152"/>
       <c r="R4" s="43"/>
       <c r="S4" s="39"/>
       <c r="U4" s="43"/>
@@ -4358,7 +4908,7 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="151"/>
+      <c r="A5" s="152"/>
       <c r="B5" s="18" t="s">
         <v>108</v>
       </c>
@@ -4384,7 +4934,7 @@
       <c r="I5" s="36"/>
       <c r="J5" s="36"/>
       <c r="K5" s="36"/>
-      <c r="L5" s="151"/>
+      <c r="L5" s="152"/>
       <c r="M5" s="29">
         <v>2</v>
       </c>
@@ -4395,7 +4945,7 @@
         <v>0.2</v>
       </c>
       <c r="P5" s="42"/>
-      <c r="Q5" s="151"/>
+      <c r="Q5" s="152"/>
       <c r="R5" s="43"/>
       <c r="S5" s="39"/>
       <c r="T5" s="10"/>
@@ -4405,7 +4955,7 @@
       <c r="X5" s="10"/>
     </row>
     <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="151"/>
+      <c r="A6" s="152"/>
       <c r="B6" s="14"/>
       <c r="C6" s="45"/>
       <c r="D6" s="29">
@@ -4429,7 +4979,7 @@
       <c r="I6" s="36"/>
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
-      <c r="L6" s="151"/>
+      <c r="L6" s="152"/>
       <c r="M6" s="29">
         <v>3</v>
       </c>
@@ -4440,7 +4990,7 @@
         <v>0.3</v>
       </c>
       <c r="P6" s="42"/>
-      <c r="Q6" s="151"/>
+      <c r="Q6" s="152"/>
       <c r="R6" s="43"/>
       <c r="S6" s="39"/>
       <c r="U6" s="43"/>
@@ -4449,7 +4999,7 @@
       <c r="X6" s="10"/>
     </row>
     <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="151"/>
+      <c r="A7" s="152"/>
       <c r="B7" s="14"/>
       <c r="C7" s="45"/>
       <c r="D7" s="29">
@@ -4471,7 +5021,7 @@
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
       <c r="K7" s="36"/>
-      <c r="L7" s="151"/>
+      <c r="L7" s="152"/>
       <c r="M7" s="29">
         <v>4</v>
       </c>
@@ -4482,14 +5032,14 @@
         <v>0.4</v>
       </c>
       <c r="P7" s="42"/>
-      <c r="Q7" s="151"/>
+      <c r="Q7" s="152"/>
       <c r="R7" s="43"/>
       <c r="S7" s="39"/>
       <c r="U7" s="43"/>
       <c r="V7" s="43"/>
     </row>
     <row r="8" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="151"/>
+      <c r="A8" s="152"/>
       <c r="B8" s="14"/>
       <c r="C8" s="45"/>
       <c r="D8" s="29">
@@ -4513,7 +5063,7 @@
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
-      <c r="L8" s="151"/>
+      <c r="L8" s="152"/>
       <c r="M8" s="29">
         <v>5</v>
       </c>
@@ -4524,14 +5074,14 @@
         <v>0.5</v>
       </c>
       <c r="P8" s="42"/>
-      <c r="Q8" s="151"/>
+      <c r="Q8" s="152"/>
       <c r="R8" s="43"/>
       <c r="S8" s="39"/>
       <c r="U8" s="43"/>
       <c r="V8" s="43"/>
     </row>
     <row r="9" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="151"/>
+      <c r="A9" s="152"/>
       <c r="B9" s="14"/>
       <c r="C9" s="45"/>
       <c r="D9" s="29">
@@ -4553,7 +5103,7 @@
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
-      <c r="L9" s="151"/>
+      <c r="L9" s="152"/>
       <c r="M9" s="29">
         <v>6</v>
       </c>
@@ -4564,14 +5114,14 @@
         <v>0.6</v>
       </c>
       <c r="P9" s="42"/>
-      <c r="Q9" s="151"/>
+      <c r="Q9" s="152"/>
       <c r="R9" s="43"/>
       <c r="S9" s="39"/>
       <c r="U9" s="43"/>
       <c r="V9" s="43"/>
     </row>
     <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="151"/>
+      <c r="A10" s="152"/>
       <c r="B10" s="14"/>
       <c r="C10" s="45"/>
       <c r="D10" s="29">
@@ -4595,7 +5145,7 @@
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
-      <c r="L10" s="151"/>
+      <c r="L10" s="152"/>
       <c r="M10" s="29">
         <v>7</v>
       </c>
@@ -4606,14 +5156,14 @@
         <v>0.7</v>
       </c>
       <c r="P10" s="42"/>
-      <c r="Q10" s="151"/>
+      <c r="Q10" s="152"/>
       <c r="R10" s="43"/>
       <c r="S10" s="39"/>
       <c r="U10" s="43"/>
       <c r="V10" s="43"/>
     </row>
     <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="151"/>
+      <c r="A11" s="152"/>
       <c r="B11" s="14"/>
       <c r="C11" s="45"/>
       <c r="D11" s="29">
@@ -4637,7 +5187,7 @@
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
-      <c r="L11" s="151"/>
+      <c r="L11" s="152"/>
       <c r="M11" s="29">
         <v>8</v>
       </c>
@@ -4648,30 +5198,30 @@
         <v>0.8</v>
       </c>
       <c r="P11" s="42"/>
-      <c r="Q11" s="151"/>
+      <c r="Q11" s="152"/>
       <c r="R11" s="43"/>
       <c r="S11" s="39"/>
       <c r="U11" s="43"/>
       <c r="V11" s="43"/>
     </row>
     <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="151"/>
-      <c r="B12" s="154"/>
-      <c r="C12" s="151"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="151"/>
+      <c r="A12" s="152"/>
+      <c r="B12" s="151"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="152"/>
       <c r="H12" s="56"/>
       <c r="I12" s="56"/>
       <c r="J12" s="56"/>
       <c r="K12" s="56"/>
-      <c r="L12" s="151"/>
-      <c r="M12" s="155"/>
-      <c r="N12" s="151"/>
-      <c r="O12" s="151"/>
-      <c r="P12" s="151"/>
-      <c r="Q12" s="151"/>
+      <c r="L12" s="152"/>
+      <c r="M12" s="156"/>
+      <c r="N12" s="152"/>
+      <c r="O12" s="152"/>
+      <c r="P12" s="152"/>
+      <c r="Q12" s="152"/>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
@@ -4681,37 +5231,37 @@
       <c r="X12" s="17"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="151"/>
-      <c r="B13" s="153"/>
-      <c r="C13" s="151"/>
-      <c r="D13" s="156" t="s">
+      <c r="A13" s="152"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="161" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="151"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="152"/>
       <c r="H13" s="58"/>
       <c r="I13" s="58"/>
       <c r="J13" s="58"/>
       <c r="K13" s="58"/>
-      <c r="L13" s="151"/>
-      <c r="M13" s="156" t="s">
+      <c r="L13" s="152"/>
+      <c r="M13" s="161" t="s">
         <v>144</v>
       </c>
-      <c r="N13" s="151"/>
-      <c r="O13" s="151"/>
-      <c r="P13" s="151"/>
-      <c r="Q13" s="151"/>
+      <c r="N13" s="152"/>
+      <c r="O13" s="152"/>
+      <c r="P13" s="152"/>
+      <c r="Q13" s="152"/>
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
-      <c r="V13" s="150"/>
-      <c r="W13" s="151"/>
-      <c r="X13" s="151"/>
+      <c r="V13" s="163"/>
+      <c r="W13" s="152"/>
+      <c r="X13" s="152"/>
     </row>
     <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="151"/>
+      <c r="A14" s="152"/>
       <c r="B14" s="14"/>
       <c r="C14" s="45"/>
       <c r="D14" s="60" t="s">
@@ -4732,7 +5282,7 @@
       <c r="I14" s="60"/>
       <c r="J14" s="60"/>
       <c r="K14" s="60"/>
-      <c r="L14" s="151"/>
+      <c r="L14" s="152"/>
       <c r="M14" s="60" t="s">
         <v>151</v>
       </c>
@@ -4741,7 +5291,7 @@
       </c>
       <c r="O14" s="60"/>
       <c r="P14" s="60"/>
-      <c r="Q14" s="151"/>
+      <c r="Q14" s="152"/>
       <c r="R14" s="27"/>
       <c r="S14" s="27"/>
       <c r="T14" s="27"/>
@@ -4751,7 +5301,7 @@
       <c r="X14" s="27"/>
     </row>
     <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="151"/>
+      <c r="A15" s="152"/>
       <c r="B15" s="14"/>
       <c r="C15" s="45"/>
       <c r="D15" s="62">
@@ -4771,7 +5321,7 @@
       <c r="I15" s="68"/>
       <c r="J15" s="68"/>
       <c r="K15" s="68"/>
-      <c r="L15" s="151"/>
+      <c r="L15" s="152"/>
       <c r="M15" s="62">
         <v>1</v>
       </c>
@@ -4780,7 +5330,7 @@
       </c>
       <c r="O15" s="65"/>
       <c r="P15" s="65"/>
-      <c r="Q15" s="151"/>
+      <c r="Q15" s="152"/>
       <c r="R15" s="43"/>
       <c r="S15" s="39"/>
       <c r="U15" s="43"/>
@@ -4788,7 +5338,7 @@
       <c r="W15" s="10"/>
     </row>
     <row r="16" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="151"/>
+      <c r="A16" s="152"/>
       <c r="B16" s="14"/>
       <c r="C16" s="45"/>
       <c r="D16" s="62">
@@ -4810,7 +5360,7 @@
       <c r="I16" s="68"/>
       <c r="J16" s="68"/>
       <c r="K16" s="68"/>
-      <c r="L16" s="151"/>
+      <c r="L16" s="152"/>
       <c r="M16" s="62">
         <v>2</v>
       </c>
@@ -4819,7 +5369,7 @@
       </c>
       <c r="O16" s="65"/>
       <c r="P16" s="65"/>
-      <c r="Q16" s="151"/>
+      <c r="Q16" s="152"/>
       <c r="R16" s="43"/>
       <c r="S16" s="39"/>
       <c r="U16" s="43"/>
@@ -4827,7 +5377,7 @@
       <c r="W16" s="10"/>
     </row>
     <row r="17" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="151"/>
+      <c r="A17" s="152"/>
       <c r="B17" s="14"/>
       <c r="C17" s="45"/>
       <c r="D17" s="62">
@@ -4851,7 +5401,7 @@
       <c r="I17" s="68"/>
       <c r="J17" s="68"/>
       <c r="K17" s="68"/>
-      <c r="L17" s="151"/>
+      <c r="L17" s="152"/>
       <c r="M17" s="62">
         <v>3</v>
       </c>
@@ -4860,7 +5410,7 @@
       </c>
       <c r="O17" s="65"/>
       <c r="P17" s="65"/>
-      <c r="Q17" s="151"/>
+      <c r="Q17" s="152"/>
       <c r="R17" s="43"/>
       <c r="S17" s="39"/>
       <c r="U17" s="43"/>
@@ -4868,7 +5418,7 @@
       <c r="W17" s="10"/>
     </row>
     <row r="18" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="151"/>
+      <c r="A18" s="152"/>
       <c r="B18" s="14"/>
       <c r="C18" s="45"/>
       <c r="D18" s="62">
@@ -4890,7 +5440,7 @@
       <c r="I18" s="68"/>
       <c r="J18" s="68"/>
       <c r="K18" s="68"/>
-      <c r="L18" s="151"/>
+      <c r="L18" s="152"/>
       <c r="M18" s="62">
         <v>4</v>
       </c>
@@ -4899,13 +5449,13 @@
       </c>
       <c r="O18" s="65"/>
       <c r="P18" s="65"/>
-      <c r="Q18" s="151"/>
+      <c r="Q18" s="152"/>
       <c r="R18" s="43"/>
       <c r="U18" s="43"/>
       <c r="V18" s="43"/>
     </row>
     <row r="19" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="151"/>
+      <c r="A19" s="152"/>
       <c r="B19" s="14"/>
       <c r="C19" s="45"/>
       <c r="D19" s="62">
@@ -4929,7 +5479,7 @@
       <c r="I19" s="68"/>
       <c r="J19" s="68"/>
       <c r="K19" s="68"/>
-      <c r="L19" s="151"/>
+      <c r="L19" s="152"/>
       <c r="M19" s="62">
         <v>5</v>
       </c>
@@ -4938,13 +5488,13 @@
       </c>
       <c r="O19" s="65"/>
       <c r="P19" s="65"/>
-      <c r="Q19" s="151"/>
+      <c r="Q19" s="152"/>
       <c r="R19" s="43"/>
       <c r="U19" s="43"/>
       <c r="V19" s="43"/>
     </row>
     <row r="20" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="151"/>
+      <c r="A20" s="152"/>
       <c r="B20" s="14"/>
       <c r="C20" s="45"/>
       <c r="D20" s="62">
@@ -4966,7 +5516,7 @@
       <c r="I20" s="68"/>
       <c r="J20" s="68"/>
       <c r="K20" s="68"/>
-      <c r="L20" s="151"/>
+      <c r="L20" s="152"/>
       <c r="M20" s="62">
         <v>6</v>
       </c>
@@ -4975,14 +5525,14 @@
       </c>
       <c r="O20" s="65"/>
       <c r="P20" s="65"/>
-      <c r="Q20" s="151"/>
+      <c r="Q20" s="152"/>
       <c r="R20" s="43"/>
       <c r="S20" s="39"/>
       <c r="U20" s="43"/>
       <c r="V20" s="43"/>
     </row>
     <row r="21" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="151"/>
+      <c r="A21" s="152"/>
       <c r="B21" s="14"/>
       <c r="C21" s="45"/>
       <c r="D21" s="62">
@@ -5006,7 +5556,7 @@
       <c r="I21" s="68"/>
       <c r="J21" s="68"/>
       <c r="K21" s="68"/>
-      <c r="L21" s="151"/>
+      <c r="L21" s="152"/>
       <c r="M21" s="62">
         <v>7</v>
       </c>
@@ -5015,14 +5565,14 @@
       </c>
       <c r="O21" s="65"/>
       <c r="P21" s="65"/>
-      <c r="Q21" s="151"/>
+      <c r="Q21" s="152"/>
       <c r="R21" s="43"/>
       <c r="S21" s="39"/>
       <c r="U21" s="43"/>
       <c r="V21" s="43"/>
     </row>
     <row r="22" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="151"/>
+      <c r="A22" s="152"/>
       <c r="B22" s="14"/>
       <c r="C22" s="45"/>
       <c r="D22" s="62">
@@ -5046,7 +5596,7 @@
       <c r="I22" s="68"/>
       <c r="J22" s="68"/>
       <c r="K22" s="68"/>
-      <c r="L22" s="151"/>
+      <c r="L22" s="152"/>
       <c r="M22" s="62">
         <v>8</v>
       </c>
@@ -5055,30 +5605,30 @@
       </c>
       <c r="O22" s="65"/>
       <c r="P22" s="65"/>
-      <c r="Q22" s="151"/>
+      <c r="Q22" s="152"/>
       <c r="R22" s="43"/>
       <c r="S22" s="39"/>
       <c r="U22" s="43"/>
       <c r="V22" s="43"/>
     </row>
     <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="151"/>
-      <c r="B23" s="154"/>
-      <c r="C23" s="151"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="151"/>
+      <c r="A23" s="152"/>
+      <c r="B23" s="151"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
       <c r="H23" s="56"/>
       <c r="I23" s="56"/>
       <c r="J23" s="56"/>
       <c r="K23" s="56"/>
-      <c r="L23" s="151"/>
-      <c r="M23" s="155"/>
-      <c r="N23" s="151"/>
-      <c r="O23" s="151"/>
-      <c r="P23" s="151"/>
-      <c r="Q23" s="151"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="156"/>
+      <c r="N23" s="152"/>
+      <c r="O23" s="152"/>
+      <c r="P23" s="152"/>
+      <c r="Q23" s="152"/>
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
       <c r="T23" s="17"/>
@@ -5088,39 +5638,39 @@
       <c r="X23" s="17"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="151"/>
-      <c r="B24" s="153" t="s">
+      <c r="A24" s="152"/>
+      <c r="B24" s="154" t="s">
         <v>177</v>
       </c>
-      <c r="C24" s="151"/>
-      <c r="D24" s="152" t="s">
+      <c r="C24" s="152"/>
+      <c r="D24" s="159" t="s">
         <v>178</v>
       </c>
-      <c r="E24" s="151"/>
-      <c r="F24" s="151"/>
-      <c r="G24" s="151"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
       <c r="H24" s="74"/>
       <c r="I24" s="74"/>
       <c r="J24" s="74"/>
       <c r="K24" s="74"/>
-      <c r="L24" s="151"/>
-      <c r="M24" s="152" t="s">
+      <c r="L24" s="152"/>
+      <c r="M24" s="159" t="s">
         <v>179</v>
       </c>
-      <c r="N24" s="151"/>
-      <c r="O24" s="151"/>
-      <c r="P24" s="151"/>
-      <c r="Q24" s="151"/>
+      <c r="N24" s="152"/>
+      <c r="O24" s="152"/>
+      <c r="P24" s="152"/>
+      <c r="Q24" s="152"/>
       <c r="R24" s="17"/>
       <c r="S24" s="17"/>
       <c r="T24" s="17"/>
       <c r="U24" s="17"/>
-      <c r="V24" s="150"/>
-      <c r="W24" s="151"/>
-      <c r="X24" s="151"/>
+      <c r="V24" s="163"/>
+      <c r="W24" s="152"/>
+      <c r="X24" s="152"/>
     </row>
     <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="151"/>
+      <c r="A25" s="152"/>
       <c r="B25" s="14" t="s">
         <v>180</v>
       </c>
@@ -5151,7 +5701,7 @@
       <c r="K25" s="76" t="s">
         <v>190</v>
       </c>
-      <c r="L25" s="151"/>
+      <c r="L25" s="152"/>
       <c r="M25" s="76" t="s">
         <v>191</v>
       </c>
@@ -5164,7 +5714,7 @@
       <c r="P25" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="Q25" s="151"/>
+      <c r="Q25" s="152"/>
       <c r="R25" s="27"/>
       <c r="S25" s="27"/>
       <c r="T25" s="27"/>
@@ -5174,7 +5724,7 @@
       <c r="X25" s="27"/>
     </row>
     <row r="26" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="151"/>
+      <c r="A26" s="152"/>
       <c r="B26" s="14" t="s">
         <v>195</v>
       </c>
@@ -5208,7 +5758,7 @@
         <f>E26/E26</f>
         <v>1</v>
       </c>
-      <c r="L26" s="151"/>
+      <c r="L26" s="152"/>
       <c r="M26" s="77">
         <v>1</v>
       </c>
@@ -5221,7 +5771,7 @@
       <c r="P26" s="81">
         <v>0.2</v>
       </c>
-      <c r="Q26" s="151"/>
+      <c r="Q26" s="152"/>
       <c r="R26" s="43"/>
       <c r="U26" s="43"/>
       <c r="V26" s="43"/>
@@ -5229,7 +5779,7 @@
       <c r="X26" s="10"/>
     </row>
     <row r="27" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="151"/>
+      <c r="A27" s="152"/>
       <c r="B27" s="14"/>
       <c r="C27" s="45"/>
       <c r="D27" s="77">
@@ -5260,7 +5810,7 @@
         <f t="shared" ref="K27:K33" si="11">E27/E$26</f>
         <v>2</v>
       </c>
-      <c r="L27" s="151"/>
+      <c r="L27" s="152"/>
       <c r="M27" s="77">
         <v>2</v>
       </c>
@@ -5273,7 +5823,7 @@
       <c r="P27" s="81">
         <v>0.4</v>
       </c>
-      <c r="Q27" s="151"/>
+      <c r="Q27" s="152"/>
       <c r="R27" s="43"/>
       <c r="U27" s="43"/>
       <c r="V27" s="43"/>
@@ -5281,7 +5831,7 @@
       <c r="X27" s="10"/>
     </row>
     <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="151"/>
+      <c r="A28" s="152"/>
       <c r="B28" s="14"/>
       <c r="C28" s="45"/>
       <c r="D28" s="77">
@@ -5314,7 +5864,7 @@
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="L28" s="151"/>
+      <c r="L28" s="152"/>
       <c r="M28" s="77">
         <v>3</v>
       </c>
@@ -5327,7 +5877,7 @@
       <c r="P28" s="81">
         <v>0.6</v>
       </c>
-      <c r="Q28" s="151"/>
+      <c r="Q28" s="152"/>
       <c r="R28" s="43"/>
       <c r="U28" s="43"/>
       <c r="V28" s="43"/>
@@ -5335,7 +5885,7 @@
       <c r="X28" s="10"/>
     </row>
     <row r="29" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="151"/>
+      <c r="A29" s="152"/>
       <c r="B29" s="14"/>
       <c r="C29" s="45"/>
       <c r="D29" s="77">
@@ -5366,7 +5916,7 @@
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="L29" s="151"/>
+      <c r="L29" s="152"/>
       <c r="M29" s="77">
         <v>4</v>
       </c>
@@ -5379,13 +5929,13 @@
       <c r="P29" s="81">
         <v>0.8</v>
       </c>
-      <c r="Q29" s="151"/>
+      <c r="Q29" s="152"/>
       <c r="R29" s="43"/>
       <c r="U29" s="43"/>
       <c r="V29" s="43"/>
     </row>
     <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="151"/>
+      <c r="A30" s="152"/>
       <c r="B30" s="14"/>
       <c r="C30" s="45"/>
       <c r="D30" s="77">
@@ -5418,7 +5968,7 @@
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="L30" s="151"/>
+      <c r="L30" s="152"/>
       <c r="M30" s="77">
         <v>5</v>
       </c>
@@ -5431,13 +5981,13 @@
       <c r="P30" s="81">
         <v>1</v>
       </c>
-      <c r="Q30" s="151"/>
+      <c r="Q30" s="152"/>
       <c r="R30" s="43"/>
       <c r="U30" s="43"/>
       <c r="V30" s="43"/>
     </row>
     <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="151"/>
+      <c r="A31" s="152"/>
       <c r="B31" s="14"/>
       <c r="C31" s="45"/>
       <c r="D31" s="77">
@@ -5468,7 +6018,7 @@
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="L31" s="151"/>
+      <c r="L31" s="152"/>
       <c r="M31" s="77">
         <v>6</v>
       </c>
@@ -5481,13 +6031,13 @@
       <c r="P31" s="81">
         <v>1.2</v>
       </c>
-      <c r="Q31" s="151"/>
+      <c r="Q31" s="152"/>
       <c r="R31" s="43"/>
       <c r="U31" s="43"/>
       <c r="V31" s="43"/>
     </row>
     <row r="32" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="151"/>
+      <c r="A32" s="152"/>
       <c r="B32" s="14"/>
       <c r="C32" s="45"/>
       <c r="D32" s="77">
@@ -5520,7 +6070,7 @@
         <f t="shared" si="11"/>
         <v>13.999999999999998</v>
       </c>
-      <c r="L32" s="151"/>
+      <c r="L32" s="152"/>
       <c r="M32" s="77">
         <v>7</v>
       </c>
@@ -5533,13 +6083,13 @@
       <c r="P32" s="81">
         <v>1.6</v>
       </c>
-      <c r="Q32" s="151"/>
+      <c r="Q32" s="152"/>
       <c r="R32" s="43"/>
       <c r="U32" s="43"/>
       <c r="V32" s="43"/>
     </row>
     <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="151"/>
+      <c r="A33" s="152"/>
       <c r="B33" s="14"/>
       <c r="C33" s="45"/>
       <c r="D33" s="77">
@@ -5572,7 +6122,7 @@
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="L33" s="151"/>
+      <c r="L33" s="152"/>
       <c r="M33" s="77">
         <v>8</v>
       </c>
@@ -5585,55 +6135,55 @@
       <c r="P33" s="81">
         <v>2</v>
       </c>
-      <c r="Q33" s="151"/>
+      <c r="Q33" s="152"/>
       <c r="R33" s="43"/>
       <c r="U33" s="43"/>
       <c r="V33" s="43"/>
     </row>
     <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="151"/>
-      <c r="B34" s="154"/>
-      <c r="C34" s="151"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
+      <c r="A34" s="152"/>
+      <c r="B34" s="151"/>
+      <c r="C34" s="152"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="152"/>
+      <c r="F34" s="152"/>
+      <c r="G34" s="152"/>
       <c r="H34" s="56"/>
       <c r="I34" s="56"/>
       <c r="J34" s="56"/>
       <c r="K34" s="56"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="155"/>
-      <c r="N34" s="151"/>
-      <c r="O34" s="151"/>
-      <c r="P34" s="151"/>
-      <c r="Q34" s="151"/>
+      <c r="L34" s="152"/>
+      <c r="M34" s="156"/>
+      <c r="N34" s="152"/>
+      <c r="O34" s="152"/>
+      <c r="P34" s="152"/>
+      <c r="Q34" s="152"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="151"/>
-      <c r="B35" s="153"/>
-      <c r="C35" s="151"/>
-      <c r="D35" s="161" t="s">
+      <c r="A35" s="152"/>
+      <c r="B35" s="154"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="158" t="s">
         <v>238</v>
       </c>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="152"/>
       <c r="H35" s="96"/>
       <c r="I35" s="96"/>
       <c r="J35" s="96"/>
       <c r="K35" s="96"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="161" t="s">
+      <c r="L35" s="152"/>
+      <c r="M35" s="158" t="s">
         <v>239</v>
       </c>
-      <c r="N35" s="151"/>
-      <c r="O35" s="151"/>
-      <c r="P35" s="151"/>
-      <c r="Q35" s="151"/>
+      <c r="N35" s="152"/>
+      <c r="O35" s="152"/>
+      <c r="P35" s="152"/>
+      <c r="Q35" s="152"/>
     </row>
     <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="151"/>
+      <c r="A36" s="152"/>
       <c r="B36" s="14"/>
       <c r="C36" s="45"/>
       <c r="D36" s="97" t="s">
@@ -5652,7 +6202,7 @@
       <c r="I36" s="97"/>
       <c r="J36" s="97"/>
       <c r="K36" s="97"/>
-      <c r="L36" s="151"/>
+      <c r="L36" s="152"/>
       <c r="M36" s="97" t="s">
         <v>244</v>
       </c>
@@ -5661,10 +6211,10 @@
       </c>
       <c r="O36" s="97"/>
       <c r="P36" s="97"/>
-      <c r="Q36" s="151"/>
+      <c r="Q36" s="152"/>
     </row>
     <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="151"/>
+      <c r="A37" s="152"/>
       <c r="B37" s="14"/>
       <c r="C37" s="45"/>
       <c r="D37" s="99">
@@ -5682,7 +6232,7 @@
       <c r="I37" s="53"/>
       <c r="J37" s="53"/>
       <c r="K37" s="53"/>
-      <c r="L37" s="151"/>
+      <c r="L37" s="152"/>
       <c r="M37" s="99">
         <v>1</v>
       </c>
@@ -5691,10 +6241,10 @@
       </c>
       <c r="O37" s="53"/>
       <c r="P37" s="53"/>
-      <c r="Q37" s="151"/>
+      <c r="Q37" s="152"/>
     </row>
     <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="151"/>
+      <c r="A38" s="152"/>
       <c r="B38" s="14"/>
       <c r="C38" s="45"/>
       <c r="D38" s="99">
@@ -5713,7 +6263,7 @@
       <c r="I38" s="53"/>
       <c r="J38" s="53"/>
       <c r="K38" s="53"/>
-      <c r="L38" s="151"/>
+      <c r="L38" s="152"/>
       <c r="M38" s="99">
         <v>2</v>
       </c>
@@ -5722,10 +6272,10 @@
       </c>
       <c r="O38" s="53"/>
       <c r="P38" s="53"/>
-      <c r="Q38" s="151"/>
+      <c r="Q38" s="152"/>
     </row>
     <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="151"/>
+      <c r="A39" s="152"/>
       <c r="B39" s="14"/>
       <c r="C39" s="45"/>
       <c r="D39" s="99">
@@ -5746,7 +6296,7 @@
       <c r="I39" s="53"/>
       <c r="J39" s="53"/>
       <c r="K39" s="53"/>
-      <c r="L39" s="151"/>
+      <c r="L39" s="152"/>
       <c r="M39" s="99">
         <v>3</v>
       </c>
@@ -5755,10 +6305,10 @@
       </c>
       <c r="O39" s="53"/>
       <c r="P39" s="53"/>
-      <c r="Q39" s="151"/>
+      <c r="Q39" s="152"/>
     </row>
     <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="151"/>
+      <c r="A40" s="152"/>
       <c r="B40" s="14"/>
       <c r="C40" s="45"/>
       <c r="D40" s="99">
@@ -5777,7 +6327,7 @@
       <c r="I40" s="53"/>
       <c r="J40" s="53"/>
       <c r="K40" s="53"/>
-      <c r="L40" s="151"/>
+      <c r="L40" s="152"/>
       <c r="M40" s="99">
         <v>4</v>
       </c>
@@ -5786,10 +6336,10 @@
       </c>
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
-      <c r="Q40" s="151"/>
+      <c r="Q40" s="152"/>
     </row>
     <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="151"/>
+      <c r="A41" s="152"/>
       <c r="B41" s="14"/>
       <c r="C41" s="45"/>
       <c r="D41" s="99">
@@ -5810,7 +6360,7 @@
       <c r="I41" s="53"/>
       <c r="J41" s="53"/>
       <c r="K41" s="53"/>
-      <c r="L41" s="151"/>
+      <c r="L41" s="152"/>
       <c r="M41" s="99">
         <v>5</v>
       </c>
@@ -5819,10 +6369,10 @@
       </c>
       <c r="O41" s="53"/>
       <c r="P41" s="53"/>
-      <c r="Q41" s="151"/>
+      <c r="Q41" s="152"/>
     </row>
     <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="151"/>
+      <c r="A42" s="152"/>
       <c r="B42" s="14"/>
       <c r="C42" s="45"/>
       <c r="D42" s="99">
@@ -5841,7 +6391,7 @@
       <c r="I42" s="53"/>
       <c r="J42" s="53"/>
       <c r="K42" s="53"/>
-      <c r="L42" s="151"/>
+      <c r="L42" s="152"/>
       <c r="M42" s="99">
         <v>6</v>
       </c>
@@ -5850,10 +6400,10 @@
       </c>
       <c r="O42" s="53"/>
       <c r="P42" s="53"/>
-      <c r="Q42" s="151"/>
+      <c r="Q42" s="152"/>
     </row>
     <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="151"/>
+      <c r="A43" s="152"/>
       <c r="B43" s="14"/>
       <c r="C43" s="45"/>
       <c r="D43" s="99">
@@ -5874,7 +6424,7 @@
       <c r="I43" s="53"/>
       <c r="J43" s="53"/>
       <c r="K43" s="53"/>
-      <c r="L43" s="151"/>
+      <c r="L43" s="152"/>
       <c r="M43" s="99">
         <v>7</v>
       </c>
@@ -5883,10 +6433,10 @@
       </c>
       <c r="O43" s="53"/>
       <c r="P43" s="53"/>
-      <c r="Q43" s="151"/>
+      <c r="Q43" s="152"/>
     </row>
     <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="151"/>
+      <c r="A44" s="152"/>
       <c r="B44" s="14"/>
       <c r="C44" s="45"/>
       <c r="D44" s="99">
@@ -5907,7 +6457,7 @@
       <c r="I44" s="53"/>
       <c r="J44" s="53"/>
       <c r="K44" s="53"/>
-      <c r="L44" s="151"/>
+      <c r="L44" s="152"/>
       <c r="M44" s="99">
         <v>8</v>
       </c>
@@ -5916,52 +6466,52 @@
       </c>
       <c r="O44" s="53"/>
       <c r="P44" s="53"/>
-      <c r="Q44" s="151"/>
+      <c r="Q44" s="152"/>
     </row>
     <row r="45" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="151"/>
-      <c r="B45" s="154"/>
-      <c r="C45" s="151"/>
-      <c r="D45" s="155"/>
-      <c r="E45" s="151"/>
-      <c r="F45" s="151"/>
-      <c r="G45" s="151"/>
+      <c r="A45" s="152"/>
+      <c r="B45" s="151"/>
+      <c r="C45" s="152"/>
+      <c r="D45" s="156"/>
+      <c r="E45" s="152"/>
+      <c r="F45" s="152"/>
+      <c r="G45" s="152"/>
       <c r="H45" s="56"/>
       <c r="I45" s="56"/>
       <c r="J45" s="56"/>
       <c r="K45" s="56"/>
-      <c r="L45" s="151"/>
-      <c r="M45" s="155"/>
-      <c r="N45" s="151"/>
-      <c r="O45" s="151"/>
-      <c r="P45" s="151"/>
-      <c r="Q45" s="151"/>
+      <c r="L45" s="152"/>
+      <c r="M45" s="156"/>
+      <c r="N45" s="152"/>
+      <c r="O45" s="152"/>
+      <c r="P45" s="152"/>
+      <c r="Q45" s="152"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="151"/>
-      <c r="B46" s="153"/>
-      <c r="C46" s="151"/>
-      <c r="D46" s="163" t="s">
+      <c r="A46" s="152"/>
+      <c r="B46" s="154"/>
+      <c r="C46" s="152"/>
+      <c r="D46" s="155" t="s">
         <v>258</v>
       </c>
-      <c r="E46" s="151"/>
-      <c r="F46" s="151"/>
-      <c r="G46" s="151"/>
+      <c r="E46" s="152"/>
+      <c r="F46" s="152"/>
+      <c r="G46" s="152"/>
       <c r="H46" s="106"/>
       <c r="I46" s="106"/>
       <c r="J46" s="106"/>
       <c r="K46" s="106"/>
-      <c r="L46" s="151"/>
-      <c r="M46" s="163" t="s">
+      <c r="L46" s="152"/>
+      <c r="M46" s="155" t="s">
         <v>262</v>
       </c>
-      <c r="N46" s="151"/>
-      <c r="O46" s="151"/>
-      <c r="P46" s="151"/>
-      <c r="Q46" s="151"/>
+      <c r="N46" s="152"/>
+      <c r="O46" s="152"/>
+      <c r="P46" s="152"/>
+      <c r="Q46" s="152"/>
     </row>
     <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="151"/>
+      <c r="A47" s="152"/>
       <c r="B47" s="14"/>
       <c r="C47" s="45"/>
       <c r="D47" s="108" t="s">
@@ -5978,7 +6528,7 @@
       <c r="I47" s="108"/>
       <c r="J47" s="108"/>
       <c r="K47" s="108"/>
-      <c r="L47" s="151"/>
+      <c r="L47" s="152"/>
       <c r="M47" s="108" t="s">
         <v>273</v>
       </c>
@@ -5987,10 +6537,10 @@
       </c>
       <c r="O47" s="108"/>
       <c r="P47" s="108"/>
-      <c r="Q47" s="151"/>
+      <c r="Q47" s="152"/>
     </row>
     <row r="48" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="151"/>
+      <c r="A48" s="152"/>
       <c r="B48" s="14"/>
       <c r="C48" s="45"/>
       <c r="D48" s="110">
@@ -6005,7 +6555,7 @@
       <c r="I48" s="113"/>
       <c r="J48" s="113"/>
       <c r="K48" s="113"/>
-      <c r="L48" s="151"/>
+      <c r="L48" s="152"/>
       <c r="M48" s="110">
         <v>1</v>
       </c>
@@ -6014,10 +6564,10 @@
       </c>
       <c r="O48" s="113"/>
       <c r="P48" s="113"/>
-      <c r="Q48" s="151"/>
+      <c r="Q48" s="152"/>
     </row>
     <row r="49" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="151"/>
+      <c r="A49" s="152"/>
       <c r="B49" s="14"/>
       <c r="C49" s="45"/>
       <c r="D49" s="110">
@@ -6033,7 +6583,7 @@
       <c r="I49" s="113"/>
       <c r="J49" s="113"/>
       <c r="K49" s="113"/>
-      <c r="L49" s="151"/>
+      <c r="L49" s="152"/>
       <c r="M49" s="110">
         <v>2</v>
       </c>
@@ -6042,10 +6592,10 @@
       </c>
       <c r="O49" s="113"/>
       <c r="P49" s="113"/>
-      <c r="Q49" s="151"/>
+      <c r="Q49" s="152"/>
     </row>
     <row r="50" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="151"/>
+      <c r="A50" s="152"/>
       <c r="B50" s="14"/>
       <c r="C50" s="45"/>
       <c r="D50" s="110">
@@ -6063,7 +6613,7 @@
       <c r="I50" s="113"/>
       <c r="J50" s="113"/>
       <c r="K50" s="113"/>
-      <c r="L50" s="151"/>
+      <c r="L50" s="152"/>
       <c r="M50" s="110">
         <v>3</v>
       </c>
@@ -6072,10 +6622,10 @@
       </c>
       <c r="O50" s="113"/>
       <c r="P50" s="113"/>
-      <c r="Q50" s="151"/>
+      <c r="Q50" s="152"/>
     </row>
     <row r="51" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="151"/>
+      <c r="A51" s="152"/>
       <c r="B51" s="14"/>
       <c r="C51" s="45"/>
       <c r="D51" s="110">
@@ -6091,7 +6641,7 @@
       <c r="I51" s="113"/>
       <c r="J51" s="113"/>
       <c r="K51" s="113"/>
-      <c r="L51" s="151"/>
+      <c r="L51" s="152"/>
       <c r="M51" s="110">
         <v>4</v>
       </c>
@@ -6100,10 +6650,10 @@
       </c>
       <c r="O51" s="113"/>
       <c r="P51" s="113"/>
-      <c r="Q51" s="151"/>
+      <c r="Q51" s="152"/>
     </row>
     <row r="52" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="151"/>
+      <c r="A52" s="152"/>
       <c r="B52" s="14"/>
       <c r="C52" s="45"/>
       <c r="D52" s="110">
@@ -6121,7 +6671,7 @@
       <c r="I52" s="113"/>
       <c r="J52" s="113"/>
       <c r="K52" s="113"/>
-      <c r="L52" s="151"/>
+      <c r="L52" s="152"/>
       <c r="M52" s="110">
         <v>5</v>
       </c>
@@ -6130,10 +6680,10 @@
       </c>
       <c r="O52" s="113"/>
       <c r="P52" s="113"/>
-      <c r="Q52" s="151"/>
+      <c r="Q52" s="152"/>
     </row>
     <row r="53" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="151"/>
+      <c r="A53" s="152"/>
       <c r="B53" s="14"/>
       <c r="C53" s="45"/>
       <c r="D53" s="110">
@@ -6149,7 +6699,7 @@
       <c r="I53" s="113"/>
       <c r="J53" s="113"/>
       <c r="K53" s="113"/>
-      <c r="L53" s="151"/>
+      <c r="L53" s="152"/>
       <c r="M53" s="110">
         <v>6</v>
       </c>
@@ -6158,10 +6708,10 @@
       </c>
       <c r="O53" s="113"/>
       <c r="P53" s="113"/>
-      <c r="Q53" s="151"/>
+      <c r="Q53" s="152"/>
     </row>
     <row r="54" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="151"/>
+      <c r="A54" s="152"/>
       <c r="B54" s="14"/>
       <c r="C54" s="45"/>
       <c r="D54" s="110">
@@ -6179,7 +6729,7 @@
       <c r="I54" s="113"/>
       <c r="J54" s="113"/>
       <c r="K54" s="113"/>
-      <c r="L54" s="151"/>
+      <c r="L54" s="152"/>
       <c r="M54" s="110">
         <v>7</v>
       </c>
@@ -6188,10 +6738,10 @@
       </c>
       <c r="O54" s="113"/>
       <c r="P54" s="113"/>
-      <c r="Q54" s="151"/>
+      <c r="Q54" s="152"/>
     </row>
     <row r="55" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="151"/>
+      <c r="A55" s="152"/>
       <c r="B55" s="14"/>
       <c r="C55" s="45"/>
       <c r="D55" s="110">
@@ -6209,7 +6759,7 @@
       <c r="I55" s="113"/>
       <c r="J55" s="113"/>
       <c r="K55" s="113"/>
-      <c r="L55" s="151"/>
+      <c r="L55" s="152"/>
       <c r="M55" s="110">
         <v>8</v>
       </c>
@@ -6218,34 +6768,46 @@
       </c>
       <c r="O55" s="113"/>
       <c r="P55" s="113"/>
-      <c r="Q55" s="151"/>
+      <c r="Q55" s="152"/>
     </row>
     <row r="56" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="151"/>
+      <c r="A56" s="152"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="162"/>
-      <c r="E56" s="151"/>
-      <c r="F56" s="151"/>
-      <c r="G56" s="151"/>
-      <c r="H56" s="151"/>
-      <c r="I56" s="151"/>
-      <c r="J56" s="151"/>
-      <c r="K56" s="151"/>
-      <c r="L56" s="151"/>
-      <c r="M56" s="151"/>
-      <c r="N56" s="151"/>
-      <c r="O56" s="151"/>
-      <c r="P56" s="151"/>
-      <c r="Q56" s="151"/>
+      <c r="D56" s="153"/>
+      <c r="E56" s="152"/>
+      <c r="F56" s="152"/>
+      <c r="G56" s="152"/>
+      <c r="H56" s="152"/>
+      <c r="I56" s="152"/>
+      <c r="J56" s="152"/>
+      <c r="K56" s="152"/>
+      <c r="L56" s="152"/>
+      <c r="M56" s="152"/>
+      <c r="N56" s="152"/>
+      <c r="O56" s="152"/>
+      <c r="P56" s="152"/>
+      <c r="Q56" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D56:P56"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="D2:G2"/>
     <mergeCell ref="M34:P34"/>
     <mergeCell ref="L2:L55"/>
     <mergeCell ref="M35:P35"/>
@@ -6262,23 +6824,11 @@
     <mergeCell ref="D35:G35"/>
     <mergeCell ref="M12:P12"/>
     <mergeCell ref="M13:P13"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D56:P56"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D45:G45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6695,7 +7245,7 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6716,18 +7266,18 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="158" t="s">
+      <c r="B1" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
       <c r="L1" s="12"/>
       <c r="M1" s="117"/>
       <c r="N1" s="117"/>
@@ -7126,11 +7676,11 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="168" t="s">
+      <c r="A9" s="167" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="151"/>
-      <c r="C9" s="151"/>
+      <c r="B9" s="152"/>
+      <c r="C9" s="152"/>
       <c r="M9" s="140" t="s">
         <v>293</v>
       </c>
@@ -7140,10 +7690,10 @@
       <c r="O9" s="140"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="167" t="s">
+      <c r="A10" s="165" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="151"/>
+      <c r="B10" s="152"/>
       <c r="C10" s="50">
         <f>C4*14/5100</f>
         <v>1.6016000000000001</v>
@@ -7155,20 +7705,20 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="167" t="s">
+      <c r="A11" s="165" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="151"/>
+      <c r="B11" s="152"/>
       <c r="C11" s="51">
         <v>1</v>
       </c>
       <c r="D11" s="51"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="167" t="s">
+      <c r="A12" s="165" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="151"/>
+      <c r="B12" s="152"/>
       <c r="C12" s="121">
         <v>1.55</v>
       </c>
@@ -7180,10 +7730,10 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="167" t="s">
+      <c r="A13" s="165" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="151"/>
+      <c r="B13" s="152"/>
       <c r="C13" s="53">
         <v>0.8</v>
       </c>
@@ -7199,10 +7749,10 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="167" t="s">
+      <c r="A14" s="165" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="151"/>
+      <c r="B14" s="152"/>
       <c r="C14" s="53">
         <v>10</v>
       </c>
@@ -7217,10 +7767,10 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="165" t="s">
+      <c r="A15" s="168" t="s">
         <v>311</v>
       </c>
-      <c r="B15" s="151"/>
+      <c r="B15" s="152"/>
       <c r="C15" s="121">
         <v>1.3</v>
       </c>
@@ -7239,10 +7789,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="166" t="s">
+      <c r="A16" s="169" t="s">
         <v>312</v>
       </c>
-      <c r="B16" s="151"/>
+      <c r="B16" s="152"/>
       <c r="C16" s="138">
         <v>1.1000000000000001</v>
       </c>
@@ -7258,10 +7808,10 @@
       <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="166" t="s">
+      <c r="A17" s="169" t="s">
         <v>310</v>
       </c>
-      <c r="B17" s="151"/>
+      <c r="B17" s="152"/>
       <c r="C17" s="138">
         <v>1</v>
       </c>
@@ -7277,8 +7827,8 @@
       <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="164"/>
-      <c r="B18" s="151"/>
+      <c r="A18" s="166"/>
+      <c r="B18" s="152"/>
       <c r="C18" s="53"/>
       <c r="D18" s="53"/>
       <c r="E18" s="10">
@@ -7292,8 +7842,8 @@
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="164"/>
-      <c r="B19" s="151"/>
+      <c r="A19" s="166"/>
+      <c r="B19" s="152"/>
       <c r="C19" s="53"/>
       <c r="D19" s="53"/>
     </row>
@@ -7383,6 +7933,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A10:B10"/>
@@ -7390,11 +7945,6 @@
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7423,13 +7973,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="D1" s="169" t="s">
+      <c r="D1" s="170" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="D2" s="130" t="s">
@@ -7753,101 +8303,96 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="168" t="s">
+      <c r="A26" s="167" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="151"/>
-      <c r="C26" s="151"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="152"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="165" t="s">
+      <c r="A27" s="168" t="s">
         <v>302</v>
       </c>
-      <c r="B27" s="151"/>
+      <c r="B27" s="152"/>
       <c r="C27" s="129">
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="165"/>
-      <c r="B28" s="151"/>
+      <c r="A28" s="168"/>
+      <c r="B28" s="152"/>
       <c r="C28" s="139"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="165" t="s">
+      <c r="A29" s="168" t="s">
         <v>303</v>
       </c>
-      <c r="B29" s="151"/>
+      <c r="B29" s="152"/>
       <c r="C29" s="121">
         <v>0.79</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="165" t="s">
+      <c r="A30" s="168" t="s">
         <v>299</v>
       </c>
-      <c r="B30" s="165"/>
+      <c r="B30" s="168"/>
       <c r="C30" s="138">
         <f>C29*C$34</f>
         <v>1.1850000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="165" t="s">
+      <c r="A31" s="168" t="s">
         <v>298</v>
       </c>
-      <c r="B31" s="165"/>
+      <c r="B31" s="168"/>
       <c r="C31" s="138">
         <f t="shared" ref="C31:C33" si="5">C30*C$34</f>
         <v>1.7775000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="165" t="s">
+      <c r="A32" s="168" t="s">
         <v>300</v>
       </c>
-      <c r="B32" s="165"/>
+      <c r="B32" s="168"/>
       <c r="C32" s="138">
         <f t="shared" si="5"/>
         <v>2.6662500000000002</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="166" t="s">
+      <c r="A33" s="169" t="s">
         <v>301</v>
       </c>
-      <c r="B33" s="164"/>
+      <c r="B33" s="166"/>
       <c r="C33" s="138">
         <f t="shared" si="5"/>
         <v>3.9993750000000006</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="166" t="s">
+      <c r="A34" s="169" t="s">
         <v>304</v>
       </c>
-      <c r="B34" s="151"/>
+      <c r="B34" s="152"/>
       <c r="C34" s="53">
         <v>1.5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="164"/>
-      <c r="B35" s="151"/>
+      <c r="A35" s="166"/>
+      <c r="B35" s="152"/>
       <c r="C35" s="53"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="164"/>
-      <c r="B36" s="151"/>
+      <c r="A36" s="166"/>
+      <c r="B36" s="152"/>
       <c r="C36" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="D1:H1"/>
@@ -7855,44 +8400,116 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:O21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="214" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="214" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="214" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="214"/>
+    <col min="18" max="18" width="10.7109375" customWidth="1"/>
+    <col min="19" max="20" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="W1" s="119"/>
+      <c r="Y1" s="119"/>
+      <c r="Z1" s="119"/>
+      <c r="AC1" s="119" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q2" s="150"/>
+      <c r="R2" s="150"/>
+      <c r="S2" s="150"/>
+      <c r="T2" s="150"/>
+      <c r="U2" s="150"/>
+      <c r="V2" s="150"/>
+      <c r="W2" s="150"/>
+      <c r="X2" s="150"/>
+      <c r="Y2" s="150"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="150"/>
+      <c r="AB2" s="150"/>
+    </row>
+    <row r="3" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="144" t="s">
         <v>333</v>
       </c>
-      <c r="D3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="O4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="O5" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D3" s="197" t="s">
+        <v>345</v>
+      </c>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="198"/>
+      <c r="H3" s="199"/>
+      <c r="Q3" s="210" t="s">
+        <v>347</v>
+      </c>
+      <c r="R3" s="205"/>
+      <c r="S3" s="205"/>
+      <c r="T3" s="205"/>
+      <c r="U3" s="205"/>
+      <c r="V3" s="205"/>
+      <c r="W3" s="205"/>
+      <c r="X3" s="205"/>
+      <c r="Y3" s="205"/>
+      <c r="Z3" s="205"/>
+      <c r="AA3" s="150"/>
+    </row>
+    <row r="4" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="200" t="s">
+        <v>346</v>
+      </c>
+      <c r="E4" s="201"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="201"/>
+      <c r="H4" s="202"/>
+      <c r="Q4" s="211"/>
+      <c r="R4" s="205"/>
+      <c r="S4" s="205"/>
+      <c r="T4" s="205"/>
+      <c r="U4" s="205"/>
+      <c r="V4" s="205"/>
+      <c r="W4" s="205"/>
+      <c r="X4" s="205"/>
+      <c r="Y4" s="205"/>
+      <c r="Z4" s="205"/>
+      <c r="AA4" s="150"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Q5" s="203"/>
+      <c r="R5" s="150"/>
+      <c r="S5" s="150"/>
+      <c r="T5" s="150"/>
+      <c r="U5" s="150"/>
+      <c r="V5" s="150"/>
+      <c r="W5" s="150"/>
+      <c r="X5" s="150"/>
+      <c r="Y5" s="150"/>
+      <c r="Z5" s="150"/>
+      <c r="AA5" s="150"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="145" t="s">
         <v>322</v>
       </c>
@@ -7905,142 +8522,1529 @@
         <v>336</v>
       </c>
       <c r="F6" s="146"/>
-      <c r="G6" s="147" t="s">
+      <c r="G6" s="215" t="s">
         <v>335</v>
       </c>
-      <c r="H6" s="146"/>
+      <c r="H6" s="215" t="s">
+        <v>335</v>
+      </c>
       <c r="I6" s="146"/>
-      <c r="J6" s="147" t="s">
+      <c r="J6" s="215" t="s">
+        <v>335</v>
+      </c>
+      <c r="K6" s="215" t="s">
+        <v>344</v>
+      </c>
+      <c r="L6" s="146"/>
+      <c r="M6" s="215" t="s">
         <v>338</v>
       </c>
-      <c r="K6" s="147" t="s">
+      <c r="N6" s="215" t="s">
         <v>339</v>
       </c>
-      <c r="O6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="148" t="s">
+      <c r="Q6" s="203"/>
+      <c r="R6" s="207" t="s">
+        <v>348</v>
+      </c>
+      <c r="S6" s="207"/>
+      <c r="T6" s="150"/>
+      <c r="U6" s="206" t="s">
+        <v>361</v>
+      </c>
+      <c r="V6" s="206"/>
+      <c r="W6" s="206"/>
+      <c r="X6" s="150"/>
+      <c r="Y6" s="196" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z6" s="196"/>
+      <c r="AA6" s="150"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7" s="147"/>
+      <c r="B7" s="186"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="215" t="s">
+        <v>343</v>
+      </c>
+      <c r="H7" s="216" t="s">
+        <v>343</v>
+      </c>
+      <c r="I7" s="186"/>
+      <c r="J7" s="215" t="s">
+        <v>343</v>
+      </c>
+      <c r="K7" s="215" t="s">
+        <v>343</v>
+      </c>
+      <c r="L7" s="186"/>
+      <c r="M7" s="216" t="s">
+        <v>340</v>
+      </c>
+      <c r="N7" s="216" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q7" s="203"/>
+      <c r="R7" s="204"/>
+      <c r="S7" s="208" t="s">
+        <v>340</v>
+      </c>
+      <c r="T7" s="150"/>
+      <c r="U7" s="195"/>
+      <c r="V7" s="195"/>
+      <c r="W7" s="209" t="s">
+        <v>363</v>
+      </c>
+      <c r="X7" s="150"/>
+      <c r="Y7" s="150"/>
+      <c r="Z7" s="150"/>
+      <c r="AA7" s="150"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8" s="148" t="s">
         <v>323</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="G7" t="s">
-        <v>343</v>
-      </c>
-      <c r="J7" t="s">
-        <v>340</v>
-      </c>
-      <c r="K7" t="s">
-        <v>340</v>
-      </c>
-      <c r="O7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="149"/>
-      <c r="C8" s="136" t="s">
+      <c r="B8" s="186"/>
+      <c r="C8" s="220" t="s">
         <v>342</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8">
+      <c r="D8" s="220"/>
+      <c r="E8" s="185">
         <v>1</v>
       </c>
-      <c r="G8" s="119">
-        <v>360</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
-      </c>
-      <c r="K8">
-        <f>J8</f>
-        <v>4</v>
-      </c>
-      <c r="O8" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F8" s="186"/>
+      <c r="G8" s="213">
+        <f>W9*Y9*S8</f>
+        <v>1800</v>
+      </c>
+      <c r="H8" s="217">
+        <f>G8</f>
+        <v>1800</v>
+      </c>
+      <c r="I8" s="186"/>
+      <c r="J8" s="213"/>
+      <c r="K8" s="213"/>
+      <c r="L8" s="186"/>
+      <c r="M8" s="218">
+        <f>S8</f>
+        <v>10</v>
+      </c>
+      <c r="N8" s="218"/>
+      <c r="Q8" s="203"/>
+      <c r="R8" s="193" t="s">
+        <v>323</v>
+      </c>
+      <c r="S8" s="189">
+        <v>10</v>
+      </c>
+      <c r="T8" s="150"/>
+      <c r="U8" s="191" t="s">
+        <v>362</v>
+      </c>
+      <c r="V8" s="192"/>
+      <c r="W8" s="187">
+        <v>250</v>
+      </c>
+      <c r="X8" s="150"/>
+      <c r="Y8" s="150"/>
+      <c r="Z8" s="150"/>
+      <c r="AA8" s="150"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="149"/>
-      <c r="C9" s="136" t="s">
+      <c r="B9" s="186"/>
+      <c r="C9" s="220" t="s">
         <v>341</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="O9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D9" s="220"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="186"/>
+      <c r="G9" s="213"/>
+      <c r="H9" s="213"/>
+      <c r="I9" s="186"/>
+      <c r="J9" s="213"/>
+      <c r="K9" s="213"/>
+      <c r="L9" s="186"/>
+      <c r="M9" s="213">
+        <f>M8</f>
+        <v>10</v>
+      </c>
+      <c r="N9" s="213">
+        <f>M9</f>
+        <v>10</v>
+      </c>
+      <c r="Q9" s="203"/>
+      <c r="R9" s="194" t="s">
+        <v>324</v>
+      </c>
+      <c r="S9" s="188">
+        <v>120</v>
+      </c>
+      <c r="T9" s="150"/>
+      <c r="U9" s="191" t="s">
+        <v>364</v>
+      </c>
+      <c r="V9" s="192"/>
+      <c r="W9" s="187">
+        <v>90</v>
+      </c>
+      <c r="X9" s="150"/>
+      <c r="Y9" s="150">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="119" t="s">
+        <v>366</v>
+      </c>
+      <c r="AA9" s="150"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="149"/>
-      <c r="O10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B10" s="186"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="185"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="213"/>
+      <c r="H10" s="213"/>
+      <c r="I10" s="186"/>
+      <c r="J10" s="213"/>
+      <c r="K10" s="219">
+        <f>H8</f>
+        <v>1800</v>
+      </c>
+      <c r="L10" s="186"/>
+      <c r="M10" s="213"/>
+      <c r="N10" s="213"/>
+      <c r="Q10" s="203"/>
+      <c r="R10" s="194" t="s">
+        <v>325</v>
+      </c>
+      <c r="S10" s="188">
+        <v>180</v>
+      </c>
+      <c r="T10" s="150"/>
+      <c r="U10" s="191" t="s">
+        <v>367</v>
+      </c>
+      <c r="V10" s="192"/>
+      <c r="W10" s="187">
+        <v>50</v>
+      </c>
+      <c r="X10" s="150"/>
+      <c r="Y10" s="150"/>
+      <c r="Z10" s="150"/>
+      <c r="AA10" s="150"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="148" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="119" t="s">
+      <c r="B11" s="186"/>
+      <c r="C11" s="148" t="s">
         <v>323</v>
       </c>
-      <c r="E11">
+      <c r="D11" s="149"/>
+      <c r="E11" s="185">
         <v>2</v>
       </c>
-      <c r="G11">
-        <f>G8*2</f>
-        <v>720</v>
-      </c>
-      <c r="J11">
-        <f>J8*2</f>
-        <v>8</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="F11" s="186"/>
+      <c r="G11" s="213">
+        <f>W8*S9</f>
+        <v>30000</v>
+      </c>
+      <c r="H11" s="213">
+        <f>G11*E11</f>
+        <v>60000</v>
+      </c>
+      <c r="I11" s="186"/>
+      <c r="J11" s="213"/>
+      <c r="K11" s="213"/>
+      <c r="L11" s="186"/>
+      <c r="M11" s="213">
+        <f>S9</f>
+        <v>120</v>
+      </c>
+      <c r="N11" s="213"/>
+      <c r="Q11" s="203"/>
+      <c r="R11" s="194" t="s">
+        <v>326</v>
+      </c>
+      <c r="S11" s="188">
+        <v>240</v>
+      </c>
+      <c r="T11" s="150"/>
+      <c r="U11" s="192"/>
+      <c r="V11" s="192"/>
+      <c r="W11" s="187"/>
+      <c r="X11" s="150"/>
+      <c r="Y11" s="150"/>
+      <c r="Z11" s="150"/>
+      <c r="AA11" s="150"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12" s="149"/>
+      <c r="B12" s="186"/>
+      <c r="C12" s="148" t="s">
+        <v>337</v>
+      </c>
+      <c r="D12" s="149"/>
+      <c r="E12" s="185">
+        <v>100</v>
+      </c>
+      <c r="F12" s="186"/>
+      <c r="G12" s="217">
+        <f>W10*S31</f>
+        <v>10.869565217391305</v>
+      </c>
+      <c r="H12" s="218">
+        <f>E12/9.2</f>
+        <v>10.869565217391305</v>
+      </c>
+      <c r="I12" s="186"/>
+      <c r="J12" s="213"/>
+      <c r="K12" s="213"/>
+      <c r="L12" s="186"/>
+      <c r="M12" s="218">
+        <f>S31</f>
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="N12" s="218"/>
+      <c r="Q12" s="203"/>
+      <c r="R12" s="194" t="s">
+        <v>327</v>
+      </c>
+      <c r="S12" s="188">
+        <v>300</v>
+      </c>
+      <c r="T12" s="150"/>
+      <c r="U12" s="192"/>
+      <c r="V12" s="192"/>
+      <c r="W12" s="187"/>
+      <c r="X12" s="150"/>
+      <c r="Y12" s="150"/>
+      <c r="Z12" s="150"/>
+      <c r="AA12" s="150"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13" s="149"/>
+      <c r="B13" s="186"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="185"/>
+      <c r="F13" s="186"/>
+      <c r="G13" s="213"/>
+      <c r="H13" s="213">
+        <f>H11+H12</f>
+        <v>60010.869565217392</v>
+      </c>
+      <c r="I13" s="186"/>
+      <c r="J13" s="213"/>
+      <c r="K13" s="219">
+        <f>K10+H13</f>
+        <v>61810.869565217392</v>
+      </c>
+      <c r="L13" s="186"/>
+      <c r="M13" s="212">
+        <f>M11+M12</f>
+        <v>120.21739130434783</v>
+      </c>
+      <c r="N13" s="213">
+        <f>N9+M13</f>
+        <v>130.21739130434781</v>
+      </c>
+      <c r="Q13" s="203"/>
+      <c r="R13" s="194" t="s">
+        <v>328</v>
+      </c>
+      <c r="S13" s="188">
+        <v>360</v>
+      </c>
+      <c r="T13" s="150"/>
+      <c r="U13" s="192"/>
+      <c r="V13" s="192"/>
+      <c r="W13" s="187"/>
+      <c r="X13" s="150"/>
+      <c r="Y13" s="150"/>
+      <c r="Z13" s="150"/>
+      <c r="AA13" s="150"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A14" s="149"/>
+      <c r="B14" s="186"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="185"/>
+      <c r="F14" s="186"/>
+      <c r="G14" s="213"/>
+      <c r="H14" s="212"/>
+      <c r="I14" s="186"/>
+      <c r="J14" s="213"/>
+      <c r="K14" s="213"/>
+      <c r="L14" s="186"/>
+      <c r="M14" s="213"/>
+      <c r="N14" s="213"/>
+      <c r="Q14" s="203"/>
+      <c r="R14" s="194" t="s">
+        <v>329</v>
+      </c>
+      <c r="S14" s="188">
+        <v>420</v>
+      </c>
+      <c r="T14" s="150"/>
+      <c r="U14" s="192"/>
+      <c r="V14" s="192"/>
+      <c r="W14" s="187"/>
+      <c r="X14" s="150"/>
+      <c r="Y14" s="150"/>
+      <c r="Z14" s="150"/>
+      <c r="AA14" s="150"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A15" s="149"/>
+      <c r="B15" s="186"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="222"/>
+      <c r="G15" s="213"/>
+      <c r="H15" s="213"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="213"/>
+      <c r="K15" s="213"/>
+      <c r="L15" s="186"/>
+      <c r="M15" s="213"/>
+      <c r="N15" s="213"/>
+      <c r="Q15" s="203"/>
+      <c r="R15" s="194" t="s">
+        <v>330</v>
+      </c>
+      <c r="S15" s="188">
+        <v>480</v>
+      </c>
+      <c r="T15" s="150"/>
+      <c r="U15" s="192"/>
+      <c r="V15" s="192"/>
+      <c r="W15" s="187"/>
+      <c r="X15" s="150"/>
+      <c r="Y15" s="150"/>
+      <c r="Z15" s="150"/>
+      <c r="AA15" s="150"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A16" s="149" t="s">
+        <v>325</v>
+      </c>
+      <c r="B16" s="186"/>
+      <c r="C16" s="149" t="s">
+        <v>324</v>
+      </c>
+      <c r="D16" s="149"/>
+      <c r="E16" s="185">
+        <v>2</v>
+      </c>
+      <c r="F16" s="186"/>
+      <c r="G16" s="213">
+        <f>W8*S10</f>
+        <v>45000</v>
+      </c>
+      <c r="H16" s="213">
+        <f>G16*E16</f>
+        <v>90000</v>
+      </c>
+      <c r="I16" s="186"/>
+      <c r="J16" s="213"/>
+      <c r="K16" s="213"/>
+      <c r="L16" s="186"/>
+      <c r="M16" s="213">
+        <f>M13</f>
+        <v>120.21739130434783</v>
+      </c>
+      <c r="N16" s="213"/>
+      <c r="Q16" s="203"/>
+      <c r="R16" s="194" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="149"/>
-      <c r="C12" s="119" t="s">
+      <c r="S16" s="188">
+        <v>540</v>
+      </c>
+      <c r="T16" s="150"/>
+      <c r="U16" s="192"/>
+      <c r="V16" s="192"/>
+      <c r="W16" s="187"/>
+      <c r="X16" s="150"/>
+      <c r="Y16" s="150"/>
+      <c r="Z16" s="150"/>
+      <c r="AA16" s="150"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A17" s="149"/>
+      <c r="B17" s="186"/>
+      <c r="C17" s="149" t="s">
         <v>337</v>
       </c>
-      <c r="E12">
+      <c r="D17" s="149"/>
+      <c r="E17" s="185">
         <v>100</v>
       </c>
-      <c r="O12" t="s">
+      <c r="F17" s="186"/>
+      <c r="G17" s="217">
+        <f>W10*S31</f>
+        <v>10.869565217391305</v>
+      </c>
+      <c r="H17" s="212">
+        <f>E17/9.2</f>
+        <v>10.869565217391305</v>
+      </c>
+      <c r="I17" s="186"/>
+      <c r="J17" s="213"/>
+      <c r="K17" s="213"/>
+      <c r="L17" s="186"/>
+      <c r="M17" s="218">
+        <f>S31</f>
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="N17" s="218"/>
+      <c r="Q17" s="203"/>
+      <c r="R17" s="194" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="149"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="149"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="149"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="149"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="149"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="S17" s="188">
+        <v>600</v>
+      </c>
+      <c r="T17" s="150"/>
+      <c r="U17" s="192"/>
+      <c r="V17" s="192"/>
+      <c r="W17" s="187"/>
+      <c r="X17" s="150"/>
+      <c r="Y17" s="150"/>
+      <c r="Z17" s="150"/>
+      <c r="AA17" s="150"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="149"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" s="186"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="185"/>
+      <c r="F18" s="186"/>
+      <c r="G18" s="213"/>
+      <c r="H18" s="221">
+        <f>H16+H17</f>
+        <v>90010.869565217392</v>
+      </c>
+      <c r="I18" s="186"/>
+      <c r="J18" s="213"/>
+      <c r="K18" s="219">
+        <f>K13+H18</f>
+        <v>151821.73913043478</v>
+      </c>
+      <c r="L18" s="186"/>
+      <c r="M18" s="213">
+        <f>M16+M17</f>
+        <v>120.43478260869566</v>
+      </c>
+      <c r="N18" s="213">
+        <f>N13+M18</f>
+        <v>250.65217391304347</v>
+      </c>
+      <c r="Q18" s="203"/>
+      <c r="R18" s="194"/>
+      <c r="S18" s="190" t="s">
+        <v>360</v>
+      </c>
+      <c r="T18" s="150"/>
+      <c r="U18" s="192"/>
+      <c r="V18" s="192"/>
+      <c r="W18" s="187"/>
+      <c r="X18" s="150"/>
+      <c r="Y18" s="150"/>
+      <c r="Z18" s="150"/>
+      <c r="AA18" s="150"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="149"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="149"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" s="186"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="149"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="186"/>
+      <c r="G19" s="213"/>
+      <c r="H19" s="213"/>
+      <c r="I19" s="186"/>
+      <c r="J19" s="213"/>
+      <c r="K19" s="213"/>
+      <c r="L19" s="186"/>
+      <c r="M19" s="213"/>
+      <c r="N19" s="213"/>
+      <c r="Q19" s="203"/>
+      <c r="R19" s="194"/>
+      <c r="S19" s="189"/>
+      <c r="T19" s="150"/>
+      <c r="U19" s="150"/>
+      <c r="V19" s="150"/>
+      <c r="W19" s="150"/>
+      <c r="X19" s="150"/>
+      <c r="Y19" s="150"/>
+      <c r="Z19" s="150"/>
+      <c r="AA19" s="150"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A20" s="148" t="s">
+        <v>326</v>
+      </c>
+      <c r="B20" s="186"/>
+      <c r="C20" s="148" t="s">
+        <v>325</v>
+      </c>
+      <c r="D20" s="149"/>
+      <c r="E20" s="185">
+        <v>2</v>
+      </c>
+      <c r="F20" s="186"/>
+      <c r="G20" s="213">
+        <f>W8*S11</f>
+        <v>60000</v>
+      </c>
+      <c r="H20" s="213">
+        <f>G20*E20</f>
+        <v>120000</v>
+      </c>
+      <c r="I20" s="186"/>
+      <c r="J20" s="213"/>
+      <c r="K20" s="213"/>
+      <c r="L20" s="186"/>
+      <c r="M20" s="213"/>
+      <c r="N20" s="213"/>
+      <c r="Q20" s="203"/>
+      <c r="R20" s="193" t="s">
+        <v>349</v>
+      </c>
+      <c r="S20" s="189"/>
+      <c r="T20" s="150"/>
+      <c r="U20" s="150"/>
+      <c r="V20" s="150"/>
+      <c r="W20" s="150"/>
+      <c r="X20" s="150"/>
+      <c r="Y20" s="150"/>
+      <c r="Z20" s="150"/>
+      <c r="AA20" s="150"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="149"/>
+      <c r="B21" s="186"/>
+      <c r="C21" s="148" t="s">
+        <v>337</v>
+      </c>
+      <c r="D21" s="149"/>
+      <c r="E21" s="185">
+        <v>100</v>
+      </c>
+      <c r="F21" s="186"/>
+      <c r="G21" s="213">
+        <f>W10*S31</f>
+        <v>10.869565217391305</v>
+      </c>
+      <c r="H21" s="213"/>
+      <c r="I21" s="186"/>
+      <c r="J21" s="213"/>
+      <c r="K21" s="213"/>
+      <c r="L21" s="186"/>
+      <c r="M21" s="213"/>
+      <c r="N21" s="213"/>
+      <c r="Q21" s="203"/>
+      <c r="R21" s="193" t="s">
+        <v>350</v>
+      </c>
+      <c r="S21" s="189"/>
+      <c r="T21" s="150"/>
+      <c r="U21" s="150"/>
+      <c r="V21" s="150"/>
+      <c r="W21" s="150"/>
+      <c r="X21" s="150"/>
+      <c r="Y21" s="150"/>
+      <c r="Z21" s="150"/>
+      <c r="AA21" s="150"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A22" s="149"/>
+      <c r="B22" s="186"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="149"/>
+      <c r="E22" s="185"/>
+      <c r="F22" s="186"/>
+      <c r="G22" s="213"/>
+      <c r="H22" s="213"/>
+      <c r="I22" s="186"/>
+      <c r="J22" s="213"/>
+      <c r="K22" s="213"/>
+      <c r="L22" s="186"/>
+      <c r="M22" s="213"/>
+      <c r="N22" s="213"/>
+      <c r="Q22" s="203"/>
+      <c r="R22" s="193" t="s">
+        <v>351</v>
+      </c>
+      <c r="S22" s="189"/>
+      <c r="T22" s="150"/>
+      <c r="U22" s="150"/>
+      <c r="V22" s="150"/>
+      <c r="W22" s="150"/>
+      <c r="X22" s="150"/>
+      <c r="Y22" s="150"/>
+      <c r="Z22" s="150"/>
+      <c r="AA22" s="150"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A23" s="149"/>
+      <c r="B23" s="186"/>
+      <c r="C23" s="149"/>
+      <c r="D23" s="149"/>
+      <c r="E23" s="185"/>
+      <c r="F23" s="186"/>
+      <c r="G23" s="213"/>
+      <c r="H23" s="213"/>
+      <c r="I23" s="186"/>
+      <c r="J23" s="213"/>
+      <c r="K23" s="213"/>
+      <c r="L23" s="186"/>
+      <c r="M23" s="213"/>
+      <c r="N23" s="213"/>
+      <c r="Q23" s="203"/>
+      <c r="R23" s="193" t="s">
+        <v>352</v>
+      </c>
+      <c r="S23" s="189"/>
+      <c r="T23" s="150"/>
+      <c r="U23" s="150"/>
+      <c r="V23" s="150"/>
+      <c r="W23" s="150"/>
+      <c r="X23" s="150"/>
+      <c r="Y23" s="150"/>
+      <c r="Z23" s="150"/>
+      <c r="AA23" s="150"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A24" s="149"/>
+      <c r="B24" s="186"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="185"/>
+      <c r="F24" s="186"/>
+      <c r="G24" s="213"/>
+      <c r="H24" s="213"/>
+      <c r="I24" s="186"/>
+      <c r="J24" s="213"/>
+      <c r="K24" s="213"/>
+      <c r="L24" s="186"/>
+      <c r="M24" s="213"/>
+      <c r="N24" s="213"/>
+      <c r="Q24" s="203"/>
+      <c r="R24" s="193" t="s">
+        <v>353</v>
+      </c>
+      <c r="S24" s="189"/>
+      <c r="T24" s="150"/>
+      <c r="U24" s="150"/>
+      <c r="V24" s="150"/>
+      <c r="W24" s="150"/>
+      <c r="X24" s="150"/>
+      <c r="Y24" s="150"/>
+      <c r="Z24" s="150"/>
+      <c r="AA24" s="150"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A25" s="149"/>
+      <c r="B25" s="186"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="185"/>
+      <c r="F25" s="186"/>
+      <c r="G25" s="213"/>
+      <c r="H25" s="213"/>
+      <c r="I25" s="186"/>
+      <c r="J25" s="213"/>
+      <c r="K25" s="213"/>
+      <c r="L25" s="186"/>
+      <c r="M25" s="213"/>
+      <c r="N25" s="213"/>
+      <c r="Q25" s="203"/>
+      <c r="R25" s="193" t="s">
+        <v>354</v>
+      </c>
+      <c r="S25" s="189"/>
+      <c r="T25" s="150"/>
+      <c r="U25" s="150"/>
+      <c r="V25" s="150"/>
+      <c r="W25" s="150"/>
+      <c r="X25" s="150"/>
+      <c r="Y25" s="150"/>
+      <c r="Z25" s="150"/>
+      <c r="AA25" s="150"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A26" s="149"/>
+      <c r="B26" s="186"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="185"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="213"/>
+      <c r="H26" s="213"/>
+      <c r="I26" s="186"/>
+      <c r="J26" s="213"/>
+      <c r="K26" s="213"/>
+      <c r="L26" s="186"/>
+      <c r="M26" s="213"/>
+      <c r="N26" s="213"/>
+      <c r="Q26" s="203"/>
+      <c r="R26" s="193" t="s">
+        <v>355</v>
+      </c>
+      <c r="S26" s="189"/>
+      <c r="T26" s="150"/>
+      <c r="U26" s="150"/>
+      <c r="V26" s="150"/>
+      <c r="W26" s="150"/>
+      <c r="X26" s="150"/>
+      <c r="Y26" s="150"/>
+      <c r="Z26" s="150"/>
+      <c r="AA26" s="150"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A27" s="149"/>
+      <c r="B27" s="186"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="149"/>
+      <c r="E27" s="185"/>
+      <c r="F27" s="186"/>
+      <c r="G27" s="213"/>
+      <c r="H27" s="213"/>
+      <c r="I27" s="186"/>
+      <c r="J27" s="213"/>
+      <c r="K27" s="213"/>
+      <c r="L27" s="186"/>
+      <c r="M27" s="213"/>
+      <c r="N27" s="213"/>
+      <c r="Q27" s="203"/>
+      <c r="R27" s="193" t="s">
+        <v>356</v>
+      </c>
+      <c r="S27" s="189"/>
+      <c r="T27" s="150"/>
+      <c r="U27" s="150"/>
+      <c r="V27" s="150"/>
+      <c r="W27" s="150"/>
+      <c r="X27" s="150"/>
+      <c r="Y27" s="150"/>
+      <c r="Z27" s="150"/>
+      <c r="AA27" s="150"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A28" s="149"/>
+      <c r="B28" s="186"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="185"/>
+      <c r="F28" s="186"/>
+      <c r="G28" s="213"/>
+      <c r="H28" s="213"/>
+      <c r="I28" s="186"/>
+      <c r="J28" s="213"/>
+      <c r="K28" s="213"/>
+      <c r="L28" s="186"/>
+      <c r="M28" s="213"/>
+      <c r="N28" s="213"/>
+      <c r="Q28" s="203"/>
+      <c r="R28" s="193" t="s">
+        <v>357</v>
+      </c>
+      <c r="S28" s="189"/>
+      <c r="T28" s="150"/>
+      <c r="U28" s="150"/>
+      <c r="V28" s="150"/>
+      <c r="W28" s="150"/>
+      <c r="X28" s="150"/>
+      <c r="Y28" s="150"/>
+      <c r="Z28" s="150"/>
+      <c r="AA28" s="150"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A29" s="149"/>
+      <c r="B29" s="186"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="149"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="186"/>
+      <c r="G29" s="213"/>
+      <c r="H29" s="213"/>
+      <c r="I29" s="186"/>
+      <c r="J29" s="213"/>
+      <c r="K29" s="213"/>
+      <c r="L29" s="186"/>
+      <c r="M29" s="213"/>
+      <c r="N29" s="213"/>
+      <c r="Q29" s="203"/>
+      <c r="R29" s="193" t="s">
+        <v>358</v>
+      </c>
+      <c r="S29" s="189"/>
+      <c r="T29" s="150"/>
+      <c r="U29" s="150"/>
+      <c r="V29" s="150"/>
+      <c r="W29" s="150"/>
+      <c r="X29" s="150"/>
+      <c r="Y29" s="150"/>
+      <c r="Z29" s="150"/>
+      <c r="AA29" s="150"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A30" s="149"/>
+      <c r="B30" s="186"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="186"/>
+      <c r="G30" s="213"/>
+      <c r="H30" s="213"/>
+      <c r="I30" s="186"/>
+      <c r="J30" s="213"/>
+      <c r="K30" s="213"/>
+      <c r="L30" s="186"/>
+      <c r="M30" s="213"/>
+      <c r="N30" s="213"/>
+      <c r="Q30" s="203"/>
+      <c r="R30" s="194"/>
+      <c r="S30" s="189"/>
+      <c r="T30" s="150"/>
+      <c r="U30" s="150"/>
+      <c r="V30" s="150"/>
+      <c r="W30" s="150"/>
+      <c r="X30" s="150"/>
+      <c r="Y30" s="150"/>
+      <c r="Z30" s="150"/>
+      <c r="AA30" s="150"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A31" s="149"/>
+      <c r="B31" s="186"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="185"/>
+      <c r="F31" s="186"/>
+      <c r="G31" s="213"/>
+      <c r="H31" s="213"/>
+      <c r="I31" s="186"/>
+      <c r="J31" s="213"/>
+      <c r="K31" s="213"/>
+      <c r="L31" s="186"/>
+      <c r="M31" s="213"/>
+      <c r="N31" s="213"/>
+      <c r="Q31" s="203"/>
+      <c r="R31" s="193" t="s">
+        <v>337</v>
+      </c>
+      <c r="S31" s="188">
+        <f>100/460</f>
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="T31" s="150"/>
+      <c r="U31" s="150"/>
+      <c r="V31" s="150"/>
+      <c r="W31" s="150"/>
+      <c r="X31" s="150"/>
+      <c r="Y31" s="150"/>
+      <c r="Z31" s="150"/>
+      <c r="AA31" s="150"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A32" s="149"/>
+      <c r="B32" s="186"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="185"/>
+      <c r="F32" s="186"/>
+      <c r="G32" s="213"/>
+      <c r="H32" s="213"/>
+      <c r="I32" s="186"/>
+      <c r="J32" s="213"/>
+      <c r="K32" s="213"/>
+      <c r="L32" s="186"/>
+      <c r="M32" s="213"/>
+      <c r="N32" s="213"/>
+      <c r="Q32" s="150"/>
+      <c r="R32" s="150"/>
+      <c r="S32" s="150"/>
+      <c r="T32" s="150"/>
+      <c r="U32" s="150"/>
+      <c r="V32" s="150"/>
+      <c r="W32" s="150"/>
+      <c r="X32" s="150"/>
+      <c r="Y32" s="150"/>
+      <c r="Z32" s="150"/>
+      <c r="AA32" s="150"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A33" s="149"/>
+      <c r="B33" s="186"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="185"/>
+      <c r="F33" s="186"/>
+      <c r="G33" s="213"/>
+      <c r="H33" s="213"/>
+      <c r="I33" s="186"/>
+      <c r="J33" s="213"/>
+      <c r="K33" s="213"/>
+      <c r="L33" s="186"/>
+      <c r="M33" s="213"/>
+      <c r="N33" s="213"/>
+      <c r="Q33" s="150"/>
+      <c r="R33" s="150"/>
+      <c r="S33" s="150"/>
+      <c r="T33" s="150"/>
+      <c r="U33" s="150"/>
+      <c r="V33" s="150"/>
+      <c r="W33" s="150"/>
+      <c r="X33" s="150"/>
+      <c r="Y33" s="150"/>
+      <c r="Z33" s="150"/>
+      <c r="AA33" s="150"/>
+      <c r="AB33" s="150"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A34" s="149"/>
+      <c r="B34" s="186"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="185"/>
+      <c r="F34" s="186"/>
+      <c r="G34" s="213"/>
+      <c r="H34" s="213"/>
+      <c r="I34" s="186"/>
+      <c r="J34" s="213"/>
+      <c r="K34" s="213"/>
+      <c r="L34" s="186"/>
+      <c r="M34" s="213"/>
+      <c r="N34" s="213"/>
+      <c r="Q34" s="150"/>
+      <c r="R34" s="150"/>
+      <c r="S34" s="150"/>
+      <c r="T34" s="150"/>
+      <c r="U34" s="150"/>
+      <c r="V34" s="150"/>
+      <c r="W34" s="150"/>
+      <c r="X34" s="150"/>
+      <c r="Y34" s="150"/>
+      <c r="Z34" s="150"/>
+      <c r="AA34" s="150"/>
+      <c r="AB34" s="150"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A35" s="149"/>
+      <c r="B35" s="186"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="185"/>
+      <c r="F35" s="186"/>
+      <c r="G35" s="213"/>
+      <c r="H35" s="213"/>
+      <c r="I35" s="186"/>
+      <c r="J35" s="213"/>
+      <c r="K35" s="213"/>
+      <c r="L35" s="186"/>
+      <c r="M35" s="213"/>
+      <c r="N35" s="213"/>
+      <c r="Q35" s="150"/>
+      <c r="R35" s="150"/>
+      <c r="S35" s="150"/>
+      <c r="T35" s="150"/>
+      <c r="U35" s="150"/>
+      <c r="V35" s="150"/>
+      <c r="W35" s="150"/>
+      <c r="X35" s="150"/>
+      <c r="Y35" s="150"/>
+      <c r="Z35" s="150"/>
+      <c r="AA35" s="150"/>
+      <c r="AB35" s="150"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A36" s="149"/>
+      <c r="B36" s="186"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="185"/>
+      <c r="F36" s="186"/>
+      <c r="G36" s="213"/>
+      <c r="H36" s="213"/>
+      <c r="I36" s="186"/>
+      <c r="J36" s="213"/>
+      <c r="K36" s="213"/>
+      <c r="L36" s="186"/>
+      <c r="M36" s="213"/>
+      <c r="N36" s="213"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A37" s="149"/>
+      <c r="B37" s="186"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="185"/>
+      <c r="F37" s="186"/>
+      <c r="G37" s="213"/>
+      <c r="H37" s="213"/>
+      <c r="I37" s="186"/>
+      <c r="J37" s="213"/>
+      <c r="K37" s="213"/>
+      <c r="L37" s="186"/>
+      <c r="M37" s="213"/>
+      <c r="N37" s="213"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A38" s="149"/>
+      <c r="B38" s="186"/>
+      <c r="C38" s="149"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="185"/>
+      <c r="F38" s="186"/>
+      <c r="G38" s="213"/>
+      <c r="H38" s="213"/>
+      <c r="I38" s="186"/>
+      <c r="J38" s="213"/>
+      <c r="K38" s="213"/>
+      <c r="L38" s="186"/>
+      <c r="M38" s="213"/>
+      <c r="N38" s="213"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A39" s="149"/>
+      <c r="B39" s="186"/>
+      <c r="C39" s="149"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="185"/>
+      <c r="F39" s="186"/>
+      <c r="G39" s="213"/>
+      <c r="H39" s="213"/>
+      <c r="I39" s="186"/>
+      <c r="J39" s="213"/>
+      <c r="K39" s="213"/>
+      <c r="L39" s="186"/>
+      <c r="M39" s="213"/>
+      <c r="N39" s="213"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A40" s="149"/>
+      <c r="B40" s="186"/>
+      <c r="C40" s="149"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="185"/>
+      <c r="F40" s="186"/>
+      <c r="G40" s="213"/>
+      <c r="H40" s="213"/>
+      <c r="I40" s="186"/>
+      <c r="J40" s="213"/>
+      <c r="K40" s="213"/>
+      <c r="L40" s="186"/>
+      <c r="M40" s="213"/>
+      <c r="N40" s="213"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A41" s="149"/>
+      <c r="B41" s="186"/>
+      <c r="C41" s="149"/>
+      <c r="D41" s="149"/>
+      <c r="E41" s="185"/>
+      <c r="F41" s="186"/>
+      <c r="G41" s="213"/>
+      <c r="H41" s="213"/>
+      <c r="I41" s="186"/>
+      <c r="J41" s="213"/>
+      <c r="K41" s="213"/>
+      <c r="L41" s="186"/>
+      <c r="M41" s="213"/>
+      <c r="N41" s="213"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A42" s="149"/>
+      <c r="B42" s="186"/>
+      <c r="C42" s="149"/>
+      <c r="D42" s="149"/>
+      <c r="E42" s="185"/>
+      <c r="F42" s="186"/>
+      <c r="G42" s="213"/>
+      <c r="H42" s="213"/>
+      <c r="I42" s="186"/>
+      <c r="J42" s="213"/>
+      <c r="K42" s="213"/>
+      <c r="L42" s="186"/>
+      <c r="M42" s="213"/>
+      <c r="N42" s="213"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A43" s="149"/>
+      <c r="B43" s="186"/>
+      <c r="C43" s="149"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="185"/>
+      <c r="F43" s="186"/>
+      <c r="G43" s="213"/>
+      <c r="H43" s="213"/>
+      <c r="I43" s="186"/>
+      <c r="J43" s="213"/>
+      <c r="K43" s="213"/>
+      <c r="L43" s="186"/>
+      <c r="M43" s="213"/>
+      <c r="N43" s="213"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A44" s="149"/>
+      <c r="B44" s="186"/>
+      <c r="C44" s="149"/>
+      <c r="D44" s="149"/>
+      <c r="E44" s="185"/>
+      <c r="F44" s="186"/>
+      <c r="G44" s="213"/>
+      <c r="H44" s="213"/>
+      <c r="I44" s="186"/>
+      <c r="J44" s="213"/>
+      <c r="K44" s="213"/>
+      <c r="L44" s="186"/>
+      <c r="M44" s="213"/>
+      <c r="N44" s="213"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A45" s="149"/>
+      <c r="B45" s="186"/>
+      <c r="C45" s="149"/>
+      <c r="D45" s="149"/>
+      <c r="E45" s="185"/>
+      <c r="F45" s="186"/>
+      <c r="G45" s="213"/>
+      <c r="H45" s="213"/>
+      <c r="I45" s="186"/>
+      <c r="J45" s="213"/>
+      <c r="K45" s="213"/>
+      <c r="L45" s="186"/>
+      <c r="M45" s="213"/>
+      <c r="N45" s="213"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A46" s="149"/>
+      <c r="B46" s="186"/>
+      <c r="C46" s="149"/>
+      <c r="D46" s="149"/>
+      <c r="E46" s="185"/>
+      <c r="F46" s="186"/>
+      <c r="G46" s="213"/>
+      <c r="H46" s="213"/>
+      <c r="I46" s="186"/>
+      <c r="J46" s="213"/>
+      <c r="K46" s="213"/>
+      <c r="L46" s="186"/>
+      <c r="M46" s="213"/>
+      <c r="N46" s="213"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A47" s="149"/>
+      <c r="B47" s="186"/>
+      <c r="C47" s="149"/>
+      <c r="D47" s="149"/>
+      <c r="E47" s="185"/>
+      <c r="F47" s="186"/>
+      <c r="G47" s="213"/>
+      <c r="H47" s="213"/>
+      <c r="I47" s="186"/>
+      <c r="J47" s="213"/>
+      <c r="K47" s="213"/>
+      <c r="L47" s="186"/>
+      <c r="M47" s="213"/>
+      <c r="N47" s="213"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A48" s="149"/>
+      <c r="B48" s="186"/>
+      <c r="C48" s="149"/>
+      <c r="D48" s="149"/>
+      <c r="E48" s="185"/>
+      <c r="F48" s="186"/>
+      <c r="G48" s="213"/>
+      <c r="H48" s="213"/>
+      <c r="I48" s="186"/>
+      <c r="J48" s="213"/>
+      <c r="K48" s="213"/>
+      <c r="L48" s="186"/>
+      <c r="M48" s="213"/>
+      <c r="N48" s="213"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="149"/>
+      <c r="B49" s="186"/>
+      <c r="C49" s="149"/>
+      <c r="D49" s="149"/>
+      <c r="E49" s="185"/>
+      <c r="F49" s="186"/>
+      <c r="G49" s="213"/>
+      <c r="H49" s="213"/>
+      <c r="I49" s="186"/>
+      <c r="J49" s="213"/>
+      <c r="K49" s="213"/>
+      <c r="L49" s="186"/>
+      <c r="M49" s="213"/>
+      <c r="N49" s="213"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="149"/>
+      <c r="B50" s="186"/>
+      <c r="C50" s="149"/>
+      <c r="D50" s="149"/>
+      <c r="E50" s="185"/>
+      <c r="F50" s="186"/>
+      <c r="G50" s="213"/>
+      <c r="H50" s="213"/>
+      <c r="I50" s="186"/>
+      <c r="J50" s="213"/>
+      <c r="K50" s="213"/>
+      <c r="L50" s="186"/>
+      <c r="M50" s="213"/>
+      <c r="N50" s="213"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="149"/>
+      <c r="B51" s="186"/>
+      <c r="C51" s="149"/>
+      <c r="D51" s="149"/>
+      <c r="E51" s="185"/>
+      <c r="F51" s="186"/>
+      <c r="G51" s="213"/>
+      <c r="H51" s="213"/>
+      <c r="I51" s="186"/>
+      <c r="J51" s="213"/>
+      <c r="K51" s="213"/>
+      <c r="L51" s="186"/>
+      <c r="M51" s="213"/>
+      <c r="N51" s="213"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="149"/>
+      <c r="B52" s="186"/>
+      <c r="C52" s="149"/>
+      <c r="D52" s="149"/>
+      <c r="E52" s="185"/>
+      <c r="F52" s="186"/>
+      <c r="G52" s="213"/>
+      <c r="H52" s="213"/>
+      <c r="I52" s="186"/>
+      <c r="J52" s="213"/>
+      <c r="K52" s="213"/>
+      <c r="L52" s="186"/>
+      <c r="M52" s="213"/>
+      <c r="N52" s="213"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="149"/>
+      <c r="B53" s="186"/>
+      <c r="C53" s="149"/>
+      <c r="D53" s="149"/>
+      <c r="E53" s="185"/>
+      <c r="F53" s="186"/>
+      <c r="G53" s="213"/>
+      <c r="H53" s="213"/>
+      <c r="I53" s="186"/>
+      <c r="J53" s="213"/>
+      <c r="K53" s="213"/>
+      <c r="L53" s="186"/>
+      <c r="M53" s="213"/>
+      <c r="N53" s="213"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="149"/>
+      <c r="B54" s="186"/>
+      <c r="C54" s="149"/>
+      <c r="D54" s="149"/>
+      <c r="E54" s="185"/>
+      <c r="F54" s="186"/>
+      <c r="G54" s="213"/>
+      <c r="H54" s="213"/>
+      <c r="I54" s="186"/>
+      <c r="J54" s="213"/>
+      <c r="K54" s="213"/>
+      <c r="L54" s="186"/>
+      <c r="M54" s="213"/>
+      <c r="N54" s="213"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="149"/>
+      <c r="B55" s="186"/>
+      <c r="C55" s="149"/>
+      <c r="D55" s="149"/>
+      <c r="E55" s="185"/>
+      <c r="F55" s="186"/>
+      <c r="G55" s="213"/>
+      <c r="H55" s="213"/>
+      <c r="I55" s="186"/>
+      <c r="J55" s="213"/>
+      <c r="K55" s="213"/>
+      <c r="L55" s="186"/>
+      <c r="M55" s="213"/>
+      <c r="N55" s="213"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="149"/>
+      <c r="B56" s="186"/>
+      <c r="C56" s="149"/>
+      <c r="D56" s="149"/>
+      <c r="E56" s="185"/>
+      <c r="F56" s="186"/>
+      <c r="G56" s="213"/>
+      <c r="H56" s="213"/>
+      <c r="I56" s="186"/>
+      <c r="J56" s="213"/>
+      <c r="K56" s="213"/>
+      <c r="L56" s="186"/>
+      <c r="M56" s="213"/>
+      <c r="N56" s="213"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="149"/>
+      <c r="B57" s="186"/>
+      <c r="C57" s="149"/>
+      <c r="D57" s="149"/>
+      <c r="E57" s="185"/>
+      <c r="F57" s="186"/>
+      <c r="G57" s="213"/>
+      <c r="H57" s="213"/>
+      <c r="I57" s="186"/>
+      <c r="J57" s="213"/>
+      <c r="K57" s="213"/>
+      <c r="L57" s="186"/>
+      <c r="M57" s="213"/>
+      <c r="N57" s="213"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="149"/>
+      <c r="B58" s="186"/>
+      <c r="C58" s="149"/>
+      <c r="D58" s="149"/>
+      <c r="E58" s="185"/>
+      <c r="F58" s="186"/>
+      <c r="G58" s="213"/>
+      <c r="H58" s="213"/>
+      <c r="I58" s="186"/>
+      <c r="J58" s="213"/>
+      <c r="K58" s="213"/>
+      <c r="L58" s="186"/>
+      <c r="M58" s="213"/>
+      <c r="N58" s="213"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="149"/>
+      <c r="B59" s="186"/>
+      <c r="C59" s="149"/>
+      <c r="D59" s="149"/>
+      <c r="E59" s="185"/>
+      <c r="F59" s="186"/>
+      <c r="G59" s="213"/>
+      <c r="H59" s="213"/>
+      <c r="I59" s="186"/>
+      <c r="J59" s="213"/>
+      <c r="K59" s="213"/>
+      <c r="L59" s="186"/>
+      <c r="M59" s="213"/>
+      <c r="N59" s="213"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="149"/>
+      <c r="B60" s="186"/>
+      <c r="C60" s="149"/>
+      <c r="D60" s="149"/>
+      <c r="E60" s="185"/>
+      <c r="F60" s="186"/>
+      <c r="G60" s="213"/>
+      <c r="H60" s="213"/>
+      <c r="I60" s="186"/>
+      <c r="J60" s="213"/>
+      <c r="K60" s="213"/>
+      <c r="L60" s="186"/>
+      <c r="M60" s="213"/>
+      <c r="N60" s="213"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="149"/>
+      <c r="B61" s="186"/>
+      <c r="C61" s="149"/>
+      <c r="D61" s="149"/>
+      <c r="E61" s="185"/>
+      <c r="F61" s="186"/>
+      <c r="G61" s="213"/>
+      <c r="H61" s="213"/>
+      <c r="I61" s="186"/>
+      <c r="J61" s="213"/>
+      <c r="K61" s="213"/>
+      <c r="L61" s="186"/>
+      <c r="M61" s="213"/>
+      <c r="N61" s="213"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="149"/>
+      <c r="B62" s="186"/>
+      <c r="C62" s="149"/>
+      <c r="D62" s="149"/>
+      <c r="E62" s="185"/>
+      <c r="F62" s="186"/>
+      <c r="G62" s="213"/>
+      <c r="H62" s="213"/>
+      <c r="I62" s="186"/>
+      <c r="J62" s="213"/>
+      <c r="K62" s="213"/>
+      <c r="L62" s="186"/>
+      <c r="M62" s="213"/>
+      <c r="N62" s="213"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="149"/>
+      <c r="B63" s="186"/>
+      <c r="C63" s="149"/>
+      <c r="D63" s="149"/>
+      <c r="E63" s="185"/>
+      <c r="F63" s="186"/>
+      <c r="G63" s="213"/>
+      <c r="H63" s="213"/>
+      <c r="I63" s="186"/>
+      <c r="J63" s="213"/>
+      <c r="K63" s="213"/>
+      <c r="L63" s="186"/>
+      <c r="M63" s="213"/>
+      <c r="N63" s="213"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="149"/>
+      <c r="B64" s="186"/>
+      <c r="C64" s="149"/>
+      <c r="D64" s="149"/>
+      <c r="E64" s="185"/>
+      <c r="F64" s="186"/>
+      <c r="G64" s="213"/>
+      <c r="H64" s="213"/>
+      <c r="I64" s="186"/>
+      <c r="J64" s="213"/>
+      <c r="K64" s="213"/>
+      <c r="L64" s="186"/>
+      <c r="M64" s="213"/>
+      <c r="N64" s="213"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="U6:W6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8073,94 +10077,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="171"/>
-      <c r="B1" s="171"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="171"/>
+      <c r="A1" s="172"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="172"/>
     </row>
     <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="151"/>
-      <c r="B2" s="170" t="s">
+      <c r="A2" s="152"/>
+      <c r="B2" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="179" t="s">
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="151"/>
-      <c r="G2" s="180" t="s">
+      <c r="F2" s="152"/>
+      <c r="G2" s="178" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="151"/>
-      <c r="Q2" s="151"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="152"/>
+      <c r="P2" s="152"/>
+      <c r="Q2" s="152"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="151"/>
-      <c r="B3" s="171"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="151"/>
+      <c r="A3" s="152"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="152"/>
+      <c r="P3" s="152"/>
+      <c r="Q3" s="152"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="151"/>
-      <c r="B4" s="172"/>
-      <c r="C4" s="151"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="178" t="s">
+      <c r="A4" s="152"/>
+      <c r="B4" s="180"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="176" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="151"/>
-      <c r="L4" s="151"/>
-      <c r="M4" s="151"/>
-      <c r="N4" s="151"/>
-      <c r="O4" s="151"/>
-      <c r="P4" s="151"/>
-      <c r="Q4" s="151"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="152"/>
+      <c r="M4" s="152"/>
+      <c r="N4" s="152"/>
+      <c r="O4" s="152"/>
+      <c r="P4" s="152"/>
+      <c r="Q4" s="152"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="151"/>
+      <c r="A5" s="152"/>
       <c r="B5" s="11"/>
       <c r="C5" s="34"/>
-      <c r="D5" s="151"/>
+      <c r="D5" s="152"/>
       <c r="E5" s="35" t="s">
         <v>104</v>
       </c>
@@ -8197,13 +10201,13 @@
       <c r="P5" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="Q5" s="151"/>
+      <c r="Q5" s="152"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="151"/>
+      <c r="A6" s="152"/>
       <c r="B6" s="11"/>
       <c r="C6" s="34"/>
-      <c r="D6" s="151"/>
+      <c r="D6" s="152"/>
       <c r="E6" s="47">
         <v>0</v>
       </c>
@@ -8242,55 +10246,55 @@
       <c r="P6" s="47">
         <v>150</v>
       </c>
-      <c r="Q6" s="151"/>
+      <c r="Q6" s="152"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="151"/>
-      <c r="B7" s="173"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="151"/>
-      <c r="K7" s="151"/>
-      <c r="L7" s="151"/>
-      <c r="M7" s="151"/>
-      <c r="N7" s="151"/>
-      <c r="O7" s="151"/>
-      <c r="P7" s="151"/>
-      <c r="Q7" s="151"/>
+      <c r="A7" s="152"/>
+      <c r="B7" s="181"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="152"/>
+      <c r="K7" s="152"/>
+      <c r="L7" s="152"/>
+      <c r="M7" s="152"/>
+      <c r="N7" s="152"/>
+      <c r="O7" s="152"/>
+      <c r="P7" s="152"/>
+      <c r="Q7" s="152"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="151"/>
-      <c r="B8" s="172" t="s">
+      <c r="A8" s="152"/>
+      <c r="B8" s="180" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="174" t="s">
+      <c r="C8" s="152"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="F8" s="151"/>
-      <c r="G8" s="151"/>
-      <c r="H8" s="151"/>
-      <c r="I8" s="151"/>
-      <c r="J8" s="151"/>
-      <c r="K8" s="151"/>
-      <c r="L8" s="151"/>
-      <c r="M8" s="151"/>
-      <c r="N8" s="151"/>
-      <c r="O8" s="151"/>
-      <c r="P8" s="151"/>
-      <c r="Q8" s="151"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="152"/>
+      <c r="K8" s="152"/>
+      <c r="L8" s="152"/>
+      <c r="M8" s="152"/>
+      <c r="N8" s="152"/>
+      <c r="O8" s="152"/>
+      <c r="P8" s="152"/>
+      <c r="Q8" s="152"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="151"/>
+      <c r="A9" s="152"/>
       <c r="B9" s="11"/>
       <c r="C9" s="54"/>
-      <c r="D9" s="151"/>
+      <c r="D9" s="152"/>
       <c r="E9" s="55">
         <v>1</v>
       </c>
@@ -8325,13 +10329,13 @@
       <c r="P9" s="59">
         <v>1</v>
       </c>
-      <c r="Q9" s="151"/>
+      <c r="Q9" s="152"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="151"/>
+      <c r="A10" s="152"/>
       <c r="B10" s="11"/>
       <c r="C10" s="54"/>
-      <c r="D10" s="151"/>
+      <c r="D10" s="152"/>
       <c r="E10" s="55">
         <v>2</v>
       </c>
@@ -8366,13 +10370,13 @@
       <c r="P10" s="59">
         <v>1.5</v>
       </c>
-      <c r="Q10" s="151"/>
+      <c r="Q10" s="152"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="151"/>
+      <c r="A11" s="152"/>
       <c r="B11" s="11"/>
       <c r="C11" s="54"/>
-      <c r="D11" s="151"/>
+      <c r="D11" s="152"/>
       <c r="E11" s="55">
         <v>3</v>
       </c>
@@ -8407,17 +10411,17 @@
       <c r="P11" s="59">
         <v>2</v>
       </c>
-      <c r="Q11" s="151"/>
+      <c r="Q11" s="152"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="151"/>
+      <c r="A12" s="152"/>
       <c r="B12" s="11" t="s">
         <v>161</v>
       </c>
       <c r="C12" s="54">
         <v>1</v>
       </c>
-      <c r="D12" s="151"/>
+      <c r="D12" s="152"/>
       <c r="E12" s="11" t="s">
         <v>162</v>
       </c>
@@ -8454,17 +10458,17 @@
       <c r="P12" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="Q12" s="151"/>
+      <c r="Q12" s="152"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="151"/>
+      <c r="A13" s="152"/>
       <c r="B13" s="11" t="s">
         <v>174</v>
       </c>
       <c r="C13" s="54">
         <v>1</v>
       </c>
-      <c r="D13" s="151"/>
+      <c r="D13" s="152"/>
       <c r="E13" s="55">
         <v>1</v>
       </c>
@@ -8512,17 +10516,17 @@
         <f t="shared" ref="P13:P15" si="5">P$6*P9</f>
         <v>150</v>
       </c>
-      <c r="Q13" s="151"/>
+      <c r="Q13" s="152"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="151"/>
+      <c r="A14" s="152"/>
       <c r="B14" s="11" t="s">
         <v>176</v>
       </c>
       <c r="C14" s="54">
         <v>1</v>
       </c>
-      <c r="D14" s="151"/>
+      <c r="D14" s="152"/>
       <c r="E14" s="55">
         <v>2</v>
       </c>
@@ -8567,13 +10571,13 @@
         <f t="shared" si="5"/>
         <v>225</v>
       </c>
-      <c r="Q14" s="151"/>
+      <c r="Q14" s="152"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="151"/>
+      <c r="A15" s="152"/>
       <c r="B15" s="11"/>
       <c r="C15" s="34"/>
-      <c r="D15" s="151"/>
+      <c r="D15" s="152"/>
       <c r="E15" s="55">
         <v>3</v>
       </c>
@@ -8618,55 +10622,55 @@
         <f t="shared" si="5"/>
         <v>300</v>
       </c>
-      <c r="Q15" s="151"/>
+      <c r="Q15" s="152"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="151"/>
-      <c r="B16" s="173"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
-      <c r="M16" s="151"/>
+      <c r="A16" s="152"/>
+      <c r="B16" s="181"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="152"/>
+      <c r="K16" s="152"/>
+      <c r="L16" s="152"/>
+      <c r="M16" s="152"/>
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
-      <c r="Q16" s="151"/>
+      <c r="Q16" s="152"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="151"/>
-      <c r="B17" s="172" t="s">
+      <c r="A17" s="152"/>
+      <c r="B17" s="180" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="151"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="176" t="s">
+      <c r="C17" s="152"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="174" t="s">
         <v>183</v>
       </c>
-      <c r="F17" s="151"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="151"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="151"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="151"/>
-      <c r="O17" s="151"/>
-      <c r="P17" s="151"/>
-      <c r="Q17" s="151"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="152"/>
+      <c r="L17" s="152"/>
+      <c r="M17" s="152"/>
+      <c r="N17" s="152"/>
+      <c r="O17" s="152"/>
+      <c r="P17" s="152"/>
+      <c r="Q17" s="152"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="151"/>
+      <c r="A18" s="152"/>
       <c r="B18" s="11"/>
       <c r="C18" s="34"/>
-      <c r="D18" s="151"/>
+      <c r="D18" s="152"/>
       <c r="E18" s="42">
         <v>1</v>
       </c>
@@ -8695,13 +10699,13 @@
       <c r="P18" s="78">
         <v>2</v>
       </c>
-      <c r="Q18" s="151"/>
+      <c r="Q18" s="152"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="151"/>
+      <c r="A19" s="152"/>
       <c r="B19" s="11"/>
       <c r="C19" s="34"/>
-      <c r="D19" s="151"/>
+      <c r="D19" s="152"/>
       <c r="E19" s="42">
         <v>2</v>
       </c>
@@ -8730,13 +10734,13 @@
       <c r="P19" s="78">
         <v>3</v>
       </c>
-      <c r="Q19" s="151"/>
+      <c r="Q19" s="152"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="151"/>
+      <c r="A20" s="152"/>
       <c r="B20" s="11"/>
       <c r="C20" s="34"/>
-      <c r="D20" s="151"/>
+      <c r="D20" s="152"/>
       <c r="E20" s="42">
         <v>3</v>
       </c>
@@ -8765,13 +10769,13 @@
       <c r="P20" s="78">
         <v>4</v>
       </c>
-      <c r="Q20" s="151"/>
+      <c r="Q20" s="152"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="151"/>
+      <c r="A21" s="152"/>
       <c r="B21" s="11"/>
       <c r="C21" s="34"/>
-      <c r="D21" s="151"/>
+      <c r="D21" s="152"/>
       <c r="E21" s="20" t="s">
         <v>205</v>
       </c>
@@ -8806,13 +10810,13 @@
       <c r="P21" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="Q21" s="151"/>
+      <c r="Q21" s="152"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="151"/>
+      <c r="A22" s="152"/>
       <c r="B22" s="11"/>
       <c r="C22" s="34"/>
-      <c r="D22" s="151"/>
+      <c r="D22" s="152"/>
       <c r="E22" s="42">
         <v>1</v>
       </c>
@@ -8857,13 +10861,13 @@
         <f t="shared" ref="P22:P24" si="15">P$6*P18</f>
         <v>300</v>
       </c>
-      <c r="Q22" s="151"/>
+      <c r="Q22" s="152"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="151"/>
+      <c r="A23" s="152"/>
       <c r="B23" s="11"/>
       <c r="C23" s="34"/>
-      <c r="D23" s="151"/>
+      <c r="D23" s="152"/>
       <c r="E23" s="42">
         <v>2</v>
       </c>
@@ -8908,13 +10912,13 @@
         <f t="shared" si="15"/>
         <v>450</v>
       </c>
-      <c r="Q23" s="151"/>
+      <c r="Q23" s="152"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="151"/>
+      <c r="A24" s="152"/>
       <c r="B24" s="11"/>
       <c r="C24" s="34"/>
-      <c r="D24" s="151"/>
+      <c r="D24" s="152"/>
       <c r="E24" s="42">
         <v>3</v>
       </c>
@@ -8959,55 +10963,55 @@
         <f t="shared" si="15"/>
         <v>600</v>
       </c>
-      <c r="Q24" s="151"/>
+      <c r="Q24" s="152"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="151"/>
-      <c r="B25" s="173"/>
-      <c r="C25" s="151"/>
-      <c r="D25" s="151"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="151"/>
-      <c r="G25" s="151"/>
-      <c r="H25" s="151"/>
-      <c r="I25" s="151"/>
-      <c r="J25" s="151"/>
-      <c r="K25" s="151"/>
-      <c r="L25" s="151"/>
-      <c r="M25" s="151"/>
+      <c r="A25" s="152"/>
+      <c r="B25" s="181"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="172"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="152"/>
+      <c r="K25" s="152"/>
+      <c r="L25" s="152"/>
+      <c r="M25" s="152"/>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
-      <c r="Q25" s="151"/>
+      <c r="Q25" s="152"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="151"/>
-      <c r="B26" s="172" t="s">
+      <c r="A26" s="152"/>
+      <c r="B26" s="180" t="s">
         <v>216</v>
       </c>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="177" t="s">
+      <c r="C26" s="152"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="175" t="s">
         <v>217</v>
       </c>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
-      <c r="N26" s="151"/>
-      <c r="O26" s="151"/>
-      <c r="P26" s="151"/>
-      <c r="Q26" s="151"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="152"/>
+      <c r="K26" s="152"/>
+      <c r="L26" s="152"/>
+      <c r="M26" s="152"/>
+      <c r="N26" s="152"/>
+      <c r="O26" s="152"/>
+      <c r="P26" s="152"/>
+      <c r="Q26" s="152"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="151"/>
+      <c r="A27" s="152"/>
       <c r="B27" s="11"/>
       <c r="C27" s="34"/>
-      <c r="D27" s="151"/>
+      <c r="D27" s="152"/>
       <c r="E27" s="72">
         <v>1</v>
       </c>
@@ -9030,13 +11034,13 @@
       </c>
       <c r="O27" s="92"/>
       <c r="P27" s="91"/>
-      <c r="Q27" s="151"/>
+      <c r="Q27" s="152"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="151"/>
+      <c r="A28" s="152"/>
       <c r="B28" s="11"/>
       <c r="C28" s="34"/>
-      <c r="D28" s="151"/>
+      <c r="D28" s="152"/>
       <c r="E28" s="72">
         <v>2</v>
       </c>
@@ -9059,13 +11063,13 @@
       </c>
       <c r="O28" s="92"/>
       <c r="P28" s="91"/>
-      <c r="Q28" s="151"/>
+      <c r="Q28" s="152"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="151"/>
+      <c r="A29" s="152"/>
       <c r="B29" s="11"/>
       <c r="C29" s="34"/>
-      <c r="D29" s="151"/>
+      <c r="D29" s="152"/>
       <c r="E29" s="72">
         <v>3</v>
       </c>
@@ -9088,13 +11092,13 @@
       </c>
       <c r="O29" s="92"/>
       <c r="P29" s="91"/>
-      <c r="Q29" s="151"/>
+      <c r="Q29" s="152"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="151"/>
+      <c r="A30" s="152"/>
       <c r="B30" s="11"/>
       <c r="C30" s="34"/>
-      <c r="D30" s="151"/>
+      <c r="D30" s="152"/>
       <c r="E30" s="3" t="s">
         <v>227</v>
       </c>
@@ -9129,13 +11133,13 @@
       <c r="P30" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="Q30" s="151"/>
+      <c r="Q30" s="152"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="151"/>
+      <c r="A31" s="152"/>
       <c r="B31" s="11"/>
       <c r="C31" s="34"/>
-      <c r="D31" s="151"/>
+      <c r="D31" s="152"/>
       <c r="E31" s="72">
         <v>1</v>
       </c>
@@ -9180,13 +11184,13 @@
         <f t="shared" ref="P31:P33" si="25">P$6*P27</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="151"/>
+      <c r="Q31" s="152"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="151"/>
+      <c r="A32" s="152"/>
       <c r="B32" s="11"/>
       <c r="C32" s="34"/>
-      <c r="D32" s="151"/>
+      <c r="D32" s="152"/>
       <c r="E32" s="72">
         <v>2</v>
       </c>
@@ -9231,13 +11235,13 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="151"/>
+      <c r="Q32" s="152"/>
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="151"/>
+      <c r="A33" s="152"/>
       <c r="B33" s="11"/>
       <c r="C33" s="34"/>
-      <c r="D33" s="151"/>
+      <c r="D33" s="152"/>
       <c r="E33" s="72">
         <v>3</v>
       </c>
@@ -9282,55 +11286,55 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="151"/>
+      <c r="Q33" s="152"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="151"/>
-      <c r="B34" s="173"/>
-      <c r="C34" s="151"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="171"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="A34" s="152"/>
+      <c r="B34" s="181"/>
+      <c r="C34" s="152"/>
+      <c r="D34" s="152"/>
+      <c r="E34" s="172"/>
+      <c r="F34" s="152"/>
+      <c r="G34" s="152"/>
+      <c r="H34" s="152"/>
+      <c r="I34" s="152"/>
+      <c r="J34" s="152"/>
+      <c r="K34" s="152"/>
+      <c r="L34" s="152"/>
+      <c r="M34" s="152"/>
       <c r="N34" s="15"/>
       <c r="O34" s="15"/>
       <c r="P34" s="15"/>
-      <c r="Q34" s="151"/>
+      <c r="Q34" s="152"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="151"/>
-      <c r="B35" s="172" t="s">
+      <c r="A35" s="152"/>
+      <c r="B35" s="180" t="s">
         <v>246</v>
       </c>
-      <c r="C35" s="151"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="175" t="s">
+      <c r="C35" s="152"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="173" t="s">
         <v>247</v>
       </c>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
-      <c r="N35" s="151"/>
-      <c r="O35" s="151"/>
-      <c r="P35" s="151"/>
-      <c r="Q35" s="151"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="152"/>
+      <c r="K35" s="152"/>
+      <c r="L35" s="152"/>
+      <c r="M35" s="152"/>
+      <c r="N35" s="152"/>
+      <c r="O35" s="152"/>
+      <c r="P35" s="152"/>
+      <c r="Q35" s="152"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="151"/>
+      <c r="A36" s="152"/>
       <c r="B36" s="11"/>
       <c r="C36" s="34"/>
-      <c r="D36" s="151"/>
+      <c r="D36" s="152"/>
       <c r="E36" s="102">
         <v>1</v>
       </c>
@@ -9353,13 +11357,13 @@
       </c>
       <c r="O36" s="104"/>
       <c r="P36" s="103"/>
-      <c r="Q36" s="151"/>
+      <c r="Q36" s="152"/>
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="151"/>
+      <c r="A37" s="152"/>
       <c r="B37" s="11"/>
       <c r="C37" s="34"/>
-      <c r="D37" s="151"/>
+      <c r="D37" s="152"/>
       <c r="E37" s="102">
         <v>2</v>
       </c>
@@ -9382,13 +11386,13 @@
       </c>
       <c r="O37" s="104"/>
       <c r="P37" s="103"/>
-      <c r="Q37" s="151"/>
+      <c r="Q37" s="152"/>
     </row>
     <row r="38" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="151"/>
+      <c r="A38" s="152"/>
       <c r="B38" s="11"/>
       <c r="C38" s="34"/>
-      <c r="D38" s="151"/>
+      <c r="D38" s="152"/>
       <c r="E38" s="102">
         <v>3</v>
       </c>
@@ -9411,13 +11415,13 @@
       </c>
       <c r="O38" s="104"/>
       <c r="P38" s="103"/>
-      <c r="Q38" s="151"/>
+      <c r="Q38" s="152"/>
     </row>
     <row r="39" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="151"/>
+      <c r="A39" s="152"/>
       <c r="B39" s="11"/>
       <c r="C39" s="34"/>
-      <c r="D39" s="151"/>
+      <c r="D39" s="152"/>
       <c r="E39" s="105" t="s">
         <v>257</v>
       </c>
@@ -9452,13 +11456,13 @@
       <c r="P39" s="105" t="s">
         <v>270</v>
       </c>
-      <c r="Q39" s="151"/>
+      <c r="Q39" s="152"/>
     </row>
     <row r="40" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="151"/>
+      <c r="A40" s="152"/>
       <c r="B40" s="11"/>
       <c r="C40" s="34"/>
-      <c r="D40" s="151"/>
+      <c r="D40" s="152"/>
       <c r="E40" s="102">
         <v>1</v>
       </c>
@@ -9503,13 +11507,13 @@
         <f t="shared" ref="P40:P42" si="35">P$6*P36</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="151"/>
+      <c r="Q40" s="152"/>
     </row>
     <row r="41" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="151"/>
+      <c r="A41" s="152"/>
       <c r="B41" s="11"/>
       <c r="C41" s="34"/>
-      <c r="D41" s="151"/>
+      <c r="D41" s="152"/>
       <c r="E41" s="102">
         <v>2</v>
       </c>
@@ -9554,13 +11558,13 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="151"/>
+      <c r="Q41" s="152"/>
     </row>
     <row r="42" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="151"/>
+      <c r="A42" s="152"/>
       <c r="B42" s="11"/>
       <c r="C42" s="34"/>
-      <c r="D42" s="151"/>
+      <c r="D42" s="152"/>
       <c r="E42" s="102">
         <v>3</v>
       </c>
@@ -9605,13 +11609,13 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="151"/>
+      <c r="Q42" s="152"/>
     </row>
     <row r="43" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="151"/>
+      <c r="A43" s="152"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="151"/>
+      <c r="D43" s="152"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
@@ -9624,10 +11628,24 @@
       <c r="N43" s="15"/>
       <c r="O43" s="15"/>
       <c r="P43" s="15"/>
-      <c r="Q43" s="151"/>
+      <c r="Q43" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A1:A43"/>
+    <mergeCell ref="D1:D43"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="E8:P8"/>
     <mergeCell ref="E7:P7"/>
     <mergeCell ref="E16:M16"/>
@@ -9642,20 +11660,6 @@
     <mergeCell ref="E1:P1"/>
     <mergeCell ref="G2:P2"/>
     <mergeCell ref="E34:M34"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A1:A43"/>
-    <mergeCell ref="D1:D43"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9679,75 +11683,75 @@
   </cols>
   <sheetData>
     <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="168" t="s">
+      <c r="A26" s="167" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="151"/>
-      <c r="C26" s="151"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="152"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="167"/>
-      <c r="B27" s="151"/>
+      <c r="A27" s="165"/>
+      <c r="B27" s="152"/>
       <c r="C27" s="50"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="167"/>
-      <c r="B28" s="151"/>
+      <c r="A28" s="165"/>
+      <c r="B28" s="152"/>
       <c r="C28" s="51"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="167"/>
-      <c r="B29" s="151"/>
+      <c r="A29" s="165"/>
+      <c r="B29" s="152"/>
       <c r="C29" s="121"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="167"/>
-      <c r="B30" s="151"/>
+      <c r="A30" s="165"/>
+      <c r="B30" s="152"/>
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="167"/>
-      <c r="B31" s="151"/>
+      <c r="A31" s="165"/>
+      <c r="B31" s="152"/>
       <c r="C31" s="53"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="165"/>
-      <c r="B32" s="151"/>
+      <c r="A32" s="168"/>
+      <c r="B32" s="152"/>
       <c r="C32" s="121"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="164"/>
-      <c r="B33" s="151"/>
+      <c r="A33" s="166"/>
+      <c r="B33" s="152"/>
       <c r="C33" s="53"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="164"/>
-      <c r="B34" s="151"/>
+      <c r="A34" s="166"/>
+      <c r="B34" s="152"/>
       <c r="C34" s="53"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="164"/>
-      <c r="B35" s="151"/>
+      <c r="A35" s="166"/>
+      <c r="B35" s="152"/>
       <c r="C35" s="53"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="164"/>
-      <c r="B36" s="151"/>
+      <c r="A36" s="166"/>
+      <c r="B36" s="152"/>
       <c r="C36" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9769,99 +11773,94 @@
   </cols>
   <sheetData>
     <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="168" t="s">
+      <c r="A26" s="167" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="151"/>
-      <c r="C26" s="151"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="152"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="167"/>
-      <c r="B27" s="151"/>
+      <c r="A27" s="165"/>
+      <c r="B27" s="152"/>
       <c r="C27" s="50"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="167"/>
-      <c r="B28" s="151"/>
+      <c r="A28" s="165"/>
+      <c r="B28" s="152"/>
       <c r="C28" s="51"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="167"/>
-      <c r="B29" s="151"/>
+      <c r="A29" s="165"/>
+      <c r="B29" s="152"/>
       <c r="C29" s="121"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="167"/>
-      <c r="B30" s="151"/>
+      <c r="A30" s="165"/>
+      <c r="B30" s="152"/>
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="167"/>
-      <c r="B31" s="151"/>
+      <c r="A31" s="165"/>
+      <c r="B31" s="152"/>
       <c r="C31" s="53"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="165"/>
-      <c r="B32" s="151"/>
+      <c r="A32" s="168"/>
+      <c r="B32" s="152"/>
       <c r="C32" s="121"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="164"/>
-      <c r="B33" s="151"/>
+      <c r="A33" s="166"/>
+      <c r="B33" s="152"/>
       <c r="C33" s="53"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="164"/>
-      <c r="B34" s="151"/>
+      <c r="A34" s="166"/>
+      <c r="B34" s="152"/>
       <c r="C34" s="53"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="164"/>
-      <c r="B35" s="151"/>
+      <c r="A35" s="166"/>
+      <c r="B35" s="152"/>
       <c r="C35" s="53"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="164"/>
-      <c r="B36" s="151"/>
+      <c r="A36" s="166"/>
+      <c r="B36" s="152"/>
       <c r="C36" s="53"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="164"/>
-      <c r="B37" s="151"/>
+      <c r="A37" s="166"/>
+      <c r="B37" s="152"/>
       <c r="C37" s="53"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="164"/>
-      <c r="B38" s="151"/>
+      <c r="A38" s="166"/>
+      <c r="B38" s="152"/>
       <c r="C38" s="53"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="164"/>
-      <c r="B39" s="151"/>
+      <c r="A39" s="166"/>
+      <c r="B39" s="152"/>
       <c r="C39" s="53"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="164"/>
-      <c r="B40" s="151"/>
+      <c r="A40" s="166"/>
+      <c r="B40" s="152"/>
       <c r="C40" s="53"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="164"/>
-      <c r="B41" s="151"/>
+      <c r="A41" s="166"/>
+      <c r="B41" s="152"/>
       <c r="C41" s="53"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="164"/>
-      <c r="B42" s="151"/>
+      <c r="A42" s="166"/>
+      <c r="B42" s="152"/>
       <c r="C42" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:B27"/>
@@ -9874,6 +11873,11 @@
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10057,17 +12061,17 @@
       <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="183" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -10095,20 +12099,20 @@
       <c r="P4" s="19"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="158" t="s">
+      <c r="A5" s="164" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="151"/>
-      <c r="C5" s="151"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="151"/>
-      <c r="F5" s="151"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="151"/>
-      <c r="I5" s="151"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="151"/>
-      <c r="L5" s="151"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="152"/>
+      <c r="L5" s="152"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -10127,10 +12131,10 @@
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
-      <c r="K6" s="181" t="s">
+      <c r="K6" s="182" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="151"/>
+      <c r="L6" s="152"/>
       <c r="M6" s="23"/>
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
@@ -10497,20 +12501,20 @@
       <c r="P13" s="10"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="158" t="s">
+      <c r="A15" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="151"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="151"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="152"/>
+      <c r="L15" s="152"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
@@ -10541,10 +12545,10 @@
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="K16" s="181" t="s">
+      <c r="K16" s="182" t="s">
         <v>120</v>
       </c>
-      <c r="L16" s="151"/>
+      <c r="L16" s="152"/>
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
@@ -10558,10 +12562,10 @@
       <c r="W16" s="43"/>
       <c r="X16" s="43"/>
       <c r="Y16" s="43"/>
-      <c r="Z16" s="183"/>
-      <c r="AA16" s="151"/>
-      <c r="AB16" s="183"/>
-      <c r="AC16" s="151"/>
+      <c r="Z16" s="184"/>
+      <c r="AA16" s="152"/>
+      <c r="AB16" s="184"/>
+      <c r="AC16" s="152"/>
       <c r="AD16" s="57"/>
     </row>
     <row r="17" spans="1:28" ht="15" x14ac:dyDescent="0.25">

--- a/0 DyTech Informations/Dytech Balance.xlsx
+++ b/0 DyTech Informations/Dytech Balance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12135" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12135" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
@@ -256,6 +256,30 @@
             <family val="2"/>
           </rPr>
           <t>Sum of energy required to create all the items for the recipe</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MagicLegend:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Energy used by the chemical processor to create the fuel stated in colum A</t>
         </r>
       </text>
     </comment>
@@ -619,7 +643,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="395">
   <si>
     <t>README</t>
   </si>
@@ -1632,9 +1656,6 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>Clean-water</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
@@ -1701,9 +1722,6 @@
     <t>.</t>
   </si>
   <si>
-    <t>54 minuten</t>
-  </si>
-  <si>
     <t>Energy consumption</t>
   </si>
   <si>
@@ -1722,22 +1740,110 @@
     <t>(0.5 speed)</t>
   </si>
   <si>
-    <t>Water cleaner</t>
+    <t>Tier 1:</t>
+  </si>
+  <si>
+    <t>crystal</t>
+  </si>
+  <si>
+    <t>raw-ruby</t>
+  </si>
+  <si>
+    <t>raw-sapphire</t>
+  </si>
+  <si>
+    <t>raw-emerald</t>
+  </si>
+  <si>
+    <t>raw-topaz</t>
+  </si>
+  <si>
+    <t>raw-diamond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tier 2: </t>
+  </si>
+  <si>
+    <t>cut-ruby</t>
+  </si>
+  <si>
+    <t>cut-sapphire</t>
+  </si>
+  <si>
+    <t>cut-emerald</t>
+  </si>
+  <si>
+    <t>cut-topaz</t>
+  </si>
+  <si>
+    <t>cut-diamond</t>
+  </si>
+  <si>
+    <t>compressed-ruby</t>
+  </si>
+  <si>
+    <t>compressed-sapphire</t>
+  </si>
+  <si>
+    <t>compressed-emerald</t>
+  </si>
+  <si>
+    <t>compressed-topaz</t>
+  </si>
+  <si>
+    <t>compressed-diamond</t>
+  </si>
+  <si>
+    <t>Tier 3:</t>
+  </si>
+  <si>
+    <t>Tier 4:</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Tier 2:</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>Total time</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>Total energy</t>
+  </si>
+  <si>
+    <t>kW</t>
+  </si>
+  <si>
+    <t>min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="#,##0.000"/>
     <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="175" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1845,6 +1951,18 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3D3C40"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2274,7 +2392,7 @@
     <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2565,6 +2683,7 @@
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
@@ -2612,10 +2731,14 @@
     <xf numFmtId="4" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="15" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="40" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="40" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="0" fillId="40" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -8414,17 +8537,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="214" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="214" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="214" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="214"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="215" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="215" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="215" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="215" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="215"/>
     <col min="18" max="18" width="10.7109375" customWidth="1"/>
     <col min="19" max="20" width="9.28515625" customWidth="1"/>
   </cols>
@@ -8434,7 +8561,7 @@
       <c r="Y1" s="119"/>
       <c r="Z1" s="119"/>
       <c r="AC1" s="119" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8455,49 +8582,49 @@
       <c r="A3" s="144" t="s">
         <v>333</v>
       </c>
-      <c r="D3" s="197" t="s">
+      <c r="D3" s="198" t="s">
+        <v>344</v>
+      </c>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="200"/>
+      <c r="Q3" s="211" t="s">
+        <v>346</v>
+      </c>
+      <c r="R3" s="206"/>
+      <c r="S3" s="206"/>
+      <c r="T3" s="206"/>
+      <c r="U3" s="206"/>
+      <c r="V3" s="206"/>
+      <c r="W3" s="206"/>
+      <c r="X3" s="206"/>
+      <c r="Y3" s="206"/>
+      <c r="Z3" s="206"/>
+      <c r="AA3" s="150"/>
+    </row>
+    <row r="4" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="201" t="s">
         <v>345</v>
       </c>
-      <c r="E3" s="198"/>
-      <c r="F3" s="198"/>
-      <c r="G3" s="198"/>
-      <c r="H3" s="199"/>
-      <c r="Q3" s="210" t="s">
-        <v>347</v>
-      </c>
-      <c r="R3" s="205"/>
-      <c r="S3" s="205"/>
-      <c r="T3" s="205"/>
-      <c r="U3" s="205"/>
-      <c r="V3" s="205"/>
-      <c r="W3" s="205"/>
-      <c r="X3" s="205"/>
-      <c r="Y3" s="205"/>
-      <c r="Z3" s="205"/>
-      <c r="AA3" s="150"/>
-    </row>
-    <row r="4" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="200" t="s">
-        <v>346</v>
-      </c>
-      <c r="E4" s="201"/>
-      <c r="F4" s="201"/>
-      <c r="G4" s="201"/>
-      <c r="H4" s="202"/>
-      <c r="Q4" s="211"/>
-      <c r="R4" s="205"/>
-      <c r="S4" s="205"/>
-      <c r="T4" s="205"/>
-      <c r="U4" s="205"/>
-      <c r="V4" s="205"/>
-      <c r="W4" s="205"/>
-      <c r="X4" s="205"/>
-      <c r="Y4" s="205"/>
-      <c r="Z4" s="205"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="203"/>
+      <c r="Q4" s="212"/>
+      <c r="R4" s="206"/>
+      <c r="S4" s="206"/>
+      <c r="T4" s="206"/>
+      <c r="U4" s="206"/>
+      <c r="V4" s="206"/>
+      <c r="W4" s="206"/>
+      <c r="X4" s="206"/>
+      <c r="Y4" s="206"/>
+      <c r="Z4" s="206"/>
       <c r="AA4" s="150"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="Q5" s="203"/>
+      <c r="Q5" s="204"/>
       <c r="R5" s="150"/>
       <c r="S5" s="150"/>
       <c r="T5" s="150"/>
@@ -8522,42 +8649,42 @@
         <v>336</v>
       </c>
       <c r="F6" s="146"/>
-      <c r="G6" s="215" t="s">
+      <c r="G6" s="216" t="s">
         <v>335</v>
       </c>
-      <c r="H6" s="215" t="s">
+      <c r="H6" s="216" t="s">
         <v>335</v>
       </c>
       <c r="I6" s="146"/>
-      <c r="J6" s="215" t="s">
+      <c r="J6" s="216" t="s">
         <v>335</v>
       </c>
-      <c r="K6" s="215" t="s">
-        <v>344</v>
+      <c r="K6" s="216" t="s">
+        <v>343</v>
       </c>
       <c r="L6" s="146"/>
-      <c r="M6" s="215" t="s">
+      <c r="M6" s="216" t="s">
+        <v>337</v>
+      </c>
+      <c r="N6" s="216" t="s">
         <v>338</v>
       </c>
-      <c r="N6" s="215" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q6" s="203"/>
-      <c r="R6" s="207" t="s">
-        <v>348</v>
-      </c>
-      <c r="S6" s="207"/>
+      <c r="Q6" s="204"/>
+      <c r="R6" s="208" t="s">
+        <v>347</v>
+      </c>
+      <c r="S6" s="208"/>
       <c r="T6" s="150"/>
-      <c r="U6" s="206" t="s">
-        <v>361</v>
-      </c>
-      <c r="V6" s="206"/>
-      <c r="W6" s="206"/>
+      <c r="U6" s="207" t="s">
+        <v>359</v>
+      </c>
+      <c r="V6" s="207"/>
+      <c r="W6" s="207"/>
       <c r="X6" s="150"/>
-      <c r="Y6" s="196" t="s">
-        <v>365</v>
-      </c>
-      <c r="Z6" s="196"/>
+      <c r="Y6" s="197" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z6" s="197"/>
       <c r="AA6" s="150"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
@@ -8567,36 +8694,36 @@
       <c r="D7" s="146"/>
       <c r="E7" s="146"/>
       <c r="F7" s="186"/>
-      <c r="G7" s="215" t="s">
-        <v>343</v>
-      </c>
-      <c r="H7" s="216" t="s">
-        <v>343</v>
+      <c r="G7" s="216" t="s">
+        <v>342</v>
+      </c>
+      <c r="H7" s="217" t="s">
+        <v>342</v>
       </c>
       <c r="I7" s="186"/>
-      <c r="J7" s="215" t="s">
-        <v>343</v>
-      </c>
-      <c r="K7" s="215" t="s">
-        <v>343</v>
+      <c r="J7" s="216" t="s">
+        <v>342</v>
+      </c>
+      <c r="K7" s="216" t="s">
+        <v>342</v>
       </c>
       <c r="L7" s="186"/>
-      <c r="M7" s="216" t="s">
-        <v>340</v>
-      </c>
-      <c r="N7" s="216" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q7" s="203"/>
-      <c r="R7" s="204"/>
-      <c r="S7" s="208" t="s">
-        <v>340</v>
+      <c r="M7" s="217" t="s">
+        <v>339</v>
+      </c>
+      <c r="N7" s="217" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q7" s="204"/>
+      <c r="R7" s="205"/>
+      <c r="S7" s="209" t="s">
+        <v>339</v>
       </c>
       <c r="T7" s="150"/>
-      <c r="U7" s="195"/>
-      <c r="V7" s="195"/>
-      <c r="W7" s="209" t="s">
-        <v>363</v>
+      <c r="U7" s="196"/>
+      <c r="V7" s="196"/>
+      <c r="W7" s="210" t="s">
+        <v>361</v>
       </c>
       <c r="X7" s="150"/>
       <c r="Y7" s="150"/>
@@ -8608,45 +8735,48 @@
         <v>323</v>
       </c>
       <c r="B8" s="186"/>
-      <c r="C8" s="220" t="s">
-        <v>342</v>
-      </c>
-      <c r="D8" s="220"/>
+      <c r="C8" s="222" t="s">
+        <v>341</v>
+      </c>
+      <c r="D8" s="222"/>
       <c r="E8" s="185">
         <v>1</v>
       </c>
       <c r="F8" s="186"/>
-      <c r="G8" s="213">
+      <c r="G8" s="214">
         <f>W9*Y9*S8</f>
         <v>1800</v>
       </c>
-      <c r="H8" s="217">
+      <c r="H8" s="218">
         <f>G8</f>
         <v>1800</v>
       </c>
       <c r="I8" s="186"/>
-      <c r="J8" s="213"/>
-      <c r="K8" s="213"/>
+      <c r="J8" s="214">
+        <f>G8</f>
+        <v>1800</v>
+      </c>
+      <c r="K8" s="214"/>
       <c r="L8" s="186"/>
-      <c r="M8" s="218">
+      <c r="M8" s="219">
         <f>S8</f>
         <v>10</v>
       </c>
-      <c r="N8" s="218"/>
-      <c r="Q8" s="203"/>
-      <c r="R8" s="193" t="s">
+      <c r="N8" s="219"/>
+      <c r="Q8" s="204"/>
+      <c r="R8" s="194" t="s">
         <v>323</v>
       </c>
       <c r="S8" s="189">
         <v>10</v>
       </c>
       <c r="T8" s="150"/>
-      <c r="U8" s="191" t="s">
-        <v>362</v>
-      </c>
-      <c r="V8" s="192"/>
+      <c r="U8" s="192" t="s">
+        <v>360</v>
+      </c>
+      <c r="V8" s="193"/>
       <c r="W8" s="187">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="X8" s="150"/>
       <c r="Y8" s="150"/>
@@ -8656,38 +8786,42 @@
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="149"/>
       <c r="B9" s="186"/>
-      <c r="C9" s="220" t="s">
-        <v>341</v>
-      </c>
-      <c r="D9" s="220"/>
+      <c r="C9" s="222" t="s">
+        <v>340</v>
+      </c>
+      <c r="D9" s="222"/>
       <c r="E9" s="185"/>
       <c r="F9" s="186"/>
-      <c r="G9" s="213"/>
-      <c r="H9" s="213"/>
+      <c r="G9" s="214"/>
+      <c r="H9" s="223">
+        <f>H8</f>
+        <v>1800</v>
+      </c>
       <c r="I9" s="186"/>
-      <c r="J9" s="213"/>
-      <c r="K9" s="213"/>
+      <c r="J9" s="214"/>
+      <c r="K9" s="214"/>
       <c r="L9" s="186"/>
-      <c r="M9" s="213">
+      <c r="M9" s="214">
         <f>M8</f>
         <v>10</v>
       </c>
-      <c r="N9" s="213">
+      <c r="N9" s="214">
         <f>M9</f>
         <v>10</v>
       </c>
-      <c r="Q9" s="203"/>
-      <c r="R9" s="194" t="s">
+      <c r="O9" s="227"/>
+      <c r="Q9" s="204"/>
+      <c r="R9" s="195" t="s">
         <v>324</v>
       </c>
       <c r="S9" s="188">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="T9" s="150"/>
-      <c r="U9" s="191" t="s">
-        <v>364</v>
-      </c>
-      <c r="V9" s="192"/>
+      <c r="U9" s="192" t="s">
+        <v>362</v>
+      </c>
+      <c r="V9" s="193"/>
       <c r="W9" s="187">
         <v>90</v>
       </c>
@@ -8696,7 +8830,7 @@
         <v>2</v>
       </c>
       <c r="Z9" s="119" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AA9" s="150"/>
     </row>
@@ -8707,32 +8841,28 @@
       <c r="D10" s="149"/>
       <c r="E10" s="185"/>
       <c r="F10" s="186"/>
-      <c r="G10" s="213"/>
-      <c r="H10" s="213"/>
+      <c r="G10" s="214"/>
+      <c r="H10" s="214"/>
       <c r="I10" s="186"/>
-      <c r="J10" s="213"/>
-      <c r="K10" s="219">
+      <c r="J10" s="214"/>
+      <c r="K10" s="221">
         <f>H8</f>
         <v>1800</v>
       </c>
       <c r="L10" s="186"/>
-      <c r="M10" s="213"/>
-      <c r="N10" s="213"/>
-      <c r="Q10" s="203"/>
-      <c r="R10" s="194" t="s">
+      <c r="M10" s="214"/>
+      <c r="N10" s="214"/>
+      <c r="Q10" s="204"/>
+      <c r="R10" s="195" t="s">
         <v>325</v>
       </c>
       <c r="S10" s="188">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="T10" s="150"/>
-      <c r="U10" s="191" t="s">
-        <v>367</v>
-      </c>
-      <c r="V10" s="192"/>
-      <c r="W10" s="187">
-        <v>50</v>
-      </c>
+      <c r="U10" s="192"/>
+      <c r="V10" s="193"/>
+      <c r="W10" s="187"/>
       <c r="X10" s="150"/>
       <c r="Y10" s="150"/>
       <c r="Z10" s="150"/>
@@ -8751,33 +8881,36 @@
         <v>2</v>
       </c>
       <c r="F11" s="186"/>
-      <c r="G11" s="213">
+      <c r="G11" s="214">
+        <f>J8</f>
+        <v>1800</v>
+      </c>
+      <c r="H11" s="214">
+        <f>G11*E11</f>
+        <v>3600</v>
+      </c>
+      <c r="I11" s="186"/>
+      <c r="J11" s="214">
         <f>W8*S9</f>
-        <v>30000</v>
-      </c>
-      <c r="H11" s="213">
-        <f>G11*E11</f>
-        <v>60000</v>
-      </c>
-      <c r="I11" s="186"/>
-      <c r="J11" s="213"/>
-      <c r="K11" s="213"/>
+        <v>60</v>
+      </c>
+      <c r="K11" s="214"/>
       <c r="L11" s="186"/>
-      <c r="M11" s="213">
-        <f>S9</f>
+      <c r="M11" s="214">
+        <f>S9+M8*E11</f>
+        <v>80</v>
+      </c>
+      <c r="N11" s="214"/>
+      <c r="Q11" s="204"/>
+      <c r="R11" s="195" t="s">
+        <v>326</v>
+      </c>
+      <c r="S11" s="188">
         <v>120</v>
       </c>
-      <c r="N11" s="213"/>
-      <c r="Q11" s="203"/>
-      <c r="R11" s="194" t="s">
-        <v>326</v>
-      </c>
-      <c r="S11" s="188">
-        <v>240</v>
-      </c>
       <c r="T11" s="150"/>
-      <c r="U11" s="192"/>
-      <c r="V11" s="192"/>
+      <c r="U11" s="193"/>
+      <c r="V11" s="193"/>
       <c r="W11" s="187"/>
       <c r="X11" s="150"/>
       <c r="Y11" s="150"/>
@@ -8787,41 +8920,36 @@
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="149"/>
       <c r="B12" s="186"/>
-      <c r="C12" s="148" t="s">
-        <v>337</v>
-      </c>
+      <c r="C12" s="148"/>
       <c r="D12" s="149"/>
-      <c r="E12" s="185">
-        <v>100</v>
-      </c>
+      <c r="E12" s="185"/>
       <c r="F12" s="186"/>
-      <c r="G12" s="217">
-        <f>W10*S31</f>
-        <v>10.869565217391305</v>
-      </c>
-      <c r="H12" s="218">
-        <f>E12/9.2</f>
-        <v>10.869565217391305</v>
+      <c r="G12" s="218"/>
+      <c r="H12" s="219">
+        <f>G12</f>
+        <v>0</v>
       </c>
       <c r="I12" s="186"/>
-      <c r="J12" s="213"/>
-      <c r="K12" s="213"/>
+      <c r="J12" s="214">
+        <f>J11+H13</f>
+        <v>3660</v>
+      </c>
+      <c r="K12" s="214"/>
       <c r="L12" s="186"/>
-      <c r="M12" s="218">
-        <f>S31</f>
-        <v>0.21739130434782608</v>
-      </c>
-      <c r="N12" s="218"/>
-      <c r="Q12" s="203"/>
-      <c r="R12" s="194" t="s">
+      <c r="M12" s="219">
+        <v>0</v>
+      </c>
+      <c r="N12" s="219"/>
+      <c r="Q12" s="204"/>
+      <c r="R12" s="195" t="s">
         <v>327</v>
       </c>
       <c r="S12" s="188">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="T12" s="150"/>
-      <c r="U12" s="192"/>
-      <c r="V12" s="192"/>
+      <c r="U12" s="193"/>
+      <c r="V12" s="193"/>
       <c r="W12" s="187"/>
       <c r="X12" s="150"/>
       <c r="Y12" s="150"/>
@@ -8835,36 +8963,36 @@
       <c r="D13" s="149"/>
       <c r="E13" s="185"/>
       <c r="F13" s="186"/>
-      <c r="G13" s="213"/>
-      <c r="H13" s="213">
+      <c r="G13" s="214"/>
+      <c r="H13" s="214">
         <f>H11+H12</f>
-        <v>60010.869565217392</v>
+        <v>3600</v>
       </c>
       <c r="I13" s="186"/>
       <c r="J13" s="213"/>
-      <c r="K13" s="219">
-        <f>K10+H13</f>
-        <v>61810.869565217392</v>
+      <c r="K13" s="221">
+        <f>K10+J12</f>
+        <v>5460</v>
       </c>
       <c r="L13" s="186"/>
-      <c r="M13" s="212">
+      <c r="M13" s="213">
         <f>M11+M12</f>
-        <v>120.21739130434783</v>
-      </c>
-      <c r="N13" s="213">
+        <v>80</v>
+      </c>
+      <c r="N13" s="214">
         <f>N9+M13</f>
-        <v>130.21739130434781</v>
-      </c>
-      <c r="Q13" s="203"/>
-      <c r="R13" s="194" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q13" s="204"/>
+      <c r="R13" s="195" t="s">
         <v>328</v>
       </c>
       <c r="S13" s="188">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="T13" s="150"/>
-      <c r="U13" s="192"/>
-      <c r="V13" s="192"/>
+      <c r="U13" s="193"/>
+      <c r="V13" s="193"/>
       <c r="W13" s="187"/>
       <c r="X13" s="150"/>
       <c r="Y13" s="150"/>
@@ -8878,24 +9006,24 @@
       <c r="D14" s="149"/>
       <c r="E14" s="185"/>
       <c r="F14" s="186"/>
-      <c r="G14" s="213"/>
-      <c r="H14" s="212"/>
+      <c r="G14" s="214"/>
+      <c r="H14" s="213"/>
       <c r="I14" s="186"/>
-      <c r="J14" s="213"/>
-      <c r="K14" s="213"/>
+      <c r="J14" s="214"/>
+      <c r="K14" s="214"/>
       <c r="L14" s="186"/>
-      <c r="M14" s="213"/>
-      <c r="N14" s="213"/>
-      <c r="Q14" s="203"/>
-      <c r="R14" s="194" t="s">
+      <c r="M14" s="214"/>
+      <c r="N14" s="214"/>
+      <c r="Q14" s="204"/>
+      <c r="R14" s="195" t="s">
         <v>329</v>
       </c>
       <c r="S14" s="188">
-        <v>420</v>
+        <v>210</v>
       </c>
       <c r="T14" s="150"/>
-      <c r="U14" s="192"/>
-      <c r="V14" s="192"/>
+      <c r="U14" s="193"/>
+      <c r="V14" s="193"/>
       <c r="W14" s="187"/>
       <c r="X14" s="150"/>
       <c r="Y14" s="150"/>
@@ -8903,30 +9031,48 @@
       <c r="AA14" s="150"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A15" s="149"/>
+      <c r="A15" s="149" t="s">
+        <v>325</v>
+      </c>
       <c r="B15" s="186"/>
-      <c r="C15" s="149"/>
+      <c r="C15" s="149" t="s">
+        <v>324</v>
+      </c>
       <c r="D15" s="149"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="222"/>
-      <c r="G15" s="213"/>
-      <c r="H15" s="213"/>
+      <c r="E15" s="185">
+        <v>2</v>
+      </c>
+      <c r="F15" s="186"/>
+      <c r="G15" s="214">
+        <f>J12</f>
+        <v>3660</v>
+      </c>
+      <c r="H15" s="214">
+        <f>G15*E15</f>
+        <v>7320</v>
+      </c>
       <c r="I15" s="186"/>
-      <c r="J15" s="213"/>
-      <c r="K15" s="213"/>
+      <c r="J15" s="214">
+        <f>W8*S10</f>
+        <v>90</v>
+      </c>
+      <c r="K15" s="214"/>
       <c r="L15" s="186"/>
-      <c r="M15" s="213"/>
-      <c r="N15" s="213"/>
-      <c r="Q15" s="203"/>
-      <c r="R15" s="194" t="s">
+      <c r="M15" s="214">
+        <f>S10+S9*E15</f>
+        <v>210</v>
+      </c>
+      <c r="N15" s="214"/>
+      <c r="Q15" s="204"/>
+      <c r="R15" s="195" t="s">
         <v>330</v>
       </c>
       <c r="S15" s="188">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="T15" s="150"/>
       <c r="U15" s="192"/>
-      <c r="V15" s="192"/>
+      <c r="V15" s="193"/>
       <c r="W15" s="187"/>
       <c r="X15" s="150"/>
       <c r="Y15" s="150"/>
@@ -8934,45 +9080,38 @@
       <c r="AA15" s="150"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A16" s="149" t="s">
-        <v>325</v>
-      </c>
+      <c r="A16" s="149"/>
       <c r="B16" s="186"/>
-      <c r="C16" s="149" t="s">
-        <v>324</v>
-      </c>
+      <c r="C16" s="149"/>
       <c r="D16" s="149"/>
-      <c r="E16" s="185">
-        <v>2</v>
-      </c>
+      <c r="E16" s="185"/>
       <c r="F16" s="186"/>
-      <c r="G16" s="213">
-        <f>W8*S10</f>
-        <v>45000</v>
-      </c>
+      <c r="G16" s="218"/>
       <c r="H16" s="213">
-        <f>G16*E16</f>
-        <v>90000</v>
+        <f>G16</f>
+        <v>0</v>
       </c>
       <c r="I16" s="186"/>
-      <c r="J16" s="213"/>
-      <c r="K16" s="213"/>
+      <c r="J16" s="214">
+        <f>J15+H17</f>
+        <v>7410</v>
+      </c>
+      <c r="K16" s="214"/>
       <c r="L16" s="186"/>
-      <c r="M16" s="213">
-        <f>M13</f>
-        <v>120.21739130434783</v>
-      </c>
-      <c r="N16" s="213"/>
-      <c r="Q16" s="203"/>
-      <c r="R16" s="194" t="s">
+      <c r="M16" s="219">
+        <v>0</v>
+      </c>
+      <c r="N16" s="219"/>
+      <c r="Q16" s="204"/>
+      <c r="R16" s="195" t="s">
         <v>331</v>
       </c>
       <c r="S16" s="188">
-        <v>540</v>
+        <v>270</v>
       </c>
       <c r="T16" s="150"/>
-      <c r="U16" s="192"/>
-      <c r="V16" s="192"/>
+      <c r="U16" s="193"/>
+      <c r="V16" s="193"/>
       <c r="W16" s="187"/>
       <c r="X16" s="150"/>
       <c r="Y16" s="150"/>
@@ -8982,41 +9121,40 @@
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="149"/>
       <c r="B17" s="186"/>
-      <c r="C17" s="149" t="s">
-        <v>337</v>
-      </c>
+      <c r="C17" s="149"/>
       <c r="D17" s="149"/>
-      <c r="E17" s="185">
-        <v>100</v>
-      </c>
+      <c r="E17" s="185"/>
       <c r="F17" s="186"/>
-      <c r="G17" s="217">
-        <f>W10*S31</f>
-        <v>10.869565217391305</v>
-      </c>
-      <c r="H17" s="212">
-        <f>E17/9.2</f>
-        <v>10.869565217391305</v>
+      <c r="G17" s="214"/>
+      <c r="H17" s="223">
+        <f>H15+H16</f>
+        <v>7320</v>
       </c>
       <c r="I17" s="186"/>
-      <c r="J17" s="213"/>
-      <c r="K17" s="213"/>
+      <c r="J17" s="214"/>
+      <c r="K17" s="221">
+        <f>K13+J16</f>
+        <v>12870</v>
+      </c>
       <c r="L17" s="186"/>
-      <c r="M17" s="218">
-        <f>S31</f>
-        <v>0.21739130434782608</v>
-      </c>
-      <c r="N17" s="218"/>
-      <c r="Q17" s="203"/>
-      <c r="R17" s="194" t="s">
+      <c r="M17" s="214">
+        <f>M15+M16</f>
+        <v>210</v>
+      </c>
+      <c r="N17" s="214">
+        <f>N13+M17</f>
+        <v>300</v>
+      </c>
+      <c r="Q17" s="204"/>
+      <c r="R17" s="195" t="s">
         <v>332</v>
       </c>
       <c r="S17" s="188">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="T17" s="150"/>
-      <c r="U17" s="192"/>
-      <c r="V17" s="192"/>
+      <c r="U17" s="193"/>
+      <c r="V17" s="193"/>
       <c r="W17" s="187"/>
       <c r="X17" s="150"/>
       <c r="Y17" s="150"/>
@@ -9030,34 +9168,25 @@
       <c r="D18" s="149"/>
       <c r="E18" s="185"/>
       <c r="F18" s="186"/>
-      <c r="G18" s="213"/>
-      <c r="H18" s="221">
-        <f>H16+H17</f>
-        <v>90010.869565217392</v>
-      </c>
+      <c r="G18" s="214"/>
+      <c r="H18" s="214"/>
       <c r="I18" s="186"/>
-      <c r="J18" s="213"/>
-      <c r="K18" s="219">
-        <f>K13+H18</f>
-        <v>151821.73913043478</v>
-      </c>
+      <c r="J18" s="214"/>
+      <c r="K18" s="214"/>
       <c r="L18" s="186"/>
-      <c r="M18" s="213">
-        <f>M16+M17</f>
-        <v>120.43478260869566</v>
-      </c>
-      <c r="N18" s="213">
-        <f>N13+M18</f>
-        <v>250.65217391304347</v>
-      </c>
-      <c r="Q18" s="203"/>
-      <c r="R18" s="194"/>
-      <c r="S18" s="190" t="s">
-        <v>360</v>
-      </c>
-      <c r="T18" s="150"/>
-      <c r="U18" s="192"/>
-      <c r="V18" s="192"/>
+      <c r="M18" s="214"/>
+      <c r="N18" s="214"/>
+      <c r="Q18" s="204"/>
+      <c r="R18" s="195"/>
+      <c r="S18" s="191">
+        <f>(S9+S10+S11+S12+S13+S14+S15+S16+S17)/60</f>
+        <v>27</v>
+      </c>
+      <c r="T18" s="119" t="s">
+        <v>394</v>
+      </c>
+      <c r="U18" s="193"/>
+      <c r="V18" s="193"/>
       <c r="W18" s="187"/>
       <c r="X18" s="150"/>
       <c r="Y18" s="150"/>
@@ -9065,22 +9194,40 @@
       <c r="AA18" s="150"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A19" s="149"/>
+      <c r="A19" s="148" t="s">
+        <v>326</v>
+      </c>
       <c r="B19" s="186"/>
-      <c r="C19" s="149"/>
+      <c r="C19" s="148" t="s">
+        <v>325</v>
+      </c>
       <c r="D19" s="149"/>
-      <c r="E19" s="185"/>
+      <c r="E19" s="185">
+        <v>2</v>
+      </c>
       <c r="F19" s="186"/>
-      <c r="G19" s="213"/>
-      <c r="H19" s="213"/>
+      <c r="G19" s="214">
+        <f>J16</f>
+        <v>7410</v>
+      </c>
+      <c r="H19" s="214">
+        <f>G19*E19</f>
+        <v>14820</v>
+      </c>
       <c r="I19" s="186"/>
-      <c r="J19" s="213"/>
-      <c r="K19" s="213"/>
+      <c r="J19" s="214">
+        <f>W8*S11</f>
+        <v>120</v>
+      </c>
+      <c r="K19" s="214"/>
       <c r="L19" s="186"/>
-      <c r="M19" s="213"/>
-      <c r="N19" s="213"/>
-      <c r="Q19" s="203"/>
-      <c r="R19" s="194"/>
+      <c r="M19" s="214">
+        <f>S11+S10*E19</f>
+        <v>300</v>
+      </c>
+      <c r="N19" s="214"/>
+      <c r="Q19" s="204"/>
+      <c r="R19" s="195"/>
       <c r="S19" s="189"/>
       <c r="T19" s="150"/>
       <c r="U19" s="150"/>
@@ -9092,35 +9239,31 @@
       <c r="AA19" s="150"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A20" s="148" t="s">
-        <v>326</v>
-      </c>
+      <c r="A20" s="149"/>
       <c r="B20" s="186"/>
-      <c r="C20" s="148" t="s">
-        <v>325</v>
-      </c>
+      <c r="C20" s="148"/>
       <c r="D20" s="149"/>
-      <c r="E20" s="185">
-        <v>2</v>
-      </c>
+      <c r="E20" s="185"/>
       <c r="F20" s="186"/>
-      <c r="G20" s="213">
-        <f>W8*S11</f>
-        <v>60000</v>
-      </c>
-      <c r="H20" s="213">
-        <f>G20*E20</f>
-        <v>120000</v>
+      <c r="G20" s="214"/>
+      <c r="H20" s="214">
+        <f>G20</f>
+        <v>0</v>
       </c>
       <c r="I20" s="186"/>
-      <c r="J20" s="213"/>
-      <c r="K20" s="213"/>
+      <c r="J20" s="214">
+        <f>J19+H21</f>
+        <v>14940</v>
+      </c>
+      <c r="K20" s="214"/>
       <c r="L20" s="186"/>
-      <c r="M20" s="213"/>
-      <c r="N20" s="213"/>
-      <c r="Q20" s="203"/>
-      <c r="R20" s="193" t="s">
-        <v>349</v>
+      <c r="M20" s="219">
+        <v>0</v>
+      </c>
+      <c r="N20" s="219"/>
+      <c r="Q20" s="204"/>
+      <c r="R20" s="194" t="s">
+        <v>348</v>
       </c>
       <c r="S20" s="189"/>
       <c r="T20" s="150"/>
@@ -9135,28 +9278,33 @@
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="149"/>
       <c r="B21" s="186"/>
-      <c r="C21" s="148" t="s">
-        <v>337</v>
-      </c>
+      <c r="C21" s="149"/>
       <c r="D21" s="149"/>
-      <c r="E21" s="185">
-        <v>100</v>
-      </c>
+      <c r="E21" s="185"/>
       <c r="F21" s="186"/>
-      <c r="G21" s="213">
-        <f>W10*S31</f>
-        <v>10.869565217391305</v>
-      </c>
-      <c r="H21" s="213"/>
+      <c r="G21" s="214"/>
+      <c r="H21" s="223">
+        <f>H19+H20</f>
+        <v>14820</v>
+      </c>
       <c r="I21" s="186"/>
-      <c r="J21" s="213"/>
-      <c r="K21" s="213"/>
+      <c r="J21" s="214"/>
+      <c r="K21" s="221">
+        <f>K17+J20</f>
+        <v>27810</v>
+      </c>
       <c r="L21" s="186"/>
-      <c r="M21" s="213"/>
-      <c r="N21" s="213"/>
-      <c r="Q21" s="203"/>
-      <c r="R21" s="193" t="s">
-        <v>350</v>
+      <c r="M21" s="213">
+        <f>M19+M20</f>
+        <v>300</v>
+      </c>
+      <c r="N21" s="213">
+        <f>M21+N17</f>
+        <v>600</v>
+      </c>
+      <c r="Q21" s="204"/>
+      <c r="R21" s="194" t="s">
+        <v>349</v>
       </c>
       <c r="S21" s="189"/>
       <c r="T21" s="150"/>
@@ -9175,17 +9323,17 @@
       <c r="D22" s="149"/>
       <c r="E22" s="185"/>
       <c r="F22" s="186"/>
-      <c r="G22" s="213"/>
-      <c r="H22" s="213"/>
+      <c r="G22" s="214"/>
+      <c r="H22" s="214"/>
       <c r="I22" s="186"/>
-      <c r="J22" s="213"/>
-      <c r="K22" s="213"/>
+      <c r="J22" s="214"/>
+      <c r="K22" s="214"/>
       <c r="L22" s="186"/>
-      <c r="M22" s="213"/>
-      <c r="N22" s="213"/>
-      <c r="Q22" s="203"/>
-      <c r="R22" s="193" t="s">
-        <v>351</v>
+      <c r="M22" s="214"/>
+      <c r="N22" s="214"/>
+      <c r="Q22" s="204"/>
+      <c r="R22" s="194" t="s">
+        <v>350</v>
       </c>
       <c r="S22" s="189"/>
       <c r="T22" s="150"/>
@@ -9198,23 +9346,41 @@
       <c r="AA22" s="150"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A23" s="149"/>
+      <c r="A23" s="148" t="s">
+        <v>327</v>
+      </c>
       <c r="B23" s="186"/>
-      <c r="C23" s="149"/>
+      <c r="C23" s="148" t="s">
+        <v>326</v>
+      </c>
       <c r="D23" s="149"/>
-      <c r="E23" s="185"/>
+      <c r="E23" s="185">
+        <v>2</v>
+      </c>
       <c r="F23" s="186"/>
-      <c r="G23" s="213"/>
-      <c r="H23" s="213"/>
+      <c r="G23" s="214">
+        <f>J20</f>
+        <v>14940</v>
+      </c>
+      <c r="H23" s="214">
+        <f>G23*E23</f>
+        <v>29880</v>
+      </c>
       <c r="I23" s="186"/>
-      <c r="J23" s="213"/>
-      <c r="K23" s="213"/>
-      <c r="L23" s="186"/>
-      <c r="M23" s="213"/>
-      <c r="N23" s="213"/>
-      <c r="Q23" s="203"/>
-      <c r="R23" s="193" t="s">
-        <v>352</v>
+      <c r="J23" s="214">
+        <f>W8*S12</f>
+        <v>150</v>
+      </c>
+      <c r="K23" s="185"/>
+      <c r="L23" s="224"/>
+      <c r="M23" s="214">
+        <f>S12+S11*E23</f>
+        <v>390</v>
+      </c>
+      <c r="N23" s="185"/>
+      <c r="Q23" s="204"/>
+      <c r="R23" s="194" t="s">
+        <v>351</v>
       </c>
       <c r="S23" s="189"/>
       <c r="T23" s="150"/>
@@ -9229,21 +9395,29 @@
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="149"/>
       <c r="B24" s="186"/>
-      <c r="C24" s="149"/>
+      <c r="C24" s="148"/>
       <c r="D24" s="149"/>
       <c r="E24" s="185"/>
       <c r="F24" s="186"/>
-      <c r="G24" s="213"/>
-      <c r="H24" s="213"/>
+      <c r="G24" s="214"/>
+      <c r="H24" s="219">
+        <f>G24</f>
+        <v>0</v>
+      </c>
       <c r="I24" s="186"/>
-      <c r="J24" s="213"/>
-      <c r="K24" s="213"/>
+      <c r="J24" s="214">
+        <f>J23+H25</f>
+        <v>30030</v>
+      </c>
+      <c r="K24" s="214"/>
       <c r="L24" s="186"/>
-      <c r="M24" s="213"/>
-      <c r="N24" s="213"/>
-      <c r="Q24" s="203"/>
-      <c r="R24" s="193" t="s">
-        <v>353</v>
+      <c r="M24" s="219">
+        <v>0</v>
+      </c>
+      <c r="N24" s="219"/>
+      <c r="Q24" s="204"/>
+      <c r="R24" s="194" t="s">
+        <v>352</v>
       </c>
       <c r="S24" s="189"/>
       <c r="T24" s="150"/>
@@ -9262,17 +9436,29 @@
       <c r="D25" s="149"/>
       <c r="E25" s="185"/>
       <c r="F25" s="186"/>
-      <c r="G25" s="213"/>
-      <c r="H25" s="213"/>
+      <c r="G25" s="214"/>
+      <c r="H25" s="214">
+        <f>H24+H23</f>
+        <v>29880</v>
+      </c>
       <c r="I25" s="186"/>
-      <c r="J25" s="213"/>
-      <c r="K25" s="213"/>
+      <c r="J25" s="214"/>
+      <c r="K25" s="221">
+        <f>K21+J24</f>
+        <v>57840</v>
+      </c>
       <c r="L25" s="186"/>
-      <c r="M25" s="213"/>
-      <c r="N25" s="213"/>
-      <c r="Q25" s="203"/>
-      <c r="R25" s="193" t="s">
-        <v>354</v>
+      <c r="M25" s="214">
+        <f>M24+M23</f>
+        <v>390</v>
+      </c>
+      <c r="N25" s="214">
+        <f>N21+M25</f>
+        <v>990</v>
+      </c>
+      <c r="Q25" s="204"/>
+      <c r="R25" s="194" t="s">
+        <v>353</v>
       </c>
       <c r="S25" s="189"/>
       <c r="T25" s="150"/>
@@ -9291,17 +9477,17 @@
       <c r="D26" s="149"/>
       <c r="E26" s="185"/>
       <c r="F26" s="186"/>
-      <c r="G26" s="213"/>
-      <c r="H26" s="213"/>
+      <c r="G26" s="214"/>
+      <c r="H26" s="214"/>
       <c r="I26" s="186"/>
-      <c r="J26" s="213"/>
-      <c r="K26" s="213"/>
+      <c r="J26" s="214"/>
+      <c r="K26" s="214"/>
       <c r="L26" s="186"/>
-      <c r="M26" s="213"/>
-      <c r="N26" s="213"/>
-      <c r="Q26" s="203"/>
-      <c r="R26" s="193" t="s">
-        <v>355</v>
+      <c r="M26" s="214"/>
+      <c r="N26" s="214"/>
+      <c r="Q26" s="204"/>
+      <c r="R26" s="194" t="s">
+        <v>354</v>
       </c>
       <c r="S26" s="189"/>
       <c r="T26" s="150"/>
@@ -9314,23 +9500,41 @@
       <c r="AA26" s="150"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A27" s="149"/>
+      <c r="A27" s="148" t="s">
+        <v>328</v>
+      </c>
       <c r="B27" s="186"/>
-      <c r="C27" s="149"/>
+      <c r="C27" s="148" t="s">
+        <v>327</v>
+      </c>
       <c r="D27" s="149"/>
-      <c r="E27" s="185"/>
+      <c r="E27" s="185">
+        <v>2</v>
+      </c>
       <c r="F27" s="186"/>
-      <c r="G27" s="213"/>
-      <c r="H27" s="213"/>
+      <c r="G27" s="214">
+        <f>H25</f>
+        <v>29880</v>
+      </c>
+      <c r="H27" s="214">
+        <f>G27*E27</f>
+        <v>59760</v>
+      </c>
       <c r="I27" s="186"/>
-      <c r="J27" s="213"/>
-      <c r="K27" s="213"/>
+      <c r="J27" s="214">
+        <f>W8*S13</f>
+        <v>180</v>
+      </c>
+      <c r="K27" s="214"/>
       <c r="L27" s="186"/>
-      <c r="M27" s="213"/>
-      <c r="N27" s="213"/>
-      <c r="Q27" s="203"/>
-      <c r="R27" s="193" t="s">
-        <v>356</v>
+      <c r="M27" s="214">
+        <f>S13+S12*E27</f>
+        <v>480</v>
+      </c>
+      <c r="N27" s="214"/>
+      <c r="Q27" s="204"/>
+      <c r="R27" s="194" t="s">
+        <v>355</v>
       </c>
       <c r="S27" s="189"/>
       <c r="T27" s="150"/>
@@ -9345,21 +9549,29 @@
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="149"/>
       <c r="B28" s="186"/>
-      <c r="C28" s="149"/>
+      <c r="C28" s="148"/>
       <c r="D28" s="149"/>
       <c r="E28" s="185"/>
       <c r="F28" s="186"/>
-      <c r="G28" s="213"/>
-      <c r="H28" s="213"/>
+      <c r="G28" s="214"/>
+      <c r="H28" s="219">
+        <f>G28</f>
+        <v>0</v>
+      </c>
       <c r="I28" s="186"/>
-      <c r="J28" s="213"/>
-      <c r="K28" s="213"/>
+      <c r="J28" s="214">
+        <f>J27+H29</f>
+        <v>59940</v>
+      </c>
+      <c r="K28" s="214"/>
       <c r="L28" s="186"/>
-      <c r="M28" s="213"/>
-      <c r="N28" s="213"/>
-      <c r="Q28" s="203"/>
-      <c r="R28" s="193" t="s">
-        <v>357</v>
+      <c r="M28" s="219">
+        <v>0</v>
+      </c>
+      <c r="N28" s="219"/>
+      <c r="Q28" s="204"/>
+      <c r="R28" s="194" t="s">
+        <v>356</v>
       </c>
       <c r="S28" s="189"/>
       <c r="T28" s="150"/>
@@ -9378,17 +9590,29 @@
       <c r="D29" s="149"/>
       <c r="E29" s="185"/>
       <c r="F29" s="186"/>
-      <c r="G29" s="213"/>
-      <c r="H29" s="213"/>
+      <c r="G29" s="214"/>
+      <c r="H29" s="214">
+        <f>H28+H27</f>
+        <v>59760</v>
+      </c>
       <c r="I29" s="186"/>
-      <c r="J29" s="213"/>
-      <c r="K29" s="213"/>
+      <c r="J29" s="214"/>
+      <c r="K29" s="221">
+        <f>K25+J28</f>
+        <v>117780</v>
+      </c>
       <c r="L29" s="186"/>
-      <c r="M29" s="213"/>
-      <c r="N29" s="213"/>
-      <c r="Q29" s="203"/>
-      <c r="R29" s="193" t="s">
-        <v>358</v>
+      <c r="M29" s="214">
+        <f>M27+M28</f>
+        <v>480</v>
+      </c>
+      <c r="N29" s="214">
+        <f>N25+M29</f>
+        <v>1470</v>
+      </c>
+      <c r="Q29" s="204"/>
+      <c r="R29" s="194" t="s">
+        <v>357</v>
       </c>
       <c r="S29" s="189"/>
       <c r="T29" s="150"/>
@@ -9407,16 +9631,16 @@
       <c r="D30" s="149"/>
       <c r="E30" s="185"/>
       <c r="F30" s="186"/>
-      <c r="G30" s="213"/>
-      <c r="H30" s="213"/>
+      <c r="G30" s="214"/>
+      <c r="H30" s="214"/>
       <c r="I30" s="186"/>
-      <c r="J30" s="213"/>
-      <c r="K30" s="213"/>
+      <c r="J30" s="214"/>
+      <c r="K30" s="214"/>
       <c r="L30" s="186"/>
-      <c r="M30" s="213"/>
-      <c r="N30" s="213"/>
-      <c r="Q30" s="203"/>
-      <c r="R30" s="194"/>
+      <c r="M30" s="214"/>
+      <c r="N30" s="214"/>
+      <c r="Q30" s="204"/>
+      <c r="R30" s="195"/>
       <c r="S30" s="189"/>
       <c r="T30" s="150"/>
       <c r="U30" s="150"/>
@@ -9428,28 +9652,41 @@
       <c r="AA30" s="150"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A31" s="149"/>
+      <c r="A31" s="148" t="s">
+        <v>329</v>
+      </c>
       <c r="B31" s="186"/>
-      <c r="C31" s="149"/>
+      <c r="C31" s="148" t="s">
+        <v>328</v>
+      </c>
       <c r="D31" s="149"/>
-      <c r="E31" s="185"/>
+      <c r="E31" s="185">
+        <v>2</v>
+      </c>
       <c r="F31" s="186"/>
-      <c r="G31" s="213"/>
-      <c r="H31" s="213"/>
+      <c r="G31" s="214">
+        <f>J28</f>
+        <v>59940</v>
+      </c>
+      <c r="H31" s="214">
+        <f>G31*E31</f>
+        <v>119880</v>
+      </c>
       <c r="I31" s="186"/>
-      <c r="J31" s="213"/>
-      <c r="K31" s="213"/>
+      <c r="J31" s="214">
+        <f>W8*S14</f>
+        <v>210</v>
+      </c>
+      <c r="K31" s="214"/>
       <c r="L31" s="186"/>
-      <c r="M31" s="213"/>
-      <c r="N31" s="213"/>
-      <c r="Q31" s="203"/>
-      <c r="R31" s="193" t="s">
-        <v>337</v>
-      </c>
-      <c r="S31" s="188">
-        <f>100/460</f>
-        <v>0.21739130434782608</v>
-      </c>
+      <c r="M31" s="214">
+        <f>S14+S13*E31</f>
+        <v>570</v>
+      </c>
+      <c r="N31" s="214"/>
+      <c r="Q31" s="204"/>
+      <c r="R31" s="194"/>
+      <c r="S31" s="188"/>
       <c r="T31" s="150"/>
       <c r="U31" s="150"/>
       <c r="V31" s="150"/>
@@ -9466,14 +9703,21 @@
       <c r="D32" s="149"/>
       <c r="E32" s="185"/>
       <c r="F32" s="186"/>
-      <c r="G32" s="213"/>
-      <c r="H32" s="213"/>
+      <c r="G32" s="214"/>
+      <c r="H32" s="219">
+        <v>0</v>
+      </c>
       <c r="I32" s="186"/>
-      <c r="J32" s="213"/>
-      <c r="K32" s="213"/>
+      <c r="J32" s="214">
+        <f>J31+H33</f>
+        <v>120090</v>
+      </c>
+      <c r="K32" s="214"/>
       <c r="L32" s="186"/>
-      <c r="M32" s="213"/>
-      <c r="N32" s="213"/>
+      <c r="M32" s="219">
+        <v>0</v>
+      </c>
+      <c r="N32" s="219"/>
       <c r="Q32" s="150"/>
       <c r="R32" s="150"/>
       <c r="S32" s="150"/>
@@ -9493,14 +9737,26 @@
       <c r="D33" s="149"/>
       <c r="E33" s="185"/>
       <c r="F33" s="186"/>
-      <c r="G33" s="213"/>
-      <c r="H33" s="213"/>
+      <c r="G33" s="214"/>
+      <c r="H33" s="214">
+        <f>H32+H31</f>
+        <v>119880</v>
+      </c>
       <c r="I33" s="186"/>
-      <c r="J33" s="213"/>
-      <c r="K33" s="213"/>
+      <c r="J33" s="214"/>
+      <c r="K33" s="221">
+        <f>K29+J32</f>
+        <v>237870</v>
+      </c>
       <c r="L33" s="186"/>
-      <c r="M33" s="213"/>
-      <c r="N33" s="213"/>
+      <c r="M33" s="214">
+        <f>M31+M32</f>
+        <v>570</v>
+      </c>
+      <c r="N33" s="214">
+        <f>N29+M33</f>
+        <v>2040</v>
+      </c>
       <c r="Q33" s="150"/>
       <c r="R33" s="150"/>
       <c r="S33" s="150"/>
@@ -9521,14 +9777,14 @@
       <c r="D34" s="149"/>
       <c r="E34" s="185"/>
       <c r="F34" s="186"/>
-      <c r="G34" s="213"/>
-      <c r="H34" s="213"/>
+      <c r="G34" s="214"/>
+      <c r="H34" s="214"/>
       <c r="I34" s="186"/>
-      <c r="J34" s="213"/>
-      <c r="K34" s="213"/>
+      <c r="J34" s="214"/>
+      <c r="K34" s="214"/>
       <c r="L34" s="186"/>
-      <c r="M34" s="213"/>
-      <c r="N34" s="213"/>
+      <c r="M34" s="214"/>
+      <c r="N34" s="214"/>
       <c r="Q34" s="150"/>
       <c r="R34" s="150"/>
       <c r="S34" s="150"/>
@@ -9543,20 +9799,38 @@
       <c r="AB34" s="150"/>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A35" s="149"/>
+      <c r="A35" s="148" t="s">
+        <v>330</v>
+      </c>
       <c r="B35" s="186"/>
-      <c r="C35" s="149"/>
+      <c r="C35" s="148" t="s">
+        <v>329</v>
+      </c>
       <c r="D35" s="149"/>
-      <c r="E35" s="185"/>
+      <c r="E35" s="185">
+        <v>2</v>
+      </c>
       <c r="F35" s="186"/>
-      <c r="G35" s="213"/>
-      <c r="H35" s="213"/>
+      <c r="G35" s="214">
+        <f>J32</f>
+        <v>120090</v>
+      </c>
+      <c r="H35" s="213">
+        <f>G35*E35</f>
+        <v>240180</v>
+      </c>
       <c r="I35" s="186"/>
-      <c r="J35" s="213"/>
-      <c r="K35" s="213"/>
+      <c r="J35" s="214">
+        <f>W8*S15</f>
+        <v>240</v>
+      </c>
+      <c r="K35" s="214"/>
       <c r="L35" s="186"/>
-      <c r="M35" s="213"/>
-      <c r="N35" s="213"/>
+      <c r="M35" s="214">
+        <f>S15+S14*E35</f>
+        <v>660</v>
+      </c>
+      <c r="N35" s="214"/>
       <c r="Q35" s="150"/>
       <c r="R35" s="150"/>
       <c r="S35" s="150"/>
@@ -9577,14 +9851,21 @@
       <c r="D36" s="149"/>
       <c r="E36" s="185"/>
       <c r="F36" s="186"/>
-      <c r="G36" s="213"/>
-      <c r="H36" s="213"/>
+      <c r="G36" s="214"/>
+      <c r="H36" s="219">
+        <v>0</v>
+      </c>
       <c r="I36" s="186"/>
-      <c r="J36" s="213"/>
+      <c r="J36" s="214">
+        <f>J35+H37</f>
+        <v>240420</v>
+      </c>
       <c r="K36" s="213"/>
       <c r="L36" s="186"/>
-      <c r="M36" s="213"/>
-      <c r="N36" s="213"/>
+      <c r="M36" s="219">
+        <v>0</v>
+      </c>
+      <c r="N36" s="219"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="149"/>
@@ -9593,14 +9874,26 @@
       <c r="D37" s="149"/>
       <c r="E37" s="185"/>
       <c r="F37" s="186"/>
-      <c r="G37" s="213"/>
-      <c r="H37" s="213"/>
+      <c r="G37" s="214"/>
+      <c r="H37" s="214">
+        <f>H36+H35</f>
+        <v>240180</v>
+      </c>
       <c r="I37" s="186"/>
-      <c r="J37" s="213"/>
-      <c r="K37" s="213"/>
+      <c r="J37" s="214"/>
+      <c r="K37" s="221">
+        <f>K33+J36</f>
+        <v>478290</v>
+      </c>
       <c r="L37" s="186"/>
-      <c r="M37" s="213"/>
-      <c r="N37" s="213"/>
+      <c r="M37" s="214">
+        <f>M35+M36</f>
+        <v>660</v>
+      </c>
+      <c r="N37" s="214">
+        <f>N33+M37</f>
+        <v>2700</v>
+      </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="149"/>
@@ -9609,30 +9902,48 @@
       <c r="D38" s="149"/>
       <c r="E38" s="185"/>
       <c r="F38" s="186"/>
-      <c r="G38" s="213"/>
-      <c r="H38" s="213"/>
+      <c r="G38" s="214"/>
+      <c r="H38" s="214"/>
       <c r="I38" s="186"/>
-      <c r="J38" s="213"/>
-      <c r="K38" s="213"/>
+      <c r="J38" s="214"/>
+      <c r="K38" s="214"/>
       <c r="L38" s="186"/>
-      <c r="M38" s="213"/>
-      <c r="N38" s="213"/>
+      <c r="M38" s="214"/>
+      <c r="N38" s="214"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A39" s="149"/>
+      <c r="A39" s="148" t="s">
+        <v>331</v>
+      </c>
       <c r="B39" s="186"/>
-      <c r="C39" s="149"/>
+      <c r="C39" s="148" t="s">
+        <v>330</v>
+      </c>
       <c r="D39" s="149"/>
-      <c r="E39" s="185"/>
+      <c r="E39" s="185">
+        <v>2</v>
+      </c>
       <c r="F39" s="186"/>
-      <c r="G39" s="213"/>
-      <c r="H39" s="213"/>
+      <c r="G39" s="214">
+        <f>J36</f>
+        <v>240420</v>
+      </c>
+      <c r="H39" s="214">
+        <f>G39*E39</f>
+        <v>480840</v>
+      </c>
       <c r="I39" s="186"/>
-      <c r="J39" s="213"/>
-      <c r="K39" s="213"/>
+      <c r="J39" s="214">
+        <f>W8*S16</f>
+        <v>270</v>
+      </c>
+      <c r="K39" s="214"/>
       <c r="L39" s="186"/>
-      <c r="M39" s="213"/>
-      <c r="N39" s="213"/>
+      <c r="M39" s="214">
+        <f>S16+S15*E39</f>
+        <v>750</v>
+      </c>
+      <c r="N39" s="214"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="149"/>
@@ -9641,14 +9952,21 @@
       <c r="D40" s="149"/>
       <c r="E40" s="185"/>
       <c r="F40" s="186"/>
-      <c r="G40" s="213"/>
-      <c r="H40" s="213"/>
+      <c r="G40" s="214"/>
+      <c r="H40" s="219">
+        <v>0</v>
+      </c>
       <c r="I40" s="186"/>
-      <c r="J40" s="213"/>
-      <c r="K40" s="213"/>
+      <c r="J40" s="214">
+        <f>J39+H41</f>
+        <v>481110</v>
+      </c>
+      <c r="K40" s="214"/>
       <c r="L40" s="186"/>
-      <c r="M40" s="213"/>
-      <c r="N40" s="213"/>
+      <c r="M40" s="219">
+        <v>0</v>
+      </c>
+      <c r="N40" s="219"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="149"/>
@@ -9657,14 +9975,26 @@
       <c r="D41" s="149"/>
       <c r="E41" s="185"/>
       <c r="F41" s="186"/>
-      <c r="G41" s="213"/>
-      <c r="H41" s="213"/>
+      <c r="G41" s="214"/>
+      <c r="H41" s="214">
+        <f>H39+H40</f>
+        <v>480840</v>
+      </c>
       <c r="I41" s="186"/>
-      <c r="J41" s="213"/>
-      <c r="K41" s="213"/>
+      <c r="J41" s="214"/>
+      <c r="K41" s="221">
+        <f>K37+J40</f>
+        <v>959400</v>
+      </c>
       <c r="L41" s="186"/>
-      <c r="M41" s="213"/>
-      <c r="N41" s="213"/>
+      <c r="M41" s="214">
+        <f>M40+M39</f>
+        <v>750</v>
+      </c>
+      <c r="N41" s="214">
+        <f>N37+M41</f>
+        <v>3450</v>
+      </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="149"/>
@@ -9673,30 +10003,45 @@
       <c r="D42" s="149"/>
       <c r="E42" s="185"/>
       <c r="F42" s="186"/>
-      <c r="G42" s="213"/>
-      <c r="H42" s="213"/>
+      <c r="G42" s="214"/>
+      <c r="H42" s="214"/>
       <c r="I42" s="186"/>
-      <c r="J42" s="213"/>
-      <c r="K42" s="213"/>
+      <c r="J42" s="214"/>
+      <c r="K42" s="214"/>
       <c r="L42" s="186"/>
-      <c r="M42" s="213"/>
-      <c r="N42" s="213"/>
+      <c r="M42" s="214"/>
+      <c r="N42" s="214"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A43" s="149"/>
+      <c r="A43" s="148" t="s">
+        <v>332</v>
+      </c>
       <c r="B43" s="186"/>
-      <c r="C43" s="149"/>
+      <c r="C43" s="148" t="s">
+        <v>331</v>
+      </c>
       <c r="D43" s="149"/>
-      <c r="E43" s="185"/>
+      <c r="E43" s="185">
+        <v>2</v>
+      </c>
       <c r="F43" s="186"/>
-      <c r="G43" s="213"/>
-      <c r="H43" s="213"/>
+      <c r="G43" s="214">
+        <f>J40</f>
+        <v>481110</v>
+      </c>
+      <c r="H43" s="214">
+        <f>G43*E43</f>
+        <v>962220</v>
+      </c>
       <c r="I43" s="186"/>
-      <c r="J43" s="213"/>
-      <c r="K43" s="213"/>
+      <c r="J43" s="214">
+        <f>W8*S17</f>
+        <v>300</v>
+      </c>
+      <c r="K43" s="214"/>
       <c r="L43" s="186"/>
-      <c r="M43" s="213"/>
-      <c r="N43" s="213"/>
+      <c r="M43" s="214"/>
+      <c r="N43" s="214"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" s="149"/>
@@ -9705,14 +10050,21 @@
       <c r="D44" s="149"/>
       <c r="E44" s="185"/>
       <c r="F44" s="186"/>
-      <c r="G44" s="213"/>
-      <c r="H44" s="213"/>
+      <c r="G44" s="214"/>
+      <c r="H44" s="219">
+        <v>0</v>
+      </c>
       <c r="I44" s="186"/>
-      <c r="J44" s="213"/>
-      <c r="K44" s="213"/>
+      <c r="J44" s="214">
+        <f>J43+H45</f>
+        <v>962520</v>
+      </c>
+      <c r="K44" s="214"/>
       <c r="L44" s="186"/>
-      <c r="M44" s="213"/>
-      <c r="N44" s="213"/>
+      <c r="M44" s="219">
+        <v>0</v>
+      </c>
+      <c r="N44" s="219"/>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" s="149"/>
@@ -9721,14 +10073,26 @@
       <c r="D45" s="149"/>
       <c r="E45" s="185"/>
       <c r="F45" s="186"/>
-      <c r="G45" s="213"/>
-      <c r="H45" s="213"/>
+      <c r="G45" s="214"/>
+      <c r="H45" s="214">
+        <f>H44+H43</f>
+        <v>962220</v>
+      </c>
       <c r="I45" s="186"/>
-      <c r="J45" s="213"/>
-      <c r="K45" s="213"/>
+      <c r="J45" s="214"/>
+      <c r="K45" s="221">
+        <f>J44+K41</f>
+        <v>1921920</v>
+      </c>
       <c r="L45" s="186"/>
-      <c r="M45" s="213"/>
-      <c r="N45" s="213"/>
+      <c r="M45" s="214">
+        <f>M44+M43</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="214">
+        <f>M45+N41</f>
+        <v>3450</v>
+      </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="149"/>
@@ -9737,14 +10101,14 @@
       <c r="D46" s="149"/>
       <c r="E46" s="185"/>
       <c r="F46" s="186"/>
-      <c r="G46" s="213"/>
-      <c r="H46" s="213"/>
+      <c r="G46" s="214"/>
+      <c r="H46" s="214"/>
       <c r="I46" s="186"/>
-      <c r="J46" s="213"/>
-      <c r="K46" s="213"/>
+      <c r="J46" s="214"/>
+      <c r="K46" s="214"/>
       <c r="L46" s="186"/>
-      <c r="M46" s="213"/>
-      <c r="N46" s="213"/>
+      <c r="M46" s="214"/>
+      <c r="N46" s="214"/>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="149"/>
@@ -9753,14 +10117,14 @@
       <c r="D47" s="149"/>
       <c r="E47" s="185"/>
       <c r="F47" s="186"/>
-      <c r="G47" s="213"/>
-      <c r="H47" s="213"/>
+      <c r="G47" s="214"/>
+      <c r="H47" s="214"/>
       <c r="I47" s="186"/>
-      <c r="J47" s="213"/>
-      <c r="K47" s="213"/>
+      <c r="J47" s="214"/>
+      <c r="K47" s="214"/>
       <c r="L47" s="186"/>
-      <c r="M47" s="213"/>
-      <c r="N47" s="213"/>
+      <c r="M47" s="214"/>
+      <c r="N47" s="214"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" s="149"/>
@@ -9769,270 +10133,293 @@
       <c r="D48" s="149"/>
       <c r="E48" s="185"/>
       <c r="F48" s="186"/>
-      <c r="G48" s="213"/>
-      <c r="H48" s="213"/>
+      <c r="G48" s="214"/>
+      <c r="H48" s="214"/>
       <c r="I48" s="186"/>
-      <c r="J48" s="213"/>
-      <c r="K48" s="213"/>
+      <c r="J48" s="214"/>
+      <c r="K48" s="214"/>
       <c r="L48" s="186"/>
-      <c r="M48" s="213"/>
-      <c r="N48" s="213"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M48" s="214"/>
+      <c r="N48" s="214"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="149"/>
       <c r="B49" s="186"/>
       <c r="C49" s="149"/>
       <c r="D49" s="149"/>
       <c r="E49" s="185"/>
       <c r="F49" s="186"/>
-      <c r="G49" s="213"/>
-      <c r="H49" s="213"/>
+      <c r="G49" s="214"/>
+      <c r="H49" s="214"/>
       <c r="I49" s="186"/>
-      <c r="J49" s="213"/>
-      <c r="K49" s="213"/>
+      <c r="J49" s="214"/>
+      <c r="K49" s="218" t="s">
+        <v>392</v>
+      </c>
       <c r="L49" s="186"/>
-      <c r="M49" s="213"/>
-      <c r="N49" s="213"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M49" s="214"/>
+      <c r="N49" s="218" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="149"/>
       <c r="B50" s="186"/>
       <c r="C50" s="149"/>
       <c r="D50" s="149"/>
       <c r="E50" s="185"/>
       <c r="F50" s="186"/>
-      <c r="G50" s="213"/>
-      <c r="H50" s="213"/>
+      <c r="G50" s="214"/>
+      <c r="H50" s="214"/>
       <c r="I50" s="186"/>
-      <c r="J50" s="213"/>
-      <c r="K50" s="213"/>
-      <c r="L50" s="186"/>
-      <c r="M50" s="213"/>
-      <c r="N50" s="213"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J50" s="214"/>
+      <c r="K50" s="214">
+        <f>K45</f>
+        <v>1921920</v>
+      </c>
+      <c r="L50" s="190" t="s">
+        <v>393</v>
+      </c>
+      <c r="M50" s="214"/>
+      <c r="N50" s="214">
+        <f>N45</f>
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="149"/>
       <c r="B51" s="186"/>
       <c r="C51" s="149"/>
       <c r="D51" s="149"/>
       <c r="E51" s="185"/>
       <c r="F51" s="186"/>
-      <c r="G51" s="213"/>
-      <c r="H51" s="213"/>
+      <c r="G51" s="214"/>
+      <c r="H51" s="214"/>
       <c r="I51" s="186"/>
-      <c r="J51" s="213"/>
-      <c r="K51" s="213"/>
-      <c r="L51" s="186"/>
-      <c r="M51" s="213"/>
-      <c r="N51" s="213"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J51" s="214"/>
+      <c r="K51" s="214">
+        <f>K50/1000</f>
+        <v>1921.92</v>
+      </c>
+      <c r="L51" s="190" t="s">
+        <v>14</v>
+      </c>
+      <c r="M51" s="214"/>
+      <c r="N51" s="214">
+        <f>N50/60</f>
+        <v>57.5</v>
+      </c>
+      <c r="O51" s="119" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="149"/>
       <c r="B52" s="186"/>
       <c r="C52" s="149"/>
       <c r="D52" s="149"/>
       <c r="E52" s="185"/>
       <c r="F52" s="186"/>
-      <c r="G52" s="213"/>
-      <c r="H52" s="213"/>
+      <c r="G52" s="214"/>
+      <c r="H52" s="214"/>
       <c r="I52" s="186"/>
-      <c r="J52" s="213"/>
-      <c r="K52" s="213"/>
+      <c r="J52" s="214"/>
+      <c r="K52" s="214"/>
       <c r="L52" s="186"/>
-      <c r="M52" s="213"/>
-      <c r="N52" s="213"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M52" s="214"/>
+      <c r="N52" s="214"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="149"/>
       <c r="B53" s="186"/>
       <c r="C53" s="149"/>
       <c r="D53" s="149"/>
       <c r="E53" s="185"/>
       <c r="F53" s="186"/>
-      <c r="G53" s="213"/>
-      <c r="H53" s="213"/>
+      <c r="G53" s="214"/>
+      <c r="H53" s="214"/>
       <c r="I53" s="186"/>
-      <c r="J53" s="213"/>
-      <c r="K53" s="213"/>
+      <c r="J53" s="214"/>
+      <c r="K53" s="214"/>
       <c r="L53" s="186"/>
-      <c r="M53" s="213"/>
-      <c r="N53" s="213"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M53" s="214"/>
+      <c r="N53" s="214"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="149"/>
       <c r="B54" s="186"/>
       <c r="C54" s="149"/>
       <c r="D54" s="149"/>
       <c r="E54" s="185"/>
       <c r="F54" s="186"/>
-      <c r="G54" s="213"/>
-      <c r="H54" s="213"/>
+      <c r="G54" s="214"/>
+      <c r="H54" s="214"/>
       <c r="I54" s="186"/>
-      <c r="J54" s="213"/>
-      <c r="K54" s="213"/>
+      <c r="J54" s="214"/>
+      <c r="K54" s="214"/>
       <c r="L54" s="186"/>
-      <c r="M54" s="213"/>
-      <c r="N54" s="213"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M54" s="214"/>
+      <c r="N54" s="214"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="149"/>
       <c r="B55" s="186"/>
       <c r="C55" s="149"/>
       <c r="D55" s="149"/>
       <c r="E55" s="185"/>
       <c r="F55" s="186"/>
-      <c r="G55" s="213"/>
-      <c r="H55" s="213"/>
+      <c r="G55" s="214"/>
+      <c r="H55" s="214"/>
       <c r="I55" s="186"/>
-      <c r="J55" s="213"/>
-      <c r="K55" s="213"/>
+      <c r="J55" s="214"/>
+      <c r="K55" s="214"/>
       <c r="L55" s="186"/>
-      <c r="M55" s="213"/>
-      <c r="N55" s="213"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M55" s="214"/>
+      <c r="N55" s="214"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="149"/>
       <c r="B56" s="186"/>
       <c r="C56" s="149"/>
       <c r="D56" s="149"/>
       <c r="E56" s="185"/>
       <c r="F56" s="186"/>
-      <c r="G56" s="213"/>
-      <c r="H56" s="213"/>
+      <c r="G56" s="214"/>
+      <c r="H56" s="214"/>
       <c r="I56" s="186"/>
-      <c r="J56" s="213"/>
-      <c r="K56" s="213"/>
+      <c r="J56" s="214"/>
+      <c r="K56" s="214"/>
       <c r="L56" s="186"/>
-      <c r="M56" s="213"/>
-      <c r="N56" s="213"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M56" s="214"/>
+      <c r="N56" s="214"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="149"/>
       <c r="B57" s="186"/>
       <c r="C57" s="149"/>
       <c r="D57" s="149"/>
       <c r="E57" s="185"/>
       <c r="F57" s="186"/>
-      <c r="G57" s="213"/>
-      <c r="H57" s="213"/>
+      <c r="G57" s="214"/>
+      <c r="H57" s="214"/>
       <c r="I57" s="186"/>
-      <c r="J57" s="213"/>
-      <c r="K57" s="213"/>
+      <c r="J57" s="214"/>
+      <c r="K57" s="214"/>
       <c r="L57" s="186"/>
-      <c r="M57" s="213"/>
-      <c r="N57" s="213"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M57" s="214"/>
+      <c r="N57" s="214"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="149"/>
       <c r="B58" s="186"/>
       <c r="C58" s="149"/>
       <c r="D58" s="149"/>
       <c r="E58" s="185"/>
       <c r="F58" s="186"/>
-      <c r="G58" s="213"/>
-      <c r="H58" s="213"/>
+      <c r="G58" s="214"/>
+      <c r="H58" s="214"/>
       <c r="I58" s="186"/>
-      <c r="J58" s="213"/>
-      <c r="K58" s="213"/>
+      <c r="J58" s="214"/>
+      <c r="K58" s="214"/>
       <c r="L58" s="186"/>
-      <c r="M58" s="213"/>
-      <c r="N58" s="213"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M58" s="214"/>
+      <c r="N58" s="214"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="149"/>
       <c r="B59" s="186"/>
       <c r="C59" s="149"/>
       <c r="D59" s="149"/>
       <c r="E59" s="185"/>
       <c r="F59" s="186"/>
-      <c r="G59" s="213"/>
-      <c r="H59" s="213"/>
+      <c r="G59" s="214"/>
+      <c r="H59" s="214"/>
       <c r="I59" s="186"/>
-      <c r="J59" s="213"/>
-      <c r="K59" s="213"/>
+      <c r="J59" s="214"/>
+      <c r="K59" s="214"/>
       <c r="L59" s="186"/>
-      <c r="M59" s="213"/>
-      <c r="N59" s="213"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M59" s="214"/>
+      <c r="N59" s="214"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="149"/>
       <c r="B60" s="186"/>
       <c r="C60" s="149"/>
       <c r="D60" s="149"/>
       <c r="E60" s="185"/>
       <c r="F60" s="186"/>
-      <c r="G60" s="213"/>
-      <c r="H60" s="213"/>
+      <c r="G60" s="214"/>
+      <c r="H60" s="214"/>
       <c r="I60" s="186"/>
-      <c r="J60" s="213"/>
-      <c r="K60" s="213"/>
+      <c r="J60" s="214"/>
+      <c r="K60" s="214"/>
       <c r="L60" s="186"/>
-      <c r="M60" s="213"/>
-      <c r="N60" s="213"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M60" s="214"/>
+      <c r="N60" s="214"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="149"/>
       <c r="B61" s="186"/>
       <c r="C61" s="149"/>
       <c r="D61" s="149"/>
       <c r="E61" s="185"/>
       <c r="F61" s="186"/>
-      <c r="G61" s="213"/>
-      <c r="H61" s="213"/>
+      <c r="G61" s="214"/>
+      <c r="H61" s="214"/>
       <c r="I61" s="186"/>
-      <c r="J61" s="213"/>
-      <c r="K61" s="213"/>
+      <c r="J61" s="214"/>
+      <c r="K61" s="214"/>
       <c r="L61" s="186"/>
-      <c r="M61" s="213"/>
-      <c r="N61" s="213"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M61" s="214"/>
+      <c r="N61" s="214"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="149"/>
       <c r="B62" s="186"/>
       <c r="C62" s="149"/>
       <c r="D62" s="149"/>
       <c r="E62" s="185"/>
       <c r="F62" s="186"/>
-      <c r="G62" s="213"/>
-      <c r="H62" s="213"/>
+      <c r="G62" s="214"/>
+      <c r="H62" s="214"/>
       <c r="I62" s="186"/>
-      <c r="J62" s="213"/>
-      <c r="K62" s="213"/>
+      <c r="J62" s="214"/>
+      <c r="K62" s="214"/>
       <c r="L62" s="186"/>
-      <c r="M62" s="213"/>
-      <c r="N62" s="213"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M62" s="214"/>
+      <c r="N62" s="214"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="149"/>
       <c r="B63" s="186"/>
       <c r="C63" s="149"/>
       <c r="D63" s="149"/>
       <c r="E63" s="185"/>
       <c r="F63" s="186"/>
-      <c r="G63" s="213"/>
-      <c r="H63" s="213"/>
+      <c r="G63" s="214"/>
+      <c r="H63" s="214"/>
       <c r="I63" s="186"/>
-      <c r="J63" s="213"/>
-      <c r="K63" s="213"/>
+      <c r="J63" s="214"/>
+      <c r="K63" s="214"/>
       <c r="L63" s="186"/>
-      <c r="M63" s="213"/>
-      <c r="N63" s="213"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M63" s="214"/>
+      <c r="N63" s="214"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="149"/>
       <c r="B64" s="186"/>
       <c r="C64" s="149"/>
       <c r="D64" s="149"/>
       <c r="E64" s="185"/>
       <c r="F64" s="186"/>
-      <c r="G64" s="213"/>
-      <c r="H64" s="213"/>
+      <c r="G64" s="214"/>
+      <c r="H64" s="214"/>
       <c r="I64" s="186"/>
-      <c r="J64" s="213"/>
-      <c r="K64" s="213"/>
+      <c r="J64" s="214"/>
+      <c r="K64" s="214"/>
       <c r="L64" s="186"/>
-      <c r="M64" s="213"/>
-      <c r="N64" s="213"/>
+      <c r="M64" s="214"/>
+      <c r="N64" s="214"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -11759,19 +12146,241 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A26:C42"/>
+  <dimension ref="A4:P42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="143" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" style="143" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="143"/>
+    <col min="3" max="8" width="9.140625" style="143"/>
+    <col min="9" max="9" width="15.7109375" style="143" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="143" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="143" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="143" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="143" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="143"/>
+    <col min="15" max="15" width="18.5703125" style="143" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="143"/>
   </cols>
   <sheetData>
+    <row r="4" spans="8:16" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H4" s="225" t="s">
+        <v>365</v>
+      </c>
+      <c r="I4" s="119" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="8:16" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H5" s="225" t="s">
+        <v>372</v>
+      </c>
+      <c r="I5" s="119" t="s">
+        <v>367</v>
+      </c>
+      <c r="J5" s="119" t="s">
+        <v>368</v>
+      </c>
+      <c r="K5" s="119" t="s">
+        <v>369</v>
+      </c>
+      <c r="L5" s="119" t="s">
+        <v>370</v>
+      </c>
+      <c r="M5" s="119" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="8:16" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H6" s="225" t="s">
+        <v>383</v>
+      </c>
+      <c r="I6" s="119" t="s">
+        <v>373</v>
+      </c>
+      <c r="J6" s="119" t="s">
+        <v>374</v>
+      </c>
+      <c r="K6" s="119" t="s">
+        <v>375</v>
+      </c>
+      <c r="L6" s="119" t="s">
+        <v>376</v>
+      </c>
+      <c r="M6" s="119" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" spans="8:16" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H7" s="225" t="s">
+        <v>384</v>
+      </c>
+      <c r="I7" s="119" t="s">
+        <v>378</v>
+      </c>
+      <c r="J7" s="119" t="s">
+        <v>379</v>
+      </c>
+      <c r="K7" s="119" t="s">
+        <v>380</v>
+      </c>
+      <c r="L7" s="119" t="s">
+        <v>381</v>
+      </c>
+      <c r="M7" s="119" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="10" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="I10" s="220" t="s">
+        <v>365</v>
+      </c>
+      <c r="K10" s="220" t="s">
+        <v>388</v>
+      </c>
+      <c r="M10" s="220" t="s">
+        <v>383</v>
+      </c>
+      <c r="O10" s="119" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="I11" s="226" t="s">
+        <v>385</v>
+      </c>
+      <c r="J11" s="226" t="s">
+        <v>386</v>
+      </c>
+      <c r="K11" s="226" t="s">
+        <v>389</v>
+      </c>
+      <c r="L11" s="226" t="s">
+        <v>386</v>
+      </c>
+      <c r="M11" s="226" t="s">
+        <v>389</v>
+      </c>
+      <c r="N11" s="226" t="s">
+        <v>386</v>
+      </c>
+      <c r="O11" s="226" t="s">
+        <v>389</v>
+      </c>
+      <c r="P11" s="226" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="12" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="I12" s="220" t="s">
+        <v>366</v>
+      </c>
+      <c r="J12" s="119" t="s">
+        <v>387</v>
+      </c>
+      <c r="K12" s="220" t="s">
+        <v>367</v>
+      </c>
+      <c r="L12" s="143">
+        <v>20</v>
+      </c>
+      <c r="M12" s="220" t="s">
+        <v>373</v>
+      </c>
+      <c r="N12" s="143">
+        <v>32</v>
+      </c>
+      <c r="O12" s="220" t="s">
+        <v>378</v>
+      </c>
+      <c r="P12" s="143">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="K13" s="220" t="s">
+        <v>368</v>
+      </c>
+      <c r="L13" s="143">
+        <v>35</v>
+      </c>
+      <c r="M13" s="220" t="s">
+        <v>374</v>
+      </c>
+      <c r="N13" s="143">
+        <v>56</v>
+      </c>
+      <c r="O13" s="220" t="s">
+        <v>379</v>
+      </c>
+      <c r="P13" s="143">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="K14" s="220" t="s">
+        <v>370</v>
+      </c>
+      <c r="L14" s="143">
+        <v>60</v>
+      </c>
+      <c r="M14" s="119" t="s">
+        <v>376</v>
+      </c>
+      <c r="N14" s="143">
+        <v>96</v>
+      </c>
+      <c r="O14" s="220" t="s">
+        <v>381</v>
+      </c>
+      <c r="P14" s="143">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="K15" s="220" t="s">
+        <v>369</v>
+      </c>
+      <c r="L15" s="143">
+        <v>100</v>
+      </c>
+      <c r="M15" s="220" t="s">
+        <v>375</v>
+      </c>
+      <c r="N15" s="143">
+        <v>160</v>
+      </c>
+      <c r="O15" s="220" t="s">
+        <v>380</v>
+      </c>
+      <c r="P15" s="143">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="K16" s="220" t="s">
+        <v>371</v>
+      </c>
+      <c r="L16" s="143">
+        <v>140</v>
+      </c>
+      <c r="M16" s="220" t="s">
+        <v>377</v>
+      </c>
+      <c r="N16" s="143">
+        <v>224</v>
+      </c>
+      <c r="O16" s="220" t="s">
+        <v>382</v>
+      </c>
+      <c r="P16" s="143">
+        <v>403</v>
+      </c>
+    </row>
     <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="167" t="s">
         <v>117</v>

--- a/0 DyTech Informations/Dytech Balance.xlsx
+++ b/0 DyTech Informations/Dytech Balance.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12135" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12135" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
     <sheet name="Steam" sheetId="2" r:id="rId2"/>
     <sheet name="Solar Panels" sheetId="8" r:id="rId3"/>
     <sheet name="Nuclear Reactor" sheetId="11" r:id="rId4"/>
-    <sheet name="Laser Turrets" sheetId="3" r:id="rId5"/>
-    <sheet name="Empty Sheet" sheetId="9" r:id="rId6"/>
-    <sheet name="Gems" sheetId="10" r:id="rId7"/>
-    <sheet name="Msc" sheetId="5" r:id="rId8"/>
-    <sheet name="Dytech Balance" sheetId="6" state="hidden" r:id="rId9"/>
-    <sheet name="Msc2" sheetId="7" r:id="rId10"/>
+    <sheet name="Blad1" sheetId="12" r:id="rId5"/>
+    <sheet name="Laser Turrets" sheetId="3" r:id="rId6"/>
+    <sheet name="Empty Sheet" sheetId="9" r:id="rId7"/>
+    <sheet name="Gems" sheetId="10" r:id="rId8"/>
+    <sheet name="Msc" sheetId="5" r:id="rId9"/>
+    <sheet name="Dytech Balance" sheetId="6" state="hidden" r:id="rId10"/>
+    <sheet name="Msc2" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -643,7 +644,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="402">
   <si>
     <t>README</t>
   </si>
@@ -1828,6 +1829,27 @@
   </si>
   <si>
     <t>min</t>
+  </si>
+  <si>
+    <t>MW/min</t>
+  </si>
+  <si>
+    <t>MW/sec</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>ii</t>
+  </si>
+  <si>
+    <t>Statements</t>
+  </si>
+  <si>
+    <t>use S colum</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -1841,7 +1863,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="#,##0.000"/>
     <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="175" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -2392,7 +2414,7 @@
     <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2604,80 +2626,7 @@
     <xf numFmtId="0" fontId="15" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
@@ -2690,6 +2639,77 @@
     <xf numFmtId="0" fontId="15" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="15" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="15" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="40" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="40" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="40" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2711,34 +2731,38 @@
     <xf numFmtId="0" fontId="15" fillId="44" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="15" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="15" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="40" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="40" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="0" fillId="40" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -3157,6 +3181,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3727,6 +3799,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 15"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9677400" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4127,6 +4247,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9553575"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4591,6 +4759,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 26"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4884,68 +5100,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="153"/>
-      <c r="B1" s="160" t="s">
+      <c r="A1" s="197"/>
+      <c r="B1" s="194" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="160" t="s">
+      <c r="C1" s="186"/>
+      <c r="D1" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="160" t="s">
+      <c r="M1" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="152"/>
-      <c r="O1" s="152"/>
-      <c r="P1" s="152"/>
-      <c r="Q1" s="153"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="186"/>
+      <c r="P1" s="186"/>
+      <c r="Q1" s="197"/>
       <c r="U1" s="9"/>
-      <c r="V1" s="162"/>
-      <c r="W1" s="152"/>
-      <c r="X1" s="152"/>
+      <c r="V1" s="192"/>
+      <c r="W1" s="186"/>
+      <c r="X1" s="186"/>
     </row>
     <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="152"/>
-      <c r="B2" s="154" t="s">
+      <c r="A2" s="186"/>
+      <c r="B2" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="164" t="s">
+      <c r="C2" s="186"/>
+      <c r="D2" s="193" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="164" t="s">
+      <c r="L2" s="195"/>
+      <c r="M2" s="193" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="152"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="152"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="186"/>
+      <c r="Q2" s="186"/>
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="163"/>
-      <c r="W2" s="152"/>
-      <c r="X2" s="152"/>
+      <c r="V2" s="185"/>
+      <c r="W2" s="186"/>
+      <c r="X2" s="186"/>
     </row>
     <row r="3" spans="1:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="152"/>
+      <c r="A3" s="186"/>
       <c r="B3" s="18" t="s">
         <v>23</v>
       </c>
@@ -4968,7 +5184,7 @@
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
-      <c r="L3" s="152"/>
+      <c r="L3" s="186"/>
       <c r="M3" s="24" t="s">
         <v>82</v>
       </c>
@@ -4979,7 +5195,7 @@
         <v>84</v>
       </c>
       <c r="P3" s="24"/>
-      <c r="Q3" s="152"/>
+      <c r="Q3" s="186"/>
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
@@ -4989,7 +5205,7 @@
       <c r="X3" s="27"/>
     </row>
     <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="152"/>
+      <c r="A4" s="186"/>
       <c r="B4" s="18" t="s">
         <v>101</v>
       </c>
@@ -5011,7 +5227,7 @@
       <c r="I4" s="36"/>
       <c r="J4" s="36"/>
       <c r="K4" s="36"/>
-      <c r="L4" s="152"/>
+      <c r="L4" s="186"/>
       <c r="M4" s="29">
         <v>1</v>
       </c>
@@ -5022,7 +5238,7 @@
         <v>0.1</v>
       </c>
       <c r="P4" s="42"/>
-      <c r="Q4" s="152"/>
+      <c r="Q4" s="186"/>
       <c r="R4" s="43"/>
       <c r="S4" s="39"/>
       <c r="U4" s="43"/>
@@ -5031,7 +5247,7 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="152"/>
+      <c r="A5" s="186"/>
       <c r="B5" s="18" t="s">
         <v>108</v>
       </c>
@@ -5057,7 +5273,7 @@
       <c r="I5" s="36"/>
       <c r="J5" s="36"/>
       <c r="K5" s="36"/>
-      <c r="L5" s="152"/>
+      <c r="L5" s="186"/>
       <c r="M5" s="29">
         <v>2</v>
       </c>
@@ -5068,7 +5284,7 @@
         <v>0.2</v>
       </c>
       <c r="P5" s="42"/>
-      <c r="Q5" s="152"/>
+      <c r="Q5" s="186"/>
       <c r="R5" s="43"/>
       <c r="S5" s="39"/>
       <c r="T5" s="10"/>
@@ -5078,7 +5294,7 @@
       <c r="X5" s="10"/>
     </row>
     <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="152"/>
+      <c r="A6" s="186"/>
       <c r="B6" s="14"/>
       <c r="C6" s="45"/>
       <c r="D6" s="29">
@@ -5102,7 +5318,7 @@
       <c r="I6" s="36"/>
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
-      <c r="L6" s="152"/>
+      <c r="L6" s="186"/>
       <c r="M6" s="29">
         <v>3</v>
       </c>
@@ -5113,7 +5329,7 @@
         <v>0.3</v>
       </c>
       <c r="P6" s="42"/>
-      <c r="Q6" s="152"/>
+      <c r="Q6" s="186"/>
       <c r="R6" s="43"/>
       <c r="S6" s="39"/>
       <c r="U6" s="43"/>
@@ -5122,7 +5338,7 @@
       <c r="X6" s="10"/>
     </row>
     <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="152"/>
+      <c r="A7" s="186"/>
       <c r="B7" s="14"/>
       <c r="C7" s="45"/>
       <c r="D7" s="29">
@@ -5144,7 +5360,7 @@
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
       <c r="K7" s="36"/>
-      <c r="L7" s="152"/>
+      <c r="L7" s="186"/>
       <c r="M7" s="29">
         <v>4</v>
       </c>
@@ -5155,14 +5371,14 @@
         <v>0.4</v>
       </c>
       <c r="P7" s="42"/>
-      <c r="Q7" s="152"/>
+      <c r="Q7" s="186"/>
       <c r="R7" s="43"/>
       <c r="S7" s="39"/>
       <c r="U7" s="43"/>
       <c r="V7" s="43"/>
     </row>
     <row r="8" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="152"/>
+      <c r="A8" s="186"/>
       <c r="B8" s="14"/>
       <c r="C8" s="45"/>
       <c r="D8" s="29">
@@ -5186,7 +5402,7 @@
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
-      <c r="L8" s="152"/>
+      <c r="L8" s="186"/>
       <c r="M8" s="29">
         <v>5</v>
       </c>
@@ -5197,14 +5413,14 @@
         <v>0.5</v>
       </c>
       <c r="P8" s="42"/>
-      <c r="Q8" s="152"/>
+      <c r="Q8" s="186"/>
       <c r="R8" s="43"/>
       <c r="S8" s="39"/>
       <c r="U8" s="43"/>
       <c r="V8" s="43"/>
     </row>
     <row r="9" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="152"/>
+      <c r="A9" s="186"/>
       <c r="B9" s="14"/>
       <c r="C9" s="45"/>
       <c r="D9" s="29">
@@ -5226,7 +5442,7 @@
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
-      <c r="L9" s="152"/>
+      <c r="L9" s="186"/>
       <c r="M9" s="29">
         <v>6</v>
       </c>
@@ -5237,14 +5453,14 @@
         <v>0.6</v>
       </c>
       <c r="P9" s="42"/>
-      <c r="Q9" s="152"/>
+      <c r="Q9" s="186"/>
       <c r="R9" s="43"/>
       <c r="S9" s="39"/>
       <c r="U9" s="43"/>
       <c r="V9" s="43"/>
     </row>
     <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="152"/>
+      <c r="A10" s="186"/>
       <c r="B10" s="14"/>
       <c r="C10" s="45"/>
       <c r="D10" s="29">
@@ -5268,7 +5484,7 @@
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
-      <c r="L10" s="152"/>
+      <c r="L10" s="186"/>
       <c r="M10" s="29">
         <v>7</v>
       </c>
@@ -5279,14 +5495,14 @@
         <v>0.7</v>
       </c>
       <c r="P10" s="42"/>
-      <c r="Q10" s="152"/>
+      <c r="Q10" s="186"/>
       <c r="R10" s="43"/>
       <c r="S10" s="39"/>
       <c r="U10" s="43"/>
       <c r="V10" s="43"/>
     </row>
     <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="152"/>
+      <c r="A11" s="186"/>
       <c r="B11" s="14"/>
       <c r="C11" s="45"/>
       <c r="D11" s="29">
@@ -5310,7 +5526,7 @@
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
-      <c r="L11" s="152"/>
+      <c r="L11" s="186"/>
       <c r="M11" s="29">
         <v>8</v>
       </c>
@@ -5321,30 +5537,30 @@
         <v>0.8</v>
       </c>
       <c r="P11" s="42"/>
-      <c r="Q11" s="152"/>
+      <c r="Q11" s="186"/>
       <c r="R11" s="43"/>
       <c r="S11" s="39"/>
       <c r="U11" s="43"/>
       <c r="V11" s="43"/>
     </row>
     <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="152"/>
-      <c r="B12" s="151"/>
-      <c r="C12" s="152"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="152"/>
-      <c r="F12" s="152"/>
-      <c r="G12" s="152"/>
+      <c r="A12" s="186"/>
+      <c r="B12" s="189"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="190"/>
+      <c r="E12" s="186"/>
+      <c r="F12" s="186"/>
+      <c r="G12" s="186"/>
       <c r="H12" s="56"/>
       <c r="I12" s="56"/>
       <c r="J12" s="56"/>
       <c r="K12" s="56"/>
-      <c r="L12" s="152"/>
-      <c r="M12" s="156"/>
-      <c r="N12" s="152"/>
-      <c r="O12" s="152"/>
-      <c r="P12" s="152"/>
-      <c r="Q12" s="152"/>
+      <c r="L12" s="186"/>
+      <c r="M12" s="190"/>
+      <c r="N12" s="186"/>
+      <c r="O12" s="186"/>
+      <c r="P12" s="186"/>
+      <c r="Q12" s="186"/>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
@@ -5354,37 +5570,37 @@
       <c r="X12" s="17"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="152"/>
-      <c r="B13" s="154"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="161" t="s">
+      <c r="A13" s="186"/>
+      <c r="B13" s="188"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="191" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
+      <c r="E13" s="186"/>
+      <c r="F13" s="186"/>
+      <c r="G13" s="186"/>
       <c r="H13" s="58"/>
       <c r="I13" s="58"/>
       <c r="J13" s="58"/>
       <c r="K13" s="58"/>
-      <c r="L13" s="152"/>
-      <c r="M13" s="161" t="s">
+      <c r="L13" s="186"/>
+      <c r="M13" s="191" t="s">
         <v>144</v>
       </c>
-      <c r="N13" s="152"/>
-      <c r="O13" s="152"/>
-      <c r="P13" s="152"/>
-      <c r="Q13" s="152"/>
+      <c r="N13" s="186"/>
+      <c r="O13" s="186"/>
+      <c r="P13" s="186"/>
+      <c r="Q13" s="186"/>
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
-      <c r="V13" s="163"/>
-      <c r="W13" s="152"/>
-      <c r="X13" s="152"/>
+      <c r="V13" s="185"/>
+      <c r="W13" s="186"/>
+      <c r="X13" s="186"/>
     </row>
     <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="152"/>
+      <c r="A14" s="186"/>
       <c r="B14" s="14"/>
       <c r="C14" s="45"/>
       <c r="D14" s="60" t="s">
@@ -5405,7 +5621,7 @@
       <c r="I14" s="60"/>
       <c r="J14" s="60"/>
       <c r="K14" s="60"/>
-      <c r="L14" s="152"/>
+      <c r="L14" s="186"/>
       <c r="M14" s="60" t="s">
         <v>151</v>
       </c>
@@ -5414,7 +5630,7 @@
       </c>
       <c r="O14" s="60"/>
       <c r="P14" s="60"/>
-      <c r="Q14" s="152"/>
+      <c r="Q14" s="186"/>
       <c r="R14" s="27"/>
       <c r="S14" s="27"/>
       <c r="T14" s="27"/>
@@ -5424,7 +5640,7 @@
       <c r="X14" s="27"/>
     </row>
     <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="152"/>
+      <c r="A15" s="186"/>
       <c r="B15" s="14"/>
       <c r="C15" s="45"/>
       <c r="D15" s="62">
@@ -5444,7 +5660,7 @@
       <c r="I15" s="68"/>
       <c r="J15" s="68"/>
       <c r="K15" s="68"/>
-      <c r="L15" s="152"/>
+      <c r="L15" s="186"/>
       <c r="M15" s="62">
         <v>1</v>
       </c>
@@ -5453,7 +5669,7 @@
       </c>
       <c r="O15" s="65"/>
       <c r="P15" s="65"/>
-      <c r="Q15" s="152"/>
+      <c r="Q15" s="186"/>
       <c r="R15" s="43"/>
       <c r="S15" s="39"/>
       <c r="U15" s="43"/>
@@ -5461,7 +5677,7 @@
       <c r="W15" s="10"/>
     </row>
     <row r="16" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="152"/>
+      <c r="A16" s="186"/>
       <c r="B16" s="14"/>
       <c r="C16" s="45"/>
       <c r="D16" s="62">
@@ -5483,7 +5699,7 @@
       <c r="I16" s="68"/>
       <c r="J16" s="68"/>
       <c r="K16" s="68"/>
-      <c r="L16" s="152"/>
+      <c r="L16" s="186"/>
       <c r="M16" s="62">
         <v>2</v>
       </c>
@@ -5492,7 +5708,7 @@
       </c>
       <c r="O16" s="65"/>
       <c r="P16" s="65"/>
-      <c r="Q16" s="152"/>
+      <c r="Q16" s="186"/>
       <c r="R16" s="43"/>
       <c r="S16" s="39"/>
       <c r="U16" s="43"/>
@@ -5500,7 +5716,7 @@
       <c r="W16" s="10"/>
     </row>
     <row r="17" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="152"/>
+      <c r="A17" s="186"/>
       <c r="B17" s="14"/>
       <c r="C17" s="45"/>
       <c r="D17" s="62">
@@ -5524,7 +5740,7 @@
       <c r="I17" s="68"/>
       <c r="J17" s="68"/>
       <c r="K17" s="68"/>
-      <c r="L17" s="152"/>
+      <c r="L17" s="186"/>
       <c r="M17" s="62">
         <v>3</v>
       </c>
@@ -5533,7 +5749,7 @@
       </c>
       <c r="O17" s="65"/>
       <c r="P17" s="65"/>
-      <c r="Q17" s="152"/>
+      <c r="Q17" s="186"/>
       <c r="R17" s="43"/>
       <c r="S17" s="39"/>
       <c r="U17" s="43"/>
@@ -5541,7 +5757,7 @@
       <c r="W17" s="10"/>
     </row>
     <row r="18" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="152"/>
+      <c r="A18" s="186"/>
       <c r="B18" s="14"/>
       <c r="C18" s="45"/>
       <c r="D18" s="62">
@@ -5563,7 +5779,7 @@
       <c r="I18" s="68"/>
       <c r="J18" s="68"/>
       <c r="K18" s="68"/>
-      <c r="L18" s="152"/>
+      <c r="L18" s="186"/>
       <c r="M18" s="62">
         <v>4</v>
       </c>
@@ -5572,13 +5788,13 @@
       </c>
       <c r="O18" s="65"/>
       <c r="P18" s="65"/>
-      <c r="Q18" s="152"/>
+      <c r="Q18" s="186"/>
       <c r="R18" s="43"/>
       <c r="U18" s="43"/>
       <c r="V18" s="43"/>
     </row>
     <row r="19" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="152"/>
+      <c r="A19" s="186"/>
       <c r="B19" s="14"/>
       <c r="C19" s="45"/>
       <c r="D19" s="62">
@@ -5602,7 +5818,7 @@
       <c r="I19" s="68"/>
       <c r="J19" s="68"/>
       <c r="K19" s="68"/>
-      <c r="L19" s="152"/>
+      <c r="L19" s="186"/>
       <c r="M19" s="62">
         <v>5</v>
       </c>
@@ -5611,13 +5827,13 @@
       </c>
       <c r="O19" s="65"/>
       <c r="P19" s="65"/>
-      <c r="Q19" s="152"/>
+      <c r="Q19" s="186"/>
       <c r="R19" s="43"/>
       <c r="U19" s="43"/>
       <c r="V19" s="43"/>
     </row>
     <row r="20" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="152"/>
+      <c r="A20" s="186"/>
       <c r="B20" s="14"/>
       <c r="C20" s="45"/>
       <c r="D20" s="62">
@@ -5639,7 +5855,7 @@
       <c r="I20" s="68"/>
       <c r="J20" s="68"/>
       <c r="K20" s="68"/>
-      <c r="L20" s="152"/>
+      <c r="L20" s="186"/>
       <c r="M20" s="62">
         <v>6</v>
       </c>
@@ -5648,14 +5864,14 @@
       </c>
       <c r="O20" s="65"/>
       <c r="P20" s="65"/>
-      <c r="Q20" s="152"/>
+      <c r="Q20" s="186"/>
       <c r="R20" s="43"/>
       <c r="S20" s="39"/>
       <c r="U20" s="43"/>
       <c r="V20" s="43"/>
     </row>
     <row r="21" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="152"/>
+      <c r="A21" s="186"/>
       <c r="B21" s="14"/>
       <c r="C21" s="45"/>
       <c r="D21" s="62">
@@ -5679,7 +5895,7 @@
       <c r="I21" s="68"/>
       <c r="J21" s="68"/>
       <c r="K21" s="68"/>
-      <c r="L21" s="152"/>
+      <c r="L21" s="186"/>
       <c r="M21" s="62">
         <v>7</v>
       </c>
@@ -5688,14 +5904,14 @@
       </c>
       <c r="O21" s="65"/>
       <c r="P21" s="65"/>
-      <c r="Q21" s="152"/>
+      <c r="Q21" s="186"/>
       <c r="R21" s="43"/>
       <c r="S21" s="39"/>
       <c r="U21" s="43"/>
       <c r="V21" s="43"/>
     </row>
     <row r="22" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="152"/>
+      <c r="A22" s="186"/>
       <c r="B22" s="14"/>
       <c r="C22" s="45"/>
       <c r="D22" s="62">
@@ -5719,7 +5935,7 @@
       <c r="I22" s="68"/>
       <c r="J22" s="68"/>
       <c r="K22" s="68"/>
-      <c r="L22" s="152"/>
+      <c r="L22" s="186"/>
       <c r="M22" s="62">
         <v>8</v>
       </c>
@@ -5728,30 +5944,30 @@
       </c>
       <c r="O22" s="65"/>
       <c r="P22" s="65"/>
-      <c r="Q22" s="152"/>
+      <c r="Q22" s="186"/>
       <c r="R22" s="43"/>
       <c r="S22" s="39"/>
       <c r="U22" s="43"/>
       <c r="V22" s="43"/>
     </row>
     <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="152"/>
-      <c r="B23" s="151"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
+      <c r="A23" s="186"/>
+      <c r="B23" s="189"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="190"/>
+      <c r="E23" s="186"/>
+      <c r="F23" s="186"/>
+      <c r="G23" s="186"/>
       <c r="H23" s="56"/>
       <c r="I23" s="56"/>
       <c r="J23" s="56"/>
       <c r="K23" s="56"/>
-      <c r="L23" s="152"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="152"/>
-      <c r="O23" s="152"/>
-      <c r="P23" s="152"/>
-      <c r="Q23" s="152"/>
+      <c r="L23" s="186"/>
+      <c r="M23" s="190"/>
+      <c r="N23" s="186"/>
+      <c r="O23" s="186"/>
+      <c r="P23" s="186"/>
+      <c r="Q23" s="186"/>
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
       <c r="T23" s="17"/>
@@ -5761,39 +5977,39 @@
       <c r="X23" s="17"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="152"/>
-      <c r="B24" s="154" t="s">
+      <c r="A24" s="186"/>
+      <c r="B24" s="188" t="s">
         <v>177</v>
       </c>
-      <c r="C24" s="152"/>
-      <c r="D24" s="159" t="s">
+      <c r="C24" s="186"/>
+      <c r="D24" s="187" t="s">
         <v>178</v>
       </c>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
+      <c r="E24" s="186"/>
+      <c r="F24" s="186"/>
+      <c r="G24" s="186"/>
       <c r="H24" s="74"/>
       <c r="I24" s="74"/>
       <c r="J24" s="74"/>
       <c r="K24" s="74"/>
-      <c r="L24" s="152"/>
-      <c r="M24" s="159" t="s">
+      <c r="L24" s="186"/>
+      <c r="M24" s="187" t="s">
         <v>179</v>
       </c>
-      <c r="N24" s="152"/>
-      <c r="O24" s="152"/>
-      <c r="P24" s="152"/>
-      <c r="Q24" s="152"/>
+      <c r="N24" s="186"/>
+      <c r="O24" s="186"/>
+      <c r="P24" s="186"/>
+      <c r="Q24" s="186"/>
       <c r="R24" s="17"/>
       <c r="S24" s="17"/>
       <c r="T24" s="17"/>
       <c r="U24" s="17"/>
-      <c r="V24" s="163"/>
-      <c r="W24" s="152"/>
-      <c r="X24" s="152"/>
+      <c r="V24" s="185"/>
+      <c r="W24" s="186"/>
+      <c r="X24" s="186"/>
     </row>
     <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="152"/>
+      <c r="A25" s="186"/>
       <c r="B25" s="14" t="s">
         <v>180</v>
       </c>
@@ -5824,7 +6040,7 @@
       <c r="K25" s="76" t="s">
         <v>190</v>
       </c>
-      <c r="L25" s="152"/>
+      <c r="L25" s="186"/>
       <c r="M25" s="76" t="s">
         <v>191</v>
       </c>
@@ -5837,7 +6053,7 @@
       <c r="P25" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="Q25" s="152"/>
+      <c r="Q25" s="186"/>
       <c r="R25" s="27"/>
       <c r="S25" s="27"/>
       <c r="T25" s="27"/>
@@ -5847,7 +6063,7 @@
       <c r="X25" s="27"/>
     </row>
     <row r="26" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="152"/>
+      <c r="A26" s="186"/>
       <c r="B26" s="14" t="s">
         <v>195</v>
       </c>
@@ -5881,7 +6097,7 @@
         <f>E26/E26</f>
         <v>1</v>
       </c>
-      <c r="L26" s="152"/>
+      <c r="L26" s="186"/>
       <c r="M26" s="77">
         <v>1</v>
       </c>
@@ -5894,7 +6110,7 @@
       <c r="P26" s="81">
         <v>0.2</v>
       </c>
-      <c r="Q26" s="152"/>
+      <c r="Q26" s="186"/>
       <c r="R26" s="43"/>
       <c r="U26" s="43"/>
       <c r="V26" s="43"/>
@@ -5902,7 +6118,7 @@
       <c r="X26" s="10"/>
     </row>
     <row r="27" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="152"/>
+      <c r="A27" s="186"/>
       <c r="B27" s="14"/>
       <c r="C27" s="45"/>
       <c r="D27" s="77">
@@ -5933,7 +6149,7 @@
         <f t="shared" ref="K27:K33" si="11">E27/E$26</f>
         <v>2</v>
       </c>
-      <c r="L27" s="152"/>
+      <c r="L27" s="186"/>
       <c r="M27" s="77">
         <v>2</v>
       </c>
@@ -5946,7 +6162,7 @@
       <c r="P27" s="81">
         <v>0.4</v>
       </c>
-      <c r="Q27" s="152"/>
+      <c r="Q27" s="186"/>
       <c r="R27" s="43"/>
       <c r="U27" s="43"/>
       <c r="V27" s="43"/>
@@ -5954,7 +6170,7 @@
       <c r="X27" s="10"/>
     </row>
     <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="152"/>
+      <c r="A28" s="186"/>
       <c r="B28" s="14"/>
       <c r="C28" s="45"/>
       <c r="D28" s="77">
@@ -5987,7 +6203,7 @@
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="L28" s="152"/>
+      <c r="L28" s="186"/>
       <c r="M28" s="77">
         <v>3</v>
       </c>
@@ -6000,7 +6216,7 @@
       <c r="P28" s="81">
         <v>0.6</v>
       </c>
-      <c r="Q28" s="152"/>
+      <c r="Q28" s="186"/>
       <c r="R28" s="43"/>
       <c r="U28" s="43"/>
       <c r="V28" s="43"/>
@@ -6008,7 +6224,7 @@
       <c r="X28" s="10"/>
     </row>
     <row r="29" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="152"/>
+      <c r="A29" s="186"/>
       <c r="B29" s="14"/>
       <c r="C29" s="45"/>
       <c r="D29" s="77">
@@ -6039,7 +6255,7 @@
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="L29" s="152"/>
+      <c r="L29" s="186"/>
       <c r="M29" s="77">
         <v>4</v>
       </c>
@@ -6052,13 +6268,13 @@
       <c r="P29" s="81">
         <v>0.8</v>
       </c>
-      <c r="Q29" s="152"/>
+      <c r="Q29" s="186"/>
       <c r="R29" s="43"/>
       <c r="U29" s="43"/>
       <c r="V29" s="43"/>
     </row>
     <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="152"/>
+      <c r="A30" s="186"/>
       <c r="B30" s="14"/>
       <c r="C30" s="45"/>
       <c r="D30" s="77">
@@ -6091,7 +6307,7 @@
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="L30" s="152"/>
+      <c r="L30" s="186"/>
       <c r="M30" s="77">
         <v>5</v>
       </c>
@@ -6104,13 +6320,13 @@
       <c r="P30" s="81">
         <v>1</v>
       </c>
-      <c r="Q30" s="152"/>
+      <c r="Q30" s="186"/>
       <c r="R30" s="43"/>
       <c r="U30" s="43"/>
       <c r="V30" s="43"/>
     </row>
     <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="152"/>
+      <c r="A31" s="186"/>
       <c r="B31" s="14"/>
       <c r="C31" s="45"/>
       <c r="D31" s="77">
@@ -6141,7 +6357,7 @@
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="L31" s="152"/>
+      <c r="L31" s="186"/>
       <c r="M31" s="77">
         <v>6</v>
       </c>
@@ -6154,13 +6370,13 @@
       <c r="P31" s="81">
         <v>1.2</v>
       </c>
-      <c r="Q31" s="152"/>
+      <c r="Q31" s="186"/>
       <c r="R31" s="43"/>
       <c r="U31" s="43"/>
       <c r="V31" s="43"/>
     </row>
     <row r="32" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="152"/>
+      <c r="A32" s="186"/>
       <c r="B32" s="14"/>
       <c r="C32" s="45"/>
       <c r="D32" s="77">
@@ -6193,7 +6409,7 @@
         <f t="shared" si="11"/>
         <v>13.999999999999998</v>
       </c>
-      <c r="L32" s="152"/>
+      <c r="L32" s="186"/>
       <c r="M32" s="77">
         <v>7</v>
       </c>
@@ -6206,13 +6422,13 @@
       <c r="P32" s="81">
         <v>1.6</v>
       </c>
-      <c r="Q32" s="152"/>
+      <c r="Q32" s="186"/>
       <c r="R32" s="43"/>
       <c r="U32" s="43"/>
       <c r="V32" s="43"/>
     </row>
     <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="152"/>
+      <c r="A33" s="186"/>
       <c r="B33" s="14"/>
       <c r="C33" s="45"/>
       <c r="D33" s="77">
@@ -6245,7 +6461,7 @@
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="L33" s="152"/>
+      <c r="L33" s="186"/>
       <c r="M33" s="77">
         <v>8</v>
       </c>
@@ -6258,55 +6474,55 @@
       <c r="P33" s="81">
         <v>2</v>
       </c>
-      <c r="Q33" s="152"/>
+      <c r="Q33" s="186"/>
       <c r="R33" s="43"/>
       <c r="U33" s="43"/>
       <c r="V33" s="43"/>
     </row>
     <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="152"/>
-      <c r="B34" s="151"/>
-      <c r="C34" s="152"/>
-      <c r="D34" s="156"/>
-      <c r="E34" s="152"/>
-      <c r="F34" s="152"/>
-      <c r="G34" s="152"/>
+      <c r="A34" s="186"/>
+      <c r="B34" s="189"/>
+      <c r="C34" s="186"/>
+      <c r="D34" s="190"/>
+      <c r="E34" s="186"/>
+      <c r="F34" s="186"/>
+      <c r="G34" s="186"/>
       <c r="H34" s="56"/>
       <c r="I34" s="56"/>
       <c r="J34" s="56"/>
       <c r="K34" s="56"/>
-      <c r="L34" s="152"/>
-      <c r="M34" s="156"/>
-      <c r="N34" s="152"/>
-      <c r="O34" s="152"/>
-      <c r="P34" s="152"/>
-      <c r="Q34" s="152"/>
+      <c r="L34" s="186"/>
+      <c r="M34" s="190"/>
+      <c r="N34" s="186"/>
+      <c r="O34" s="186"/>
+      <c r="P34" s="186"/>
+      <c r="Q34" s="186"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="152"/>
-      <c r="B35" s="154"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="158" t="s">
+      <c r="A35" s="186"/>
+      <c r="B35" s="188"/>
+      <c r="C35" s="186"/>
+      <c r="D35" s="196" t="s">
         <v>238</v>
       </c>
-      <c r="E35" s="152"/>
-      <c r="F35" s="152"/>
-      <c r="G35" s="152"/>
+      <c r="E35" s="186"/>
+      <c r="F35" s="186"/>
+      <c r="G35" s="186"/>
       <c r="H35" s="96"/>
       <c r="I35" s="96"/>
       <c r="J35" s="96"/>
       <c r="K35" s="96"/>
-      <c r="L35" s="152"/>
-      <c r="M35" s="158" t="s">
+      <c r="L35" s="186"/>
+      <c r="M35" s="196" t="s">
         <v>239</v>
       </c>
-      <c r="N35" s="152"/>
-      <c r="O35" s="152"/>
-      <c r="P35" s="152"/>
-      <c r="Q35" s="152"/>
+      <c r="N35" s="186"/>
+      <c r="O35" s="186"/>
+      <c r="P35" s="186"/>
+      <c r="Q35" s="186"/>
     </row>
     <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="152"/>
+      <c r="A36" s="186"/>
       <c r="B36" s="14"/>
       <c r="C36" s="45"/>
       <c r="D36" s="97" t="s">
@@ -6325,7 +6541,7 @@
       <c r="I36" s="97"/>
       <c r="J36" s="97"/>
       <c r="K36" s="97"/>
-      <c r="L36" s="152"/>
+      <c r="L36" s="186"/>
       <c r="M36" s="97" t="s">
         <v>244</v>
       </c>
@@ -6334,10 +6550,10 @@
       </c>
       <c r="O36" s="97"/>
       <c r="P36" s="97"/>
-      <c r="Q36" s="152"/>
+      <c r="Q36" s="186"/>
     </row>
     <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="152"/>
+      <c r="A37" s="186"/>
       <c r="B37" s="14"/>
       <c r="C37" s="45"/>
       <c r="D37" s="99">
@@ -6355,7 +6571,7 @@
       <c r="I37" s="53"/>
       <c r="J37" s="53"/>
       <c r="K37" s="53"/>
-      <c r="L37" s="152"/>
+      <c r="L37" s="186"/>
       <c r="M37" s="99">
         <v>1</v>
       </c>
@@ -6364,10 +6580,10 @@
       </c>
       <c r="O37" s="53"/>
       <c r="P37" s="53"/>
-      <c r="Q37" s="152"/>
+      <c r="Q37" s="186"/>
     </row>
     <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="152"/>
+      <c r="A38" s="186"/>
       <c r="B38" s="14"/>
       <c r="C38" s="45"/>
       <c r="D38" s="99">
@@ -6386,7 +6602,7 @@
       <c r="I38" s="53"/>
       <c r="J38" s="53"/>
       <c r="K38" s="53"/>
-      <c r="L38" s="152"/>
+      <c r="L38" s="186"/>
       <c r="M38" s="99">
         <v>2</v>
       </c>
@@ -6395,10 +6611,10 @@
       </c>
       <c r="O38" s="53"/>
       <c r="P38" s="53"/>
-      <c r="Q38" s="152"/>
+      <c r="Q38" s="186"/>
     </row>
     <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="152"/>
+      <c r="A39" s="186"/>
       <c r="B39" s="14"/>
       <c r="C39" s="45"/>
       <c r="D39" s="99">
@@ -6419,7 +6635,7 @@
       <c r="I39" s="53"/>
       <c r="J39" s="53"/>
       <c r="K39" s="53"/>
-      <c r="L39" s="152"/>
+      <c r="L39" s="186"/>
       <c r="M39" s="99">
         <v>3</v>
       </c>
@@ -6428,10 +6644,10 @@
       </c>
       <c r="O39" s="53"/>
       <c r="P39" s="53"/>
-      <c r="Q39" s="152"/>
+      <c r="Q39" s="186"/>
     </row>
     <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="152"/>
+      <c r="A40" s="186"/>
       <c r="B40" s="14"/>
       <c r="C40" s="45"/>
       <c r="D40" s="99">
@@ -6450,7 +6666,7 @@
       <c r="I40" s="53"/>
       <c r="J40" s="53"/>
       <c r="K40" s="53"/>
-      <c r="L40" s="152"/>
+      <c r="L40" s="186"/>
       <c r="M40" s="99">
         <v>4</v>
       </c>
@@ -6459,10 +6675,10 @@
       </c>
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
-      <c r="Q40" s="152"/>
+      <c r="Q40" s="186"/>
     </row>
     <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="152"/>
+      <c r="A41" s="186"/>
       <c r="B41" s="14"/>
       <c r="C41" s="45"/>
       <c r="D41" s="99">
@@ -6483,7 +6699,7 @@
       <c r="I41" s="53"/>
       <c r="J41" s="53"/>
       <c r="K41" s="53"/>
-      <c r="L41" s="152"/>
+      <c r="L41" s="186"/>
       <c r="M41" s="99">
         <v>5</v>
       </c>
@@ -6492,10 +6708,10 @@
       </c>
       <c r="O41" s="53"/>
       <c r="P41" s="53"/>
-      <c r="Q41" s="152"/>
+      <c r="Q41" s="186"/>
     </row>
     <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="152"/>
+      <c r="A42" s="186"/>
       <c r="B42" s="14"/>
       <c r="C42" s="45"/>
       <c r="D42" s="99">
@@ -6514,7 +6730,7 @@
       <c r="I42" s="53"/>
       <c r="J42" s="53"/>
       <c r="K42" s="53"/>
-      <c r="L42" s="152"/>
+      <c r="L42" s="186"/>
       <c r="M42" s="99">
         <v>6</v>
       </c>
@@ -6523,10 +6739,10 @@
       </c>
       <c r="O42" s="53"/>
       <c r="P42" s="53"/>
-      <c r="Q42" s="152"/>
+      <c r="Q42" s="186"/>
     </row>
     <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="152"/>
+      <c r="A43" s="186"/>
       <c r="B43" s="14"/>
       <c r="C43" s="45"/>
       <c r="D43" s="99">
@@ -6547,7 +6763,7 @@
       <c r="I43" s="53"/>
       <c r="J43" s="53"/>
       <c r="K43" s="53"/>
-      <c r="L43" s="152"/>
+      <c r="L43" s="186"/>
       <c r="M43" s="99">
         <v>7</v>
       </c>
@@ -6556,10 +6772,10 @@
       </c>
       <c r="O43" s="53"/>
       <c r="P43" s="53"/>
-      <c r="Q43" s="152"/>
+      <c r="Q43" s="186"/>
     </row>
     <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="152"/>
+      <c r="A44" s="186"/>
       <c r="B44" s="14"/>
       <c r="C44" s="45"/>
       <c r="D44" s="99">
@@ -6580,7 +6796,7 @@
       <c r="I44" s="53"/>
       <c r="J44" s="53"/>
       <c r="K44" s="53"/>
-      <c r="L44" s="152"/>
+      <c r="L44" s="186"/>
       <c r="M44" s="99">
         <v>8</v>
       </c>
@@ -6589,52 +6805,52 @@
       </c>
       <c r="O44" s="53"/>
       <c r="P44" s="53"/>
-      <c r="Q44" s="152"/>
+      <c r="Q44" s="186"/>
     </row>
     <row r="45" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="152"/>
-      <c r="B45" s="151"/>
-      <c r="C45" s="152"/>
-      <c r="D45" s="156"/>
-      <c r="E45" s="152"/>
-      <c r="F45" s="152"/>
-      <c r="G45" s="152"/>
+      <c r="A45" s="186"/>
+      <c r="B45" s="189"/>
+      <c r="C45" s="186"/>
+      <c r="D45" s="190"/>
+      <c r="E45" s="186"/>
+      <c r="F45" s="186"/>
+      <c r="G45" s="186"/>
       <c r="H45" s="56"/>
       <c r="I45" s="56"/>
       <c r="J45" s="56"/>
       <c r="K45" s="56"/>
-      <c r="L45" s="152"/>
-      <c r="M45" s="156"/>
-      <c r="N45" s="152"/>
-      <c r="O45" s="152"/>
-      <c r="P45" s="152"/>
-      <c r="Q45" s="152"/>
+      <c r="L45" s="186"/>
+      <c r="M45" s="190"/>
+      <c r="N45" s="186"/>
+      <c r="O45" s="186"/>
+      <c r="P45" s="186"/>
+      <c r="Q45" s="186"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="152"/>
-      <c r="B46" s="154"/>
-      <c r="C46" s="152"/>
-      <c r="D46" s="155" t="s">
+      <c r="A46" s="186"/>
+      <c r="B46" s="188"/>
+      <c r="C46" s="186"/>
+      <c r="D46" s="198" t="s">
         <v>258</v>
       </c>
-      <c r="E46" s="152"/>
-      <c r="F46" s="152"/>
-      <c r="G46" s="152"/>
+      <c r="E46" s="186"/>
+      <c r="F46" s="186"/>
+      <c r="G46" s="186"/>
       <c r="H46" s="106"/>
       <c r="I46" s="106"/>
       <c r="J46" s="106"/>
       <c r="K46" s="106"/>
-      <c r="L46" s="152"/>
-      <c r="M46" s="155" t="s">
+      <c r="L46" s="186"/>
+      <c r="M46" s="198" t="s">
         <v>262</v>
       </c>
-      <c r="N46" s="152"/>
-      <c r="O46" s="152"/>
-      <c r="P46" s="152"/>
-      <c r="Q46" s="152"/>
+      <c r="N46" s="186"/>
+      <c r="O46" s="186"/>
+      <c r="P46" s="186"/>
+      <c r="Q46" s="186"/>
     </row>
     <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="152"/>
+      <c r="A47" s="186"/>
       <c r="B47" s="14"/>
       <c r="C47" s="45"/>
       <c r="D47" s="108" t="s">
@@ -6651,7 +6867,7 @@
       <c r="I47" s="108"/>
       <c r="J47" s="108"/>
       <c r="K47" s="108"/>
-      <c r="L47" s="152"/>
+      <c r="L47" s="186"/>
       <c r="M47" s="108" t="s">
         <v>273</v>
       </c>
@@ -6660,10 +6876,10 @@
       </c>
       <c r="O47" s="108"/>
       <c r="P47" s="108"/>
-      <c r="Q47" s="152"/>
+      <c r="Q47" s="186"/>
     </row>
     <row r="48" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="152"/>
+      <c r="A48" s="186"/>
       <c r="B48" s="14"/>
       <c r="C48" s="45"/>
       <c r="D48" s="110">
@@ -6678,7 +6894,7 @@
       <c r="I48" s="113"/>
       <c r="J48" s="113"/>
       <c r="K48" s="113"/>
-      <c r="L48" s="152"/>
+      <c r="L48" s="186"/>
       <c r="M48" s="110">
         <v>1</v>
       </c>
@@ -6687,10 +6903,10 @@
       </c>
       <c r="O48" s="113"/>
       <c r="P48" s="113"/>
-      <c r="Q48" s="152"/>
+      <c r="Q48" s="186"/>
     </row>
     <row r="49" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="152"/>
+      <c r="A49" s="186"/>
       <c r="B49" s="14"/>
       <c r="C49" s="45"/>
       <c r="D49" s="110">
@@ -6706,7 +6922,7 @@
       <c r="I49" s="113"/>
       <c r="J49" s="113"/>
       <c r="K49" s="113"/>
-      <c r="L49" s="152"/>
+      <c r="L49" s="186"/>
       <c r="M49" s="110">
         <v>2</v>
       </c>
@@ -6715,10 +6931,10 @@
       </c>
       <c r="O49" s="113"/>
       <c r="P49" s="113"/>
-      <c r="Q49" s="152"/>
+      <c r="Q49" s="186"/>
     </row>
     <row r="50" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="152"/>
+      <c r="A50" s="186"/>
       <c r="B50" s="14"/>
       <c r="C50" s="45"/>
       <c r="D50" s="110">
@@ -6736,7 +6952,7 @@
       <c r="I50" s="113"/>
       <c r="J50" s="113"/>
       <c r="K50" s="113"/>
-      <c r="L50" s="152"/>
+      <c r="L50" s="186"/>
       <c r="M50" s="110">
         <v>3</v>
       </c>
@@ -6745,10 +6961,10 @@
       </c>
       <c r="O50" s="113"/>
       <c r="P50" s="113"/>
-      <c r="Q50" s="152"/>
+      <c r="Q50" s="186"/>
     </row>
     <row r="51" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="152"/>
+      <c r="A51" s="186"/>
       <c r="B51" s="14"/>
       <c r="C51" s="45"/>
       <c r="D51" s="110">
@@ -6764,7 +6980,7 @@
       <c r="I51" s="113"/>
       <c r="J51" s="113"/>
       <c r="K51" s="113"/>
-      <c r="L51" s="152"/>
+      <c r="L51" s="186"/>
       <c r="M51" s="110">
         <v>4</v>
       </c>
@@ -6773,10 +6989,10 @@
       </c>
       <c r="O51" s="113"/>
       <c r="P51" s="113"/>
-      <c r="Q51" s="152"/>
+      <c r="Q51" s="186"/>
     </row>
     <row r="52" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="152"/>
+      <c r="A52" s="186"/>
       <c r="B52" s="14"/>
       <c r="C52" s="45"/>
       <c r="D52" s="110">
@@ -6794,7 +7010,7 @@
       <c r="I52" s="113"/>
       <c r="J52" s="113"/>
       <c r="K52" s="113"/>
-      <c r="L52" s="152"/>
+      <c r="L52" s="186"/>
       <c r="M52" s="110">
         <v>5</v>
       </c>
@@ -6803,10 +7019,10 @@
       </c>
       <c r="O52" s="113"/>
       <c r="P52" s="113"/>
-      <c r="Q52" s="152"/>
+      <c r="Q52" s="186"/>
     </row>
     <row r="53" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="152"/>
+      <c r="A53" s="186"/>
       <c r="B53" s="14"/>
       <c r="C53" s="45"/>
       <c r="D53" s="110">
@@ -6822,7 +7038,7 @@
       <c r="I53" s="113"/>
       <c r="J53" s="113"/>
       <c r="K53" s="113"/>
-      <c r="L53" s="152"/>
+      <c r="L53" s="186"/>
       <c r="M53" s="110">
         <v>6</v>
       </c>
@@ -6831,10 +7047,10 @@
       </c>
       <c r="O53" s="113"/>
       <c r="P53" s="113"/>
-      <c r="Q53" s="152"/>
+      <c r="Q53" s="186"/>
     </row>
     <row r="54" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="152"/>
+      <c r="A54" s="186"/>
       <c r="B54" s="14"/>
       <c r="C54" s="45"/>
       <c r="D54" s="110">
@@ -6852,7 +7068,7 @@
       <c r="I54" s="113"/>
       <c r="J54" s="113"/>
       <c r="K54" s="113"/>
-      <c r="L54" s="152"/>
+      <c r="L54" s="186"/>
       <c r="M54" s="110">
         <v>7</v>
       </c>
@@ -6861,10 +7077,10 @@
       </c>
       <c r="O54" s="113"/>
       <c r="P54" s="113"/>
-      <c r="Q54" s="152"/>
+      <c r="Q54" s="186"/>
     </row>
     <row r="55" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="152"/>
+      <c r="A55" s="186"/>
       <c r="B55" s="14"/>
       <c r="C55" s="45"/>
       <c r="D55" s="110">
@@ -6882,7 +7098,7 @@
       <c r="I55" s="113"/>
       <c r="J55" s="113"/>
       <c r="K55" s="113"/>
-      <c r="L55" s="152"/>
+      <c r="L55" s="186"/>
       <c r="M55" s="110">
         <v>8</v>
       </c>
@@ -6891,46 +7107,34 @@
       </c>
       <c r="O55" s="113"/>
       <c r="P55" s="113"/>
-      <c r="Q55" s="152"/>
+      <c r="Q55" s="186"/>
     </row>
     <row r="56" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="152"/>
+      <c r="A56" s="186"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="153"/>
-      <c r="E56" s="152"/>
-      <c r="F56" s="152"/>
-      <c r="G56" s="152"/>
-      <c r="H56" s="152"/>
-      <c r="I56" s="152"/>
-      <c r="J56" s="152"/>
-      <c r="K56" s="152"/>
-      <c r="L56" s="152"/>
-      <c r="M56" s="152"/>
-      <c r="N56" s="152"/>
-      <c r="O56" s="152"/>
-      <c r="P56" s="152"/>
-      <c r="Q56" s="152"/>
+      <c r="D56" s="197"/>
+      <c r="E56" s="186"/>
+      <c r="F56" s="186"/>
+      <c r="G56" s="186"/>
+      <c r="H56" s="186"/>
+      <c r="I56" s="186"/>
+      <c r="J56" s="186"/>
+      <c r="K56" s="186"/>
+      <c r="L56" s="186"/>
+      <c r="M56" s="186"/>
+      <c r="N56" s="186"/>
+      <c r="O56" s="186"/>
+      <c r="P56" s="186"/>
+      <c r="Q56" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D56:P56"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D45:G45"/>
     <mergeCell ref="M34:P34"/>
     <mergeCell ref="L2:L55"/>
     <mergeCell ref="M35:P35"/>
@@ -6947,11 +7151,23 @@
     <mergeCell ref="D35:G35"/>
     <mergeCell ref="M12:P12"/>
     <mergeCell ref="M13:P13"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D56:P56"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6960,6 +7176,971 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="8" width="17" customWidth="1"/>
+    <col min="9" max="10" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="12" max="13" width="20.28515625" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="226" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="19"/>
+    </row>
+    <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="19"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="193" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="186"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="186"/>
+      <c r="I5" s="186"/>
+      <c r="J5" s="186"/>
+      <c r="K5" s="186"/>
+      <c r="L5" s="186"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+    </row>
+    <row r="6" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="225" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="186"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+    </row>
+    <row r="7" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+    </row>
+    <row r="8" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+    </row>
+    <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10">
+        <f>510*1.25</f>
+        <v>637.5</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="E9">
+        <f>F$9*D9/D$9</f>
+        <v>390</v>
+      </c>
+      <c r="F9" s="10">
+        <v>390</v>
+      </c>
+      <c r="G9" s="28">
+        <f t="shared" ref="G9:G13" si="0">C9/F9</f>
+        <v>1.6346153846153846</v>
+      </c>
+      <c r="H9" s="28">
+        <f>C9/F9</f>
+        <v>1.6346153846153846</v>
+      </c>
+      <c r="I9" s="40">
+        <f t="shared" ref="I9:I13" si="1">ROUNDUP(D9*10,1)</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="28">
+        <f t="shared" ref="K9:K13" si="2">L9*J9</f>
+        <v>4</v>
+      </c>
+      <c r="L9" s="28">
+        <f t="shared" ref="L9:L13" si="3">M9/E9*C9/G9</f>
+        <v>8</v>
+      </c>
+      <c r="M9" s="37">
+        <v>8</v>
+      </c>
+      <c r="N9" s="16">
+        <f t="shared" ref="N9:N13" si="4">K9/M9</f>
+        <v>0.5</v>
+      </c>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1300</v>
+      </c>
+      <c r="D10" s="44">
+        <f t="shared" ref="D10:D13" si="5">C10*D$9/F$9</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:E13" si="6">F$9*D10/D$9/G10</f>
+        <v>881</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F13" si="7">ROUNDUP(D10*$F$9/$D$9/H10,0)</f>
+        <v>881</v>
+      </c>
+      <c r="G10" s="28">
+        <f t="shared" si="0"/>
+        <v>1.4755959137343928</v>
+      </c>
+      <c r="H10" s="28">
+        <f t="shared" ref="H10:H13" si="8">H9-($H$9-1)/4</f>
+        <v>1.4759615384615383</v>
+      </c>
+      <c r="I10" s="40">
+        <f t="shared" si="1"/>
+        <v>3.4</v>
+      </c>
+      <c r="J10" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="K10" s="28">
+        <f t="shared" si="2"/>
+        <v>4.8</v>
+      </c>
+      <c r="L10" s="28">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="M10" s="37">
+        <v>8</v>
+      </c>
+      <c r="N10" s="16">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="P10" s="10"/>
+    </row>
+    <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <v>3</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2100</v>
+      </c>
+      <c r="D11" s="44">
+        <f t="shared" si="5"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="6"/>
+        <v>1595</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="7"/>
+        <v>1595</v>
+      </c>
+      <c r="G11" s="28">
+        <f t="shared" si="0"/>
+        <v>1.3166144200626959</v>
+      </c>
+      <c r="H11" s="28">
+        <f t="shared" si="8"/>
+        <v>1.3173076923076921</v>
+      </c>
+      <c r="I11" s="40">
+        <f t="shared" si="1"/>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="J11" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="K11" s="28">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L11" s="28">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="M11" s="37">
+        <v>8</v>
+      </c>
+      <c r="N11" s="16">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="P11" s="10"/>
+    </row>
+    <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>4</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10">
+        <v>3700</v>
+      </c>
+      <c r="D12" s="44">
+        <f t="shared" si="5"/>
+        <v>0.94871794871794868</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="6"/>
+        <v>3194</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="7"/>
+        <v>3194</v>
+      </c>
+      <c r="G12" s="28">
+        <f t="shared" si="0"/>
+        <v>1.158422041327489</v>
+      </c>
+      <c r="H12" s="28">
+        <f t="shared" si="8"/>
+        <v>1.1586538461538458</v>
+      </c>
+      <c r="I12" s="40">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+      <c r="J12" s="31">
+        <v>0.95</v>
+      </c>
+      <c r="K12" s="28">
+        <f t="shared" si="2"/>
+        <v>7.6</v>
+      </c>
+      <c r="L12" s="28">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="M12" s="37">
+        <v>8</v>
+      </c>
+      <c r="N12" s="16">
+        <f t="shared" si="4"/>
+        <v>0.95</v>
+      </c>
+      <c r="P12" s="10"/>
+    </row>
+    <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
+        <v>5</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10">
+        <v>6100</v>
+      </c>
+      <c r="D13" s="44">
+        <f t="shared" si="5"/>
+        <v>1.5641025641025641</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="6"/>
+        <v>6100</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="7"/>
+        <v>6100</v>
+      </c>
+      <c r="G13" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="28">
+        <f t="shared" si="8"/>
+        <v>0.99999999999999967</v>
+      </c>
+      <c r="I13" s="40">
+        <f t="shared" si="1"/>
+        <v>15.7</v>
+      </c>
+      <c r="J13" s="31">
+        <v>1.05</v>
+      </c>
+      <c r="K13" s="28">
+        <f t="shared" si="2"/>
+        <v>8.4</v>
+      </c>
+      <c r="L13" s="28">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="M13" s="37">
+        <v>8</v>
+      </c>
+      <c r="N13" s="16">
+        <f t="shared" si="4"/>
+        <v>1.05</v>
+      </c>
+      <c r="P13" s="10"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="193" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="186"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="186"/>
+      <c r="E15" s="186"/>
+      <c r="F15" s="186"/>
+      <c r="G15" s="186"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="186"/>
+      <c r="K15" s="186"/>
+      <c r="L15" s="186"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+    </row>
+    <row r="16" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="225" t="s">
+        <v>120</v>
+      </c>
+      <c r="L16" s="186"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="227"/>
+      <c r="AA16" s="186"/>
+      <c r="AB16" s="227"/>
+      <c r="AC16" s="186"/>
+      <c r="AD16" s="57"/>
+    </row>
+    <row r="17" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="N17" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="43"/>
+    </row>
+    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
+        <v>1</v>
+      </c>
+      <c r="B18" s="10">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10">
+        <v>638</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ref="E18:E22" si="9">F$18*D18/D$18</f>
+        <v>390</v>
+      </c>
+      <c r="F18" s="10">
+        <v>390</v>
+      </c>
+      <c r="G18" s="28">
+        <f t="shared" ref="G18:G22" si="10">E18/F18</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="10">
+        <v>1</v>
+      </c>
+      <c r="J18" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K18" s="28">
+        <f t="shared" ref="K18:K22" si="11">L18*J18</f>
+        <v>6.5435897435897434</v>
+      </c>
+      <c r="L18" s="28">
+        <f t="shared" ref="L18:L22" si="12">M18/E18*C18</f>
+        <v>13.087179487179487</v>
+      </c>
+      <c r="M18" s="37">
+        <v>8</v>
+      </c>
+      <c r="N18" s="16">
+        <f t="shared" ref="N18:N22" si="13">K18/M18</f>
+        <v>0.81794871794871793</v>
+      </c>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="37"/>
+    </row>
+    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>2</v>
+      </c>
+      <c r="B19" s="10">
+        <v>2</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1300</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.105</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="9"/>
+        <v>409.49999999999994</v>
+      </c>
+      <c r="F19">
+        <f>450</f>
+        <v>450</v>
+      </c>
+      <c r="G19" s="28">
+        <f t="shared" si="10"/>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="41">
+        <f t="shared" ref="I19:I22" si="14">D19*10</f>
+        <v>1.05</v>
+      </c>
+      <c r="J19" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="K19" s="28">
+        <f t="shared" si="11"/>
+        <v>19.047619047619051</v>
+      </c>
+      <c r="L19" s="28">
+        <f t="shared" si="12"/>
+        <v>25.396825396825403</v>
+      </c>
+      <c r="M19" s="37">
+        <v>8</v>
+      </c>
+      <c r="N19" s="16">
+        <f t="shared" si="13"/>
+        <v>2.3809523809523814</v>
+      </c>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="41"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="37"/>
+    </row>
+    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
+        <v>3</v>
+      </c>
+      <c r="B20" s="10">
+        <v>3</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2100</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="9"/>
+        <v>428.99999999999994</v>
+      </c>
+      <c r="F20">
+        <f>550</f>
+        <v>550</v>
+      </c>
+      <c r="G20" s="28">
+        <f t="shared" si="10"/>
+        <v>0.77999999999999992</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="41">
+        <f t="shared" si="14"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J20" s="31">
+        <v>1</v>
+      </c>
+      <c r="K20" s="28">
+        <f t="shared" si="11"/>
+        <v>39.160839160839167</v>
+      </c>
+      <c r="L20" s="28">
+        <f t="shared" si="12"/>
+        <v>39.160839160839167</v>
+      </c>
+      <c r="M20" s="37">
+        <v>8</v>
+      </c>
+      <c r="N20" s="16">
+        <f t="shared" si="13"/>
+        <v>4.8951048951048959</v>
+      </c>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="41"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="37"/>
+    </row>
+    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <v>4</v>
+      </c>
+      <c r="B21" s="10">
+        <v>5</v>
+      </c>
+      <c r="C21" s="10">
+        <v>3700</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0.115</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="9"/>
+        <v>448.5</v>
+      </c>
+      <c r="F21">
+        <f>750</f>
+        <v>750</v>
+      </c>
+      <c r="G21" s="28">
+        <f t="shared" si="10"/>
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="41">
+        <f t="shared" si="14"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="J21" s="31">
+        <v>1.25</v>
+      </c>
+      <c r="K21" s="28">
+        <f t="shared" si="11"/>
+        <v>82.497212931995549</v>
+      </c>
+      <c r="L21" s="28">
+        <f t="shared" si="12"/>
+        <v>65.997770345596436</v>
+      </c>
+      <c r="M21" s="37">
+        <v>8</v>
+      </c>
+      <c r="N21" s="16">
+        <f t="shared" si="13"/>
+        <v>10.312151616499444</v>
+      </c>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="41"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="37"/>
+    </row>
+    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
+        <v>5</v>
+      </c>
+      <c r="B22" s="10">
+        <v>8</v>
+      </c>
+      <c r="C22" s="10">
+        <v>6100</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="9"/>
+        <v>467.99999999999994</v>
+      </c>
+      <c r="F22">
+        <f>1000</f>
+        <v>1000</v>
+      </c>
+      <c r="G22" s="28">
+        <f t="shared" si="10"/>
+        <v>0.46799999999999992</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="41">
+        <f t="shared" si="14"/>
+        <v>1.2</v>
+      </c>
+      <c r="J22" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="K22" s="28">
+        <f t="shared" si="11"/>
+        <v>156.41025641025644</v>
+      </c>
+      <c r="L22" s="28">
+        <f t="shared" si="12"/>
+        <v>104.27350427350429</v>
+      </c>
+      <c r="M22" s="37">
+        <v>8</v>
+      </c>
+      <c r="N22" s="16">
+        <f t="shared" si="13"/>
+        <v>19.551282051282055</v>
+      </c>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="41"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="37"/>
+    </row>
+    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="K23" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="L23">
+        <f>75*0.4</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="10"/>
+    </row>
+    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G26" s="73"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="K16:L16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
@@ -7389,18 +8570,18 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164" t="s">
+      <c r="B1" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
       <c r="L1" s="12"/>
       <c r="M1" s="117"/>
       <c r="N1" s="117"/>
@@ -7799,11 +8980,11 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="167" t="s">
+      <c r="A9" s="203" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="152"/>
-      <c r="C9" s="152"/>
+      <c r="B9" s="186"/>
+      <c r="C9" s="186"/>
       <c r="M9" s="140" t="s">
         <v>293</v>
       </c>
@@ -7813,10 +8994,10 @@
       <c r="O9" s="140"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="165" t="s">
+      <c r="A10" s="202" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="152"/>
+      <c r="B10" s="186"/>
       <c r="C10" s="50">
         <f>C4*14/5100</f>
         <v>1.6016000000000001</v>
@@ -7828,20 +9009,20 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="165" t="s">
+      <c r="A11" s="202" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="152"/>
+      <c r="B11" s="186"/>
       <c r="C11" s="51">
         <v>1</v>
       </c>
       <c r="D11" s="51"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="165" t="s">
+      <c r="A12" s="202" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="152"/>
+      <c r="B12" s="186"/>
       <c r="C12" s="121">
         <v>1.55</v>
       </c>
@@ -7853,10 +9034,10 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="165" t="s">
+      <c r="A13" s="202" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="152"/>
+      <c r="B13" s="186"/>
       <c r="C13" s="53">
         <v>0.8</v>
       </c>
@@ -7872,10 +9053,10 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="165" t="s">
+      <c r="A14" s="202" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="152"/>
+      <c r="B14" s="186"/>
       <c r="C14" s="53">
         <v>10</v>
       </c>
@@ -7890,10 +9071,10 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="168" t="s">
+      <c r="A15" s="200" t="s">
         <v>311</v>
       </c>
-      <c r="B15" s="152"/>
+      <c r="B15" s="186"/>
       <c r="C15" s="121">
         <v>1.3</v>
       </c>
@@ -7912,10 +9093,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="169" t="s">
+      <c r="A16" s="201" t="s">
         <v>312</v>
       </c>
-      <c r="B16" s="152"/>
+      <c r="B16" s="186"/>
       <c r="C16" s="138">
         <v>1.1000000000000001</v>
       </c>
@@ -7931,10 +9112,10 @@
       <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="169" t="s">
+      <c r="A17" s="201" t="s">
         <v>310</v>
       </c>
-      <c r="B17" s="152"/>
+      <c r="B17" s="186"/>
       <c r="C17" s="138">
         <v>1</v>
       </c>
@@ -7950,8 +9131,8 @@
       <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="166"/>
-      <c r="B18" s="152"/>
+      <c r="A18" s="199"/>
+      <c r="B18" s="186"/>
       <c r="C18" s="53"/>
       <c r="D18" s="53"/>
       <c r="E18" s="10">
@@ -7965,8 +9146,8 @@
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="166"/>
-      <c r="B19" s="152"/>
+      <c r="A19" s="199"/>
+      <c r="B19" s="186"/>
       <c r="C19" s="53"/>
       <c r="D19" s="53"/>
     </row>
@@ -8056,11 +9237,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A10:B10"/>
@@ -8068,6 +9244,11 @@
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8096,13 +9277,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="D1" s="170" t="s">
+      <c r="D1" s="204" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="D2" s="130" t="s">
@@ -8426,96 +9607,101 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="167" t="s">
+      <c r="A26" s="203" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="152"/>
-      <c r="C26" s="152"/>
+      <c r="B26" s="186"/>
+      <c r="C26" s="186"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="168" t="s">
+      <c r="A27" s="200" t="s">
         <v>302</v>
       </c>
-      <c r="B27" s="152"/>
+      <c r="B27" s="186"/>
       <c r="C27" s="129">
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="168"/>
-      <c r="B28" s="152"/>
+      <c r="A28" s="200"/>
+      <c r="B28" s="186"/>
       <c r="C28" s="139"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="168" t="s">
+      <c r="A29" s="200" t="s">
         <v>303</v>
       </c>
-      <c r="B29" s="152"/>
+      <c r="B29" s="186"/>
       <c r="C29" s="121">
         <v>0.79</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="168" t="s">
+      <c r="A30" s="200" t="s">
         <v>299</v>
       </c>
-      <c r="B30" s="168"/>
+      <c r="B30" s="200"/>
       <c r="C30" s="138">
         <f>C29*C$34</f>
         <v>1.1850000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="168" t="s">
+      <c r="A31" s="200" t="s">
         <v>298</v>
       </c>
-      <c r="B31" s="168"/>
+      <c r="B31" s="200"/>
       <c r="C31" s="138">
         <f t="shared" ref="C31:C33" si="5">C30*C$34</f>
         <v>1.7775000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="168" t="s">
+      <c r="A32" s="200" t="s">
         <v>300</v>
       </c>
-      <c r="B32" s="168"/>
+      <c r="B32" s="200"/>
       <c r="C32" s="138">
         <f t="shared" si="5"/>
         <v>2.6662500000000002</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="169" t="s">
+      <c r="A33" s="201" t="s">
         <v>301</v>
       </c>
-      <c r="B33" s="166"/>
+      <c r="B33" s="199"/>
       <c r="C33" s="138">
         <f t="shared" si="5"/>
         <v>3.9993750000000006</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="169" t="s">
+      <c r="A34" s="201" t="s">
         <v>304</v>
       </c>
-      <c r="B34" s="152"/>
+      <c r="B34" s="186"/>
       <c r="C34" s="53">
         <v>1.5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="166"/>
-      <c r="B35" s="152"/>
+      <c r="A35" s="199"/>
+      <c r="B35" s="186"/>
       <c r="C35" s="53"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="166"/>
-      <c r="B36" s="152"/>
+      <c r="A36" s="199"/>
+      <c r="B36" s="186"/>
       <c r="C36" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="D1:H1"/>
@@ -8523,11 +9709,6 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8537,21 +9718,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" topLeftCell="G28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="215" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="215" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="173" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="173" customWidth="1"/>
     <col min="9" max="9" width="5.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="215" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="173" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" style="215" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="215"/>
+    <col min="12" max="12" width="5.7109375" style="173" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="173"/>
     <col min="18" max="18" width="10.7109375" customWidth="1"/>
     <col min="19" max="20" width="9.28515625" customWidth="1"/>
   </cols>
@@ -8582,49 +9763,49 @@
       <c r="A3" s="144" t="s">
         <v>333</v>
       </c>
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="206" t="s">
         <v>344</v>
       </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="200"/>
-      <c r="Q3" s="211" t="s">
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="208"/>
+      <c r="Q3" s="169" t="s">
         <v>346</v>
       </c>
-      <c r="R3" s="206"/>
-      <c r="S3" s="206"/>
-      <c r="T3" s="206"/>
-      <c r="U3" s="206"/>
-      <c r="V3" s="206"/>
-      <c r="W3" s="206"/>
-      <c r="X3" s="206"/>
-      <c r="Y3" s="206"/>
-      <c r="Z3" s="206"/>
+      <c r="R3" s="166"/>
+      <c r="S3" s="166"/>
+      <c r="T3" s="166"/>
+      <c r="U3" s="166"/>
+      <c r="V3" s="166"/>
+      <c r="W3" s="166"/>
+      <c r="X3" s="166"/>
+      <c r="Y3" s="166"/>
+      <c r="Z3" s="166"/>
       <c r="AA3" s="150"/>
     </row>
     <row r="4" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="201" t="s">
+      <c r="D4" s="209" t="s">
         <v>345</v>
       </c>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="203"/>
-      <c r="Q4" s="212"/>
-      <c r="R4" s="206"/>
-      <c r="S4" s="206"/>
-      <c r="T4" s="206"/>
-      <c r="U4" s="206"/>
-      <c r="V4" s="206"/>
-      <c r="W4" s="206"/>
-      <c r="X4" s="206"/>
-      <c r="Y4" s="206"/>
-      <c r="Z4" s="206"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="210"/>
+      <c r="G4" s="210"/>
+      <c r="H4" s="211"/>
+      <c r="Q4" s="170"/>
+      <c r="R4" s="166"/>
+      <c r="S4" s="166"/>
+      <c r="T4" s="166"/>
+      <c r="U4" s="166"/>
+      <c r="V4" s="166"/>
+      <c r="W4" s="166"/>
+      <c r="X4" s="166"/>
+      <c r="Y4" s="166"/>
+      <c r="Z4" s="166"/>
       <c r="AA4" s="150"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="Q5" s="204"/>
+      <c r="Q5" s="164"/>
       <c r="R5" s="150"/>
       <c r="S5" s="150"/>
       <c r="T5" s="150"/>
@@ -8649,83 +9830,81 @@
         <v>336</v>
       </c>
       <c r="F6" s="146"/>
-      <c r="G6" s="216" t="s">
+      <c r="G6" s="174" t="s">
         <v>335</v>
       </c>
-      <c r="H6" s="216" t="s">
+      <c r="H6" s="174" t="s">
         <v>335</v>
       </c>
       <c r="I6" s="146"/>
-      <c r="J6" s="216" t="s">
+      <c r="J6" s="174" t="s">
         <v>335</v>
       </c>
-      <c r="K6" s="216" t="s">
+      <c r="K6" s="174" t="s">
         <v>343</v>
       </c>
       <c r="L6" s="146"/>
-      <c r="M6" s="216" t="s">
+      <c r="M6" s="174" t="s">
         <v>337</v>
       </c>
-      <c r="N6" s="216" t="s">
+      <c r="N6" s="174" t="s">
         <v>338</v>
       </c>
-      <c r="Q6" s="204"/>
-      <c r="R6" s="208" t="s">
+      <c r="Q6" s="164"/>
+      <c r="R6" s="212" t="s">
         <v>347</v>
       </c>
-      <c r="S6" s="208"/>
-      <c r="T6" s="150"/>
-      <c r="U6" s="207" t="s">
+      <c r="S6" s="212"/>
+      <c r="T6" s="165"/>
+      <c r="V6" s="213" t="s">
         <v>359</v>
       </c>
-      <c r="V6" s="207"/>
-      <c r="W6" s="207"/>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="197" t="s">
+      <c r="W6" s="213"/>
+      <c r="X6" s="213"/>
+      <c r="Y6" s="205" t="s">
         <v>363</v>
       </c>
-      <c r="Z6" s="197"/>
+      <c r="Z6" s="205"/>
       <c r="AA6" s="150"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="147"/>
-      <c r="B7" s="186"/>
+      <c r="B7" s="153"/>
       <c r="C7" s="147"/>
       <c r="D7" s="146"/>
       <c r="E7" s="146"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="216" t="s">
+      <c r="F7" s="153"/>
+      <c r="G7" s="174" t="s">
         <v>342</v>
       </c>
-      <c r="H7" s="217" t="s">
+      <c r="H7" s="175" t="s">
         <v>342</v>
       </c>
-      <c r="I7" s="186"/>
-      <c r="J7" s="216" t="s">
+      <c r="I7" s="153"/>
+      <c r="J7" s="174" t="s">
         <v>342</v>
       </c>
-      <c r="K7" s="216" t="s">
+      <c r="K7" s="174" t="s">
         <v>342</v>
       </c>
-      <c r="L7" s="186"/>
-      <c r="M7" s="217" t="s">
+      <c r="L7" s="153"/>
+      <c r="M7" s="175" t="s">
         <v>339</v>
       </c>
-      <c r="N7" s="217" t="s">
+      <c r="N7" s="175" t="s">
         <v>339</v>
       </c>
-      <c r="Q7" s="204"/>
-      <c r="R7" s="205"/>
-      <c r="S7" s="209" t="s">
+      <c r="Q7" s="164"/>
+      <c r="R7" s="165"/>
+      <c r="S7" s="167" t="s">
         <v>339</v>
       </c>
-      <c r="T7" s="150"/>
-      <c r="U7" s="196"/>
-      <c r="V7" s="196"/>
-      <c r="W7" s="210" t="s">
+      <c r="T7" s="165"/>
+      <c r="V7" s="163"/>
+      <c r="W7" s="163"/>
+      <c r="X7" s="168" t="s">
         <v>361</v>
       </c>
-      <c r="X7" s="150"/>
       <c r="Y7" s="150"/>
       <c r="Z7" s="150"/>
       <c r="AA7" s="150"/>
@@ -8734,98 +9913,99 @@
       <c r="A8" s="148" t="s">
         <v>323</v>
       </c>
-      <c r="B8" s="186"/>
-      <c r="C8" s="222" t="s">
+      <c r="B8" s="153"/>
+      <c r="C8" s="180" t="s">
         <v>341</v>
       </c>
-      <c r="D8" s="222"/>
-      <c r="E8" s="185">
+      <c r="D8" s="180"/>
+      <c r="E8" s="152">
         <v>1</v>
       </c>
-      <c r="F8" s="186"/>
-      <c r="G8" s="214">
-        <f>W9*Y9*S8</f>
-        <v>1800</v>
-      </c>
-      <c r="H8" s="218">
+      <c r="F8" s="153"/>
+      <c r="G8" s="172">
+        <f>IF(X22="true", X9*Y9*S8, X9*Y9*T8)</f>
+        <v>900</v>
+      </c>
+      <c r="H8" s="176">
         <f>G8</f>
-        <v>1800</v>
-      </c>
-      <c r="I8" s="186"/>
-      <c r="J8" s="214">
+        <v>900</v>
+      </c>
+      <c r="I8" s="153"/>
+      <c r="J8" s="172">
         <f>G8</f>
-        <v>1800</v>
-      </c>
-      <c r="K8" s="214"/>
-      <c r="L8" s="186"/>
-      <c r="M8" s="219">
+        <v>900</v>
+      </c>
+      <c r="K8" s="172"/>
+      <c r="L8" s="153"/>
+      <c r="M8" s="177">
         <f>S8</f>
         <v>10</v>
       </c>
-      <c r="N8" s="219"/>
-      <c r="Q8" s="204"/>
-      <c r="R8" s="194" t="s">
+      <c r="N8" s="177"/>
+      <c r="Q8" s="164"/>
+      <c r="R8" s="161" t="s">
         <v>323</v>
       </c>
-      <c r="S8" s="189">
+      <c r="S8" s="156">
         <v>10</v>
       </c>
-      <c r="T8" s="150"/>
-      <c r="U8" s="192" t="s">
+      <c r="T8" s="156">
+        <v>5</v>
+      </c>
+      <c r="V8" s="159" t="s">
         <v>360</v>
       </c>
-      <c r="V8" s="193"/>
-      <c r="W8" s="187">
-        <v>1</v>
-      </c>
-      <c r="X8" s="150"/>
+      <c r="W8" s="160"/>
+      <c r="X8" s="154">
+        <v>250</v>
+      </c>
       <c r="Y8" s="150"/>
       <c r="Z8" s="150"/>
       <c r="AA8" s="150"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="149"/>
-      <c r="B9" s="186"/>
-      <c r="C9" s="222" t="s">
+      <c r="B9" s="153"/>
+      <c r="C9" s="180" t="s">
         <v>340</v>
       </c>
-      <c r="D9" s="222"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="214"/>
-      <c r="H9" s="223">
+      <c r="D9" s="180"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="181">
         <f>H8</f>
-        <v>1800</v>
-      </c>
-      <c r="I9" s="186"/>
-      <c r="J9" s="214"/>
-      <c r="K9" s="214"/>
-      <c r="L9" s="186"/>
-      <c r="M9" s="214">
+        <v>900</v>
+      </c>
+      <c r="I9" s="153"/>
+      <c r="J9" s="172"/>
+      <c r="K9" s="172"/>
+      <c r="L9" s="153"/>
+      <c r="M9" s="172">
         <f>M8</f>
         <v>10</v>
       </c>
-      <c r="N9" s="214">
+      <c r="N9" s="172">
         <f>M9</f>
         <v>10</v>
       </c>
-      <c r="O9" s="227"/>
-      <c r="Q9" s="204"/>
-      <c r="R9" s="195" t="s">
+      <c r="Q9" s="164"/>
+      <c r="R9" s="162" t="s">
         <v>324</v>
       </c>
-      <c r="S9" s="188">
+      <c r="S9" s="155">
         <v>60</v>
       </c>
-      <c r="T9" s="150"/>
-      <c r="U9" s="192" t="s">
+      <c r="T9" s="156">
+        <v>120</v>
+      </c>
+      <c r="V9" s="159" t="s">
         <v>362</v>
       </c>
-      <c r="V9" s="193"/>
-      <c r="W9" s="187">
+      <c r="W9" s="160"/>
+      <c r="X9" s="154">
         <v>90</v>
       </c>
-      <c r="X9" s="150"/>
       <c r="Y9" s="150">
         <v>2</v>
       </c>
@@ -8836,34 +10016,35 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="149"/>
-      <c r="B10" s="186"/>
+      <c r="B10" s="153"/>
       <c r="C10" s="149"/>
       <c r="D10" s="149"/>
-      <c r="E10" s="185"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="214"/>
-      <c r="H10" s="214"/>
-      <c r="I10" s="186"/>
-      <c r="J10" s="214"/>
-      <c r="K10" s="221">
+      <c r="E10" s="152"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="172"/>
+      <c r="H10" s="172"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="179">
         <f>H8</f>
-        <v>1800</v>
-      </c>
-      <c r="L10" s="186"/>
-      <c r="M10" s="214"/>
-      <c r="N10" s="214"/>
-      <c r="Q10" s="204"/>
-      <c r="R10" s="195" t="s">
+        <v>900</v>
+      </c>
+      <c r="L10" s="153"/>
+      <c r="M10" s="172"/>
+      <c r="N10" s="172"/>
+      <c r="Q10" s="164"/>
+      <c r="R10" s="162" t="s">
         <v>325</v>
       </c>
-      <c r="S10" s="188">
+      <c r="S10" s="155">
         <v>90</v>
       </c>
-      <c r="T10" s="150"/>
-      <c r="U10" s="192"/>
-      <c r="V10" s="193"/>
-      <c r="W10" s="187"/>
-      <c r="X10" s="150"/>
+      <c r="T10" s="156">
+        <v>180</v>
+      </c>
+      <c r="V10" s="159"/>
+      <c r="W10" s="160"/>
+      <c r="X10" s="154"/>
       <c r="Y10" s="150"/>
       <c r="Z10" s="150"/>
       <c r="AA10" s="150"/>
@@ -8872,160 +10053,164 @@
       <c r="A11" s="148" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="186"/>
+      <c r="B11" s="153"/>
       <c r="C11" s="148" t="s">
         <v>323</v>
       </c>
       <c r="D11" s="149"/>
-      <c r="E11" s="185">
+      <c r="E11" s="152">
         <v>2</v>
       </c>
-      <c r="F11" s="186"/>
-      <c r="G11" s="214">
+      <c r="F11" s="153"/>
+      <c r="G11" s="172">
         <f>J8</f>
+        <v>900</v>
+      </c>
+      <c r="H11" s="172">
+        <f>G11*E11</f>
         <v>1800</v>
       </c>
-      <c r="H11" s="214">
-        <f>G11*E11</f>
-        <v>3600</v>
-      </c>
-      <c r="I11" s="186"/>
-      <c r="J11" s="214">
-        <f>W8*S9</f>
-        <v>60</v>
-      </c>
-      <c r="K11" s="214"/>
-      <c r="L11" s="186"/>
-      <c r="M11" s="214">
-        <f>S9+M8*E11</f>
-        <v>80</v>
-      </c>
-      <c r="N11" s="214"/>
-      <c r="Q11" s="204"/>
-      <c r="R11" s="195" t="s">
+      <c r="I11" s="153"/>
+      <c r="J11" s="172">
+        <f>X8*S9</f>
+        <v>15000</v>
+      </c>
+      <c r="K11" s="172"/>
+      <c r="L11" s="153"/>
+      <c r="M11" s="172">
+        <f>IF(X22="true", S9+S8*E11, T9+T8*E11)</f>
+        <v>130</v>
+      </c>
+      <c r="N11" s="172"/>
+      <c r="Q11" s="164"/>
+      <c r="R11" s="162" t="s">
         <v>326</v>
       </c>
-      <c r="S11" s="188">
+      <c r="S11" s="155">
         <v>120</v>
       </c>
-      <c r="T11" s="150"/>
-      <c r="U11" s="193"/>
-      <c r="V11" s="193"/>
-      <c r="W11" s="187"/>
-      <c r="X11" s="150"/>
+      <c r="T11" s="156">
+        <v>240</v>
+      </c>
+      <c r="V11" s="160"/>
+      <c r="W11" s="160"/>
+      <c r="X11" s="154"/>
       <c r="Y11" s="150"/>
       <c r="Z11" s="150"/>
       <c r="AA11" s="150"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="149"/>
-      <c r="B12" s="186"/>
+      <c r="B12" s="153"/>
       <c r="C12" s="148"/>
       <c r="D12" s="149"/>
-      <c r="E12" s="185"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="218"/>
-      <c r="H12" s="219">
+      <c r="E12" s="152"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="177">
         <f>G12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="186"/>
-      <c r="J12" s="214">
+      <c r="I12" s="153"/>
+      <c r="J12" s="172">
         <f>J11+H13</f>
-        <v>3660</v>
-      </c>
-      <c r="K12" s="214"/>
-      <c r="L12" s="186"/>
-      <c r="M12" s="219">
+        <v>16800</v>
+      </c>
+      <c r="K12" s="172"/>
+      <c r="L12" s="153"/>
+      <c r="M12" s="177">
         <v>0</v>
       </c>
-      <c r="N12" s="219"/>
-      <c r="Q12" s="204"/>
-      <c r="R12" s="195" t="s">
+      <c r="N12" s="177"/>
+      <c r="Q12" s="164"/>
+      <c r="R12" s="162" t="s">
         <v>327</v>
       </c>
-      <c r="S12" s="188">
+      <c r="S12" s="155">
         <v>150</v>
       </c>
-      <c r="T12" s="150"/>
-      <c r="U12" s="193"/>
-      <c r="V12" s="193"/>
-      <c r="W12" s="187"/>
-      <c r="X12" s="150"/>
+      <c r="T12" s="156">
+        <v>300</v>
+      </c>
+      <c r="V12" s="160"/>
+      <c r="W12" s="160"/>
+      <c r="X12" s="154"/>
       <c r="Y12" s="150"/>
       <c r="Z12" s="150"/>
       <c r="AA12" s="150"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="149"/>
-      <c r="B13" s="186"/>
+      <c r="B13" s="153"/>
       <c r="C13" s="149"/>
       <c r="D13" s="149"/>
-      <c r="E13" s="185"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="214"/>
-      <c r="H13" s="214">
+      <c r="E13" s="152"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="172"/>
+      <c r="H13" s="172">
         <f>H11+H12</f>
-        <v>3600</v>
-      </c>
-      <c r="I13" s="186"/>
-      <c r="J13" s="213"/>
-      <c r="K13" s="221">
+        <v>1800</v>
+      </c>
+      <c r="I13" s="153"/>
+      <c r="J13" s="171"/>
+      <c r="K13" s="179">
         <f>K10+J12</f>
-        <v>5460</v>
-      </c>
-      <c r="L13" s="186"/>
-      <c r="M13" s="213">
+        <v>17700</v>
+      </c>
+      <c r="L13" s="153"/>
+      <c r="M13" s="171">
         <f>M11+M12</f>
-        <v>80</v>
-      </c>
-      <c r="N13" s="214">
+        <v>130</v>
+      </c>
+      <c r="N13" s="172">
         <f>N9+M13</f>
-        <v>90</v>
-      </c>
-      <c r="Q13" s="204"/>
-      <c r="R13" s="195" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q13" s="164"/>
+      <c r="R13" s="162" t="s">
         <v>328</v>
       </c>
-      <c r="S13" s="188">
+      <c r="S13" s="155">
         <v>180</v>
       </c>
-      <c r="T13" s="150"/>
-      <c r="U13" s="193"/>
-      <c r="V13" s="193"/>
-      <c r="W13" s="187"/>
-      <c r="X13" s="150"/>
+      <c r="T13" s="156">
+        <v>360</v>
+      </c>
+      <c r="V13" s="160"/>
+      <c r="W13" s="160"/>
+      <c r="X13" s="154"/>
       <c r="Y13" s="150"/>
       <c r="Z13" s="150"/>
       <c r="AA13" s="150"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="149"/>
-      <c r="B14" s="186"/>
+      <c r="B14" s="153"/>
       <c r="C14" s="149"/>
       <c r="D14" s="149"/>
-      <c r="E14" s="185"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="214"/>
-      <c r="H14" s="213"/>
-      <c r="I14" s="186"/>
-      <c r="J14" s="214"/>
-      <c r="K14" s="214"/>
-      <c r="L14" s="186"/>
-      <c r="M14" s="214"/>
-      <c r="N14" s="214"/>
-      <c r="Q14" s="204"/>
-      <c r="R14" s="195" t="s">
+      <c r="E14" s="152"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="172"/>
+      <c r="H14" s="171"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="172"/>
+      <c r="K14" s="172"/>
+      <c r="L14" s="153"/>
+      <c r="M14" s="172"/>
+      <c r="N14" s="172"/>
+      <c r="Q14" s="164"/>
+      <c r="R14" s="162" t="s">
         <v>329</v>
       </c>
-      <c r="S14" s="188">
+      <c r="S14" s="155">
         <v>210</v>
       </c>
-      <c r="T14" s="150"/>
-      <c r="U14" s="193"/>
-      <c r="V14" s="193"/>
-      <c r="W14" s="187"/>
-      <c r="X14" s="150"/>
+      <c r="T14" s="156">
+        <v>420</v>
+      </c>
+      <c r="V14" s="160"/>
+      <c r="W14" s="160"/>
+      <c r="X14" s="154"/>
       <c r="Y14" s="150"/>
       <c r="Z14" s="150"/>
       <c r="AA14" s="150"/>
@@ -9034,161 +10219,163 @@
       <c r="A15" s="149" t="s">
         <v>325</v>
       </c>
-      <c r="B15" s="186"/>
+      <c r="B15" s="153"/>
       <c r="C15" s="149" t="s">
         <v>324</v>
       </c>
       <c r="D15" s="149"/>
-      <c r="E15" s="185">
+      <c r="E15" s="152">
         <v>2</v>
       </c>
-      <c r="F15" s="186"/>
-      <c r="G15" s="214">
+      <c r="F15" s="153"/>
+      <c r="G15" s="172">
         <f>J12</f>
-        <v>3660</v>
-      </c>
-      <c r="H15" s="214">
+        <v>16800</v>
+      </c>
+      <c r="H15" s="172">
         <f>G15*E15</f>
-        <v>7320</v>
-      </c>
-      <c r="I15" s="186"/>
-      <c r="J15" s="214">
-        <f>W8*S10</f>
-        <v>90</v>
-      </c>
-      <c r="K15" s="214"/>
-      <c r="L15" s="186"/>
-      <c r="M15" s="214">
-        <f>S10+S9*E15</f>
-        <v>210</v>
-      </c>
-      <c r="N15" s="214"/>
-      <c r="Q15" s="204"/>
-      <c r="R15" s="195" t="s">
+        <v>33600</v>
+      </c>
+      <c r="I15" s="153"/>
+      <c r="J15" s="172">
+        <f>X8*S10</f>
+        <v>22500</v>
+      </c>
+      <c r="K15" s="172"/>
+      <c r="L15" s="153"/>
+      <c r="M15" s="172">
+        <f>IF(X22="true", S10+S9*E15, T10+T9*E15)</f>
+        <v>420</v>
+      </c>
+      <c r="N15" s="172"/>
+      <c r="Q15" s="164"/>
+      <c r="R15" s="162" t="s">
         <v>330</v>
       </c>
-      <c r="S15" s="188">
+      <c r="S15" s="155">
         <v>240</v>
       </c>
-      <c r="T15" s="150"/>
-      <c r="U15" s="192"/>
-      <c r="V15" s="193"/>
-      <c r="W15" s="187"/>
-      <c r="X15" s="150"/>
+      <c r="T15" s="156">
+        <v>480</v>
+      </c>
+      <c r="V15" s="159"/>
+      <c r="W15" s="160"/>
+      <c r="X15" s="154"/>
       <c r="Y15" s="150"/>
       <c r="Z15" s="150"/>
       <c r="AA15" s="150"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="149"/>
-      <c r="B16" s="186"/>
+      <c r="B16" s="153"/>
       <c r="C16" s="149"/>
       <c r="D16" s="149"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="186"/>
-      <c r="G16" s="218"/>
-      <c r="H16" s="213">
+      <c r="E16" s="152"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="171">
         <f>G16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="186"/>
-      <c r="J16" s="214">
+      <c r="I16" s="153"/>
+      <c r="J16" s="172">
         <f>J15+H17</f>
-        <v>7410</v>
-      </c>
-      <c r="K16" s="214"/>
-      <c r="L16" s="186"/>
-      <c r="M16" s="219">
+        <v>56100</v>
+      </c>
+      <c r="K16" s="172"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="177">
         <v>0</v>
       </c>
-      <c r="N16" s="219"/>
-      <c r="Q16" s="204"/>
-      <c r="R16" s="195" t="s">
+      <c r="N16" s="177"/>
+      <c r="Q16" s="164"/>
+      <c r="R16" s="162" t="s">
         <v>331</v>
       </c>
-      <c r="S16" s="188">
+      <c r="S16" s="155">
         <v>270</v>
       </c>
-      <c r="T16" s="150"/>
-      <c r="U16" s="193"/>
-      <c r="V16" s="193"/>
-      <c r="W16" s="187"/>
-      <c r="X16" s="150"/>
+      <c r="T16" s="156">
+        <v>540</v>
+      </c>
+      <c r="V16" s="160"/>
+      <c r="W16" s="160"/>
+      <c r="X16" s="154"/>
       <c r="Y16" s="150"/>
       <c r="Z16" s="150"/>
       <c r="AA16" s="150"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="149"/>
-      <c r="B17" s="186"/>
+      <c r="B17" s="153"/>
       <c r="C17" s="149"/>
       <c r="D17" s="149"/>
-      <c r="E17" s="185"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="214"/>
-      <c r="H17" s="223">
+      <c r="E17" s="152"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="172"/>
+      <c r="H17" s="181">
         <f>H15+H16</f>
-        <v>7320</v>
-      </c>
-      <c r="I17" s="186"/>
-      <c r="J17" s="214"/>
-      <c r="K17" s="221">
+        <v>33600</v>
+      </c>
+      <c r="I17" s="153"/>
+      <c r="J17" s="172"/>
+      <c r="K17" s="179">
         <f>K13+J16</f>
-        <v>12870</v>
-      </c>
-      <c r="L17" s="186"/>
-      <c r="M17" s="214">
+        <v>73800</v>
+      </c>
+      <c r="L17" s="153"/>
+      <c r="M17" s="172">
         <f>M15+M16</f>
-        <v>210</v>
-      </c>
-      <c r="N17" s="214">
+        <v>420</v>
+      </c>
+      <c r="N17" s="172">
         <f>N13+M17</f>
+        <v>560</v>
+      </c>
+      <c r="Q17" s="164"/>
+      <c r="R17" s="162" t="s">
+        <v>332</v>
+      </c>
+      <c r="S17" s="155">
         <v>300</v>
       </c>
-      <c r="Q17" s="204"/>
-      <c r="R17" s="195" t="s">
-        <v>332</v>
-      </c>
-      <c r="S17" s="188">
-        <v>300</v>
-      </c>
-      <c r="T17" s="150"/>
-      <c r="U17" s="193"/>
-      <c r="V17" s="193"/>
-      <c r="W17" s="187"/>
-      <c r="X17" s="150"/>
+      <c r="T17" s="156">
+        <v>600</v>
+      </c>
+      <c r="V17" s="160"/>
+      <c r="W17" s="160"/>
+      <c r="X17" s="154"/>
       <c r="Y17" s="150"/>
       <c r="Z17" s="150"/>
       <c r="AA17" s="150"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="149"/>
-      <c r="B18" s="186"/>
+      <c r="B18" s="153"/>
       <c r="C18" s="149"/>
       <c r="D18" s="149"/>
-      <c r="E18" s="185"/>
-      <c r="F18" s="186"/>
-      <c r="G18" s="214"/>
-      <c r="H18" s="214"/>
-      <c r="I18" s="186"/>
-      <c r="J18" s="214"/>
-      <c r="K18" s="214"/>
-      <c r="L18" s="186"/>
-      <c r="M18" s="214"/>
-      <c r="N18" s="214"/>
-      <c r="Q18" s="204"/>
-      <c r="R18" s="195"/>
-      <c r="S18" s="191">
+      <c r="E18" s="152"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="172"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="172"/>
+      <c r="N18" s="172"/>
+      <c r="Q18" s="164"/>
+      <c r="R18" s="162"/>
+      <c r="S18" s="158">
         <f>(S9+S10+S11+S12+S13+S14+S15+S16+S17)/60</f>
         <v>27</v>
       </c>
-      <c r="T18" s="119" t="s">
+      <c r="T18" s="158" t="s">
         <v>394</v>
       </c>
-      <c r="U18" s="193"/>
-      <c r="V18" s="193"/>
-      <c r="W18" s="187"/>
-      <c r="X18" s="150"/>
+      <c r="V18" s="160"/>
+      <c r="W18" s="160"/>
+      <c r="X18" s="154"/>
       <c r="Y18" s="150"/>
       <c r="Z18" s="150"/>
       <c r="AA18" s="150"/>
@@ -9197,40 +10384,39 @@
       <c r="A19" s="148" t="s">
         <v>326</v>
       </c>
-      <c r="B19" s="186"/>
+      <c r="B19" s="153"/>
       <c r="C19" s="148" t="s">
         <v>325</v>
       </c>
       <c r="D19" s="149"/>
-      <c r="E19" s="185">
+      <c r="E19" s="152">
         <v>2</v>
       </c>
-      <c r="F19" s="186"/>
-      <c r="G19" s="214">
+      <c r="F19" s="153"/>
+      <c r="G19" s="172">
         <f>J16</f>
-        <v>7410</v>
-      </c>
-      <c r="H19" s="214">
+        <v>56100</v>
+      </c>
+      <c r="H19" s="172">
         <f>G19*E19</f>
-        <v>14820</v>
-      </c>
-      <c r="I19" s="186"/>
-      <c r="J19" s="214">
-        <f>W8*S11</f>
-        <v>120</v>
-      </c>
-      <c r="K19" s="214"/>
-      <c r="L19" s="186"/>
-      <c r="M19" s="214">
-        <f>S11+S10*E19</f>
-        <v>300</v>
-      </c>
-      <c r="N19" s="214"/>
-      <c r="Q19" s="204"/>
-      <c r="R19" s="195"/>
-      <c r="S19" s="189"/>
-      <c r="T19" s="150"/>
-      <c r="U19" s="150"/>
+        <v>112200</v>
+      </c>
+      <c r="I19" s="153"/>
+      <c r="J19" s="172">
+        <f>X8*S11</f>
+        <v>30000</v>
+      </c>
+      <c r="K19" s="172"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="172">
+        <f>IF(X22="true", S11+S10*E19, T11+T10*E19)</f>
+        <v>600</v>
+      </c>
+      <c r="N19" s="172"/>
+      <c r="Q19" s="164"/>
+      <c r="R19" s="162"/>
+      <c r="S19" s="156"/>
+      <c r="T19" s="156"/>
       <c r="V19" s="150"/>
       <c r="W19" s="150"/>
       <c r="X19" s="150"/>
@@ -9240,35 +10426,36 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="149"/>
-      <c r="B20" s="186"/>
+      <c r="B20" s="153"/>
       <c r="C20" s="148"/>
       <c r="D20" s="149"/>
-      <c r="E20" s="185"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="214"/>
-      <c r="H20" s="214">
+      <c r="E20" s="152"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="172">
         <f>G20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="186"/>
-      <c r="J20" s="214">
+      <c r="I20" s="153"/>
+      <c r="J20" s="172">
         <f>J19+H21</f>
-        <v>14940</v>
-      </c>
-      <c r="K20" s="214"/>
-      <c r="L20" s="186"/>
-      <c r="M20" s="219">
+        <v>142200</v>
+      </c>
+      <c r="K20" s="172"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="177">
         <v>0</v>
       </c>
-      <c r="N20" s="219"/>
-      <c r="Q20" s="204"/>
-      <c r="R20" s="194" t="s">
+      <c r="N20" s="177"/>
+      <c r="Q20" s="164"/>
+      <c r="R20" s="161" t="s">
         <v>348</v>
       </c>
-      <c r="S20" s="189"/>
-      <c r="T20" s="150"/>
-      <c r="U20" s="150"/>
-      <c r="V20" s="150"/>
+      <c r="S20" s="156"/>
+      <c r="T20" s="156"/>
+      <c r="V20" s="228" t="s">
+        <v>399</v>
+      </c>
       <c r="W20" s="150"/>
       <c r="X20" s="150"/>
       <c r="Y20" s="150"/>
@@ -9277,38 +10464,37 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="149"/>
-      <c r="B21" s="186"/>
+      <c r="B21" s="153"/>
       <c r="C21" s="149"/>
       <c r="D21" s="149"/>
-      <c r="E21" s="185"/>
-      <c r="F21" s="186"/>
-      <c r="G21" s="214"/>
-      <c r="H21" s="223">
+      <c r="E21" s="152"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="172"/>
+      <c r="H21" s="181">
         <f>H19+H20</f>
-        <v>14820</v>
-      </c>
-      <c r="I21" s="186"/>
-      <c r="J21" s="214"/>
-      <c r="K21" s="221">
+        <v>112200</v>
+      </c>
+      <c r="I21" s="153"/>
+      <c r="J21" s="172"/>
+      <c r="K21" s="179">
         <f>K17+J20</f>
-        <v>27810</v>
-      </c>
-      <c r="L21" s="186"/>
-      <c r="M21" s="213">
+        <v>216000</v>
+      </c>
+      <c r="L21" s="153"/>
+      <c r="M21" s="171">
         <f>M19+M20</f>
-        <v>300</v>
-      </c>
-      <c r="N21" s="213">
+        <v>600</v>
+      </c>
+      <c r="N21" s="171">
         <f>M21+N17</f>
-        <v>600</v>
-      </c>
-      <c r="Q21" s="204"/>
-      <c r="R21" s="194" t="s">
+        <v>1160</v>
+      </c>
+      <c r="Q21" s="164"/>
+      <c r="R21" s="161" t="s">
         <v>349</v>
       </c>
-      <c r="S21" s="189"/>
-      <c r="T21" s="150"/>
-      <c r="U21" s="150"/>
+      <c r="S21" s="156"/>
+      <c r="T21" s="156"/>
       <c r="V21" s="150"/>
       <c r="W21" s="150"/>
       <c r="X21" s="150"/>
@@ -9318,29 +10504,32 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="149"/>
-      <c r="B22" s="186"/>
+      <c r="B22" s="153"/>
       <c r="C22" s="149"/>
       <c r="D22" s="149"/>
-      <c r="E22" s="185"/>
-      <c r="F22" s="186"/>
-      <c r="G22" s="214"/>
-      <c r="H22" s="214"/>
-      <c r="I22" s="186"/>
-      <c r="J22" s="214"/>
-      <c r="K22" s="214"/>
-      <c r="L22" s="186"/>
-      <c r="M22" s="214"/>
-      <c r="N22" s="214"/>
-      <c r="Q22" s="204"/>
-      <c r="R22" s="194" t="s">
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="172"/>
+      <c r="H22" s="172"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="172"/>
+      <c r="K22" s="172"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="172"/>
+      <c r="N22" s="172"/>
+      <c r="Q22" s="164"/>
+      <c r="R22" s="161" t="s">
         <v>350</v>
       </c>
-      <c r="S22" s="189"/>
-      <c r="T22" s="150"/>
-      <c r="U22" s="150"/>
-      <c r="V22" s="150"/>
+      <c r="S22" s="156"/>
+      <c r="T22" s="156"/>
+      <c r="V22" s="119" t="s">
+        <v>400</v>
+      </c>
       <c r="W22" s="150"/>
-      <c r="X22" s="150"/>
+      <c r="X22" s="119" t="s">
+        <v>401</v>
+      </c>
       <c r="Y22" s="150"/>
       <c r="Z22" s="150"/>
       <c r="AA22" s="150"/>
@@ -9349,78 +10538,78 @@
       <c r="A23" s="148" t="s">
         <v>327</v>
       </c>
-      <c r="B23" s="186"/>
+      <c r="B23" s="153"/>
       <c r="C23" s="148" t="s">
         <v>326</v>
       </c>
       <c r="D23" s="149"/>
-      <c r="E23" s="185">
+      <c r="E23" s="152">
         <v>2</v>
       </c>
-      <c r="F23" s="186"/>
-      <c r="G23" s="214">
+      <c r="F23" s="153"/>
+      <c r="G23" s="172">
         <f>J20</f>
-        <v>14940</v>
-      </c>
-      <c r="H23" s="214">
+        <v>142200</v>
+      </c>
+      <c r="H23" s="172">
         <f>G23*E23</f>
-        <v>29880</v>
-      </c>
-      <c r="I23" s="186"/>
-      <c r="J23" s="214">
-        <f>W8*S12</f>
-        <v>150</v>
-      </c>
-      <c r="K23" s="185"/>
-      <c r="L23" s="224"/>
-      <c r="M23" s="214">
-        <f>S12+S11*E23</f>
-        <v>390</v>
-      </c>
-      <c r="N23" s="185"/>
-      <c r="Q23" s="204"/>
-      <c r="R23" s="194" t="s">
+        <v>284400</v>
+      </c>
+      <c r="I23" s="153"/>
+      <c r="J23" s="172">
+        <f>X8*S12</f>
+        <v>37500</v>
+      </c>
+      <c r="K23" s="152"/>
+      <c r="L23" s="182"/>
+      <c r="M23" s="172">
+        <f>IF(X22="true", S12+S11*E23, T12+T11*E23)</f>
+        <v>780</v>
+      </c>
+      <c r="N23" s="152"/>
+      <c r="Q23" s="164"/>
+      <c r="R23" s="161" t="s">
         <v>351</v>
       </c>
-      <c r="S23" s="189"/>
-      <c r="T23" s="150"/>
+      <c r="S23" s="156"/>
+      <c r="T23" s="156"/>
       <c r="U23" s="150"/>
       <c r="V23" s="150"/>
       <c r="W23" s="150"/>
-      <c r="X23" s="150"/>
+      <c r="X23" s="119"/>
       <c r="Y23" s="150"/>
       <c r="Z23" s="150"/>
       <c r="AA23" s="150"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="149"/>
-      <c r="B24" s="186"/>
+      <c r="B24" s="153"/>
       <c r="C24" s="148"/>
       <c r="D24" s="149"/>
-      <c r="E24" s="185"/>
-      <c r="F24" s="186"/>
-      <c r="G24" s="214"/>
-      <c r="H24" s="219">
+      <c r="E24" s="152"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="177">
         <f>G24</f>
         <v>0</v>
       </c>
-      <c r="I24" s="186"/>
-      <c r="J24" s="214">
+      <c r="I24" s="153"/>
+      <c r="J24" s="172">
         <f>J23+H25</f>
-        <v>30030</v>
-      </c>
-      <c r="K24" s="214"/>
-      <c r="L24" s="186"/>
-      <c r="M24" s="219">
+        <v>321900</v>
+      </c>
+      <c r="K24" s="172"/>
+      <c r="L24" s="153"/>
+      <c r="M24" s="177">
         <v>0</v>
       </c>
-      <c r="N24" s="219"/>
-      <c r="Q24" s="204"/>
-      <c r="R24" s="194" t="s">
+      <c r="N24" s="177"/>
+      <c r="Q24" s="164"/>
+      <c r="R24" s="161" t="s">
         <v>352</v>
       </c>
-      <c r="S24" s="189"/>
-      <c r="T24" s="150"/>
+      <c r="S24" s="156"/>
+      <c r="T24" s="156"/>
       <c r="U24" s="150"/>
       <c r="V24" s="150"/>
       <c r="W24" s="150"/>
@@ -9431,37 +10620,37 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="149"/>
-      <c r="B25" s="186"/>
+      <c r="B25" s="153"/>
       <c r="C25" s="149"/>
       <c r="D25" s="149"/>
-      <c r="E25" s="185"/>
-      <c r="F25" s="186"/>
-      <c r="G25" s="214"/>
-      <c r="H25" s="214">
+      <c r="E25" s="152"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="172"/>
+      <c r="H25" s="172">
         <f>H24+H23</f>
-        <v>29880</v>
-      </c>
-      <c r="I25" s="186"/>
-      <c r="J25" s="214"/>
-      <c r="K25" s="221">
+        <v>284400</v>
+      </c>
+      <c r="I25" s="153"/>
+      <c r="J25" s="172"/>
+      <c r="K25" s="179">
         <f>K21+J24</f>
-        <v>57840</v>
-      </c>
-      <c r="L25" s="186"/>
-      <c r="M25" s="214">
+        <v>537900</v>
+      </c>
+      <c r="L25" s="153"/>
+      <c r="M25" s="172">
         <f>M24+M23</f>
-        <v>390</v>
-      </c>
-      <c r="N25" s="214">
+        <v>780</v>
+      </c>
+      <c r="N25" s="172">
         <f>N21+M25</f>
-        <v>990</v>
-      </c>
-      <c r="Q25" s="204"/>
-      <c r="R25" s="194" t="s">
+        <v>1940</v>
+      </c>
+      <c r="Q25" s="164"/>
+      <c r="R25" s="161" t="s">
         <v>353</v>
       </c>
-      <c r="S25" s="189"/>
-      <c r="T25" s="150"/>
+      <c r="S25" s="156"/>
+      <c r="T25" s="156"/>
       <c r="U25" s="150"/>
       <c r="V25" s="150"/>
       <c r="W25" s="150"/>
@@ -9472,25 +10661,25 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="149"/>
-      <c r="B26" s="186"/>
+      <c r="B26" s="153"/>
       <c r="C26" s="149"/>
       <c r="D26" s="149"/>
-      <c r="E26" s="185"/>
-      <c r="F26" s="186"/>
-      <c r="G26" s="214"/>
-      <c r="H26" s="214"/>
-      <c r="I26" s="186"/>
-      <c r="J26" s="214"/>
-      <c r="K26" s="214"/>
-      <c r="L26" s="186"/>
-      <c r="M26" s="214"/>
-      <c r="N26" s="214"/>
-      <c r="Q26" s="204"/>
-      <c r="R26" s="194" t="s">
+      <c r="E26" s="152"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="172"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="172"/>
+      <c r="K26" s="172"/>
+      <c r="L26" s="153"/>
+      <c r="M26" s="172"/>
+      <c r="N26" s="172"/>
+      <c r="Q26" s="164"/>
+      <c r="R26" s="161" t="s">
         <v>354</v>
       </c>
-      <c r="S26" s="189"/>
-      <c r="T26" s="150"/>
+      <c r="S26" s="156"/>
+      <c r="T26" s="156"/>
       <c r="U26" s="150"/>
       <c r="V26" s="150"/>
       <c r="W26" s="150"/>
@@ -9503,41 +10692,41 @@
       <c r="A27" s="148" t="s">
         <v>328</v>
       </c>
-      <c r="B27" s="186"/>
+      <c r="B27" s="153"/>
       <c r="C27" s="148" t="s">
         <v>327</v>
       </c>
       <c r="D27" s="149"/>
-      <c r="E27" s="185">
+      <c r="E27" s="152">
         <v>2</v>
       </c>
-      <c r="F27" s="186"/>
-      <c r="G27" s="214">
+      <c r="F27" s="153"/>
+      <c r="G27" s="172">
         <f>H25</f>
-        <v>29880</v>
-      </c>
-      <c r="H27" s="214">
+        <v>284400</v>
+      </c>
+      <c r="H27" s="172">
         <f>G27*E27</f>
-        <v>59760</v>
-      </c>
-      <c r="I27" s="186"/>
-      <c r="J27" s="214">
-        <f>W8*S13</f>
-        <v>180</v>
-      </c>
-      <c r="K27" s="214"/>
-      <c r="L27" s="186"/>
-      <c r="M27" s="214">
-        <f>S13+S12*E27</f>
-        <v>480</v>
-      </c>
-      <c r="N27" s="214"/>
-      <c r="Q27" s="204"/>
-      <c r="R27" s="194" t="s">
+        <v>568800</v>
+      </c>
+      <c r="I27" s="153"/>
+      <c r="J27" s="172">
+        <f>X8*S13</f>
+        <v>45000</v>
+      </c>
+      <c r="K27" s="172"/>
+      <c r="L27" s="153"/>
+      <c r="M27" s="172">
+        <f>IF(X22="true", S13+S12*E27, T13+T12*E27)</f>
+        <v>960</v>
+      </c>
+      <c r="N27" s="172"/>
+      <c r="Q27" s="164"/>
+      <c r="R27" s="161" t="s">
         <v>355</v>
       </c>
-      <c r="S27" s="189"/>
-      <c r="T27" s="150"/>
+      <c r="S27" s="156"/>
+      <c r="T27" s="156"/>
       <c r="U27" s="150"/>
       <c r="V27" s="150"/>
       <c r="W27" s="150"/>
@@ -9548,33 +10737,33 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="149"/>
-      <c r="B28" s="186"/>
+      <c r="B28" s="153"/>
       <c r="C28" s="148"/>
       <c r="D28" s="149"/>
-      <c r="E28" s="185"/>
-      <c r="F28" s="186"/>
-      <c r="G28" s="214"/>
-      <c r="H28" s="219">
+      <c r="E28" s="152"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="177">
         <f>G28</f>
         <v>0</v>
       </c>
-      <c r="I28" s="186"/>
-      <c r="J28" s="214">
+      <c r="I28" s="153"/>
+      <c r="J28" s="172">
         <f>J27+H29</f>
-        <v>59940</v>
-      </c>
-      <c r="K28" s="214"/>
-      <c r="L28" s="186"/>
-      <c r="M28" s="219">
+        <v>613800</v>
+      </c>
+      <c r="K28" s="172"/>
+      <c r="L28" s="153"/>
+      <c r="M28" s="177">
         <v>0</v>
       </c>
-      <c r="N28" s="219"/>
-      <c r="Q28" s="204"/>
-      <c r="R28" s="194" t="s">
+      <c r="N28" s="177"/>
+      <c r="Q28" s="164"/>
+      <c r="R28" s="161" t="s">
         <v>356</v>
       </c>
-      <c r="S28" s="189"/>
-      <c r="T28" s="150"/>
+      <c r="S28" s="156"/>
+      <c r="T28" s="156"/>
       <c r="U28" s="150"/>
       <c r="V28" s="150"/>
       <c r="W28" s="150"/>
@@ -9585,37 +10774,37 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="149"/>
-      <c r="B29" s="186"/>
+      <c r="B29" s="153"/>
       <c r="C29" s="149"/>
       <c r="D29" s="149"/>
-      <c r="E29" s="185"/>
-      <c r="F29" s="186"/>
-      <c r="G29" s="214"/>
-      <c r="H29" s="214">
+      <c r="E29" s="152"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="172"/>
+      <c r="H29" s="172">
         <f>H28+H27</f>
-        <v>59760</v>
-      </c>
-      <c r="I29" s="186"/>
-      <c r="J29" s="214"/>
-      <c r="K29" s="221">
+        <v>568800</v>
+      </c>
+      <c r="I29" s="153"/>
+      <c r="J29" s="172"/>
+      <c r="K29" s="179">
         <f>K25+J28</f>
-        <v>117780</v>
-      </c>
-      <c r="L29" s="186"/>
-      <c r="M29" s="214">
+        <v>1151700</v>
+      </c>
+      <c r="L29" s="153"/>
+      <c r="M29" s="172">
         <f>M27+M28</f>
-        <v>480</v>
-      </c>
-      <c r="N29" s="214">
+        <v>960</v>
+      </c>
+      <c r="N29" s="172">
         <f>N25+M29</f>
-        <v>1470</v>
-      </c>
-      <c r="Q29" s="204"/>
-      <c r="R29" s="194" t="s">
+        <v>2900</v>
+      </c>
+      <c r="Q29" s="164"/>
+      <c r="R29" s="161" t="s">
         <v>357</v>
       </c>
-      <c r="S29" s="189"/>
-      <c r="T29" s="150"/>
+      <c r="S29" s="156"/>
+      <c r="T29" s="156"/>
       <c r="U29" s="150"/>
       <c r="V29" s="150"/>
       <c r="W29" s="150"/>
@@ -9626,23 +10815,23 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="149"/>
-      <c r="B30" s="186"/>
+      <c r="B30" s="153"/>
       <c r="C30" s="149"/>
       <c r="D30" s="149"/>
-      <c r="E30" s="185"/>
-      <c r="F30" s="186"/>
-      <c r="G30" s="214"/>
-      <c r="H30" s="214"/>
-      <c r="I30" s="186"/>
-      <c r="J30" s="214"/>
-      <c r="K30" s="214"/>
-      <c r="L30" s="186"/>
-      <c r="M30" s="214"/>
-      <c r="N30" s="214"/>
-      <c r="Q30" s="204"/>
-      <c r="R30" s="195"/>
-      <c r="S30" s="189"/>
-      <c r="T30" s="150"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="172"/>
+      <c r="H30" s="172"/>
+      <c r="I30" s="153"/>
+      <c r="J30" s="172"/>
+      <c r="K30" s="172"/>
+      <c r="L30" s="153"/>
+      <c r="M30" s="172"/>
+      <c r="N30" s="172"/>
+      <c r="Q30" s="164"/>
+      <c r="R30" s="162"/>
+      <c r="S30" s="156"/>
+      <c r="T30" s="156"/>
       <c r="U30" s="150"/>
       <c r="V30" s="150"/>
       <c r="W30" s="150"/>
@@ -9655,39 +10844,39 @@
       <c r="A31" s="148" t="s">
         <v>329</v>
       </c>
-      <c r="B31" s="186"/>
+      <c r="B31" s="153"/>
       <c r="C31" s="148" t="s">
         <v>328</v>
       </c>
       <c r="D31" s="149"/>
-      <c r="E31" s="185">
+      <c r="E31" s="152">
         <v>2</v>
       </c>
-      <c r="F31" s="186"/>
-      <c r="G31" s="214">
+      <c r="F31" s="153"/>
+      <c r="G31" s="172">
         <f>J28</f>
-        <v>59940</v>
-      </c>
-      <c r="H31" s="214">
+        <v>613800</v>
+      </c>
+      <c r="H31" s="172">
         <f>G31*E31</f>
-        <v>119880</v>
-      </c>
-      <c r="I31" s="186"/>
-      <c r="J31" s="214">
-        <f>W8*S14</f>
-        <v>210</v>
-      </c>
-      <c r="K31" s="214"/>
-      <c r="L31" s="186"/>
-      <c r="M31" s="214">
-        <f>S14+S13*E31</f>
-        <v>570</v>
-      </c>
-      <c r="N31" s="214"/>
-      <c r="Q31" s="204"/>
-      <c r="R31" s="194"/>
-      <c r="S31" s="188"/>
-      <c r="T31" s="150"/>
+        <v>1227600</v>
+      </c>
+      <c r="I31" s="153"/>
+      <c r="J31" s="172">
+        <f>X8*S14</f>
+        <v>52500</v>
+      </c>
+      <c r="K31" s="172"/>
+      <c r="L31" s="153"/>
+      <c r="M31" s="172">
+        <f>IF(X22="true", S14+S13*E31, T14+T13*E31)</f>
+        <v>1140</v>
+      </c>
+      <c r="N31" s="172"/>
+      <c r="Q31" s="164"/>
+      <c r="R31" s="161"/>
+      <c r="S31" s="155"/>
+      <c r="T31" s="156"/>
       <c r="U31" s="150"/>
       <c r="V31" s="150"/>
       <c r="W31" s="150"/>
@@ -9698,26 +10887,26 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="149"/>
-      <c r="B32" s="186"/>
+      <c r="B32" s="153"/>
       <c r="C32" s="149"/>
       <c r="D32" s="149"/>
-      <c r="E32" s="185"/>
-      <c r="F32" s="186"/>
-      <c r="G32" s="214"/>
-      <c r="H32" s="219">
+      <c r="E32" s="152"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="177">
         <v>0</v>
       </c>
-      <c r="I32" s="186"/>
-      <c r="J32" s="214">
+      <c r="I32" s="153"/>
+      <c r="J32" s="172">
         <f>J31+H33</f>
-        <v>120090</v>
-      </c>
-      <c r="K32" s="214"/>
-      <c r="L32" s="186"/>
-      <c r="M32" s="219">
+        <v>1280100</v>
+      </c>
+      <c r="K32" s="172"/>
+      <c r="L32" s="153"/>
+      <c r="M32" s="177">
         <v>0</v>
       </c>
-      <c r="N32" s="219"/>
+      <c r="N32" s="177"/>
       <c r="Q32" s="150"/>
       <c r="R32" s="150"/>
       <c r="S32" s="150"/>
@@ -9732,30 +10921,30 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="149"/>
-      <c r="B33" s="186"/>
+      <c r="B33" s="153"/>
       <c r="C33" s="149"/>
       <c r="D33" s="149"/>
-      <c r="E33" s="185"/>
-      <c r="F33" s="186"/>
-      <c r="G33" s="214"/>
-      <c r="H33" s="214">
+      <c r="E33" s="152"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="172"/>
+      <c r="H33" s="172">
         <f>H32+H31</f>
-        <v>119880</v>
-      </c>
-      <c r="I33" s="186"/>
-      <c r="J33" s="214"/>
-      <c r="K33" s="221">
+        <v>1227600</v>
+      </c>
+      <c r="I33" s="153"/>
+      <c r="J33" s="172"/>
+      <c r="K33" s="179">
         <f>K29+J32</f>
-        <v>237870</v>
-      </c>
-      <c r="L33" s="186"/>
-      <c r="M33" s="214">
+        <v>2431800</v>
+      </c>
+      <c r="L33" s="153"/>
+      <c r="M33" s="172">
         <f>M31+M32</f>
-        <v>570</v>
-      </c>
-      <c r="N33" s="214">
+        <v>1140</v>
+      </c>
+      <c r="N33" s="172">
         <f>N29+M33</f>
-        <v>2040</v>
+        <v>4040</v>
       </c>
       <c r="Q33" s="150"/>
       <c r="R33" s="150"/>
@@ -9772,19 +10961,19 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="149"/>
-      <c r="B34" s="186"/>
+      <c r="B34" s="153"/>
       <c r="C34" s="149"/>
       <c r="D34" s="149"/>
-      <c r="E34" s="185"/>
-      <c r="F34" s="186"/>
-      <c r="G34" s="214"/>
-      <c r="H34" s="214"/>
-      <c r="I34" s="186"/>
-      <c r="J34" s="214"/>
-      <c r="K34" s="214"/>
-      <c r="L34" s="186"/>
-      <c r="M34" s="214"/>
-      <c r="N34" s="214"/>
+      <c r="E34" s="152"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="172"/>
+      <c r="H34" s="172"/>
+      <c r="I34" s="153"/>
+      <c r="J34" s="172"/>
+      <c r="K34" s="172"/>
+      <c r="L34" s="153"/>
+      <c r="M34" s="172"/>
+      <c r="N34" s="172"/>
       <c r="Q34" s="150"/>
       <c r="R34" s="150"/>
       <c r="S34" s="150"/>
@@ -9802,35 +10991,35 @@
       <c r="A35" s="148" t="s">
         <v>330</v>
       </c>
-      <c r="B35" s="186"/>
+      <c r="B35" s="153"/>
       <c r="C35" s="148" t="s">
         <v>329</v>
       </c>
       <c r="D35" s="149"/>
-      <c r="E35" s="185">
+      <c r="E35" s="152">
         <v>2</v>
       </c>
-      <c r="F35" s="186"/>
-      <c r="G35" s="214">
+      <c r="F35" s="153"/>
+      <c r="G35" s="172">
         <f>J32</f>
-        <v>120090</v>
-      </c>
-      <c r="H35" s="213">
+        <v>1280100</v>
+      </c>
+      <c r="H35" s="171">
         <f>G35*E35</f>
-        <v>240180</v>
-      </c>
-      <c r="I35" s="186"/>
-      <c r="J35" s="214">
-        <f>W8*S15</f>
-        <v>240</v>
-      </c>
-      <c r="K35" s="214"/>
-      <c r="L35" s="186"/>
-      <c r="M35" s="214">
-        <f>S15+S14*E35</f>
-        <v>660</v>
-      </c>
-      <c r="N35" s="214"/>
+        <v>2560200</v>
+      </c>
+      <c r="I35" s="153"/>
+      <c r="J35" s="172">
+        <f>X8*S15</f>
+        <v>60000</v>
+      </c>
+      <c r="K35" s="172"/>
+      <c r="L35" s="153"/>
+      <c r="M35" s="172">
+        <f>IF(X22="true", S15+S14*E35, T15+T14*E35)</f>
+        <v>1320</v>
+      </c>
+      <c r="N35" s="172"/>
       <c r="Q35" s="150"/>
       <c r="R35" s="150"/>
       <c r="S35" s="150"/>
@@ -9846,368 +11035,371 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="149"/>
-      <c r="B36" s="186"/>
+      <c r="B36" s="153"/>
       <c r="C36" s="149"/>
       <c r="D36" s="149"/>
-      <c r="E36" s="185"/>
-      <c r="F36" s="186"/>
-      <c r="G36" s="214"/>
-      <c r="H36" s="219">
+      <c r="E36" s="152"/>
+      <c r="F36" s="153"/>
+      <c r="G36" s="172"/>
+      <c r="H36" s="177">
         <v>0</v>
       </c>
-      <c r="I36" s="186"/>
-      <c r="J36" s="214">
+      <c r="I36" s="153"/>
+      <c r="J36" s="172">
         <f>J35+H37</f>
-        <v>240420</v>
-      </c>
-      <c r="K36" s="213"/>
-      <c r="L36" s="186"/>
-      <c r="M36" s="219">
+        <v>2620200</v>
+      </c>
+      <c r="K36" s="171"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="177">
         <v>0</v>
       </c>
-      <c r="N36" s="219"/>
+      <c r="N36" s="177"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="149"/>
-      <c r="B37" s="186"/>
+      <c r="B37" s="153"/>
       <c r="C37" s="149"/>
       <c r="D37" s="149"/>
-      <c r="E37" s="185"/>
-      <c r="F37" s="186"/>
-      <c r="G37" s="214"/>
-      <c r="H37" s="214">
+      <c r="E37" s="152"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="172"/>
+      <c r="H37" s="172">
         <f>H36+H35</f>
-        <v>240180</v>
-      </c>
-      <c r="I37" s="186"/>
-      <c r="J37" s="214"/>
-      <c r="K37" s="221">
+        <v>2560200</v>
+      </c>
+      <c r="I37" s="153"/>
+      <c r="J37" s="172"/>
+      <c r="K37" s="179">
         <f>K33+J36</f>
-        <v>478290</v>
-      </c>
-      <c r="L37" s="186"/>
-      <c r="M37" s="214">
+        <v>5052000</v>
+      </c>
+      <c r="L37" s="153"/>
+      <c r="M37" s="172">
         <f>M35+M36</f>
-        <v>660</v>
-      </c>
-      <c r="N37" s="214">
+        <v>1320</v>
+      </c>
+      <c r="N37" s="172">
         <f>N33+M37</f>
-        <v>2700</v>
+        <v>5360</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="149"/>
-      <c r="B38" s="186"/>
+      <c r="B38" s="153"/>
       <c r="C38" s="149"/>
       <c r="D38" s="149"/>
-      <c r="E38" s="185"/>
-      <c r="F38" s="186"/>
-      <c r="G38" s="214"/>
-      <c r="H38" s="214"/>
-      <c r="I38" s="186"/>
-      <c r="J38" s="214"/>
-      <c r="K38" s="214"/>
-      <c r="L38" s="186"/>
-      <c r="M38" s="214"/>
-      <c r="N38" s="214"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="153"/>
+      <c r="G38" s="172"/>
+      <c r="H38" s="172"/>
+      <c r="I38" s="153"/>
+      <c r="J38" s="172"/>
+      <c r="K38" s="172"/>
+      <c r="L38" s="153"/>
+      <c r="M38" s="172"/>
+      <c r="N38" s="172"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="148" t="s">
         <v>331</v>
       </c>
-      <c r="B39" s="186"/>
+      <c r="B39" s="153"/>
       <c r="C39" s="148" t="s">
         <v>330</v>
       </c>
       <c r="D39" s="149"/>
-      <c r="E39" s="185">
+      <c r="E39" s="152">
         <v>2</v>
       </c>
-      <c r="F39" s="186"/>
-      <c r="G39" s="214">
+      <c r="F39" s="153"/>
+      <c r="G39" s="172">
         <f>J36</f>
-        <v>240420</v>
-      </c>
-      <c r="H39" s="214">
+        <v>2620200</v>
+      </c>
+      <c r="H39" s="172">
         <f>G39*E39</f>
-        <v>480840</v>
-      </c>
-      <c r="I39" s="186"/>
-      <c r="J39" s="214">
-        <f>W8*S16</f>
-        <v>270</v>
-      </c>
-      <c r="K39" s="214"/>
-      <c r="L39" s="186"/>
-      <c r="M39" s="214">
-        <f>S16+S15*E39</f>
-        <v>750</v>
-      </c>
-      <c r="N39" s="214"/>
+        <v>5240400</v>
+      </c>
+      <c r="I39" s="153"/>
+      <c r="J39" s="172">
+        <f>X8*S16</f>
+        <v>67500</v>
+      </c>
+      <c r="K39" s="172"/>
+      <c r="L39" s="153"/>
+      <c r="M39" s="172">
+        <f>IF(X22="true", S16+S15*E39, T16+T15*E39)</f>
+        <v>1500</v>
+      </c>
+      <c r="N39" s="172"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="149"/>
-      <c r="B40" s="186"/>
+      <c r="B40" s="153"/>
       <c r="C40" s="149"/>
       <c r="D40" s="149"/>
-      <c r="E40" s="185"/>
-      <c r="F40" s="186"/>
-      <c r="G40" s="214"/>
-      <c r="H40" s="219">
+      <c r="E40" s="152"/>
+      <c r="F40" s="153"/>
+      <c r="G40" s="172"/>
+      <c r="H40" s="177">
         <v>0</v>
       </c>
-      <c r="I40" s="186"/>
-      <c r="J40" s="214">
+      <c r="I40" s="153"/>
+      <c r="J40" s="172">
         <f>J39+H41</f>
-        <v>481110</v>
-      </c>
-      <c r="K40" s="214"/>
-      <c r="L40" s="186"/>
-      <c r="M40" s="219">
+        <v>5307900</v>
+      </c>
+      <c r="K40" s="172"/>
+      <c r="L40" s="153"/>
+      <c r="M40" s="177">
         <v>0</v>
       </c>
-      <c r="N40" s="219"/>
+      <c r="N40" s="177"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="149"/>
-      <c r="B41" s="186"/>
+      <c r="B41" s="153"/>
       <c r="C41" s="149"/>
       <c r="D41" s="149"/>
-      <c r="E41" s="185"/>
-      <c r="F41" s="186"/>
-      <c r="G41" s="214"/>
-      <c r="H41" s="214">
+      <c r="E41" s="152"/>
+      <c r="F41" s="153"/>
+      <c r="G41" s="172"/>
+      <c r="H41" s="172">
         <f>H39+H40</f>
-        <v>480840</v>
-      </c>
-      <c r="I41" s="186"/>
-      <c r="J41" s="214"/>
-      <c r="K41" s="221">
+        <v>5240400</v>
+      </c>
+      <c r="I41" s="153"/>
+      <c r="J41" s="172"/>
+      <c r="K41" s="179">
         <f>K37+J40</f>
-        <v>959400</v>
-      </c>
-      <c r="L41" s="186"/>
-      <c r="M41" s="214">
+        <v>10359900</v>
+      </c>
+      <c r="L41" s="153"/>
+      <c r="M41" s="172">
         <f>M40+M39</f>
-        <v>750</v>
-      </c>
-      <c r="N41" s="214">
+        <v>1500</v>
+      </c>
+      <c r="N41" s="172">
         <f>N37+M41</f>
-        <v>3450</v>
+        <v>6860</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="149"/>
-      <c r="B42" s="186"/>
+      <c r="B42" s="153"/>
       <c r="C42" s="149"/>
       <c r="D42" s="149"/>
-      <c r="E42" s="185"/>
-      <c r="F42" s="186"/>
-      <c r="G42" s="214"/>
-      <c r="H42" s="214"/>
-      <c r="I42" s="186"/>
-      <c r="J42" s="214"/>
-      <c r="K42" s="214"/>
-      <c r="L42" s="186"/>
-      <c r="M42" s="214"/>
-      <c r="N42" s="214"/>
+      <c r="E42" s="152"/>
+      <c r="F42" s="153"/>
+      <c r="G42" s="172"/>
+      <c r="H42" s="172"/>
+      <c r="I42" s="153"/>
+      <c r="J42" s="172"/>
+      <c r="K42" s="172"/>
+      <c r="L42" s="153"/>
+      <c r="M42" s="172"/>
+      <c r="N42" s="172"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="148" t="s">
         <v>332</v>
       </c>
-      <c r="B43" s="186"/>
+      <c r="B43" s="153"/>
       <c r="C43" s="148" t="s">
         <v>331</v>
       </c>
       <c r="D43" s="149"/>
-      <c r="E43" s="185">
+      <c r="E43" s="152">
         <v>2</v>
       </c>
-      <c r="F43" s="186"/>
-      <c r="G43" s="214">
+      <c r="F43" s="153"/>
+      <c r="G43" s="172">
         <f>J40</f>
-        <v>481110</v>
-      </c>
-      <c r="H43" s="214">
+        <v>5307900</v>
+      </c>
+      <c r="H43" s="172">
         <f>G43*E43</f>
-        <v>962220</v>
-      </c>
-      <c r="I43" s="186"/>
-      <c r="J43" s="214">
-        <f>W8*S17</f>
-        <v>300</v>
-      </c>
-      <c r="K43" s="214"/>
-      <c r="L43" s="186"/>
-      <c r="M43" s="214"/>
-      <c r="N43" s="214"/>
+        <v>10615800</v>
+      </c>
+      <c r="I43" s="153"/>
+      <c r="J43" s="172">
+        <f>X8*S17</f>
+        <v>75000</v>
+      </c>
+      <c r="K43" s="172"/>
+      <c r="L43" s="153"/>
+      <c r="M43" s="172">
+        <f>IF(X22="true", S17+S16*E43, T17+T16*E43)</f>
+        <v>1680</v>
+      </c>
+      <c r="N43" s="172"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" s="149"/>
-      <c r="B44" s="186"/>
+      <c r="B44" s="153"/>
       <c r="C44" s="149"/>
       <c r="D44" s="149"/>
-      <c r="E44" s="185"/>
-      <c r="F44" s="186"/>
-      <c r="G44" s="214"/>
-      <c r="H44" s="219">
+      <c r="E44" s="152"/>
+      <c r="F44" s="153"/>
+      <c r="G44" s="172"/>
+      <c r="H44" s="177">
         <v>0</v>
       </c>
-      <c r="I44" s="186"/>
-      <c r="J44" s="214">
+      <c r="I44" s="153"/>
+      <c r="J44" s="172">
         <f>J43+H45</f>
-        <v>962520</v>
-      </c>
-      <c r="K44" s="214"/>
-      <c r="L44" s="186"/>
-      <c r="M44" s="219">
+        <v>10690800</v>
+      </c>
+      <c r="K44" s="172"/>
+      <c r="L44" s="153"/>
+      <c r="M44" s="177">
         <v>0</v>
       </c>
-      <c r="N44" s="219"/>
+      <c r="N44" s="177"/>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" s="149"/>
-      <c r="B45" s="186"/>
+      <c r="B45" s="153"/>
       <c r="C45" s="149"/>
       <c r="D45" s="149"/>
-      <c r="E45" s="185"/>
-      <c r="F45" s="186"/>
-      <c r="G45" s="214"/>
-      <c r="H45" s="214">
+      <c r="E45" s="152"/>
+      <c r="F45" s="153"/>
+      <c r="G45" s="172"/>
+      <c r="H45" s="172">
         <f>H44+H43</f>
-        <v>962220</v>
-      </c>
-      <c r="I45" s="186"/>
-      <c r="J45" s="214"/>
-      <c r="K45" s="221">
+        <v>10615800</v>
+      </c>
+      <c r="I45" s="153"/>
+      <c r="J45" s="172"/>
+      <c r="K45" s="179">
         <f>J44+K41</f>
-        <v>1921920</v>
-      </c>
-      <c r="L45" s="186"/>
-      <c r="M45" s="214">
+        <v>21050700</v>
+      </c>
+      <c r="L45" s="153"/>
+      <c r="M45" s="172">
         <f>M44+M43</f>
-        <v>0</v>
-      </c>
-      <c r="N45" s="214">
+        <v>1680</v>
+      </c>
+      <c r="N45" s="172">
         <f>M45+N41</f>
-        <v>3450</v>
+        <v>8540</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="149"/>
-      <c r="B46" s="186"/>
+      <c r="B46" s="153"/>
       <c r="C46" s="149"/>
       <c r="D46" s="149"/>
-      <c r="E46" s="185"/>
-      <c r="F46" s="186"/>
-      <c r="G46" s="214"/>
-      <c r="H46" s="214"/>
-      <c r="I46" s="186"/>
-      <c r="J46" s="214"/>
-      <c r="K46" s="214"/>
-      <c r="L46" s="186"/>
-      <c r="M46" s="214"/>
-      <c r="N46" s="214"/>
+      <c r="E46" s="152"/>
+      <c r="F46" s="153"/>
+      <c r="G46" s="172"/>
+      <c r="H46" s="172"/>
+      <c r="I46" s="153"/>
+      <c r="J46" s="172"/>
+      <c r="K46" s="172"/>
+      <c r="L46" s="153"/>
+      <c r="M46" s="172"/>
+      <c r="N46" s="172"/>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="149"/>
-      <c r="B47" s="186"/>
+      <c r="B47" s="153"/>
       <c r="C47" s="149"/>
       <c r="D47" s="149"/>
-      <c r="E47" s="185"/>
-      <c r="F47" s="186"/>
-      <c r="G47" s="214"/>
-      <c r="H47" s="214"/>
-      <c r="I47" s="186"/>
-      <c r="J47" s="214"/>
-      <c r="K47" s="214"/>
-      <c r="L47" s="186"/>
-      <c r="M47" s="214"/>
-      <c r="N47" s="214"/>
+      <c r="E47" s="152"/>
+      <c r="F47" s="153"/>
+      <c r="G47" s="172"/>
+      <c r="H47" s="172"/>
+      <c r="I47" s="153"/>
+      <c r="J47" s="172"/>
+      <c r="K47" s="172"/>
+      <c r="L47" s="153"/>
+      <c r="M47" s="172"/>
+      <c r="N47" s="172"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" s="149"/>
-      <c r="B48" s="186"/>
+      <c r="B48" s="153"/>
       <c r="C48" s="149"/>
       <c r="D48" s="149"/>
-      <c r="E48" s="185"/>
-      <c r="F48" s="186"/>
-      <c r="G48" s="214"/>
-      <c r="H48" s="214"/>
-      <c r="I48" s="186"/>
-      <c r="J48" s="214"/>
-      <c r="K48" s="214"/>
-      <c r="L48" s="186"/>
-      <c r="M48" s="214"/>
-      <c r="N48" s="214"/>
+      <c r="E48" s="152"/>
+      <c r="F48" s="153"/>
+      <c r="G48" s="172"/>
+      <c r="H48" s="172"/>
+      <c r="I48" s="153"/>
+      <c r="J48" s="172"/>
+      <c r="K48" s="172"/>
+      <c r="L48" s="153"/>
+      <c r="M48" s="172"/>
+      <c r="N48" s="172"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="149"/>
-      <c r="B49" s="186"/>
+      <c r="B49" s="153"/>
       <c r="C49" s="149"/>
       <c r="D49" s="149"/>
-      <c r="E49" s="185"/>
-      <c r="F49" s="186"/>
-      <c r="G49" s="214"/>
-      <c r="H49" s="214"/>
-      <c r="I49" s="186"/>
-      <c r="J49" s="214"/>
-      <c r="K49" s="218" t="s">
+      <c r="E49" s="152"/>
+      <c r="F49" s="153"/>
+      <c r="G49" s="172"/>
+      <c r="H49" s="172"/>
+      <c r="I49" s="153"/>
+      <c r="J49" s="172"/>
+      <c r="K49" s="176" t="s">
         <v>392</v>
       </c>
-      <c r="L49" s="186"/>
-      <c r="M49" s="214"/>
-      <c r="N49" s="218" t="s">
+      <c r="L49" s="153"/>
+      <c r="M49" s="172"/>
+      <c r="N49" s="176" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="149"/>
-      <c r="B50" s="186"/>
+      <c r="B50" s="153"/>
       <c r="C50" s="149"/>
       <c r="D50" s="149"/>
-      <c r="E50" s="185"/>
-      <c r="F50" s="186"/>
-      <c r="G50" s="214"/>
-      <c r="H50" s="214"/>
-      <c r="I50" s="186"/>
-      <c r="J50" s="214"/>
-      <c r="K50" s="214">
+      <c r="E50" s="152"/>
+      <c r="F50" s="153"/>
+      <c r="G50" s="172"/>
+      <c r="H50" s="172"/>
+      <c r="I50" s="153"/>
+      <c r="J50" s="172"/>
+      <c r="K50" s="172">
         <f>K45</f>
-        <v>1921920</v>
-      </c>
-      <c r="L50" s="190" t="s">
+        <v>21050700</v>
+      </c>
+      <c r="L50" s="157" t="s">
         <v>393</v>
       </c>
-      <c r="M50" s="214"/>
-      <c r="N50" s="214">
+      <c r="M50" s="172"/>
+      <c r="N50" s="172">
         <f>N45</f>
-        <v>3450</v>
+        <v>8540</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="149"/>
-      <c r="B51" s="186"/>
+      <c r="B51" s="153"/>
       <c r="C51" s="149"/>
       <c r="D51" s="149"/>
-      <c r="E51" s="185"/>
-      <c r="F51" s="186"/>
-      <c r="G51" s="214"/>
-      <c r="H51" s="214"/>
-      <c r="I51" s="186"/>
-      <c r="J51" s="214"/>
-      <c r="K51" s="214">
+      <c r="E51" s="152"/>
+      <c r="F51" s="153"/>
+      <c r="G51" s="172"/>
+      <c r="H51" s="172"/>
+      <c r="I51" s="153"/>
+      <c r="J51" s="172"/>
+      <c r="K51" s="172">
         <f>K50/1000</f>
-        <v>1921.92</v>
-      </c>
-      <c r="L51" s="190" t="s">
+        <v>21050.7</v>
+      </c>
+      <c r="L51" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="M51" s="214"/>
-      <c r="N51" s="214">
+      <c r="M51" s="172"/>
+      <c r="N51" s="172">
         <f>N50/60</f>
-        <v>57.5</v>
+        <v>142.33333333333334</v>
       </c>
       <c r="O51" s="119" t="s">
         <v>391</v>
@@ -10215,211 +11407,221 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="149"/>
-      <c r="B52" s="186"/>
+      <c r="B52" s="153"/>
       <c r="C52" s="149"/>
       <c r="D52" s="149"/>
-      <c r="E52" s="185"/>
-      <c r="F52" s="186"/>
-      <c r="G52" s="214"/>
-      <c r="H52" s="214"/>
-      <c r="I52" s="186"/>
-      <c r="J52" s="214"/>
-      <c r="K52" s="214"/>
-      <c r="L52" s="186"/>
-      <c r="M52" s="214"/>
-      <c r="N52" s="214"/>
+      <c r="E52" s="152"/>
+      <c r="F52" s="153"/>
+      <c r="G52" s="172"/>
+      <c r="H52" s="172"/>
+      <c r="I52" s="153"/>
+      <c r="J52" s="172"/>
+      <c r="K52" s="172"/>
+      <c r="L52" s="153"/>
+      <c r="M52" s="172"/>
+      <c r="N52" s="229"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="149"/>
-      <c r="B53" s="186"/>
+      <c r="B53" s="153"/>
       <c r="C53" s="149"/>
       <c r="D53" s="149"/>
-      <c r="E53" s="185"/>
-      <c r="F53" s="186"/>
-      <c r="G53" s="214"/>
-      <c r="H53" s="214"/>
-      <c r="I53" s="186"/>
-      <c r="J53" s="214"/>
-      <c r="K53" s="214"/>
-      <c r="L53" s="186"/>
-      <c r="M53" s="214"/>
-      <c r="N53" s="214"/>
+      <c r="E53" s="152"/>
+      <c r="F53" s="153"/>
+      <c r="G53" s="172"/>
+      <c r="H53" s="172"/>
+      <c r="I53" s="153"/>
+      <c r="J53" s="172"/>
+      <c r="K53" s="172"/>
+      <c r="L53" s="153"/>
+      <c r="M53" s="172"/>
+      <c r="N53" s="172"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="149"/>
-      <c r="B54" s="186"/>
+      <c r="B54" s="153"/>
       <c r="C54" s="149"/>
       <c r="D54" s="149"/>
-      <c r="E54" s="185"/>
-      <c r="F54" s="186"/>
-      <c r="G54" s="214"/>
-      <c r="H54" s="214"/>
-      <c r="I54" s="186"/>
-      <c r="J54" s="214"/>
-      <c r="K54" s="214"/>
-      <c r="L54" s="186"/>
-      <c r="M54" s="214"/>
-      <c r="N54" s="214"/>
+      <c r="E54" s="152"/>
+      <c r="F54" s="153"/>
+      <c r="G54" s="172"/>
+      <c r="H54" s="172"/>
+      <c r="I54" s="153"/>
+      <c r="J54" s="172"/>
+      <c r="K54" s="172">
+        <f>K51/N51</f>
+        <v>147.89718969555034</v>
+      </c>
+      <c r="L54" s="153" t="s">
+        <v>395</v>
+      </c>
+      <c r="M54" s="172"/>
+      <c r="N54" s="172"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="149"/>
-      <c r="B55" s="186"/>
+      <c r="B55" s="153"/>
       <c r="C55" s="149"/>
       <c r="D55" s="149"/>
-      <c r="E55" s="185"/>
-      <c r="F55" s="186"/>
-      <c r="G55" s="214"/>
-      <c r="H55" s="214"/>
-      <c r="I55" s="186"/>
-      <c r="J55" s="214"/>
-      <c r="K55" s="214"/>
-      <c r="L55" s="186"/>
-      <c r="M55" s="214"/>
-      <c r="N55" s="214"/>
+      <c r="E55" s="152"/>
+      <c r="F55" s="153"/>
+      <c r="G55" s="172"/>
+      <c r="H55" s="172"/>
+      <c r="I55" s="153"/>
+      <c r="J55" s="172"/>
+      <c r="K55" s="172">
+        <f>K54/60</f>
+        <v>2.4649531615925055</v>
+      </c>
+      <c r="L55" s="153" t="s">
+        <v>396</v>
+      </c>
+      <c r="M55" s="172"/>
+      <c r="N55" s="172"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="149"/>
-      <c r="B56" s="186"/>
+      <c r="B56" s="153"/>
       <c r="C56" s="149"/>
       <c r="D56" s="149"/>
-      <c r="E56" s="185"/>
-      <c r="F56" s="186"/>
-      <c r="G56" s="214"/>
-      <c r="H56" s="214"/>
-      <c r="I56" s="186"/>
-      <c r="J56" s="214"/>
-      <c r="K56" s="214"/>
-      <c r="L56" s="186"/>
-      <c r="M56" s="214"/>
-      <c r="N56" s="214"/>
+      <c r="E56" s="152"/>
+      <c r="F56" s="153"/>
+      <c r="G56" s="172"/>
+      <c r="H56" s="172"/>
+      <c r="I56" s="153"/>
+      <c r="J56" s="172"/>
+      <c r="K56" s="172"/>
+      <c r="L56" s="153"/>
+      <c r="M56" s="172"/>
+      <c r="N56" s="172"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="149"/>
-      <c r="B57" s="186"/>
+      <c r="B57" s="153"/>
       <c r="C57" s="149"/>
       <c r="D57" s="149"/>
-      <c r="E57" s="185"/>
-      <c r="F57" s="186"/>
-      <c r="G57" s="214"/>
-      <c r="H57" s="214"/>
-      <c r="I57" s="186"/>
-      <c r="J57" s="214"/>
-      <c r="K57" s="214"/>
-      <c r="L57" s="186"/>
-      <c r="M57" s="214"/>
-      <c r="N57" s="214"/>
+      <c r="E57" s="152"/>
+      <c r="F57" s="153"/>
+      <c r="G57" s="172"/>
+      <c r="H57" s="172"/>
+      <c r="I57" s="153"/>
+      <c r="J57" s="172"/>
+      <c r="K57" s="172"/>
+      <c r="L57" s="153"/>
+      <c r="M57" s="172"/>
+      <c r="N57" s="172"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="149"/>
-      <c r="B58" s="186"/>
+      <c r="B58" s="153"/>
       <c r="C58" s="149"/>
       <c r="D58" s="149"/>
-      <c r="E58" s="185"/>
-      <c r="F58" s="186"/>
-      <c r="G58" s="214"/>
-      <c r="H58" s="214"/>
-      <c r="I58" s="186"/>
-      <c r="J58" s="214"/>
-      <c r="K58" s="214"/>
-      <c r="L58" s="186"/>
-      <c r="M58" s="214"/>
-      <c r="N58" s="214"/>
+      <c r="E58" s="152"/>
+      <c r="F58" s="153"/>
+      <c r="G58" s="172"/>
+      <c r="H58" s="172"/>
+      <c r="I58" s="153"/>
+      <c r="J58" s="172"/>
+      <c r="K58" s="172"/>
+      <c r="L58" s="153"/>
+      <c r="M58" s="172"/>
+      <c r="N58" s="172"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="149"/>
-      <c r="B59" s="186"/>
+      <c r="B59" s="153"/>
       <c r="C59" s="149"/>
       <c r="D59" s="149"/>
-      <c r="E59" s="185"/>
-      <c r="F59" s="186"/>
-      <c r="G59" s="214"/>
-      <c r="H59" s="214"/>
-      <c r="I59" s="186"/>
-      <c r="J59" s="214"/>
-      <c r="K59" s="214"/>
-      <c r="L59" s="186"/>
-      <c r="M59" s="214"/>
-      <c r="N59" s="214"/>
+      <c r="E59" s="152"/>
+      <c r="F59" s="153"/>
+      <c r="G59" s="172"/>
+      <c r="H59" s="172"/>
+      <c r="I59" s="153"/>
+      <c r="J59" s="172"/>
+      <c r="K59" s="172"/>
+      <c r="L59" s="153"/>
+      <c r="M59" s="172"/>
+      <c r="N59" s="172"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="149"/>
-      <c r="B60" s="186"/>
+      <c r="B60" s="153"/>
       <c r="C60" s="149"/>
       <c r="D60" s="149"/>
-      <c r="E60" s="185"/>
-      <c r="F60" s="186"/>
-      <c r="G60" s="214"/>
-      <c r="H60" s="214"/>
-      <c r="I60" s="186"/>
-      <c r="J60" s="214"/>
-      <c r="K60" s="214"/>
-      <c r="L60" s="186"/>
-      <c r="M60" s="214"/>
-      <c r="N60" s="214"/>
+      <c r="E60" s="152"/>
+      <c r="F60" s="153"/>
+      <c r="G60" s="172"/>
+      <c r="H60" s="172"/>
+      <c r="I60" s="153"/>
+      <c r="J60" s="172"/>
+      <c r="K60" s="172"/>
+      <c r="L60" s="153"/>
+      <c r="M60" s="172"/>
+      <c r="N60" s="172"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="149"/>
-      <c r="B61" s="186"/>
+      <c r="B61" s="153"/>
       <c r="C61" s="149"/>
       <c r="D61" s="149"/>
-      <c r="E61" s="185"/>
-      <c r="F61" s="186"/>
-      <c r="G61" s="214"/>
-      <c r="H61" s="214"/>
-      <c r="I61" s="186"/>
-      <c r="J61" s="214"/>
-      <c r="K61" s="214"/>
-      <c r="L61" s="186"/>
-      <c r="M61" s="214"/>
-      <c r="N61" s="214"/>
+      <c r="E61" s="152"/>
+      <c r="F61" s="153"/>
+      <c r="G61" s="172"/>
+      <c r="H61" s="172"/>
+      <c r="I61" s="153"/>
+      <c r="J61" s="172"/>
+      <c r="K61" s="172"/>
+      <c r="L61" s="153"/>
+      <c r="M61" s="172"/>
+      <c r="N61" s="172"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="149"/>
-      <c r="B62" s="186"/>
+      <c r="B62" s="153"/>
       <c r="C62" s="149"/>
       <c r="D62" s="149"/>
-      <c r="E62" s="185"/>
-      <c r="F62" s="186"/>
-      <c r="G62" s="214"/>
-      <c r="H62" s="214"/>
-      <c r="I62" s="186"/>
-      <c r="J62" s="214"/>
-      <c r="K62" s="214"/>
-      <c r="L62" s="186"/>
-      <c r="M62" s="214"/>
-      <c r="N62" s="214"/>
+      <c r="E62" s="152"/>
+      <c r="F62" s="153"/>
+      <c r="G62" s="172"/>
+      <c r="H62" s="172"/>
+      <c r="I62" s="153"/>
+      <c r="J62" s="172"/>
+      <c r="K62" s="172"/>
+      <c r="L62" s="153"/>
+      <c r="M62" s="172"/>
+      <c r="N62" s="172"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="149"/>
-      <c r="B63" s="186"/>
+      <c r="B63" s="153"/>
       <c r="C63" s="149"/>
       <c r="D63" s="149"/>
-      <c r="E63" s="185"/>
-      <c r="F63" s="186"/>
-      <c r="G63" s="214"/>
-      <c r="H63" s="214"/>
-      <c r="I63" s="186"/>
-      <c r="J63" s="214"/>
-      <c r="K63" s="214"/>
-      <c r="L63" s="186"/>
-      <c r="M63" s="214"/>
-      <c r="N63" s="214"/>
+      <c r="E63" s="152"/>
+      <c r="F63" s="153"/>
+      <c r="G63" s="172"/>
+      <c r="H63" s="172"/>
+      <c r="I63" s="153"/>
+      <c r="J63" s="172"/>
+      <c r="K63" s="172"/>
+      <c r="L63" s="153"/>
+      <c r="M63" s="172"/>
+      <c r="N63" s="172"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="149"/>
-      <c r="B64" s="186"/>
+      <c r="B64" s="153"/>
       <c r="C64" s="149"/>
       <c r="D64" s="149"/>
-      <c r="E64" s="185"/>
-      <c r="F64" s="186"/>
-      <c r="G64" s="214"/>
-      <c r="H64" s="214"/>
-      <c r="I64" s="186"/>
-      <c r="J64" s="214"/>
-      <c r="K64" s="214"/>
-      <c r="L64" s="186"/>
-      <c r="M64" s="214"/>
-      <c r="N64" s="214"/>
+      <c r="E64" s="152"/>
+      <c r="F64" s="153"/>
+      <c r="G64" s="172"/>
+      <c r="H64" s="172"/>
+      <c r="I64" s="153"/>
+      <c r="J64" s="172"/>
+      <c r="K64" s="172"/>
+      <c r="L64" s="153"/>
+      <c r="M64" s="172"/>
+      <c r="N64" s="172"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10427,7 +11629,7 @@
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="R6:S6"/>
-    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="V6:X6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10436,6 +11638,119 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="151" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="151" t="s">
+        <v>397</v>
+      </c>
+      <c r="B1" s="151" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <f>A2+B2</f>
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3" s="151">
+        <f t="shared" ref="C3:E6" si="0">A3+B3</f>
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4" s="151">
+        <f>A4+B4</f>
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5" s="151">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6" s="151">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <f>SUM(C2:C8)</f>
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C9">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q43"/>
   <sheetViews>
@@ -10464,94 +11779,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="172"/>
-      <c r="B1" s="172"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="152"/>
-      <c r="O1" s="152"/>
-      <c r="P1" s="152"/>
-      <c r="Q1" s="172"/>
+      <c r="A1" s="215"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="186"/>
+      <c r="P1" s="186"/>
+      <c r="Q1" s="215"/>
     </row>
     <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="152"/>
-      <c r="B2" s="179" t="s">
+      <c r="A2" s="186"/>
+      <c r="B2" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="177" t="s">
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="223" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="152"/>
-      <c r="G2" s="178" t="s">
+      <c r="F2" s="186"/>
+      <c r="G2" s="224" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="152"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="186"/>
+      <c r="Q2" s="186"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="152"/>
-      <c r="B3" s="172"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="152"/>
-      <c r="O3" s="152"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
+      <c r="A3" s="186"/>
+      <c r="B3" s="215"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="186"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="186"/>
+      <c r="Q3" s="186"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="152"/>
-      <c r="B4" s="180"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="176" t="s">
+      <c r="A4" s="186"/>
+      <c r="B4" s="216"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="222" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
-      <c r="L4" s="152"/>
-      <c r="M4" s="152"/>
-      <c r="N4" s="152"/>
-      <c r="O4" s="152"/>
-      <c r="P4" s="152"/>
-      <c r="Q4" s="152"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="186"/>
+      <c r="H4" s="186"/>
+      <c r="I4" s="186"/>
+      <c r="J4" s="186"/>
+      <c r="K4" s="186"/>
+      <c r="L4" s="186"/>
+      <c r="M4" s="186"/>
+      <c r="N4" s="186"/>
+      <c r="O4" s="186"/>
+      <c r="P4" s="186"/>
+      <c r="Q4" s="186"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="152"/>
+      <c r="A5" s="186"/>
       <c r="B5" s="11"/>
       <c r="C5" s="34"/>
-      <c r="D5" s="152"/>
+      <c r="D5" s="186"/>
       <c r="E5" s="35" t="s">
         <v>104</v>
       </c>
@@ -10588,13 +11903,13 @@
       <c r="P5" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="Q5" s="152"/>
+      <c r="Q5" s="186"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="152"/>
+      <c r="A6" s="186"/>
       <c r="B6" s="11"/>
       <c r="C6" s="34"/>
-      <c r="D6" s="152"/>
+      <c r="D6" s="186"/>
       <c r="E6" s="47">
         <v>0</v>
       </c>
@@ -10633,55 +11948,55 @@
       <c r="P6" s="47">
         <v>150</v>
       </c>
-      <c r="Q6" s="152"/>
+      <c r="Q6" s="186"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="152"/>
-      <c r="B7" s="181"/>
-      <c r="C7" s="152"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="152"/>
-      <c r="G7" s="152"/>
-      <c r="H7" s="152"/>
-      <c r="I7" s="152"/>
-      <c r="J7" s="152"/>
-      <c r="K7" s="152"/>
-      <c r="L7" s="152"/>
-      <c r="M7" s="152"/>
-      <c r="N7" s="152"/>
-      <c r="O7" s="152"/>
-      <c r="P7" s="152"/>
-      <c r="Q7" s="152"/>
+      <c r="A7" s="186"/>
+      <c r="B7" s="217"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="215"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="186"/>
+      <c r="J7" s="186"/>
+      <c r="K7" s="186"/>
+      <c r="L7" s="186"/>
+      <c r="M7" s="186"/>
+      <c r="N7" s="186"/>
+      <c r="O7" s="186"/>
+      <c r="P7" s="186"/>
+      <c r="Q7" s="186"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="152"/>
-      <c r="B8" s="180" t="s">
+      <c r="A8" s="186"/>
+      <c r="B8" s="216" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="152"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="171" t="s">
+      <c r="C8" s="186"/>
+      <c r="D8" s="186"/>
+      <c r="E8" s="218" t="s">
         <v>123</v>
       </c>
-      <c r="F8" s="152"/>
-      <c r="G8" s="152"/>
-      <c r="H8" s="152"/>
-      <c r="I8" s="152"/>
-      <c r="J8" s="152"/>
-      <c r="K8" s="152"/>
-      <c r="L8" s="152"/>
-      <c r="M8" s="152"/>
-      <c r="N8" s="152"/>
-      <c r="O8" s="152"/>
-      <c r="P8" s="152"/>
-      <c r="Q8" s="152"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="186"/>
+      <c r="K8" s="186"/>
+      <c r="L8" s="186"/>
+      <c r="M8" s="186"/>
+      <c r="N8" s="186"/>
+      <c r="O8" s="186"/>
+      <c r="P8" s="186"/>
+      <c r="Q8" s="186"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="152"/>
+      <c r="A9" s="186"/>
       <c r="B9" s="11"/>
       <c r="C9" s="54"/>
-      <c r="D9" s="152"/>
+      <c r="D9" s="186"/>
       <c r="E9" s="55">
         <v>1</v>
       </c>
@@ -10716,13 +12031,13 @@
       <c r="P9" s="59">
         <v>1</v>
       </c>
-      <c r="Q9" s="152"/>
+      <c r="Q9" s="186"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="152"/>
+      <c r="A10" s="186"/>
       <c r="B10" s="11"/>
       <c r="C10" s="54"/>
-      <c r="D10" s="152"/>
+      <c r="D10" s="186"/>
       <c r="E10" s="55">
         <v>2</v>
       </c>
@@ -10757,13 +12072,13 @@
       <c r="P10" s="59">
         <v>1.5</v>
       </c>
-      <c r="Q10" s="152"/>
+      <c r="Q10" s="186"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="152"/>
+      <c r="A11" s="186"/>
       <c r="B11" s="11"/>
       <c r="C11" s="54"/>
-      <c r="D11" s="152"/>
+      <c r="D11" s="186"/>
       <c r="E11" s="55">
         <v>3</v>
       </c>
@@ -10798,17 +12113,17 @@
       <c r="P11" s="59">
         <v>2</v>
       </c>
-      <c r="Q11" s="152"/>
+      <c r="Q11" s="186"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="152"/>
+      <c r="A12" s="186"/>
       <c r="B12" s="11" t="s">
         <v>161</v>
       </c>
       <c r="C12" s="54">
         <v>1</v>
       </c>
-      <c r="D12" s="152"/>
+      <c r="D12" s="186"/>
       <c r="E12" s="11" t="s">
         <v>162</v>
       </c>
@@ -10845,17 +12160,17 @@
       <c r="P12" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="Q12" s="152"/>
+      <c r="Q12" s="186"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="152"/>
+      <c r="A13" s="186"/>
       <c r="B13" s="11" t="s">
         <v>174</v>
       </c>
       <c r="C13" s="54">
         <v>1</v>
       </c>
-      <c r="D13" s="152"/>
+      <c r="D13" s="186"/>
       <c r="E13" s="55">
         <v>1</v>
       </c>
@@ -10903,17 +12218,17 @@
         <f t="shared" ref="P13:P15" si="5">P$6*P9</f>
         <v>150</v>
       </c>
-      <c r="Q13" s="152"/>
+      <c r="Q13" s="186"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="152"/>
+      <c r="A14" s="186"/>
       <c r="B14" s="11" t="s">
         <v>176</v>
       </c>
       <c r="C14" s="54">
         <v>1</v>
       </c>
-      <c r="D14" s="152"/>
+      <c r="D14" s="186"/>
       <c r="E14" s="55">
         <v>2</v>
       </c>
@@ -10958,13 +12273,13 @@
         <f t="shared" si="5"/>
         <v>225</v>
       </c>
-      <c r="Q14" s="152"/>
+      <c r="Q14" s="186"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="152"/>
+      <c r="A15" s="186"/>
       <c r="B15" s="11"/>
       <c r="C15" s="34"/>
-      <c r="D15" s="152"/>
+      <c r="D15" s="186"/>
       <c r="E15" s="55">
         <v>3</v>
       </c>
@@ -11009,55 +12324,55 @@
         <f t="shared" si="5"/>
         <v>300</v>
       </c>
-      <c r="Q15" s="152"/>
+      <c r="Q15" s="186"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="152"/>
-      <c r="B16" s="181"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
-      <c r="H16" s="152"/>
-      <c r="I16" s="152"/>
-      <c r="J16" s="152"/>
-      <c r="K16" s="152"/>
-      <c r="L16" s="152"/>
-      <c r="M16" s="152"/>
+      <c r="A16" s="186"/>
+      <c r="B16" s="217"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="186"/>
+      <c r="E16" s="215"/>
+      <c r="F16" s="186"/>
+      <c r="G16" s="186"/>
+      <c r="H16" s="186"/>
+      <c r="I16" s="186"/>
+      <c r="J16" s="186"/>
+      <c r="K16" s="186"/>
+      <c r="L16" s="186"/>
+      <c r="M16" s="186"/>
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
-      <c r="Q16" s="152"/>
+      <c r="Q16" s="186"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="152"/>
-      <c r="B17" s="180" t="s">
+      <c r="A17" s="186"/>
+      <c r="B17" s="216" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="152"/>
-      <c r="D17" s="152"/>
-      <c r="E17" s="174" t="s">
+      <c r="C17" s="186"/>
+      <c r="D17" s="186"/>
+      <c r="E17" s="220" t="s">
         <v>183</v>
       </c>
-      <c r="F17" s="152"/>
-      <c r="G17" s="152"/>
-      <c r="H17" s="152"/>
-      <c r="I17" s="152"/>
-      <c r="J17" s="152"/>
-      <c r="K17" s="152"/>
-      <c r="L17" s="152"/>
-      <c r="M17" s="152"/>
-      <c r="N17" s="152"/>
-      <c r="O17" s="152"/>
-      <c r="P17" s="152"/>
-      <c r="Q17" s="152"/>
+      <c r="F17" s="186"/>
+      <c r="G17" s="186"/>
+      <c r="H17" s="186"/>
+      <c r="I17" s="186"/>
+      <c r="J17" s="186"/>
+      <c r="K17" s="186"/>
+      <c r="L17" s="186"/>
+      <c r="M17" s="186"/>
+      <c r="N17" s="186"/>
+      <c r="O17" s="186"/>
+      <c r="P17" s="186"/>
+      <c r="Q17" s="186"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="152"/>
+      <c r="A18" s="186"/>
       <c r="B18" s="11"/>
       <c r="C18" s="34"/>
-      <c r="D18" s="152"/>
+      <c r="D18" s="186"/>
       <c r="E18" s="42">
         <v>1</v>
       </c>
@@ -11086,13 +12401,13 @@
       <c r="P18" s="78">
         <v>2</v>
       </c>
-      <c r="Q18" s="152"/>
+      <c r="Q18" s="186"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="152"/>
+      <c r="A19" s="186"/>
       <c r="B19" s="11"/>
       <c r="C19" s="34"/>
-      <c r="D19" s="152"/>
+      <c r="D19" s="186"/>
       <c r="E19" s="42">
         <v>2</v>
       </c>
@@ -11121,13 +12436,13 @@
       <c r="P19" s="78">
         <v>3</v>
       </c>
-      <c r="Q19" s="152"/>
+      <c r="Q19" s="186"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="152"/>
+      <c r="A20" s="186"/>
       <c r="B20" s="11"/>
       <c r="C20" s="34"/>
-      <c r="D20" s="152"/>
+      <c r="D20" s="186"/>
       <c r="E20" s="42">
         <v>3</v>
       </c>
@@ -11156,13 +12471,13 @@
       <c r="P20" s="78">
         <v>4</v>
       </c>
-      <c r="Q20" s="152"/>
+      <c r="Q20" s="186"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="152"/>
+      <c r="A21" s="186"/>
       <c r="B21" s="11"/>
       <c r="C21" s="34"/>
-      <c r="D21" s="152"/>
+      <c r="D21" s="186"/>
       <c r="E21" s="20" t="s">
         <v>205</v>
       </c>
@@ -11197,13 +12512,13 @@
       <c r="P21" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="Q21" s="152"/>
+      <c r="Q21" s="186"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="152"/>
+      <c r="A22" s="186"/>
       <c r="B22" s="11"/>
       <c r="C22" s="34"/>
-      <c r="D22" s="152"/>
+      <c r="D22" s="186"/>
       <c r="E22" s="42">
         <v>1</v>
       </c>
@@ -11248,13 +12563,13 @@
         <f t="shared" ref="P22:P24" si="15">P$6*P18</f>
         <v>300</v>
       </c>
-      <c r="Q22" s="152"/>
+      <c r="Q22" s="186"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="152"/>
+      <c r="A23" s="186"/>
       <c r="B23" s="11"/>
       <c r="C23" s="34"/>
-      <c r="D23" s="152"/>
+      <c r="D23" s="186"/>
       <c r="E23" s="42">
         <v>2</v>
       </c>
@@ -11299,13 +12614,13 @@
         <f t="shared" si="15"/>
         <v>450</v>
       </c>
-      <c r="Q23" s="152"/>
+      <c r="Q23" s="186"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="152"/>
+      <c r="A24" s="186"/>
       <c r="B24" s="11"/>
       <c r="C24" s="34"/>
-      <c r="D24" s="152"/>
+      <c r="D24" s="186"/>
       <c r="E24" s="42">
         <v>3</v>
       </c>
@@ -11350,55 +12665,55 @@
         <f t="shared" si="15"/>
         <v>600</v>
       </c>
-      <c r="Q24" s="152"/>
+      <c r="Q24" s="186"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="152"/>
-      <c r="B25" s="181"/>
-      <c r="C25" s="152"/>
-      <c r="D25" s="152"/>
-      <c r="E25" s="172"/>
-      <c r="F25" s="152"/>
-      <c r="G25" s="152"/>
-      <c r="H25" s="152"/>
-      <c r="I25" s="152"/>
-      <c r="J25" s="152"/>
-      <c r="K25" s="152"/>
-      <c r="L25" s="152"/>
-      <c r="M25" s="152"/>
+      <c r="A25" s="186"/>
+      <c r="B25" s="217"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="186"/>
+      <c r="E25" s="215"/>
+      <c r="F25" s="186"/>
+      <c r="G25" s="186"/>
+      <c r="H25" s="186"/>
+      <c r="I25" s="186"/>
+      <c r="J25" s="186"/>
+      <c r="K25" s="186"/>
+      <c r="L25" s="186"/>
+      <c r="M25" s="186"/>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
-      <c r="Q25" s="152"/>
+      <c r="Q25" s="186"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="152"/>
-      <c r="B26" s="180" t="s">
+      <c r="A26" s="186"/>
+      <c r="B26" s="216" t="s">
         <v>216</v>
       </c>
-      <c r="C26" s="152"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="175" t="s">
+      <c r="C26" s="186"/>
+      <c r="D26" s="186"/>
+      <c r="E26" s="221" t="s">
         <v>217</v>
       </c>
-      <c r="F26" s="152"/>
-      <c r="G26" s="152"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="152"/>
-      <c r="J26" s="152"/>
-      <c r="K26" s="152"/>
-      <c r="L26" s="152"/>
-      <c r="M26" s="152"/>
-      <c r="N26" s="152"/>
-      <c r="O26" s="152"/>
-      <c r="P26" s="152"/>
-      <c r="Q26" s="152"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="186"/>
+      <c r="H26" s="186"/>
+      <c r="I26" s="186"/>
+      <c r="J26" s="186"/>
+      <c r="K26" s="186"/>
+      <c r="L26" s="186"/>
+      <c r="M26" s="186"/>
+      <c r="N26" s="186"/>
+      <c r="O26" s="186"/>
+      <c r="P26" s="186"/>
+      <c r="Q26" s="186"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="152"/>
+      <c r="A27" s="186"/>
       <c r="B27" s="11"/>
       <c r="C27" s="34"/>
-      <c r="D27" s="152"/>
+      <c r="D27" s="186"/>
       <c r="E27" s="72">
         <v>1</v>
       </c>
@@ -11421,13 +12736,13 @@
       </c>
       <c r="O27" s="92"/>
       <c r="P27" s="91"/>
-      <c r="Q27" s="152"/>
+      <c r="Q27" s="186"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="152"/>
+      <c r="A28" s="186"/>
       <c r="B28" s="11"/>
       <c r="C28" s="34"/>
-      <c r="D28" s="152"/>
+      <c r="D28" s="186"/>
       <c r="E28" s="72">
         <v>2</v>
       </c>
@@ -11450,13 +12765,13 @@
       </c>
       <c r="O28" s="92"/>
       <c r="P28" s="91"/>
-      <c r="Q28" s="152"/>
+      <c r="Q28" s="186"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="152"/>
+      <c r="A29" s="186"/>
       <c r="B29" s="11"/>
       <c r="C29" s="34"/>
-      <c r="D29" s="152"/>
+      <c r="D29" s="186"/>
       <c r="E29" s="72">
         <v>3</v>
       </c>
@@ -11479,13 +12794,13 @@
       </c>
       <c r="O29" s="92"/>
       <c r="P29" s="91"/>
-      <c r="Q29" s="152"/>
+      <c r="Q29" s="186"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="152"/>
+      <c r="A30" s="186"/>
       <c r="B30" s="11"/>
       <c r="C30" s="34"/>
-      <c r="D30" s="152"/>
+      <c r="D30" s="186"/>
       <c r="E30" s="3" t="s">
         <v>227</v>
       </c>
@@ -11520,13 +12835,13 @@
       <c r="P30" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="Q30" s="152"/>
+      <c r="Q30" s="186"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="152"/>
+      <c r="A31" s="186"/>
       <c r="B31" s="11"/>
       <c r="C31" s="34"/>
-      <c r="D31" s="152"/>
+      <c r="D31" s="186"/>
       <c r="E31" s="72">
         <v>1</v>
       </c>
@@ -11571,13 +12886,13 @@
         <f t="shared" ref="P31:P33" si="25">P$6*P27</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="152"/>
+      <c r="Q31" s="186"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="152"/>
+      <c r="A32" s="186"/>
       <c r="B32" s="11"/>
       <c r="C32" s="34"/>
-      <c r="D32" s="152"/>
+      <c r="D32" s="186"/>
       <c r="E32" s="72">
         <v>2</v>
       </c>
@@ -11622,13 +12937,13 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="152"/>
+      <c r="Q32" s="186"/>
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="152"/>
+      <c r="A33" s="186"/>
       <c r="B33" s="11"/>
       <c r="C33" s="34"/>
-      <c r="D33" s="152"/>
+      <c r="D33" s="186"/>
       <c r="E33" s="72">
         <v>3</v>
       </c>
@@ -11673,55 +12988,55 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="152"/>
+      <c r="Q33" s="186"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="152"/>
-      <c r="B34" s="181"/>
-      <c r="C34" s="152"/>
-      <c r="D34" s="152"/>
-      <c r="E34" s="172"/>
-      <c r="F34" s="152"/>
-      <c r="G34" s="152"/>
-      <c r="H34" s="152"/>
-      <c r="I34" s="152"/>
-      <c r="J34" s="152"/>
-      <c r="K34" s="152"/>
-      <c r="L34" s="152"/>
-      <c r="M34" s="152"/>
+      <c r="A34" s="186"/>
+      <c r="B34" s="217"/>
+      <c r="C34" s="186"/>
+      <c r="D34" s="186"/>
+      <c r="E34" s="215"/>
+      <c r="F34" s="186"/>
+      <c r="G34" s="186"/>
+      <c r="H34" s="186"/>
+      <c r="I34" s="186"/>
+      <c r="J34" s="186"/>
+      <c r="K34" s="186"/>
+      <c r="L34" s="186"/>
+      <c r="M34" s="186"/>
       <c r="N34" s="15"/>
       <c r="O34" s="15"/>
       <c r="P34" s="15"/>
-      <c r="Q34" s="152"/>
+      <c r="Q34" s="186"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="152"/>
-      <c r="B35" s="180" t="s">
+      <c r="A35" s="186"/>
+      <c r="B35" s="216" t="s">
         <v>246</v>
       </c>
-      <c r="C35" s="152"/>
-      <c r="D35" s="152"/>
-      <c r="E35" s="173" t="s">
+      <c r="C35" s="186"/>
+      <c r="D35" s="186"/>
+      <c r="E35" s="219" t="s">
         <v>247</v>
       </c>
-      <c r="F35" s="152"/>
-      <c r="G35" s="152"/>
-      <c r="H35" s="152"/>
-      <c r="I35" s="152"/>
-      <c r="J35" s="152"/>
-      <c r="K35" s="152"/>
-      <c r="L35" s="152"/>
-      <c r="M35" s="152"/>
-      <c r="N35" s="152"/>
-      <c r="O35" s="152"/>
-      <c r="P35" s="152"/>
-      <c r="Q35" s="152"/>
+      <c r="F35" s="186"/>
+      <c r="G35" s="186"/>
+      <c r="H35" s="186"/>
+      <c r="I35" s="186"/>
+      <c r="J35" s="186"/>
+      <c r="K35" s="186"/>
+      <c r="L35" s="186"/>
+      <c r="M35" s="186"/>
+      <c r="N35" s="186"/>
+      <c r="O35" s="186"/>
+      <c r="P35" s="186"/>
+      <c r="Q35" s="186"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="152"/>
+      <c r="A36" s="186"/>
       <c r="B36" s="11"/>
       <c r="C36" s="34"/>
-      <c r="D36" s="152"/>
+      <c r="D36" s="186"/>
       <c r="E36" s="102">
         <v>1</v>
       </c>
@@ -11744,13 +13059,13 @@
       </c>
       <c r="O36" s="104"/>
       <c r="P36" s="103"/>
-      <c r="Q36" s="152"/>
+      <c r="Q36" s="186"/>
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="152"/>
+      <c r="A37" s="186"/>
       <c r="B37" s="11"/>
       <c r="C37" s="34"/>
-      <c r="D37" s="152"/>
+      <c r="D37" s="186"/>
       <c r="E37" s="102">
         <v>2</v>
       </c>
@@ -11773,13 +13088,13 @@
       </c>
       <c r="O37" s="104"/>
       <c r="P37" s="103"/>
-      <c r="Q37" s="152"/>
+      <c r="Q37" s="186"/>
     </row>
     <row r="38" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="152"/>
+      <c r="A38" s="186"/>
       <c r="B38" s="11"/>
       <c r="C38" s="34"/>
-      <c r="D38" s="152"/>
+      <c r="D38" s="186"/>
       <c r="E38" s="102">
         <v>3</v>
       </c>
@@ -11802,13 +13117,13 @@
       </c>
       <c r="O38" s="104"/>
       <c r="P38" s="103"/>
-      <c r="Q38" s="152"/>
+      <c r="Q38" s="186"/>
     </row>
     <row r="39" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="152"/>
+      <c r="A39" s="186"/>
       <c r="B39" s="11"/>
       <c r="C39" s="34"/>
-      <c r="D39" s="152"/>
+      <c r="D39" s="186"/>
       <c r="E39" s="105" t="s">
         <v>257</v>
       </c>
@@ -11843,13 +13158,13 @@
       <c r="P39" s="105" t="s">
         <v>270</v>
       </c>
-      <c r="Q39" s="152"/>
+      <c r="Q39" s="186"/>
     </row>
     <row r="40" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="152"/>
+      <c r="A40" s="186"/>
       <c r="B40" s="11"/>
       <c r="C40" s="34"/>
-      <c r="D40" s="152"/>
+      <c r="D40" s="186"/>
       <c r="E40" s="102">
         <v>1</v>
       </c>
@@ -11894,13 +13209,13 @@
         <f t="shared" ref="P40:P42" si="35">P$6*P36</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="152"/>
+      <c r="Q40" s="186"/>
     </row>
     <row r="41" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="152"/>
+      <c r="A41" s="186"/>
       <c r="B41" s="11"/>
       <c r="C41" s="34"/>
-      <c r="D41" s="152"/>
+      <c r="D41" s="186"/>
       <c r="E41" s="102">
         <v>2</v>
       </c>
@@ -11945,13 +13260,13 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="152"/>
+      <c r="Q41" s="186"/>
     </row>
     <row r="42" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="152"/>
+      <c r="A42" s="186"/>
       <c r="B42" s="11"/>
       <c r="C42" s="34"/>
-      <c r="D42" s="152"/>
+      <c r="D42" s="186"/>
       <c r="E42" s="102">
         <v>3</v>
       </c>
@@ -11996,13 +13311,13 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="152"/>
+      <c r="Q42" s="186"/>
     </row>
     <row r="43" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="152"/>
+      <c r="A43" s="186"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="152"/>
+      <c r="D43" s="186"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
@@ -12015,10 +13330,24 @@
       <c r="N43" s="15"/>
       <c r="O43" s="15"/>
       <c r="P43" s="15"/>
-      <c r="Q43" s="152"/>
+      <c r="Q43" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="E7:P7"/>
+    <mergeCell ref="E16:M16"/>
+    <mergeCell ref="Q1:Q43"/>
+    <mergeCell ref="E25:M25"/>
+    <mergeCell ref="E35:P35"/>
+    <mergeCell ref="E17:P17"/>
+    <mergeCell ref="E26:P26"/>
+    <mergeCell ref="E4:P4"/>
+    <mergeCell ref="E3:P3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E1:P1"/>
+    <mergeCell ref="G2:P2"/>
+    <mergeCell ref="E34:M34"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B17:C17"/>
@@ -12033,20 +13362,6 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="E7:P7"/>
-    <mergeCell ref="E16:M16"/>
-    <mergeCell ref="Q1:Q43"/>
-    <mergeCell ref="E25:M25"/>
-    <mergeCell ref="E35:P35"/>
-    <mergeCell ref="E17:P17"/>
-    <mergeCell ref="E26:P26"/>
-    <mergeCell ref="E4:P4"/>
-    <mergeCell ref="E3:P3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E1:P1"/>
-    <mergeCell ref="G2:P2"/>
-    <mergeCell ref="E34:M34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12054,7 +13369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A26:C36"/>
   <sheetViews>
@@ -12070,81 +13385,81 @@
   </cols>
   <sheetData>
     <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="167" t="s">
+      <c r="A26" s="203" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="152"/>
-      <c r="C26" s="152"/>
+      <c r="B26" s="186"/>
+      <c r="C26" s="186"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="165"/>
-      <c r="B27" s="152"/>
+      <c r="A27" s="202"/>
+      <c r="B27" s="186"/>
       <c r="C27" s="50"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="165"/>
-      <c r="B28" s="152"/>
+      <c r="A28" s="202"/>
+      <c r="B28" s="186"/>
       <c r="C28" s="51"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="165"/>
-      <c r="B29" s="152"/>
+      <c r="A29" s="202"/>
+      <c r="B29" s="186"/>
       <c r="C29" s="121"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="165"/>
-      <c r="B30" s="152"/>
+      <c r="A30" s="202"/>
+      <c r="B30" s="186"/>
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="165"/>
-      <c r="B31" s="152"/>
+      <c r="A31" s="202"/>
+      <c r="B31" s="186"/>
       <c r="C31" s="53"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="168"/>
-      <c r="B32" s="152"/>
+      <c r="A32" s="200"/>
+      <c r="B32" s="186"/>
       <c r="C32" s="121"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="166"/>
-      <c r="B33" s="152"/>
+      <c r="A33" s="199"/>
+      <c r="B33" s="186"/>
       <c r="C33" s="53"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="166"/>
-      <c r="B34" s="152"/>
+      <c r="A34" s="199"/>
+      <c r="B34" s="186"/>
       <c r="C34" s="53"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="166"/>
-      <c r="B35" s="152"/>
+      <c r="A35" s="199"/>
+      <c r="B35" s="186"/>
       <c r="C35" s="53"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="166"/>
-      <c r="B36" s="152"/>
+      <c r="A36" s="199"/>
+      <c r="B36" s="186"/>
       <c r="C36" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:P42"/>
   <sheetViews>
@@ -12168,7 +13483,7 @@
   </cols>
   <sheetData>
     <row r="4" spans="8:16" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="H4" s="225" t="s">
+      <c r="H4" s="183" t="s">
         <v>365</v>
       </c>
       <c r="I4" s="119" t="s">
@@ -12176,7 +13491,7 @@
       </c>
     </row>
     <row r="5" spans="8:16" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="H5" s="225" t="s">
+      <c r="H5" s="183" t="s">
         <v>372</v>
       </c>
       <c r="I5" s="119" t="s">
@@ -12196,7 +13511,7 @@
       </c>
     </row>
     <row r="6" spans="8:16" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="H6" s="225" t="s">
+      <c r="H6" s="183" t="s">
         <v>383</v>
       </c>
       <c r="I6" s="119" t="s">
@@ -12216,7 +13531,7 @@
       </c>
     </row>
     <row r="7" spans="8:16" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="H7" s="225" t="s">
+      <c r="H7" s="183" t="s">
         <v>384</v>
       </c>
       <c r="I7" s="119" t="s">
@@ -12236,13 +13551,13 @@
       </c>
     </row>
     <row r="10" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="I10" s="220" t="s">
+      <c r="I10" s="178" t="s">
         <v>365</v>
       </c>
-      <c r="K10" s="220" t="s">
+      <c r="K10" s="178" t="s">
         <v>388</v>
       </c>
-      <c r="M10" s="220" t="s">
+      <c r="M10" s="178" t="s">
         <v>383</v>
       </c>
       <c r="O10" s="119" t="s">
@@ -12250,51 +13565,51 @@
       </c>
     </row>
     <row r="11" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="I11" s="226" t="s">
+      <c r="I11" s="184" t="s">
         <v>385</v>
       </c>
-      <c r="J11" s="226" t="s">
+      <c r="J11" s="184" t="s">
         <v>386</v>
       </c>
-      <c r="K11" s="226" t="s">
+      <c r="K11" s="184" t="s">
         <v>389</v>
       </c>
-      <c r="L11" s="226" t="s">
+      <c r="L11" s="184" t="s">
         <v>386</v>
       </c>
-      <c r="M11" s="226" t="s">
+      <c r="M11" s="184" t="s">
         <v>389</v>
       </c>
-      <c r="N11" s="226" t="s">
+      <c r="N11" s="184" t="s">
         <v>386</v>
       </c>
-      <c r="O11" s="226" t="s">
+      <c r="O11" s="184" t="s">
         <v>389</v>
       </c>
-      <c r="P11" s="226" t="s">
+      <c r="P11" s="184" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="12" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="I12" s="220" t="s">
+      <c r="I12" s="178" t="s">
         <v>366</v>
       </c>
       <c r="J12" s="119" t="s">
         <v>387</v>
       </c>
-      <c r="K12" s="220" t="s">
+      <c r="K12" s="178" t="s">
         <v>367</v>
       </c>
       <c r="L12" s="143">
         <v>20</v>
       </c>
-      <c r="M12" s="220" t="s">
+      <c r="M12" s="178" t="s">
         <v>373</v>
       </c>
       <c r="N12" s="143">
         <v>32</v>
       </c>
-      <c r="O12" s="220" t="s">
+      <c r="O12" s="178" t="s">
         <v>378</v>
       </c>
       <c r="P12" s="143">
@@ -12302,19 +13617,19 @@
       </c>
     </row>
     <row r="13" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="K13" s="220" t="s">
+      <c r="K13" s="178" t="s">
         <v>368</v>
       </c>
       <c r="L13" s="143">
         <v>35</v>
       </c>
-      <c r="M13" s="220" t="s">
+      <c r="M13" s="178" t="s">
         <v>374</v>
       </c>
       <c r="N13" s="143">
         <v>56</v>
       </c>
-      <c r="O13" s="220" t="s">
+      <c r="O13" s="178" t="s">
         <v>379</v>
       </c>
       <c r="P13" s="143">
@@ -12322,7 +13637,7 @@
       </c>
     </row>
     <row r="14" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="K14" s="220" t="s">
+      <c r="K14" s="178" t="s">
         <v>370</v>
       </c>
       <c r="L14" s="143">
@@ -12334,7 +13649,7 @@
       <c r="N14" s="143">
         <v>96</v>
       </c>
-      <c r="O14" s="220" t="s">
+      <c r="O14" s="178" t="s">
         <v>381</v>
       </c>
       <c r="P14" s="143">
@@ -12342,19 +13657,19 @@
       </c>
     </row>
     <row r="15" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="K15" s="220" t="s">
+      <c r="K15" s="178" t="s">
         <v>369</v>
       </c>
       <c r="L15" s="143">
         <v>100</v>
       </c>
-      <c r="M15" s="220" t="s">
+      <c r="M15" s="178" t="s">
         <v>375</v>
       </c>
       <c r="N15" s="143">
         <v>160</v>
       </c>
-      <c r="O15" s="220" t="s">
+      <c r="O15" s="178" t="s">
         <v>380</v>
       </c>
       <c r="P15" s="143">
@@ -12362,19 +13677,19 @@
       </c>
     </row>
     <row r="16" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="K16" s="220" t="s">
+      <c r="K16" s="178" t="s">
         <v>371</v>
       </c>
       <c r="L16" s="143">
         <v>140</v>
       </c>
-      <c r="M16" s="220" t="s">
+      <c r="M16" s="178" t="s">
         <v>377</v>
       </c>
       <c r="N16" s="143">
         <v>224</v>
       </c>
-      <c r="O16" s="220" t="s">
+      <c r="O16" s="178" t="s">
         <v>382</v>
       </c>
       <c r="P16" s="143">
@@ -12382,94 +13697,99 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="167" t="s">
+      <c r="A26" s="203" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="152"/>
-      <c r="C26" s="152"/>
+      <c r="B26" s="186"/>
+      <c r="C26" s="186"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="165"/>
-      <c r="B27" s="152"/>
+      <c r="A27" s="202"/>
+      <c r="B27" s="186"/>
       <c r="C27" s="50"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="165"/>
-      <c r="B28" s="152"/>
+      <c r="A28" s="202"/>
+      <c r="B28" s="186"/>
       <c r="C28" s="51"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="165"/>
-      <c r="B29" s="152"/>
+      <c r="A29" s="202"/>
+      <c r="B29" s="186"/>
       <c r="C29" s="121"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="165"/>
-      <c r="B30" s="152"/>
+      <c r="A30" s="202"/>
+      <c r="B30" s="186"/>
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="165"/>
-      <c r="B31" s="152"/>
+      <c r="A31" s="202"/>
+      <c r="B31" s="186"/>
       <c r="C31" s="53"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="168"/>
-      <c r="B32" s="152"/>
+      <c r="A32" s="200"/>
+      <c r="B32" s="186"/>
       <c r="C32" s="121"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="166"/>
-      <c r="B33" s="152"/>
+      <c r="A33" s="199"/>
+      <c r="B33" s="186"/>
       <c r="C33" s="53"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="166"/>
-      <c r="B34" s="152"/>
+      <c r="A34" s="199"/>
+      <c r="B34" s="186"/>
       <c r="C34" s="53"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="166"/>
-      <c r="B35" s="152"/>
+      <c r="A35" s="199"/>
+      <c r="B35" s="186"/>
       <c r="C35" s="53"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="166"/>
-      <c r="B36" s="152"/>
+      <c r="A36" s="199"/>
+      <c r="B36" s="186"/>
       <c r="C36" s="53"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="166"/>
-      <c r="B37" s="152"/>
+      <c r="A37" s="199"/>
+      <c r="B37" s="186"/>
       <c r="C37" s="53"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="166"/>
-      <c r="B38" s="152"/>
+      <c r="A38" s="199"/>
+      <c r="B38" s="186"/>
       <c r="C38" s="53"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="166"/>
-      <c r="B39" s="152"/>
+      <c r="A39" s="199"/>
+      <c r="B39" s="186"/>
       <c r="C39" s="53"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="166"/>
-      <c r="B40" s="152"/>
+      <c r="A40" s="199"/>
+      <c r="B40" s="186"/>
       <c r="C40" s="53"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="166"/>
-      <c r="B41" s="152"/>
+      <c r="A41" s="199"/>
+      <c r="B41" s="186"/>
       <c r="C41" s="53"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="166"/>
-      <c r="B42" s="152"/>
+      <c r="A42" s="199"/>
+      <c r="B42" s="186"/>
       <c r="C42" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:B27"/>
@@ -12482,17 +13802,12 @@
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
@@ -12605,969 +13920,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="8" width="17" customWidth="1"/>
-    <col min="9" max="10" width="15.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" customWidth="1"/>
-    <col min="12" max="13" width="20.28515625" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="6"/>
-    </row>
-    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="10"/>
-    </row>
-    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="183" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="19"/>
-    </row>
-    <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="19"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="164" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="152"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152"/>
-      <c r="K5" s="152"/>
-      <c r="L5" s="152"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-    </row>
-    <row r="6" spans="1:30" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="182" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="152"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-    </row>
-    <row r="7" spans="1:30" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="M7" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="N7" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-    </row>
-    <row r="8" spans="1:30" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="L8" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="M8" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="N8" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-    </row>
-    <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
-        <v>1</v>
-      </c>
-      <c r="B9" s="10">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10">
-        <f>510*1.25</f>
-        <v>637.5</v>
-      </c>
-      <c r="D9" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="E9">
-        <f>F$9*D9/D$9</f>
-        <v>390</v>
-      </c>
-      <c r="F9" s="10">
-        <v>390</v>
-      </c>
-      <c r="G9" s="28">
-        <f t="shared" ref="G9:G13" si="0">C9/F9</f>
-        <v>1.6346153846153846</v>
-      </c>
-      <c r="H9" s="28">
-        <f>C9/F9</f>
-        <v>1.6346153846153846</v>
-      </c>
-      <c r="I9" s="40">
-        <f t="shared" ref="I9:I13" si="1">ROUNDUP(D9*10,1)</f>
-        <v>1</v>
-      </c>
-      <c r="J9" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K9" s="28">
-        <f t="shared" ref="K9:K13" si="2">L9*J9</f>
-        <v>4</v>
-      </c>
-      <c r="L9" s="28">
-        <f t="shared" ref="L9:L13" si="3">M9/E9*C9/G9</f>
-        <v>8</v>
-      </c>
-      <c r="M9" s="37">
-        <v>8</v>
-      </c>
-      <c r="N9" s="16">
-        <f t="shared" ref="N9:N13" si="4">K9/M9</f>
-        <v>0.5</v>
-      </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-    </row>
-    <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
-        <v>2</v>
-      </c>
-      <c r="B10" s="10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="10">
-        <v>1300</v>
-      </c>
-      <c r="D10" s="44">
-        <f t="shared" ref="D10:D13" si="5">C10*D$9/F$9</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ref="E10:E13" si="6">F$9*D10/D$9/G10</f>
-        <v>881</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ref="F10:F13" si="7">ROUNDUP(D10*$F$9/$D$9/H10,0)</f>
-        <v>881</v>
-      </c>
-      <c r="G10" s="28">
-        <f t="shared" si="0"/>
-        <v>1.4755959137343928</v>
-      </c>
-      <c r="H10" s="28">
-        <f t="shared" ref="H10:H13" si="8">H9-($H$9-1)/4</f>
-        <v>1.4759615384615383</v>
-      </c>
-      <c r="I10" s="40">
-        <f t="shared" si="1"/>
-        <v>3.4</v>
-      </c>
-      <c r="J10" s="31">
-        <v>0.6</v>
-      </c>
-      <c r="K10" s="28">
-        <f t="shared" si="2"/>
-        <v>4.8</v>
-      </c>
-      <c r="L10" s="28">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="M10" s="37">
-        <v>8</v>
-      </c>
-      <c r="N10" s="16">
-        <f t="shared" si="4"/>
-        <v>0.6</v>
-      </c>
-      <c r="P10" s="10"/>
-    </row>
-    <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
-        <v>3</v>
-      </c>
-      <c r="B11" s="10">
-        <v>1</v>
-      </c>
-      <c r="C11" s="10">
-        <v>2100</v>
-      </c>
-      <c r="D11" s="44">
-        <f t="shared" si="5"/>
-        <v>0.53846153846153844</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="6"/>
-        <v>1595</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="7"/>
-        <v>1595</v>
-      </c>
-      <c r="G11" s="28">
-        <f t="shared" si="0"/>
-        <v>1.3166144200626959</v>
-      </c>
-      <c r="H11" s="28">
-        <f t="shared" si="8"/>
-        <v>1.3173076923076921</v>
-      </c>
-      <c r="I11" s="40">
-        <f t="shared" si="1"/>
-        <v>5.3999999999999995</v>
-      </c>
-      <c r="J11" s="31">
-        <v>0.75</v>
-      </c>
-      <c r="K11" s="28">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="L11" s="28">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="M11" s="37">
-        <v>8</v>
-      </c>
-      <c r="N11" s="16">
-        <f t="shared" si="4"/>
-        <v>0.75</v>
-      </c>
-      <c r="P11" s="10"/>
-    </row>
-    <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
-        <v>4</v>
-      </c>
-      <c r="B12" s="10">
-        <v>1</v>
-      </c>
-      <c r="C12" s="10">
-        <v>3700</v>
-      </c>
-      <c r="D12" s="44">
-        <f t="shared" si="5"/>
-        <v>0.94871794871794868</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="6"/>
-        <v>3194</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="7"/>
-        <v>3194</v>
-      </c>
-      <c r="G12" s="28">
-        <f t="shared" si="0"/>
-        <v>1.158422041327489</v>
-      </c>
-      <c r="H12" s="28">
-        <f t="shared" si="8"/>
-        <v>1.1586538461538458</v>
-      </c>
-      <c r="I12" s="40">
-        <f t="shared" si="1"/>
-        <v>9.5</v>
-      </c>
-      <c r="J12" s="31">
-        <v>0.95</v>
-      </c>
-      <c r="K12" s="28">
-        <f t="shared" si="2"/>
-        <v>7.6</v>
-      </c>
-      <c r="L12" s="28">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="M12" s="37">
-        <v>8</v>
-      </c>
-      <c r="N12" s="16">
-        <f t="shared" si="4"/>
-        <v>0.95</v>
-      </c>
-      <c r="P12" s="10"/>
-    </row>
-    <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
-        <v>5</v>
-      </c>
-      <c r="B13" s="10">
-        <v>1</v>
-      </c>
-      <c r="C13" s="10">
-        <v>6100</v>
-      </c>
-      <c r="D13" s="44">
-        <f t="shared" si="5"/>
-        <v>1.5641025641025641</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="6"/>
-        <v>6100</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="7"/>
-        <v>6100</v>
-      </c>
-      <c r="G13" s="28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H13" s="28">
-        <f t="shared" si="8"/>
-        <v>0.99999999999999967</v>
-      </c>
-      <c r="I13" s="40">
-        <f t="shared" si="1"/>
-        <v>15.7</v>
-      </c>
-      <c r="J13" s="31">
-        <v>1.05</v>
-      </c>
-      <c r="K13" s="28">
-        <f t="shared" si="2"/>
-        <v>8.4</v>
-      </c>
-      <c r="L13" s="28">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="M13" s="37">
-        <v>8</v>
-      </c>
-      <c r="N13" s="16">
-        <f t="shared" si="4"/>
-        <v>1.05</v>
-      </c>
-      <c r="P13" s="10"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="164" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="152"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="152"/>
-      <c r="I15" s="152"/>
-      <c r="J15" s="152"/>
-      <c r="K15" s="152"/>
-      <c r="L15" s="152"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-    </row>
-    <row r="16" spans="1:30" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="182" t="s">
-        <v>120</v>
-      </c>
-      <c r="L16" s="152"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="43"/>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="184"/>
-      <c r="AA16" s="152"/>
-      <c r="AB16" s="184"/>
-      <c r="AC16" s="152"/>
-      <c r="AD16" s="57"/>
-    </row>
-    <row r="17" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="L17" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="M17" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="N17" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="43"/>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="43"/>
-      <c r="Z17" s="43"/>
-      <c r="AA17" s="43"/>
-      <c r="AB17" s="43"/>
-    </row>
-    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
-        <v>1</v>
-      </c>
-      <c r="B18" s="10">
-        <v>1</v>
-      </c>
-      <c r="C18" s="10">
-        <v>638</v>
-      </c>
-      <c r="D18" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E18">
-        <f t="shared" ref="E18:E22" si="9">F$18*D18/D$18</f>
-        <v>390</v>
-      </c>
-      <c r="F18" s="10">
-        <v>390</v>
-      </c>
-      <c r="G18" s="28">
-        <f t="shared" ref="G18:G22" si="10">E18/F18</f>
-        <v>1</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="10">
-        <v>1</v>
-      </c>
-      <c r="J18" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K18" s="28">
-        <f t="shared" ref="K18:K22" si="11">L18*J18</f>
-        <v>6.5435897435897434</v>
-      </c>
-      <c r="L18" s="28">
-        <f t="shared" ref="L18:L22" si="12">M18/E18*C18</f>
-        <v>13.087179487179487</v>
-      </c>
-      <c r="M18" s="37">
-        <v>8</v>
-      </c>
-      <c r="N18" s="16">
-        <f t="shared" ref="N18:N22" si="13">K18/M18</f>
-        <v>0.81794871794871793</v>
-      </c>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="37"/>
-    </row>
-    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
-        <v>2</v>
-      </c>
-      <c r="B19" s="10">
-        <v>2</v>
-      </c>
-      <c r="C19" s="10">
-        <v>1300</v>
-      </c>
-      <c r="D19" s="10">
-        <v>0.105</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="9"/>
-        <v>409.49999999999994</v>
-      </c>
-      <c r="F19">
-        <f>450</f>
-        <v>450</v>
-      </c>
-      <c r="G19" s="28">
-        <f t="shared" si="10"/>
-        <v>0.90999999999999992</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="41">
-        <f t="shared" ref="I19:I22" si="14">D19*10</f>
-        <v>1.05</v>
-      </c>
-      <c r="J19" s="31">
-        <v>0.75</v>
-      </c>
-      <c r="K19" s="28">
-        <f t="shared" si="11"/>
-        <v>19.047619047619051</v>
-      </c>
-      <c r="L19" s="28">
-        <f t="shared" si="12"/>
-        <v>25.396825396825403</v>
-      </c>
-      <c r="M19" s="37">
-        <v>8</v>
-      </c>
-      <c r="N19" s="16">
-        <f t="shared" si="13"/>
-        <v>2.3809523809523814</v>
-      </c>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="41"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="37"/>
-    </row>
-    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
-        <v>3</v>
-      </c>
-      <c r="B20" s="10">
-        <v>3</v>
-      </c>
-      <c r="C20" s="10">
-        <v>2100</v>
-      </c>
-      <c r="D20" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="9"/>
-        <v>428.99999999999994</v>
-      </c>
-      <c r="F20">
-        <f>550</f>
-        <v>550</v>
-      </c>
-      <c r="G20" s="28">
-        <f t="shared" si="10"/>
-        <v>0.77999999999999992</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="41">
-        <f t="shared" si="14"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J20" s="31">
-        <v>1</v>
-      </c>
-      <c r="K20" s="28">
-        <f t="shared" si="11"/>
-        <v>39.160839160839167</v>
-      </c>
-      <c r="L20" s="28">
-        <f t="shared" si="12"/>
-        <v>39.160839160839167</v>
-      </c>
-      <c r="M20" s="37">
-        <v>8</v>
-      </c>
-      <c r="N20" s="16">
-        <f t="shared" si="13"/>
-        <v>4.8951048951048959</v>
-      </c>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="41"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="37"/>
-    </row>
-    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="10">
-        <v>4</v>
-      </c>
-      <c r="B21" s="10">
-        <v>5</v>
-      </c>
-      <c r="C21" s="10">
-        <v>3700</v>
-      </c>
-      <c r="D21" s="10">
-        <v>0.115</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="9"/>
-        <v>448.5</v>
-      </c>
-      <c r="F21">
-        <f>750</f>
-        <v>750</v>
-      </c>
-      <c r="G21" s="28">
-        <f t="shared" si="10"/>
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="41">
-        <f t="shared" si="14"/>
-        <v>1.1500000000000001</v>
-      </c>
-      <c r="J21" s="31">
-        <v>1.25</v>
-      </c>
-      <c r="K21" s="28">
-        <f t="shared" si="11"/>
-        <v>82.497212931995549</v>
-      </c>
-      <c r="L21" s="28">
-        <f t="shared" si="12"/>
-        <v>65.997770345596436</v>
-      </c>
-      <c r="M21" s="37">
-        <v>8</v>
-      </c>
-      <c r="N21" s="16">
-        <f t="shared" si="13"/>
-        <v>10.312151616499444</v>
-      </c>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="41"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="37"/>
-    </row>
-    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10">
-        <v>5</v>
-      </c>
-      <c r="B22" s="10">
-        <v>8</v>
-      </c>
-      <c r="C22" s="10">
-        <v>6100</v>
-      </c>
-      <c r="D22" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="9"/>
-        <v>467.99999999999994</v>
-      </c>
-      <c r="F22">
-        <f>1000</f>
-        <v>1000</v>
-      </c>
-      <c r="G22" s="28">
-        <f t="shared" si="10"/>
-        <v>0.46799999999999992</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="41">
-        <f t="shared" si="14"/>
-        <v>1.2</v>
-      </c>
-      <c r="J22" s="31">
-        <v>1.5</v>
-      </c>
-      <c r="K22" s="28">
-        <f t="shared" si="11"/>
-        <v>156.41025641025644</v>
-      </c>
-      <c r="L22" s="28">
-        <f t="shared" si="12"/>
-        <v>104.27350427350429</v>
-      </c>
-      <c r="M22" s="37">
-        <v>8</v>
-      </c>
-      <c r="N22" s="16">
-        <f t="shared" si="13"/>
-        <v>19.551282051282055</v>
-      </c>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="41"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="37"/>
-    </row>
-    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="K23" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="L23">
-        <f>75*0.4</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E24" s="10"/>
-    </row>
-    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G26" s="73"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="K16:L16"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/0 DyTech Informations/Dytech Balance.xlsx
+++ b/0 DyTech Informations/Dytech Balance.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12135" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12135" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
     <sheet name="Steam" sheetId="2" r:id="rId2"/>
     <sheet name="Solar Panels" sheetId="8" r:id="rId3"/>
-    <sheet name="Nuclear Reactor" sheetId="11" r:id="rId4"/>
-    <sheet name="Blad1" sheetId="12" r:id="rId5"/>
+    <sheet name="Nuclear Fuel" sheetId="11" r:id="rId4"/>
+    <sheet name="Membranes" sheetId="16" r:id="rId5"/>
     <sheet name="Laser Turrets" sheetId="3" r:id="rId6"/>
     <sheet name="Empty Sheet" sheetId="9" r:id="rId7"/>
     <sheet name="Gems" sheetId="10" r:id="rId8"/>
@@ -291,6 +291,88 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Jort Geurts</author>
+  </authors>
+  <commentList>
+    <comment ref="G6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MagicLegend:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Energy required to create the specific item per 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MagicLegend:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sum of energy required to create all the items for the recipe</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MagicLegend:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Energy used by the assembling machine to create the item stated in colum A</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
     <author/>
   </authors>
   <commentList>
@@ -321,7 +403,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -644,7 +726,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="416">
   <si>
     <t>README</t>
   </si>
@@ -1678,9 +1760,6 @@
     <t>Total Energy</t>
   </si>
   <si>
-    <t>Clean water is based on the 500 -&gt; 460 recipe</t>
-  </si>
-  <si>
     <t>Mining energy is based on the basic mk 1 miner</t>
   </si>
   <si>
@@ -1837,19 +1916,64 @@
     <t>MW/sec</t>
   </si>
   <si>
-    <t>xx</t>
-  </si>
-  <si>
-    <t>ii</t>
-  </si>
-  <si>
     <t>Statements</t>
   </si>
   <si>
     <t>use S colum</t>
   </si>
   <si>
-    <t>false</t>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Membrane</t>
+  </si>
+  <si>
+    <t>Ruby membrane</t>
+  </si>
+  <si>
+    <t>Membrane frame</t>
+  </si>
+  <si>
+    <t>Iron stick</t>
+  </si>
+  <si>
+    <t>Iron stick recipe is based on the level 2 assembler</t>
+  </si>
+  <si>
+    <t>Mk 2 assembler</t>
+  </si>
+  <si>
+    <t>(0.75 speed)</t>
+  </si>
+  <si>
+    <t>Sapphire membrane</t>
+  </si>
+  <si>
+    <t>Topaz membrane</t>
+  </si>
+  <si>
+    <t>Emerald membrane</t>
+  </si>
+  <si>
+    <t>Diamond membrane</t>
+  </si>
+  <si>
+    <t>Raw-ruby</t>
+  </si>
+  <si>
+    <t>Raw-sapphire</t>
+  </si>
+  <si>
+    <t>Raw-topaz</t>
+  </si>
+  <si>
+    <t>Raw-emerald</t>
+  </si>
+  <si>
+    <t>Raw-diamond</t>
+  </si>
+  <si>
+    <t>(minutes)</t>
   </si>
 </sst>
 </file>
@@ -1988,7 +2112,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="50">
+  <fills count="53">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2280,8 +2404,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2336,61 +2478,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -2406,6 +2495,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2414,7 +2585,7 @@
     <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2656,7 +2827,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="40" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="0" fillId="40" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="40" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2713,24 +2884,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2763,6 +2916,51 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="50" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="38" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="38" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="38" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="38" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -7238,7 +7436,7 @@
       <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="226" t="s">
+      <c r="A3" s="220" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="186"/>
@@ -7308,7 +7506,7 @@
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
-      <c r="K6" s="225" t="s">
+      <c r="K6" s="219" t="s">
         <v>43</v>
       </c>
       <c r="L6" s="186"/>
@@ -7722,7 +7920,7 @@
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="K16" s="225" t="s">
+      <c r="K16" s="219" t="s">
         <v>120</v>
       </c>
       <c r="L16" s="186"/>
@@ -7739,9 +7937,9 @@
       <c r="W16" s="43"/>
       <c r="X16" s="43"/>
       <c r="Y16" s="43"/>
-      <c r="Z16" s="227"/>
+      <c r="Z16" s="221"/>
       <c r="AA16" s="186"/>
-      <c r="AB16" s="227"/>
+      <c r="AB16" s="221"/>
       <c r="AC16" s="186"/>
       <c r="AD16" s="57"/>
     </row>
@@ -9718,8 +9916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9742,7 +9940,7 @@
       <c r="Y1" s="119"/>
       <c r="Z1" s="119"/>
       <c r="AC1" s="119" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9759,19 +9957,19 @@
       <c r="AA2" s="150"/>
       <c r="AB2" s="150"/>
     </row>
-    <row r="3" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="144" t="s">
         <v>333</v>
       </c>
-      <c r="D3" s="206" t="s">
+      <c r="D3" s="227" t="s">
         <v>344</v>
       </c>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="208"/>
+      <c r="E3" s="228"/>
+      <c r="F3" s="228"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="229"/>
       <c r="Q3" s="169" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="R3" s="166"/>
       <c r="S3" s="166"/>
@@ -9784,14 +9982,7 @@
       <c r="Z3" s="166"/>
       <c r="AA3" s="150"/>
     </row>
-    <row r="4" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="209" t="s">
-        <v>345</v>
-      </c>
-      <c r="E4" s="210"/>
-      <c r="F4" s="210"/>
-      <c r="G4" s="210"/>
-      <c r="H4" s="211"/>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="Q4" s="170"/>
       <c r="R4" s="166"/>
       <c r="S4" s="166"/>
@@ -9851,18 +10042,18 @@
         <v>338</v>
       </c>
       <c r="Q6" s="164"/>
-      <c r="R6" s="212" t="s">
-        <v>347</v>
-      </c>
-      <c r="S6" s="212"/>
+      <c r="R6" s="206" t="s">
+        <v>346</v>
+      </c>
+      <c r="S6" s="206"/>
       <c r="T6" s="165"/>
-      <c r="V6" s="213" t="s">
-        <v>359</v>
-      </c>
-      <c r="W6" s="213"/>
-      <c r="X6" s="213"/>
+      <c r="V6" s="207" t="s">
+        <v>358</v>
+      </c>
+      <c r="W6" s="207"/>
+      <c r="X6" s="207"/>
       <c r="Y6" s="205" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Z6" s="205"/>
       <c r="AA6" s="150"/>
@@ -9903,7 +10094,7 @@
       <c r="V7" s="163"/>
       <c r="W7" s="163"/>
       <c r="X7" s="168" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Y7" s="150"/>
       <c r="Z7" s="150"/>
@@ -9924,16 +10115,16 @@
       <c r="F8" s="153"/>
       <c r="G8" s="172">
         <f>IF(X22="true", X9*Y9*S8, X9*Y9*T8)</f>
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="H8" s="176">
         <f>G8</f>
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="I8" s="153"/>
       <c r="J8" s="172">
         <f>G8</f>
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="K8" s="172"/>
       <c r="L8" s="153"/>
@@ -9953,7 +10144,7 @@
         <v>5</v>
       </c>
       <c r="V8" s="159" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="W8" s="160"/>
       <c r="X8" s="154">
@@ -9975,7 +10166,7 @@
       <c r="G9" s="172"/>
       <c r="H9" s="181">
         <f>H8</f>
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="I9" s="153"/>
       <c r="J9" s="172"/>
@@ -10000,7 +10191,7 @@
         <v>120</v>
       </c>
       <c r="V9" s="159" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="W9" s="160"/>
       <c r="X9" s="154">
@@ -10010,7 +10201,7 @@
         <v>2</v>
       </c>
       <c r="Z9" s="119" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AA9" s="150"/>
     </row>
@@ -10027,7 +10218,7 @@
       <c r="J10" s="172"/>
       <c r="K10" s="179">
         <f>H8</f>
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="L10" s="153"/>
       <c r="M10" s="172"/>
@@ -10064,11 +10255,11 @@
       <c r="F11" s="153"/>
       <c r="G11" s="172">
         <f>J8</f>
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="H11" s="172">
         <f>G11*E11</f>
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="I11" s="153"/>
       <c r="J11" s="172">
@@ -10079,7 +10270,7 @@
       <c r="L11" s="153"/>
       <c r="M11" s="172">
         <f>IF(X22="true", S9+S8*E11, T9+T8*E11)</f>
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="N11" s="172"/>
       <c r="Q11" s="164"/>
@@ -10114,7 +10305,7 @@
       <c r="I12" s="153"/>
       <c r="J12" s="172">
         <f>J11+H13</f>
-        <v>16800</v>
+        <v>18600</v>
       </c>
       <c r="K12" s="172"/>
       <c r="L12" s="153"/>
@@ -10149,22 +10340,22 @@
       <c r="G13" s="172"/>
       <c r="H13" s="172">
         <f>H11+H12</f>
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="I13" s="153"/>
       <c r="J13" s="171"/>
       <c r="K13" s="179">
         <f>K10+J12</f>
-        <v>17700</v>
+        <v>20400</v>
       </c>
       <c r="L13" s="153"/>
       <c r="M13" s="171">
         <f>M11+M12</f>
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="N13" s="172">
         <f>N9+M13</f>
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="164"/>
       <c r="R13" s="162" t="s">
@@ -10230,11 +10421,11 @@
       <c r="F15" s="153"/>
       <c r="G15" s="172">
         <f>J12</f>
-        <v>16800</v>
+        <v>18600</v>
       </c>
       <c r="H15" s="172">
         <f>G15*E15</f>
-        <v>33600</v>
+        <v>37200</v>
       </c>
       <c r="I15" s="153"/>
       <c r="J15" s="172">
@@ -10245,7 +10436,7 @@
       <c r="L15" s="153"/>
       <c r="M15" s="172">
         <f>IF(X22="true", S10+S9*E15, T10+T9*E15)</f>
-        <v>420</v>
+        <v>210</v>
       </c>
       <c r="N15" s="172"/>
       <c r="Q15" s="164"/>
@@ -10280,7 +10471,7 @@
       <c r="I16" s="153"/>
       <c r="J16" s="172">
         <f>J15+H17</f>
-        <v>56100</v>
+        <v>59700</v>
       </c>
       <c r="K16" s="172"/>
       <c r="L16" s="153"/>
@@ -10315,22 +10506,22 @@
       <c r="G17" s="172"/>
       <c r="H17" s="181">
         <f>H15+H16</f>
-        <v>33600</v>
+        <v>37200</v>
       </c>
       <c r="I17" s="153"/>
       <c r="J17" s="172"/>
       <c r="K17" s="179">
         <f>K13+J16</f>
-        <v>73800</v>
+        <v>80100</v>
       </c>
       <c r="L17" s="153"/>
       <c r="M17" s="172">
         <f>M15+M16</f>
-        <v>420</v>
+        <v>210</v>
       </c>
       <c r="N17" s="172">
         <f>N13+M17</f>
-        <v>560</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="164"/>
       <c r="R17" s="162" t="s">
@@ -10371,7 +10562,7 @@
         <v>27</v>
       </c>
       <c r="T18" s="158" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="V18" s="160"/>
       <c r="W18" s="160"/>
@@ -10395,11 +10586,11 @@
       <c r="F19" s="153"/>
       <c r="G19" s="172">
         <f>J16</f>
-        <v>56100</v>
+        <v>59700</v>
       </c>
       <c r="H19" s="172">
         <f>G19*E19</f>
-        <v>112200</v>
+        <v>119400</v>
       </c>
       <c r="I19" s="153"/>
       <c r="J19" s="172">
@@ -10410,7 +10601,7 @@
       <c r="L19" s="153"/>
       <c r="M19" s="172">
         <f>IF(X22="true", S11+S10*E19, T11+T10*E19)</f>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N19" s="172"/>
       <c r="Q19" s="164"/>
@@ -10439,7 +10630,7 @@
       <c r="I20" s="153"/>
       <c r="J20" s="172">
         <f>J19+H21</f>
-        <v>142200</v>
+        <v>149400</v>
       </c>
       <c r="K20" s="172"/>
       <c r="L20" s="153"/>
@@ -10449,12 +10640,12 @@
       <c r="N20" s="177"/>
       <c r="Q20" s="164"/>
       <c r="R20" s="161" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S20" s="156"/>
       <c r="T20" s="156"/>
-      <c r="V20" s="228" t="s">
-        <v>399</v>
+      <c r="V20" s="222" t="s">
+        <v>396</v>
       </c>
       <c r="W20" s="150"/>
       <c r="X20" s="150"/>
@@ -10472,26 +10663,26 @@
       <c r="G21" s="172"/>
       <c r="H21" s="181">
         <f>H19+H20</f>
-        <v>112200</v>
+        <v>119400</v>
       </c>
       <c r="I21" s="153"/>
       <c r="J21" s="172"/>
       <c r="K21" s="179">
         <f>K17+J20</f>
-        <v>216000</v>
+        <v>229500</v>
       </c>
       <c r="L21" s="153"/>
       <c r="M21" s="171">
         <f>M19+M20</f>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N21" s="171">
         <f>M21+N17</f>
-        <v>1160</v>
+        <v>600</v>
       </c>
       <c r="Q21" s="164"/>
       <c r="R21" s="161" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S21" s="156"/>
       <c r="T21" s="156"/>
@@ -10519,16 +10710,16 @@
       <c r="N22" s="172"/>
       <c r="Q22" s="164"/>
       <c r="R22" s="161" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S22" s="156"/>
       <c r="T22" s="156"/>
       <c r="V22" s="119" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="W22" s="150"/>
       <c r="X22" s="119" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="Y22" s="150"/>
       <c r="Z22" s="150"/>
@@ -10549,11 +10740,11 @@
       <c r="F23" s="153"/>
       <c r="G23" s="172">
         <f>J20</f>
-        <v>142200</v>
+        <v>149400</v>
       </c>
       <c r="H23" s="172">
         <f>G23*E23</f>
-        <v>284400</v>
+        <v>298800</v>
       </c>
       <c r="I23" s="153"/>
       <c r="J23" s="172">
@@ -10564,12 +10755,12 @@
       <c r="L23" s="182"/>
       <c r="M23" s="172">
         <f>IF(X22="true", S12+S11*E23, T12+T11*E23)</f>
-        <v>780</v>
+        <v>390</v>
       </c>
       <c r="N23" s="152"/>
       <c r="Q23" s="164"/>
       <c r="R23" s="161" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S23" s="156"/>
       <c r="T23" s="156"/>
@@ -10596,7 +10787,7 @@
       <c r="I24" s="153"/>
       <c r="J24" s="172">
         <f>J23+H25</f>
-        <v>321900</v>
+        <v>336300</v>
       </c>
       <c r="K24" s="172"/>
       <c r="L24" s="153"/>
@@ -10606,7 +10797,7 @@
       <c r="N24" s="177"/>
       <c r="Q24" s="164"/>
       <c r="R24" s="161" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S24" s="156"/>
       <c r="T24" s="156"/>
@@ -10628,26 +10819,26 @@
       <c r="G25" s="172"/>
       <c r="H25" s="172">
         <f>H24+H23</f>
-        <v>284400</v>
+        <v>298800</v>
       </c>
       <c r="I25" s="153"/>
       <c r="J25" s="172"/>
       <c r="K25" s="179">
         <f>K21+J24</f>
-        <v>537900</v>
+        <v>565800</v>
       </c>
       <c r="L25" s="153"/>
       <c r="M25" s="172">
         <f>M24+M23</f>
-        <v>780</v>
+        <v>390</v>
       </c>
       <c r="N25" s="172">
         <f>N21+M25</f>
-        <v>1940</v>
+        <v>990</v>
       </c>
       <c r="Q25" s="164"/>
       <c r="R25" s="161" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S25" s="156"/>
       <c r="T25" s="156"/>
@@ -10676,7 +10867,7 @@
       <c r="N26" s="172"/>
       <c r="Q26" s="164"/>
       <c r="R26" s="161" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S26" s="156"/>
       <c r="T26" s="156"/>
@@ -10703,11 +10894,11 @@
       <c r="F27" s="153"/>
       <c r="G27" s="172">
         <f>H25</f>
-        <v>284400</v>
+        <v>298800</v>
       </c>
       <c r="H27" s="172">
         <f>G27*E27</f>
-        <v>568800</v>
+        <v>597600</v>
       </c>
       <c r="I27" s="153"/>
       <c r="J27" s="172">
@@ -10718,12 +10909,12 @@
       <c r="L27" s="153"/>
       <c r="M27" s="172">
         <f>IF(X22="true", S13+S12*E27, T13+T12*E27)</f>
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="N27" s="172"/>
       <c r="Q27" s="164"/>
       <c r="R27" s="161" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S27" s="156"/>
       <c r="T27" s="156"/>
@@ -10750,7 +10941,7 @@
       <c r="I28" s="153"/>
       <c r="J28" s="172">
         <f>J27+H29</f>
-        <v>613800</v>
+        <v>642600</v>
       </c>
       <c r="K28" s="172"/>
       <c r="L28" s="153"/>
@@ -10760,7 +10951,7 @@
       <c r="N28" s="177"/>
       <c r="Q28" s="164"/>
       <c r="R28" s="161" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="S28" s="156"/>
       <c r="T28" s="156"/>
@@ -10782,26 +10973,26 @@
       <c r="G29" s="172"/>
       <c r="H29" s="172">
         <f>H28+H27</f>
-        <v>568800</v>
+        <v>597600</v>
       </c>
       <c r="I29" s="153"/>
       <c r="J29" s="172"/>
       <c r="K29" s="179">
         <f>K25+J28</f>
-        <v>1151700</v>
+        <v>1208400</v>
       </c>
       <c r="L29" s="153"/>
       <c r="M29" s="172">
         <f>M27+M28</f>
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="N29" s="172">
         <f>N25+M29</f>
-        <v>2900</v>
+        <v>1470</v>
       </c>
       <c r="Q29" s="164"/>
       <c r="R29" s="161" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S29" s="156"/>
       <c r="T29" s="156"/>
@@ -10855,11 +11046,11 @@
       <c r="F31" s="153"/>
       <c r="G31" s="172">
         <f>J28</f>
-        <v>613800</v>
+        <v>642600</v>
       </c>
       <c r="H31" s="172">
         <f>G31*E31</f>
-        <v>1227600</v>
+        <v>1285200</v>
       </c>
       <c r="I31" s="153"/>
       <c r="J31" s="172">
@@ -10870,7 +11061,7 @@
       <c r="L31" s="153"/>
       <c r="M31" s="172">
         <f>IF(X22="true", S14+S13*E31, T14+T13*E31)</f>
-        <v>1140</v>
+        <v>570</v>
       </c>
       <c r="N31" s="172"/>
       <c r="Q31" s="164"/>
@@ -10899,7 +11090,7 @@
       <c r="I32" s="153"/>
       <c r="J32" s="172">
         <f>J31+H33</f>
-        <v>1280100</v>
+        <v>1337700</v>
       </c>
       <c r="K32" s="172"/>
       <c r="L32" s="153"/>
@@ -10929,22 +11120,22 @@
       <c r="G33" s="172"/>
       <c r="H33" s="172">
         <f>H32+H31</f>
-        <v>1227600</v>
+        <v>1285200</v>
       </c>
       <c r="I33" s="153"/>
       <c r="J33" s="172"/>
       <c r="K33" s="179">
         <f>K29+J32</f>
-        <v>2431800</v>
+        <v>2546100</v>
       </c>
       <c r="L33" s="153"/>
       <c r="M33" s="172">
         <f>M31+M32</f>
-        <v>1140</v>
+        <v>570</v>
       </c>
       <c r="N33" s="172">
         <f>N29+M33</f>
-        <v>4040</v>
+        <v>2040</v>
       </c>
       <c r="Q33" s="150"/>
       <c r="R33" s="150"/>
@@ -11002,11 +11193,11 @@
       <c r="F35" s="153"/>
       <c r="G35" s="172">
         <f>J32</f>
-        <v>1280100</v>
+        <v>1337700</v>
       </c>
       <c r="H35" s="171">
         <f>G35*E35</f>
-        <v>2560200</v>
+        <v>2675400</v>
       </c>
       <c r="I35" s="153"/>
       <c r="J35" s="172">
@@ -11017,7 +11208,7 @@
       <c r="L35" s="153"/>
       <c r="M35" s="172">
         <f>IF(X22="true", S15+S14*E35, T15+T14*E35)</f>
-        <v>1320</v>
+        <v>660</v>
       </c>
       <c r="N35" s="172"/>
       <c r="Q35" s="150"/>
@@ -11047,7 +11238,7 @@
       <c r="I36" s="153"/>
       <c r="J36" s="172">
         <f>J35+H37</f>
-        <v>2620200</v>
+        <v>2735400</v>
       </c>
       <c r="K36" s="171"/>
       <c r="L36" s="153"/>
@@ -11066,22 +11257,22 @@
       <c r="G37" s="172"/>
       <c r="H37" s="172">
         <f>H36+H35</f>
-        <v>2560200</v>
+        <v>2675400</v>
       </c>
       <c r="I37" s="153"/>
       <c r="J37" s="172"/>
       <c r="K37" s="179">
         <f>K33+J36</f>
-        <v>5052000</v>
+        <v>5281500</v>
       </c>
       <c r="L37" s="153"/>
       <c r="M37" s="172">
         <f>M35+M36</f>
-        <v>1320</v>
+        <v>660</v>
       </c>
       <c r="N37" s="172">
         <f>N33+M37</f>
-        <v>5360</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
@@ -11115,11 +11306,11 @@
       <c r="F39" s="153"/>
       <c r="G39" s="172">
         <f>J36</f>
-        <v>2620200</v>
+        <v>2735400</v>
       </c>
       <c r="H39" s="172">
         <f>G39*E39</f>
-        <v>5240400</v>
+        <v>5470800</v>
       </c>
       <c r="I39" s="153"/>
       <c r="J39" s="172">
@@ -11130,7 +11321,7 @@
       <c r="L39" s="153"/>
       <c r="M39" s="172">
         <f>IF(X22="true", S16+S15*E39, T16+T15*E39)</f>
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="N39" s="172"/>
     </row>
@@ -11148,7 +11339,7 @@
       <c r="I40" s="153"/>
       <c r="J40" s="172">
         <f>J39+H41</f>
-        <v>5307900</v>
+        <v>5538300</v>
       </c>
       <c r="K40" s="172"/>
       <c r="L40" s="153"/>
@@ -11167,22 +11358,22 @@
       <c r="G41" s="172"/>
       <c r="H41" s="172">
         <f>H39+H40</f>
-        <v>5240400</v>
+        <v>5470800</v>
       </c>
       <c r="I41" s="153"/>
       <c r="J41" s="172"/>
       <c r="K41" s="179">
         <f>K37+J40</f>
-        <v>10359900</v>
+        <v>10819800</v>
       </c>
       <c r="L41" s="153"/>
       <c r="M41" s="172">
         <f>M40+M39</f>
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="N41" s="172">
         <f>N37+M41</f>
-        <v>6860</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
@@ -11216,11 +11407,11 @@
       <c r="F43" s="153"/>
       <c r="G43" s="172">
         <f>J40</f>
-        <v>5307900</v>
+        <v>5538300</v>
       </c>
       <c r="H43" s="172">
         <f>G43*E43</f>
-        <v>10615800</v>
+        <v>11076600</v>
       </c>
       <c r="I43" s="153"/>
       <c r="J43" s="172">
@@ -11231,7 +11422,7 @@
       <c r="L43" s="153"/>
       <c r="M43" s="172">
         <f>IF(X22="true", S17+S16*E43, T17+T16*E43)</f>
-        <v>1680</v>
+        <v>840</v>
       </c>
       <c r="N43" s="172"/>
     </row>
@@ -11249,7 +11440,7 @@
       <c r="I44" s="153"/>
       <c r="J44" s="172">
         <f>J43+H45</f>
-        <v>10690800</v>
+        <v>11151600</v>
       </c>
       <c r="K44" s="172"/>
       <c r="L44" s="153"/>
@@ -11268,22 +11459,22 @@
       <c r="G45" s="172"/>
       <c r="H45" s="172">
         <f>H44+H43</f>
-        <v>10615800</v>
+        <v>11076600</v>
       </c>
       <c r="I45" s="153"/>
       <c r="J45" s="172"/>
       <c r="K45" s="179">
         <f>J44+K41</f>
-        <v>21050700</v>
+        <v>21971400</v>
       </c>
       <c r="L45" s="153"/>
       <c r="M45" s="172">
         <f>M44+M43</f>
-        <v>1680</v>
+        <v>840</v>
       </c>
       <c r="N45" s="172">
         <f>M45+N41</f>
-        <v>8540</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
@@ -11346,12 +11537,12 @@
       <c r="I49" s="153"/>
       <c r="J49" s="172"/>
       <c r="K49" s="176" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L49" s="153"/>
       <c r="M49" s="172"/>
       <c r="N49" s="176" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
@@ -11367,15 +11558,15 @@
       <c r="J50" s="172"/>
       <c r="K50" s="172">
         <f>K45</f>
-        <v>21050700</v>
+        <v>21971400</v>
       </c>
       <c r="L50" s="157" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M50" s="172"/>
       <c r="N50" s="172">
         <f>N45</f>
-        <v>8540</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
@@ -11391,7 +11582,7 @@
       <c r="J51" s="172"/>
       <c r="K51" s="172">
         <f>K50/1000</f>
-        <v>21050.7</v>
+        <v>21971.4</v>
       </c>
       <c r="L51" s="157" t="s">
         <v>14</v>
@@ -11399,10 +11590,10 @@
       <c r="M51" s="172"/>
       <c r="N51" s="172">
         <f>N50/60</f>
-        <v>142.33333333333334</v>
+        <v>71.5</v>
       </c>
       <c r="O51" s="119" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
@@ -11419,7 +11610,7 @@
       <c r="K52" s="172"/>
       <c r="L52" s="153"/>
       <c r="M52" s="172"/>
-      <c r="N52" s="229"/>
+      <c r="N52" s="223"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="149"/>
@@ -11450,10 +11641,10 @@
       <c r="J54" s="172"/>
       <c r="K54" s="172">
         <f>K51/N51</f>
-        <v>147.89718969555034</v>
+        <v>307.2923076923077</v>
       </c>
       <c r="L54" s="153" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M54" s="172"/>
       <c r="N54" s="172"/>
@@ -11471,10 +11662,10 @@
       <c r="J55" s="172"/>
       <c r="K55" s="172">
         <f>K54/60</f>
-        <v>2.4649531615925055</v>
+        <v>5.1215384615384618</v>
       </c>
       <c r="L55" s="153" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M55" s="172"/>
       <c r="N55" s="172"/>
@@ -11624,10 +11815,9 @@
       <c r="N64" s="172"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="Y6:Z6"/>
     <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D4:H4"/>
     <mergeCell ref="R6:S6"/>
     <mergeCell ref="V6:X6"/>
   </mergeCells>
@@ -11638,115 +11828,1514 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AA52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="173"/>
+    <col min="9" max="9" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="173"/>
+    <col min="11" max="11" width="10.140625" style="173" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="173"/>
+    <col min="18" max="18" width="18.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="151" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="151" t="s">
+    <row r="2" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="144" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3" s="240" t="s">
+        <v>403</v>
+      </c>
+      <c r="D3" s="241"/>
+      <c r="E3" s="241"/>
+      <c r="F3" s="241"/>
+      <c r="G3" s="241"/>
+      <c r="H3" s="242"/>
+      <c r="Q3" s="169" t="s">
+        <v>345</v>
+      </c>
+      <c r="R3" s="166"/>
+      <c r="S3" s="166"/>
+      <c r="T3" s="166"/>
+      <c r="U3" s="166"/>
+      <c r="V3" s="166"/>
+      <c r="W3" s="166"/>
+      <c r="X3" s="166"/>
+      <c r="Y3" s="166"/>
+      <c r="Z3" s="166"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="119"/>
+      <c r="Q4" s="170"/>
+      <c r="R4" s="166"/>
+      <c r="S4" s="166"/>
+      <c r="T4" s="166"/>
+      <c r="U4" s="166"/>
+      <c r="V4" s="166"/>
+      <c r="W4" s="166"/>
+      <c r="X4" s="166"/>
+      <c r="Y4" s="166"/>
+      <c r="Z4" s="166"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Q5" s="164"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="145" t="s">
+        <v>399</v>
+      </c>
+      <c r="B6" s="146"/>
+      <c r="C6" s="147" t="s">
+        <v>334</v>
+      </c>
+      <c r="D6" s="146"/>
+      <c r="E6" s="147" t="s">
+        <v>336</v>
+      </c>
+      <c r="F6" s="146"/>
+      <c r="G6" s="174" t="s">
+        <v>335</v>
+      </c>
+      <c r="H6" s="174" t="s">
+        <v>335</v>
+      </c>
+      <c r="I6" s="146"/>
+      <c r="J6" s="174" t="s">
+        <v>335</v>
+      </c>
+      <c r="K6" s="174" t="s">
+        <v>343</v>
+      </c>
+      <c r="L6" s="146"/>
+      <c r="M6" s="174" t="s">
+        <v>337</v>
+      </c>
+      <c r="N6" s="174" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q6" s="164"/>
+      <c r="R6" s="206" t="s">
+        <v>346</v>
+      </c>
+      <c r="S6" s="206"/>
+      <c r="T6" s="165"/>
+      <c r="U6" s="151"/>
+      <c r="W6" s="224" t="s">
+        <v>358</v>
+      </c>
+      <c r="X6" s="224"/>
+      <c r="Y6" s="224"/>
+      <c r="Z6" s="136" t="s">
+        <v>362</v>
+      </c>
+      <c r="AA6" s="136"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7" s="146"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="174" t="s">
+        <v>342</v>
+      </c>
+      <c r="H7" s="175" t="s">
+        <v>342</v>
+      </c>
+      <c r="I7" s="153"/>
+      <c r="J7" s="174" t="s">
+        <v>342</v>
+      </c>
+      <c r="K7" s="174" t="s">
+        <v>342</v>
+      </c>
+      <c r="L7" s="153"/>
+      <c r="M7" s="175" t="s">
+        <v>339</v>
+      </c>
+      <c r="N7" s="174" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q7" s="164"/>
+      <c r="R7" s="165"/>
+      <c r="S7" s="167" t="s">
+        <v>339</v>
+      </c>
+      <c r="T7" s="165"/>
+      <c r="U7" s="151"/>
+      <c r="W7" s="163"/>
+      <c r="X7" s="163"/>
+      <c r="Y7" s="168" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z7" s="151"/>
+      <c r="AA7" s="151"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" s="148" t="s">
+        <v>401</v>
+      </c>
+      <c r="B8" s="230"/>
+      <c r="C8" s="148" t="s">
+        <v>402</v>
+      </c>
+      <c r="D8" s="149"/>
+      <c r="E8" s="152">
+        <v>10</v>
+      </c>
+      <c r="F8" s="153"/>
+      <c r="G8" s="250">
+        <f>M8*Z10*Y10</f>
+        <v>112.5</v>
+      </c>
+      <c r="H8" s="250">
+        <f>G8*E8</f>
+        <v>1125</v>
+      </c>
+      <c r="I8" s="153"/>
+      <c r="J8" s="250">
+        <f>IF(Y22="true", Y10*Z10*S8, Y10*Z10*T8)</f>
+        <v>1125</v>
+      </c>
+      <c r="K8" s="250"/>
+      <c r="L8" s="153"/>
+      <c r="M8" s="252">
+        <v>0.5</v>
+      </c>
+      <c r="N8" s="252"/>
+      <c r="Q8" s="164"/>
+      <c r="R8" s="161" t="s">
+        <v>401</v>
+      </c>
+      <c r="S8" s="156">
+        <v>5</v>
+      </c>
+      <c r="T8" s="156"/>
+      <c r="U8" s="226">
+        <f>IF(Y22 = "true", S8/60, T8/60)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="V8" s="119" t="s">
+        <v>393</v>
+      </c>
+      <c r="W8" s="159" t="s">
+        <v>359</v>
+      </c>
+      <c r="X8" s="160"/>
+      <c r="Y8" s="154">
+        <v>250</v>
+      </c>
+      <c r="Z8" s="151"/>
+      <c r="AA8" s="151"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9" s="149"/>
+      <c r="B9" s="230"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="250"/>
+      <c r="H9" s="253">
+        <f>H8</f>
+        <v>1125</v>
+      </c>
+      <c r="I9" s="153"/>
+      <c r="J9" s="250"/>
+      <c r="K9" s="255">
+        <f>J8+H9</f>
+        <v>2250</v>
+      </c>
+      <c r="L9" s="153"/>
+      <c r="M9" s="254">
+        <f>S8</f>
+        <v>5</v>
+      </c>
+      <c r="N9" s="254"/>
+      <c r="Q9" s="164"/>
+      <c r="R9" s="161" t="s">
+        <v>400</v>
+      </c>
+      <c r="S9" s="155">
+        <v>120</v>
+      </c>
+      <c r="T9" s="156"/>
+      <c r="U9" s="158">
+        <f>S9/60</f>
+        <v>2</v>
+      </c>
+      <c r="V9" s="119" t="s">
+        <v>393</v>
+      </c>
+      <c r="W9" s="159" t="s">
+        <v>361</v>
+      </c>
+      <c r="X9" s="160"/>
+      <c r="Y9" s="154">
+        <v>90</v>
+      </c>
+      <c r="Z9" s="151">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="119" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="236"/>
+      <c r="B10" s="237"/>
+      <c r="C10" s="236"/>
+      <c r="D10" s="236"/>
+      <c r="E10" s="238"/>
+      <c r="F10" s="239"/>
+      <c r="G10" s="251"/>
+      <c r="H10" s="251"/>
+      <c r="I10" s="239"/>
+      <c r="J10" s="251"/>
+      <c r="K10" s="251"/>
+      <c r="L10" s="239"/>
+      <c r="M10" s="251">
+        <f>IF(Y22="true", M8*Z10*(E8/2)+M9, M8*Z10*(E8/2)+T8)</f>
+        <v>8.75</v>
+      </c>
+      <c r="N10" s="251">
+        <f>M10/60</f>
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="O10" s="119" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q10" s="164"/>
+      <c r="R10" s="161" t="s">
+        <v>406</v>
+      </c>
+      <c r="S10" s="155">
+        <v>180</v>
+      </c>
+      <c r="T10" s="156"/>
+      <c r="U10" s="226">
+        <f>S10/60</f>
+        <v>3</v>
+      </c>
+      <c r="V10" s="119" t="s">
+        <v>393</v>
+      </c>
+      <c r="W10" s="159" t="s">
+        <v>404</v>
+      </c>
+      <c r="X10" s="160"/>
+      <c r="Y10" s="154">
+        <v>150</v>
+      </c>
+      <c r="Z10" s="151">
+        <v>1.5</v>
+      </c>
+      <c r="AA10" s="119" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11" s="149"/>
+      <c r="B11" s="230"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="250"/>
+      <c r="H11" s="250"/>
+      <c r="I11" s="153"/>
+      <c r="J11" s="250"/>
+      <c r="K11" s="250"/>
+      <c r="L11" s="153"/>
+      <c r="M11" s="250"/>
+      <c r="N11" s="250"/>
+      <c r="Q11" s="164"/>
+      <c r="R11" s="161" t="s">
+        <v>407</v>
+      </c>
+      <c r="S11" s="155">
+        <v>240</v>
+      </c>
+      <c r="T11" s="156"/>
+      <c r="U11" s="226">
+        <f>S11/60</f>
+        <v>4</v>
+      </c>
+      <c r="V11" s="119" t="s">
+        <v>393</v>
+      </c>
+      <c r="W11" s="160"/>
+      <c r="X11" s="160"/>
+      <c r="Y11" s="154"/>
+      <c r="Z11" s="151"/>
+      <c r="AA11" s="151"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" s="247" t="s">
+        <v>400</v>
+      </c>
+      <c r="B12" s="244"/>
+      <c r="C12" s="247" t="s">
+        <v>401</v>
+      </c>
+      <c r="D12" s="243"/>
+      <c r="E12" s="245">
+        <v>1</v>
+      </c>
+      <c r="F12" s="246"/>
+      <c r="G12" s="252">
+        <f>K9</f>
+        <v>2250</v>
+      </c>
+      <c r="H12" s="252">
+        <f>G12*E12</f>
+        <v>2250</v>
+      </c>
+      <c r="I12" s="246"/>
+      <c r="J12" s="252">
+        <f>Y10*Z10*S9</f>
+        <v>27000</v>
+      </c>
+      <c r="K12" s="252"/>
+      <c r="L12" s="246"/>
+      <c r="M12" s="252">
+        <f>M10</f>
+        <v>8.75</v>
+      </c>
+      <c r="N12" s="252"/>
+      <c r="Q12" s="164"/>
+      <c r="R12" s="161" t="s">
+        <v>408</v>
+      </c>
+      <c r="S12" s="155">
+        <v>300</v>
+      </c>
+      <c r="T12" s="156"/>
+      <c r="U12" s="226">
+        <f>S12/60</f>
+        <v>5</v>
+      </c>
+      <c r="V12" s="119" t="s">
+        <v>393</v>
+      </c>
+      <c r="W12" s="160"/>
+      <c r="X12" s="160"/>
+      <c r="Y12" s="154"/>
+      <c r="Z12" s="151"/>
+      <c r="AA12" s="151"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13" s="149"/>
+      <c r="B13" s="230"/>
+      <c r="C13" s="148" t="s">
+        <v>410</v>
+      </c>
+      <c r="D13" s="149"/>
+      <c r="E13" s="152">
+        <v>1</v>
+      </c>
+      <c r="F13" s="153"/>
+      <c r="G13" s="250">
+        <f>Y10*Z10*S17</f>
+        <v>4500</v>
+      </c>
+      <c r="H13" s="254">
+        <f>G13*E13</f>
+        <v>4500</v>
+      </c>
+      <c r="I13" s="153"/>
+      <c r="J13" s="250"/>
+      <c r="K13" s="250"/>
+      <c r="L13" s="153"/>
+      <c r="M13" s="252">
+        <f>S17</f>
+        <v>20</v>
+      </c>
+      <c r="N13" s="252"/>
+      <c r="Q13" s="164"/>
+      <c r="R13" s="161" t="s">
+        <v>409</v>
+      </c>
+      <c r="S13" s="156">
+        <v>360</v>
+      </c>
+      <c r="T13" s="156"/>
+      <c r="U13" s="226">
+        <f>S13/60</f>
+        <v>6</v>
+      </c>
+      <c r="V13" s="119" t="s">
+        <v>393</v>
+      </c>
+      <c r="W13" s="160"/>
+      <c r="X13" s="160"/>
+      <c r="Y13" s="154"/>
+      <c r="Z13" s="151"/>
+      <c r="AA13" s="151"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14" s="149"/>
+      <c r="B14" s="230"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="250"/>
+      <c r="H14" s="250">
+        <f>H13+H12</f>
+        <v>6750</v>
+      </c>
+      <c r="I14" s="153"/>
+      <c r="J14" s="250"/>
+      <c r="K14" s="250"/>
+      <c r="L14" s="153"/>
+      <c r="M14" s="254">
+        <f>IF(Y22="true", S9, T9)</f>
+        <v>120</v>
+      </c>
+      <c r="N14" s="254"/>
+      <c r="Q14" s="164"/>
+      <c r="R14" s="162"/>
+      <c r="S14" s="158">
+        <f>(S8+ S9+S10+S11+S12+S13)/60</f>
+        <v>20.083333333333332</v>
+      </c>
+      <c r="T14" s="158" t="s">
+        <v>393</v>
+      </c>
+      <c r="U14" s="151"/>
+      <c r="W14" s="160"/>
+      <c r="X14" s="160"/>
+      <c r="Y14" s="154"/>
+      <c r="Z14" s="151"/>
+      <c r="AA14" s="151"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15" s="149"/>
+      <c r="B15" s="230"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="250"/>
+      <c r="H15" s="250"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="250"/>
+      <c r="K15" s="255">
+        <f>H14+J12</f>
+        <v>33750</v>
+      </c>
+      <c r="L15" s="153"/>
+      <c r="M15" s="250">
+        <f>M13+M12+M14</f>
+        <v>148.75</v>
+      </c>
+      <c r="N15" s="250">
+        <f>M15/60</f>
+        <v>2.4791666666666665</v>
+      </c>
+      <c r="O15" s="119" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q15" s="164"/>
+      <c r="R15" s="162"/>
+      <c r="S15" s="234"/>
+      <c r="T15" s="235"/>
+      <c r="U15" s="151"/>
+      <c r="W15" s="159"/>
+      <c r="X15" s="160"/>
+      <c r="Y15" s="154">
+        <v>60</v>
+      </c>
+      <c r="Z15" s="151"/>
+      <c r="AA15" s="151"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16" s="149"/>
+      <c r="B16" s="230"/>
+      <c r="C16" s="149"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="250"/>
+      <c r="H16" s="250"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="250"/>
+      <c r="K16" s="250"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="250"/>
+      <c r="N16" s="250"/>
+      <c r="Q16" s="164"/>
+      <c r="R16" s="162"/>
+      <c r="S16" s="234"/>
+      <c r="T16" s="235"/>
+      <c r="U16" s="151"/>
+      <c r="W16" s="160"/>
+      <c r="X16" s="160"/>
+      <c r="Y16" s="154"/>
+      <c r="Z16" s="151"/>
+      <c r="AA16" s="151"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A17" s="148" t="s">
+        <v>406</v>
+      </c>
+      <c r="B17" s="230"/>
+      <c r="C17" s="148" t="s">
+        <v>401</v>
+      </c>
+      <c r="D17" s="149"/>
+      <c r="E17" s="152">
+        <v>1</v>
+      </c>
+      <c r="F17" s="153"/>
+      <c r="G17" s="250">
+        <f>K9</f>
+        <v>2250</v>
+      </c>
+      <c r="H17" s="250">
+        <f>G17*E17</f>
+        <v>2250</v>
+      </c>
+      <c r="I17" s="153"/>
+      <c r="J17" s="250">
+        <f>Y10*Z10*S10</f>
+        <v>40500</v>
+      </c>
+      <c r="K17" s="250"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="250">
+        <f>M10</f>
+        <v>8.75</v>
+      </c>
+      <c r="N17" s="250"/>
+      <c r="Q17" s="164"/>
+      <c r="R17" s="161" t="s">
+        <v>410</v>
+      </c>
+      <c r="S17" s="156">
+        <v>20</v>
+      </c>
+      <c r="T17" s="156"/>
+      <c r="U17" s="151"/>
+      <c r="W17" s="160"/>
+      <c r="X17" s="160"/>
+      <c r="Y17" s="154"/>
+      <c r="Z17" s="151"/>
+      <c r="AA17" s="151"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A18" s="149"/>
+      <c r="B18" s="230"/>
+      <c r="C18" s="148" t="s">
+        <v>411</v>
+      </c>
+      <c r="D18" s="149"/>
+      <c r="E18" s="152">
+        <v>1</v>
+      </c>
+      <c r="F18" s="153"/>
+      <c r="G18" s="250">
+        <f>Y10*Z10*S18</f>
+        <v>7875</v>
+      </c>
+      <c r="H18" s="254">
+        <f>G18*E18</f>
+        <v>7875</v>
+      </c>
+      <c r="I18" s="153"/>
+      <c r="J18" s="250"/>
+      <c r="K18" s="250"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="250">
+        <f>S18</f>
+        <v>35</v>
+      </c>
+      <c r="N18" s="250"/>
+      <c r="Q18" s="164"/>
+      <c r="R18" s="161" t="s">
+        <v>411</v>
+      </c>
+      <c r="S18" s="156">
+        <v>35</v>
+      </c>
+      <c r="T18" s="156"/>
+      <c r="U18" s="151"/>
+      <c r="W18" s="160"/>
+      <c r="X18" s="160"/>
+      <c r="Y18" s="154"/>
+      <c r="Z18" s="151"/>
+      <c r="AA18" s="151"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A19" s="149"/>
+      <c r="B19" s="230"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="149"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="250"/>
+      <c r="H19" s="250">
+        <f>H18+H17</f>
+        <v>10125</v>
+      </c>
+      <c r="I19" s="153"/>
+      <c r="J19" s="250"/>
+      <c r="K19" s="250"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="254">
+        <f>IF(Y22="true", S10, T10)</f>
+        <v>180</v>
+      </c>
+      <c r="N19" s="254"/>
+      <c r="Q19" s="164"/>
+      <c r="R19" s="161" t="s">
+        <v>412</v>
+      </c>
+      <c r="S19" s="156">
+        <v>60</v>
+      </c>
+      <c r="T19" s="156"/>
+      <c r="U19" s="151"/>
+      <c r="W19" s="151"/>
+      <c r="X19" s="151"/>
+      <c r="Y19" s="151"/>
+      <c r="Z19" s="151"/>
+      <c r="AA19" s="151"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A20" s="149"/>
+      <c r="B20" s="230"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="250"/>
+      <c r="H20" s="250"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="250"/>
+      <c r="K20" s="255">
+        <f>J17+H19</f>
+        <v>50625</v>
+      </c>
+      <c r="L20" s="153"/>
+      <c r="M20" s="250">
+        <f>M19+M18+M17</f>
+        <v>223.75</v>
+      </c>
+      <c r="N20" s="250">
+        <f>M20/60</f>
+        <v>3.7291666666666665</v>
+      </c>
+      <c r="O20" s="119" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q20" s="164"/>
+      <c r="R20" s="161" t="s">
+        <v>413</v>
+      </c>
+      <c r="S20" s="156">
+        <v>100</v>
+      </c>
+      <c r="T20" s="156"/>
+      <c r="U20" s="151"/>
+      <c r="W20" s="248" t="s">
+        <v>396</v>
+      </c>
+      <c r="X20" s="230"/>
+      <c r="Y20" s="230"/>
+      <c r="Z20" s="151"/>
+      <c r="AA20" s="151"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A21" s="149"/>
+      <c r="B21" s="230"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="250"/>
+      <c r="H21" s="250"/>
+      <c r="I21" s="153"/>
+      <c r="J21" s="250"/>
+      <c r="K21" s="250"/>
+      <c r="L21" s="153"/>
+      <c r="M21" s="250"/>
+      <c r="N21" s="250"/>
+      <c r="Q21" s="164"/>
+      <c r="R21" s="161" t="s">
+        <v>414</v>
+      </c>
+      <c r="S21" s="156">
+        <v>140</v>
+      </c>
+      <c r="T21" s="156"/>
+      <c r="U21" s="151"/>
+      <c r="W21" s="233"/>
+      <c r="X21" s="233"/>
+      <c r="Y21" s="225"/>
+      <c r="Z21" s="151"/>
+      <c r="AA21" s="151"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A22" s="148" t="s">
+        <v>407</v>
+      </c>
+      <c r="B22" s="230"/>
+      <c r="C22" s="148" t="s">
+        <v>401</v>
+      </c>
+      <c r="D22" s="149"/>
+      <c r="E22" s="152">
+        <v>1</v>
+      </c>
+      <c r="F22" s="153"/>
+      <c r="G22" s="250">
+        <f>K9</f>
+        <v>2250</v>
+      </c>
+      <c r="H22" s="250">
+        <f>G22*E22</f>
+        <v>2250</v>
+      </c>
+      <c r="I22" s="153"/>
+      <c r="J22" s="250">
+        <f>Y10*Z10*S11</f>
+        <v>54000</v>
+      </c>
+      <c r="K22" s="250"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="250">
+        <f>M10</f>
+        <v>8.75</v>
+      </c>
+      <c r="N22" s="250"/>
+      <c r="Q22" s="164"/>
+      <c r="R22" s="234"/>
+      <c r="S22" s="235"/>
+      <c r="T22" s="235"/>
+      <c r="U22" s="151"/>
+      <c r="W22" s="232" t="s">
         <v>397</v>
       </c>
-      <c r="B1" s="151" t="s">
+      <c r="X22" s="233"/>
+      <c r="Y22" s="249" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <f>A2+B2</f>
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>16</v>
-      </c>
-      <c r="C3" s="151">
-        <f t="shared" ref="C3:E6" si="0">A3+B3</f>
-        <v>22</v>
-      </c>
-      <c r="E3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>17</v>
-      </c>
-      <c r="C4" s="151">
-        <f>A4+B4</f>
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>18</v>
-      </c>
-      <c r="C5" s="151">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>19</v>
-      </c>
-      <c r="C6" s="151">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="E6">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C9">
-        <f>SUM(C2:C8)</f>
-        <v>120</v>
-      </c>
+      <c r="Z22" s="151"/>
+      <c r="AA22" s="151"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A23" s="149"/>
+      <c r="B23" s="230"/>
+      <c r="C23" s="148" t="s">
+        <v>412</v>
+      </c>
+      <c r="D23" s="149"/>
+      <c r="E23" s="152">
+        <v>1</v>
+      </c>
+      <c r="F23" s="153"/>
+      <c r="G23" s="250">
+        <f>Y10*Z10*S19</f>
+        <v>13500</v>
+      </c>
+      <c r="H23" s="254">
+        <f>G23*E23</f>
+        <v>13500</v>
+      </c>
+      <c r="I23" s="153"/>
+      <c r="J23" s="250"/>
+      <c r="K23" s="250"/>
+      <c r="L23" s="153"/>
+      <c r="M23" s="250">
+        <f>S19</f>
+        <v>60</v>
+      </c>
+      <c r="N23" s="250"/>
+      <c r="Q23" s="164"/>
+      <c r="R23" s="234"/>
+      <c r="S23" s="235"/>
+      <c r="T23" s="235"/>
+      <c r="U23" s="151"/>
+      <c r="W23" s="233"/>
+      <c r="X23" s="233"/>
+      <c r="Y23" s="231"/>
+      <c r="Z23" s="151"/>
+      <c r="AA23" s="151"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A24" s="149"/>
+      <c r="B24" s="230"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="250"/>
+      <c r="H24" s="250">
+        <f>H23+H22</f>
+        <v>15750</v>
+      </c>
+      <c r="I24" s="153"/>
+      <c r="J24" s="250"/>
+      <c r="K24" s="250"/>
+      <c r="L24" s="153"/>
+      <c r="M24" s="254">
+        <f>IF(Y22="true", S11, T11)</f>
+        <v>240</v>
+      </c>
+      <c r="N24" s="254"/>
+      <c r="Q24" s="164"/>
+      <c r="R24" s="234"/>
+      <c r="S24" s="235"/>
+      <c r="T24" s="235"/>
+      <c r="U24" s="151"/>
+      <c r="W24" s="233"/>
+      <c r="X24" s="233"/>
+      <c r="Y24" s="225"/>
+      <c r="Z24" s="151"/>
+      <c r="AA24" s="151"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A25" s="149"/>
+      <c r="B25" s="230"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="250"/>
+      <c r="H25" s="250"/>
+      <c r="I25" s="153"/>
+      <c r="J25" s="250"/>
+      <c r="K25" s="255">
+        <f>J22+H24</f>
+        <v>69750</v>
+      </c>
+      <c r="L25" s="153"/>
+      <c r="M25" s="250">
+        <f>M24+M23+M22</f>
+        <v>308.75</v>
+      </c>
+      <c r="N25" s="250">
+        <f>M25/60</f>
+        <v>5.145833333333333</v>
+      </c>
+      <c r="O25" s="119" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q25" s="164"/>
+      <c r="R25" s="234"/>
+      <c r="S25" s="235"/>
+      <c r="T25" s="235"/>
+      <c r="U25" s="151"/>
+      <c r="W25" s="233"/>
+      <c r="X25" s="233"/>
+      <c r="Y25" s="225"/>
+      <c r="Z25" s="151"/>
+      <c r="AA25" s="151"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A26" s="149"/>
+      <c r="B26" s="230"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="250"/>
+      <c r="H26" s="250"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="250"/>
+      <c r="K26" s="250"/>
+      <c r="L26" s="153"/>
+      <c r="M26" s="250"/>
+      <c r="N26" s="250"/>
+      <c r="R26" s="234"/>
+      <c r="S26" s="235"/>
+      <c r="T26" s="235"/>
+      <c r="U26" s="151"/>
+      <c r="W26" s="233"/>
+      <c r="X26" s="233"/>
+      <c r="Y26" s="225"/>
+      <c r="Z26" s="151"/>
+      <c r="AA26" s="151"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A27" s="148" t="s">
+        <v>408</v>
+      </c>
+      <c r="B27" s="230"/>
+      <c r="C27" s="148" t="s">
+        <v>401</v>
+      </c>
+      <c r="D27" s="149"/>
+      <c r="E27" s="152">
+        <v>1</v>
+      </c>
+      <c r="F27" s="153"/>
+      <c r="G27" s="250">
+        <f>K9</f>
+        <v>2250</v>
+      </c>
+      <c r="H27" s="250">
+        <f>G27*E27</f>
+        <v>2250</v>
+      </c>
+      <c r="I27" s="153"/>
+      <c r="J27" s="250">
+        <f>Y10*Z10*S12</f>
+        <v>67500</v>
+      </c>
+      <c r="K27" s="250"/>
+      <c r="L27" s="153"/>
+      <c r="M27" s="250">
+        <f>M10</f>
+        <v>8.75</v>
+      </c>
+      <c r="N27" s="250"/>
+      <c r="R27" s="234"/>
+      <c r="S27" s="235"/>
+      <c r="T27" s="235"/>
+      <c r="U27" s="151"/>
+      <c r="V27" s="151"/>
+      <c r="W27" s="151"/>
+      <c r="X27" s="151"/>
+      <c r="Y27" s="151"/>
+      <c r="Z27" s="151"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A28" s="149"/>
+      <c r="B28" s="230"/>
+      <c r="C28" s="148" t="s">
+        <v>413</v>
+      </c>
+      <c r="D28" s="149"/>
+      <c r="E28" s="152">
+        <v>1</v>
+      </c>
+      <c r="F28" s="153"/>
+      <c r="G28" s="250">
+        <f>Y10*Z10*S20</f>
+        <v>22500</v>
+      </c>
+      <c r="H28" s="254">
+        <f>G28*E28</f>
+        <v>22500</v>
+      </c>
+      <c r="I28" s="153"/>
+      <c r="J28" s="250"/>
+      <c r="K28" s="250"/>
+      <c r="L28" s="153"/>
+      <c r="M28" s="250">
+        <f>S20</f>
+        <v>100</v>
+      </c>
+      <c r="N28" s="250"/>
+      <c r="R28" s="234"/>
+      <c r="S28" s="235"/>
+      <c r="T28" s="235"/>
+      <c r="U28" s="151"/>
+      <c r="V28" s="151"/>
+      <c r="W28" s="151"/>
+      <c r="X28" s="151"/>
+      <c r="Y28" s="151"/>
+      <c r="Z28" s="151"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A29" s="149"/>
+      <c r="B29" s="230"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="149"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="250"/>
+      <c r="H29" s="250">
+        <f>H28+H27</f>
+        <v>24750</v>
+      </c>
+      <c r="I29" s="153"/>
+      <c r="J29" s="250"/>
+      <c r="K29" s="250"/>
+      <c r="L29" s="153"/>
+      <c r="M29" s="254">
+        <f>S12</f>
+        <v>300</v>
+      </c>
+      <c r="N29" s="254"/>
+      <c r="R29" s="234"/>
+      <c r="S29" s="235"/>
+      <c r="T29" s="235"/>
+      <c r="U29" s="151"/>
+      <c r="V29" s="151"/>
+      <c r="W29" s="151"/>
+      <c r="X29" s="151"/>
+      <c r="Y29" s="151"/>
+      <c r="Z29" s="151"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A30" s="149"/>
+      <c r="B30" s="230"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="250"/>
+      <c r="H30" s="250"/>
+      <c r="I30" s="153"/>
+      <c r="J30" s="250"/>
+      <c r="K30" s="255">
+        <f>H29+J27</f>
+        <v>92250</v>
+      </c>
+      <c r="L30" s="153"/>
+      <c r="M30" s="250">
+        <f>M29+M28+M27</f>
+        <v>408.75</v>
+      </c>
+      <c r="N30" s="250">
+        <f>M30/60</f>
+        <v>6.8125</v>
+      </c>
+      <c r="O30" s="119" t="s">
+        <v>393</v>
+      </c>
+      <c r="R30" s="235"/>
+      <c r="S30" s="235"/>
+      <c r="T30" s="235"/>
+      <c r="U30" s="151"/>
+      <c r="V30" s="151"/>
+      <c r="W30" s="151"/>
+      <c r="X30" s="151"/>
+      <c r="Y30" s="151"/>
+      <c r="Z30" s="151"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A31" s="149"/>
+      <c r="B31" s="230"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="250"/>
+      <c r="H31" s="250"/>
+      <c r="I31" s="153"/>
+      <c r="J31" s="250"/>
+      <c r="K31" s="250"/>
+      <c r="L31" s="153"/>
+      <c r="M31" s="250"/>
+      <c r="N31" s="250"/>
+      <c r="R31" s="234"/>
+      <c r="S31" s="234"/>
+      <c r="T31" s="235"/>
+      <c r="U31" s="151"/>
+      <c r="V31" s="151"/>
+      <c r="W31" s="151"/>
+      <c r="X31" s="151"/>
+      <c r="Y31" s="151"/>
+      <c r="Z31" s="151"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A32" s="148" t="s">
+        <v>409</v>
+      </c>
+      <c r="B32" s="230"/>
+      <c r="C32" s="148" t="s">
+        <v>401</v>
+      </c>
+      <c r="D32" s="149"/>
+      <c r="E32" s="152">
+        <v>1</v>
+      </c>
+      <c r="F32" s="153"/>
+      <c r="G32" s="250">
+        <f>K9</f>
+        <v>2250</v>
+      </c>
+      <c r="H32" s="250">
+        <f>G32*E32</f>
+        <v>2250</v>
+      </c>
+      <c r="I32" s="153"/>
+      <c r="J32" s="250">
+        <f>Y10*Z10*S13</f>
+        <v>81000</v>
+      </c>
+      <c r="K32" s="250"/>
+      <c r="L32" s="153"/>
+      <c r="M32" s="250">
+        <f>M10</f>
+        <v>8.75</v>
+      </c>
+      <c r="N32" s="250"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="149"/>
+      <c r="B33" s="230"/>
+      <c r="C33" s="148" t="s">
+        <v>414</v>
+      </c>
+      <c r="D33" s="149"/>
+      <c r="E33" s="152">
+        <v>1</v>
+      </c>
+      <c r="F33" s="153"/>
+      <c r="G33" s="250">
+        <f>Y10*Z10*S21</f>
+        <v>31500</v>
+      </c>
+      <c r="H33" s="254">
+        <f>G33*E33</f>
+        <v>31500</v>
+      </c>
+      <c r="I33" s="153"/>
+      <c r="J33" s="250"/>
+      <c r="K33" s="250"/>
+      <c r="L33" s="153"/>
+      <c r="M33" s="250">
+        <f>S21</f>
+        <v>140</v>
+      </c>
+      <c r="N33" s="250"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="149"/>
+      <c r="B34" s="230"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="152"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="250"/>
+      <c r="H34" s="250">
+        <f>H33+H32</f>
+        <v>33750</v>
+      </c>
+      <c r="I34" s="153"/>
+      <c r="J34" s="250"/>
+      <c r="K34" s="250"/>
+      <c r="L34" s="153"/>
+      <c r="M34" s="254">
+        <f>S13</f>
+        <v>360</v>
+      </c>
+      <c r="N34" s="254"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="149"/>
+      <c r="B35" s="230"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="153"/>
+      <c r="G35" s="250"/>
+      <c r="H35" s="250"/>
+      <c r="I35" s="153"/>
+      <c r="J35" s="250"/>
+      <c r="K35" s="255">
+        <f>J32+H34</f>
+        <v>114750</v>
+      </c>
+      <c r="L35" s="153"/>
+      <c r="M35" s="250">
+        <f>M34+M33+M32</f>
+        <v>508.75</v>
+      </c>
+      <c r="N35" s="250">
+        <f>M35/60</f>
+        <v>8.4791666666666661</v>
+      </c>
+      <c r="O35" s="119" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="149"/>
+      <c r="B36" s="230"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="152"/>
+      <c r="F36" s="153"/>
+      <c r="G36" s="250"/>
+      <c r="H36" s="250"/>
+      <c r="I36" s="153"/>
+      <c r="J36" s="250"/>
+      <c r="K36" s="250"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="250"/>
+      <c r="N36" s="250"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="149"/>
+      <c r="B37" s="230"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="152"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="250"/>
+      <c r="H37" s="250"/>
+      <c r="I37" s="153"/>
+      <c r="J37" s="250"/>
+      <c r="K37" s="250"/>
+      <c r="L37" s="153"/>
+      <c r="M37" s="250"/>
+      <c r="N37" s="250"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="149"/>
+      <c r="B38" s="230"/>
+      <c r="C38" s="149"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="153"/>
+      <c r="G38" s="250"/>
+      <c r="H38" s="250"/>
+      <c r="I38" s="153"/>
+      <c r="J38" s="250"/>
+      <c r="K38" s="250"/>
+      <c r="L38" s="153"/>
+      <c r="M38" s="250"/>
+      <c r="N38" s="250"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="235"/>
+      <c r="B39" s="235"/>
+      <c r="C39" s="235"/>
+      <c r="D39" s="235"/>
+      <c r="E39" s="235"/>
+      <c r="F39" s="235"/>
+      <c r="G39" s="256"/>
+      <c r="H39" s="256"/>
+      <c r="I39" s="235"/>
+      <c r="J39" s="256"/>
+      <c r="K39" s="256"/>
+      <c r="L39" s="235"/>
+      <c r="M39" s="256"/>
+      <c r="N39" s="256"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="235"/>
+      <c r="B40" s="235"/>
+      <c r="C40" s="235"/>
+      <c r="D40" s="235"/>
+      <c r="E40" s="235"/>
+      <c r="F40" s="235"/>
+      <c r="G40" s="256"/>
+      <c r="H40" s="256"/>
+      <c r="I40" s="235"/>
+      <c r="J40" s="256"/>
+      <c r="K40" s="256"/>
+      <c r="L40" s="235"/>
+      <c r="M40" s="256"/>
+      <c r="N40" s="256"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="235"/>
+      <c r="B41" s="235"/>
+      <c r="C41" s="235"/>
+      <c r="D41" s="235"/>
+      <c r="E41" s="235"/>
+      <c r="F41" s="235"/>
+      <c r="G41" s="256"/>
+      <c r="H41" s="256"/>
+      <c r="I41" s="235"/>
+      <c r="J41" s="256"/>
+      <c r="K41" s="256"/>
+      <c r="L41" s="235"/>
+      <c r="M41" s="256"/>
+      <c r="N41" s="256"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="235"/>
+      <c r="B42" s="235"/>
+      <c r="C42" s="235"/>
+      <c r="D42" s="235"/>
+      <c r="E42" s="235"/>
+      <c r="F42" s="235"/>
+      <c r="G42" s="256"/>
+      <c r="H42" s="256"/>
+      <c r="I42" s="235"/>
+      <c r="J42" s="256"/>
+      <c r="K42" s="256"/>
+      <c r="L42" s="235"/>
+      <c r="M42" s="256"/>
+      <c r="N42" s="256"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="235"/>
+      <c r="B43" s="235"/>
+      <c r="C43" s="235"/>
+      <c r="D43" s="235"/>
+      <c r="E43" s="235"/>
+      <c r="F43" s="235"/>
+      <c r="G43" s="256"/>
+      <c r="H43" s="256"/>
+      <c r="I43" s="235"/>
+      <c r="J43" s="256"/>
+      <c r="K43" s="256"/>
+      <c r="L43" s="235"/>
+      <c r="M43" s="256"/>
+      <c r="N43" s="256"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="235"/>
+      <c r="B44" s="235"/>
+      <c r="C44" s="235"/>
+      <c r="D44" s="235"/>
+      <c r="E44" s="235"/>
+      <c r="F44" s="235"/>
+      <c r="G44" s="256"/>
+      <c r="H44" s="256"/>
+      <c r="I44" s="235"/>
+      <c r="J44" s="256"/>
+      <c r="K44" s="256"/>
+      <c r="L44" s="235"/>
+      <c r="M44" s="256"/>
+      <c r="N44" s="256"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="235"/>
+      <c r="B45" s="235"/>
+      <c r="C45" s="235"/>
+      <c r="D45" s="235"/>
+      <c r="E45" s="235"/>
+      <c r="F45" s="235"/>
+      <c r="G45" s="256"/>
+      <c r="H45" s="256"/>
+      <c r="I45" s="235"/>
+      <c r="J45" s="256"/>
+      <c r="K45" s="256"/>
+      <c r="L45" s="235"/>
+      <c r="M45" s="256"/>
+      <c r="N45" s="256"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="235"/>
+      <c r="B46" s="235"/>
+      <c r="C46" s="235"/>
+      <c r="D46" s="235"/>
+      <c r="E46" s="235"/>
+      <c r="F46" s="235"/>
+      <c r="G46" s="256"/>
+      <c r="H46" s="256"/>
+      <c r="I46" s="235"/>
+      <c r="J46" s="256"/>
+      <c r="K46" s="256"/>
+      <c r="L46" s="235"/>
+      <c r="M46" s="256"/>
+      <c r="N46" s="256"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" s="235"/>
+      <c r="B47" s="235"/>
+      <c r="C47" s="235"/>
+      <c r="D47" s="235"/>
+      <c r="E47" s="235"/>
+      <c r="F47" s="235"/>
+      <c r="G47" s="256"/>
+      <c r="H47" s="256"/>
+      <c r="I47" s="235"/>
+      <c r="J47" s="256"/>
+      <c r="K47" s="256"/>
+      <c r="L47" s="235"/>
+      <c r="M47" s="256"/>
+      <c r="N47" s="256"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="235"/>
+      <c r="B48" s="235"/>
+      <c r="C48" s="235"/>
+      <c r="D48" s="235"/>
+      <c r="E48" s="235"/>
+      <c r="F48" s="235"/>
+      <c r="G48" s="256"/>
+      <c r="H48" s="256"/>
+      <c r="I48" s="235"/>
+      <c r="J48" s="256"/>
+      <c r="K48" s="256"/>
+      <c r="L48" s="235"/>
+      <c r="M48" s="256"/>
+      <c r="N48" s="256"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="235"/>
+      <c r="B49" s="235"/>
+      <c r="C49" s="235"/>
+      <c r="D49" s="235"/>
+      <c r="E49" s="235"/>
+      <c r="F49" s="235"/>
+      <c r="G49" s="256"/>
+      <c r="H49" s="256"/>
+      <c r="I49" s="235"/>
+      <c r="J49" s="256"/>
+      <c r="K49" s="256"/>
+      <c r="L49" s="235"/>
+      <c r="M49" s="256"/>
+      <c r="N49" s="256"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="235"/>
+      <c r="B50" s="235"/>
+      <c r="C50" s="235"/>
+      <c r="D50" s="235"/>
+      <c r="E50" s="235"/>
+      <c r="F50" s="235"/>
+      <c r="G50" s="256"/>
+      <c r="H50" s="256"/>
+      <c r="I50" s="235"/>
+      <c r="J50" s="256"/>
+      <c r="K50" s="256"/>
+      <c r="L50" s="235"/>
+      <c r="M50" s="256"/>
+      <c r="N50" s="256"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="235"/>
+      <c r="B51" s="235"/>
+      <c r="C51" s="235"/>
+      <c r="D51" s="235"/>
+      <c r="E51" s="235"/>
+      <c r="F51" s="235"/>
+      <c r="G51" s="256"/>
+      <c r="H51" s="256"/>
+      <c r="I51" s="235"/>
+      <c r="J51" s="256"/>
+      <c r="K51" s="256"/>
+      <c r="L51" s="235"/>
+      <c r="M51" s="256"/>
+      <c r="N51" s="256"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="235"/>
+      <c r="B52" s="235"/>
+      <c r="C52" s="235"/>
+      <c r="D52" s="235"/>
+      <c r="E52" s="235"/>
+      <c r="F52" s="235"/>
+      <c r="G52" s="256"/>
+      <c r="H52" s="256"/>
+      <c r="I52" s="235"/>
+      <c r="J52" s="256"/>
+      <c r="K52" s="256"/>
+      <c r="L52" s="235"/>
+      <c r="M52" s="256"/>
+      <c r="N52" s="256"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C9">
-    <cfRule type="iconSet" priority="1">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
+  <mergeCells count="2">
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="R6:S6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11755,7 +13344,7 @@
   <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11779,11 +13368,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="215"/>
-      <c r="B1" s="215"/>
+      <c r="A1" s="209"/>
+      <c r="B1" s="209"/>
       <c r="C1" s="186"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
       <c r="F1" s="186"/>
       <c r="G1" s="186"/>
       <c r="H1" s="186"/>
@@ -11795,20 +13384,20 @@
       <c r="N1" s="186"/>
       <c r="O1" s="186"/>
       <c r="P1" s="186"/>
-      <c r="Q1" s="215"/>
+      <c r="Q1" s="209"/>
     </row>
     <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="186"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="208" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="186"/>
       <c r="D2" s="186"/>
-      <c r="E2" s="223" t="s">
+      <c r="E2" s="217" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="186"/>
-      <c r="G2" s="224" t="s">
+      <c r="G2" s="218" t="s">
         <v>45</v>
       </c>
       <c r="H2" s="186"/>
@@ -11824,10 +13413,10 @@
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="186"/>
-      <c r="B3" s="215"/>
+      <c r="B3" s="209"/>
       <c r="C3" s="186"/>
       <c r="D3" s="186"/>
-      <c r="E3" s="215"/>
+      <c r="E3" s="209"/>
       <c r="F3" s="186"/>
       <c r="G3" s="186"/>
       <c r="H3" s="186"/>
@@ -11843,10 +13432,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="186"/>
-      <c r="B4" s="216"/>
+      <c r="B4" s="210"/>
       <c r="C4" s="186"/>
       <c r="D4" s="186"/>
-      <c r="E4" s="222" t="s">
+      <c r="E4" s="216" t="s">
         <v>103</v>
       </c>
       <c r="F4" s="186"/>
@@ -11952,10 +13541,10 @@
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="186"/>
-      <c r="B7" s="217"/>
+      <c r="B7" s="211"/>
       <c r="C7" s="186"/>
       <c r="D7" s="186"/>
-      <c r="E7" s="215"/>
+      <c r="E7" s="209"/>
       <c r="F7" s="186"/>
       <c r="G7" s="186"/>
       <c r="H7" s="186"/>
@@ -11971,12 +13560,12 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="186"/>
-      <c r="B8" s="216" t="s">
+      <c r="B8" s="210" t="s">
         <v>122</v>
       </c>
       <c r="C8" s="186"/>
       <c r="D8" s="186"/>
-      <c r="E8" s="218" t="s">
+      <c r="E8" s="212" t="s">
         <v>123</v>
       </c>
       <c r="F8" s="186"/>
@@ -12328,10 +13917,10 @@
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="186"/>
-      <c r="B16" s="217"/>
+      <c r="B16" s="211"/>
       <c r="C16" s="186"/>
       <c r="D16" s="186"/>
-      <c r="E16" s="215"/>
+      <c r="E16" s="209"/>
       <c r="F16" s="186"/>
       <c r="G16" s="186"/>
       <c r="H16" s="186"/>
@@ -12347,12 +13936,12 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="186"/>
-      <c r="B17" s="216" t="s">
+      <c r="B17" s="210" t="s">
         <v>182</v>
       </c>
       <c r="C17" s="186"/>
       <c r="D17" s="186"/>
-      <c r="E17" s="220" t="s">
+      <c r="E17" s="214" t="s">
         <v>183</v>
       </c>
       <c r="F17" s="186"/>
@@ -12669,10 +14258,10 @@
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="186"/>
-      <c r="B25" s="217"/>
+      <c r="B25" s="211"/>
       <c r="C25" s="186"/>
       <c r="D25" s="186"/>
-      <c r="E25" s="215"/>
+      <c r="E25" s="209"/>
       <c r="F25" s="186"/>
       <c r="G25" s="186"/>
       <c r="H25" s="186"/>
@@ -12688,12 +14277,12 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="186"/>
-      <c r="B26" s="216" t="s">
+      <c r="B26" s="210" t="s">
         <v>216</v>
       </c>
       <c r="C26" s="186"/>
       <c r="D26" s="186"/>
-      <c r="E26" s="221" t="s">
+      <c r="E26" s="215" t="s">
         <v>217</v>
       </c>
       <c r="F26" s="186"/>
@@ -12992,10 +14581,10 @@
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="186"/>
-      <c r="B34" s="217"/>
+      <c r="B34" s="211"/>
       <c r="C34" s="186"/>
       <c r="D34" s="186"/>
-      <c r="E34" s="215"/>
+      <c r="E34" s="209"/>
       <c r="F34" s="186"/>
       <c r="G34" s="186"/>
       <c r="H34" s="186"/>
@@ -13011,12 +14600,12 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="186"/>
-      <c r="B35" s="216" t="s">
+      <c r="B35" s="210" t="s">
         <v>246</v>
       </c>
       <c r="C35" s="186"/>
       <c r="D35" s="186"/>
-      <c r="E35" s="219" t="s">
+      <c r="E35" s="213" t="s">
         <v>247</v>
       </c>
       <c r="F35" s="186"/>
@@ -13464,7 +15053,7 @@
   <dimension ref="A4:P42"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="L12" sqref="L12:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13484,133 +15073,133 @@
   <sheetData>
     <row r="4" spans="8:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="H4" s="183" t="s">
+        <v>364</v>
+      </c>
+      <c r="I4" s="119" t="s">
         <v>365</v>
-      </c>
-      <c r="I4" s="119" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="5" spans="8:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="H5" s="183" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I5" s="119" t="s">
+        <v>366</v>
+      </c>
+      <c r="J5" s="119" t="s">
         <v>367</v>
       </c>
-      <c r="J5" s="119" t="s">
+      <c r="K5" s="119" t="s">
         <v>368</v>
       </c>
-      <c r="K5" s="119" t="s">
+      <c r="L5" s="119" t="s">
         <v>369</v>
       </c>
-      <c r="L5" s="119" t="s">
+      <c r="M5" s="119" t="s">
         <v>370</v>
-      </c>
-      <c r="M5" s="119" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="6" spans="8:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="H6" s="183" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I6" s="119" t="s">
+        <v>372</v>
+      </c>
+      <c r="J6" s="119" t="s">
         <v>373</v>
       </c>
-      <c r="J6" s="119" t="s">
+      <c r="K6" s="119" t="s">
         <v>374</v>
       </c>
-      <c r="K6" s="119" t="s">
+      <c r="L6" s="119" t="s">
         <v>375</v>
       </c>
-      <c r="L6" s="119" t="s">
+      <c r="M6" s="119" t="s">
         <v>376</v>
-      </c>
-      <c r="M6" s="119" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="7" spans="8:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="H7" s="183" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I7" s="119" t="s">
+        <v>377</v>
+      </c>
+      <c r="J7" s="119" t="s">
         <v>378</v>
       </c>
-      <c r="J7" s="119" t="s">
+      <c r="K7" s="119" t="s">
         <v>379</v>
       </c>
-      <c r="K7" s="119" t="s">
+      <c r="L7" s="119" t="s">
         <v>380</v>
       </c>
-      <c r="L7" s="119" t="s">
+      <c r="M7" s="119" t="s">
         <v>381</v>
-      </c>
-      <c r="M7" s="119" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="10" spans="8:16" x14ac:dyDescent="0.2">
       <c r="I10" s="178" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K10" s="178" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M10" s="178" t="s">
+        <v>382</v>
+      </c>
+      <c r="O10" s="119" t="s">
         <v>383</v>
-      </c>
-      <c r="O10" s="119" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="11" spans="8:16" x14ac:dyDescent="0.2">
       <c r="I11" s="184" t="s">
+        <v>384</v>
+      </c>
+      <c r="J11" s="184" t="s">
         <v>385</v>
       </c>
-      <c r="J11" s="184" t="s">
-        <v>386</v>
-      </c>
       <c r="K11" s="184" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L11" s="184" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M11" s="184" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N11" s="184" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O11" s="184" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P11" s="184" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="8:16" x14ac:dyDescent="0.2">
       <c r="I12" s="178" t="s">
+        <v>365</v>
+      </c>
+      <c r="J12" s="119" t="s">
+        <v>386</v>
+      </c>
+      <c r="K12" s="178" t="s">
         <v>366</v>
-      </c>
-      <c r="J12" s="119" t="s">
-        <v>387</v>
-      </c>
-      <c r="K12" s="178" t="s">
-        <v>367</v>
       </c>
       <c r="L12" s="143">
         <v>20</v>
       </c>
       <c r="M12" s="178" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N12" s="143">
         <v>32</v>
       </c>
       <c r="O12" s="178" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P12" s="143">
         <v>58</v>
@@ -13618,19 +15207,19 @@
     </row>
     <row r="13" spans="8:16" x14ac:dyDescent="0.2">
       <c r="K13" s="178" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L13" s="143">
         <v>35</v>
       </c>
       <c r="M13" s="178" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N13" s="143">
         <v>56</v>
       </c>
       <c r="O13" s="178" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P13" s="143">
         <v>101</v>
@@ -13638,19 +15227,19 @@
     </row>
     <row r="14" spans="8:16" x14ac:dyDescent="0.2">
       <c r="K14" s="178" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L14" s="143">
         <v>60</v>
       </c>
       <c r="M14" s="119" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N14" s="143">
         <v>96</v>
       </c>
       <c r="O14" s="178" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P14" s="143">
         <v>173</v>
@@ -13658,19 +15247,19 @@
     </row>
     <row r="15" spans="8:16" x14ac:dyDescent="0.2">
       <c r="K15" s="178" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L15" s="143">
         <v>100</v>
       </c>
       <c r="M15" s="178" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N15" s="143">
         <v>160</v>
       </c>
       <c r="O15" s="178" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P15" s="143">
         <v>288</v>
@@ -13678,19 +15267,19 @@
     </row>
     <row r="16" spans="8:16" x14ac:dyDescent="0.2">
       <c r="K16" s="178" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L16" s="143">
         <v>140</v>
       </c>
       <c r="M16" s="178" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N16" s="143">
         <v>224</v>
       </c>
       <c r="O16" s="178" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P16" s="143">
         <v>403</v>
@@ -13811,7 +15400,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/0 DyTech Informations/Dytech Balance.xlsx
+++ b/0 DyTech Informations/Dytech Balance.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jort\Documents\GitHub\Dytech\0 DyTech Informations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DyTech\0 DyTech Informations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12135" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12135" tabRatio="781" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <sheet name="Nuclear Fuel" sheetId="11" r:id="rId4"/>
     <sheet name="Membranes" sheetId="16" r:id="rId5"/>
     <sheet name="Laser Turrets" sheetId="3" r:id="rId6"/>
-    <sheet name="Empty Sheet" sheetId="9" r:id="rId7"/>
-    <sheet name="Gems" sheetId="10" r:id="rId8"/>
-    <sheet name="Msc" sheetId="5" r:id="rId9"/>
-    <sheet name="Dytech Balance" sheetId="6" state="hidden" r:id="rId10"/>
-    <sheet name="Msc2" sheetId="7" r:id="rId11"/>
+    <sheet name="Enemies" sheetId="17" r:id="rId7"/>
+    <sheet name="Empty Sheet" sheetId="9" r:id="rId8"/>
+    <sheet name="Gems" sheetId="10" r:id="rId9"/>
+    <sheet name="Msc" sheetId="5" r:id="rId10"/>
+    <sheet name="Dytech Balance" sheetId="6" state="hidden" r:id="rId11"/>
+    <sheet name="Msc2" sheetId="7" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -726,7 +727,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="443">
   <si>
     <t>README</t>
   </si>
@@ -1974,6 +1975,87 @@
   </si>
   <si>
     <t>(minutes)</t>
+  </si>
+  <si>
+    <t>Weapon/Ammo</t>
+  </si>
+  <si>
+    <t>Biters</t>
+  </si>
+  <si>
+    <t>Spitter</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Berserker</t>
+  </si>
+  <si>
+    <t>Elder</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Queen</t>
+  </si>
+  <si>
+    <t>Basic Ammo</t>
+  </si>
+  <si>
+    <t>Armor Piercing Ammo</t>
+  </si>
+  <si>
+    <t>Shotgun Shell</t>
+  </si>
+  <si>
+    <t>Piercing Shotgun Shell</t>
+  </si>
+  <si>
+    <t>Rocket</t>
+  </si>
+  <si>
+    <t>Explosive Rocket</t>
+  </si>
+  <si>
+    <t>Poison Capsule 2</t>
+  </si>
+  <si>
+    <t>Poison Capsule 3</t>
+  </si>
+  <si>
+    <t>Poison Capsule 1</t>
+  </si>
+  <si>
+    <t>Health Enemies</t>
+  </si>
+  <si>
+    <t>-------------------------</t>
+  </si>
+  <si>
+    <t>Biter Factor:</t>
+  </si>
+  <si>
+    <t>Flamethrower</t>
+  </si>
+  <si>
+    <t>Cannon Shell</t>
+  </si>
+  <si>
+    <t>Grenade 1</t>
+  </si>
+  <si>
+    <t>Grenade 3</t>
+  </si>
+  <si>
+    <t>Grenade 2</t>
   </si>
 </sst>
 </file>
@@ -1989,7 +2071,7 @@
     <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2111,8 +2193,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="53">
+  <fills count="55">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2422,8 +2518,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2577,15 +2683,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="257">
+  <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2831,103 +2985,11 @@
     <xf numFmtId="4" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2938,15 +3000,6 @@
     <xf numFmtId="0" fontId="0" fillId="51" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="51" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2961,10 +3014,128 @@
     <xf numFmtId="4" fontId="0" fillId="38" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="38" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="53" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="54" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="54" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="54" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
     <cellStyle name="Accent3" xfId="4" builtinId="37"/>
+    <cellStyle name="Accent5" xfId="5" builtinId="45"/>
+    <cellStyle name="Accent6" xfId="6" builtinId="49"/>
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Procent" xfId="2" builtinId="5"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -5298,68 +5469,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="197"/>
-      <c r="B1" s="194" t="s">
+      <c r="A1" s="216"/>
+      <c r="B1" s="223" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="186"/>
-      <c r="D1" s="194" t="s">
+      <c r="C1" s="215"/>
+      <c r="D1" s="223" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="194" t="s">
+      <c r="M1" s="223" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="186"/>
-      <c r="O1" s="186"/>
-      <c r="P1" s="186"/>
-      <c r="Q1" s="197"/>
+      <c r="N1" s="215"/>
+      <c r="O1" s="215"/>
+      <c r="P1" s="215"/>
+      <c r="Q1" s="216"/>
       <c r="U1" s="9"/>
-      <c r="V1" s="192"/>
-      <c r="W1" s="186"/>
-      <c r="X1" s="186"/>
+      <c r="V1" s="225"/>
+      <c r="W1" s="215"/>
+      <c r="X1" s="215"/>
     </row>
     <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="186"/>
-      <c r="B2" s="188" t="s">
+      <c r="A2" s="215"/>
+      <c r="B2" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="193" t="s">
+      <c r="C2" s="215"/>
+      <c r="D2" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="195"/>
-      <c r="M2" s="193" t="s">
+      <c r="L2" s="220"/>
+      <c r="M2" s="227" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
-      <c r="P2" s="186"/>
-      <c r="Q2" s="186"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="185"/>
-      <c r="W2" s="186"/>
-      <c r="X2" s="186"/>
+      <c r="V2" s="226"/>
+      <c r="W2" s="215"/>
+      <c r="X2" s="215"/>
     </row>
     <row r="3" spans="1:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="186"/>
+      <c r="A3" s="215"/>
       <c r="B3" s="18" t="s">
         <v>23</v>
       </c>
@@ -5382,7 +5553,7 @@
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
-      <c r="L3" s="186"/>
+      <c r="L3" s="215"/>
       <c r="M3" s="24" t="s">
         <v>82</v>
       </c>
@@ -5393,7 +5564,7 @@
         <v>84</v>
       </c>
       <c r="P3" s="24"/>
-      <c r="Q3" s="186"/>
+      <c r="Q3" s="215"/>
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
@@ -5403,7 +5574,7 @@
       <c r="X3" s="27"/>
     </row>
     <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="186"/>
+      <c r="A4" s="215"/>
       <c r="B4" s="18" t="s">
         <v>101</v>
       </c>
@@ -5425,7 +5596,7 @@
       <c r="I4" s="36"/>
       <c r="J4" s="36"/>
       <c r="K4" s="36"/>
-      <c r="L4" s="186"/>
+      <c r="L4" s="215"/>
       <c r="M4" s="29">
         <v>1</v>
       </c>
@@ -5436,7 +5607,7 @@
         <v>0.1</v>
       </c>
       <c r="P4" s="42"/>
-      <c r="Q4" s="186"/>
+      <c r="Q4" s="215"/>
       <c r="R4" s="43"/>
       <c r="S4" s="39"/>
       <c r="U4" s="43"/>
@@ -5445,7 +5616,7 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="186"/>
+      <c r="A5" s="215"/>
       <c r="B5" s="18" t="s">
         <v>108</v>
       </c>
@@ -5471,7 +5642,7 @@
       <c r="I5" s="36"/>
       <c r="J5" s="36"/>
       <c r="K5" s="36"/>
-      <c r="L5" s="186"/>
+      <c r="L5" s="215"/>
       <c r="M5" s="29">
         <v>2</v>
       </c>
@@ -5482,7 +5653,7 @@
         <v>0.2</v>
       </c>
       <c r="P5" s="42"/>
-      <c r="Q5" s="186"/>
+      <c r="Q5" s="215"/>
       <c r="R5" s="43"/>
       <c r="S5" s="39"/>
       <c r="T5" s="10"/>
@@ -5492,7 +5663,7 @@
       <c r="X5" s="10"/>
     </row>
     <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="186"/>
+      <c r="A6" s="215"/>
       <c r="B6" s="14"/>
       <c r="C6" s="45"/>
       <c r="D6" s="29">
@@ -5516,7 +5687,7 @@
       <c r="I6" s="36"/>
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
-      <c r="L6" s="186"/>
+      <c r="L6" s="215"/>
       <c r="M6" s="29">
         <v>3</v>
       </c>
@@ -5527,7 +5698,7 @@
         <v>0.3</v>
       </c>
       <c r="P6" s="42"/>
-      <c r="Q6" s="186"/>
+      <c r="Q6" s="215"/>
       <c r="R6" s="43"/>
       <c r="S6" s="39"/>
       <c r="U6" s="43"/>
@@ -5536,7 +5707,7 @@
       <c r="X6" s="10"/>
     </row>
     <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="186"/>
+      <c r="A7" s="215"/>
       <c r="B7" s="14"/>
       <c r="C7" s="45"/>
       <c r="D7" s="29">
@@ -5558,7 +5729,7 @@
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
       <c r="K7" s="36"/>
-      <c r="L7" s="186"/>
+      <c r="L7" s="215"/>
       <c r="M7" s="29">
         <v>4</v>
       </c>
@@ -5569,14 +5740,14 @@
         <v>0.4</v>
       </c>
       <c r="P7" s="42"/>
-      <c r="Q7" s="186"/>
+      <c r="Q7" s="215"/>
       <c r="R7" s="43"/>
       <c r="S7" s="39"/>
       <c r="U7" s="43"/>
       <c r="V7" s="43"/>
     </row>
     <row r="8" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="186"/>
+      <c r="A8" s="215"/>
       <c r="B8" s="14"/>
       <c r="C8" s="45"/>
       <c r="D8" s="29">
@@ -5600,7 +5771,7 @@
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
-      <c r="L8" s="186"/>
+      <c r="L8" s="215"/>
       <c r="M8" s="29">
         <v>5</v>
       </c>
@@ -5611,14 +5782,14 @@
         <v>0.5</v>
       </c>
       <c r="P8" s="42"/>
-      <c r="Q8" s="186"/>
+      <c r="Q8" s="215"/>
       <c r="R8" s="43"/>
       <c r="S8" s="39"/>
       <c r="U8" s="43"/>
       <c r="V8" s="43"/>
     </row>
     <row r="9" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="186"/>
+      <c r="A9" s="215"/>
       <c r="B9" s="14"/>
       <c r="C9" s="45"/>
       <c r="D9" s="29">
@@ -5640,7 +5811,7 @@
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
-      <c r="L9" s="186"/>
+      <c r="L9" s="215"/>
       <c r="M9" s="29">
         <v>6</v>
       </c>
@@ -5651,14 +5822,14 @@
         <v>0.6</v>
       </c>
       <c r="P9" s="42"/>
-      <c r="Q9" s="186"/>
+      <c r="Q9" s="215"/>
       <c r="R9" s="43"/>
       <c r="S9" s="39"/>
       <c r="U9" s="43"/>
       <c r="V9" s="43"/>
     </row>
     <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="186"/>
+      <c r="A10" s="215"/>
       <c r="B10" s="14"/>
       <c r="C10" s="45"/>
       <c r="D10" s="29">
@@ -5682,7 +5853,7 @@
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
-      <c r="L10" s="186"/>
+      <c r="L10" s="215"/>
       <c r="M10" s="29">
         <v>7</v>
       </c>
@@ -5693,14 +5864,14 @@
         <v>0.7</v>
       </c>
       <c r="P10" s="42"/>
-      <c r="Q10" s="186"/>
+      <c r="Q10" s="215"/>
       <c r="R10" s="43"/>
       <c r="S10" s="39"/>
       <c r="U10" s="43"/>
       <c r="V10" s="43"/>
     </row>
     <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="186"/>
+      <c r="A11" s="215"/>
       <c r="B11" s="14"/>
       <c r="C11" s="45"/>
       <c r="D11" s="29">
@@ -5724,7 +5895,7 @@
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
-      <c r="L11" s="186"/>
+      <c r="L11" s="215"/>
       <c r="M11" s="29">
         <v>8</v>
       </c>
@@ -5735,30 +5906,30 @@
         <v>0.8</v>
       </c>
       <c r="P11" s="42"/>
-      <c r="Q11" s="186"/>
+      <c r="Q11" s="215"/>
       <c r="R11" s="43"/>
       <c r="S11" s="39"/>
       <c r="U11" s="43"/>
       <c r="V11" s="43"/>
     </row>
     <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="186"/>
-      <c r="B12" s="189"/>
-      <c r="C12" s="186"/>
-      <c r="D12" s="190"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="186"/>
+      <c r="A12" s="215"/>
+      <c r="B12" s="214"/>
+      <c r="C12" s="215"/>
+      <c r="D12" s="219"/>
+      <c r="E12" s="215"/>
+      <c r="F12" s="215"/>
+      <c r="G12" s="215"/>
       <c r="H12" s="56"/>
       <c r="I12" s="56"/>
       <c r="J12" s="56"/>
       <c r="K12" s="56"/>
-      <c r="L12" s="186"/>
-      <c r="M12" s="190"/>
-      <c r="N12" s="186"/>
-      <c r="O12" s="186"/>
-      <c r="P12" s="186"/>
-      <c r="Q12" s="186"/>
+      <c r="L12" s="215"/>
+      <c r="M12" s="219"/>
+      <c r="N12" s="215"/>
+      <c r="O12" s="215"/>
+      <c r="P12" s="215"/>
+      <c r="Q12" s="215"/>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
@@ -5768,37 +5939,37 @@
       <c r="X12" s="17"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="186"/>
-      <c r="B13" s="188"/>
-      <c r="C13" s="186"/>
-      <c r="D13" s="191" t="s">
+      <c r="A13" s="215"/>
+      <c r="B13" s="217"/>
+      <c r="C13" s="215"/>
+      <c r="D13" s="224" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="186"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="186"/>
+      <c r="E13" s="215"/>
+      <c r="F13" s="215"/>
+      <c r="G13" s="215"/>
       <c r="H13" s="58"/>
       <c r="I13" s="58"/>
       <c r="J13" s="58"/>
       <c r="K13" s="58"/>
-      <c r="L13" s="186"/>
-      <c r="M13" s="191" t="s">
+      <c r="L13" s="215"/>
+      <c r="M13" s="224" t="s">
         <v>144</v>
       </c>
-      <c r="N13" s="186"/>
-      <c r="O13" s="186"/>
-      <c r="P13" s="186"/>
-      <c r="Q13" s="186"/>
+      <c r="N13" s="215"/>
+      <c r="O13" s="215"/>
+      <c r="P13" s="215"/>
+      <c r="Q13" s="215"/>
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
-      <c r="V13" s="185"/>
-      <c r="W13" s="186"/>
-      <c r="X13" s="186"/>
+      <c r="V13" s="226"/>
+      <c r="W13" s="215"/>
+      <c r="X13" s="215"/>
     </row>
     <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="186"/>
+      <c r="A14" s="215"/>
       <c r="B14" s="14"/>
       <c r="C14" s="45"/>
       <c r="D14" s="60" t="s">
@@ -5819,7 +5990,7 @@
       <c r="I14" s="60"/>
       <c r="J14" s="60"/>
       <c r="K14" s="60"/>
-      <c r="L14" s="186"/>
+      <c r="L14" s="215"/>
       <c r="M14" s="60" t="s">
         <v>151</v>
       </c>
@@ -5828,7 +5999,7 @@
       </c>
       <c r="O14" s="60"/>
       <c r="P14" s="60"/>
-      <c r="Q14" s="186"/>
+      <c r="Q14" s="215"/>
       <c r="R14" s="27"/>
       <c r="S14" s="27"/>
       <c r="T14" s="27"/>
@@ -5838,7 +6009,7 @@
       <c r="X14" s="27"/>
     </row>
     <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="186"/>
+      <c r="A15" s="215"/>
       <c r="B15" s="14"/>
       <c r="C15" s="45"/>
       <c r="D15" s="62">
@@ -5858,7 +6029,7 @@
       <c r="I15" s="68"/>
       <c r="J15" s="68"/>
       <c r="K15" s="68"/>
-      <c r="L15" s="186"/>
+      <c r="L15" s="215"/>
       <c r="M15" s="62">
         <v>1</v>
       </c>
@@ -5867,7 +6038,7 @@
       </c>
       <c r="O15" s="65"/>
       <c r="P15" s="65"/>
-      <c r="Q15" s="186"/>
+      <c r="Q15" s="215"/>
       <c r="R15" s="43"/>
       <c r="S15" s="39"/>
       <c r="U15" s="43"/>
@@ -5875,7 +6046,7 @@
       <c r="W15" s="10"/>
     </row>
     <row r="16" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="186"/>
+      <c r="A16" s="215"/>
       <c r="B16" s="14"/>
       <c r="C16" s="45"/>
       <c r="D16" s="62">
@@ -5897,7 +6068,7 @@
       <c r="I16" s="68"/>
       <c r="J16" s="68"/>
       <c r="K16" s="68"/>
-      <c r="L16" s="186"/>
+      <c r="L16" s="215"/>
       <c r="M16" s="62">
         <v>2</v>
       </c>
@@ -5906,7 +6077,7 @@
       </c>
       <c r="O16" s="65"/>
       <c r="P16" s="65"/>
-      <c r="Q16" s="186"/>
+      <c r="Q16" s="215"/>
       <c r="R16" s="43"/>
       <c r="S16" s="39"/>
       <c r="U16" s="43"/>
@@ -5914,7 +6085,7 @@
       <c r="W16" s="10"/>
     </row>
     <row r="17" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="186"/>
+      <c r="A17" s="215"/>
       <c r="B17" s="14"/>
       <c r="C17" s="45"/>
       <c r="D17" s="62">
@@ -5938,7 +6109,7 @@
       <c r="I17" s="68"/>
       <c r="J17" s="68"/>
       <c r="K17" s="68"/>
-      <c r="L17" s="186"/>
+      <c r="L17" s="215"/>
       <c r="M17" s="62">
         <v>3</v>
       </c>
@@ -5947,7 +6118,7 @@
       </c>
       <c r="O17" s="65"/>
       <c r="P17" s="65"/>
-      <c r="Q17" s="186"/>
+      <c r="Q17" s="215"/>
       <c r="R17" s="43"/>
       <c r="S17" s="39"/>
       <c r="U17" s="43"/>
@@ -5955,7 +6126,7 @@
       <c r="W17" s="10"/>
     </row>
     <row r="18" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="186"/>
+      <c r="A18" s="215"/>
       <c r="B18" s="14"/>
       <c r="C18" s="45"/>
       <c r="D18" s="62">
@@ -5977,7 +6148,7 @@
       <c r="I18" s="68"/>
       <c r="J18" s="68"/>
       <c r="K18" s="68"/>
-      <c r="L18" s="186"/>
+      <c r="L18" s="215"/>
       <c r="M18" s="62">
         <v>4</v>
       </c>
@@ -5986,13 +6157,13 @@
       </c>
       <c r="O18" s="65"/>
       <c r="P18" s="65"/>
-      <c r="Q18" s="186"/>
+      <c r="Q18" s="215"/>
       <c r="R18" s="43"/>
       <c r="U18" s="43"/>
       <c r="V18" s="43"/>
     </row>
     <row r="19" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="186"/>
+      <c r="A19" s="215"/>
       <c r="B19" s="14"/>
       <c r="C19" s="45"/>
       <c r="D19" s="62">
@@ -6016,7 +6187,7 @@
       <c r="I19" s="68"/>
       <c r="J19" s="68"/>
       <c r="K19" s="68"/>
-      <c r="L19" s="186"/>
+      <c r="L19" s="215"/>
       <c r="M19" s="62">
         <v>5</v>
       </c>
@@ -6025,13 +6196,13 @@
       </c>
       <c r="O19" s="65"/>
       <c r="P19" s="65"/>
-      <c r="Q19" s="186"/>
+      <c r="Q19" s="215"/>
       <c r="R19" s="43"/>
       <c r="U19" s="43"/>
       <c r="V19" s="43"/>
     </row>
     <row r="20" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="186"/>
+      <c r="A20" s="215"/>
       <c r="B20" s="14"/>
       <c r="C20" s="45"/>
       <c r="D20" s="62">
@@ -6053,7 +6224,7 @@
       <c r="I20" s="68"/>
       <c r="J20" s="68"/>
       <c r="K20" s="68"/>
-      <c r="L20" s="186"/>
+      <c r="L20" s="215"/>
       <c r="M20" s="62">
         <v>6</v>
       </c>
@@ -6062,14 +6233,14 @@
       </c>
       <c r="O20" s="65"/>
       <c r="P20" s="65"/>
-      <c r="Q20" s="186"/>
+      <c r="Q20" s="215"/>
       <c r="R20" s="43"/>
       <c r="S20" s="39"/>
       <c r="U20" s="43"/>
       <c r="V20" s="43"/>
     </row>
     <row r="21" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="186"/>
+      <c r="A21" s="215"/>
       <c r="B21" s="14"/>
       <c r="C21" s="45"/>
       <c r="D21" s="62">
@@ -6093,7 +6264,7 @@
       <c r="I21" s="68"/>
       <c r="J21" s="68"/>
       <c r="K21" s="68"/>
-      <c r="L21" s="186"/>
+      <c r="L21" s="215"/>
       <c r="M21" s="62">
         <v>7</v>
       </c>
@@ -6102,14 +6273,14 @@
       </c>
       <c r="O21" s="65"/>
       <c r="P21" s="65"/>
-      <c r="Q21" s="186"/>
+      <c r="Q21" s="215"/>
       <c r="R21" s="43"/>
       <c r="S21" s="39"/>
       <c r="U21" s="43"/>
       <c r="V21" s="43"/>
     </row>
     <row r="22" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="186"/>
+      <c r="A22" s="215"/>
       <c r="B22" s="14"/>
       <c r="C22" s="45"/>
       <c r="D22" s="62">
@@ -6133,7 +6304,7 @@
       <c r="I22" s="68"/>
       <c r="J22" s="68"/>
       <c r="K22" s="68"/>
-      <c r="L22" s="186"/>
+      <c r="L22" s="215"/>
       <c r="M22" s="62">
         <v>8</v>
       </c>
@@ -6142,30 +6313,30 @@
       </c>
       <c r="O22" s="65"/>
       <c r="P22" s="65"/>
-      <c r="Q22" s="186"/>
+      <c r="Q22" s="215"/>
       <c r="R22" s="43"/>
       <c r="S22" s="39"/>
       <c r="U22" s="43"/>
       <c r="V22" s="43"/>
     </row>
     <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="186"/>
-      <c r="B23" s="189"/>
-      <c r="C23" s="186"/>
-      <c r="D23" s="190"/>
-      <c r="E23" s="186"/>
-      <c r="F23" s="186"/>
-      <c r="G23" s="186"/>
+      <c r="A23" s="215"/>
+      <c r="B23" s="214"/>
+      <c r="C23" s="215"/>
+      <c r="D23" s="219"/>
+      <c r="E23" s="215"/>
+      <c r="F23" s="215"/>
+      <c r="G23" s="215"/>
       <c r="H23" s="56"/>
       <c r="I23" s="56"/>
       <c r="J23" s="56"/>
       <c r="K23" s="56"/>
-      <c r="L23" s="186"/>
-      <c r="M23" s="190"/>
-      <c r="N23" s="186"/>
-      <c r="O23" s="186"/>
-      <c r="P23" s="186"/>
-      <c r="Q23" s="186"/>
+      <c r="L23" s="215"/>
+      <c r="M23" s="219"/>
+      <c r="N23" s="215"/>
+      <c r="O23" s="215"/>
+      <c r="P23" s="215"/>
+      <c r="Q23" s="215"/>
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
       <c r="T23" s="17"/>
@@ -6175,39 +6346,39 @@
       <c r="X23" s="17"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="186"/>
-      <c r="B24" s="188" t="s">
+      <c r="A24" s="215"/>
+      <c r="B24" s="217" t="s">
         <v>177</v>
       </c>
-      <c r="C24" s="186"/>
-      <c r="D24" s="187" t="s">
+      <c r="C24" s="215"/>
+      <c r="D24" s="222" t="s">
         <v>178</v>
       </c>
-      <c r="E24" s="186"/>
-      <c r="F24" s="186"/>
-      <c r="G24" s="186"/>
+      <c r="E24" s="215"/>
+      <c r="F24" s="215"/>
+      <c r="G24" s="215"/>
       <c r="H24" s="74"/>
       <c r="I24" s="74"/>
       <c r="J24" s="74"/>
       <c r="K24" s="74"/>
-      <c r="L24" s="186"/>
-      <c r="M24" s="187" t="s">
+      <c r="L24" s="215"/>
+      <c r="M24" s="222" t="s">
         <v>179</v>
       </c>
-      <c r="N24" s="186"/>
-      <c r="O24" s="186"/>
-      <c r="P24" s="186"/>
-      <c r="Q24" s="186"/>
+      <c r="N24" s="215"/>
+      <c r="O24" s="215"/>
+      <c r="P24" s="215"/>
+      <c r="Q24" s="215"/>
       <c r="R24" s="17"/>
       <c r="S24" s="17"/>
       <c r="T24" s="17"/>
       <c r="U24" s="17"/>
-      <c r="V24" s="185"/>
-      <c r="W24" s="186"/>
-      <c r="X24" s="186"/>
+      <c r="V24" s="226"/>
+      <c r="W24" s="215"/>
+      <c r="X24" s="215"/>
     </row>
     <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="186"/>
+      <c r="A25" s="215"/>
       <c r="B25" s="14" t="s">
         <v>180</v>
       </c>
@@ -6238,7 +6409,7 @@
       <c r="K25" s="76" t="s">
         <v>190</v>
       </c>
-      <c r="L25" s="186"/>
+      <c r="L25" s="215"/>
       <c r="M25" s="76" t="s">
         <v>191</v>
       </c>
@@ -6251,7 +6422,7 @@
       <c r="P25" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="Q25" s="186"/>
+      <c r="Q25" s="215"/>
       <c r="R25" s="27"/>
       <c r="S25" s="27"/>
       <c r="T25" s="27"/>
@@ -6261,7 +6432,7 @@
       <c r="X25" s="27"/>
     </row>
     <row r="26" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="186"/>
+      <c r="A26" s="215"/>
       <c r="B26" s="14" t="s">
         <v>195</v>
       </c>
@@ -6295,7 +6466,7 @@
         <f>E26/E26</f>
         <v>1</v>
       </c>
-      <c r="L26" s="186"/>
+      <c r="L26" s="215"/>
       <c r="M26" s="77">
         <v>1</v>
       </c>
@@ -6308,7 +6479,7 @@
       <c r="P26" s="81">
         <v>0.2</v>
       </c>
-      <c r="Q26" s="186"/>
+      <c r="Q26" s="215"/>
       <c r="R26" s="43"/>
       <c r="U26" s="43"/>
       <c r="V26" s="43"/>
@@ -6316,7 +6487,7 @@
       <c r="X26" s="10"/>
     </row>
     <row r="27" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="186"/>
+      <c r="A27" s="215"/>
       <c r="B27" s="14"/>
       <c r="C27" s="45"/>
       <c r="D27" s="77">
@@ -6347,7 +6518,7 @@
         <f t="shared" ref="K27:K33" si="11">E27/E$26</f>
         <v>2</v>
       </c>
-      <c r="L27" s="186"/>
+      <c r="L27" s="215"/>
       <c r="M27" s="77">
         <v>2</v>
       </c>
@@ -6360,7 +6531,7 @@
       <c r="P27" s="81">
         <v>0.4</v>
       </c>
-      <c r="Q27" s="186"/>
+      <c r="Q27" s="215"/>
       <c r="R27" s="43"/>
       <c r="U27" s="43"/>
       <c r="V27" s="43"/>
@@ -6368,7 +6539,7 @@
       <c r="X27" s="10"/>
     </row>
     <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="186"/>
+      <c r="A28" s="215"/>
       <c r="B28" s="14"/>
       <c r="C28" s="45"/>
       <c r="D28" s="77">
@@ -6401,7 +6572,7 @@
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="L28" s="186"/>
+      <c r="L28" s="215"/>
       <c r="M28" s="77">
         <v>3</v>
       </c>
@@ -6414,7 +6585,7 @@
       <c r="P28" s="81">
         <v>0.6</v>
       </c>
-      <c r="Q28" s="186"/>
+      <c r="Q28" s="215"/>
       <c r="R28" s="43"/>
       <c r="U28" s="43"/>
       <c r="V28" s="43"/>
@@ -6422,7 +6593,7 @@
       <c r="X28" s="10"/>
     </row>
     <row r="29" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="186"/>
+      <c r="A29" s="215"/>
       <c r="B29" s="14"/>
       <c r="C29" s="45"/>
       <c r="D29" s="77">
@@ -6453,7 +6624,7 @@
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="L29" s="186"/>
+      <c r="L29" s="215"/>
       <c r="M29" s="77">
         <v>4</v>
       </c>
@@ -6466,13 +6637,13 @@
       <c r="P29" s="81">
         <v>0.8</v>
       </c>
-      <c r="Q29" s="186"/>
+      <c r="Q29" s="215"/>
       <c r="R29" s="43"/>
       <c r="U29" s="43"/>
       <c r="V29" s="43"/>
     </row>
     <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="186"/>
+      <c r="A30" s="215"/>
       <c r="B30" s="14"/>
       <c r="C30" s="45"/>
       <c r="D30" s="77">
@@ -6505,7 +6676,7 @@
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="L30" s="186"/>
+      <c r="L30" s="215"/>
       <c r="M30" s="77">
         <v>5</v>
       </c>
@@ -6518,13 +6689,13 @@
       <c r="P30" s="81">
         <v>1</v>
       </c>
-      <c r="Q30" s="186"/>
+      <c r="Q30" s="215"/>
       <c r="R30" s="43"/>
       <c r="U30" s="43"/>
       <c r="V30" s="43"/>
     </row>
     <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="186"/>
+      <c r="A31" s="215"/>
       <c r="B31" s="14"/>
       <c r="C31" s="45"/>
       <c r="D31" s="77">
@@ -6555,7 +6726,7 @@
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="L31" s="186"/>
+      <c r="L31" s="215"/>
       <c r="M31" s="77">
         <v>6</v>
       </c>
@@ -6568,13 +6739,13 @@
       <c r="P31" s="81">
         <v>1.2</v>
       </c>
-      <c r="Q31" s="186"/>
+      <c r="Q31" s="215"/>
       <c r="R31" s="43"/>
       <c r="U31" s="43"/>
       <c r="V31" s="43"/>
     </row>
     <row r="32" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="186"/>
+      <c r="A32" s="215"/>
       <c r="B32" s="14"/>
       <c r="C32" s="45"/>
       <c r="D32" s="77">
@@ -6607,7 +6778,7 @@
         <f t="shared" si="11"/>
         <v>13.999999999999998</v>
       </c>
-      <c r="L32" s="186"/>
+      <c r="L32" s="215"/>
       <c r="M32" s="77">
         <v>7</v>
       </c>
@@ -6620,13 +6791,13 @@
       <c r="P32" s="81">
         <v>1.6</v>
       </c>
-      <c r="Q32" s="186"/>
+      <c r="Q32" s="215"/>
       <c r="R32" s="43"/>
       <c r="U32" s="43"/>
       <c r="V32" s="43"/>
     </row>
     <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="186"/>
+      <c r="A33" s="215"/>
       <c r="B33" s="14"/>
       <c r="C33" s="45"/>
       <c r="D33" s="77">
@@ -6659,7 +6830,7 @@
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="L33" s="186"/>
+      <c r="L33" s="215"/>
       <c r="M33" s="77">
         <v>8</v>
       </c>
@@ -6672,55 +6843,55 @@
       <c r="P33" s="81">
         <v>2</v>
       </c>
-      <c r="Q33" s="186"/>
+      <c r="Q33" s="215"/>
       <c r="R33" s="43"/>
       <c r="U33" s="43"/>
       <c r="V33" s="43"/>
     </row>
     <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="186"/>
-      <c r="B34" s="189"/>
-      <c r="C34" s="186"/>
-      <c r="D34" s="190"/>
-      <c r="E34" s="186"/>
-      <c r="F34" s="186"/>
-      <c r="G34" s="186"/>
+      <c r="A34" s="215"/>
+      <c r="B34" s="214"/>
+      <c r="C34" s="215"/>
+      <c r="D34" s="219"/>
+      <c r="E34" s="215"/>
+      <c r="F34" s="215"/>
+      <c r="G34" s="215"/>
       <c r="H34" s="56"/>
       <c r="I34" s="56"/>
       <c r="J34" s="56"/>
       <c r="K34" s="56"/>
-      <c r="L34" s="186"/>
-      <c r="M34" s="190"/>
-      <c r="N34" s="186"/>
-      <c r="O34" s="186"/>
-      <c r="P34" s="186"/>
-      <c r="Q34" s="186"/>
+      <c r="L34" s="215"/>
+      <c r="M34" s="219"/>
+      <c r="N34" s="215"/>
+      <c r="O34" s="215"/>
+      <c r="P34" s="215"/>
+      <c r="Q34" s="215"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="186"/>
-      <c r="B35" s="188"/>
-      <c r="C35" s="186"/>
-      <c r="D35" s="196" t="s">
+      <c r="A35" s="215"/>
+      <c r="B35" s="217"/>
+      <c r="C35" s="215"/>
+      <c r="D35" s="221" t="s">
         <v>238</v>
       </c>
-      <c r="E35" s="186"/>
-      <c r="F35" s="186"/>
-      <c r="G35" s="186"/>
+      <c r="E35" s="215"/>
+      <c r="F35" s="215"/>
+      <c r="G35" s="215"/>
       <c r="H35" s="96"/>
       <c r="I35" s="96"/>
       <c r="J35" s="96"/>
       <c r="K35" s="96"/>
-      <c r="L35" s="186"/>
-      <c r="M35" s="196" t="s">
+      <c r="L35" s="215"/>
+      <c r="M35" s="221" t="s">
         <v>239</v>
       </c>
-      <c r="N35" s="186"/>
-      <c r="O35" s="186"/>
-      <c r="P35" s="186"/>
-      <c r="Q35" s="186"/>
+      <c r="N35" s="215"/>
+      <c r="O35" s="215"/>
+      <c r="P35" s="215"/>
+      <c r="Q35" s="215"/>
     </row>
     <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="186"/>
+      <c r="A36" s="215"/>
       <c r="B36" s="14"/>
       <c r="C36" s="45"/>
       <c r="D36" s="97" t="s">
@@ -6739,7 +6910,7 @@
       <c r="I36" s="97"/>
       <c r="J36" s="97"/>
       <c r="K36" s="97"/>
-      <c r="L36" s="186"/>
+      <c r="L36" s="215"/>
       <c r="M36" s="97" t="s">
         <v>244</v>
       </c>
@@ -6748,10 +6919,10 @@
       </c>
       <c r="O36" s="97"/>
       <c r="P36" s="97"/>
-      <c r="Q36" s="186"/>
+      <c r="Q36" s="215"/>
     </row>
     <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="186"/>
+      <c r="A37" s="215"/>
       <c r="B37" s="14"/>
       <c r="C37" s="45"/>
       <c r="D37" s="99">
@@ -6769,7 +6940,7 @@
       <c r="I37" s="53"/>
       <c r="J37" s="53"/>
       <c r="K37" s="53"/>
-      <c r="L37" s="186"/>
+      <c r="L37" s="215"/>
       <c r="M37" s="99">
         <v>1</v>
       </c>
@@ -6778,10 +6949,10 @@
       </c>
       <c r="O37" s="53"/>
       <c r="P37" s="53"/>
-      <c r="Q37" s="186"/>
+      <c r="Q37" s="215"/>
     </row>
     <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="186"/>
+      <c r="A38" s="215"/>
       <c r="B38" s="14"/>
       <c r="C38" s="45"/>
       <c r="D38" s="99">
@@ -6800,7 +6971,7 @@
       <c r="I38" s="53"/>
       <c r="J38" s="53"/>
       <c r="K38" s="53"/>
-      <c r="L38" s="186"/>
+      <c r="L38" s="215"/>
       <c r="M38" s="99">
         <v>2</v>
       </c>
@@ -6809,10 +6980,10 @@
       </c>
       <c r="O38" s="53"/>
       <c r="P38" s="53"/>
-      <c r="Q38" s="186"/>
+      <c r="Q38" s="215"/>
     </row>
     <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="186"/>
+      <c r="A39" s="215"/>
       <c r="B39" s="14"/>
       <c r="C39" s="45"/>
       <c r="D39" s="99">
@@ -6833,7 +7004,7 @@
       <c r="I39" s="53"/>
       <c r="J39" s="53"/>
       <c r="K39" s="53"/>
-      <c r="L39" s="186"/>
+      <c r="L39" s="215"/>
       <c r="M39" s="99">
         <v>3</v>
       </c>
@@ -6842,10 +7013,10 @@
       </c>
       <c r="O39" s="53"/>
       <c r="P39" s="53"/>
-      <c r="Q39" s="186"/>
+      <c r="Q39" s="215"/>
     </row>
     <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="186"/>
+      <c r="A40" s="215"/>
       <c r="B40" s="14"/>
       <c r="C40" s="45"/>
       <c r="D40" s="99">
@@ -6864,7 +7035,7 @@
       <c r="I40" s="53"/>
       <c r="J40" s="53"/>
       <c r="K40" s="53"/>
-      <c r="L40" s="186"/>
+      <c r="L40" s="215"/>
       <c r="M40" s="99">
         <v>4</v>
       </c>
@@ -6873,10 +7044,10 @@
       </c>
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
-      <c r="Q40" s="186"/>
+      <c r="Q40" s="215"/>
     </row>
     <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="186"/>
+      <c r="A41" s="215"/>
       <c r="B41" s="14"/>
       <c r="C41" s="45"/>
       <c r="D41" s="99">
@@ -6897,7 +7068,7 @@
       <c r="I41" s="53"/>
       <c r="J41" s="53"/>
       <c r="K41" s="53"/>
-      <c r="L41" s="186"/>
+      <c r="L41" s="215"/>
       <c r="M41" s="99">
         <v>5</v>
       </c>
@@ -6906,10 +7077,10 @@
       </c>
       <c r="O41" s="53"/>
       <c r="P41" s="53"/>
-      <c r="Q41" s="186"/>
+      <c r="Q41" s="215"/>
     </row>
     <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="186"/>
+      <c r="A42" s="215"/>
       <c r="B42" s="14"/>
       <c r="C42" s="45"/>
       <c r="D42" s="99">
@@ -6928,7 +7099,7 @@
       <c r="I42" s="53"/>
       <c r="J42" s="53"/>
       <c r="K42" s="53"/>
-      <c r="L42" s="186"/>
+      <c r="L42" s="215"/>
       <c r="M42" s="99">
         <v>6</v>
       </c>
@@ -6937,10 +7108,10 @@
       </c>
       <c r="O42" s="53"/>
       <c r="P42" s="53"/>
-      <c r="Q42" s="186"/>
+      <c r="Q42" s="215"/>
     </row>
     <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="186"/>
+      <c r="A43" s="215"/>
       <c r="B43" s="14"/>
       <c r="C43" s="45"/>
       <c r="D43" s="99">
@@ -6961,7 +7132,7 @@
       <c r="I43" s="53"/>
       <c r="J43" s="53"/>
       <c r="K43" s="53"/>
-      <c r="L43" s="186"/>
+      <c r="L43" s="215"/>
       <c r="M43" s="99">
         <v>7</v>
       </c>
@@ -6970,10 +7141,10 @@
       </c>
       <c r="O43" s="53"/>
       <c r="P43" s="53"/>
-      <c r="Q43" s="186"/>
+      <c r="Q43" s="215"/>
     </row>
     <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="186"/>
+      <c r="A44" s="215"/>
       <c r="B44" s="14"/>
       <c r="C44" s="45"/>
       <c r="D44" s="99">
@@ -6994,7 +7165,7 @@
       <c r="I44" s="53"/>
       <c r="J44" s="53"/>
       <c r="K44" s="53"/>
-      <c r="L44" s="186"/>
+      <c r="L44" s="215"/>
       <c r="M44" s="99">
         <v>8</v>
       </c>
@@ -7003,52 +7174,52 @@
       </c>
       <c r="O44" s="53"/>
       <c r="P44" s="53"/>
-      <c r="Q44" s="186"/>
+      <c r="Q44" s="215"/>
     </row>
     <row r="45" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="186"/>
-      <c r="B45" s="189"/>
-      <c r="C45" s="186"/>
-      <c r="D45" s="190"/>
-      <c r="E45" s="186"/>
-      <c r="F45" s="186"/>
-      <c r="G45" s="186"/>
+      <c r="A45" s="215"/>
+      <c r="B45" s="214"/>
+      <c r="C45" s="215"/>
+      <c r="D45" s="219"/>
+      <c r="E45" s="215"/>
+      <c r="F45" s="215"/>
+      <c r="G45" s="215"/>
       <c r="H45" s="56"/>
       <c r="I45" s="56"/>
       <c r="J45" s="56"/>
       <c r="K45" s="56"/>
-      <c r="L45" s="186"/>
-      <c r="M45" s="190"/>
-      <c r="N45" s="186"/>
-      <c r="O45" s="186"/>
-      <c r="P45" s="186"/>
-      <c r="Q45" s="186"/>
+      <c r="L45" s="215"/>
+      <c r="M45" s="219"/>
+      <c r="N45" s="215"/>
+      <c r="O45" s="215"/>
+      <c r="P45" s="215"/>
+      <c r="Q45" s="215"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="186"/>
-      <c r="B46" s="188"/>
-      <c r="C46" s="186"/>
-      <c r="D46" s="198" t="s">
+      <c r="A46" s="215"/>
+      <c r="B46" s="217"/>
+      <c r="C46" s="215"/>
+      <c r="D46" s="218" t="s">
         <v>258</v>
       </c>
-      <c r="E46" s="186"/>
-      <c r="F46" s="186"/>
-      <c r="G46" s="186"/>
+      <c r="E46" s="215"/>
+      <c r="F46" s="215"/>
+      <c r="G46" s="215"/>
       <c r="H46" s="106"/>
       <c r="I46" s="106"/>
       <c r="J46" s="106"/>
       <c r="K46" s="106"/>
-      <c r="L46" s="186"/>
-      <c r="M46" s="198" t="s">
+      <c r="L46" s="215"/>
+      <c r="M46" s="218" t="s">
         <v>262</v>
       </c>
-      <c r="N46" s="186"/>
-      <c r="O46" s="186"/>
-      <c r="P46" s="186"/>
-      <c r="Q46" s="186"/>
+      <c r="N46" s="215"/>
+      <c r="O46" s="215"/>
+      <c r="P46" s="215"/>
+      <c r="Q46" s="215"/>
     </row>
     <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="186"/>
+      <c r="A47" s="215"/>
       <c r="B47" s="14"/>
       <c r="C47" s="45"/>
       <c r="D47" s="108" t="s">
@@ -7065,7 +7236,7 @@
       <c r="I47" s="108"/>
       <c r="J47" s="108"/>
       <c r="K47" s="108"/>
-      <c r="L47" s="186"/>
+      <c r="L47" s="215"/>
       <c r="M47" s="108" t="s">
         <v>273</v>
       </c>
@@ -7074,10 +7245,10 @@
       </c>
       <c r="O47" s="108"/>
       <c r="P47" s="108"/>
-      <c r="Q47" s="186"/>
+      <c r="Q47" s="215"/>
     </row>
     <row r="48" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="186"/>
+      <c r="A48" s="215"/>
       <c r="B48" s="14"/>
       <c r="C48" s="45"/>
       <c r="D48" s="110">
@@ -7092,7 +7263,7 @@
       <c r="I48" s="113"/>
       <c r="J48" s="113"/>
       <c r="K48" s="113"/>
-      <c r="L48" s="186"/>
+      <c r="L48" s="215"/>
       <c r="M48" s="110">
         <v>1</v>
       </c>
@@ -7101,10 +7272,10 @@
       </c>
       <c r="O48" s="113"/>
       <c r="P48" s="113"/>
-      <c r="Q48" s="186"/>
+      <c r="Q48" s="215"/>
     </row>
     <row r="49" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="186"/>
+      <c r="A49" s="215"/>
       <c r="B49" s="14"/>
       <c r="C49" s="45"/>
       <c r="D49" s="110">
@@ -7120,7 +7291,7 @@
       <c r="I49" s="113"/>
       <c r="J49" s="113"/>
       <c r="K49" s="113"/>
-      <c r="L49" s="186"/>
+      <c r="L49" s="215"/>
       <c r="M49" s="110">
         <v>2</v>
       </c>
@@ -7129,10 +7300,10 @@
       </c>
       <c r="O49" s="113"/>
       <c r="P49" s="113"/>
-      <c r="Q49" s="186"/>
+      <c r="Q49" s="215"/>
     </row>
     <row r="50" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="186"/>
+      <c r="A50" s="215"/>
       <c r="B50" s="14"/>
       <c r="C50" s="45"/>
       <c r="D50" s="110">
@@ -7150,7 +7321,7 @@
       <c r="I50" s="113"/>
       <c r="J50" s="113"/>
       <c r="K50" s="113"/>
-      <c r="L50" s="186"/>
+      <c r="L50" s="215"/>
       <c r="M50" s="110">
         <v>3</v>
       </c>
@@ -7159,10 +7330,10 @@
       </c>
       <c r="O50" s="113"/>
       <c r="P50" s="113"/>
-      <c r="Q50" s="186"/>
+      <c r="Q50" s="215"/>
     </row>
     <row r="51" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="186"/>
+      <c r="A51" s="215"/>
       <c r="B51" s="14"/>
       <c r="C51" s="45"/>
       <c r="D51" s="110">
@@ -7178,7 +7349,7 @@
       <c r="I51" s="113"/>
       <c r="J51" s="113"/>
       <c r="K51" s="113"/>
-      <c r="L51" s="186"/>
+      <c r="L51" s="215"/>
       <c r="M51" s="110">
         <v>4</v>
       </c>
@@ -7187,10 +7358,10 @@
       </c>
       <c r="O51" s="113"/>
       <c r="P51" s="113"/>
-      <c r="Q51" s="186"/>
+      <c r="Q51" s="215"/>
     </row>
     <row r="52" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="186"/>
+      <c r="A52" s="215"/>
       <c r="B52" s="14"/>
       <c r="C52" s="45"/>
       <c r="D52" s="110">
@@ -7208,7 +7379,7 @@
       <c r="I52" s="113"/>
       <c r="J52" s="113"/>
       <c r="K52" s="113"/>
-      <c r="L52" s="186"/>
+      <c r="L52" s="215"/>
       <c r="M52" s="110">
         <v>5</v>
       </c>
@@ -7217,10 +7388,10 @@
       </c>
       <c r="O52" s="113"/>
       <c r="P52" s="113"/>
-      <c r="Q52" s="186"/>
+      <c r="Q52" s="215"/>
     </row>
     <row r="53" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="186"/>
+      <c r="A53" s="215"/>
       <c r="B53" s="14"/>
       <c r="C53" s="45"/>
       <c r="D53" s="110">
@@ -7236,7 +7407,7 @@
       <c r="I53" s="113"/>
       <c r="J53" s="113"/>
       <c r="K53" s="113"/>
-      <c r="L53" s="186"/>
+      <c r="L53" s="215"/>
       <c r="M53" s="110">
         <v>6</v>
       </c>
@@ -7245,10 +7416,10 @@
       </c>
       <c r="O53" s="113"/>
       <c r="P53" s="113"/>
-      <c r="Q53" s="186"/>
+      <c r="Q53" s="215"/>
     </row>
     <row r="54" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="186"/>
+      <c r="A54" s="215"/>
       <c r="B54" s="14"/>
       <c r="C54" s="45"/>
       <c r="D54" s="110">
@@ -7266,7 +7437,7 @@
       <c r="I54" s="113"/>
       <c r="J54" s="113"/>
       <c r="K54" s="113"/>
-      <c r="L54" s="186"/>
+      <c r="L54" s="215"/>
       <c r="M54" s="110">
         <v>7</v>
       </c>
@@ -7275,10 +7446,10 @@
       </c>
       <c r="O54" s="113"/>
       <c r="P54" s="113"/>
-      <c r="Q54" s="186"/>
+      <c r="Q54" s="215"/>
     </row>
     <row r="55" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="186"/>
+      <c r="A55" s="215"/>
       <c r="B55" s="14"/>
       <c r="C55" s="45"/>
       <c r="D55" s="110">
@@ -7296,7 +7467,7 @@
       <c r="I55" s="113"/>
       <c r="J55" s="113"/>
       <c r="K55" s="113"/>
-      <c r="L55" s="186"/>
+      <c r="L55" s="215"/>
       <c r="M55" s="110">
         <v>8</v>
       </c>
@@ -7305,34 +7476,46 @@
       </c>
       <c r="O55" s="113"/>
       <c r="P55" s="113"/>
-      <c r="Q55" s="186"/>
+      <c r="Q55" s="215"/>
     </row>
     <row r="56" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="186"/>
+      <c r="A56" s="215"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="197"/>
-      <c r="E56" s="186"/>
-      <c r="F56" s="186"/>
-      <c r="G56" s="186"/>
-      <c r="H56" s="186"/>
-      <c r="I56" s="186"/>
-      <c r="J56" s="186"/>
-      <c r="K56" s="186"/>
-      <c r="L56" s="186"/>
-      <c r="M56" s="186"/>
-      <c r="N56" s="186"/>
-      <c r="O56" s="186"/>
-      <c r="P56" s="186"/>
-      <c r="Q56" s="186"/>
+      <c r="D56" s="216"/>
+      <c r="E56" s="215"/>
+      <c r="F56" s="215"/>
+      <c r="G56" s="215"/>
+      <c r="H56" s="215"/>
+      <c r="I56" s="215"/>
+      <c r="J56" s="215"/>
+      <c r="K56" s="215"/>
+      <c r="L56" s="215"/>
+      <c r="M56" s="215"/>
+      <c r="N56" s="215"/>
+      <c r="O56" s="215"/>
+      <c r="P56" s="215"/>
+      <c r="Q56" s="215"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D56:P56"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="D2:G2"/>
     <mergeCell ref="M34:P34"/>
     <mergeCell ref="L2:L55"/>
     <mergeCell ref="M35:P35"/>
@@ -7349,23 +7532,11 @@
     <mergeCell ref="D35:G35"/>
     <mergeCell ref="M12:P12"/>
     <mergeCell ref="M13:P13"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D56:P56"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D45:G45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7374,6 +7545,123 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="14">
+        <f>2.4*8*400/1000</f>
+        <v>7.68</v>
+      </c>
+      <c r="B1" s="14">
+        <f>2.4*7*400/1000-400*1.8/1000</f>
+        <v>6</v>
+      </c>
+      <c r="C1" s="14">
+        <f>2.4*7*400/1000-400*1.2/1000</f>
+        <v>6.24</v>
+      </c>
+      <c r="D1" s="14">
+        <f>2.4*7*400/1000-400*1.8/1000</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <f>A1/B1</f>
+        <v>1.28</v>
+      </c>
+      <c r="B2">
+        <f>B1/A1</f>
+        <v>0.78125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>8.1</v>
+      </c>
+      <c r="C10" s="10">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <f>160*5</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <f>240*5</f>
+        <v>1200</v>
+      </c>
+      <c r="H18">
+        <f>160*5</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <f>160/240</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E19" s="10">
+        <v>400</v>
+      </c>
+      <c r="G19">
+        <f>G18-(160*3)</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="10">
+        <v>5200</v>
+      </c>
+      <c r="F20">
+        <f>E20/E19</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <f>240/160</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E29" s="10">
+        <v>240</v>
+      </c>
+      <c r="F29">
+        <f>E29*0.6</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E30" s="10">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD26"/>
   <sheetViews>
@@ -7436,17 +7724,17 @@
       <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="255" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
+      <c r="B3" s="215"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="215"/>
+      <c r="I3" s="215"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -7474,20 +7762,20 @@
       <c r="P4" s="19"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="193" t="s">
+      <c r="A5" s="227" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="186"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="186"/>
-      <c r="I5" s="186"/>
-      <c r="J5" s="186"/>
-      <c r="K5" s="186"/>
-      <c r="L5" s="186"/>
+      <c r="B5" s="215"/>
+      <c r="C5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="215"/>
+      <c r="F5" s="215"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="215"/>
+      <c r="I5" s="215"/>
+      <c r="J5" s="215"/>
+      <c r="K5" s="215"/>
+      <c r="L5" s="215"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -7506,10 +7794,10 @@
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
-      <c r="K6" s="219" t="s">
+      <c r="K6" s="254" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="186"/>
+      <c r="L6" s="215"/>
       <c r="M6" s="23"/>
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
@@ -7876,20 +8164,20 @@
       <c r="P13" s="10"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="193" t="s">
+      <c r="A15" s="227" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="186"/>
-      <c r="C15" s="186"/>
-      <c r="D15" s="186"/>
-      <c r="E15" s="186"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="186"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="186"/>
-      <c r="K15" s="186"/>
-      <c r="L15" s="186"/>
+      <c r="B15" s="215"/>
+      <c r="C15" s="215"/>
+      <c r="D15" s="215"/>
+      <c r="E15" s="215"/>
+      <c r="F15" s="215"/>
+      <c r="G15" s="215"/>
+      <c r="H15" s="215"/>
+      <c r="I15" s="215"/>
+      <c r="J15" s="215"/>
+      <c r="K15" s="215"/>
+      <c r="L15" s="215"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
@@ -7920,10 +8208,10 @@
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="K16" s="219" t="s">
+      <c r="K16" s="254" t="s">
         <v>120</v>
       </c>
-      <c r="L16" s="186"/>
+      <c r="L16" s="215"/>
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
@@ -7937,10 +8225,10 @@
       <c r="W16" s="43"/>
       <c r="X16" s="43"/>
       <c r="Y16" s="43"/>
-      <c r="Z16" s="221"/>
-      <c r="AA16" s="186"/>
-      <c r="AB16" s="221"/>
-      <c r="AC16" s="186"/>
+      <c r="Z16" s="256"/>
+      <c r="AA16" s="215"/>
+      <c r="AB16" s="256"/>
+      <c r="AC16" s="215"/>
       <c r="AD16" s="57"/>
     </row>
     <row r="17" spans="1:28" ht="15" x14ac:dyDescent="0.25">
@@ -8338,7 +8626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
@@ -8768,18 +9056,18 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="193" t="s">
+      <c r="B1" s="227" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
       <c r="L1" s="12"/>
       <c r="M1" s="117"/>
       <c r="N1" s="117"/>
@@ -9178,11 +9466,11 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="203" t="s">
+      <c r="A9" s="230" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="186"/>
-      <c r="C9" s="186"/>
+      <c r="B9" s="215"/>
+      <c r="C9" s="215"/>
       <c r="M9" s="140" t="s">
         <v>293</v>
       </c>
@@ -9192,10 +9480,10 @@
       <c r="O9" s="140"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="202" t="s">
+      <c r="A10" s="228" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="186"/>
+      <c r="B10" s="215"/>
       <c r="C10" s="50">
         <f>C4*14/5100</f>
         <v>1.6016000000000001</v>
@@ -9207,20 +9495,20 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="202" t="s">
+      <c r="A11" s="228" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="186"/>
+      <c r="B11" s="215"/>
       <c r="C11" s="51">
         <v>1</v>
       </c>
       <c r="D11" s="51"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="202" t="s">
+      <c r="A12" s="228" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="186"/>
+      <c r="B12" s="215"/>
       <c r="C12" s="121">
         <v>1.55</v>
       </c>
@@ -9232,10 +9520,10 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="202" t="s">
+      <c r="A13" s="228" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="186"/>
+      <c r="B13" s="215"/>
       <c r="C13" s="53">
         <v>0.8</v>
       </c>
@@ -9251,10 +9539,10 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="202" t="s">
+      <c r="A14" s="228" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="186"/>
+      <c r="B14" s="215"/>
       <c r="C14" s="53">
         <v>10</v>
       </c>
@@ -9269,10 +9557,10 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="200" t="s">
+      <c r="A15" s="231" t="s">
         <v>311</v>
       </c>
-      <c r="B15" s="186"/>
+      <c r="B15" s="215"/>
       <c r="C15" s="121">
         <v>1.3</v>
       </c>
@@ -9291,10 +9579,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="201" t="s">
+      <c r="A16" s="232" t="s">
         <v>312</v>
       </c>
-      <c r="B16" s="186"/>
+      <c r="B16" s="215"/>
       <c r="C16" s="138">
         <v>1.1000000000000001</v>
       </c>
@@ -9310,10 +9598,10 @@
       <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="201" t="s">
+      <c r="A17" s="232" t="s">
         <v>310</v>
       </c>
-      <c r="B17" s="186"/>
+      <c r="B17" s="215"/>
       <c r="C17" s="138">
         <v>1</v>
       </c>
@@ -9329,8 +9617,8 @@
       <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="199"/>
-      <c r="B18" s="186"/>
+      <c r="A18" s="229"/>
+      <c r="B18" s="215"/>
       <c r="C18" s="53"/>
       <c r="D18" s="53"/>
       <c r="E18" s="10">
@@ -9344,8 +9632,8 @@
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="199"/>
-      <c r="B19" s="186"/>
+      <c r="A19" s="229"/>
+      <c r="B19" s="215"/>
       <c r="C19" s="53"/>
       <c r="D19" s="53"/>
     </row>
@@ -9435,6 +9723,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A10:B10"/>
@@ -9442,11 +9735,6 @@
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9475,13 +9763,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="D1" s="204" t="s">
+      <c r="D1" s="233" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
+      <c r="E1" s="233"/>
+      <c r="F1" s="233"/>
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="D2" s="130" t="s">
@@ -9805,101 +10093,96 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="203" t="s">
+      <c r="A26" s="230" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="186"/>
-      <c r="C26" s="186"/>
+      <c r="B26" s="215"/>
+      <c r="C26" s="215"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="200" t="s">
+      <c r="A27" s="231" t="s">
         <v>302</v>
       </c>
-      <c r="B27" s="186"/>
+      <c r="B27" s="215"/>
       <c r="C27" s="129">
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="200"/>
-      <c r="B28" s="186"/>
+      <c r="A28" s="231"/>
+      <c r="B28" s="215"/>
       <c r="C28" s="139"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="200" t="s">
+      <c r="A29" s="231" t="s">
         <v>303</v>
       </c>
-      <c r="B29" s="186"/>
+      <c r="B29" s="215"/>
       <c r="C29" s="121">
         <v>0.79</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="200" t="s">
+      <c r="A30" s="231" t="s">
         <v>299</v>
       </c>
-      <c r="B30" s="200"/>
+      <c r="B30" s="231"/>
       <c r="C30" s="138">
         <f>C29*C$34</f>
         <v>1.1850000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="200" t="s">
+      <c r="A31" s="231" t="s">
         <v>298</v>
       </c>
-      <c r="B31" s="200"/>
+      <c r="B31" s="231"/>
       <c r="C31" s="138">
         <f t="shared" ref="C31:C33" si="5">C30*C$34</f>
         <v>1.7775000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="200" t="s">
+      <c r="A32" s="231" t="s">
         <v>300</v>
       </c>
-      <c r="B32" s="200"/>
+      <c r="B32" s="231"/>
       <c r="C32" s="138">
         <f t="shared" si="5"/>
         <v>2.6662500000000002</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="201" t="s">
+      <c r="A33" s="232" t="s">
         <v>301</v>
       </c>
-      <c r="B33" s="199"/>
+      <c r="B33" s="229"/>
       <c r="C33" s="138">
         <f t="shared" si="5"/>
         <v>3.9993750000000006</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="201" t="s">
+      <c r="A34" s="232" t="s">
         <v>304</v>
       </c>
-      <c r="B34" s="186"/>
+      <c r="B34" s="215"/>
       <c r="C34" s="53">
         <v>1.5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="199"/>
-      <c r="B35" s="186"/>
+      <c r="A35" s="229"/>
+      <c r="B35" s="215"/>
       <c r="C35" s="53"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="199"/>
-      <c r="B36" s="186"/>
+      <c r="A36" s="229"/>
+      <c r="B36" s="215"/>
       <c r="C36" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="D1:H1"/>
@@ -9907,6 +10190,11 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9917,7 +10205,7 @@
   <dimension ref="A1:AC64"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9961,13 +10249,13 @@
       <c r="A3" s="144" t="s">
         <v>333</v>
       </c>
-      <c r="D3" s="227" t="s">
+      <c r="D3" s="235" t="s">
         <v>344</v>
       </c>
-      <c r="E3" s="228"/>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
-      <c r="H3" s="229"/>
+      <c r="E3" s="236"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="237"/>
       <c r="Q3" s="169" t="s">
         <v>345</v>
       </c>
@@ -10042,20 +10330,20 @@
         <v>338</v>
       </c>
       <c r="Q6" s="164"/>
-      <c r="R6" s="206" t="s">
+      <c r="R6" s="238" t="s">
         <v>346</v>
       </c>
-      <c r="S6" s="206"/>
+      <c r="S6" s="238"/>
       <c r="T6" s="165"/>
-      <c r="V6" s="207" t="s">
+      <c r="V6" s="239" t="s">
         <v>358</v>
       </c>
-      <c r="W6" s="207"/>
-      <c r="X6" s="207"/>
-      <c r="Y6" s="205" t="s">
+      <c r="W6" s="239"/>
+      <c r="X6" s="239"/>
+      <c r="Y6" s="234" t="s">
         <v>362</v>
       </c>
-      <c r="Z6" s="205"/>
+      <c r="Z6" s="234"/>
       <c r="AA6" s="150"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
@@ -10644,7 +10932,7 @@
       </c>
       <c r="S20" s="156"/>
       <c r="T20" s="156"/>
-      <c r="V20" s="222" t="s">
+      <c r="V20" s="185" t="s">
         <v>396</v>
       </c>
       <c r="W20" s="150"/>
@@ -11610,7 +11898,7 @@
       <c r="K52" s="172"/>
       <c r="L52" s="153"/>
       <c r="M52" s="172"/>
-      <c r="N52" s="223"/>
+      <c r="N52" s="186"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="149"/>
@@ -11831,7 +12119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
@@ -11924,17 +12212,17 @@
         <v>338</v>
       </c>
       <c r="Q6" s="164"/>
-      <c r="R6" s="206" t="s">
+      <c r="R6" s="238" t="s">
         <v>346</v>
       </c>
-      <c r="S6" s="206"/>
+      <c r="S6" s="238"/>
       <c r="T6" s="165"/>
       <c r="U6" s="151"/>
-      <c r="W6" s="224" t="s">
+      <c r="W6" s="187" t="s">
         <v>358</v>
       </c>
-      <c r="X6" s="224"/>
-      <c r="Y6" s="224"/>
+      <c r="X6" s="187"/>
+      <c r="Y6" s="187"/>
       <c r="Z6" s="136" t="s">
         <v>362</v>
       </c>
@@ -11986,7 +12274,7 @@
       <c r="A8" s="148" t="s">
         <v>401</v>
       </c>
-      <c r="B8" s="230"/>
+      <c r="B8" s="190"/>
       <c r="C8" s="148" t="s">
         <v>402</v>
       </c>
@@ -11995,25 +12283,25 @@
         <v>10</v>
       </c>
       <c r="F8" s="153"/>
-      <c r="G8" s="250">
+      <c r="G8" s="207">
         <f>M8*Z10*Y10</f>
         <v>112.5</v>
       </c>
-      <c r="H8" s="250">
+      <c r="H8" s="207">
         <f>G8*E8</f>
         <v>1125</v>
       </c>
       <c r="I8" s="153"/>
-      <c r="J8" s="250">
+      <c r="J8" s="207">
         <f>IF(Y22="true", Y10*Z10*S8, Y10*Z10*T8)</f>
         <v>1125</v>
       </c>
-      <c r="K8" s="250"/>
+      <c r="K8" s="207"/>
       <c r="L8" s="153"/>
-      <c r="M8" s="252">
+      <c r="M8" s="209">
         <v>0.5</v>
       </c>
-      <c r="N8" s="252"/>
+      <c r="N8" s="209"/>
       <c r="Q8" s="164"/>
       <c r="R8" s="161" t="s">
         <v>401</v>
@@ -12022,7 +12310,7 @@
         <v>5</v>
       </c>
       <c r="T8" s="156"/>
-      <c r="U8" s="226">
+      <c r="U8" s="189">
         <f>IF(Y22 = "true", S8/60, T8/60)</f>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -12041,28 +12329,28 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="149"/>
-      <c r="B9" s="230"/>
+      <c r="B9" s="190"/>
       <c r="C9" s="148"/>
       <c r="D9" s="149"/>
       <c r="E9" s="152"/>
       <c r="F9" s="153"/>
-      <c r="G9" s="250"/>
-      <c r="H9" s="253">
+      <c r="G9" s="207"/>
+      <c r="H9" s="210">
         <f>H8</f>
         <v>1125</v>
       </c>
       <c r="I9" s="153"/>
-      <c r="J9" s="250"/>
-      <c r="K9" s="255">
+      <c r="J9" s="207"/>
+      <c r="K9" s="212">
         <f>J8+H9</f>
         <v>2250</v>
       </c>
       <c r="L9" s="153"/>
-      <c r="M9" s="254">
+      <c r="M9" s="211">
         <f>S8</f>
         <v>5</v>
       </c>
-      <c r="N9" s="254"/>
+      <c r="N9" s="211"/>
       <c r="Q9" s="164"/>
       <c r="R9" s="161" t="s">
         <v>400</v>
@@ -12093,23 +12381,23 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="236"/>
-      <c r="B10" s="237"/>
-      <c r="C10" s="236"/>
-      <c r="D10" s="236"/>
-      <c r="E10" s="238"/>
-      <c r="F10" s="239"/>
-      <c r="G10" s="251"/>
-      <c r="H10" s="251"/>
-      <c r="I10" s="239"/>
-      <c r="J10" s="251"/>
-      <c r="K10" s="251"/>
-      <c r="L10" s="239"/>
-      <c r="M10" s="251">
+      <c r="A10" s="196"/>
+      <c r="B10" s="197"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="198"/>
+      <c r="F10" s="199"/>
+      <c r="G10" s="208"/>
+      <c r="H10" s="208"/>
+      <c r="I10" s="199"/>
+      <c r="J10" s="208"/>
+      <c r="K10" s="208"/>
+      <c r="L10" s="199"/>
+      <c r="M10" s="208">
         <f>IF(Y22="true", M8*Z10*(E8/2)+M9, M8*Z10*(E8/2)+T8)</f>
         <v>8.75</v>
       </c>
-      <c r="N10" s="251">
+      <c r="N10" s="208">
         <f>M10/60</f>
         <v>0.14583333333333334</v>
       </c>
@@ -12124,7 +12412,7 @@
         <v>180</v>
       </c>
       <c r="T10" s="156"/>
-      <c r="U10" s="226">
+      <c r="U10" s="189">
         <f>S10/60</f>
         <v>3</v>
       </c>
@@ -12147,19 +12435,19 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="149"/>
-      <c r="B11" s="230"/>
+      <c r="B11" s="190"/>
       <c r="C11" s="149"/>
       <c r="D11" s="149"/>
       <c r="E11" s="152"/>
       <c r="F11" s="153"/>
-      <c r="G11" s="250"/>
-      <c r="H11" s="250"/>
+      <c r="G11" s="207"/>
+      <c r="H11" s="207"/>
       <c r="I11" s="153"/>
-      <c r="J11" s="250"/>
-      <c r="K11" s="250"/>
+      <c r="J11" s="207"/>
+      <c r="K11" s="207"/>
       <c r="L11" s="153"/>
-      <c r="M11" s="250"/>
-      <c r="N11" s="250"/>
+      <c r="M11" s="207"/>
+      <c r="N11" s="207"/>
       <c r="Q11" s="164"/>
       <c r="R11" s="161" t="s">
         <v>407</v>
@@ -12168,7 +12456,7 @@
         <v>240</v>
       </c>
       <c r="T11" s="156"/>
-      <c r="U11" s="226">
+      <c r="U11" s="189">
         <f>S11/60</f>
         <v>4</v>
       </c>
@@ -12182,38 +12470,38 @@
       <c r="AA11" s="151"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="247" t="s">
+      <c r="A12" s="204" t="s">
         <v>400</v>
       </c>
-      <c r="B12" s="244"/>
-      <c r="C12" s="247" t="s">
+      <c r="B12" s="201"/>
+      <c r="C12" s="204" t="s">
         <v>401</v>
       </c>
-      <c r="D12" s="243"/>
-      <c r="E12" s="245">
+      <c r="D12" s="200"/>
+      <c r="E12" s="202">
         <v>1</v>
       </c>
-      <c r="F12" s="246"/>
-      <c r="G12" s="252">
+      <c r="F12" s="203"/>
+      <c r="G12" s="209">
         <f>K9</f>
         <v>2250</v>
       </c>
-      <c r="H12" s="252">
+      <c r="H12" s="209">
         <f>G12*E12</f>
         <v>2250</v>
       </c>
-      <c r="I12" s="246"/>
-      <c r="J12" s="252">
+      <c r="I12" s="203"/>
+      <c r="J12" s="209">
         <f>Y10*Z10*S9</f>
         <v>27000</v>
       </c>
-      <c r="K12" s="252"/>
-      <c r="L12" s="246"/>
-      <c r="M12" s="252">
+      <c r="K12" s="209"/>
+      <c r="L12" s="203"/>
+      <c r="M12" s="209">
         <f>M10</f>
         <v>8.75</v>
       </c>
-      <c r="N12" s="252"/>
+      <c r="N12" s="209"/>
       <c r="Q12" s="164"/>
       <c r="R12" s="161" t="s">
         <v>408</v>
@@ -12222,7 +12510,7 @@
         <v>300</v>
       </c>
       <c r="T12" s="156"/>
-      <c r="U12" s="226">
+      <c r="U12" s="189">
         <f>S12/60</f>
         <v>5</v>
       </c>
@@ -12237,7 +12525,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="149"/>
-      <c r="B13" s="230"/>
+      <c r="B13" s="190"/>
       <c r="C13" s="148" t="s">
         <v>410</v>
       </c>
@@ -12246,23 +12534,23 @@
         <v>1</v>
       </c>
       <c r="F13" s="153"/>
-      <c r="G13" s="250">
+      <c r="G13" s="207">
         <f>Y10*Z10*S17</f>
         <v>4500</v>
       </c>
-      <c r="H13" s="254">
+      <c r="H13" s="211">
         <f>G13*E13</f>
         <v>4500</v>
       </c>
       <c r="I13" s="153"/>
-      <c r="J13" s="250"/>
-      <c r="K13" s="250"/>
+      <c r="J13" s="207"/>
+      <c r="K13" s="207"/>
       <c r="L13" s="153"/>
-      <c r="M13" s="252">
+      <c r="M13" s="209">
         <f>S17</f>
         <v>20</v>
       </c>
-      <c r="N13" s="252"/>
+      <c r="N13" s="209"/>
       <c r="Q13" s="164"/>
       <c r="R13" s="161" t="s">
         <v>409</v>
@@ -12271,7 +12559,7 @@
         <v>360</v>
       </c>
       <c r="T13" s="156"/>
-      <c r="U13" s="226">
+      <c r="U13" s="189">
         <f>S13/60</f>
         <v>6</v>
       </c>
@@ -12286,25 +12574,25 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="149"/>
-      <c r="B14" s="230"/>
+      <c r="B14" s="190"/>
       <c r="C14" s="149"/>
       <c r="D14" s="149"/>
       <c r="E14" s="152"/>
       <c r="F14" s="153"/>
-      <c r="G14" s="250"/>
-      <c r="H14" s="250">
+      <c r="G14" s="207"/>
+      <c r="H14" s="207">
         <f>H13+H12</f>
         <v>6750</v>
       </c>
       <c r="I14" s="153"/>
-      <c r="J14" s="250"/>
-      <c r="K14" s="250"/>
+      <c r="J14" s="207"/>
+      <c r="K14" s="207"/>
       <c r="L14" s="153"/>
-      <c r="M14" s="254">
+      <c r="M14" s="211">
         <f>IF(Y22="true", S9, T9)</f>
         <v>120</v>
       </c>
-      <c r="N14" s="254"/>
+      <c r="N14" s="211"/>
       <c r="Q14" s="164"/>
       <c r="R14" s="162"/>
       <c r="S14" s="158">
@@ -12323,25 +12611,25 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="149"/>
-      <c r="B15" s="230"/>
+      <c r="B15" s="190"/>
       <c r="C15" s="149"/>
       <c r="D15" s="149"/>
       <c r="E15" s="152"/>
       <c r="F15" s="153"/>
-      <c r="G15" s="250"/>
-      <c r="H15" s="250"/>
+      <c r="G15" s="207"/>
+      <c r="H15" s="207"/>
       <c r="I15" s="153"/>
-      <c r="J15" s="250"/>
-      <c r="K15" s="255">
+      <c r="J15" s="207"/>
+      <c r="K15" s="212">
         <f>H14+J12</f>
         <v>33750</v>
       </c>
       <c r="L15" s="153"/>
-      <c r="M15" s="250">
+      <c r="M15" s="207">
         <f>M13+M12+M14</f>
         <v>148.75</v>
       </c>
-      <c r="N15" s="250">
+      <c r="N15" s="207">
         <f>M15/60</f>
         <v>2.4791666666666665</v>
       </c>
@@ -12350,8 +12638,8 @@
       </c>
       <c r="Q15" s="164"/>
       <c r="R15" s="162"/>
-      <c r="S15" s="234"/>
-      <c r="T15" s="235"/>
+      <c r="S15" s="194"/>
+      <c r="T15" s="195"/>
       <c r="U15" s="151"/>
       <c r="W15" s="159"/>
       <c r="X15" s="160"/>
@@ -12363,23 +12651,23 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="149"/>
-      <c r="B16" s="230"/>
+      <c r="B16" s="190"/>
       <c r="C16" s="149"/>
       <c r="D16" s="149"/>
       <c r="E16" s="152"/>
       <c r="F16" s="153"/>
-      <c r="G16" s="250"/>
-      <c r="H16" s="250"/>
+      <c r="G16" s="207"/>
+      <c r="H16" s="207"/>
       <c r="I16" s="153"/>
-      <c r="J16" s="250"/>
-      <c r="K16" s="250"/>
+      <c r="J16" s="207"/>
+      <c r="K16" s="207"/>
       <c r="L16" s="153"/>
-      <c r="M16" s="250"/>
-      <c r="N16" s="250"/>
+      <c r="M16" s="207"/>
+      <c r="N16" s="207"/>
       <c r="Q16" s="164"/>
       <c r="R16" s="162"/>
-      <c r="S16" s="234"/>
-      <c r="T16" s="235"/>
+      <c r="S16" s="194"/>
+      <c r="T16" s="195"/>
       <c r="U16" s="151"/>
       <c r="W16" s="160"/>
       <c r="X16" s="160"/>
@@ -12391,7 +12679,7 @@
       <c r="A17" s="148" t="s">
         <v>406</v>
       </c>
-      <c r="B17" s="230"/>
+      <c r="B17" s="190"/>
       <c r="C17" s="148" t="s">
         <v>401</v>
       </c>
@@ -12400,26 +12688,26 @@
         <v>1</v>
       </c>
       <c r="F17" s="153"/>
-      <c r="G17" s="250">
+      <c r="G17" s="207">
         <f>K9</f>
         <v>2250</v>
       </c>
-      <c r="H17" s="250">
+      <c r="H17" s="207">
         <f>G17*E17</f>
         <v>2250</v>
       </c>
       <c r="I17" s="153"/>
-      <c r="J17" s="250">
+      <c r="J17" s="207">
         <f>Y10*Z10*S10</f>
         <v>40500</v>
       </c>
-      <c r="K17" s="250"/>
+      <c r="K17" s="207"/>
       <c r="L17" s="153"/>
-      <c r="M17" s="250">
+      <c r="M17" s="207">
         <f>M10</f>
         <v>8.75</v>
       </c>
-      <c r="N17" s="250"/>
+      <c r="N17" s="207"/>
       <c r="Q17" s="164"/>
       <c r="R17" s="161" t="s">
         <v>410</v>
@@ -12437,7 +12725,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="149"/>
-      <c r="B18" s="230"/>
+      <c r="B18" s="190"/>
       <c r="C18" s="148" t="s">
         <v>411</v>
       </c>
@@ -12446,23 +12734,23 @@
         <v>1</v>
       </c>
       <c r="F18" s="153"/>
-      <c r="G18" s="250">
+      <c r="G18" s="207">
         <f>Y10*Z10*S18</f>
         <v>7875</v>
       </c>
-      <c r="H18" s="254">
+      <c r="H18" s="211">
         <f>G18*E18</f>
         <v>7875</v>
       </c>
       <c r="I18" s="153"/>
-      <c r="J18" s="250"/>
-      <c r="K18" s="250"/>
+      <c r="J18" s="207"/>
+      <c r="K18" s="207"/>
       <c r="L18" s="153"/>
-      <c r="M18" s="250">
+      <c r="M18" s="207">
         <f>S18</f>
         <v>35</v>
       </c>
-      <c r="N18" s="250"/>
+      <c r="N18" s="207"/>
       <c r="Q18" s="164"/>
       <c r="R18" s="161" t="s">
         <v>411</v>
@@ -12480,25 +12768,25 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="149"/>
-      <c r="B19" s="230"/>
+      <c r="B19" s="190"/>
       <c r="C19" s="149"/>
       <c r="D19" s="149"/>
       <c r="E19" s="152"/>
       <c r="F19" s="153"/>
-      <c r="G19" s="250"/>
-      <c r="H19" s="250">
+      <c r="G19" s="207"/>
+      <c r="H19" s="207">
         <f>H18+H17</f>
         <v>10125</v>
       </c>
       <c r="I19" s="153"/>
-      <c r="J19" s="250"/>
-      <c r="K19" s="250"/>
+      <c r="J19" s="207"/>
+      <c r="K19" s="207"/>
       <c r="L19" s="153"/>
-      <c r="M19" s="254">
+      <c r="M19" s="211">
         <f>IF(Y22="true", S10, T10)</f>
         <v>180</v>
       </c>
-      <c r="N19" s="254"/>
+      <c r="N19" s="211"/>
       <c r="Q19" s="164"/>
       <c r="R19" s="161" t="s">
         <v>412</v>
@@ -12516,25 +12804,25 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="149"/>
-      <c r="B20" s="230"/>
+      <c r="B20" s="190"/>
       <c r="C20" s="149"/>
       <c r="D20" s="149"/>
       <c r="E20" s="152"/>
       <c r="F20" s="153"/>
-      <c r="G20" s="250"/>
-      <c r="H20" s="250"/>
+      <c r="G20" s="207"/>
+      <c r="H20" s="207"/>
       <c r="I20" s="153"/>
-      <c r="J20" s="250"/>
-      <c r="K20" s="255">
+      <c r="J20" s="207"/>
+      <c r="K20" s="212">
         <f>J17+H19</f>
         <v>50625</v>
       </c>
       <c r="L20" s="153"/>
-      <c r="M20" s="250">
+      <c r="M20" s="207">
         <f>M19+M18+M17</f>
         <v>223.75</v>
       </c>
-      <c r="N20" s="250">
+      <c r="N20" s="207">
         <f>M20/60</f>
         <v>3.7291666666666665</v>
       </c>
@@ -12550,29 +12838,29 @@
       </c>
       <c r="T20" s="156"/>
       <c r="U20" s="151"/>
-      <c r="W20" s="248" t="s">
+      <c r="W20" s="205" t="s">
         <v>396</v>
       </c>
-      <c r="X20" s="230"/>
-      <c r="Y20" s="230"/>
+      <c r="X20" s="190"/>
+      <c r="Y20" s="190"/>
       <c r="Z20" s="151"/>
       <c r="AA20" s="151"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="149"/>
-      <c r="B21" s="230"/>
+      <c r="B21" s="190"/>
       <c r="C21" s="149"/>
       <c r="D21" s="149"/>
       <c r="E21" s="152"/>
       <c r="F21" s="153"/>
-      <c r="G21" s="250"/>
-      <c r="H21" s="250"/>
+      <c r="G21" s="207"/>
+      <c r="H21" s="207"/>
       <c r="I21" s="153"/>
-      <c r="J21" s="250"/>
-      <c r="K21" s="250"/>
+      <c r="J21" s="207"/>
+      <c r="K21" s="207"/>
       <c r="L21" s="153"/>
-      <c r="M21" s="250"/>
-      <c r="N21" s="250"/>
+      <c r="M21" s="207"/>
+      <c r="N21" s="207"/>
       <c r="Q21" s="164"/>
       <c r="R21" s="161" t="s">
         <v>414</v>
@@ -12582,9 +12870,9 @@
       </c>
       <c r="T21" s="156"/>
       <c r="U21" s="151"/>
-      <c r="W21" s="233"/>
-      <c r="X21" s="233"/>
-      <c r="Y21" s="225"/>
+      <c r="W21" s="193"/>
+      <c r="X21" s="193"/>
+      <c r="Y21" s="188"/>
       <c r="Z21" s="151"/>
       <c r="AA21" s="151"/>
     </row>
@@ -12592,7 +12880,7 @@
       <c r="A22" s="148" t="s">
         <v>407</v>
       </c>
-      <c r="B22" s="230"/>
+      <c r="B22" s="190"/>
       <c r="C22" s="148" t="s">
         <v>401</v>
       </c>
@@ -12601,36 +12889,36 @@
         <v>1</v>
       </c>
       <c r="F22" s="153"/>
-      <c r="G22" s="250">
+      <c r="G22" s="207">
         <f>K9</f>
         <v>2250</v>
       </c>
-      <c r="H22" s="250">
+      <c r="H22" s="207">
         <f>G22*E22</f>
         <v>2250</v>
       </c>
       <c r="I22" s="153"/>
-      <c r="J22" s="250">
+      <c r="J22" s="207">
         <f>Y10*Z10*S11</f>
         <v>54000</v>
       </c>
-      <c r="K22" s="250"/>
+      <c r="K22" s="207"/>
       <c r="L22" s="153"/>
-      <c r="M22" s="250">
+      <c r="M22" s="207">
         <f>M10</f>
         <v>8.75</v>
       </c>
-      <c r="N22" s="250"/>
+      <c r="N22" s="207"/>
       <c r="Q22" s="164"/>
-      <c r="R22" s="234"/>
-      <c r="S22" s="235"/>
-      <c r="T22" s="235"/>
+      <c r="R22" s="194"/>
+      <c r="S22" s="195"/>
+      <c r="T22" s="195"/>
       <c r="U22" s="151"/>
-      <c r="W22" s="232" t="s">
+      <c r="W22" s="192" t="s">
         <v>397</v>
       </c>
-      <c r="X22" s="233"/>
-      <c r="Y22" s="249" t="s">
+      <c r="X22" s="193"/>
+      <c r="Y22" s="206" t="s">
         <v>398</v>
       </c>
       <c r="Z22" s="151"/>
@@ -12638,7 +12926,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="149"/>
-      <c r="B23" s="230"/>
+      <c r="B23" s="190"/>
       <c r="C23" s="148" t="s">
         <v>412</v>
       </c>
@@ -12647,87 +12935,87 @@
         <v>1</v>
       </c>
       <c r="F23" s="153"/>
-      <c r="G23" s="250">
+      <c r="G23" s="207">
         <f>Y10*Z10*S19</f>
         <v>13500</v>
       </c>
-      <c r="H23" s="254">
+      <c r="H23" s="211">
         <f>G23*E23</f>
         <v>13500</v>
       </c>
       <c r="I23" s="153"/>
-      <c r="J23" s="250"/>
-      <c r="K23" s="250"/>
+      <c r="J23" s="207"/>
+      <c r="K23" s="207"/>
       <c r="L23" s="153"/>
-      <c r="M23" s="250">
+      <c r="M23" s="207">
         <f>S19</f>
         <v>60</v>
       </c>
-      <c r="N23" s="250"/>
+      <c r="N23" s="207"/>
       <c r="Q23" s="164"/>
-      <c r="R23" s="234"/>
-      <c r="S23" s="235"/>
-      <c r="T23" s="235"/>
+      <c r="R23" s="194"/>
+      <c r="S23" s="195"/>
+      <c r="T23" s="195"/>
       <c r="U23" s="151"/>
-      <c r="W23" s="233"/>
-      <c r="X23" s="233"/>
-      <c r="Y23" s="231"/>
+      <c r="W23" s="193"/>
+      <c r="X23" s="193"/>
+      <c r="Y23" s="191"/>
       <c r="Z23" s="151"/>
       <c r="AA23" s="151"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="149"/>
-      <c r="B24" s="230"/>
+      <c r="B24" s="190"/>
       <c r="C24" s="149"/>
       <c r="D24" s="149"/>
       <c r="E24" s="152"/>
       <c r="F24" s="153"/>
-      <c r="G24" s="250"/>
-      <c r="H24" s="250">
+      <c r="G24" s="207"/>
+      <c r="H24" s="207">
         <f>H23+H22</f>
         <v>15750</v>
       </c>
       <c r="I24" s="153"/>
-      <c r="J24" s="250"/>
-      <c r="K24" s="250"/>
+      <c r="J24" s="207"/>
+      <c r="K24" s="207"/>
       <c r="L24" s="153"/>
-      <c r="M24" s="254">
+      <c r="M24" s="211">
         <f>IF(Y22="true", S11, T11)</f>
         <v>240</v>
       </c>
-      <c r="N24" s="254"/>
+      <c r="N24" s="211"/>
       <c r="Q24" s="164"/>
-      <c r="R24" s="234"/>
-      <c r="S24" s="235"/>
-      <c r="T24" s="235"/>
+      <c r="R24" s="194"/>
+      <c r="S24" s="195"/>
+      <c r="T24" s="195"/>
       <c r="U24" s="151"/>
-      <c r="W24" s="233"/>
-      <c r="X24" s="233"/>
-      <c r="Y24" s="225"/>
+      <c r="W24" s="193"/>
+      <c r="X24" s="193"/>
+      <c r="Y24" s="188"/>
       <c r="Z24" s="151"/>
       <c r="AA24" s="151"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="149"/>
-      <c r="B25" s="230"/>
+      <c r="B25" s="190"/>
       <c r="C25" s="149"/>
       <c r="D25" s="149"/>
       <c r="E25" s="152"/>
       <c r="F25" s="153"/>
-      <c r="G25" s="250"/>
-      <c r="H25" s="250"/>
+      <c r="G25" s="207"/>
+      <c r="H25" s="207"/>
       <c r="I25" s="153"/>
-      <c r="J25" s="250"/>
-      <c r="K25" s="255">
+      <c r="J25" s="207"/>
+      <c r="K25" s="212">
         <f>J22+H24</f>
         <v>69750</v>
       </c>
       <c r="L25" s="153"/>
-      <c r="M25" s="250">
+      <c r="M25" s="207">
         <f>M24+M23+M22</f>
         <v>308.75</v>
       </c>
-      <c r="N25" s="250">
+      <c r="N25" s="207">
         <f>M25/60</f>
         <v>5.145833333333333</v>
       </c>
@@ -12735,38 +13023,38 @@
         <v>393</v>
       </c>
       <c r="Q25" s="164"/>
-      <c r="R25" s="234"/>
-      <c r="S25" s="235"/>
-      <c r="T25" s="235"/>
+      <c r="R25" s="194"/>
+      <c r="S25" s="195"/>
+      <c r="T25" s="195"/>
       <c r="U25" s="151"/>
-      <c r="W25" s="233"/>
-      <c r="X25" s="233"/>
-      <c r="Y25" s="225"/>
+      <c r="W25" s="193"/>
+      <c r="X25" s="193"/>
+      <c r="Y25" s="188"/>
       <c r="Z25" s="151"/>
       <c r="AA25" s="151"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="149"/>
-      <c r="B26" s="230"/>
+      <c r="B26" s="190"/>
       <c r="C26" s="149"/>
       <c r="D26" s="149"/>
       <c r="E26" s="152"/>
       <c r="F26" s="153"/>
-      <c r="G26" s="250"/>
-      <c r="H26" s="250"/>
+      <c r="G26" s="207"/>
+      <c r="H26" s="207"/>
       <c r="I26" s="153"/>
-      <c r="J26" s="250"/>
-      <c r="K26" s="250"/>
+      <c r="J26" s="207"/>
+      <c r="K26" s="207"/>
       <c r="L26" s="153"/>
-      <c r="M26" s="250"/>
-      <c r="N26" s="250"/>
-      <c r="R26" s="234"/>
-      <c r="S26" s="235"/>
-      <c r="T26" s="235"/>
+      <c r="M26" s="207"/>
+      <c r="N26" s="207"/>
+      <c r="R26" s="194"/>
+      <c r="S26" s="195"/>
+      <c r="T26" s="195"/>
       <c r="U26" s="151"/>
-      <c r="W26" s="233"/>
-      <c r="X26" s="233"/>
-      <c r="Y26" s="225"/>
+      <c r="W26" s="193"/>
+      <c r="X26" s="193"/>
+      <c r="Y26" s="188"/>
       <c r="Z26" s="151"/>
       <c r="AA26" s="151"/>
     </row>
@@ -12774,7 +13062,7 @@
       <c r="A27" s="148" t="s">
         <v>408</v>
       </c>
-      <c r="B27" s="230"/>
+      <c r="B27" s="190"/>
       <c r="C27" s="148" t="s">
         <v>401</v>
       </c>
@@ -12783,29 +13071,29 @@
         <v>1</v>
       </c>
       <c r="F27" s="153"/>
-      <c r="G27" s="250">
+      <c r="G27" s="207">
         <f>K9</f>
         <v>2250</v>
       </c>
-      <c r="H27" s="250">
+      <c r="H27" s="207">
         <f>G27*E27</f>
         <v>2250</v>
       </c>
       <c r="I27" s="153"/>
-      <c r="J27" s="250">
+      <c r="J27" s="207">
         <f>Y10*Z10*S12</f>
         <v>67500</v>
       </c>
-      <c r="K27" s="250"/>
+      <c r="K27" s="207"/>
       <c r="L27" s="153"/>
-      <c r="M27" s="250">
+      <c r="M27" s="207">
         <f>M10</f>
         <v>8.75</v>
       </c>
-      <c r="N27" s="250"/>
-      <c r="R27" s="234"/>
-      <c r="S27" s="235"/>
-      <c r="T27" s="235"/>
+      <c r="N27" s="207"/>
+      <c r="R27" s="194"/>
+      <c r="S27" s="195"/>
+      <c r="T27" s="195"/>
       <c r="U27" s="151"/>
       <c r="V27" s="151"/>
       <c r="W27" s="151"/>
@@ -12815,7 +13103,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="149"/>
-      <c r="B28" s="230"/>
+      <c r="B28" s="190"/>
       <c r="C28" s="148" t="s">
         <v>413</v>
       </c>
@@ -12824,26 +13112,26 @@
         <v>1</v>
       </c>
       <c r="F28" s="153"/>
-      <c r="G28" s="250">
+      <c r="G28" s="207">
         <f>Y10*Z10*S20</f>
         <v>22500</v>
       </c>
-      <c r="H28" s="254">
+      <c r="H28" s="211">
         <f>G28*E28</f>
         <v>22500</v>
       </c>
       <c r="I28" s="153"/>
-      <c r="J28" s="250"/>
-      <c r="K28" s="250"/>
+      <c r="J28" s="207"/>
+      <c r="K28" s="207"/>
       <c r="L28" s="153"/>
-      <c r="M28" s="250">
+      <c r="M28" s="207">
         <f>S20</f>
         <v>100</v>
       </c>
-      <c r="N28" s="250"/>
-      <c r="R28" s="234"/>
-      <c r="S28" s="235"/>
-      <c r="T28" s="235"/>
+      <c r="N28" s="207"/>
+      <c r="R28" s="194"/>
+      <c r="S28" s="195"/>
+      <c r="T28" s="195"/>
       <c r="U28" s="151"/>
       <c r="V28" s="151"/>
       <c r="W28" s="151"/>
@@ -12853,28 +13141,28 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="149"/>
-      <c r="B29" s="230"/>
+      <c r="B29" s="190"/>
       <c r="C29" s="149"/>
       <c r="D29" s="149"/>
       <c r="E29" s="152"/>
       <c r="F29" s="153"/>
-      <c r="G29" s="250"/>
-      <c r="H29" s="250">
+      <c r="G29" s="207"/>
+      <c r="H29" s="207">
         <f>H28+H27</f>
         <v>24750</v>
       </c>
       <c r="I29" s="153"/>
-      <c r="J29" s="250"/>
-      <c r="K29" s="250"/>
+      <c r="J29" s="207"/>
+      <c r="K29" s="207"/>
       <c r="L29" s="153"/>
-      <c r="M29" s="254">
+      <c r="M29" s="211">
         <f>S12</f>
         <v>300</v>
       </c>
-      <c r="N29" s="254"/>
-      <c r="R29" s="234"/>
-      <c r="S29" s="235"/>
-      <c r="T29" s="235"/>
+      <c r="N29" s="211"/>
+      <c r="R29" s="194"/>
+      <c r="S29" s="195"/>
+      <c r="T29" s="195"/>
       <c r="U29" s="151"/>
       <c r="V29" s="151"/>
       <c r="W29" s="151"/>
@@ -12884,34 +13172,34 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="149"/>
-      <c r="B30" s="230"/>
+      <c r="B30" s="190"/>
       <c r="C30" s="149"/>
       <c r="D30" s="149"/>
       <c r="E30" s="152"/>
       <c r="F30" s="153"/>
-      <c r="G30" s="250"/>
-      <c r="H30" s="250"/>
+      <c r="G30" s="207"/>
+      <c r="H30" s="207"/>
       <c r="I30" s="153"/>
-      <c r="J30" s="250"/>
-      <c r="K30" s="255">
+      <c r="J30" s="207"/>
+      <c r="K30" s="212">
         <f>H29+J27</f>
         <v>92250</v>
       </c>
       <c r="L30" s="153"/>
-      <c r="M30" s="250">
+      <c r="M30" s="207">
         <f>M29+M28+M27</f>
         <v>408.75</v>
       </c>
-      <c r="N30" s="250">
+      <c r="N30" s="207">
         <f>M30/60</f>
         <v>6.8125</v>
       </c>
       <c r="O30" s="119" t="s">
         <v>393</v>
       </c>
-      <c r="R30" s="235"/>
-      <c r="S30" s="235"/>
-      <c r="T30" s="235"/>
+      <c r="R30" s="195"/>
+      <c r="S30" s="195"/>
+      <c r="T30" s="195"/>
       <c r="U30" s="151"/>
       <c r="V30" s="151"/>
       <c r="W30" s="151"/>
@@ -12921,22 +13209,22 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="149"/>
-      <c r="B31" s="230"/>
+      <c r="B31" s="190"/>
       <c r="C31" s="149"/>
       <c r="D31" s="149"/>
       <c r="E31" s="152"/>
       <c r="F31" s="153"/>
-      <c r="G31" s="250"/>
-      <c r="H31" s="250"/>
+      <c r="G31" s="207"/>
+      <c r="H31" s="207"/>
       <c r="I31" s="153"/>
-      <c r="J31" s="250"/>
-      <c r="K31" s="250"/>
+      <c r="J31" s="207"/>
+      <c r="K31" s="207"/>
       <c r="L31" s="153"/>
-      <c r="M31" s="250"/>
-      <c r="N31" s="250"/>
-      <c r="R31" s="234"/>
-      <c r="S31" s="234"/>
-      <c r="T31" s="235"/>
+      <c r="M31" s="207"/>
+      <c r="N31" s="207"/>
+      <c r="R31" s="194"/>
+      <c r="S31" s="194"/>
+      <c r="T31" s="195"/>
       <c r="U31" s="151"/>
       <c r="V31" s="151"/>
       <c r="W31" s="151"/>
@@ -12948,7 +13236,7 @@
       <c r="A32" s="148" t="s">
         <v>409</v>
       </c>
-      <c r="B32" s="230"/>
+      <c r="B32" s="190"/>
       <c r="C32" s="148" t="s">
         <v>401</v>
       </c>
@@ -12957,30 +13245,30 @@
         <v>1</v>
       </c>
       <c r="F32" s="153"/>
-      <c r="G32" s="250">
+      <c r="G32" s="207">
         <f>K9</f>
         <v>2250</v>
       </c>
-      <c r="H32" s="250">
+      <c r="H32" s="207">
         <f>G32*E32</f>
         <v>2250</v>
       </c>
       <c r="I32" s="153"/>
-      <c r="J32" s="250">
+      <c r="J32" s="207">
         <f>Y10*Z10*S13</f>
         <v>81000</v>
       </c>
-      <c r="K32" s="250"/>
+      <c r="K32" s="207"/>
       <c r="L32" s="153"/>
-      <c r="M32" s="250">
+      <c r="M32" s="207">
         <f>M10</f>
         <v>8.75</v>
       </c>
-      <c r="N32" s="250"/>
+      <c r="N32" s="207"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="149"/>
-      <c r="B33" s="230"/>
+      <c r="B33" s="190"/>
       <c r="C33" s="148" t="s">
         <v>414</v>
       </c>
@@ -12989,67 +13277,67 @@
         <v>1</v>
       </c>
       <c r="F33" s="153"/>
-      <c r="G33" s="250">
+      <c r="G33" s="207">
         <f>Y10*Z10*S21</f>
         <v>31500</v>
       </c>
-      <c r="H33" s="254">
+      <c r="H33" s="211">
         <f>G33*E33</f>
         <v>31500</v>
       </c>
       <c r="I33" s="153"/>
-      <c r="J33" s="250"/>
-      <c r="K33" s="250"/>
+      <c r="J33" s="207"/>
+      <c r="K33" s="207"/>
       <c r="L33" s="153"/>
-      <c r="M33" s="250">
+      <c r="M33" s="207">
         <f>S21</f>
         <v>140</v>
       </c>
-      <c r="N33" s="250"/>
+      <c r="N33" s="207"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="149"/>
-      <c r="B34" s="230"/>
+      <c r="B34" s="190"/>
       <c r="C34" s="149"/>
       <c r="D34" s="149"/>
       <c r="E34" s="152"/>
       <c r="F34" s="153"/>
-      <c r="G34" s="250"/>
-      <c r="H34" s="250">
+      <c r="G34" s="207"/>
+      <c r="H34" s="207">
         <f>H33+H32</f>
         <v>33750</v>
       </c>
       <c r="I34" s="153"/>
-      <c r="J34" s="250"/>
-      <c r="K34" s="250"/>
+      <c r="J34" s="207"/>
+      <c r="K34" s="207"/>
       <c r="L34" s="153"/>
-      <c r="M34" s="254">
+      <c r="M34" s="211">
         <f>S13</f>
         <v>360</v>
       </c>
-      <c r="N34" s="254"/>
+      <c r="N34" s="211"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="149"/>
-      <c r="B35" s="230"/>
+      <c r="B35" s="190"/>
       <c r="C35" s="149"/>
       <c r="D35" s="149"/>
       <c r="E35" s="152"/>
       <c r="F35" s="153"/>
-      <c r="G35" s="250"/>
-      <c r="H35" s="250"/>
+      <c r="G35" s="207"/>
+      <c r="H35" s="207"/>
       <c r="I35" s="153"/>
-      <c r="J35" s="250"/>
-      <c r="K35" s="255">
+      <c r="J35" s="207"/>
+      <c r="K35" s="212">
         <f>J32+H34</f>
         <v>114750</v>
       </c>
       <c r="L35" s="153"/>
-      <c r="M35" s="250">
+      <c r="M35" s="207">
         <f>M34+M33+M32</f>
         <v>508.75</v>
       </c>
-      <c r="N35" s="250">
+      <c r="N35" s="207">
         <f>M35/60</f>
         <v>8.4791666666666661</v>
       </c>
@@ -13059,275 +13347,275 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="149"/>
-      <c r="B36" s="230"/>
+      <c r="B36" s="190"/>
       <c r="C36" s="149"/>
       <c r="D36" s="149"/>
       <c r="E36" s="152"/>
       <c r="F36" s="153"/>
-      <c r="G36" s="250"/>
-      <c r="H36" s="250"/>
+      <c r="G36" s="207"/>
+      <c r="H36" s="207"/>
       <c r="I36" s="153"/>
-      <c r="J36" s="250"/>
-      <c r="K36" s="250"/>
+      <c r="J36" s="207"/>
+      <c r="K36" s="207"/>
       <c r="L36" s="153"/>
-      <c r="M36" s="250"/>
-      <c r="N36" s="250"/>
+      <c r="M36" s="207"/>
+      <c r="N36" s="207"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="149"/>
-      <c r="B37" s="230"/>
+      <c r="B37" s="190"/>
       <c r="C37" s="149"/>
       <c r="D37" s="149"/>
       <c r="E37" s="152"/>
       <c r="F37" s="153"/>
-      <c r="G37" s="250"/>
-      <c r="H37" s="250"/>
+      <c r="G37" s="207"/>
+      <c r="H37" s="207"/>
       <c r="I37" s="153"/>
-      <c r="J37" s="250"/>
-      <c r="K37" s="250"/>
+      <c r="J37" s="207"/>
+      <c r="K37" s="207"/>
       <c r="L37" s="153"/>
-      <c r="M37" s="250"/>
-      <c r="N37" s="250"/>
+      <c r="M37" s="207"/>
+      <c r="N37" s="207"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="149"/>
-      <c r="B38" s="230"/>
+      <c r="B38" s="190"/>
       <c r="C38" s="149"/>
       <c r="D38" s="149"/>
       <c r="E38" s="152"/>
       <c r="F38" s="153"/>
-      <c r="G38" s="250"/>
-      <c r="H38" s="250"/>
+      <c r="G38" s="207"/>
+      <c r="H38" s="207"/>
       <c r="I38" s="153"/>
-      <c r="J38" s="250"/>
-      <c r="K38" s="250"/>
+      <c r="J38" s="207"/>
+      <c r="K38" s="207"/>
       <c r="L38" s="153"/>
-      <c r="M38" s="250"/>
-      <c r="N38" s="250"/>
+      <c r="M38" s="207"/>
+      <c r="N38" s="207"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="235"/>
-      <c r="B39" s="235"/>
-      <c r="C39" s="235"/>
-      <c r="D39" s="235"/>
-      <c r="E39" s="235"/>
-      <c r="F39" s="235"/>
-      <c r="G39" s="256"/>
-      <c r="H39" s="256"/>
-      <c r="I39" s="235"/>
-      <c r="J39" s="256"/>
-      <c r="K39" s="256"/>
-      <c r="L39" s="235"/>
-      <c r="M39" s="256"/>
-      <c r="N39" s="256"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
+      <c r="C39" s="195"/>
+      <c r="D39" s="195"/>
+      <c r="E39" s="195"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="213"/>
+      <c r="H39" s="213"/>
+      <c r="I39" s="195"/>
+      <c r="J39" s="213"/>
+      <c r="K39" s="213"/>
+      <c r="L39" s="195"/>
+      <c r="M39" s="213"/>
+      <c r="N39" s="213"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="235"/>
-      <c r="B40" s="235"/>
-      <c r="C40" s="235"/>
-      <c r="D40" s="235"/>
-      <c r="E40" s="235"/>
-      <c r="F40" s="235"/>
-      <c r="G40" s="256"/>
-      <c r="H40" s="256"/>
-      <c r="I40" s="235"/>
-      <c r="J40" s="256"/>
-      <c r="K40" s="256"/>
-      <c r="L40" s="235"/>
-      <c r="M40" s="256"/>
-      <c r="N40" s="256"/>
+      <c r="A40" s="195"/>
+      <c r="B40" s="195"/>
+      <c r="C40" s="195"/>
+      <c r="D40" s="195"/>
+      <c r="E40" s="195"/>
+      <c r="F40" s="195"/>
+      <c r="G40" s="213"/>
+      <c r="H40" s="213"/>
+      <c r="I40" s="195"/>
+      <c r="J40" s="213"/>
+      <c r="K40" s="213"/>
+      <c r="L40" s="195"/>
+      <c r="M40" s="213"/>
+      <c r="N40" s="213"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="235"/>
-      <c r="B41" s="235"/>
-      <c r="C41" s="235"/>
-      <c r="D41" s="235"/>
-      <c r="E41" s="235"/>
-      <c r="F41" s="235"/>
-      <c r="G41" s="256"/>
-      <c r="H41" s="256"/>
-      <c r="I41" s="235"/>
-      <c r="J41" s="256"/>
-      <c r="K41" s="256"/>
-      <c r="L41" s="235"/>
-      <c r="M41" s="256"/>
-      <c r="N41" s="256"/>
+      <c r="A41" s="195"/>
+      <c r="B41" s="195"/>
+      <c r="C41" s="195"/>
+      <c r="D41" s="195"/>
+      <c r="E41" s="195"/>
+      <c r="F41" s="195"/>
+      <c r="G41" s="213"/>
+      <c r="H41" s="213"/>
+      <c r="I41" s="195"/>
+      <c r="J41" s="213"/>
+      <c r="K41" s="213"/>
+      <c r="L41" s="195"/>
+      <c r="M41" s="213"/>
+      <c r="N41" s="213"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="235"/>
-      <c r="B42" s="235"/>
-      <c r="C42" s="235"/>
-      <c r="D42" s="235"/>
-      <c r="E42" s="235"/>
-      <c r="F42" s="235"/>
-      <c r="G42" s="256"/>
-      <c r="H42" s="256"/>
-      <c r="I42" s="235"/>
-      <c r="J42" s="256"/>
-      <c r="K42" s="256"/>
-      <c r="L42" s="235"/>
-      <c r="M42" s="256"/>
-      <c r="N42" s="256"/>
+      <c r="A42" s="195"/>
+      <c r="B42" s="195"/>
+      <c r="C42" s="195"/>
+      <c r="D42" s="195"/>
+      <c r="E42" s="195"/>
+      <c r="F42" s="195"/>
+      <c r="G42" s="213"/>
+      <c r="H42" s="213"/>
+      <c r="I42" s="195"/>
+      <c r="J42" s="213"/>
+      <c r="K42" s="213"/>
+      <c r="L42" s="195"/>
+      <c r="M42" s="213"/>
+      <c r="N42" s="213"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="235"/>
-      <c r="B43" s="235"/>
-      <c r="C43" s="235"/>
-      <c r="D43" s="235"/>
-      <c r="E43" s="235"/>
-      <c r="F43" s="235"/>
-      <c r="G43" s="256"/>
-      <c r="H43" s="256"/>
-      <c r="I43" s="235"/>
-      <c r="J43" s="256"/>
-      <c r="K43" s="256"/>
-      <c r="L43" s="235"/>
-      <c r="M43" s="256"/>
-      <c r="N43" s="256"/>
+      <c r="A43" s="195"/>
+      <c r="B43" s="195"/>
+      <c r="C43" s="195"/>
+      <c r="D43" s="195"/>
+      <c r="E43" s="195"/>
+      <c r="F43" s="195"/>
+      <c r="G43" s="213"/>
+      <c r="H43" s="213"/>
+      <c r="I43" s="195"/>
+      <c r="J43" s="213"/>
+      <c r="K43" s="213"/>
+      <c r="L43" s="195"/>
+      <c r="M43" s="213"/>
+      <c r="N43" s="213"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="235"/>
-      <c r="B44" s="235"/>
-      <c r="C44" s="235"/>
-      <c r="D44" s="235"/>
-      <c r="E44" s="235"/>
-      <c r="F44" s="235"/>
-      <c r="G44" s="256"/>
-      <c r="H44" s="256"/>
-      <c r="I44" s="235"/>
-      <c r="J44" s="256"/>
-      <c r="K44" s="256"/>
-      <c r="L44" s="235"/>
-      <c r="M44" s="256"/>
-      <c r="N44" s="256"/>
+      <c r="A44" s="195"/>
+      <c r="B44" s="195"/>
+      <c r="C44" s="195"/>
+      <c r="D44" s="195"/>
+      <c r="E44" s="195"/>
+      <c r="F44" s="195"/>
+      <c r="G44" s="213"/>
+      <c r="H44" s="213"/>
+      <c r="I44" s="195"/>
+      <c r="J44" s="213"/>
+      <c r="K44" s="213"/>
+      <c r="L44" s="195"/>
+      <c r="M44" s="213"/>
+      <c r="N44" s="213"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="235"/>
-      <c r="B45" s="235"/>
-      <c r="C45" s="235"/>
-      <c r="D45" s="235"/>
-      <c r="E45" s="235"/>
-      <c r="F45" s="235"/>
-      <c r="G45" s="256"/>
-      <c r="H45" s="256"/>
-      <c r="I45" s="235"/>
-      <c r="J45" s="256"/>
-      <c r="K45" s="256"/>
-      <c r="L45" s="235"/>
-      <c r="M45" s="256"/>
-      <c r="N45" s="256"/>
+      <c r="A45" s="195"/>
+      <c r="B45" s="195"/>
+      <c r="C45" s="195"/>
+      <c r="D45" s="195"/>
+      <c r="E45" s="195"/>
+      <c r="F45" s="195"/>
+      <c r="G45" s="213"/>
+      <c r="H45" s="213"/>
+      <c r="I45" s="195"/>
+      <c r="J45" s="213"/>
+      <c r="K45" s="213"/>
+      <c r="L45" s="195"/>
+      <c r="M45" s="213"/>
+      <c r="N45" s="213"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="235"/>
-      <c r="B46" s="235"/>
-      <c r="C46" s="235"/>
-      <c r="D46" s="235"/>
-      <c r="E46" s="235"/>
-      <c r="F46" s="235"/>
-      <c r="G46" s="256"/>
-      <c r="H46" s="256"/>
-      <c r="I46" s="235"/>
-      <c r="J46" s="256"/>
-      <c r="K46" s="256"/>
-      <c r="L46" s="235"/>
-      <c r="M46" s="256"/>
-      <c r="N46" s="256"/>
+      <c r="A46" s="195"/>
+      <c r="B46" s="195"/>
+      <c r="C46" s="195"/>
+      <c r="D46" s="195"/>
+      <c r="E46" s="195"/>
+      <c r="F46" s="195"/>
+      <c r="G46" s="213"/>
+      <c r="H46" s="213"/>
+      <c r="I46" s="195"/>
+      <c r="J46" s="213"/>
+      <c r="K46" s="213"/>
+      <c r="L46" s="195"/>
+      <c r="M46" s="213"/>
+      <c r="N46" s="213"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="235"/>
-      <c r="B47" s="235"/>
-      <c r="C47" s="235"/>
-      <c r="D47" s="235"/>
-      <c r="E47" s="235"/>
-      <c r="F47" s="235"/>
-      <c r="G47" s="256"/>
-      <c r="H47" s="256"/>
-      <c r="I47" s="235"/>
-      <c r="J47" s="256"/>
-      <c r="K47" s="256"/>
-      <c r="L47" s="235"/>
-      <c r="M47" s="256"/>
-      <c r="N47" s="256"/>
+      <c r="A47" s="195"/>
+      <c r="B47" s="195"/>
+      <c r="C47" s="195"/>
+      <c r="D47" s="195"/>
+      <c r="E47" s="195"/>
+      <c r="F47" s="195"/>
+      <c r="G47" s="213"/>
+      <c r="H47" s="213"/>
+      <c r="I47" s="195"/>
+      <c r="J47" s="213"/>
+      <c r="K47" s="213"/>
+      <c r="L47" s="195"/>
+      <c r="M47" s="213"/>
+      <c r="N47" s="213"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="235"/>
-      <c r="B48" s="235"/>
-      <c r="C48" s="235"/>
-      <c r="D48" s="235"/>
-      <c r="E48" s="235"/>
-      <c r="F48" s="235"/>
-      <c r="G48" s="256"/>
-      <c r="H48" s="256"/>
-      <c r="I48" s="235"/>
-      <c r="J48" s="256"/>
-      <c r="K48" s="256"/>
-      <c r="L48" s="235"/>
-      <c r="M48" s="256"/>
-      <c r="N48" s="256"/>
+      <c r="A48" s="195"/>
+      <c r="B48" s="195"/>
+      <c r="C48" s="195"/>
+      <c r="D48" s="195"/>
+      <c r="E48" s="195"/>
+      <c r="F48" s="195"/>
+      <c r="G48" s="213"/>
+      <c r="H48" s="213"/>
+      <c r="I48" s="195"/>
+      <c r="J48" s="213"/>
+      <c r="K48" s="213"/>
+      <c r="L48" s="195"/>
+      <c r="M48" s="213"/>
+      <c r="N48" s="213"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="235"/>
-      <c r="B49" s="235"/>
-      <c r="C49" s="235"/>
-      <c r="D49" s="235"/>
-      <c r="E49" s="235"/>
-      <c r="F49" s="235"/>
-      <c r="G49" s="256"/>
-      <c r="H49" s="256"/>
-      <c r="I49" s="235"/>
-      <c r="J49" s="256"/>
-      <c r="K49" s="256"/>
-      <c r="L49" s="235"/>
-      <c r="M49" s="256"/>
-      <c r="N49" s="256"/>
+      <c r="A49" s="195"/>
+      <c r="B49" s="195"/>
+      <c r="C49" s="195"/>
+      <c r="D49" s="195"/>
+      <c r="E49" s="195"/>
+      <c r="F49" s="195"/>
+      <c r="G49" s="213"/>
+      <c r="H49" s="213"/>
+      <c r="I49" s="195"/>
+      <c r="J49" s="213"/>
+      <c r="K49" s="213"/>
+      <c r="L49" s="195"/>
+      <c r="M49" s="213"/>
+      <c r="N49" s="213"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="235"/>
-      <c r="B50" s="235"/>
-      <c r="C50" s="235"/>
-      <c r="D50" s="235"/>
-      <c r="E50" s="235"/>
-      <c r="F50" s="235"/>
-      <c r="G50" s="256"/>
-      <c r="H50" s="256"/>
-      <c r="I50" s="235"/>
-      <c r="J50" s="256"/>
-      <c r="K50" s="256"/>
-      <c r="L50" s="235"/>
-      <c r="M50" s="256"/>
-      <c r="N50" s="256"/>
+      <c r="A50" s="195"/>
+      <c r="B50" s="195"/>
+      <c r="C50" s="195"/>
+      <c r="D50" s="195"/>
+      <c r="E50" s="195"/>
+      <c r="F50" s="195"/>
+      <c r="G50" s="213"/>
+      <c r="H50" s="213"/>
+      <c r="I50" s="195"/>
+      <c r="J50" s="213"/>
+      <c r="K50" s="213"/>
+      <c r="L50" s="195"/>
+      <c r="M50" s="213"/>
+      <c r="N50" s="213"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="235"/>
-      <c r="B51" s="235"/>
-      <c r="C51" s="235"/>
-      <c r="D51" s="235"/>
-      <c r="E51" s="235"/>
-      <c r="F51" s="235"/>
-      <c r="G51" s="256"/>
-      <c r="H51" s="256"/>
-      <c r="I51" s="235"/>
-      <c r="J51" s="256"/>
-      <c r="K51" s="256"/>
-      <c r="L51" s="235"/>
-      <c r="M51" s="256"/>
-      <c r="N51" s="256"/>
+      <c r="A51" s="195"/>
+      <c r="B51" s="195"/>
+      <c r="C51" s="195"/>
+      <c r="D51" s="195"/>
+      <c r="E51" s="195"/>
+      <c r="F51" s="195"/>
+      <c r="G51" s="213"/>
+      <c r="H51" s="213"/>
+      <c r="I51" s="195"/>
+      <c r="J51" s="213"/>
+      <c r="K51" s="213"/>
+      <c r="L51" s="195"/>
+      <c r="M51" s="213"/>
+      <c r="N51" s="213"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="235"/>
-      <c r="B52" s="235"/>
-      <c r="C52" s="235"/>
-      <c r="D52" s="235"/>
-      <c r="E52" s="235"/>
-      <c r="F52" s="235"/>
-      <c r="G52" s="256"/>
-      <c r="H52" s="256"/>
-      <c r="I52" s="235"/>
-      <c r="J52" s="256"/>
-      <c r="K52" s="256"/>
-      <c r="L52" s="235"/>
-      <c r="M52" s="256"/>
-      <c r="N52" s="256"/>
+      <c r="A52" s="195"/>
+      <c r="B52" s="195"/>
+      <c r="C52" s="195"/>
+      <c r="D52" s="195"/>
+      <c r="E52" s="195"/>
+      <c r="F52" s="195"/>
+      <c r="G52" s="213"/>
+      <c r="H52" s="213"/>
+      <c r="I52" s="195"/>
+      <c r="J52" s="213"/>
+      <c r="K52" s="213"/>
+      <c r="L52" s="195"/>
+      <c r="M52" s="213"/>
+      <c r="N52" s="213"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13368,94 +13656,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="209"/>
-      <c r="B1" s="209"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="186"/>
-      <c r="O1" s="186"/>
-      <c r="P1" s="186"/>
-      <c r="Q1" s="209"/>
+      <c r="A1" s="244"/>
+      <c r="B1" s="244"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
+      <c r="L1" s="215"/>
+      <c r="M1" s="215"/>
+      <c r="N1" s="215"/>
+      <c r="O1" s="215"/>
+      <c r="P1" s="215"/>
+      <c r="Q1" s="244"/>
     </row>
     <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="186"/>
-      <c r="B2" s="208" t="s">
+      <c r="A2" s="215"/>
+      <c r="B2" s="251" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="217" t="s">
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="249" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="186"/>
-      <c r="G2" s="218" t="s">
+      <c r="F2" s="215"/>
+      <c r="G2" s="250" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
-      <c r="P2" s="186"/>
-      <c r="Q2" s="186"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="215"/>
+      <c r="J2" s="215"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="215"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="186"/>
-      <c r="B3" s="209"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="186"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="186"/>
-      <c r="N3" s="186"/>
-      <c r="O3" s="186"/>
-      <c r="P3" s="186"/>
-      <c r="Q3" s="186"/>
+      <c r="A3" s="215"/>
+      <c r="B3" s="244"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="215"/>
+      <c r="I3" s="215"/>
+      <c r="J3" s="215"/>
+      <c r="K3" s="215"/>
+      <c r="L3" s="215"/>
+      <c r="M3" s="215"/>
+      <c r="N3" s="215"/>
+      <c r="O3" s="215"/>
+      <c r="P3" s="215"/>
+      <c r="Q3" s="215"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="186"/>
-      <c r="B4" s="210"/>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="216" t="s">
+      <c r="A4" s="215"/>
+      <c r="B4" s="252"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="248" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="186"/>
-      <c r="G4" s="186"/>
-      <c r="H4" s="186"/>
-      <c r="I4" s="186"/>
-      <c r="J4" s="186"/>
-      <c r="K4" s="186"/>
-      <c r="L4" s="186"/>
-      <c r="M4" s="186"/>
-      <c r="N4" s="186"/>
-      <c r="O4" s="186"/>
-      <c r="P4" s="186"/>
-      <c r="Q4" s="186"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="215"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="215"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
+      <c r="P4" s="215"/>
+      <c r="Q4" s="215"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="186"/>
+      <c r="A5" s="215"/>
       <c r="B5" s="11"/>
       <c r="C5" s="34"/>
-      <c r="D5" s="186"/>
+      <c r="D5" s="215"/>
       <c r="E5" s="35" t="s">
         <v>104</v>
       </c>
@@ -13492,13 +13780,13 @@
       <c r="P5" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="Q5" s="186"/>
+      <c r="Q5" s="215"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="186"/>
+      <c r="A6" s="215"/>
       <c r="B6" s="11"/>
       <c r="C6" s="34"/>
-      <c r="D6" s="186"/>
+      <c r="D6" s="215"/>
       <c r="E6" s="47">
         <v>0</v>
       </c>
@@ -13537,55 +13825,55 @@
       <c r="P6" s="47">
         <v>150</v>
       </c>
-      <c r="Q6" s="186"/>
+      <c r="Q6" s="215"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="186"/>
-      <c r="B7" s="211"/>
-      <c r="C7" s="186"/>
-      <c r="D7" s="186"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="186"/>
-      <c r="H7" s="186"/>
-      <c r="I7" s="186"/>
-      <c r="J7" s="186"/>
-      <c r="K7" s="186"/>
-      <c r="L7" s="186"/>
-      <c r="M7" s="186"/>
-      <c r="N7" s="186"/>
-      <c r="O7" s="186"/>
-      <c r="P7" s="186"/>
-      <c r="Q7" s="186"/>
+      <c r="A7" s="215"/>
+      <c r="B7" s="253"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="215"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="215"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="215"/>
+      <c r="I7" s="215"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="215"/>
+      <c r="L7" s="215"/>
+      <c r="M7" s="215"/>
+      <c r="N7" s="215"/>
+      <c r="O7" s="215"/>
+      <c r="P7" s="215"/>
+      <c r="Q7" s="215"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="186"/>
-      <c r="B8" s="210" t="s">
+      <c r="A8" s="215"/>
+      <c r="B8" s="252" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="186"/>
-      <c r="D8" s="186"/>
-      <c r="E8" s="212" t="s">
+      <c r="C8" s="215"/>
+      <c r="D8" s="215"/>
+      <c r="E8" s="243" t="s">
         <v>123</v>
       </c>
-      <c r="F8" s="186"/>
-      <c r="G8" s="186"/>
-      <c r="H8" s="186"/>
-      <c r="I8" s="186"/>
-      <c r="J8" s="186"/>
-      <c r="K8" s="186"/>
-      <c r="L8" s="186"/>
-      <c r="M8" s="186"/>
-      <c r="N8" s="186"/>
-      <c r="O8" s="186"/>
-      <c r="P8" s="186"/>
-      <c r="Q8" s="186"/>
+      <c r="F8" s="215"/>
+      <c r="G8" s="215"/>
+      <c r="H8" s="215"/>
+      <c r="I8" s="215"/>
+      <c r="J8" s="215"/>
+      <c r="K8" s="215"/>
+      <c r="L8" s="215"/>
+      <c r="M8" s="215"/>
+      <c r="N8" s="215"/>
+      <c r="O8" s="215"/>
+      <c r="P8" s="215"/>
+      <c r="Q8" s="215"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="186"/>
+      <c r="A9" s="215"/>
       <c r="B9" s="11"/>
       <c r="C9" s="54"/>
-      <c r="D9" s="186"/>
+      <c r="D9" s="215"/>
       <c r="E9" s="55">
         <v>1</v>
       </c>
@@ -13620,13 +13908,13 @@
       <c r="P9" s="59">
         <v>1</v>
       </c>
-      <c r="Q9" s="186"/>
+      <c r="Q9" s="215"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="186"/>
+      <c r="A10" s="215"/>
       <c r="B10" s="11"/>
       <c r="C10" s="54"/>
-      <c r="D10" s="186"/>
+      <c r="D10" s="215"/>
       <c r="E10" s="55">
         <v>2</v>
       </c>
@@ -13661,13 +13949,13 @@
       <c r="P10" s="59">
         <v>1.5</v>
       </c>
-      <c r="Q10" s="186"/>
+      <c r="Q10" s="215"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="186"/>
+      <c r="A11" s="215"/>
       <c r="B11" s="11"/>
       <c r="C11" s="54"/>
-      <c r="D11" s="186"/>
+      <c r="D11" s="215"/>
       <c r="E11" s="55">
         <v>3</v>
       </c>
@@ -13702,17 +13990,17 @@
       <c r="P11" s="59">
         <v>2</v>
       </c>
-      <c r="Q11" s="186"/>
+      <c r="Q11" s="215"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="186"/>
+      <c r="A12" s="215"/>
       <c r="B12" s="11" t="s">
         <v>161</v>
       </c>
       <c r="C12" s="54">
         <v>1</v>
       </c>
-      <c r="D12" s="186"/>
+      <c r="D12" s="215"/>
       <c r="E12" s="11" t="s">
         <v>162</v>
       </c>
@@ -13749,17 +14037,17 @@
       <c r="P12" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="Q12" s="186"/>
+      <c r="Q12" s="215"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="186"/>
+      <c r="A13" s="215"/>
       <c r="B13" s="11" t="s">
         <v>174</v>
       </c>
       <c r="C13" s="54">
         <v>1</v>
       </c>
-      <c r="D13" s="186"/>
+      <c r="D13" s="215"/>
       <c r="E13" s="55">
         <v>1</v>
       </c>
@@ -13807,17 +14095,17 @@
         <f t="shared" ref="P13:P15" si="5">P$6*P9</f>
         <v>150</v>
       </c>
-      <c r="Q13" s="186"/>
+      <c r="Q13" s="215"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="186"/>
+      <c r="A14" s="215"/>
       <c r="B14" s="11" t="s">
         <v>176</v>
       </c>
       <c r="C14" s="54">
         <v>1</v>
       </c>
-      <c r="D14" s="186"/>
+      <c r="D14" s="215"/>
       <c r="E14" s="55">
         <v>2</v>
       </c>
@@ -13862,13 +14150,13 @@
         <f t="shared" si="5"/>
         <v>225</v>
       </c>
-      <c r="Q14" s="186"/>
+      <c r="Q14" s="215"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="186"/>
+      <c r="A15" s="215"/>
       <c r="B15" s="11"/>
       <c r="C15" s="34"/>
-      <c r="D15" s="186"/>
+      <c r="D15" s="215"/>
       <c r="E15" s="55">
         <v>3</v>
       </c>
@@ -13913,55 +14201,55 @@
         <f t="shared" si="5"/>
         <v>300</v>
       </c>
-      <c r="Q15" s="186"/>
+      <c r="Q15" s="215"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="186"/>
-      <c r="B16" s="211"/>
-      <c r="C16" s="186"/>
-      <c r="D16" s="186"/>
-      <c r="E16" s="209"/>
-      <c r="F16" s="186"/>
-      <c r="G16" s="186"/>
-      <c r="H16" s="186"/>
-      <c r="I16" s="186"/>
-      <c r="J16" s="186"/>
-      <c r="K16" s="186"/>
-      <c r="L16" s="186"/>
-      <c r="M16" s="186"/>
+      <c r="A16" s="215"/>
+      <c r="B16" s="253"/>
+      <c r="C16" s="215"/>
+      <c r="D16" s="215"/>
+      <c r="E16" s="244"/>
+      <c r="F16" s="215"/>
+      <c r="G16" s="215"/>
+      <c r="H16" s="215"/>
+      <c r="I16" s="215"/>
+      <c r="J16" s="215"/>
+      <c r="K16" s="215"/>
+      <c r="L16" s="215"/>
+      <c r="M16" s="215"/>
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
-      <c r="Q16" s="186"/>
+      <c r="Q16" s="215"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="186"/>
-      <c r="B17" s="210" t="s">
+      <c r="A17" s="215"/>
+      <c r="B17" s="252" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="186"/>
-      <c r="D17" s="186"/>
-      <c r="E17" s="214" t="s">
+      <c r="C17" s="215"/>
+      <c r="D17" s="215"/>
+      <c r="E17" s="246" t="s">
         <v>183</v>
       </c>
-      <c r="F17" s="186"/>
-      <c r="G17" s="186"/>
-      <c r="H17" s="186"/>
-      <c r="I17" s="186"/>
-      <c r="J17" s="186"/>
-      <c r="K17" s="186"/>
-      <c r="L17" s="186"/>
-      <c r="M17" s="186"/>
-      <c r="N17" s="186"/>
-      <c r="O17" s="186"/>
-      <c r="P17" s="186"/>
-      <c r="Q17" s="186"/>
+      <c r="F17" s="215"/>
+      <c r="G17" s="215"/>
+      <c r="H17" s="215"/>
+      <c r="I17" s="215"/>
+      <c r="J17" s="215"/>
+      <c r="K17" s="215"/>
+      <c r="L17" s="215"/>
+      <c r="M17" s="215"/>
+      <c r="N17" s="215"/>
+      <c r="O17" s="215"/>
+      <c r="P17" s="215"/>
+      <c r="Q17" s="215"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="186"/>
+      <c r="A18" s="215"/>
       <c r="B18" s="11"/>
       <c r="C18" s="34"/>
-      <c r="D18" s="186"/>
+      <c r="D18" s="215"/>
       <c r="E18" s="42">
         <v>1</v>
       </c>
@@ -13990,13 +14278,13 @@
       <c r="P18" s="78">
         <v>2</v>
       </c>
-      <c r="Q18" s="186"/>
+      <c r="Q18" s="215"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="186"/>
+      <c r="A19" s="215"/>
       <c r="B19" s="11"/>
       <c r="C19" s="34"/>
-      <c r="D19" s="186"/>
+      <c r="D19" s="215"/>
       <c r="E19" s="42">
         <v>2</v>
       </c>
@@ -14025,13 +14313,13 @@
       <c r="P19" s="78">
         <v>3</v>
       </c>
-      <c r="Q19" s="186"/>
+      <c r="Q19" s="215"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="186"/>
+      <c r="A20" s="215"/>
       <c r="B20" s="11"/>
       <c r="C20" s="34"/>
-      <c r="D20" s="186"/>
+      <c r="D20" s="215"/>
       <c r="E20" s="42">
         <v>3</v>
       </c>
@@ -14060,13 +14348,13 @@
       <c r="P20" s="78">
         <v>4</v>
       </c>
-      <c r="Q20" s="186"/>
+      <c r="Q20" s="215"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="186"/>
+      <c r="A21" s="215"/>
       <c r="B21" s="11"/>
       <c r="C21" s="34"/>
-      <c r="D21" s="186"/>
+      <c r="D21" s="215"/>
       <c r="E21" s="20" t="s">
         <v>205</v>
       </c>
@@ -14101,13 +14389,13 @@
       <c r="P21" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="Q21" s="186"/>
+      <c r="Q21" s="215"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="186"/>
+      <c r="A22" s="215"/>
       <c r="B22" s="11"/>
       <c r="C22" s="34"/>
-      <c r="D22" s="186"/>
+      <c r="D22" s="215"/>
       <c r="E22" s="42">
         <v>1</v>
       </c>
@@ -14152,13 +14440,13 @@
         <f t="shared" ref="P22:P24" si="15">P$6*P18</f>
         <v>300</v>
       </c>
-      <c r="Q22" s="186"/>
+      <c r="Q22" s="215"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="186"/>
+      <c r="A23" s="215"/>
       <c r="B23" s="11"/>
       <c r="C23" s="34"/>
-      <c r="D23" s="186"/>
+      <c r="D23" s="215"/>
       <c r="E23" s="42">
         <v>2</v>
       </c>
@@ -14203,13 +14491,13 @@
         <f t="shared" si="15"/>
         <v>450</v>
       </c>
-      <c r="Q23" s="186"/>
+      <c r="Q23" s="215"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="186"/>
+      <c r="A24" s="215"/>
       <c r="B24" s="11"/>
       <c r="C24" s="34"/>
-      <c r="D24" s="186"/>
+      <c r="D24" s="215"/>
       <c r="E24" s="42">
         <v>3</v>
       </c>
@@ -14254,55 +14542,55 @@
         <f t="shared" si="15"/>
         <v>600</v>
       </c>
-      <c r="Q24" s="186"/>
+      <c r="Q24" s="215"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="186"/>
-      <c r="B25" s="211"/>
-      <c r="C25" s="186"/>
-      <c r="D25" s="186"/>
-      <c r="E25" s="209"/>
-      <c r="F25" s="186"/>
-      <c r="G25" s="186"/>
-      <c r="H25" s="186"/>
-      <c r="I25" s="186"/>
-      <c r="J25" s="186"/>
-      <c r="K25" s="186"/>
-      <c r="L25" s="186"/>
-      <c r="M25" s="186"/>
+      <c r="A25" s="215"/>
+      <c r="B25" s="253"/>
+      <c r="C25" s="215"/>
+      <c r="D25" s="215"/>
+      <c r="E25" s="244"/>
+      <c r="F25" s="215"/>
+      <c r="G25" s="215"/>
+      <c r="H25" s="215"/>
+      <c r="I25" s="215"/>
+      <c r="J25" s="215"/>
+      <c r="K25" s="215"/>
+      <c r="L25" s="215"/>
+      <c r="M25" s="215"/>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
-      <c r="Q25" s="186"/>
+      <c r="Q25" s="215"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="186"/>
-      <c r="B26" s="210" t="s">
+      <c r="A26" s="215"/>
+      <c r="B26" s="252" t="s">
         <v>216</v>
       </c>
-      <c r="C26" s="186"/>
-      <c r="D26" s="186"/>
-      <c r="E26" s="215" t="s">
+      <c r="C26" s="215"/>
+      <c r="D26" s="215"/>
+      <c r="E26" s="247" t="s">
         <v>217</v>
       </c>
-      <c r="F26" s="186"/>
-      <c r="G26" s="186"/>
-      <c r="H26" s="186"/>
-      <c r="I26" s="186"/>
-      <c r="J26" s="186"/>
-      <c r="K26" s="186"/>
-      <c r="L26" s="186"/>
-      <c r="M26" s="186"/>
-      <c r="N26" s="186"/>
-      <c r="O26" s="186"/>
-      <c r="P26" s="186"/>
-      <c r="Q26" s="186"/>
+      <c r="F26" s="215"/>
+      <c r="G26" s="215"/>
+      <c r="H26" s="215"/>
+      <c r="I26" s="215"/>
+      <c r="J26" s="215"/>
+      <c r="K26" s="215"/>
+      <c r="L26" s="215"/>
+      <c r="M26" s="215"/>
+      <c r="N26" s="215"/>
+      <c r="O26" s="215"/>
+      <c r="P26" s="215"/>
+      <c r="Q26" s="215"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="186"/>
+      <c r="A27" s="215"/>
       <c r="B27" s="11"/>
       <c r="C27" s="34"/>
-      <c r="D27" s="186"/>
+      <c r="D27" s="215"/>
       <c r="E27" s="72">
         <v>1</v>
       </c>
@@ -14325,13 +14613,13 @@
       </c>
       <c r="O27" s="92"/>
       <c r="P27" s="91"/>
-      <c r="Q27" s="186"/>
+      <c r="Q27" s="215"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="186"/>
+      <c r="A28" s="215"/>
       <c r="B28" s="11"/>
       <c r="C28" s="34"/>
-      <c r="D28" s="186"/>
+      <c r="D28" s="215"/>
       <c r="E28" s="72">
         <v>2</v>
       </c>
@@ -14354,13 +14642,13 @@
       </c>
       <c r="O28" s="92"/>
       <c r="P28" s="91"/>
-      <c r="Q28" s="186"/>
+      <c r="Q28" s="215"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="186"/>
+      <c r="A29" s="215"/>
       <c r="B29" s="11"/>
       <c r="C29" s="34"/>
-      <c r="D29" s="186"/>
+      <c r="D29" s="215"/>
       <c r="E29" s="72">
         <v>3</v>
       </c>
@@ -14383,13 +14671,13 @@
       </c>
       <c r="O29" s="92"/>
       <c r="P29" s="91"/>
-      <c r="Q29" s="186"/>
+      <c r="Q29" s="215"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="186"/>
+      <c r="A30" s="215"/>
       <c r="B30" s="11"/>
       <c r="C30" s="34"/>
-      <c r="D30" s="186"/>
+      <c r="D30" s="215"/>
       <c r="E30" s="3" t="s">
         <v>227</v>
       </c>
@@ -14424,13 +14712,13 @@
       <c r="P30" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="Q30" s="186"/>
+      <c r="Q30" s="215"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="186"/>
+      <c r="A31" s="215"/>
       <c r="B31" s="11"/>
       <c r="C31" s="34"/>
-      <c r="D31" s="186"/>
+      <c r="D31" s="215"/>
       <c r="E31" s="72">
         <v>1</v>
       </c>
@@ -14475,13 +14763,13 @@
         <f t="shared" ref="P31:P33" si="25">P$6*P27</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="186"/>
+      <c r="Q31" s="215"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="186"/>
+      <c r="A32" s="215"/>
       <c r="B32" s="11"/>
       <c r="C32" s="34"/>
-      <c r="D32" s="186"/>
+      <c r="D32" s="215"/>
       <c r="E32" s="72">
         <v>2</v>
       </c>
@@ -14526,13 +14814,13 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="186"/>
+      <c r="Q32" s="215"/>
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="186"/>
+      <c r="A33" s="215"/>
       <c r="B33" s="11"/>
       <c r="C33" s="34"/>
-      <c r="D33" s="186"/>
+      <c r="D33" s="215"/>
       <c r="E33" s="72">
         <v>3</v>
       </c>
@@ -14577,55 +14865,55 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="186"/>
+      <c r="Q33" s="215"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="186"/>
-      <c r="B34" s="211"/>
-      <c r="C34" s="186"/>
-      <c r="D34" s="186"/>
-      <c r="E34" s="209"/>
-      <c r="F34" s="186"/>
-      <c r="G34" s="186"/>
-      <c r="H34" s="186"/>
-      <c r="I34" s="186"/>
-      <c r="J34" s="186"/>
-      <c r="K34" s="186"/>
-      <c r="L34" s="186"/>
-      <c r="M34" s="186"/>
+      <c r="A34" s="215"/>
+      <c r="B34" s="253"/>
+      <c r="C34" s="215"/>
+      <c r="D34" s="215"/>
+      <c r="E34" s="244"/>
+      <c r="F34" s="215"/>
+      <c r="G34" s="215"/>
+      <c r="H34" s="215"/>
+      <c r="I34" s="215"/>
+      <c r="J34" s="215"/>
+      <c r="K34" s="215"/>
+      <c r="L34" s="215"/>
+      <c r="M34" s="215"/>
       <c r="N34" s="15"/>
       <c r="O34" s="15"/>
       <c r="P34" s="15"/>
-      <c r="Q34" s="186"/>
+      <c r="Q34" s="215"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="186"/>
-      <c r="B35" s="210" t="s">
+      <c r="A35" s="215"/>
+      <c r="B35" s="252" t="s">
         <v>246</v>
       </c>
-      <c r="C35" s="186"/>
-      <c r="D35" s="186"/>
-      <c r="E35" s="213" t="s">
+      <c r="C35" s="215"/>
+      <c r="D35" s="215"/>
+      <c r="E35" s="245" t="s">
         <v>247</v>
       </c>
-      <c r="F35" s="186"/>
-      <c r="G35" s="186"/>
-      <c r="H35" s="186"/>
-      <c r="I35" s="186"/>
-      <c r="J35" s="186"/>
-      <c r="K35" s="186"/>
-      <c r="L35" s="186"/>
-      <c r="M35" s="186"/>
-      <c r="N35" s="186"/>
-      <c r="O35" s="186"/>
-      <c r="P35" s="186"/>
-      <c r="Q35" s="186"/>
+      <c r="F35" s="215"/>
+      <c r="G35" s="215"/>
+      <c r="H35" s="215"/>
+      <c r="I35" s="215"/>
+      <c r="J35" s="215"/>
+      <c r="K35" s="215"/>
+      <c r="L35" s="215"/>
+      <c r="M35" s="215"/>
+      <c r="N35" s="215"/>
+      <c r="O35" s="215"/>
+      <c r="P35" s="215"/>
+      <c r="Q35" s="215"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="186"/>
+      <c r="A36" s="215"/>
       <c r="B36" s="11"/>
       <c r="C36" s="34"/>
-      <c r="D36" s="186"/>
+      <c r="D36" s="215"/>
       <c r="E36" s="102">
         <v>1</v>
       </c>
@@ -14648,13 +14936,13 @@
       </c>
       <c r="O36" s="104"/>
       <c r="P36" s="103"/>
-      <c r="Q36" s="186"/>
+      <c r="Q36" s="215"/>
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="186"/>
+      <c r="A37" s="215"/>
       <c r="B37" s="11"/>
       <c r="C37" s="34"/>
-      <c r="D37" s="186"/>
+      <c r="D37" s="215"/>
       <c r="E37" s="102">
         <v>2</v>
       </c>
@@ -14677,13 +14965,13 @@
       </c>
       <c r="O37" s="104"/>
       <c r="P37" s="103"/>
-      <c r="Q37" s="186"/>
+      <c r="Q37" s="215"/>
     </row>
     <row r="38" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="186"/>
+      <c r="A38" s="215"/>
       <c r="B38" s="11"/>
       <c r="C38" s="34"/>
-      <c r="D38" s="186"/>
+      <c r="D38" s="215"/>
       <c r="E38" s="102">
         <v>3</v>
       </c>
@@ -14706,13 +14994,13 @@
       </c>
       <c r="O38" s="104"/>
       <c r="P38" s="103"/>
-      <c r="Q38" s="186"/>
+      <c r="Q38" s="215"/>
     </row>
     <row r="39" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="186"/>
+      <c r="A39" s="215"/>
       <c r="B39" s="11"/>
       <c r="C39" s="34"/>
-      <c r="D39" s="186"/>
+      <c r="D39" s="215"/>
       <c r="E39" s="105" t="s">
         <v>257</v>
       </c>
@@ -14747,13 +15035,13 @@
       <c r="P39" s="105" t="s">
         <v>270</v>
       </c>
-      <c r="Q39" s="186"/>
+      <c r="Q39" s="215"/>
     </row>
     <row r="40" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="186"/>
+      <c r="A40" s="215"/>
       <c r="B40" s="11"/>
       <c r="C40" s="34"/>
-      <c r="D40" s="186"/>
+      <c r="D40" s="215"/>
       <c r="E40" s="102">
         <v>1</v>
       </c>
@@ -14798,13 +15086,13 @@
         <f t="shared" ref="P40:P42" si="35">P$6*P36</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="186"/>
+      <c r="Q40" s="215"/>
     </row>
     <row r="41" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="186"/>
+      <c r="A41" s="215"/>
       <c r="B41" s="11"/>
       <c r="C41" s="34"/>
-      <c r="D41" s="186"/>
+      <c r="D41" s="215"/>
       <c r="E41" s="102">
         <v>2</v>
       </c>
@@ -14849,13 +15137,13 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="186"/>
+      <c r="Q41" s="215"/>
     </row>
     <row r="42" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="186"/>
+      <c r="A42" s="215"/>
       <c r="B42" s="11"/>
       <c r="C42" s="34"/>
-      <c r="D42" s="186"/>
+      <c r="D42" s="215"/>
       <c r="E42" s="102">
         <v>3</v>
       </c>
@@ -14900,13 +15188,13 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="186"/>
+      <c r="Q42" s="215"/>
     </row>
     <row r="43" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="186"/>
+      <c r="A43" s="215"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="186"/>
+      <c r="D43" s="215"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
@@ -14919,10 +15207,24 @@
       <c r="N43" s="15"/>
       <c r="O43" s="15"/>
       <c r="P43" s="15"/>
-      <c r="Q43" s="186"/>
+      <c r="Q43" s="215"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A1:A43"/>
+    <mergeCell ref="D1:D43"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="E8:P8"/>
     <mergeCell ref="E7:P7"/>
     <mergeCell ref="E16:M16"/>
@@ -14937,20 +15239,6 @@
     <mergeCell ref="E1:P1"/>
     <mergeCell ref="G2:P2"/>
     <mergeCell ref="E34:M34"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A1:A43"/>
-    <mergeCell ref="D1:D43"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14959,6 +15247,1719 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="140" t="s">
+        <v>437</v>
+      </c>
+      <c r="B1" s="258">
+        <v>1.5</v>
+      </c>
+      <c r="C1" s="259" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
+      <c r="F1" s="260"/>
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
+      <c r="I1" s="261"/>
+      <c r="J1" s="259" t="s">
+        <v>418</v>
+      </c>
+      <c r="K1" s="260"/>
+      <c r="L1" s="260"/>
+      <c r="M1" s="260"/>
+      <c r="N1" s="260"/>
+      <c r="O1" s="260"/>
+      <c r="P1" s="261"/>
+    </row>
+    <row r="2" spans="1:16" ht="27" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="257" t="s">
+        <v>416</v>
+      </c>
+      <c r="B2" s="257" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="257" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2" s="257" t="s">
+        <v>421</v>
+      </c>
+      <c r="E2" s="257" t="s">
+        <v>420</v>
+      </c>
+      <c r="F2" s="257" t="s">
+        <v>422</v>
+      </c>
+      <c r="G2" s="257" t="s">
+        <v>423</v>
+      </c>
+      <c r="H2" s="257" t="s">
+        <v>424</v>
+      </c>
+      <c r="I2" s="257" t="s">
+        <v>425</v>
+      </c>
+      <c r="J2" s="257" t="s">
+        <v>419</v>
+      </c>
+      <c r="K2" s="257" t="s">
+        <v>421</v>
+      </c>
+      <c r="L2" s="257" t="s">
+        <v>420</v>
+      </c>
+      <c r="M2" s="257" t="s">
+        <v>422</v>
+      </c>
+      <c r="N2" s="257" t="s">
+        <v>423</v>
+      </c>
+      <c r="O2" s="257" t="s">
+        <v>424</v>
+      </c>
+      <c r="P2" s="257" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="119" t="s">
+        <v>435</v>
+      </c>
+      <c r="B3" s="263" t="s">
+        <v>436</v>
+      </c>
+      <c r="C3" s="258">
+        <f>J3*B$1</f>
+        <v>15</v>
+      </c>
+      <c r="D3" s="258">
+        <f>K3*B$1</f>
+        <v>75</v>
+      </c>
+      <c r="E3" s="258">
+        <v>375</v>
+      </c>
+      <c r="F3" s="258">
+        <f>M3*B$1</f>
+        <v>1500</v>
+      </c>
+      <c r="G3" s="258">
+        <f>N3*B$1</f>
+        <v>1125</v>
+      </c>
+      <c r="H3" s="258">
+        <f>O3*B$1</f>
+        <v>7500</v>
+      </c>
+      <c r="I3" s="258">
+        <f>P3*B$1</f>
+        <v>1500</v>
+      </c>
+      <c r="J3" s="258">
+        <v>10</v>
+      </c>
+      <c r="K3" s="258">
+        <v>50</v>
+      </c>
+      <c r="L3" s="258">
+        <v>200</v>
+      </c>
+      <c r="M3" s="258">
+        <v>1000</v>
+      </c>
+      <c r="N3" s="258">
+        <v>750</v>
+      </c>
+      <c r="O3" s="258">
+        <v>5000</v>
+      </c>
+      <c r="P3" s="258">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="262"/>
+      <c r="C4" s="258"/>
+      <c r="D4" s="258"/>
+      <c r="E4" s="258"/>
+      <c r="F4" s="258"/>
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="258"/>
+      <c r="L4" s="258"/>
+      <c r="M4" s="258"/>
+      <c r="N4" s="258"/>
+      <c r="O4" s="258"/>
+      <c r="P4" s="258"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="119" t="s">
+        <v>426</v>
+      </c>
+      <c r="B5" s="262">
+        <v>2</v>
+      </c>
+      <c r="C5" s="258">
+        <f>C$3/B5</f>
+        <v>7.5</v>
+      </c>
+      <c r="D5" s="258">
+        <f>D$3/B5</f>
+        <v>37.5</v>
+      </c>
+      <c r="E5" s="258">
+        <f>E$3/B5</f>
+        <v>187.5</v>
+      </c>
+      <c r="F5" s="258">
+        <f>F$3/B5</f>
+        <v>750</v>
+      </c>
+      <c r="G5" s="258">
+        <f>G$3/B5</f>
+        <v>562.5</v>
+      </c>
+      <c r="H5" s="258">
+        <f>H$3/B5</f>
+        <v>3750</v>
+      </c>
+      <c r="I5" s="258">
+        <f>I$3/B5</f>
+        <v>750</v>
+      </c>
+      <c r="J5" s="258">
+        <f>J$3/B5</f>
+        <v>5</v>
+      </c>
+      <c r="K5" s="258">
+        <f>K$3/B5</f>
+        <v>25</v>
+      </c>
+      <c r="L5" s="258">
+        <f>L$3/B5</f>
+        <v>100</v>
+      </c>
+      <c r="M5" s="258">
+        <f>M$3/B5</f>
+        <v>500</v>
+      </c>
+      <c r="N5" s="258">
+        <f>N$3/B5</f>
+        <v>375</v>
+      </c>
+      <c r="O5" s="258">
+        <f>O$3/B5</f>
+        <v>2500</v>
+      </c>
+      <c r="P5" s="258">
+        <f>P$3/B5</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="119" t="s">
+        <v>427</v>
+      </c>
+      <c r="B6" s="262">
+        <v>5</v>
+      </c>
+      <c r="C6" s="258">
+        <f t="shared" ref="C6:C25" si="0">C$3/B6</f>
+        <v>3</v>
+      </c>
+      <c r="D6" s="258">
+        <f t="shared" ref="D6:D25" si="1">D$3/B6</f>
+        <v>15</v>
+      </c>
+      <c r="E6" s="258">
+        <f t="shared" ref="E6:E25" si="2">E$3/B6</f>
+        <v>75</v>
+      </c>
+      <c r="F6" s="258">
+        <f t="shared" ref="F6:F25" si="3">F$3/B6</f>
+        <v>300</v>
+      </c>
+      <c r="G6" s="258">
+        <f t="shared" ref="G6:G25" si="4">G$3/B6</f>
+        <v>225</v>
+      </c>
+      <c r="H6" s="258">
+        <f t="shared" ref="H6:H25" si="5">H$3/B6</f>
+        <v>1500</v>
+      </c>
+      <c r="I6" s="258">
+        <f t="shared" ref="I6:I25" si="6">I$3/B6</f>
+        <v>300</v>
+      </c>
+      <c r="J6" s="258">
+        <f t="shared" ref="J6:J25" si="7">J$3/B6</f>
+        <v>2</v>
+      </c>
+      <c r="K6" s="258">
+        <f t="shared" ref="K6:K25" si="8">K$3/B6</f>
+        <v>10</v>
+      </c>
+      <c r="L6" s="258">
+        <f t="shared" ref="L6:L25" si="9">L$3/B6</f>
+        <v>40</v>
+      </c>
+      <c r="M6" s="258">
+        <f t="shared" ref="M6:M25" si="10">M$3/B6</f>
+        <v>200</v>
+      </c>
+      <c r="N6" s="258">
+        <f t="shared" ref="N6:N25" si="11">N$3/B6</f>
+        <v>150</v>
+      </c>
+      <c r="O6" s="258">
+        <f t="shared" ref="O6:O25" si="12">O$3/B6</f>
+        <v>1000</v>
+      </c>
+      <c r="P6" s="258">
+        <f t="shared" ref="P6:P25" si="13">P$3/B6</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="119" t="s">
+        <v>428</v>
+      </c>
+      <c r="B7" s="262">
+        <f>12*4</f>
+        <v>48</v>
+      </c>
+      <c r="C7" s="258">
+        <f t="shared" si="0"/>
+        <v>0.3125</v>
+      </c>
+      <c r="D7" s="258">
+        <f t="shared" si="1"/>
+        <v>1.5625</v>
+      </c>
+      <c r="E7" s="258">
+        <f t="shared" si="2"/>
+        <v>7.8125</v>
+      </c>
+      <c r="F7" s="258">
+        <f t="shared" si="3"/>
+        <v>31.25</v>
+      </c>
+      <c r="G7" s="258">
+        <f t="shared" si="4"/>
+        <v>23.4375</v>
+      </c>
+      <c r="H7" s="258">
+        <f t="shared" si="5"/>
+        <v>156.25</v>
+      </c>
+      <c r="I7" s="258">
+        <f t="shared" si="6"/>
+        <v>31.25</v>
+      </c>
+      <c r="J7" s="258">
+        <f t="shared" si="7"/>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="K7" s="258">
+        <f t="shared" si="8"/>
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="L7" s="258">
+        <f t="shared" si="9"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="M7" s="258">
+        <f t="shared" si="10"/>
+        <v>20.833333333333332</v>
+      </c>
+      <c r="N7" s="258">
+        <f t="shared" si="11"/>
+        <v>15.625</v>
+      </c>
+      <c r="O7" s="258">
+        <f t="shared" si="12"/>
+        <v>104.16666666666667</v>
+      </c>
+      <c r="P7" s="258">
+        <f t="shared" si="13"/>
+        <v>20.833333333333332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="119" t="s">
+        <v>429</v>
+      </c>
+      <c r="B8" s="262">
+        <f>16*6</f>
+        <v>96</v>
+      </c>
+      <c r="C8" s="258">
+        <f t="shared" si="0"/>
+        <v>0.15625</v>
+      </c>
+      <c r="D8" s="258">
+        <f t="shared" si="1"/>
+        <v>0.78125</v>
+      </c>
+      <c r="E8" s="258">
+        <f t="shared" si="2"/>
+        <v>3.90625</v>
+      </c>
+      <c r="F8" s="258">
+        <f t="shared" si="3"/>
+        <v>15.625</v>
+      </c>
+      <c r="G8" s="258">
+        <f t="shared" si="4"/>
+        <v>11.71875</v>
+      </c>
+      <c r="H8" s="258">
+        <f t="shared" si="5"/>
+        <v>78.125</v>
+      </c>
+      <c r="I8" s="258">
+        <f t="shared" si="6"/>
+        <v>15.625</v>
+      </c>
+      <c r="J8" s="258">
+        <f t="shared" si="7"/>
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="K8" s="258">
+        <f t="shared" si="8"/>
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="L8" s="258">
+        <f t="shared" si="9"/>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="M8" s="258">
+        <f t="shared" si="10"/>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="N8" s="258">
+        <f t="shared" si="11"/>
+        <v>7.8125</v>
+      </c>
+      <c r="O8" s="258">
+        <f t="shared" si="12"/>
+        <v>52.083333333333336</v>
+      </c>
+      <c r="P8" s="258">
+        <f t="shared" si="13"/>
+        <v>10.416666666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="119" t="s">
+        <v>430</v>
+      </c>
+      <c r="B9" s="262">
+        <v>60</v>
+      </c>
+      <c r="C9" s="258">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="D9" s="258">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="E9" s="258">
+        <f t="shared" si="2"/>
+        <v>6.25</v>
+      </c>
+      <c r="F9" s="258">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="G9" s="258">
+        <f t="shared" si="4"/>
+        <v>18.75</v>
+      </c>
+      <c r="H9" s="258">
+        <f t="shared" si="5"/>
+        <v>125</v>
+      </c>
+      <c r="I9" s="258">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="J9" s="258">
+        <f t="shared" si="7"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K9" s="258">
+        <f t="shared" si="8"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L9" s="258">
+        <f t="shared" si="9"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="M9" s="258">
+        <f t="shared" si="10"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="N9" s="258">
+        <f t="shared" si="11"/>
+        <v>12.5</v>
+      </c>
+      <c r="O9" s="258">
+        <f t="shared" si="12"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="P9" s="258">
+        <f t="shared" si="13"/>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="119" t="s">
+        <v>431</v>
+      </c>
+      <c r="B10" s="262">
+        <v>40</v>
+      </c>
+      <c r="C10" s="258">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="D10" s="258">
+        <f t="shared" si="1"/>
+        <v>1.875</v>
+      </c>
+      <c r="E10" s="258">
+        <f t="shared" si="2"/>
+        <v>9.375</v>
+      </c>
+      <c r="F10" s="258">
+        <f t="shared" si="3"/>
+        <v>37.5</v>
+      </c>
+      <c r="G10" s="258">
+        <f t="shared" si="4"/>
+        <v>28.125</v>
+      </c>
+      <c r="H10" s="258">
+        <f t="shared" si="5"/>
+        <v>187.5</v>
+      </c>
+      <c r="I10" s="258">
+        <f t="shared" si="6"/>
+        <v>37.5</v>
+      </c>
+      <c r="J10" s="258">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="K10" s="258">
+        <f t="shared" si="8"/>
+        <v>1.25</v>
+      </c>
+      <c r="L10" s="258">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="M10" s="258">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="N10" s="258">
+        <f t="shared" si="11"/>
+        <v>18.75</v>
+      </c>
+      <c r="O10" s="258">
+        <f t="shared" si="12"/>
+        <v>125</v>
+      </c>
+      <c r="P10" s="258">
+        <f t="shared" si="13"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="119" t="s">
+        <v>434</v>
+      </c>
+      <c r="B11" s="262">
+        <f>8*20</f>
+        <v>160</v>
+      </c>
+      <c r="C11" s="258">
+        <f t="shared" si="0"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="D11" s="258">
+        <f t="shared" si="1"/>
+        <v>0.46875</v>
+      </c>
+      <c r="E11" s="258">
+        <f t="shared" si="2"/>
+        <v>2.34375</v>
+      </c>
+      <c r="F11" s="258">
+        <f t="shared" si="3"/>
+        <v>9.375</v>
+      </c>
+      <c r="G11" s="258">
+        <f t="shared" si="4"/>
+        <v>7.03125</v>
+      </c>
+      <c r="H11" s="258">
+        <f t="shared" si="5"/>
+        <v>46.875</v>
+      </c>
+      <c r="I11" s="258">
+        <f t="shared" si="6"/>
+        <v>9.375</v>
+      </c>
+      <c r="J11" s="258">
+        <f t="shared" si="7"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K11" s="258">
+        <f t="shared" si="8"/>
+        <v>0.3125</v>
+      </c>
+      <c r="L11" s="258">
+        <f t="shared" si="9"/>
+        <v>1.25</v>
+      </c>
+      <c r="M11" s="258">
+        <f t="shared" si="10"/>
+        <v>6.25</v>
+      </c>
+      <c r="N11" s="258">
+        <f t="shared" si="11"/>
+        <v>4.6875</v>
+      </c>
+      <c r="O11" s="258">
+        <f t="shared" si="12"/>
+        <v>31.25</v>
+      </c>
+      <c r="P11" s="258">
+        <f t="shared" si="13"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="119" t="s">
+        <v>432</v>
+      </c>
+      <c r="B12" s="262"/>
+      <c r="C12" s="258" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D12" s="258" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E12" s="258" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F12" s="258" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G12" s="258" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H12" s="258" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" s="258" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J12" s="258" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K12" s="258" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L12" s="258" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M12" s="258" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N12" s="258" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O12" s="258" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P12" s="258" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="119" t="s">
+        <v>433</v>
+      </c>
+      <c r="B13" s="262"/>
+      <c r="C13" s="258" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D13" s="258" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" s="258" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F13" s="258" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="258" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" s="258" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" s="258" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13" s="258" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" s="258" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" s="258" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M13" s="258" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N13" s="258" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O13" s="258" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P13" s="258" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="119" t="s">
+        <v>438</v>
+      </c>
+      <c r="B14" s="262"/>
+      <c r="C14" s="258" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D14" s="258" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E14" s="258" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F14" s="258" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G14" s="258" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H14" s="258" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" s="258" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J14" s="258" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K14" s="258" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L14" s="258" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M14" s="258" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N14" s="258" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O14" s="258" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P14" s="258" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="119" t="s">
+        <v>439</v>
+      </c>
+      <c r="B15" s="262">
+        <v>200</v>
+      </c>
+      <c r="C15" s="258">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D15" s="258">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+      <c r="E15" s="258">
+        <f t="shared" si="2"/>
+        <v>1.875</v>
+      </c>
+      <c r="F15" s="258">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="G15" s="258">
+        <f t="shared" si="4"/>
+        <v>5.625</v>
+      </c>
+      <c r="H15" s="258">
+        <f t="shared" si="5"/>
+        <v>37.5</v>
+      </c>
+      <c r="I15" s="258">
+        <f t="shared" si="6"/>
+        <v>7.5</v>
+      </c>
+      <c r="J15" s="258">
+        <f t="shared" si="7"/>
+        <v>0.05</v>
+      </c>
+      <c r="K15" s="258">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="L15" s="258">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M15" s="258">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="N15" s="258">
+        <f t="shared" si="11"/>
+        <v>3.75</v>
+      </c>
+      <c r="O15" s="258">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="P15" s="258">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="119" t="s">
+        <v>440</v>
+      </c>
+      <c r="B16" s="262">
+        <v>25</v>
+      </c>
+      <c r="C16" s="258">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="D16" s="258">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E16" s="258">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="F16" s="258">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G16" s="258">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="H16" s="258">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="I16" s="258">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="J16" s="258">
+        <f t="shared" si="7"/>
+        <v>0.4</v>
+      </c>
+      <c r="K16" s="258">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="L16" s="258">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="M16" s="258">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="N16" s="258">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="O16" s="258">
+        <f t="shared" si="12"/>
+        <v>200</v>
+      </c>
+      <c r="P16" s="258">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="119" t="s">
+        <v>442</v>
+      </c>
+      <c r="B17" s="262"/>
+      <c r="C17" s="258" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D17" s="258" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E17" s="258" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F17" s="258" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G17" s="258" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" s="258" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="258" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" s="258" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K17" s="258" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17" s="258" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M17" s="258" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N17" s="258" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O17" s="258" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P17" s="258" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="119" t="s">
+        <v>441</v>
+      </c>
+      <c r="B18" s="262"/>
+      <c r="C18" s="258" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D18" s="258" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E18" s="258" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F18" s="258" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G18" s="258" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" s="258" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="258" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" s="258" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K18" s="258" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18" s="258" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M18" s="258" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N18" s="258" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O18" s="258" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P18" s="258" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="262"/>
+      <c r="C19" s="258" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D19" s="258" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="258" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="258" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="258" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="258" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="258" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" s="258" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" s="258" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="258" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19" s="258" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="258" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O19" s="258" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P19" s="258" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="262"/>
+      <c r="C20" s="258" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D20" s="258" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E20" s="258" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F20" s="258" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G20" s="258" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H20" s="258" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" s="258" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J20" s="258" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K20" s="258" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" s="258" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M20" s="258" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N20" s="258" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O20" s="258" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P20" s="258" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="262"/>
+      <c r="C21" s="258" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D21" s="258" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E21" s="258" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F21" s="258" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G21" s="258" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H21" s="258" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="258" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" s="258" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K21" s="258" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21" s="258" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M21" s="258" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N21" s="258" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O21" s="258" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P21" s="258" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="262"/>
+      <c r="C22" s="258" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D22" s="258" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="258" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F22" s="258" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G22" s="258" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H22" s="258" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="258" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22" s="258" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" s="258" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L22" s="258" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M22" s="258" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N22" s="258" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O22" s="258" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P22" s="258" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="262"/>
+      <c r="C23" s="258" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D23" s="258" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E23" s="258" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F23" s="258" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G23" s="258" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H23" s="258" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" s="258" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J23" s="258" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K23" s="258" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L23" s="258" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M23" s="258" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N23" s="258" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O23" s="258" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P23" s="258" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="262"/>
+      <c r="C24" s="258" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" s="258" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" s="258" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" s="258" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="258" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" s="258" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" s="258" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J24" s="258" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K24" s="258" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L24" s="258" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M24" s="258" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N24" s="258" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O24" s="258" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P24" s="258" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="262"/>
+      <c r="C25" s="258" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="258" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="258" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="258" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="258" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="258" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="258" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J25" s="258" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K25" s="258" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L25" s="258" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" s="258" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="258" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O25" s="258" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P25" s="258" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C26" s="258"/>
+      <c r="D26" s="258"/>
+      <c r="E26" s="258"/>
+      <c r="F26" s="258"/>
+      <c r="G26" s="258"/>
+      <c r="H26" s="258"/>
+      <c r="I26" s="258"/>
+      <c r="J26" s="258"/>
+      <c r="K26" s="258"/>
+      <c r="L26" s="258"/>
+      <c r="M26" s="258"/>
+      <c r="N26" s="258"/>
+      <c r="O26" s="258"/>
+      <c r="P26" s="258"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C27" s="258"/>
+      <c r="D27" s="258"/>
+      <c r="E27" s="258"/>
+      <c r="F27" s="258"/>
+      <c r="G27" s="258"/>
+      <c r="H27" s="258"/>
+      <c r="I27" s="258"/>
+      <c r="J27" s="258"/>
+      <c r="K27" s="258"/>
+      <c r="L27" s="258"/>
+      <c r="M27" s="258"/>
+      <c r="N27" s="258"/>
+      <c r="O27" s="258"/>
+      <c r="P27" s="258"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C28" s="258"/>
+      <c r="D28" s="258"/>
+      <c r="E28" s="258"/>
+      <c r="F28" s="258"/>
+      <c r="G28" s="258"/>
+      <c r="H28" s="258"/>
+      <c r="I28" s="258"/>
+      <c r="J28" s="258"/>
+      <c r="K28" s="258"/>
+      <c r="L28" s="258"/>
+      <c r="M28" s="258"/>
+      <c r="N28" s="258"/>
+      <c r="O28" s="258"/>
+      <c r="P28" s="258"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C29" s="258"/>
+      <c r="D29" s="258"/>
+      <c r="E29" s="258"/>
+      <c r="F29" s="258"/>
+      <c r="G29" s="258"/>
+      <c r="H29" s="258"/>
+      <c r="I29" s="258"/>
+      <c r="J29" s="258"/>
+      <c r="K29" s="258"/>
+      <c r="L29" s="258"/>
+      <c r="M29" s="258"/>
+      <c r="N29" s="258"/>
+      <c r="O29" s="258"/>
+      <c r="P29" s="258"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C30" s="258"/>
+      <c r="D30" s="258"/>
+      <c r="E30" s="258"/>
+      <c r="F30" s="258"/>
+      <c r="G30" s="258"/>
+      <c r="H30" s="258"/>
+      <c r="I30" s="258"/>
+      <c r="J30" s="258"/>
+      <c r="K30" s="258"/>
+      <c r="L30" s="258"/>
+      <c r="M30" s="258"/>
+      <c r="N30" s="258"/>
+      <c r="O30" s="258"/>
+      <c r="P30" s="258"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C31" s="258"/>
+      <c r="D31" s="258"/>
+      <c r="E31" s="258"/>
+      <c r="F31" s="258"/>
+      <c r="G31" s="258"/>
+      <c r="H31" s="258"/>
+      <c r="I31" s="258"/>
+      <c r="J31" s="258"/>
+      <c r="K31" s="258"/>
+      <c r="L31" s="258"/>
+      <c r="M31" s="258"/>
+      <c r="N31" s="258"/>
+      <c r="O31" s="258"/>
+      <c r="P31" s="258"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C32" s="258"/>
+      <c r="D32" s="258"/>
+      <c r="E32" s="258"/>
+      <c r="F32" s="258"/>
+      <c r="G32" s="258"/>
+      <c r="H32" s="258"/>
+      <c r="I32" s="258"/>
+      <c r="J32" s="258"/>
+      <c r="K32" s="258"/>
+      <c r="L32" s="258"/>
+      <c r="M32" s="258"/>
+      <c r="N32" s="258"/>
+      <c r="O32" s="258"/>
+      <c r="P32" s="258"/>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C33" s="258"/>
+      <c r="D33" s="258"/>
+      <c r="E33" s="258"/>
+      <c r="F33" s="258"/>
+      <c r="G33" s="258"/>
+      <c r="H33" s="258"/>
+      <c r="I33" s="258"/>
+      <c r="J33" s="258"/>
+      <c r="K33" s="258"/>
+      <c r="L33" s="258"/>
+      <c r="M33" s="258"/>
+      <c r="N33" s="258"/>
+      <c r="O33" s="258"/>
+      <c r="P33" s="258"/>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C34" s="258"/>
+      <c r="D34" s="258"/>
+      <c r="E34" s="258"/>
+      <c r="F34" s="258"/>
+      <c r="G34" s="258"/>
+      <c r="H34" s="258"/>
+      <c r="I34" s="258"/>
+      <c r="J34" s="258"/>
+      <c r="K34" s="258"/>
+      <c r="L34" s="258"/>
+      <c r="M34" s="258"/>
+      <c r="N34" s="258"/>
+      <c r="O34" s="258"/>
+      <c r="P34" s="258"/>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C35" s="258"/>
+      <c r="D35" s="258"/>
+      <c r="E35" s="258"/>
+      <c r="F35" s="258"/>
+      <c r="G35" s="258"/>
+      <c r="H35" s="258"/>
+      <c r="I35" s="258"/>
+      <c r="J35" s="258"/>
+      <c r="K35" s="258"/>
+      <c r="L35" s="258"/>
+      <c r="M35" s="258"/>
+      <c r="N35" s="258"/>
+      <c r="O35" s="258"/>
+      <c r="P35" s="258"/>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C36" s="258"/>
+      <c r="D36" s="258"/>
+      <c r="E36" s="258"/>
+      <c r="F36" s="258"/>
+      <c r="G36" s="258"/>
+      <c r="H36" s="258"/>
+      <c r="I36" s="258"/>
+      <c r="J36" s="258"/>
+      <c r="K36" s="258"/>
+      <c r="L36" s="258"/>
+      <c r="M36" s="258"/>
+      <c r="N36" s="258"/>
+      <c r="O36" s="258"/>
+      <c r="P36" s="258"/>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C37" s="258"/>
+      <c r="D37" s="258"/>
+      <c r="E37" s="258"/>
+      <c r="F37" s="258"/>
+      <c r="G37" s="258"/>
+      <c r="H37" s="258"/>
+      <c r="I37" s="258"/>
+      <c r="J37" s="258"/>
+      <c r="K37" s="258"/>
+      <c r="L37" s="258"/>
+      <c r="M37" s="258"/>
+      <c r="N37" s="258"/>
+      <c r="O37" s="258"/>
+      <c r="P37" s="258"/>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C38" s="258"/>
+      <c r="D38" s="258"/>
+      <c r="E38" s="258"/>
+      <c r="F38" s="258"/>
+      <c r="G38" s="258"/>
+      <c r="H38" s="258"/>
+      <c r="I38" s="258"/>
+      <c r="J38" s="258"/>
+      <c r="K38" s="258"/>
+      <c r="L38" s="258"/>
+      <c r="M38" s="258"/>
+      <c r="N38" s="258"/>
+      <c r="O38" s="258"/>
+      <c r="P38" s="258"/>
+    </row>
+    <row r="39" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C39" s="258"/>
+      <c r="D39" s="258"/>
+      <c r="E39" s="258"/>
+      <c r="F39" s="258"/>
+      <c r="G39" s="258"/>
+      <c r="H39" s="258"/>
+      <c r="I39" s="258"/>
+      <c r="J39" s="258"/>
+      <c r="K39" s="258"/>
+      <c r="L39" s="258"/>
+      <c r="M39" s="258"/>
+      <c r="N39" s="258"/>
+      <c r="O39" s="258"/>
+      <c r="P39" s="258"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="J1:P1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A26:C36"/>
   <sheetViews>
@@ -14974,81 +16975,81 @@
   </cols>
   <sheetData>
     <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="203" t="s">
+      <c r="A26" s="230" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="186"/>
-      <c r="C26" s="186"/>
+      <c r="B26" s="215"/>
+      <c r="C26" s="215"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="202"/>
-      <c r="B27" s="186"/>
+      <c r="A27" s="228"/>
+      <c r="B27" s="215"/>
       <c r="C27" s="50"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="202"/>
-      <c r="B28" s="186"/>
+      <c r="A28" s="228"/>
+      <c r="B28" s="215"/>
       <c r="C28" s="51"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="202"/>
-      <c r="B29" s="186"/>
+      <c r="A29" s="228"/>
+      <c r="B29" s="215"/>
       <c r="C29" s="121"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="202"/>
-      <c r="B30" s="186"/>
+      <c r="A30" s="228"/>
+      <c r="B30" s="215"/>
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="202"/>
-      <c r="B31" s="186"/>
+      <c r="A31" s="228"/>
+      <c r="B31" s="215"/>
       <c r="C31" s="53"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="200"/>
-      <c r="B32" s="186"/>
+      <c r="A32" s="231"/>
+      <c r="B32" s="215"/>
       <c r="C32" s="121"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="199"/>
-      <c r="B33" s="186"/>
+      <c r="A33" s="229"/>
+      <c r="B33" s="215"/>
       <c r="C33" s="53"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="199"/>
-      <c r="B34" s="186"/>
+      <c r="A34" s="229"/>
+      <c r="B34" s="215"/>
       <c r="C34" s="53"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="199"/>
-      <c r="B35" s="186"/>
+      <c r="A35" s="229"/>
+      <c r="B35" s="215"/>
       <c r="C35" s="53"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="199"/>
-      <c r="B36" s="186"/>
+      <c r="A36" s="229"/>
+      <c r="B36" s="215"/>
       <c r="C36" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:P42"/>
   <sheetViews>
@@ -15286,99 +17287,94 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="203" t="s">
+      <c r="A26" s="230" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="186"/>
-      <c r="C26" s="186"/>
+      <c r="B26" s="215"/>
+      <c r="C26" s="215"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="202"/>
-      <c r="B27" s="186"/>
+      <c r="A27" s="228"/>
+      <c r="B27" s="215"/>
       <c r="C27" s="50"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="202"/>
-      <c r="B28" s="186"/>
+      <c r="A28" s="228"/>
+      <c r="B28" s="215"/>
       <c r="C28" s="51"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="202"/>
-      <c r="B29" s="186"/>
+      <c r="A29" s="228"/>
+      <c r="B29" s="215"/>
       <c r="C29" s="121"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="202"/>
-      <c r="B30" s="186"/>
+      <c r="A30" s="228"/>
+      <c r="B30" s="215"/>
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="202"/>
-      <c r="B31" s="186"/>
+      <c r="A31" s="228"/>
+      <c r="B31" s="215"/>
       <c r="C31" s="53"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="200"/>
-      <c r="B32" s="186"/>
+      <c r="A32" s="231"/>
+      <c r="B32" s="215"/>
       <c r="C32" s="121"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="199"/>
-      <c r="B33" s="186"/>
+      <c r="A33" s="229"/>
+      <c r="B33" s="215"/>
       <c r="C33" s="53"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="199"/>
-      <c r="B34" s="186"/>
+      <c r="A34" s="229"/>
+      <c r="B34" s="215"/>
       <c r="C34" s="53"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="199"/>
-      <c r="B35" s="186"/>
+      <c r="A35" s="229"/>
+      <c r="B35" s="215"/>
       <c r="C35" s="53"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="199"/>
-      <c r="B36" s="186"/>
+      <c r="A36" s="229"/>
+      <c r="B36" s="215"/>
       <c r="C36" s="53"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="199"/>
-      <c r="B37" s="186"/>
+      <c r="A37" s="229"/>
+      <c r="B37" s="215"/>
       <c r="C37" s="53"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="199"/>
-      <c r="B38" s="186"/>
+      <c r="A38" s="229"/>
+      <c r="B38" s="215"/>
       <c r="C38" s="53"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="199"/>
-      <c r="B39" s="186"/>
+      <c r="A39" s="229"/>
+      <c r="B39" s="215"/>
       <c r="C39" s="53"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="199"/>
-      <c r="B40" s="186"/>
+      <c r="A40" s="229"/>
+      <c r="B40" s="215"/>
       <c r="C40" s="53"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="199"/>
-      <c r="B41" s="186"/>
+      <c r="A41" s="229"/>
+      <c r="B41" s="215"/>
       <c r="C41" s="53"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="199"/>
-      <c r="B42" s="186"/>
+      <c r="A42" s="229"/>
+      <c r="B42" s="215"/>
       <c r="C42" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:B27"/>
@@ -15391,124 +17387,12 @@
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="14">
-        <f>2.4*8*400/1000</f>
-        <v>7.68</v>
-      </c>
-      <c r="B1" s="14">
-        <f>2.4*7*400/1000-400*1.8/1000</f>
-        <v>6</v>
-      </c>
-      <c r="C1" s="14">
-        <f>2.4*7*400/1000-400*1.2/1000</f>
-        <v>6.24</v>
-      </c>
-      <c r="D1" s="14">
-        <f>2.4*7*400/1000-400*1.8/1000</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <f>A1/B1</f>
-        <v>1.28</v>
-      </c>
-      <c r="B2">
-        <f>B1/A1</f>
-        <v>0.78125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
-        <v>8.1</v>
-      </c>
-      <c r="C10" s="10">
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D13">
-        <f>160*5</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G18">
-        <f>240*5</f>
-        <v>1200</v>
-      </c>
-      <c r="H18">
-        <f>160*5</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D19">
-        <f>160/240</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E19" s="10">
-        <v>400</v>
-      </c>
-      <c r="G19">
-        <f>G18-(160*3)</f>
-        <v>720</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E20" s="10">
-        <v>5200</v>
-      </c>
-      <c r="F20">
-        <f>E20/E19</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23">
-        <f>240/160</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E29" s="10">
-        <v>240</v>
-      </c>
-      <c r="F29">
-        <f>E29*0.6</f>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E30" s="10">
-        <v>160</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/0 DyTech Informations/Dytech Balance.xlsx
+++ b/0 DyTech Informations/Dytech Balance.xlsx
@@ -2,28 +2,29 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DyTech\0 DyTech Informations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\.FactorioModding\DyTech-master\0 DyTech Informations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12135" tabRatio="781" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12135" tabRatio="781" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
     <sheet name="Steam" sheetId="2" r:id="rId2"/>
     <sheet name="Solar Panels" sheetId="8" r:id="rId3"/>
-    <sheet name="Nuclear Fuel" sheetId="11" r:id="rId4"/>
-    <sheet name="Membranes" sheetId="16" r:id="rId5"/>
-    <sheet name="Laser Turrets" sheetId="3" r:id="rId6"/>
-    <sheet name="Enemies" sheetId="17" r:id="rId7"/>
-    <sheet name="Empty Sheet" sheetId="9" r:id="rId8"/>
-    <sheet name="Gems" sheetId="10" r:id="rId9"/>
-    <sheet name="Msc" sheetId="5" r:id="rId10"/>
-    <sheet name="Dytech Balance" sheetId="6" state="hidden" r:id="rId11"/>
-    <sheet name="Msc2" sheetId="7" r:id="rId12"/>
+    <sheet name="Solar (Magic)" sheetId="18" r:id="rId4"/>
+    <sheet name="Nuclear Fuel" sheetId="11" r:id="rId5"/>
+    <sheet name="Membranes" sheetId="16" r:id="rId6"/>
+    <sheet name="Laser Turrets" sheetId="3" r:id="rId7"/>
+    <sheet name="Enemies" sheetId="17" r:id="rId8"/>
+    <sheet name="Empty Sheet" sheetId="9" r:id="rId9"/>
+    <sheet name="Gems" sheetId="10" r:id="rId10"/>
+    <sheet name="Msc" sheetId="5" r:id="rId11"/>
+    <sheet name="Dytech Balance" sheetId="6" state="hidden" r:id="rId12"/>
+    <sheet name="Msc2" sheetId="7" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -285,11 +286,309 @@
         </r>
       </text>
     </comment>
+    <comment ref="X6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MagicLegend:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Energy required to create the specific item per 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MagicLegend:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sum of energy required to create all the items for the recipe</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MagicLegend:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Energy used by the chemical processor to create the fuel stated in colum A</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MagicLegend:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Energy required to create the specific item per 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MagicLegend:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sum of energy required to create all the items for the recipe</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MagicLegend:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Energy used by the chemical processor to create the fuel stated in colum A</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MagicLegend:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Energy required to create the specific item per 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BH10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MagicLegend:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sum of energy required to create all the items for the recipe</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BJ10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MagicLegend:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Energy used by the chemical processor to create the fuel stated in colum A</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Jort Geurts</author>
+  </authors>
+  <commentList>
+    <comment ref="G6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MagicLegend:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Energy required to create the specific item per 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MagicLegend:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sum of energy required to create all the items for the recipe</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MagicLegend:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Energy used by the chemical processor to create the fuel stated in colum A</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Jort Geurts</author>
@@ -371,7 +670,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -404,7 +703,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -727,7 +1026,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="464">
   <si>
     <t>README</t>
   </si>
@@ -2056,6 +2355,69 @@
   </si>
   <si>
     <t>Grenade 2</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Small solar panel mk 1</t>
+  </si>
+  <si>
+    <t>Iron plate</t>
+  </si>
+  <si>
+    <t>Electronic circuit</t>
+  </si>
+  <si>
+    <t>Copper plate</t>
+  </si>
+  <si>
+    <t>Flux capacitor</t>
+  </si>
+  <si>
+    <t>Small solar panel mk 2</t>
+  </si>
+  <si>
+    <t>Iron Ore</t>
+  </si>
+  <si>
+    <t>Copper Ore</t>
+  </si>
+  <si>
+    <t>kW/s</t>
+  </si>
+  <si>
+    <t>Mining / crafting time</t>
+  </si>
+  <si>
+    <t>Electronic Circuit</t>
+  </si>
+  <si>
+    <t>Iron Plate</t>
+  </si>
+  <si>
+    <t>Copper Plate</t>
+  </si>
+  <si>
+    <t>Flux Capacitor</t>
+  </si>
+  <si>
+    <t>Copper Cable</t>
+  </si>
+  <si>
+    <t>Furnace used is electronic Furnace.</t>
+  </si>
+  <si>
+    <t>leeg</t>
+  </si>
+  <si>
+    <t>Minable</t>
+  </si>
+  <si>
+    <t>Iron ore</t>
+  </si>
+  <si>
+    <t>Copper ore</t>
   </si>
 </sst>
 </file>
@@ -2071,7 +2433,7 @@
     <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2207,8 +2569,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="55">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2528,6 +2896,24 @@
         <fgColor theme="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -2739,7 +3125,7 @@
     <xf numFmtId="0" fontId="14" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="264">
+  <cellXfs count="279">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3014,20 +3400,46 @@
     <xf numFmtId="4" fontId="0" fillId="38" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="38" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="53" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3036,32 +3448,44 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="36" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="49" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="49" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="49" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3079,9 +3503,6 @@
     <xf numFmtId="0" fontId="16" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="44" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3091,32 +3512,21 @@
     <xf numFmtId="0" fontId="15" fillId="44" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="53" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="54" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3128,17 +3538,22 @@
     <xf numFmtId="0" fontId="23" fillId="54" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
     <cellStyle name="Accent3" xfId="4" builtinId="37"/>
     <cellStyle name="Accent5" xfId="5" builtinId="45"/>
     <cellStyle name="Accent6" xfId="6" builtinId="49"/>
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Procent" xfId="2" builtinId="5"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -5469,68 +5884,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="216"/>
-      <c r="B1" s="223" t="s">
+      <c r="A1" s="238"/>
+      <c r="B1" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="215"/>
-      <c r="D1" s="223" t="s">
+      <c r="C1" s="227"/>
+      <c r="D1" s="235" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="223" t="s">
+      <c r="M1" s="235" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="215"/>
-      <c r="O1" s="215"/>
-      <c r="P1" s="215"/>
-      <c r="Q1" s="216"/>
+      <c r="N1" s="227"/>
+      <c r="O1" s="227"/>
+      <c r="P1" s="227"/>
+      <c r="Q1" s="238"/>
       <c r="U1" s="9"/>
-      <c r="V1" s="225"/>
-      <c r="W1" s="215"/>
-      <c r="X1" s="215"/>
+      <c r="V1" s="233"/>
+      <c r="W1" s="227"/>
+      <c r="X1" s="227"/>
     </row>
     <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="215"/>
-      <c r="B2" s="217" t="s">
+      <c r="A2" s="227"/>
+      <c r="B2" s="229" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="227" t="s">
+      <c r="C2" s="227"/>
+      <c r="D2" s="234" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="220"/>
-      <c r="M2" s="227" t="s">
+      <c r="L2" s="236"/>
+      <c r="M2" s="234" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="215"/>
-      <c r="O2" s="215"/>
-      <c r="P2" s="215"/>
-      <c r="Q2" s="215"/>
+      <c r="N2" s="227"/>
+      <c r="O2" s="227"/>
+      <c r="P2" s="227"/>
+      <c r="Q2" s="227"/>
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
       <c r="U2" s="17"/>
       <c r="V2" s="226"/>
-      <c r="W2" s="215"/>
-      <c r="X2" s="215"/>
+      <c r="W2" s="227"/>
+      <c r="X2" s="227"/>
     </row>
     <row r="3" spans="1:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="215"/>
+      <c r="A3" s="227"/>
       <c r="B3" s="18" t="s">
         <v>23</v>
       </c>
@@ -5553,7 +5968,7 @@
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
-      <c r="L3" s="215"/>
+      <c r="L3" s="227"/>
       <c r="M3" s="24" t="s">
         <v>82</v>
       </c>
@@ -5564,7 +5979,7 @@
         <v>84</v>
       </c>
       <c r="P3" s="24"/>
-      <c r="Q3" s="215"/>
+      <c r="Q3" s="227"/>
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
@@ -5574,7 +5989,7 @@
       <c r="X3" s="27"/>
     </row>
     <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="215"/>
+      <c r="A4" s="227"/>
       <c r="B4" s="18" t="s">
         <v>101</v>
       </c>
@@ -5596,7 +6011,7 @@
       <c r="I4" s="36"/>
       <c r="J4" s="36"/>
       <c r="K4" s="36"/>
-      <c r="L4" s="215"/>
+      <c r="L4" s="227"/>
       <c r="M4" s="29">
         <v>1</v>
       </c>
@@ -5607,7 +6022,7 @@
         <v>0.1</v>
       </c>
       <c r="P4" s="42"/>
-      <c r="Q4" s="215"/>
+      <c r="Q4" s="227"/>
       <c r="R4" s="43"/>
       <c r="S4" s="39"/>
       <c r="U4" s="43"/>
@@ -5616,7 +6031,7 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="215"/>
+      <c r="A5" s="227"/>
       <c r="B5" s="18" t="s">
         <v>108</v>
       </c>
@@ -5642,7 +6057,7 @@
       <c r="I5" s="36"/>
       <c r="J5" s="36"/>
       <c r="K5" s="36"/>
-      <c r="L5" s="215"/>
+      <c r="L5" s="227"/>
       <c r="M5" s="29">
         <v>2</v>
       </c>
@@ -5653,7 +6068,7 @@
         <v>0.2</v>
       </c>
       <c r="P5" s="42"/>
-      <c r="Q5" s="215"/>
+      <c r="Q5" s="227"/>
       <c r="R5" s="43"/>
       <c r="S5" s="39"/>
       <c r="T5" s="10"/>
@@ -5663,7 +6078,7 @@
       <c r="X5" s="10"/>
     </row>
     <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="215"/>
+      <c r="A6" s="227"/>
       <c r="B6" s="14"/>
       <c r="C6" s="45"/>
       <c r="D6" s="29">
@@ -5687,7 +6102,7 @@
       <c r="I6" s="36"/>
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
-      <c r="L6" s="215"/>
+      <c r="L6" s="227"/>
       <c r="M6" s="29">
         <v>3</v>
       </c>
@@ -5698,7 +6113,7 @@
         <v>0.3</v>
       </c>
       <c r="P6" s="42"/>
-      <c r="Q6" s="215"/>
+      <c r="Q6" s="227"/>
       <c r="R6" s="43"/>
       <c r="S6" s="39"/>
       <c r="U6" s="43"/>
@@ -5707,7 +6122,7 @@
       <c r="X6" s="10"/>
     </row>
     <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="215"/>
+      <c r="A7" s="227"/>
       <c r="B7" s="14"/>
       <c r="C7" s="45"/>
       <c r="D7" s="29">
@@ -5729,7 +6144,7 @@
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
       <c r="K7" s="36"/>
-      <c r="L7" s="215"/>
+      <c r="L7" s="227"/>
       <c r="M7" s="29">
         <v>4</v>
       </c>
@@ -5740,14 +6155,14 @@
         <v>0.4</v>
       </c>
       <c r="P7" s="42"/>
-      <c r="Q7" s="215"/>
+      <c r="Q7" s="227"/>
       <c r="R7" s="43"/>
       <c r="S7" s="39"/>
       <c r="U7" s="43"/>
       <c r="V7" s="43"/>
     </row>
     <row r="8" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="215"/>
+      <c r="A8" s="227"/>
       <c r="B8" s="14"/>
       <c r="C8" s="45"/>
       <c r="D8" s="29">
@@ -5771,7 +6186,7 @@
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
-      <c r="L8" s="215"/>
+      <c r="L8" s="227"/>
       <c r="M8" s="29">
         <v>5</v>
       </c>
@@ -5782,14 +6197,14 @@
         <v>0.5</v>
       </c>
       <c r="P8" s="42"/>
-      <c r="Q8" s="215"/>
+      <c r="Q8" s="227"/>
       <c r="R8" s="43"/>
       <c r="S8" s="39"/>
       <c r="U8" s="43"/>
       <c r="V8" s="43"/>
     </row>
     <row r="9" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="215"/>
+      <c r="A9" s="227"/>
       <c r="B9" s="14"/>
       <c r="C9" s="45"/>
       <c r="D9" s="29">
@@ -5811,7 +6226,7 @@
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
-      <c r="L9" s="215"/>
+      <c r="L9" s="227"/>
       <c r="M9" s="29">
         <v>6</v>
       </c>
@@ -5822,14 +6237,14 @@
         <v>0.6</v>
       </c>
       <c r="P9" s="42"/>
-      <c r="Q9" s="215"/>
+      <c r="Q9" s="227"/>
       <c r="R9" s="43"/>
       <c r="S9" s="39"/>
       <c r="U9" s="43"/>
       <c r="V9" s="43"/>
     </row>
     <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="215"/>
+      <c r="A10" s="227"/>
       <c r="B10" s="14"/>
       <c r="C10" s="45"/>
       <c r="D10" s="29">
@@ -5853,7 +6268,7 @@
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
-      <c r="L10" s="215"/>
+      <c r="L10" s="227"/>
       <c r="M10" s="29">
         <v>7</v>
       </c>
@@ -5864,14 +6279,14 @@
         <v>0.7</v>
       </c>
       <c r="P10" s="42"/>
-      <c r="Q10" s="215"/>
+      <c r="Q10" s="227"/>
       <c r="R10" s="43"/>
       <c r="S10" s="39"/>
       <c r="U10" s="43"/>
       <c r="V10" s="43"/>
     </row>
     <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="215"/>
+      <c r="A11" s="227"/>
       <c r="B11" s="14"/>
       <c r="C11" s="45"/>
       <c r="D11" s="29">
@@ -5895,7 +6310,7 @@
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
-      <c r="L11" s="215"/>
+      <c r="L11" s="227"/>
       <c r="M11" s="29">
         <v>8</v>
       </c>
@@ -5906,30 +6321,30 @@
         <v>0.8</v>
       </c>
       <c r="P11" s="42"/>
-      <c r="Q11" s="215"/>
+      <c r="Q11" s="227"/>
       <c r="R11" s="43"/>
       <c r="S11" s="39"/>
       <c r="U11" s="43"/>
       <c r="V11" s="43"/>
     </row>
     <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="215"/>
-      <c r="B12" s="214"/>
-      <c r="C12" s="215"/>
-      <c r="D12" s="219"/>
-      <c r="E12" s="215"/>
-      <c r="F12" s="215"/>
-      <c r="G12" s="215"/>
+      <c r="A12" s="227"/>
+      <c r="B12" s="230"/>
+      <c r="C12" s="227"/>
+      <c r="D12" s="231"/>
+      <c r="E12" s="227"/>
+      <c r="F12" s="227"/>
+      <c r="G12" s="227"/>
       <c r="H12" s="56"/>
       <c r="I12" s="56"/>
       <c r="J12" s="56"/>
       <c r="K12" s="56"/>
-      <c r="L12" s="215"/>
-      <c r="M12" s="219"/>
-      <c r="N12" s="215"/>
-      <c r="O12" s="215"/>
-      <c r="P12" s="215"/>
-      <c r="Q12" s="215"/>
+      <c r="L12" s="227"/>
+      <c r="M12" s="231"/>
+      <c r="N12" s="227"/>
+      <c r="O12" s="227"/>
+      <c r="P12" s="227"/>
+      <c r="Q12" s="227"/>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
@@ -5939,37 +6354,37 @@
       <c r="X12" s="17"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="215"/>
-      <c r="B13" s="217"/>
-      <c r="C13" s="215"/>
-      <c r="D13" s="224" t="s">
+      <c r="A13" s="227"/>
+      <c r="B13" s="229"/>
+      <c r="C13" s="227"/>
+      <c r="D13" s="232" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="215"/>
-      <c r="F13" s="215"/>
-      <c r="G13" s="215"/>
+      <c r="E13" s="227"/>
+      <c r="F13" s="227"/>
+      <c r="G13" s="227"/>
       <c r="H13" s="58"/>
       <c r="I13" s="58"/>
       <c r="J13" s="58"/>
       <c r="K13" s="58"/>
-      <c r="L13" s="215"/>
-      <c r="M13" s="224" t="s">
+      <c r="L13" s="227"/>
+      <c r="M13" s="232" t="s">
         <v>144</v>
       </c>
-      <c r="N13" s="215"/>
-      <c r="O13" s="215"/>
-      <c r="P13" s="215"/>
-      <c r="Q13" s="215"/>
+      <c r="N13" s="227"/>
+      <c r="O13" s="227"/>
+      <c r="P13" s="227"/>
+      <c r="Q13" s="227"/>
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
       <c r="V13" s="226"/>
-      <c r="W13" s="215"/>
-      <c r="X13" s="215"/>
+      <c r="W13" s="227"/>
+      <c r="X13" s="227"/>
     </row>
     <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="215"/>
+      <c r="A14" s="227"/>
       <c r="B14" s="14"/>
       <c r="C14" s="45"/>
       <c r="D14" s="60" t="s">
@@ -5990,7 +6405,7 @@
       <c r="I14" s="60"/>
       <c r="J14" s="60"/>
       <c r="K14" s="60"/>
-      <c r="L14" s="215"/>
+      <c r="L14" s="227"/>
       <c r="M14" s="60" t="s">
         <v>151</v>
       </c>
@@ -5999,7 +6414,7 @@
       </c>
       <c r="O14" s="60"/>
       <c r="P14" s="60"/>
-      <c r="Q14" s="215"/>
+      <c r="Q14" s="227"/>
       <c r="R14" s="27"/>
       <c r="S14" s="27"/>
       <c r="T14" s="27"/>
@@ -6009,7 +6424,7 @@
       <c r="X14" s="27"/>
     </row>
     <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="215"/>
+      <c r="A15" s="227"/>
       <c r="B15" s="14"/>
       <c r="C15" s="45"/>
       <c r="D15" s="62">
@@ -6029,7 +6444,7 @@
       <c r="I15" s="68"/>
       <c r="J15" s="68"/>
       <c r="K15" s="68"/>
-      <c r="L15" s="215"/>
+      <c r="L15" s="227"/>
       <c r="M15" s="62">
         <v>1</v>
       </c>
@@ -6038,7 +6453,7 @@
       </c>
       <c r="O15" s="65"/>
       <c r="P15" s="65"/>
-      <c r="Q15" s="215"/>
+      <c r="Q15" s="227"/>
       <c r="R15" s="43"/>
       <c r="S15" s="39"/>
       <c r="U15" s="43"/>
@@ -6046,7 +6461,7 @@
       <c r="W15" s="10"/>
     </row>
     <row r="16" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="215"/>
+      <c r="A16" s="227"/>
       <c r="B16" s="14"/>
       <c r="C16" s="45"/>
       <c r="D16" s="62">
@@ -6068,7 +6483,7 @@
       <c r="I16" s="68"/>
       <c r="J16" s="68"/>
       <c r="K16" s="68"/>
-      <c r="L16" s="215"/>
+      <c r="L16" s="227"/>
       <c r="M16" s="62">
         <v>2</v>
       </c>
@@ -6077,7 +6492,7 @@
       </c>
       <c r="O16" s="65"/>
       <c r="P16" s="65"/>
-      <c r="Q16" s="215"/>
+      <c r="Q16" s="227"/>
       <c r="R16" s="43"/>
       <c r="S16" s="39"/>
       <c r="U16" s="43"/>
@@ -6085,7 +6500,7 @@
       <c r="W16" s="10"/>
     </row>
     <row r="17" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="215"/>
+      <c r="A17" s="227"/>
       <c r="B17" s="14"/>
       <c r="C17" s="45"/>
       <c r="D17" s="62">
@@ -6109,7 +6524,7 @@
       <c r="I17" s="68"/>
       <c r="J17" s="68"/>
       <c r="K17" s="68"/>
-      <c r="L17" s="215"/>
+      <c r="L17" s="227"/>
       <c r="M17" s="62">
         <v>3</v>
       </c>
@@ -6118,7 +6533,7 @@
       </c>
       <c r="O17" s="65"/>
       <c r="P17" s="65"/>
-      <c r="Q17" s="215"/>
+      <c r="Q17" s="227"/>
       <c r="R17" s="43"/>
       <c r="S17" s="39"/>
       <c r="U17" s="43"/>
@@ -6126,7 +6541,7 @@
       <c r="W17" s="10"/>
     </row>
     <row r="18" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="215"/>
+      <c r="A18" s="227"/>
       <c r="B18" s="14"/>
       <c r="C18" s="45"/>
       <c r="D18" s="62">
@@ -6148,7 +6563,7 @@
       <c r="I18" s="68"/>
       <c r="J18" s="68"/>
       <c r="K18" s="68"/>
-      <c r="L18" s="215"/>
+      <c r="L18" s="227"/>
       <c r="M18" s="62">
         <v>4</v>
       </c>
@@ -6157,13 +6572,13 @@
       </c>
       <c r="O18" s="65"/>
       <c r="P18" s="65"/>
-      <c r="Q18" s="215"/>
+      <c r="Q18" s="227"/>
       <c r="R18" s="43"/>
       <c r="U18" s="43"/>
       <c r="V18" s="43"/>
     </row>
     <row r="19" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="215"/>
+      <c r="A19" s="227"/>
       <c r="B19" s="14"/>
       <c r="C19" s="45"/>
       <c r="D19" s="62">
@@ -6187,7 +6602,7 @@
       <c r="I19" s="68"/>
       <c r="J19" s="68"/>
       <c r="K19" s="68"/>
-      <c r="L19" s="215"/>
+      <c r="L19" s="227"/>
       <c r="M19" s="62">
         <v>5</v>
       </c>
@@ -6196,13 +6611,13 @@
       </c>
       <c r="O19" s="65"/>
       <c r="P19" s="65"/>
-      <c r="Q19" s="215"/>
+      <c r="Q19" s="227"/>
       <c r="R19" s="43"/>
       <c r="U19" s="43"/>
       <c r="V19" s="43"/>
     </row>
     <row r="20" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="215"/>
+      <c r="A20" s="227"/>
       <c r="B20" s="14"/>
       <c r="C20" s="45"/>
       <c r="D20" s="62">
@@ -6224,7 +6639,7 @@
       <c r="I20" s="68"/>
       <c r="J20" s="68"/>
       <c r="K20" s="68"/>
-      <c r="L20" s="215"/>
+      <c r="L20" s="227"/>
       <c r="M20" s="62">
         <v>6</v>
       </c>
@@ -6233,14 +6648,14 @@
       </c>
       <c r="O20" s="65"/>
       <c r="P20" s="65"/>
-      <c r="Q20" s="215"/>
+      <c r="Q20" s="227"/>
       <c r="R20" s="43"/>
       <c r="S20" s="39"/>
       <c r="U20" s="43"/>
       <c r="V20" s="43"/>
     </row>
     <row r="21" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="215"/>
+      <c r="A21" s="227"/>
       <c r="B21" s="14"/>
       <c r="C21" s="45"/>
       <c r="D21" s="62">
@@ -6264,7 +6679,7 @@
       <c r="I21" s="68"/>
       <c r="J21" s="68"/>
       <c r="K21" s="68"/>
-      <c r="L21" s="215"/>
+      <c r="L21" s="227"/>
       <c r="M21" s="62">
         <v>7</v>
       </c>
@@ -6273,14 +6688,14 @@
       </c>
       <c r="O21" s="65"/>
       <c r="P21" s="65"/>
-      <c r="Q21" s="215"/>
+      <c r="Q21" s="227"/>
       <c r="R21" s="43"/>
       <c r="S21" s="39"/>
       <c r="U21" s="43"/>
       <c r="V21" s="43"/>
     </row>
     <row r="22" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="215"/>
+      <c r="A22" s="227"/>
       <c r="B22" s="14"/>
       <c r="C22" s="45"/>
       <c r="D22" s="62">
@@ -6304,7 +6719,7 @@
       <c r="I22" s="68"/>
       <c r="J22" s="68"/>
       <c r="K22" s="68"/>
-      <c r="L22" s="215"/>
+      <c r="L22" s="227"/>
       <c r="M22" s="62">
         <v>8</v>
       </c>
@@ -6313,30 +6728,30 @@
       </c>
       <c r="O22" s="65"/>
       <c r="P22" s="65"/>
-      <c r="Q22" s="215"/>
+      <c r="Q22" s="227"/>
       <c r="R22" s="43"/>
       <c r="S22" s="39"/>
       <c r="U22" s="43"/>
       <c r="V22" s="43"/>
     </row>
     <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="215"/>
-      <c r="B23" s="214"/>
-      <c r="C23" s="215"/>
-      <c r="D23" s="219"/>
-      <c r="E23" s="215"/>
-      <c r="F23" s="215"/>
-      <c r="G23" s="215"/>
+      <c r="A23" s="227"/>
+      <c r="B23" s="230"/>
+      <c r="C23" s="227"/>
+      <c r="D23" s="231"/>
+      <c r="E23" s="227"/>
+      <c r="F23" s="227"/>
+      <c r="G23" s="227"/>
       <c r="H23" s="56"/>
       <c r="I23" s="56"/>
       <c r="J23" s="56"/>
       <c r="K23" s="56"/>
-      <c r="L23" s="215"/>
-      <c r="M23" s="219"/>
-      <c r="N23" s="215"/>
-      <c r="O23" s="215"/>
-      <c r="P23" s="215"/>
-      <c r="Q23" s="215"/>
+      <c r="L23" s="227"/>
+      <c r="M23" s="231"/>
+      <c r="N23" s="227"/>
+      <c r="O23" s="227"/>
+      <c r="P23" s="227"/>
+      <c r="Q23" s="227"/>
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
       <c r="T23" s="17"/>
@@ -6346,39 +6761,39 @@
       <c r="X23" s="17"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="215"/>
-      <c r="B24" s="217" t="s">
+      <c r="A24" s="227"/>
+      <c r="B24" s="229" t="s">
         <v>177</v>
       </c>
-      <c r="C24" s="215"/>
-      <c r="D24" s="222" t="s">
+      <c r="C24" s="227"/>
+      <c r="D24" s="228" t="s">
         <v>178</v>
       </c>
-      <c r="E24" s="215"/>
-      <c r="F24" s="215"/>
-      <c r="G24" s="215"/>
+      <c r="E24" s="227"/>
+      <c r="F24" s="227"/>
+      <c r="G24" s="227"/>
       <c r="H24" s="74"/>
       <c r="I24" s="74"/>
       <c r="J24" s="74"/>
       <c r="K24" s="74"/>
-      <c r="L24" s="215"/>
-      <c r="M24" s="222" t="s">
+      <c r="L24" s="227"/>
+      <c r="M24" s="228" t="s">
         <v>179</v>
       </c>
-      <c r="N24" s="215"/>
-      <c r="O24" s="215"/>
-      <c r="P24" s="215"/>
-      <c r="Q24" s="215"/>
+      <c r="N24" s="227"/>
+      <c r="O24" s="227"/>
+      <c r="P24" s="227"/>
+      <c r="Q24" s="227"/>
       <c r="R24" s="17"/>
       <c r="S24" s="17"/>
       <c r="T24" s="17"/>
       <c r="U24" s="17"/>
       <c r="V24" s="226"/>
-      <c r="W24" s="215"/>
-      <c r="X24" s="215"/>
+      <c r="W24" s="227"/>
+      <c r="X24" s="227"/>
     </row>
     <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="215"/>
+      <c r="A25" s="227"/>
       <c r="B25" s="14" t="s">
         <v>180</v>
       </c>
@@ -6409,7 +6824,7 @@
       <c r="K25" s="76" t="s">
         <v>190</v>
       </c>
-      <c r="L25" s="215"/>
+      <c r="L25" s="227"/>
       <c r="M25" s="76" t="s">
         <v>191</v>
       </c>
@@ -6422,7 +6837,7 @@
       <c r="P25" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="Q25" s="215"/>
+      <c r="Q25" s="227"/>
       <c r="R25" s="27"/>
       <c r="S25" s="27"/>
       <c r="T25" s="27"/>
@@ -6432,7 +6847,7 @@
       <c r="X25" s="27"/>
     </row>
     <row r="26" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="215"/>
+      <c r="A26" s="227"/>
       <c r="B26" s="14" t="s">
         <v>195</v>
       </c>
@@ -6466,7 +6881,7 @@
         <f>E26/E26</f>
         <v>1</v>
       </c>
-      <c r="L26" s="215"/>
+      <c r="L26" s="227"/>
       <c r="M26" s="77">
         <v>1</v>
       </c>
@@ -6479,7 +6894,7 @@
       <c r="P26" s="81">
         <v>0.2</v>
       </c>
-      <c r="Q26" s="215"/>
+      <c r="Q26" s="227"/>
       <c r="R26" s="43"/>
       <c r="U26" s="43"/>
       <c r="V26" s="43"/>
@@ -6487,7 +6902,7 @@
       <c r="X26" s="10"/>
     </row>
     <row r="27" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="215"/>
+      <c r="A27" s="227"/>
       <c r="B27" s="14"/>
       <c r="C27" s="45"/>
       <c r="D27" s="77">
@@ -6518,7 +6933,7 @@
         <f t="shared" ref="K27:K33" si="11">E27/E$26</f>
         <v>2</v>
       </c>
-      <c r="L27" s="215"/>
+      <c r="L27" s="227"/>
       <c r="M27" s="77">
         <v>2</v>
       </c>
@@ -6531,7 +6946,7 @@
       <c r="P27" s="81">
         <v>0.4</v>
       </c>
-      <c r="Q27" s="215"/>
+      <c r="Q27" s="227"/>
       <c r="R27" s="43"/>
       <c r="U27" s="43"/>
       <c r="V27" s="43"/>
@@ -6539,7 +6954,7 @@
       <c r="X27" s="10"/>
     </row>
     <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="215"/>
+      <c r="A28" s="227"/>
       <c r="B28" s="14"/>
       <c r="C28" s="45"/>
       <c r="D28" s="77">
@@ -6572,7 +6987,7 @@
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="L28" s="215"/>
+      <c r="L28" s="227"/>
       <c r="M28" s="77">
         <v>3</v>
       </c>
@@ -6585,7 +7000,7 @@
       <c r="P28" s="81">
         <v>0.6</v>
       </c>
-      <c r="Q28" s="215"/>
+      <c r="Q28" s="227"/>
       <c r="R28" s="43"/>
       <c r="U28" s="43"/>
       <c r="V28" s="43"/>
@@ -6593,7 +7008,7 @@
       <c r="X28" s="10"/>
     </row>
     <row r="29" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="215"/>
+      <c r="A29" s="227"/>
       <c r="B29" s="14"/>
       <c r="C29" s="45"/>
       <c r="D29" s="77">
@@ -6624,7 +7039,7 @@
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="L29" s="215"/>
+      <c r="L29" s="227"/>
       <c r="M29" s="77">
         <v>4</v>
       </c>
@@ -6637,13 +7052,13 @@
       <c r="P29" s="81">
         <v>0.8</v>
       </c>
-      <c r="Q29" s="215"/>
+      <c r="Q29" s="227"/>
       <c r="R29" s="43"/>
       <c r="U29" s="43"/>
       <c r="V29" s="43"/>
     </row>
     <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="215"/>
+      <c r="A30" s="227"/>
       <c r="B30" s="14"/>
       <c r="C30" s="45"/>
       <c r="D30" s="77">
@@ -6676,7 +7091,7 @@
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="L30" s="215"/>
+      <c r="L30" s="227"/>
       <c r="M30" s="77">
         <v>5</v>
       </c>
@@ -6689,13 +7104,13 @@
       <c r="P30" s="81">
         <v>1</v>
       </c>
-      <c r="Q30" s="215"/>
+      <c r="Q30" s="227"/>
       <c r="R30" s="43"/>
       <c r="U30" s="43"/>
       <c r="V30" s="43"/>
     </row>
     <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="215"/>
+      <c r="A31" s="227"/>
       <c r="B31" s="14"/>
       <c r="C31" s="45"/>
       <c r="D31" s="77">
@@ -6726,7 +7141,7 @@
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="L31" s="215"/>
+      <c r="L31" s="227"/>
       <c r="M31" s="77">
         <v>6</v>
       </c>
@@ -6739,13 +7154,13 @@
       <c r="P31" s="81">
         <v>1.2</v>
       </c>
-      <c r="Q31" s="215"/>
+      <c r="Q31" s="227"/>
       <c r="R31" s="43"/>
       <c r="U31" s="43"/>
       <c r="V31" s="43"/>
     </row>
     <row r="32" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="215"/>
+      <c r="A32" s="227"/>
       <c r="B32" s="14"/>
       <c r="C32" s="45"/>
       <c r="D32" s="77">
@@ -6778,7 +7193,7 @@
         <f t="shared" si="11"/>
         <v>13.999999999999998</v>
       </c>
-      <c r="L32" s="215"/>
+      <c r="L32" s="227"/>
       <c r="M32" s="77">
         <v>7</v>
       </c>
@@ -6791,13 +7206,13 @@
       <c r="P32" s="81">
         <v>1.6</v>
       </c>
-      <c r="Q32" s="215"/>
+      <c r="Q32" s="227"/>
       <c r="R32" s="43"/>
       <c r="U32" s="43"/>
       <c r="V32" s="43"/>
     </row>
     <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="215"/>
+      <c r="A33" s="227"/>
       <c r="B33" s="14"/>
       <c r="C33" s="45"/>
       <c r="D33" s="77">
@@ -6830,7 +7245,7 @@
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="L33" s="215"/>
+      <c r="L33" s="227"/>
       <c r="M33" s="77">
         <v>8</v>
       </c>
@@ -6843,55 +7258,55 @@
       <c r="P33" s="81">
         <v>2</v>
       </c>
-      <c r="Q33" s="215"/>
+      <c r="Q33" s="227"/>
       <c r="R33" s="43"/>
       <c r="U33" s="43"/>
       <c r="V33" s="43"/>
     </row>
     <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="215"/>
-      <c r="B34" s="214"/>
-      <c r="C34" s="215"/>
-      <c r="D34" s="219"/>
-      <c r="E34" s="215"/>
-      <c r="F34" s="215"/>
-      <c r="G34" s="215"/>
+      <c r="A34" s="227"/>
+      <c r="B34" s="230"/>
+      <c r="C34" s="227"/>
+      <c r="D34" s="231"/>
+      <c r="E34" s="227"/>
+      <c r="F34" s="227"/>
+      <c r="G34" s="227"/>
       <c r="H34" s="56"/>
       <c r="I34" s="56"/>
       <c r="J34" s="56"/>
       <c r="K34" s="56"/>
-      <c r="L34" s="215"/>
-      <c r="M34" s="219"/>
-      <c r="N34" s="215"/>
-      <c r="O34" s="215"/>
-      <c r="P34" s="215"/>
-      <c r="Q34" s="215"/>
+      <c r="L34" s="227"/>
+      <c r="M34" s="231"/>
+      <c r="N34" s="227"/>
+      <c r="O34" s="227"/>
+      <c r="P34" s="227"/>
+      <c r="Q34" s="227"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="215"/>
-      <c r="B35" s="217"/>
-      <c r="C35" s="215"/>
-      <c r="D35" s="221" t="s">
+      <c r="A35" s="227"/>
+      <c r="B35" s="229"/>
+      <c r="C35" s="227"/>
+      <c r="D35" s="237" t="s">
         <v>238</v>
       </c>
-      <c r="E35" s="215"/>
-      <c r="F35" s="215"/>
-      <c r="G35" s="215"/>
+      <c r="E35" s="227"/>
+      <c r="F35" s="227"/>
+      <c r="G35" s="227"/>
       <c r="H35" s="96"/>
       <c r="I35" s="96"/>
       <c r="J35" s="96"/>
       <c r="K35" s="96"/>
-      <c r="L35" s="215"/>
-      <c r="M35" s="221" t="s">
+      <c r="L35" s="227"/>
+      <c r="M35" s="237" t="s">
         <v>239</v>
       </c>
-      <c r="N35" s="215"/>
-      <c r="O35" s="215"/>
-      <c r="P35" s="215"/>
-      <c r="Q35" s="215"/>
+      <c r="N35" s="227"/>
+      <c r="O35" s="227"/>
+      <c r="P35" s="227"/>
+      <c r="Q35" s="227"/>
     </row>
     <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="215"/>
+      <c r="A36" s="227"/>
       <c r="B36" s="14"/>
       <c r="C36" s="45"/>
       <c r="D36" s="97" t="s">
@@ -6910,7 +7325,7 @@
       <c r="I36" s="97"/>
       <c r="J36" s="97"/>
       <c r="K36" s="97"/>
-      <c r="L36" s="215"/>
+      <c r="L36" s="227"/>
       <c r="M36" s="97" t="s">
         <v>244</v>
       </c>
@@ -6919,10 +7334,10 @@
       </c>
       <c r="O36" s="97"/>
       <c r="P36" s="97"/>
-      <c r="Q36" s="215"/>
+      <c r="Q36" s="227"/>
     </row>
     <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="215"/>
+      <c r="A37" s="227"/>
       <c r="B37" s="14"/>
       <c r="C37" s="45"/>
       <c r="D37" s="99">
@@ -6940,7 +7355,7 @@
       <c r="I37" s="53"/>
       <c r="J37" s="53"/>
       <c r="K37" s="53"/>
-      <c r="L37" s="215"/>
+      <c r="L37" s="227"/>
       <c r="M37" s="99">
         <v>1</v>
       </c>
@@ -6949,10 +7364,10 @@
       </c>
       <c r="O37" s="53"/>
       <c r="P37" s="53"/>
-      <c r="Q37" s="215"/>
+      <c r="Q37" s="227"/>
     </row>
     <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="215"/>
+      <c r="A38" s="227"/>
       <c r="B38" s="14"/>
       <c r="C38" s="45"/>
       <c r="D38" s="99">
@@ -6971,7 +7386,7 @@
       <c r="I38" s="53"/>
       <c r="J38" s="53"/>
       <c r="K38" s="53"/>
-      <c r="L38" s="215"/>
+      <c r="L38" s="227"/>
       <c r="M38" s="99">
         <v>2</v>
       </c>
@@ -6980,10 +7395,10 @@
       </c>
       <c r="O38" s="53"/>
       <c r="P38" s="53"/>
-      <c r="Q38" s="215"/>
+      <c r="Q38" s="227"/>
     </row>
     <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="215"/>
+      <c r="A39" s="227"/>
       <c r="B39" s="14"/>
       <c r="C39" s="45"/>
       <c r="D39" s="99">
@@ -7004,7 +7419,7 @@
       <c r="I39" s="53"/>
       <c r="J39" s="53"/>
       <c r="K39" s="53"/>
-      <c r="L39" s="215"/>
+      <c r="L39" s="227"/>
       <c r="M39" s="99">
         <v>3</v>
       </c>
@@ -7013,10 +7428,10 @@
       </c>
       <c r="O39" s="53"/>
       <c r="P39" s="53"/>
-      <c r="Q39" s="215"/>
+      <c r="Q39" s="227"/>
     </row>
     <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="215"/>
+      <c r="A40" s="227"/>
       <c r="B40" s="14"/>
       <c r="C40" s="45"/>
       <c r="D40" s="99">
@@ -7035,7 +7450,7 @@
       <c r="I40" s="53"/>
       <c r="J40" s="53"/>
       <c r="K40" s="53"/>
-      <c r="L40" s="215"/>
+      <c r="L40" s="227"/>
       <c r="M40" s="99">
         <v>4</v>
       </c>
@@ -7044,10 +7459,10 @@
       </c>
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
-      <c r="Q40" s="215"/>
+      <c r="Q40" s="227"/>
     </row>
     <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="215"/>
+      <c r="A41" s="227"/>
       <c r="B41" s="14"/>
       <c r="C41" s="45"/>
       <c r="D41" s="99">
@@ -7068,7 +7483,7 @@
       <c r="I41" s="53"/>
       <c r="J41" s="53"/>
       <c r="K41" s="53"/>
-      <c r="L41" s="215"/>
+      <c r="L41" s="227"/>
       <c r="M41" s="99">
         <v>5</v>
       </c>
@@ -7077,10 +7492,10 @@
       </c>
       <c r="O41" s="53"/>
       <c r="P41" s="53"/>
-      <c r="Q41" s="215"/>
+      <c r="Q41" s="227"/>
     </row>
     <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="215"/>
+      <c r="A42" s="227"/>
       <c r="B42" s="14"/>
       <c r="C42" s="45"/>
       <c r="D42" s="99">
@@ -7099,7 +7514,7 @@
       <c r="I42" s="53"/>
       <c r="J42" s="53"/>
       <c r="K42" s="53"/>
-      <c r="L42" s="215"/>
+      <c r="L42" s="227"/>
       <c r="M42" s="99">
         <v>6</v>
       </c>
@@ -7108,10 +7523,10 @@
       </c>
       <c r="O42" s="53"/>
       <c r="P42" s="53"/>
-      <c r="Q42" s="215"/>
+      <c r="Q42" s="227"/>
     </row>
     <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="215"/>
+      <c r="A43" s="227"/>
       <c r="B43" s="14"/>
       <c r="C43" s="45"/>
       <c r="D43" s="99">
@@ -7132,7 +7547,7 @@
       <c r="I43" s="53"/>
       <c r="J43" s="53"/>
       <c r="K43" s="53"/>
-      <c r="L43" s="215"/>
+      <c r="L43" s="227"/>
       <c r="M43" s="99">
         <v>7</v>
       </c>
@@ -7141,10 +7556,10 @@
       </c>
       <c r="O43" s="53"/>
       <c r="P43" s="53"/>
-      <c r="Q43" s="215"/>
+      <c r="Q43" s="227"/>
     </row>
     <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="215"/>
+      <c r="A44" s="227"/>
       <c r="B44" s="14"/>
       <c r="C44" s="45"/>
       <c r="D44" s="99">
@@ -7165,7 +7580,7 @@
       <c r="I44" s="53"/>
       <c r="J44" s="53"/>
       <c r="K44" s="53"/>
-      <c r="L44" s="215"/>
+      <c r="L44" s="227"/>
       <c r="M44" s="99">
         <v>8</v>
       </c>
@@ -7174,52 +7589,52 @@
       </c>
       <c r="O44" s="53"/>
       <c r="P44" s="53"/>
-      <c r="Q44" s="215"/>
+      <c r="Q44" s="227"/>
     </row>
     <row r="45" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="215"/>
-      <c r="B45" s="214"/>
-      <c r="C45" s="215"/>
-      <c r="D45" s="219"/>
-      <c r="E45" s="215"/>
-      <c r="F45" s="215"/>
-      <c r="G45" s="215"/>
+      <c r="A45" s="227"/>
+      <c r="B45" s="230"/>
+      <c r="C45" s="227"/>
+      <c r="D45" s="231"/>
+      <c r="E45" s="227"/>
+      <c r="F45" s="227"/>
+      <c r="G45" s="227"/>
       <c r="H45" s="56"/>
       <c r="I45" s="56"/>
       <c r="J45" s="56"/>
       <c r="K45" s="56"/>
-      <c r="L45" s="215"/>
-      <c r="M45" s="219"/>
-      <c r="N45" s="215"/>
-      <c r="O45" s="215"/>
-      <c r="P45" s="215"/>
-      <c r="Q45" s="215"/>
+      <c r="L45" s="227"/>
+      <c r="M45" s="231"/>
+      <c r="N45" s="227"/>
+      <c r="O45" s="227"/>
+      <c r="P45" s="227"/>
+      <c r="Q45" s="227"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="215"/>
-      <c r="B46" s="217"/>
-      <c r="C46" s="215"/>
-      <c r="D46" s="218" t="s">
+      <c r="A46" s="227"/>
+      <c r="B46" s="229"/>
+      <c r="C46" s="227"/>
+      <c r="D46" s="239" t="s">
         <v>258</v>
       </c>
-      <c r="E46" s="215"/>
-      <c r="F46" s="215"/>
-      <c r="G46" s="215"/>
+      <c r="E46" s="227"/>
+      <c r="F46" s="227"/>
+      <c r="G46" s="227"/>
       <c r="H46" s="106"/>
       <c r="I46" s="106"/>
       <c r="J46" s="106"/>
       <c r="K46" s="106"/>
-      <c r="L46" s="215"/>
-      <c r="M46" s="218" t="s">
+      <c r="L46" s="227"/>
+      <c r="M46" s="239" t="s">
         <v>262</v>
       </c>
-      <c r="N46" s="215"/>
-      <c r="O46" s="215"/>
-      <c r="P46" s="215"/>
-      <c r="Q46" s="215"/>
+      <c r="N46" s="227"/>
+      <c r="O46" s="227"/>
+      <c r="P46" s="227"/>
+      <c r="Q46" s="227"/>
     </row>
     <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="215"/>
+      <c r="A47" s="227"/>
       <c r="B47" s="14"/>
       <c r="C47" s="45"/>
       <c r="D47" s="108" t="s">
@@ -7236,7 +7651,7 @@
       <c r="I47" s="108"/>
       <c r="J47" s="108"/>
       <c r="K47" s="108"/>
-      <c r="L47" s="215"/>
+      <c r="L47" s="227"/>
       <c r="M47" s="108" t="s">
         <v>273</v>
       </c>
@@ -7245,10 +7660,10 @@
       </c>
       <c r="O47" s="108"/>
       <c r="P47" s="108"/>
-      <c r="Q47" s="215"/>
+      <c r="Q47" s="227"/>
     </row>
     <row r="48" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="215"/>
+      <c r="A48" s="227"/>
       <c r="B48" s="14"/>
       <c r="C48" s="45"/>
       <c r="D48" s="110">
@@ -7263,7 +7678,7 @@
       <c r="I48" s="113"/>
       <c r="J48" s="113"/>
       <c r="K48" s="113"/>
-      <c r="L48" s="215"/>
+      <c r="L48" s="227"/>
       <c r="M48" s="110">
         <v>1</v>
       </c>
@@ -7272,10 +7687,10 @@
       </c>
       <c r="O48" s="113"/>
       <c r="P48" s="113"/>
-      <c r="Q48" s="215"/>
+      <c r="Q48" s="227"/>
     </row>
     <row r="49" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="215"/>
+      <c r="A49" s="227"/>
       <c r="B49" s="14"/>
       <c r="C49" s="45"/>
       <c r="D49" s="110">
@@ -7291,7 +7706,7 @@
       <c r="I49" s="113"/>
       <c r="J49" s="113"/>
       <c r="K49" s="113"/>
-      <c r="L49" s="215"/>
+      <c r="L49" s="227"/>
       <c r="M49" s="110">
         <v>2</v>
       </c>
@@ -7300,10 +7715,10 @@
       </c>
       <c r="O49" s="113"/>
       <c r="P49" s="113"/>
-      <c r="Q49" s="215"/>
+      <c r="Q49" s="227"/>
     </row>
     <row r="50" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="215"/>
+      <c r="A50" s="227"/>
       <c r="B50" s="14"/>
       <c r="C50" s="45"/>
       <c r="D50" s="110">
@@ -7321,7 +7736,7 @@
       <c r="I50" s="113"/>
       <c r="J50" s="113"/>
       <c r="K50" s="113"/>
-      <c r="L50" s="215"/>
+      <c r="L50" s="227"/>
       <c r="M50" s="110">
         <v>3</v>
       </c>
@@ -7330,10 +7745,10 @@
       </c>
       <c r="O50" s="113"/>
       <c r="P50" s="113"/>
-      <c r="Q50" s="215"/>
+      <c r="Q50" s="227"/>
     </row>
     <row r="51" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="215"/>
+      <c r="A51" s="227"/>
       <c r="B51" s="14"/>
       <c r="C51" s="45"/>
       <c r="D51" s="110">
@@ -7349,7 +7764,7 @@
       <c r="I51" s="113"/>
       <c r="J51" s="113"/>
       <c r="K51" s="113"/>
-      <c r="L51" s="215"/>
+      <c r="L51" s="227"/>
       <c r="M51" s="110">
         <v>4</v>
       </c>
@@ -7358,10 +7773,10 @@
       </c>
       <c r="O51" s="113"/>
       <c r="P51" s="113"/>
-      <c r="Q51" s="215"/>
+      <c r="Q51" s="227"/>
     </row>
     <row r="52" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="215"/>
+      <c r="A52" s="227"/>
       <c r="B52" s="14"/>
       <c r="C52" s="45"/>
       <c r="D52" s="110">
@@ -7379,7 +7794,7 @@
       <c r="I52" s="113"/>
       <c r="J52" s="113"/>
       <c r="K52" s="113"/>
-      <c r="L52" s="215"/>
+      <c r="L52" s="227"/>
       <c r="M52" s="110">
         <v>5</v>
       </c>
@@ -7388,10 +7803,10 @@
       </c>
       <c r="O52" s="113"/>
       <c r="P52" s="113"/>
-      <c r="Q52" s="215"/>
+      <c r="Q52" s="227"/>
     </row>
     <row r="53" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="215"/>
+      <c r="A53" s="227"/>
       <c r="B53" s="14"/>
       <c r="C53" s="45"/>
       <c r="D53" s="110">
@@ -7407,7 +7822,7 @@
       <c r="I53" s="113"/>
       <c r="J53" s="113"/>
       <c r="K53" s="113"/>
-      <c r="L53" s="215"/>
+      <c r="L53" s="227"/>
       <c r="M53" s="110">
         <v>6</v>
       </c>
@@ -7416,10 +7831,10 @@
       </c>
       <c r="O53" s="113"/>
       <c r="P53" s="113"/>
-      <c r="Q53" s="215"/>
+      <c r="Q53" s="227"/>
     </row>
     <row r="54" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="215"/>
+      <c r="A54" s="227"/>
       <c r="B54" s="14"/>
       <c r="C54" s="45"/>
       <c r="D54" s="110">
@@ -7437,7 +7852,7 @@
       <c r="I54" s="113"/>
       <c r="J54" s="113"/>
       <c r="K54" s="113"/>
-      <c r="L54" s="215"/>
+      <c r="L54" s="227"/>
       <c r="M54" s="110">
         <v>7</v>
       </c>
@@ -7446,10 +7861,10 @@
       </c>
       <c r="O54" s="113"/>
       <c r="P54" s="113"/>
-      <c r="Q54" s="215"/>
+      <c r="Q54" s="227"/>
     </row>
     <row r="55" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="215"/>
+      <c r="A55" s="227"/>
       <c r="B55" s="14"/>
       <c r="C55" s="45"/>
       <c r="D55" s="110">
@@ -7467,7 +7882,7 @@
       <c r="I55" s="113"/>
       <c r="J55" s="113"/>
       <c r="K55" s="113"/>
-      <c r="L55" s="215"/>
+      <c r="L55" s="227"/>
       <c r="M55" s="110">
         <v>8</v>
       </c>
@@ -7476,46 +7891,34 @@
       </c>
       <c r="O55" s="113"/>
       <c r="P55" s="113"/>
-      <c r="Q55" s="215"/>
+      <c r="Q55" s="227"/>
     </row>
     <row r="56" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="215"/>
+      <c r="A56" s="227"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="216"/>
-      <c r="E56" s="215"/>
-      <c r="F56" s="215"/>
-      <c r="G56" s="215"/>
-      <c r="H56" s="215"/>
-      <c r="I56" s="215"/>
-      <c r="J56" s="215"/>
-      <c r="K56" s="215"/>
-      <c r="L56" s="215"/>
-      <c r="M56" s="215"/>
-      <c r="N56" s="215"/>
-      <c r="O56" s="215"/>
-      <c r="P56" s="215"/>
-      <c r="Q56" s="215"/>
+      <c r="D56" s="238"/>
+      <c r="E56" s="227"/>
+      <c r="F56" s="227"/>
+      <c r="G56" s="227"/>
+      <c r="H56" s="227"/>
+      <c r="I56" s="227"/>
+      <c r="J56" s="227"/>
+      <c r="K56" s="227"/>
+      <c r="L56" s="227"/>
+      <c r="M56" s="227"/>
+      <c r="N56" s="227"/>
+      <c r="O56" s="227"/>
+      <c r="P56" s="227"/>
+      <c r="Q56" s="227"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D56:P56"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D45:G45"/>
     <mergeCell ref="M34:P34"/>
     <mergeCell ref="L2:L55"/>
     <mergeCell ref="M35:P35"/>
@@ -7532,11 +7935,23 @@
     <mergeCell ref="D35:G35"/>
     <mergeCell ref="M12:P12"/>
     <mergeCell ref="M13:P13"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D56:P56"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7545,6 +7960,354 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:P42"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12:L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="143" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="143" customWidth="1"/>
+    <col min="3" max="8" width="9.140625" style="143"/>
+    <col min="9" max="9" width="15.7109375" style="143" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="143" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="143" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="143" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="143" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="143"/>
+    <col min="15" max="15" width="18.5703125" style="143" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="143"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="8:16" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H4" s="183" t="s">
+        <v>364</v>
+      </c>
+      <c r="I4" s="119" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="8:16" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H5" s="183" t="s">
+        <v>371</v>
+      </c>
+      <c r="I5" s="119" t="s">
+        <v>366</v>
+      </c>
+      <c r="J5" s="119" t="s">
+        <v>367</v>
+      </c>
+      <c r="K5" s="119" t="s">
+        <v>368</v>
+      </c>
+      <c r="L5" s="119" t="s">
+        <v>369</v>
+      </c>
+      <c r="M5" s="119" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="8:16" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H6" s="183" t="s">
+        <v>382</v>
+      </c>
+      <c r="I6" s="119" t="s">
+        <v>372</v>
+      </c>
+      <c r="J6" s="119" t="s">
+        <v>373</v>
+      </c>
+      <c r="K6" s="119" t="s">
+        <v>374</v>
+      </c>
+      <c r="L6" s="119" t="s">
+        <v>375</v>
+      </c>
+      <c r="M6" s="119" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="7" spans="8:16" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H7" s="183" t="s">
+        <v>383</v>
+      </c>
+      <c r="I7" s="119" t="s">
+        <v>377</v>
+      </c>
+      <c r="J7" s="119" t="s">
+        <v>378</v>
+      </c>
+      <c r="K7" s="119" t="s">
+        <v>379</v>
+      </c>
+      <c r="L7" s="119" t="s">
+        <v>380</v>
+      </c>
+      <c r="M7" s="119" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="10" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="I10" s="178" t="s">
+        <v>364</v>
+      </c>
+      <c r="K10" s="178" t="s">
+        <v>387</v>
+      </c>
+      <c r="M10" s="178" t="s">
+        <v>382</v>
+      </c>
+      <c r="O10" s="119" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="11" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="I11" s="184" t="s">
+        <v>384</v>
+      </c>
+      <c r="J11" s="184" t="s">
+        <v>385</v>
+      </c>
+      <c r="K11" s="184" t="s">
+        <v>388</v>
+      </c>
+      <c r="L11" s="184" t="s">
+        <v>385</v>
+      </c>
+      <c r="M11" s="184" t="s">
+        <v>388</v>
+      </c>
+      <c r="N11" s="184" t="s">
+        <v>385</v>
+      </c>
+      <c r="O11" s="184" t="s">
+        <v>388</v>
+      </c>
+      <c r="P11" s="184" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="12" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="I12" s="178" t="s">
+        <v>365</v>
+      </c>
+      <c r="J12" s="119" t="s">
+        <v>386</v>
+      </c>
+      <c r="K12" s="178" t="s">
+        <v>366</v>
+      </c>
+      <c r="L12" s="143">
+        <v>20</v>
+      </c>
+      <c r="M12" s="178" t="s">
+        <v>372</v>
+      </c>
+      <c r="N12" s="143">
+        <v>32</v>
+      </c>
+      <c r="O12" s="178" t="s">
+        <v>377</v>
+      </c>
+      <c r="P12" s="143">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="K13" s="178" t="s">
+        <v>367</v>
+      </c>
+      <c r="L13" s="143">
+        <v>35</v>
+      </c>
+      <c r="M13" s="178" t="s">
+        <v>373</v>
+      </c>
+      <c r="N13" s="143">
+        <v>56</v>
+      </c>
+      <c r="O13" s="178" t="s">
+        <v>378</v>
+      </c>
+      <c r="P13" s="143">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="K14" s="178" t="s">
+        <v>369</v>
+      </c>
+      <c r="L14" s="143">
+        <v>60</v>
+      </c>
+      <c r="M14" s="119" t="s">
+        <v>375</v>
+      </c>
+      <c r="N14" s="143">
+        <v>96</v>
+      </c>
+      <c r="O14" s="178" t="s">
+        <v>380</v>
+      </c>
+      <c r="P14" s="143">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="K15" s="178" t="s">
+        <v>368</v>
+      </c>
+      <c r="L15" s="143">
+        <v>100</v>
+      </c>
+      <c r="M15" s="178" t="s">
+        <v>374</v>
+      </c>
+      <c r="N15" s="143">
+        <v>160</v>
+      </c>
+      <c r="O15" s="178" t="s">
+        <v>379</v>
+      </c>
+      <c r="P15" s="143">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="K16" s="178" t="s">
+        <v>370</v>
+      </c>
+      <c r="L16" s="143">
+        <v>140</v>
+      </c>
+      <c r="M16" s="178" t="s">
+        <v>376</v>
+      </c>
+      <c r="N16" s="143">
+        <v>224</v>
+      </c>
+      <c r="O16" s="178" t="s">
+        <v>381</v>
+      </c>
+      <c r="P16" s="143">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="244" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="227"/>
+      <c r="C26" s="227"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="243"/>
+      <c r="B27" s="227"/>
+      <c r="C27" s="50"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="243"/>
+      <c r="B28" s="227"/>
+      <c r="C28" s="51"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="243"/>
+      <c r="B29" s="227"/>
+      <c r="C29" s="121"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="243"/>
+      <c r="B30" s="227"/>
+      <c r="C30" s="53"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="243"/>
+      <c r="B31" s="227"/>
+      <c r="C31" s="53"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="241"/>
+      <c r="B32" s="227"/>
+      <c r="C32" s="121"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="240"/>
+      <c r="B33" s="227"/>
+      <c r="C33" s="53"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="240"/>
+      <c r="B34" s="227"/>
+      <c r="C34" s="53"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="240"/>
+      <c r="B35" s="227"/>
+      <c r="C35" s="53"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="240"/>
+      <c r="B36" s="227"/>
+      <c r="C36" s="53"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="240"/>
+      <c r="B37" s="227"/>
+      <c r="C37" s="53"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="240"/>
+      <c r="B38" s="227"/>
+      <c r="C38" s="53"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="240"/>
+      <c r="B39" s="227"/>
+      <c r="C39" s="53"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="240"/>
+      <c r="B40" s="227"/>
+      <c r="C40" s="53"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="240"/>
+      <c r="B41" s="227"/>
+      <c r="C41" s="53"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="240"/>
+      <c r="B42" s="227"/>
+      <c r="C42" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
@@ -7661,7 +8424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD26"/>
   <sheetViews>
@@ -7724,17 +8487,17 @@
       <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="255" t="s">
+      <c r="A3" s="277" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="215"/>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215"/>
+      <c r="B3" s="227"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
+      <c r="F3" s="227"/>
+      <c r="G3" s="227"/>
+      <c r="H3" s="227"/>
+      <c r="I3" s="227"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -7762,20 +8525,20 @@
       <c r="P4" s="19"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="227" t="s">
+      <c r="A5" s="234" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="215"/>
-      <c r="C5" s="215"/>
-      <c r="D5" s="215"/>
-      <c r="E5" s="215"/>
-      <c r="F5" s="215"/>
-      <c r="G5" s="215"/>
-      <c r="H5" s="215"/>
-      <c r="I5" s="215"/>
-      <c r="J5" s="215"/>
-      <c r="K5" s="215"/>
-      <c r="L5" s="215"/>
+      <c r="B5" s="227"/>
+      <c r="C5" s="227"/>
+      <c r="D5" s="227"/>
+      <c r="E5" s="227"/>
+      <c r="F5" s="227"/>
+      <c r="G5" s="227"/>
+      <c r="H5" s="227"/>
+      <c r="I5" s="227"/>
+      <c r="J5" s="227"/>
+      <c r="K5" s="227"/>
+      <c r="L5" s="227"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -7794,10 +8557,10 @@
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
-      <c r="K6" s="254" t="s">
+      <c r="K6" s="276" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="215"/>
+      <c r="L6" s="227"/>
       <c r="M6" s="23"/>
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
@@ -8164,20 +8927,20 @@
       <c r="P13" s="10"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="227" t="s">
+      <c r="A15" s="234" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="215"/>
-      <c r="C15" s="215"/>
-      <c r="D15" s="215"/>
-      <c r="E15" s="215"/>
-      <c r="F15" s="215"/>
-      <c r="G15" s="215"/>
-      <c r="H15" s="215"/>
-      <c r="I15" s="215"/>
-      <c r="J15" s="215"/>
-      <c r="K15" s="215"/>
-      <c r="L15" s="215"/>
+      <c r="B15" s="227"/>
+      <c r="C15" s="227"/>
+      <c r="D15" s="227"/>
+      <c r="E15" s="227"/>
+      <c r="F15" s="227"/>
+      <c r="G15" s="227"/>
+      <c r="H15" s="227"/>
+      <c r="I15" s="227"/>
+      <c r="J15" s="227"/>
+      <c r="K15" s="227"/>
+      <c r="L15" s="227"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
@@ -8208,10 +8971,10 @@
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="K16" s="254" t="s">
+      <c r="K16" s="276" t="s">
         <v>120</v>
       </c>
-      <c r="L16" s="215"/>
+      <c r="L16" s="227"/>
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
@@ -8225,10 +8988,10 @@
       <c r="W16" s="43"/>
       <c r="X16" s="43"/>
       <c r="Y16" s="43"/>
-      <c r="Z16" s="256"/>
-      <c r="AA16" s="215"/>
-      <c r="AB16" s="256"/>
-      <c r="AC16" s="215"/>
+      <c r="Z16" s="278"/>
+      <c r="AA16" s="227"/>
+      <c r="AB16" s="278"/>
+      <c r="AC16" s="227"/>
       <c r="AD16" s="57"/>
     </row>
     <row r="17" spans="1:28" ht="15" x14ac:dyDescent="0.25">
@@ -8626,7 +9389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
@@ -9056,18 +9819,18 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="227" t="s">
+      <c r="B1" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="227"/>
+      <c r="I1" s="227"/>
+      <c r="J1" s="227"/>
+      <c r="K1" s="227"/>
       <c r="L1" s="12"/>
       <c r="M1" s="117"/>
       <c r="N1" s="117"/>
@@ -9466,11 +10229,11 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="230" t="s">
+      <c r="A9" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="215"/>
-      <c r="C9" s="215"/>
+      <c r="B9" s="227"/>
+      <c r="C9" s="227"/>
       <c r="M9" s="140" t="s">
         <v>293</v>
       </c>
@@ -9480,10 +10243,10 @@
       <c r="O9" s="140"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="228" t="s">
+      <c r="A10" s="243" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="215"/>
+      <c r="B10" s="227"/>
       <c r="C10" s="50">
         <f>C4*14/5100</f>
         <v>1.6016000000000001</v>
@@ -9495,20 +10258,20 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="228" t="s">
+      <c r="A11" s="243" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="215"/>
+      <c r="B11" s="227"/>
       <c r="C11" s="51">
         <v>1</v>
       </c>
       <c r="D11" s="51"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="228" t="s">
+      <c r="A12" s="243" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="215"/>
+      <c r="B12" s="227"/>
       <c r="C12" s="121">
         <v>1.55</v>
       </c>
@@ -9520,10 +10283,10 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="228" t="s">
+      <c r="A13" s="243" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="215"/>
+      <c r="B13" s="227"/>
       <c r="C13" s="53">
         <v>0.8</v>
       </c>
@@ -9539,10 +10302,10 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="228" t="s">
+      <c r="A14" s="243" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="215"/>
+      <c r="B14" s="227"/>
       <c r="C14" s="53">
         <v>10</v>
       </c>
@@ -9557,10 +10320,10 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="231" t="s">
+      <c r="A15" s="241" t="s">
         <v>311</v>
       </c>
-      <c r="B15" s="215"/>
+      <c r="B15" s="227"/>
       <c r="C15" s="121">
         <v>1.3</v>
       </c>
@@ -9579,10 +10342,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="232" t="s">
+      <c r="A16" s="242" t="s">
         <v>312</v>
       </c>
-      <c r="B16" s="215"/>
+      <c r="B16" s="227"/>
       <c r="C16" s="138">
         <v>1.1000000000000001</v>
       </c>
@@ -9598,10 +10361,10 @@
       <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="232" t="s">
+      <c r="A17" s="242" t="s">
         <v>310</v>
       </c>
-      <c r="B17" s="215"/>
+      <c r="B17" s="227"/>
       <c r="C17" s="138">
         <v>1</v>
       </c>
@@ -9617,8 +10380,8 @@
       <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="229"/>
-      <c r="B18" s="215"/>
+      <c r="A18" s="240"/>
+      <c r="B18" s="227"/>
       <c r="C18" s="53"/>
       <c r="D18" s="53"/>
       <c r="E18" s="10">
@@ -9632,8 +10395,8 @@
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="229"/>
-      <c r="B19" s="215"/>
+      <c r="A19" s="240"/>
+      <c r="B19" s="227"/>
       <c r="C19" s="53"/>
       <c r="D19" s="53"/>
     </row>
@@ -9723,11 +10486,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A10:B10"/>
@@ -9735,6 +10493,11 @@
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9748,7 +10511,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:C26"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9763,13 +10526,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="D1" s="233" t="s">
+      <c r="D1" s="245" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="233"/>
-      <c r="F1" s="233"/>
-      <c r="G1" s="233"/>
-      <c r="H1" s="233"/>
+      <c r="E1" s="245"/>
+      <c r="F1" s="245"/>
+      <c r="G1" s="245"/>
+      <c r="H1" s="245"/>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="D2" s="130" t="s">
@@ -10093,96 +10856,101 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="230" t="s">
+      <c r="A26" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="215"/>
-      <c r="C26" s="215"/>
+      <c r="B26" s="227"/>
+      <c r="C26" s="227"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="231" t="s">
+      <c r="A27" s="241" t="s">
         <v>302</v>
       </c>
-      <c r="B27" s="215"/>
+      <c r="B27" s="227"/>
       <c r="C27" s="129">
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="231"/>
-      <c r="B28" s="215"/>
+      <c r="A28" s="241"/>
+      <c r="B28" s="227"/>
       <c r="C28" s="139"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="231" t="s">
+      <c r="A29" s="241" t="s">
         <v>303</v>
       </c>
-      <c r="B29" s="215"/>
+      <c r="B29" s="227"/>
       <c r="C29" s="121">
         <v>0.79</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="231" t="s">
+      <c r="A30" s="241" t="s">
         <v>299</v>
       </c>
-      <c r="B30" s="231"/>
+      <c r="B30" s="241"/>
       <c r="C30" s="138">
         <f>C29*C$34</f>
         <v>1.1850000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="231" t="s">
+      <c r="A31" s="241" t="s">
         <v>298</v>
       </c>
-      <c r="B31" s="231"/>
+      <c r="B31" s="241"/>
       <c r="C31" s="138">
         <f t="shared" ref="C31:C33" si="5">C30*C$34</f>
         <v>1.7775000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="231" t="s">
+      <c r="A32" s="241" t="s">
         <v>300</v>
       </c>
-      <c r="B32" s="231"/>
+      <c r="B32" s="241"/>
       <c r="C32" s="138">
         <f t="shared" si="5"/>
         <v>2.6662500000000002</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="232" t="s">
+      <c r="A33" s="242" t="s">
         <v>301</v>
       </c>
-      <c r="B33" s="229"/>
+      <c r="B33" s="240"/>
       <c r="C33" s="138">
         <f t="shared" si="5"/>
         <v>3.9993750000000006</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="232" t="s">
+      <c r="A34" s="242" t="s">
         <v>304</v>
       </c>
-      <c r="B34" s="215"/>
+      <c r="B34" s="227"/>
       <c r="C34" s="53">
         <v>1.5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="229"/>
-      <c r="B35" s="215"/>
+      <c r="A35" s="240"/>
+      <c r="B35" s="227"/>
       <c r="C35" s="53"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="229"/>
-      <c r="B36" s="215"/>
+      <c r="A36" s="240"/>
+      <c r="B36" s="227"/>
       <c r="C36" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="D1:H1"/>
@@ -10190,11 +10958,6 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10202,10 +10965,2916 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BY49"/>
+  <sheetViews>
+    <sheetView topLeftCell="AQ3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BO43" sqref="BO43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" customWidth="1"/>
+    <col min="23" max="23" width="4" customWidth="1"/>
+    <col min="26" max="26" width="4.28515625" customWidth="1"/>
+    <col min="29" max="29" width="4.28515625" customWidth="1"/>
+    <col min="35" max="35" width="14.28515625" customWidth="1"/>
+    <col min="40" max="40" width="4.28515625" customWidth="1"/>
+    <col min="43" max="43" width="4.28515625" customWidth="1"/>
+    <col min="46" max="46" width="4.28515625" customWidth="1"/>
+    <col min="53" max="53" width="18.28515625" customWidth="1"/>
+    <col min="58" max="58" width="4.28515625" customWidth="1"/>
+    <col min="61" max="61" width="4.28515625" customWidth="1"/>
+    <col min="64" max="64" width="4.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BN1" s="119" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:77" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:77" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="144" t="s">
+        <v>333</v>
+      </c>
+      <c r="D3" s="247" t="s">
+        <v>419</v>
+      </c>
+      <c r="E3" s="248"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="220"/>
+      <c r="U3" s="247" t="s">
+        <v>443</v>
+      </c>
+      <c r="V3" s="251"/>
+      <c r="W3" s="252"/>
+      <c r="AL3" s="247" t="s">
+        <v>420</v>
+      </c>
+      <c r="AM3" s="251"/>
+      <c r="AN3" s="252"/>
+    </row>
+    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A6" s="147" t="s">
+        <v>384</v>
+      </c>
+      <c r="B6" s="146"/>
+      <c r="C6" s="147" t="s">
+        <v>334</v>
+      </c>
+      <c r="D6" s="146"/>
+      <c r="E6" s="147" t="s">
+        <v>336</v>
+      </c>
+      <c r="F6" s="146"/>
+      <c r="G6" s="174" t="s">
+        <v>335</v>
+      </c>
+      <c r="H6" s="174" t="s">
+        <v>335</v>
+      </c>
+      <c r="I6" s="146"/>
+      <c r="J6" s="174" t="s">
+        <v>335</v>
+      </c>
+      <c r="K6" s="174" t="s">
+        <v>343</v>
+      </c>
+      <c r="L6" s="146"/>
+      <c r="M6" s="174" t="s">
+        <v>337</v>
+      </c>
+      <c r="N6" s="174" t="s">
+        <v>338</v>
+      </c>
+      <c r="R6" s="147" t="s">
+        <v>384</v>
+      </c>
+      <c r="S6" s="146"/>
+      <c r="T6" s="147" t="s">
+        <v>334</v>
+      </c>
+      <c r="U6" s="146"/>
+      <c r="V6" s="147" t="s">
+        <v>336</v>
+      </c>
+      <c r="W6" s="146"/>
+      <c r="X6" s="174" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y6" s="174" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z6" s="146"/>
+      <c r="AA6" s="174" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB6" s="174" t="s">
+        <v>343</v>
+      </c>
+      <c r="AC6" s="146"/>
+      <c r="AD6" s="174" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE6" s="174" t="s">
+        <v>338</v>
+      </c>
+      <c r="AI6" s="147" t="s">
+        <v>384</v>
+      </c>
+      <c r="AJ6" s="146"/>
+      <c r="AK6" s="147" t="s">
+        <v>334</v>
+      </c>
+      <c r="AL6" s="146"/>
+      <c r="AM6" s="147" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN6" s="146"/>
+      <c r="AO6" s="174" t="s">
+        <v>335</v>
+      </c>
+      <c r="AP6" s="174" t="s">
+        <v>335</v>
+      </c>
+      <c r="AQ6" s="146"/>
+      <c r="AR6" s="174" t="s">
+        <v>335</v>
+      </c>
+      <c r="AS6" s="174" t="s">
+        <v>343</v>
+      </c>
+      <c r="AT6" s="146"/>
+      <c r="AU6" s="174" t="s">
+        <v>337</v>
+      </c>
+      <c r="AV6" s="174" t="s">
+        <v>338</v>
+      </c>
+      <c r="AY6" s="250" t="s">
+        <v>345</v>
+      </c>
+      <c r="AZ6" s="250"/>
+      <c r="BA6" s="166"/>
+      <c r="BB6" s="166"/>
+      <c r="BC6" s="166"/>
+      <c r="BD6" s="166"/>
+      <c r="BE6" s="166"/>
+      <c r="BF6" s="166"/>
+      <c r="BG6" s="166"/>
+      <c r="BH6" s="166"/>
+      <c r="BI6" s="166"/>
+      <c r="BJ6" s="166"/>
+      <c r="BK6" s="166"/>
+      <c r="BL6" s="166"/>
+      <c r="BM6" s="166"/>
+      <c r="BN6" s="166"/>
+      <c r="BO6" s="166"/>
+      <c r="BP6" s="166"/>
+      <c r="BQ6" s="166"/>
+      <c r="BR6" s="166"/>
+      <c r="BS6" s="166"/>
+      <c r="BT6" s="166"/>
+      <c r="BU6" s="166"/>
+      <c r="BV6" s="166"/>
+      <c r="BW6" s="166"/>
+      <c r="BX6" s="166"/>
+      <c r="BY6" s="166"/>
+    </row>
+    <row r="7" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A7" s="146"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="174" t="s">
+        <v>342</v>
+      </c>
+      <c r="H7" s="175" t="s">
+        <v>342</v>
+      </c>
+      <c r="I7" s="153"/>
+      <c r="J7" s="174" t="s">
+        <v>342</v>
+      </c>
+      <c r="K7" s="174" t="s">
+        <v>342</v>
+      </c>
+      <c r="L7" s="153"/>
+      <c r="M7" s="175" t="s">
+        <v>339</v>
+      </c>
+      <c r="N7" s="175" t="s">
+        <v>339</v>
+      </c>
+      <c r="R7" s="146"/>
+      <c r="S7" s="153"/>
+      <c r="T7" s="146"/>
+      <c r="U7" s="146"/>
+      <c r="V7" s="146"/>
+      <c r="W7" s="153"/>
+      <c r="X7" s="174" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y7" s="175" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z7" s="153"/>
+      <c r="AA7" s="174" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB7" s="174" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC7" s="153"/>
+      <c r="AD7" s="175" t="s">
+        <v>339</v>
+      </c>
+      <c r="AE7" s="175" t="s">
+        <v>339</v>
+      </c>
+      <c r="AI7" s="146"/>
+      <c r="AJ7" s="153"/>
+      <c r="AK7" s="146"/>
+      <c r="AL7" s="146"/>
+      <c r="AM7" s="146"/>
+      <c r="AN7" s="153"/>
+      <c r="AO7" s="174" t="s">
+        <v>342</v>
+      </c>
+      <c r="AP7" s="175" t="s">
+        <v>342</v>
+      </c>
+      <c r="AQ7" s="153"/>
+      <c r="AR7" s="174" t="s">
+        <v>342</v>
+      </c>
+      <c r="AS7" s="174" t="s">
+        <v>342</v>
+      </c>
+      <c r="AT7" s="153"/>
+      <c r="AU7" s="175" t="s">
+        <v>339</v>
+      </c>
+      <c r="AV7" s="175" t="s">
+        <v>339</v>
+      </c>
+      <c r="AY7" s="250"/>
+      <c r="AZ7" s="250"/>
+      <c r="BA7" s="166"/>
+      <c r="BB7" s="166"/>
+      <c r="BC7" s="166"/>
+      <c r="BD7" s="166"/>
+      <c r="BE7" s="166"/>
+      <c r="BF7" s="166"/>
+      <c r="BG7" s="166"/>
+      <c r="BH7" s="166"/>
+      <c r="BI7" s="166"/>
+      <c r="BJ7" s="166"/>
+      <c r="BK7" s="166"/>
+      <c r="BL7" s="166"/>
+      <c r="BM7" s="166"/>
+      <c r="BN7" s="166"/>
+      <c r="BO7" s="166"/>
+      <c r="BP7" s="166"/>
+      <c r="BQ7" s="166"/>
+      <c r="BR7" s="166"/>
+      <c r="BS7" s="166"/>
+      <c r="BT7" s="166"/>
+      <c r="BU7" s="166"/>
+      <c r="BV7" s="166"/>
+      <c r="BW7" s="166"/>
+      <c r="BX7" s="166"/>
+      <c r="BY7" s="166"/>
+    </row>
+    <row r="8" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A8" s="148" t="s">
+        <v>444</v>
+      </c>
+      <c r="B8" s="153"/>
+      <c r="C8" s="148" t="s">
+        <v>445</v>
+      </c>
+      <c r="D8" s="149"/>
+      <c r="E8" s="152">
+        <v>5</v>
+      </c>
+      <c r="F8" s="153"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="152"/>
+      <c r="K8" s="152"/>
+      <c r="L8" s="153"/>
+      <c r="M8" s="152"/>
+      <c r="N8" s="152"/>
+      <c r="R8" s="149"/>
+      <c r="S8" s="153"/>
+      <c r="T8" s="149"/>
+      <c r="U8" s="149"/>
+      <c r="V8" s="152"/>
+      <c r="W8" s="153"/>
+      <c r="X8" s="152"/>
+      <c r="Y8" s="152"/>
+      <c r="Z8" s="153"/>
+      <c r="AA8" s="152"/>
+      <c r="AB8" s="152"/>
+      <c r="AC8" s="153"/>
+      <c r="AD8" s="152"/>
+      <c r="AE8" s="152"/>
+      <c r="AI8" s="149"/>
+      <c r="AJ8" s="153"/>
+      <c r="AK8" s="149"/>
+      <c r="AL8" s="149"/>
+      <c r="AM8" s="152"/>
+      <c r="AN8" s="153"/>
+      <c r="AO8" s="152"/>
+      <c r="AP8" s="152"/>
+      <c r="AQ8" s="153"/>
+      <c r="AR8" s="152"/>
+      <c r="AS8" s="152"/>
+      <c r="AT8" s="153"/>
+      <c r="AU8" s="152"/>
+      <c r="AV8" s="152"/>
+      <c r="AY8" s="164"/>
+      <c r="BO8" s="119" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="9" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A9" s="149"/>
+      <c r="B9" s="153"/>
+      <c r="C9" s="148" t="s">
+        <v>446</v>
+      </c>
+      <c r="D9" s="149"/>
+      <c r="E9" s="152">
+        <v>5</v>
+      </c>
+      <c r="F9" s="153"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="152"/>
+      <c r="K9" s="152"/>
+      <c r="L9" s="153"/>
+      <c r="M9" s="152"/>
+      <c r="N9" s="152"/>
+      <c r="R9" s="149"/>
+      <c r="S9" s="153"/>
+      <c r="T9" s="149"/>
+      <c r="U9" s="149"/>
+      <c r="V9" s="152"/>
+      <c r="W9" s="153"/>
+      <c r="X9" s="152"/>
+      <c r="Y9" s="152"/>
+      <c r="Z9" s="153"/>
+      <c r="AA9" s="152"/>
+      <c r="AB9" s="152"/>
+      <c r="AC9" s="153"/>
+      <c r="AD9" s="152"/>
+      <c r="AE9" s="152"/>
+      <c r="AI9" s="149"/>
+      <c r="AJ9" s="153"/>
+      <c r="AK9" s="149"/>
+      <c r="AL9" s="149"/>
+      <c r="AM9" s="152"/>
+      <c r="AN9" s="153"/>
+      <c r="AO9" s="152"/>
+      <c r="AP9" s="152"/>
+      <c r="AQ9" s="153"/>
+      <c r="AR9" s="152"/>
+      <c r="AS9" s="152"/>
+      <c r="AT9" s="153"/>
+      <c r="AU9" s="152"/>
+      <c r="AV9" s="152"/>
+      <c r="AY9" s="164"/>
+      <c r="BP9" s="165"/>
+      <c r="BQ9" s="165"/>
+      <c r="BR9" s="165"/>
+      <c r="BT9" s="253" t="s">
+        <v>358</v>
+      </c>
+      <c r="BU9" s="253"/>
+      <c r="BV9" s="253"/>
+      <c r="BW9" s="254" t="s">
+        <v>362</v>
+      </c>
+      <c r="BX9" s="254"/>
+    </row>
+    <row r="10" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A10" s="149"/>
+      <c r="B10" s="153"/>
+      <c r="C10" s="148" t="s">
+        <v>447</v>
+      </c>
+      <c r="D10" s="149"/>
+      <c r="E10" s="152">
+        <v>5</v>
+      </c>
+      <c r="F10" s="153"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="152"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="152"/>
+      <c r="K10" s="152"/>
+      <c r="L10" s="153"/>
+      <c r="M10" s="152"/>
+      <c r="N10" s="152"/>
+      <c r="R10" s="149"/>
+      <c r="S10" s="153"/>
+      <c r="T10" s="149"/>
+      <c r="U10" s="149"/>
+      <c r="V10" s="152"/>
+      <c r="W10" s="153"/>
+      <c r="X10" s="152"/>
+      <c r="Y10" s="152"/>
+      <c r="Z10" s="153"/>
+      <c r="AA10" s="152"/>
+      <c r="AB10" s="152"/>
+      <c r="AC10" s="153"/>
+      <c r="AD10" s="152"/>
+      <c r="AE10" s="152"/>
+      <c r="AI10" s="149"/>
+      <c r="AJ10" s="153"/>
+      <c r="AK10" s="149"/>
+      <c r="AL10" s="149"/>
+      <c r="AM10" s="152"/>
+      <c r="AN10" s="153"/>
+      <c r="AO10" s="152"/>
+      <c r="AP10" s="152"/>
+      <c r="AQ10" s="153"/>
+      <c r="AR10" s="152"/>
+      <c r="AS10" s="152"/>
+      <c r="AT10" s="153"/>
+      <c r="AU10" s="152"/>
+      <c r="AV10" s="152"/>
+      <c r="AY10" s="164"/>
+      <c r="BA10" s="147" t="s">
+        <v>384</v>
+      </c>
+      <c r="BB10" s="146"/>
+      <c r="BC10" s="147" t="s">
+        <v>334</v>
+      </c>
+      <c r="BD10" s="146"/>
+      <c r="BE10" s="147" t="s">
+        <v>336</v>
+      </c>
+      <c r="BF10" s="146"/>
+      <c r="BG10" s="174" t="s">
+        <v>335</v>
+      </c>
+      <c r="BH10" s="174" t="s">
+        <v>335</v>
+      </c>
+      <c r="BI10" s="146"/>
+      <c r="BJ10" s="174" t="s">
+        <v>335</v>
+      </c>
+      <c r="BK10" s="174" t="s">
+        <v>343</v>
+      </c>
+      <c r="BL10" s="146"/>
+      <c r="BM10" s="174" t="s">
+        <v>337</v>
+      </c>
+      <c r="BN10" s="174" t="s">
+        <v>338</v>
+      </c>
+      <c r="BP10" s="165"/>
+      <c r="BQ10" s="165"/>
+      <c r="BR10" s="165"/>
+      <c r="BT10" s="163"/>
+      <c r="BU10" s="163"/>
+      <c r="BV10" s="168" t="s">
+        <v>360</v>
+      </c>
+      <c r="BW10" s="214"/>
+      <c r="BX10" s="214"/>
+    </row>
+    <row r="11" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A11" s="149"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="148" t="s">
+        <v>448</v>
+      </c>
+      <c r="D11" s="149"/>
+      <c r="E11" s="152">
+        <v>1</v>
+      </c>
+      <c r="F11" s="153"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="152"/>
+      <c r="I11" s="153"/>
+      <c r="J11" s="152"/>
+      <c r="K11" s="152"/>
+      <c r="L11" s="153"/>
+      <c r="M11" s="152"/>
+      <c r="N11" s="152"/>
+      <c r="R11" s="149"/>
+      <c r="S11" s="153"/>
+      <c r="T11" s="149"/>
+      <c r="U11" s="149"/>
+      <c r="V11" s="152"/>
+      <c r="W11" s="153"/>
+      <c r="X11" s="152"/>
+      <c r="Y11" s="152"/>
+      <c r="Z11" s="153"/>
+      <c r="AA11" s="152"/>
+      <c r="AB11" s="152"/>
+      <c r="AC11" s="153"/>
+      <c r="AD11" s="152"/>
+      <c r="AE11" s="152"/>
+      <c r="AI11" s="149"/>
+      <c r="AJ11" s="153"/>
+      <c r="AK11" s="149"/>
+      <c r="AL11" s="149"/>
+      <c r="AM11" s="152"/>
+      <c r="AN11" s="153"/>
+      <c r="AO11" s="152"/>
+      <c r="AP11" s="152"/>
+      <c r="AQ11" s="153"/>
+      <c r="AR11" s="152"/>
+      <c r="AS11" s="152"/>
+      <c r="AT11" s="153"/>
+      <c r="AU11" s="152"/>
+      <c r="AV11" s="152"/>
+      <c r="AY11" s="164"/>
+      <c r="BA11" s="146"/>
+      <c r="BB11" s="153"/>
+      <c r="BC11" s="146"/>
+      <c r="BD11" s="146"/>
+      <c r="BE11" s="146"/>
+      <c r="BF11" s="153"/>
+      <c r="BG11" s="174" t="s">
+        <v>342</v>
+      </c>
+      <c r="BH11" s="175" t="s">
+        <v>342</v>
+      </c>
+      <c r="BI11" s="153"/>
+      <c r="BJ11" s="174" t="s">
+        <v>342</v>
+      </c>
+      <c r="BK11" s="174" t="s">
+        <v>342</v>
+      </c>
+      <c r="BL11" s="153"/>
+      <c r="BM11" s="175" t="s">
+        <v>339</v>
+      </c>
+      <c r="BN11" s="175" t="s">
+        <v>339</v>
+      </c>
+      <c r="BP11" s="162"/>
+      <c r="BQ11" s="156"/>
+      <c r="BR11" s="156"/>
+      <c r="BT11" s="159" t="s">
+        <v>359</v>
+      </c>
+      <c r="BU11" s="160"/>
+      <c r="BV11" s="154">
+        <v>250</v>
+      </c>
+      <c r="BW11" s="214"/>
+      <c r="BX11" s="214"/>
+    </row>
+    <row r="12" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A12" s="149"/>
+      <c r="B12" s="153"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="152"/>
+      <c r="K12" s="152"/>
+      <c r="L12" s="153"/>
+      <c r="M12" s="152"/>
+      <c r="N12" s="152"/>
+      <c r="R12" s="149"/>
+      <c r="S12" s="153"/>
+      <c r="T12" s="149"/>
+      <c r="U12" s="149"/>
+      <c r="V12" s="152"/>
+      <c r="W12" s="153"/>
+      <c r="X12" s="152"/>
+      <c r="Y12" s="152"/>
+      <c r="Z12" s="153"/>
+      <c r="AA12" s="152"/>
+      <c r="AB12" s="152"/>
+      <c r="AC12" s="153"/>
+      <c r="AD12" s="152"/>
+      <c r="AE12" s="152"/>
+      <c r="AI12" s="149"/>
+      <c r="AJ12" s="153"/>
+      <c r="AK12" s="149"/>
+      <c r="AL12" s="149"/>
+      <c r="AM12" s="152"/>
+      <c r="AN12" s="153"/>
+      <c r="AO12" s="152"/>
+      <c r="AP12" s="152"/>
+      <c r="AQ12" s="153"/>
+      <c r="AR12" s="152"/>
+      <c r="AS12" s="152"/>
+      <c r="AT12" s="153"/>
+      <c r="AU12" s="152"/>
+      <c r="AV12" s="152"/>
+      <c r="AY12" s="164"/>
+      <c r="BA12" s="148" t="s">
+        <v>450</v>
+      </c>
+      <c r="BB12" s="153"/>
+      <c r="BC12" s="148" t="s">
+        <v>461</v>
+      </c>
+      <c r="BD12" s="149"/>
+      <c r="BE12" s="152">
+        <v>1</v>
+      </c>
+      <c r="BF12" s="153"/>
+      <c r="BG12" s="152"/>
+      <c r="BH12" s="152"/>
+      <c r="BI12" s="153"/>
+      <c r="BJ12" s="152"/>
+      <c r="BK12" s="152"/>
+      <c r="BL12" s="153"/>
+      <c r="BM12" s="152"/>
+      <c r="BN12" s="152"/>
+      <c r="BP12" s="162"/>
+      <c r="BQ12" s="156"/>
+      <c r="BR12" s="156"/>
+      <c r="BT12" s="159" t="s">
+        <v>361</v>
+      </c>
+      <c r="BU12" s="160"/>
+      <c r="BV12" s="154">
+        <v>90</v>
+      </c>
+      <c r="BW12" s="214">
+        <v>2</v>
+      </c>
+      <c r="BX12" s="119" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A13" s="149"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="152"/>
+      <c r="L13" s="153"/>
+      <c r="M13" s="152"/>
+      <c r="N13" s="152"/>
+      <c r="R13" s="149"/>
+      <c r="S13" s="153"/>
+      <c r="T13" s="149"/>
+      <c r="U13" s="149"/>
+      <c r="V13" s="152"/>
+      <c r="W13" s="153"/>
+      <c r="X13" s="152"/>
+      <c r="Y13" s="152"/>
+      <c r="Z13" s="153"/>
+      <c r="AA13" s="152"/>
+      <c r="AB13" s="152"/>
+      <c r="AC13" s="153"/>
+      <c r="AD13" s="152"/>
+      <c r="AE13" s="152"/>
+      <c r="AI13" s="149"/>
+      <c r="AJ13" s="153"/>
+      <c r="AK13" s="149"/>
+      <c r="AL13" s="149"/>
+      <c r="AM13" s="152"/>
+      <c r="AN13" s="153"/>
+      <c r="AO13" s="152"/>
+      <c r="AP13" s="152"/>
+      <c r="AQ13" s="153"/>
+      <c r="AR13" s="152"/>
+      <c r="AS13" s="152"/>
+      <c r="AT13" s="153"/>
+      <c r="AU13" s="152"/>
+      <c r="AV13" s="152"/>
+      <c r="AY13" s="164"/>
+      <c r="BA13" s="149"/>
+      <c r="BB13" s="153"/>
+      <c r="BC13" s="149"/>
+      <c r="BD13" s="149"/>
+      <c r="BE13" s="152"/>
+      <c r="BF13" s="153"/>
+      <c r="BG13" s="152"/>
+      <c r="BH13" s="152"/>
+      <c r="BI13" s="153"/>
+      <c r="BJ13" s="152"/>
+      <c r="BK13" s="152"/>
+      <c r="BL13" s="153"/>
+      <c r="BM13" s="152"/>
+      <c r="BN13" s="152"/>
+      <c r="BP13" s="162"/>
+      <c r="BQ13" s="156"/>
+      <c r="BR13" s="156"/>
+      <c r="BT13" s="159" t="s">
+        <v>404</v>
+      </c>
+      <c r="BU13" s="160"/>
+      <c r="BV13" s="154">
+        <v>150</v>
+      </c>
+      <c r="BW13" s="219">
+        <v>1.5</v>
+      </c>
+      <c r="BX13" s="119" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A14" s="148" t="s">
+        <v>449</v>
+      </c>
+      <c r="B14" s="153"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="153"/>
+      <c r="M14" s="152"/>
+      <c r="N14" s="152"/>
+      <c r="R14" s="149"/>
+      <c r="S14" s="153"/>
+      <c r="T14" s="149"/>
+      <c r="U14" s="149"/>
+      <c r="V14" s="152"/>
+      <c r="W14" s="153"/>
+      <c r="X14" s="152"/>
+      <c r="Y14" s="152"/>
+      <c r="Z14" s="153"/>
+      <c r="AA14" s="152"/>
+      <c r="AB14" s="152"/>
+      <c r="AC14" s="153"/>
+      <c r="AD14" s="152"/>
+      <c r="AE14" s="152"/>
+      <c r="AI14" s="149"/>
+      <c r="AJ14" s="153"/>
+      <c r="AK14" s="149"/>
+      <c r="AL14" s="149"/>
+      <c r="AM14" s="152"/>
+      <c r="AN14" s="153"/>
+      <c r="AO14" s="152"/>
+      <c r="AP14" s="152"/>
+      <c r="AQ14" s="153"/>
+      <c r="AR14" s="152"/>
+      <c r="AS14" s="152"/>
+      <c r="AT14" s="153"/>
+      <c r="AU14" s="152"/>
+      <c r="AV14" s="152"/>
+      <c r="AY14" s="164"/>
+      <c r="BA14" s="149"/>
+      <c r="BB14" s="153"/>
+      <c r="BC14" s="149"/>
+      <c r="BD14" s="149"/>
+      <c r="BE14" s="152"/>
+      <c r="BF14" s="153"/>
+      <c r="BG14" s="152"/>
+      <c r="BH14" s="152"/>
+      <c r="BI14" s="153"/>
+      <c r="BJ14" s="152"/>
+      <c r="BK14" s="152"/>
+      <c r="BL14" s="153"/>
+      <c r="BM14" s="152"/>
+      <c r="BN14" s="152"/>
+      <c r="BP14" s="162"/>
+      <c r="BQ14" s="156"/>
+      <c r="BR14" s="156"/>
+      <c r="BT14" s="160"/>
+      <c r="BU14" s="160"/>
+      <c r="BV14" s="154"/>
+      <c r="BW14" s="214"/>
+      <c r="BX14" s="214"/>
+    </row>
+    <row r="15" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A15" s="149"/>
+      <c r="B15" s="153"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="152"/>
+      <c r="L15" s="153"/>
+      <c r="M15" s="152"/>
+      <c r="N15" s="152"/>
+      <c r="R15" s="149"/>
+      <c r="S15" s="153"/>
+      <c r="T15" s="149"/>
+      <c r="U15" s="149"/>
+      <c r="V15" s="152"/>
+      <c r="W15" s="153"/>
+      <c r="X15" s="152"/>
+      <c r="Y15" s="152"/>
+      <c r="Z15" s="153"/>
+      <c r="AA15" s="152"/>
+      <c r="AB15" s="152"/>
+      <c r="AC15" s="153"/>
+      <c r="AD15" s="152"/>
+      <c r="AE15" s="152"/>
+      <c r="AI15" s="149"/>
+      <c r="AJ15" s="153"/>
+      <c r="AK15" s="149"/>
+      <c r="AL15" s="149"/>
+      <c r="AM15" s="152"/>
+      <c r="AN15" s="153"/>
+      <c r="AO15" s="152"/>
+      <c r="AP15" s="152"/>
+      <c r="AQ15" s="153"/>
+      <c r="AR15" s="152"/>
+      <c r="AS15" s="152"/>
+      <c r="AT15" s="153"/>
+      <c r="AU15" s="152"/>
+      <c r="AV15" s="152"/>
+      <c r="AY15" s="164"/>
+      <c r="BA15" s="148" t="s">
+        <v>451</v>
+      </c>
+      <c r="BB15" s="153"/>
+      <c r="BC15" s="148" t="s">
+        <v>461</v>
+      </c>
+      <c r="BD15" s="149"/>
+      <c r="BE15" s="152">
+        <v>1</v>
+      </c>
+      <c r="BF15" s="153"/>
+      <c r="BG15" s="152"/>
+      <c r="BH15" s="152"/>
+      <c r="BI15" s="153"/>
+      <c r="BJ15" s="152"/>
+      <c r="BK15" s="152"/>
+      <c r="BL15" s="153"/>
+      <c r="BM15" s="152"/>
+      <c r="BN15" s="152"/>
+      <c r="BP15" s="162"/>
+      <c r="BQ15" s="156"/>
+      <c r="BR15" s="156"/>
+      <c r="BT15" s="160"/>
+      <c r="BU15" s="160"/>
+      <c r="BV15" s="154"/>
+      <c r="BW15" s="214"/>
+      <c r="BX15" s="214"/>
+    </row>
+    <row r="16" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A16" s="149"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="149"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="152"/>
+      <c r="K16" s="152"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="152"/>
+      <c r="N16" s="152"/>
+      <c r="R16" s="149"/>
+      <c r="S16" s="153"/>
+      <c r="T16" s="149"/>
+      <c r="U16" s="149"/>
+      <c r="V16" s="152"/>
+      <c r="W16" s="153"/>
+      <c r="X16" s="152"/>
+      <c r="Y16" s="152"/>
+      <c r="Z16" s="153"/>
+      <c r="AA16" s="152"/>
+      <c r="AB16" s="152"/>
+      <c r="AC16" s="153"/>
+      <c r="AD16" s="152"/>
+      <c r="AE16" s="152"/>
+      <c r="AI16" s="149"/>
+      <c r="AJ16" s="153"/>
+      <c r="AK16" s="149"/>
+      <c r="AL16" s="149"/>
+      <c r="AM16" s="152"/>
+      <c r="AN16" s="153"/>
+      <c r="AO16" s="152"/>
+      <c r="AP16" s="152"/>
+      <c r="AQ16" s="153"/>
+      <c r="AR16" s="152"/>
+      <c r="AS16" s="152"/>
+      <c r="AT16" s="153"/>
+      <c r="AU16" s="152"/>
+      <c r="AV16" s="152"/>
+      <c r="AY16" s="164"/>
+      <c r="BA16" s="149"/>
+      <c r="BB16" s="153"/>
+      <c r="BC16" s="149"/>
+      <c r="BD16" s="149"/>
+      <c r="BE16" s="152"/>
+      <c r="BF16" s="153"/>
+      <c r="BG16" s="152"/>
+      <c r="BH16" s="152"/>
+      <c r="BI16" s="153"/>
+      <c r="BJ16" s="152"/>
+      <c r="BK16" s="152"/>
+      <c r="BL16" s="153"/>
+      <c r="BM16" s="152"/>
+      <c r="BN16" s="152"/>
+      <c r="BP16" s="162"/>
+      <c r="BQ16" s="156"/>
+      <c r="BR16" s="156"/>
+      <c r="BT16" s="160"/>
+      <c r="BU16" s="160"/>
+      <c r="BV16" s="154"/>
+      <c r="BW16" s="214"/>
+      <c r="BX16" s="214"/>
+    </row>
+    <row r="17" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A17" s="149"/>
+      <c r="B17" s="153"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="152"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="152"/>
+      <c r="N17" s="152"/>
+      <c r="R17" s="149"/>
+      <c r="S17" s="153"/>
+      <c r="T17" s="149"/>
+      <c r="U17" s="149"/>
+      <c r="V17" s="152"/>
+      <c r="W17" s="153"/>
+      <c r="X17" s="152"/>
+      <c r="Y17" s="152"/>
+      <c r="Z17" s="153"/>
+      <c r="AA17" s="152"/>
+      <c r="AB17" s="152"/>
+      <c r="AC17" s="153"/>
+      <c r="AD17" s="152"/>
+      <c r="AE17" s="152"/>
+      <c r="AI17" s="149"/>
+      <c r="AJ17" s="153"/>
+      <c r="AK17" s="149"/>
+      <c r="AL17" s="149"/>
+      <c r="AM17" s="152"/>
+      <c r="AN17" s="153"/>
+      <c r="AO17" s="152"/>
+      <c r="AP17" s="152"/>
+      <c r="AQ17" s="153"/>
+      <c r="AR17" s="152"/>
+      <c r="AS17" s="152"/>
+      <c r="AT17" s="153"/>
+      <c r="AU17" s="152"/>
+      <c r="AV17" s="152"/>
+      <c r="AY17" s="164"/>
+      <c r="BA17" s="149"/>
+      <c r="BB17" s="153"/>
+      <c r="BC17" s="149"/>
+      <c r="BD17" s="149"/>
+      <c r="BE17" s="152"/>
+      <c r="BF17" s="153"/>
+      <c r="BG17" s="152"/>
+      <c r="BH17" s="152"/>
+      <c r="BI17" s="153"/>
+      <c r="BJ17" s="152"/>
+      <c r="BK17" s="152"/>
+      <c r="BL17" s="153"/>
+      <c r="BM17" s="152"/>
+      <c r="BN17" s="152"/>
+      <c r="BP17" s="162"/>
+      <c r="BQ17" s="156"/>
+      <c r="BR17" s="156"/>
+      <c r="BT17" s="160"/>
+      <c r="BU17" s="160"/>
+      <c r="BV17" s="154"/>
+      <c r="BW17" s="214"/>
+      <c r="BX17" s="214"/>
+    </row>
+    <row r="18" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A18" s="149"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="152"/>
+      <c r="K18" s="152"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="152"/>
+      <c r="N18" s="152"/>
+      <c r="R18" s="149"/>
+      <c r="S18" s="153"/>
+      <c r="T18" s="149"/>
+      <c r="U18" s="149"/>
+      <c r="V18" s="152"/>
+      <c r="W18" s="153"/>
+      <c r="X18" s="152"/>
+      <c r="Y18" s="152"/>
+      <c r="Z18" s="153"/>
+      <c r="AA18" s="152"/>
+      <c r="AB18" s="152"/>
+      <c r="AC18" s="153"/>
+      <c r="AD18" s="152"/>
+      <c r="AE18" s="152"/>
+      <c r="AI18" s="149"/>
+      <c r="AJ18" s="153"/>
+      <c r="AK18" s="149"/>
+      <c r="AL18" s="149"/>
+      <c r="AM18" s="152"/>
+      <c r="AN18" s="153"/>
+      <c r="AO18" s="152"/>
+      <c r="AP18" s="152"/>
+      <c r="AQ18" s="153"/>
+      <c r="AR18" s="152"/>
+      <c r="AS18" s="152"/>
+      <c r="AT18" s="153"/>
+      <c r="AU18" s="152"/>
+      <c r="AV18" s="152"/>
+      <c r="AY18" s="164"/>
+      <c r="BA18" s="148" t="s">
+        <v>455</v>
+      </c>
+      <c r="BB18" s="153"/>
+      <c r="BC18" s="148" t="s">
+        <v>462</v>
+      </c>
+      <c r="BD18" s="149"/>
+      <c r="BE18" s="152">
+        <v>1</v>
+      </c>
+      <c r="BF18" s="153"/>
+      <c r="BG18" s="152"/>
+      <c r="BH18" s="152"/>
+      <c r="BI18" s="153"/>
+      <c r="BJ18" s="152"/>
+      <c r="BK18" s="152"/>
+      <c r="BL18" s="153"/>
+      <c r="BM18" s="152"/>
+      <c r="BN18" s="152"/>
+      <c r="BP18" s="162"/>
+      <c r="BQ18" s="156"/>
+      <c r="BR18" s="156"/>
+      <c r="BT18" s="159"/>
+      <c r="BU18" s="160"/>
+      <c r="BV18" s="154"/>
+      <c r="BW18" s="214"/>
+      <c r="BX18" s="214"/>
+    </row>
+    <row r="19" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A19" s="149"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="149"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="152"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="152"/>
+      <c r="N19" s="152"/>
+      <c r="R19" s="149"/>
+      <c r="S19" s="153"/>
+      <c r="T19" s="149"/>
+      <c r="U19" s="149"/>
+      <c r="V19" s="152"/>
+      <c r="W19" s="153"/>
+      <c r="X19" s="152"/>
+      <c r="Y19" s="152"/>
+      <c r="Z19" s="153"/>
+      <c r="AA19" s="152"/>
+      <c r="AB19" s="152"/>
+      <c r="AC19" s="153"/>
+      <c r="AD19" s="152"/>
+      <c r="AE19" s="152"/>
+      <c r="AI19" s="149"/>
+      <c r="AJ19" s="153"/>
+      <c r="AK19" s="149"/>
+      <c r="AL19" s="149"/>
+      <c r="AM19" s="152"/>
+      <c r="AN19" s="153"/>
+      <c r="AO19" s="152"/>
+      <c r="AP19" s="152"/>
+      <c r="AQ19" s="153"/>
+      <c r="AR19" s="152"/>
+      <c r="AS19" s="152"/>
+      <c r="AT19" s="153"/>
+      <c r="AU19" s="152"/>
+      <c r="AV19" s="152"/>
+      <c r="AY19" s="164"/>
+      <c r="BA19" s="149"/>
+      <c r="BB19" s="153"/>
+      <c r="BC19" s="149"/>
+      <c r="BD19" s="149"/>
+      <c r="BE19" s="152"/>
+      <c r="BF19" s="153"/>
+      <c r="BG19" s="152"/>
+      <c r="BH19" s="152"/>
+      <c r="BI19" s="153"/>
+      <c r="BJ19" s="152"/>
+      <c r="BK19" s="152"/>
+      <c r="BL19" s="153"/>
+      <c r="BM19" s="152"/>
+      <c r="BN19" s="152"/>
+      <c r="BP19" s="162"/>
+      <c r="BQ19" s="156"/>
+      <c r="BR19" s="156"/>
+      <c r="BT19" s="160"/>
+      <c r="BU19" s="160"/>
+      <c r="BV19" s="154"/>
+      <c r="BW19" s="214"/>
+      <c r="BX19" s="214"/>
+    </row>
+    <row r="20" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A20" s="149"/>
+      <c r="B20" s="153"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="152"/>
+      <c r="K20" s="152"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="152"/>
+      <c r="N20" s="152"/>
+      <c r="R20" s="149"/>
+      <c r="S20" s="153"/>
+      <c r="T20" s="149"/>
+      <c r="U20" s="149"/>
+      <c r="V20" s="152"/>
+      <c r="W20" s="153"/>
+      <c r="X20" s="152"/>
+      <c r="Y20" s="152"/>
+      <c r="Z20" s="153"/>
+      <c r="AA20" s="152"/>
+      <c r="AB20" s="152"/>
+      <c r="AC20" s="153"/>
+      <c r="AD20" s="152"/>
+      <c r="AE20" s="152"/>
+      <c r="AI20" s="149"/>
+      <c r="AJ20" s="153"/>
+      <c r="AK20" s="149"/>
+      <c r="AL20" s="149"/>
+      <c r="AM20" s="152"/>
+      <c r="AN20" s="153"/>
+      <c r="AO20" s="152"/>
+      <c r="AP20" s="152"/>
+      <c r="AQ20" s="153"/>
+      <c r="AR20" s="152"/>
+      <c r="AS20" s="152"/>
+      <c r="AT20" s="153"/>
+      <c r="AU20" s="152"/>
+      <c r="AV20" s="152"/>
+      <c r="AY20" s="164"/>
+      <c r="BA20" s="149"/>
+      <c r="BB20" s="153"/>
+      <c r="BC20" s="149"/>
+      <c r="BD20" s="149"/>
+      <c r="BE20" s="152"/>
+      <c r="BF20" s="153"/>
+      <c r="BG20" s="152"/>
+      <c r="BH20" s="152"/>
+      <c r="BI20" s="153"/>
+      <c r="BJ20" s="152"/>
+      <c r="BK20" s="152"/>
+      <c r="BL20" s="153"/>
+      <c r="BM20" s="152"/>
+      <c r="BN20" s="152"/>
+      <c r="BT20" s="160"/>
+      <c r="BU20" s="160"/>
+      <c r="BV20" s="154"/>
+      <c r="BW20" s="214"/>
+      <c r="BX20" s="214"/>
+    </row>
+    <row r="21" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A21" s="149"/>
+      <c r="B21" s="153"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="153"/>
+      <c r="J21" s="152"/>
+      <c r="K21" s="152"/>
+      <c r="L21" s="153"/>
+      <c r="M21" s="152"/>
+      <c r="N21" s="152"/>
+      <c r="R21" s="149"/>
+      <c r="S21" s="153"/>
+      <c r="T21" s="149"/>
+      <c r="U21" s="149"/>
+      <c r="V21" s="152"/>
+      <c r="W21" s="153"/>
+      <c r="X21" s="152"/>
+      <c r="Y21" s="152"/>
+      <c r="Z21" s="153"/>
+      <c r="AA21" s="152"/>
+      <c r="AB21" s="152"/>
+      <c r="AC21" s="153"/>
+      <c r="AD21" s="152"/>
+      <c r="AE21" s="152"/>
+      <c r="AI21" s="149"/>
+      <c r="AJ21" s="153"/>
+      <c r="AK21" s="149"/>
+      <c r="AL21" s="149"/>
+      <c r="AM21" s="152"/>
+      <c r="AN21" s="153"/>
+      <c r="AO21" s="152"/>
+      <c r="AP21" s="152"/>
+      <c r="AQ21" s="153"/>
+      <c r="AR21" s="152"/>
+      <c r="AS21" s="152"/>
+      <c r="AT21" s="153"/>
+      <c r="AU21" s="152"/>
+      <c r="AV21" s="152"/>
+      <c r="AY21" s="164"/>
+      <c r="BA21" s="148" t="s">
+        <v>456</v>
+      </c>
+      <c r="BB21" s="153"/>
+      <c r="BC21" s="148" t="s">
+        <v>463</v>
+      </c>
+      <c r="BD21" s="149"/>
+      <c r="BE21" s="152">
+        <v>1</v>
+      </c>
+      <c r="BF21" s="153"/>
+      <c r="BG21" s="152"/>
+      <c r="BH21" s="152"/>
+      <c r="BI21" s="153"/>
+      <c r="BJ21" s="152"/>
+      <c r="BK21" s="152"/>
+      <c r="BL21" s="153"/>
+      <c r="BM21" s="152"/>
+      <c r="BN21" s="152"/>
+      <c r="BT21" s="160"/>
+      <c r="BU21" s="160"/>
+      <c r="BV21" s="154"/>
+      <c r="BW21" s="214"/>
+      <c r="BX21" s="214"/>
+    </row>
+    <row r="22" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A22" s="149"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="149"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="152"/>
+      <c r="K22" s="152"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="152"/>
+      <c r="N22" s="152"/>
+      <c r="R22" s="149"/>
+      <c r="S22" s="153"/>
+      <c r="T22" s="149"/>
+      <c r="U22" s="149"/>
+      <c r="V22" s="152"/>
+      <c r="W22" s="153"/>
+      <c r="X22" s="152"/>
+      <c r="Y22" s="152"/>
+      <c r="Z22" s="153"/>
+      <c r="AA22" s="152"/>
+      <c r="AB22" s="152"/>
+      <c r="AC22" s="153"/>
+      <c r="AD22" s="152"/>
+      <c r="AE22" s="152"/>
+      <c r="AI22" s="149"/>
+      <c r="AJ22" s="153"/>
+      <c r="AK22" s="149"/>
+      <c r="AL22" s="149"/>
+      <c r="AM22" s="152"/>
+      <c r="AN22" s="153"/>
+      <c r="AO22" s="152"/>
+      <c r="AP22" s="152"/>
+      <c r="AQ22" s="153"/>
+      <c r="AR22" s="152"/>
+      <c r="AS22" s="152"/>
+      <c r="AT22" s="153"/>
+      <c r="AU22" s="152"/>
+      <c r="AV22" s="152"/>
+      <c r="AY22" s="164"/>
+      <c r="BA22" s="149"/>
+      <c r="BB22" s="153"/>
+      <c r="BC22" s="149"/>
+      <c r="BD22" s="149"/>
+      <c r="BE22" s="152"/>
+      <c r="BF22" s="153"/>
+      <c r="BG22" s="152"/>
+      <c r="BH22" s="152"/>
+      <c r="BI22" s="153"/>
+      <c r="BJ22" s="152"/>
+      <c r="BK22" s="152"/>
+      <c r="BL22" s="153"/>
+      <c r="BM22" s="152"/>
+      <c r="BN22" s="152"/>
+      <c r="BT22" s="214"/>
+      <c r="BU22" s="214"/>
+      <c r="BV22" s="214"/>
+      <c r="BW22" s="214"/>
+      <c r="BX22" s="214"/>
+    </row>
+    <row r="23" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A23" s="149"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="149"/>
+      <c r="D23" s="149"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="153"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="153"/>
+      <c r="M23" s="152"/>
+      <c r="N23" s="152"/>
+      <c r="R23" s="149"/>
+      <c r="S23" s="153"/>
+      <c r="T23" s="149"/>
+      <c r="U23" s="149"/>
+      <c r="V23" s="152"/>
+      <c r="W23" s="153"/>
+      <c r="X23" s="152"/>
+      <c r="Y23" s="152"/>
+      <c r="Z23" s="153"/>
+      <c r="AA23" s="152"/>
+      <c r="AB23" s="152"/>
+      <c r="AC23" s="153"/>
+      <c r="AD23" s="152"/>
+      <c r="AE23" s="152"/>
+      <c r="AI23" s="149"/>
+      <c r="AJ23" s="153"/>
+      <c r="AK23" s="149"/>
+      <c r="AL23" s="149"/>
+      <c r="AM23" s="152"/>
+      <c r="AN23" s="153"/>
+      <c r="AO23" s="152"/>
+      <c r="AP23" s="152"/>
+      <c r="AQ23" s="153"/>
+      <c r="AR23" s="152"/>
+      <c r="AS23" s="152"/>
+      <c r="AT23" s="153"/>
+      <c r="AU23" s="152"/>
+      <c r="AV23" s="152"/>
+      <c r="AY23" s="164"/>
+      <c r="BA23" s="149"/>
+      <c r="BB23" s="153"/>
+      <c r="BC23" s="149"/>
+      <c r="BD23" s="149"/>
+      <c r="BE23" s="152"/>
+      <c r="BF23" s="153"/>
+      <c r="BG23" s="152"/>
+      <c r="BH23" s="152"/>
+      <c r="BI23" s="153"/>
+      <c r="BJ23" s="152"/>
+      <c r="BK23" s="152"/>
+      <c r="BL23" s="153"/>
+      <c r="BM23" s="152"/>
+      <c r="BN23" s="152"/>
+      <c r="BT23" s="185" t="s">
+        <v>396</v>
+      </c>
+      <c r="BU23" s="214"/>
+      <c r="BV23" s="214"/>
+      <c r="BW23" s="214"/>
+      <c r="BX23" s="214"/>
+    </row>
+    <row r="24" spans="1:76" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="149"/>
+      <c r="B24" s="153"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="153"/>
+      <c r="J24" s="152"/>
+      <c r="K24" s="152"/>
+      <c r="L24" s="153"/>
+      <c r="M24" s="152"/>
+      <c r="N24" s="152"/>
+      <c r="R24" s="149"/>
+      <c r="S24" s="153"/>
+      <c r="T24" s="149"/>
+      <c r="U24" s="149"/>
+      <c r="V24" s="152"/>
+      <c r="W24" s="153"/>
+      <c r="X24" s="152"/>
+      <c r="Y24" s="152"/>
+      <c r="Z24" s="153"/>
+      <c r="AA24" s="152"/>
+      <c r="AB24" s="152"/>
+      <c r="AC24" s="153"/>
+      <c r="AD24" s="152"/>
+      <c r="AE24" s="152"/>
+      <c r="AI24" s="149"/>
+      <c r="AJ24" s="153"/>
+      <c r="AK24" s="149"/>
+      <c r="AL24" s="149"/>
+      <c r="AM24" s="152"/>
+      <c r="AN24" s="153"/>
+      <c r="AO24" s="152"/>
+      <c r="AP24" s="152"/>
+      <c r="AQ24" s="153"/>
+      <c r="AR24" s="152"/>
+      <c r="AS24" s="152"/>
+      <c r="AT24" s="153"/>
+      <c r="AU24" s="152"/>
+      <c r="AV24" s="152"/>
+      <c r="AY24" s="164"/>
+      <c r="BA24" s="149"/>
+      <c r="BB24" s="153"/>
+      <c r="BC24" s="149"/>
+      <c r="BD24" s="149"/>
+      <c r="BE24" s="152"/>
+      <c r="BF24" s="153"/>
+      <c r="BG24" s="152"/>
+      <c r="BH24" s="152"/>
+      <c r="BI24" s="153"/>
+      <c r="BJ24" s="152"/>
+      <c r="BK24" s="152"/>
+      <c r="BL24" s="153"/>
+      <c r="BM24" s="152"/>
+      <c r="BN24" s="152"/>
+      <c r="BT24" s="214"/>
+      <c r="BU24" s="214"/>
+      <c r="BV24" s="214"/>
+      <c r="BW24" s="214"/>
+      <c r="BX24" s="214"/>
+    </row>
+    <row r="25" spans="1:76" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="149"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="153"/>
+      <c r="J25" s="152"/>
+      <c r="K25" s="152"/>
+      <c r="L25" s="153"/>
+      <c r="M25" s="152"/>
+      <c r="N25" s="152"/>
+      <c r="R25" s="149"/>
+      <c r="S25" s="153"/>
+      <c r="T25" s="149"/>
+      <c r="U25" s="149"/>
+      <c r="V25" s="152"/>
+      <c r="W25" s="153"/>
+      <c r="X25" s="152"/>
+      <c r="Y25" s="152"/>
+      <c r="Z25" s="153"/>
+      <c r="AA25" s="152"/>
+      <c r="AB25" s="152"/>
+      <c r="AC25" s="153"/>
+      <c r="AD25" s="152"/>
+      <c r="AE25" s="152"/>
+      <c r="AI25" s="149"/>
+      <c r="AJ25" s="153"/>
+      <c r="AK25" s="149"/>
+      <c r="AL25" s="149"/>
+      <c r="AM25" s="152"/>
+      <c r="AN25" s="153"/>
+      <c r="AO25" s="152"/>
+      <c r="AP25" s="152"/>
+      <c r="AQ25" s="153"/>
+      <c r="AR25" s="152"/>
+      <c r="AS25" s="152"/>
+      <c r="AT25" s="153"/>
+      <c r="AU25" s="152"/>
+      <c r="AV25" s="152"/>
+      <c r="AY25" s="164"/>
+      <c r="BA25" s="149"/>
+      <c r="BB25" s="153"/>
+      <c r="BC25" s="149"/>
+      <c r="BD25" s="149"/>
+      <c r="BE25" s="152"/>
+      <c r="BF25" s="153"/>
+      <c r="BG25" s="152"/>
+      <c r="BH25" s="152"/>
+      <c r="BI25" s="153"/>
+      <c r="BJ25" s="152"/>
+      <c r="BK25" s="152"/>
+      <c r="BL25" s="153"/>
+      <c r="BM25" s="152"/>
+      <c r="BN25" s="152"/>
+      <c r="BP25" s="247" t="s">
+        <v>459</v>
+      </c>
+      <c r="BQ25" s="248"/>
+      <c r="BR25" s="248"/>
+      <c r="BS25" s="249"/>
+      <c r="BT25" s="119" t="s">
+        <v>397</v>
+      </c>
+      <c r="BU25" s="214"/>
+      <c r="BV25" s="119" t="s">
+        <v>398</v>
+      </c>
+      <c r="BW25" s="214"/>
+      <c r="BX25" s="214"/>
+    </row>
+    <row r="26" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A26" s="149"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="152"/>
+      <c r="K26" s="152"/>
+      <c r="L26" s="153"/>
+      <c r="M26" s="152"/>
+      <c r="N26" s="152"/>
+      <c r="R26" s="149"/>
+      <c r="S26" s="153"/>
+      <c r="T26" s="149"/>
+      <c r="U26" s="149"/>
+      <c r="V26" s="152"/>
+      <c r="W26" s="153"/>
+      <c r="X26" s="152"/>
+      <c r="Y26" s="152"/>
+      <c r="Z26" s="153"/>
+      <c r="AA26" s="152"/>
+      <c r="AB26" s="152"/>
+      <c r="AC26" s="153"/>
+      <c r="AD26" s="152"/>
+      <c r="AE26" s="152"/>
+      <c r="AI26" s="149"/>
+      <c r="AJ26" s="153"/>
+      <c r="AK26" s="149"/>
+      <c r="AL26" s="149"/>
+      <c r="AM26" s="152"/>
+      <c r="AN26" s="153"/>
+      <c r="AO26" s="152"/>
+      <c r="AP26" s="152"/>
+      <c r="AQ26" s="153"/>
+      <c r="AR26" s="152"/>
+      <c r="AS26" s="152"/>
+      <c r="AT26" s="153"/>
+      <c r="AU26" s="152"/>
+      <c r="AV26" s="152"/>
+      <c r="AY26" s="164"/>
+      <c r="BA26" s="149"/>
+      <c r="BB26" s="153"/>
+      <c r="BC26" s="149"/>
+      <c r="BD26" s="149"/>
+      <c r="BE26" s="152"/>
+      <c r="BF26" s="153"/>
+      <c r="BG26" s="152"/>
+      <c r="BH26" s="152"/>
+      <c r="BI26" s="153"/>
+      <c r="BJ26" s="152"/>
+      <c r="BK26" s="152"/>
+      <c r="BL26" s="153"/>
+      <c r="BM26" s="152"/>
+      <c r="BN26" s="152"/>
+    </row>
+    <row r="27" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A27" s="149"/>
+      <c r="B27" s="153"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="149"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="153"/>
+      <c r="J27" s="152"/>
+      <c r="K27" s="152"/>
+      <c r="L27" s="153"/>
+      <c r="M27" s="152"/>
+      <c r="N27" s="152"/>
+      <c r="R27" s="149"/>
+      <c r="S27" s="153"/>
+      <c r="T27" s="149"/>
+      <c r="U27" s="149"/>
+      <c r="V27" s="152"/>
+      <c r="W27" s="153"/>
+      <c r="X27" s="152"/>
+      <c r="Y27" s="152"/>
+      <c r="Z27" s="153"/>
+      <c r="AA27" s="152"/>
+      <c r="AB27" s="152"/>
+      <c r="AC27" s="153"/>
+      <c r="AD27" s="152"/>
+      <c r="AE27" s="152"/>
+      <c r="AI27" s="149"/>
+      <c r="AJ27" s="153"/>
+      <c r="AK27" s="149"/>
+      <c r="AL27" s="149"/>
+      <c r="AM27" s="152"/>
+      <c r="AN27" s="153"/>
+      <c r="AO27" s="152"/>
+      <c r="AP27" s="152"/>
+      <c r="AQ27" s="153"/>
+      <c r="AR27" s="152"/>
+      <c r="AS27" s="152"/>
+      <c r="AT27" s="153"/>
+      <c r="AU27" s="152"/>
+      <c r="AV27" s="152"/>
+      <c r="AY27" s="164"/>
+      <c r="BA27" s="149"/>
+      <c r="BB27" s="153"/>
+      <c r="BC27" s="149"/>
+      <c r="BD27" s="149"/>
+      <c r="BE27" s="152"/>
+      <c r="BF27" s="153"/>
+      <c r="BG27" s="152"/>
+      <c r="BH27" s="152"/>
+      <c r="BI27" s="153"/>
+      <c r="BJ27" s="152"/>
+      <c r="BK27" s="152"/>
+      <c r="BL27" s="153"/>
+      <c r="BM27" s="152"/>
+      <c r="BN27" s="152"/>
+    </row>
+    <row r="28" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A28" s="149"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="152"/>
+      <c r="K28" s="152"/>
+      <c r="L28" s="153"/>
+      <c r="M28" s="152"/>
+      <c r="N28" s="152"/>
+      <c r="R28" s="149"/>
+      <c r="S28" s="153"/>
+      <c r="T28" s="149"/>
+      <c r="U28" s="149"/>
+      <c r="V28" s="152"/>
+      <c r="W28" s="153"/>
+      <c r="X28" s="152"/>
+      <c r="Y28" s="152"/>
+      <c r="Z28" s="153"/>
+      <c r="AA28" s="152"/>
+      <c r="AB28" s="152"/>
+      <c r="AC28" s="153"/>
+      <c r="AD28" s="152"/>
+      <c r="AE28" s="152"/>
+      <c r="AI28" s="149"/>
+      <c r="AJ28" s="153"/>
+      <c r="AK28" s="149"/>
+      <c r="AL28" s="149"/>
+      <c r="AM28" s="152"/>
+      <c r="AN28" s="153"/>
+      <c r="AO28" s="152"/>
+      <c r="AP28" s="152"/>
+      <c r="AQ28" s="153"/>
+      <c r="AR28" s="152"/>
+      <c r="AS28" s="152"/>
+      <c r="AT28" s="153"/>
+      <c r="AU28" s="152"/>
+      <c r="AV28" s="152"/>
+      <c r="AY28" s="164"/>
+      <c r="BA28" s="149"/>
+      <c r="BB28" s="153"/>
+      <c r="BC28" s="149"/>
+      <c r="BD28" s="149"/>
+      <c r="BE28" s="152"/>
+      <c r="BF28" s="153"/>
+      <c r="BG28" s="152"/>
+      <c r="BH28" s="152"/>
+      <c r="BI28" s="153"/>
+      <c r="BJ28" s="152"/>
+      <c r="BK28" s="152"/>
+      <c r="BL28" s="153"/>
+      <c r="BM28" s="152"/>
+      <c r="BN28" s="152"/>
+      <c r="BP28" s="246" t="s">
+        <v>453</v>
+      </c>
+      <c r="BQ28" s="246"/>
+      <c r="BR28" s="246"/>
+      <c r="BS28" s="246"/>
+    </row>
+    <row r="29" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A29" s="149"/>
+      <c r="B29" s="153"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="149"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="153"/>
+      <c r="J29" s="152"/>
+      <c r="K29" s="152"/>
+      <c r="L29" s="153"/>
+      <c r="M29" s="152"/>
+      <c r="N29" s="152"/>
+      <c r="R29" s="149"/>
+      <c r="S29" s="153"/>
+      <c r="T29" s="149"/>
+      <c r="U29" s="149"/>
+      <c r="V29" s="152"/>
+      <c r="W29" s="153"/>
+      <c r="X29" s="152"/>
+      <c r="Y29" s="152"/>
+      <c r="Z29" s="153"/>
+      <c r="AA29" s="152"/>
+      <c r="AB29" s="152"/>
+      <c r="AC29" s="153"/>
+      <c r="AD29" s="152"/>
+      <c r="AE29" s="152"/>
+      <c r="AI29" s="149"/>
+      <c r="AJ29" s="153"/>
+      <c r="AK29" s="149"/>
+      <c r="AL29" s="149"/>
+      <c r="AM29" s="152"/>
+      <c r="AN29" s="153"/>
+      <c r="AO29" s="152"/>
+      <c r="AP29" s="152"/>
+      <c r="AQ29" s="153"/>
+      <c r="AR29" s="152"/>
+      <c r="AS29" s="152"/>
+      <c r="AT29" s="153"/>
+      <c r="AU29" s="152"/>
+      <c r="AV29" s="152"/>
+      <c r="AY29" s="164"/>
+      <c r="BA29" s="149"/>
+      <c r="BB29" s="153"/>
+      <c r="BC29" s="149"/>
+      <c r="BD29" s="149"/>
+      <c r="BE29" s="152"/>
+      <c r="BF29" s="153"/>
+      <c r="BG29" s="152"/>
+      <c r="BH29" s="152"/>
+      <c r="BI29" s="153"/>
+      <c r="BJ29" s="152"/>
+      <c r="BK29" s="152"/>
+      <c r="BL29" s="153"/>
+      <c r="BM29" s="152"/>
+      <c r="BN29" s="152"/>
+      <c r="BP29" s="221"/>
+      <c r="BQ29" s="221"/>
+      <c r="BR29" s="224" t="s">
+        <v>337</v>
+      </c>
+      <c r="BS29" s="224" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="30" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A30" s="149"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="152"/>
+      <c r="I30" s="153"/>
+      <c r="J30" s="152"/>
+      <c r="K30" s="152"/>
+      <c r="L30" s="153"/>
+      <c r="M30" s="152"/>
+      <c r="N30" s="152"/>
+      <c r="R30" s="149"/>
+      <c r="S30" s="153"/>
+      <c r="T30" s="149"/>
+      <c r="U30" s="149"/>
+      <c r="V30" s="152"/>
+      <c r="W30" s="153"/>
+      <c r="X30" s="152"/>
+      <c r="Y30" s="152"/>
+      <c r="Z30" s="153"/>
+      <c r="AA30" s="152"/>
+      <c r="AB30" s="152"/>
+      <c r="AC30" s="153"/>
+      <c r="AD30" s="152"/>
+      <c r="AE30" s="152"/>
+      <c r="AI30" s="149"/>
+      <c r="AJ30" s="153"/>
+      <c r="AK30" s="149"/>
+      <c r="AL30" s="149"/>
+      <c r="AM30" s="152"/>
+      <c r="AN30" s="153"/>
+      <c r="AO30" s="152"/>
+      <c r="AP30" s="152"/>
+      <c r="AQ30" s="153"/>
+      <c r="AR30" s="152"/>
+      <c r="AS30" s="152"/>
+      <c r="AT30" s="153"/>
+      <c r="AU30" s="152"/>
+      <c r="AV30" s="152"/>
+      <c r="AY30" s="164"/>
+      <c r="BA30" s="149"/>
+      <c r="BB30" s="153"/>
+      <c r="BC30" s="149"/>
+      <c r="BD30" s="149"/>
+      <c r="BE30" s="152"/>
+      <c r="BF30" s="153"/>
+      <c r="BG30" s="152"/>
+      <c r="BH30" s="152"/>
+      <c r="BI30" s="153"/>
+      <c r="BJ30" s="152"/>
+      <c r="BK30" s="152"/>
+      <c r="BL30" s="153"/>
+      <c r="BM30" s="152"/>
+      <c r="BN30" s="152"/>
+      <c r="BP30" s="225" t="s">
+        <v>455</v>
+      </c>
+      <c r="BQ30" s="223"/>
+      <c r="BR30" s="222"/>
+      <c r="BS30" s="222"/>
+    </row>
+    <row r="31" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A31" s="149"/>
+      <c r="B31" s="153"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="152"/>
+      <c r="I31" s="153"/>
+      <c r="J31" s="152"/>
+      <c r="K31" s="152"/>
+      <c r="L31" s="153"/>
+      <c r="M31" s="152"/>
+      <c r="N31" s="152"/>
+      <c r="R31" s="149"/>
+      <c r="S31" s="153"/>
+      <c r="T31" s="149"/>
+      <c r="U31" s="149"/>
+      <c r="V31" s="152"/>
+      <c r="W31" s="153"/>
+      <c r="X31" s="152"/>
+      <c r="Y31" s="152"/>
+      <c r="Z31" s="153"/>
+      <c r="AA31" s="152"/>
+      <c r="AB31" s="152"/>
+      <c r="AC31" s="153"/>
+      <c r="AD31" s="152"/>
+      <c r="AE31" s="152"/>
+      <c r="AI31" s="149"/>
+      <c r="AJ31" s="153"/>
+      <c r="AK31" s="149"/>
+      <c r="AL31" s="149"/>
+      <c r="AM31" s="152"/>
+      <c r="AN31" s="153"/>
+      <c r="AO31" s="152"/>
+      <c r="AP31" s="152"/>
+      <c r="AQ31" s="153"/>
+      <c r="AR31" s="152"/>
+      <c r="AS31" s="152"/>
+      <c r="AT31" s="153"/>
+      <c r="AU31" s="152"/>
+      <c r="AV31" s="152"/>
+      <c r="AY31" s="164"/>
+      <c r="BA31" s="149"/>
+      <c r="BB31" s="153"/>
+      <c r="BC31" s="149"/>
+      <c r="BD31" s="149"/>
+      <c r="BE31" s="152"/>
+      <c r="BF31" s="153"/>
+      <c r="BG31" s="152"/>
+      <c r="BH31" s="152"/>
+      <c r="BI31" s="153"/>
+      <c r="BJ31" s="152"/>
+      <c r="BK31" s="152"/>
+      <c r="BL31" s="153"/>
+      <c r="BM31" s="152"/>
+      <c r="BN31" s="152"/>
+      <c r="BP31" s="225" t="s">
+        <v>456</v>
+      </c>
+      <c r="BQ31" s="223"/>
+      <c r="BR31" s="222"/>
+      <c r="BS31" s="222"/>
+    </row>
+    <row r="32" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A32" s="149"/>
+      <c r="B32" s="153"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="152"/>
+      <c r="I32" s="153"/>
+      <c r="J32" s="152"/>
+      <c r="K32" s="152"/>
+      <c r="L32" s="153"/>
+      <c r="M32" s="152"/>
+      <c r="N32" s="152"/>
+      <c r="R32" s="149"/>
+      <c r="S32" s="153"/>
+      <c r="T32" s="149"/>
+      <c r="U32" s="149"/>
+      <c r="V32" s="152"/>
+      <c r="W32" s="153"/>
+      <c r="X32" s="152"/>
+      <c r="Y32" s="152"/>
+      <c r="Z32" s="153"/>
+      <c r="AA32" s="152"/>
+      <c r="AB32" s="152"/>
+      <c r="AC32" s="153"/>
+      <c r="AD32" s="152"/>
+      <c r="AE32" s="152"/>
+      <c r="AI32" s="149"/>
+      <c r="AJ32" s="153"/>
+      <c r="AK32" s="149"/>
+      <c r="AL32" s="149"/>
+      <c r="AM32" s="152"/>
+      <c r="AN32" s="153"/>
+      <c r="AO32" s="152"/>
+      <c r="AP32" s="152"/>
+      <c r="AQ32" s="153"/>
+      <c r="AR32" s="152"/>
+      <c r="AS32" s="152"/>
+      <c r="AT32" s="153"/>
+      <c r="AU32" s="152"/>
+      <c r="AV32" s="152"/>
+      <c r="AY32" s="164"/>
+      <c r="BA32" s="149"/>
+      <c r="BB32" s="153"/>
+      <c r="BC32" s="149"/>
+      <c r="BD32" s="149"/>
+      <c r="BE32" s="152"/>
+      <c r="BF32" s="153"/>
+      <c r="BG32" s="152"/>
+      <c r="BH32" s="152"/>
+      <c r="BI32" s="153"/>
+      <c r="BJ32" s="152"/>
+      <c r="BK32" s="152"/>
+      <c r="BL32" s="153"/>
+      <c r="BM32" s="152"/>
+      <c r="BN32" s="152"/>
+      <c r="BP32" s="225" t="s">
+        <v>457</v>
+      </c>
+      <c r="BQ32" s="223"/>
+      <c r="BR32" s="222"/>
+      <c r="BS32" s="222"/>
+    </row>
+    <row r="33" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="A33" s="149"/>
+      <c r="B33" s="153"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="152"/>
+      <c r="I33" s="153"/>
+      <c r="J33" s="152"/>
+      <c r="K33" s="152"/>
+      <c r="L33" s="153"/>
+      <c r="M33" s="152"/>
+      <c r="N33" s="152"/>
+      <c r="R33" s="149"/>
+      <c r="S33" s="153"/>
+      <c r="T33" s="149"/>
+      <c r="U33" s="149"/>
+      <c r="V33" s="152"/>
+      <c r="W33" s="153"/>
+      <c r="X33" s="152"/>
+      <c r="Y33" s="152"/>
+      <c r="Z33" s="153"/>
+      <c r="AA33" s="152"/>
+      <c r="AB33" s="152"/>
+      <c r="AC33" s="153"/>
+      <c r="AD33" s="152"/>
+      <c r="AE33" s="152"/>
+      <c r="AI33" s="149"/>
+      <c r="AJ33" s="153"/>
+      <c r="AK33" s="149"/>
+      <c r="AL33" s="149"/>
+      <c r="AM33" s="152"/>
+      <c r="AN33" s="153"/>
+      <c r="AO33" s="152"/>
+      <c r="AP33" s="152"/>
+      <c r="AQ33" s="153"/>
+      <c r="AR33" s="152"/>
+      <c r="AS33" s="152"/>
+      <c r="AT33" s="153"/>
+      <c r="AU33" s="152"/>
+      <c r="AV33" s="152"/>
+      <c r="AY33" s="164"/>
+      <c r="BA33" s="149"/>
+      <c r="BB33" s="153"/>
+      <c r="BC33" s="149"/>
+      <c r="BD33" s="149"/>
+      <c r="BE33" s="152"/>
+      <c r="BF33" s="153"/>
+      <c r="BG33" s="152"/>
+      <c r="BH33" s="152"/>
+      <c r="BI33" s="153"/>
+      <c r="BJ33" s="152"/>
+      <c r="BK33" s="152"/>
+      <c r="BL33" s="153"/>
+      <c r="BM33" s="152"/>
+      <c r="BN33" s="152"/>
+      <c r="BP33" s="225" t="s">
+        <v>458</v>
+      </c>
+      <c r="BQ33" s="223"/>
+      <c r="BR33" s="222">
+        <v>0.5</v>
+      </c>
+      <c r="BS33" s="222">
+        <f>BV13*BW13*BR33</f>
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="A34" s="149"/>
+      <c r="B34" s="153"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="152"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="152"/>
+      <c r="H34" s="152"/>
+      <c r="I34" s="153"/>
+      <c r="J34" s="152"/>
+      <c r="K34" s="152"/>
+      <c r="L34" s="153"/>
+      <c r="M34" s="152"/>
+      <c r="N34" s="152"/>
+      <c r="R34" s="149"/>
+      <c r="S34" s="153"/>
+      <c r="T34" s="149"/>
+      <c r="U34" s="149"/>
+      <c r="V34" s="152"/>
+      <c r="W34" s="153"/>
+      <c r="X34" s="152"/>
+      <c r="Y34" s="152"/>
+      <c r="Z34" s="153"/>
+      <c r="AA34" s="152"/>
+      <c r="AB34" s="152"/>
+      <c r="AC34" s="153"/>
+      <c r="AD34" s="152"/>
+      <c r="AE34" s="152"/>
+      <c r="AI34" s="149"/>
+      <c r="AJ34" s="153"/>
+      <c r="AK34" s="149"/>
+      <c r="AL34" s="149"/>
+      <c r="AM34" s="152"/>
+      <c r="AN34" s="153"/>
+      <c r="AO34" s="152"/>
+      <c r="AP34" s="152"/>
+      <c r="AQ34" s="153"/>
+      <c r="AR34" s="152"/>
+      <c r="AS34" s="152"/>
+      <c r="AT34" s="153"/>
+      <c r="AU34" s="152"/>
+      <c r="AV34" s="152"/>
+      <c r="AY34" s="164"/>
+      <c r="BA34" s="149"/>
+      <c r="BB34" s="153"/>
+      <c r="BC34" s="149"/>
+      <c r="BD34" s="149"/>
+      <c r="BE34" s="152"/>
+      <c r="BF34" s="153"/>
+      <c r="BG34" s="152"/>
+      <c r="BH34" s="152"/>
+      <c r="BI34" s="153"/>
+      <c r="BJ34" s="152"/>
+      <c r="BK34" s="152"/>
+      <c r="BL34" s="153"/>
+      <c r="BM34" s="152"/>
+      <c r="BN34" s="152"/>
+      <c r="BP34" s="225" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ34" s="223"/>
+      <c r="BR34" s="222"/>
+      <c r="BS34" s="222"/>
+    </row>
+    <row r="35" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="A35" s="149"/>
+      <c r="B35" s="153"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="153"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="153"/>
+      <c r="J35" s="152"/>
+      <c r="K35" s="152"/>
+      <c r="L35" s="153"/>
+      <c r="M35" s="152"/>
+      <c r="N35" s="152"/>
+      <c r="R35" s="149"/>
+      <c r="S35" s="153"/>
+      <c r="T35" s="149"/>
+      <c r="U35" s="149"/>
+      <c r="V35" s="152"/>
+      <c r="W35" s="153"/>
+      <c r="X35" s="152"/>
+      <c r="Y35" s="152"/>
+      <c r="Z35" s="153"/>
+      <c r="AA35" s="152"/>
+      <c r="AB35" s="152"/>
+      <c r="AC35" s="153"/>
+      <c r="AD35" s="152"/>
+      <c r="AE35" s="152"/>
+      <c r="AI35" s="149"/>
+      <c r="AJ35" s="153"/>
+      <c r="AK35" s="149"/>
+      <c r="AL35" s="149"/>
+      <c r="AM35" s="152"/>
+      <c r="AN35" s="153"/>
+      <c r="AO35" s="152"/>
+      <c r="AP35" s="152"/>
+      <c r="AQ35" s="153"/>
+      <c r="AR35" s="152"/>
+      <c r="AS35" s="152"/>
+      <c r="AT35" s="153"/>
+      <c r="AU35" s="152"/>
+      <c r="AV35" s="152"/>
+      <c r="AY35" s="164"/>
+      <c r="BA35" s="149"/>
+      <c r="BB35" s="153"/>
+      <c r="BC35" s="149"/>
+      <c r="BD35" s="149"/>
+      <c r="BE35" s="152"/>
+      <c r="BF35" s="153"/>
+      <c r="BG35" s="152"/>
+      <c r="BH35" s="152"/>
+      <c r="BI35" s="153"/>
+      <c r="BJ35" s="152"/>
+      <c r="BK35" s="152"/>
+      <c r="BL35" s="153"/>
+      <c r="BM35" s="152"/>
+      <c r="BN35" s="152"/>
+      <c r="BP35" s="223"/>
+      <c r="BQ35" s="223"/>
+      <c r="BR35" s="222"/>
+      <c r="BS35" s="222"/>
+    </row>
+    <row r="36" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="A36" s="149"/>
+      <c r="B36" s="153"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="152"/>
+      <c r="F36" s="153"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="152"/>
+      <c r="I36" s="153"/>
+      <c r="J36" s="152"/>
+      <c r="K36" s="152"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="152"/>
+      <c r="N36" s="152"/>
+      <c r="R36" s="149"/>
+      <c r="S36" s="153"/>
+      <c r="T36" s="149"/>
+      <c r="U36" s="149"/>
+      <c r="V36" s="152"/>
+      <c r="W36" s="153"/>
+      <c r="X36" s="152"/>
+      <c r="Y36" s="152"/>
+      <c r="Z36" s="153"/>
+      <c r="AA36" s="152"/>
+      <c r="AB36" s="152"/>
+      <c r="AC36" s="153"/>
+      <c r="AD36" s="152"/>
+      <c r="AE36" s="152"/>
+      <c r="AI36" s="149"/>
+      <c r="AJ36" s="153"/>
+      <c r="AK36" s="149"/>
+      <c r="AL36" s="149"/>
+      <c r="AM36" s="152"/>
+      <c r="AN36" s="153"/>
+      <c r="AO36" s="152"/>
+      <c r="AP36" s="152"/>
+      <c r="AQ36" s="153"/>
+      <c r="AR36" s="152"/>
+      <c r="AS36" s="152"/>
+      <c r="AT36" s="153"/>
+      <c r="AU36" s="152"/>
+      <c r="AV36" s="152"/>
+      <c r="AY36" s="164"/>
+      <c r="BA36" s="149"/>
+      <c r="BB36" s="153"/>
+      <c r="BC36" s="149"/>
+      <c r="BD36" s="149"/>
+      <c r="BE36" s="152"/>
+      <c r="BF36" s="153"/>
+      <c r="BG36" s="152"/>
+      <c r="BH36" s="152"/>
+      <c r="BI36" s="153"/>
+      <c r="BJ36" s="152"/>
+      <c r="BK36" s="152"/>
+      <c r="BL36" s="153"/>
+      <c r="BM36" s="152"/>
+      <c r="BN36" s="152"/>
+      <c r="BP36" s="223"/>
+      <c r="BQ36" s="223"/>
+      <c r="BR36" s="222"/>
+      <c r="BS36" s="222"/>
+    </row>
+    <row r="37" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="A37" s="149"/>
+      <c r="B37" s="153"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="152"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="152"/>
+      <c r="I37" s="153"/>
+      <c r="J37" s="152"/>
+      <c r="K37" s="152"/>
+      <c r="L37" s="153"/>
+      <c r="M37" s="152"/>
+      <c r="N37" s="152"/>
+      <c r="R37" s="149"/>
+      <c r="S37" s="153"/>
+      <c r="T37" s="149"/>
+      <c r="U37" s="149"/>
+      <c r="V37" s="152"/>
+      <c r="W37" s="153"/>
+      <c r="X37" s="152"/>
+      <c r="Y37" s="152"/>
+      <c r="Z37" s="153"/>
+      <c r="AA37" s="152"/>
+      <c r="AB37" s="152"/>
+      <c r="AC37" s="153"/>
+      <c r="AD37" s="152"/>
+      <c r="AE37" s="152"/>
+      <c r="AI37" s="149"/>
+      <c r="AJ37" s="153"/>
+      <c r="AK37" s="149"/>
+      <c r="AL37" s="149"/>
+      <c r="AM37" s="152"/>
+      <c r="AN37" s="153"/>
+      <c r="AO37" s="152"/>
+      <c r="AP37" s="152"/>
+      <c r="AQ37" s="153"/>
+      <c r="AR37" s="152"/>
+      <c r="AS37" s="152"/>
+      <c r="AT37" s="153"/>
+      <c r="AU37" s="152"/>
+      <c r="AV37" s="152"/>
+      <c r="AY37" s="164"/>
+      <c r="BA37" s="149"/>
+      <c r="BB37" s="153"/>
+      <c r="BC37" s="149"/>
+      <c r="BD37" s="149"/>
+      <c r="BE37" s="152"/>
+      <c r="BF37" s="153"/>
+      <c r="BG37" s="152"/>
+      <c r="BH37" s="152"/>
+      <c r="BI37" s="153"/>
+      <c r="BJ37" s="152"/>
+      <c r="BK37" s="152"/>
+      <c r="BL37" s="153"/>
+      <c r="BM37" s="152"/>
+      <c r="BN37" s="152"/>
+    </row>
+    <row r="38" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="A38" s="149"/>
+      <c r="B38" s="153"/>
+      <c r="C38" s="149"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="153"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="152"/>
+      <c r="I38" s="153"/>
+      <c r="J38" s="152"/>
+      <c r="K38" s="152"/>
+      <c r="L38" s="153"/>
+      <c r="M38" s="152"/>
+      <c r="N38" s="152"/>
+      <c r="R38" s="149"/>
+      <c r="S38" s="153"/>
+      <c r="T38" s="149"/>
+      <c r="U38" s="149"/>
+      <c r="V38" s="152"/>
+      <c r="W38" s="153"/>
+      <c r="X38" s="152"/>
+      <c r="Y38" s="152"/>
+      <c r="Z38" s="153"/>
+      <c r="AA38" s="152"/>
+      <c r="AB38" s="152"/>
+      <c r="AC38" s="153"/>
+      <c r="AD38" s="152"/>
+      <c r="AE38" s="152"/>
+      <c r="AI38" s="149"/>
+      <c r="AJ38" s="153"/>
+      <c r="AK38" s="149"/>
+      <c r="AL38" s="149"/>
+      <c r="AM38" s="152"/>
+      <c r="AN38" s="153"/>
+      <c r="AO38" s="152"/>
+      <c r="AP38" s="152"/>
+      <c r="AQ38" s="153"/>
+      <c r="AR38" s="152"/>
+      <c r="AS38" s="152"/>
+      <c r="AT38" s="153"/>
+      <c r="AU38" s="152"/>
+      <c r="AV38" s="152"/>
+      <c r="AY38" s="164"/>
+      <c r="BA38" s="149"/>
+      <c r="BB38" s="153"/>
+      <c r="BC38" s="149"/>
+      <c r="BD38" s="149"/>
+      <c r="BE38" s="152"/>
+      <c r="BF38" s="153"/>
+      <c r="BG38" s="152"/>
+      <c r="BH38" s="152"/>
+      <c r="BI38" s="153"/>
+      <c r="BJ38" s="152"/>
+      <c r="BK38" s="152"/>
+      <c r="BL38" s="153"/>
+      <c r="BM38" s="152"/>
+      <c r="BN38" s="152"/>
+    </row>
+    <row r="39" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="A39" s="149"/>
+      <c r="B39" s="153"/>
+      <c r="C39" s="149"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="153"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="152"/>
+      <c r="I39" s="153"/>
+      <c r="J39" s="152"/>
+      <c r="K39" s="152"/>
+      <c r="L39" s="153"/>
+      <c r="M39" s="152"/>
+      <c r="N39" s="152"/>
+      <c r="R39" s="149"/>
+      <c r="S39" s="153"/>
+      <c r="T39" s="149"/>
+      <c r="U39" s="149"/>
+      <c r="V39" s="152"/>
+      <c r="W39" s="153"/>
+      <c r="X39" s="152"/>
+      <c r="Y39" s="152"/>
+      <c r="Z39" s="153"/>
+      <c r="AA39" s="152"/>
+      <c r="AB39" s="152"/>
+      <c r="AC39" s="153"/>
+      <c r="AD39" s="152"/>
+      <c r="AE39" s="152"/>
+      <c r="AI39" s="149"/>
+      <c r="AJ39" s="153"/>
+      <c r="AK39" s="149"/>
+      <c r="AL39" s="149"/>
+      <c r="AM39" s="152"/>
+      <c r="AN39" s="153"/>
+      <c r="AO39" s="152"/>
+      <c r="AP39" s="152"/>
+      <c r="AQ39" s="153"/>
+      <c r="AR39" s="152"/>
+      <c r="AS39" s="152"/>
+      <c r="AT39" s="153"/>
+      <c r="AU39" s="152"/>
+      <c r="AV39" s="152"/>
+      <c r="AY39" s="164"/>
+      <c r="BA39" s="149"/>
+      <c r="BB39" s="153"/>
+      <c r="BC39" s="149"/>
+      <c r="BD39" s="149"/>
+      <c r="BE39" s="152"/>
+      <c r="BF39" s="153"/>
+      <c r="BG39" s="152"/>
+      <c r="BH39" s="152"/>
+      <c r="BI39" s="153"/>
+      <c r="BJ39" s="152"/>
+      <c r="BK39" s="152"/>
+      <c r="BL39" s="153"/>
+      <c r="BM39" s="152"/>
+      <c r="BN39" s="152"/>
+    </row>
+    <row r="40" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="A40" s="149"/>
+      <c r="B40" s="153"/>
+      <c r="C40" s="149"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="152"/>
+      <c r="F40" s="153"/>
+      <c r="G40" s="152"/>
+      <c r="H40" s="152"/>
+      <c r="I40" s="153"/>
+      <c r="J40" s="152"/>
+      <c r="K40" s="152"/>
+      <c r="L40" s="153"/>
+      <c r="M40" s="152"/>
+      <c r="N40" s="152"/>
+      <c r="R40" s="149"/>
+      <c r="S40" s="153"/>
+      <c r="T40" s="149"/>
+      <c r="U40" s="149"/>
+      <c r="V40" s="152"/>
+      <c r="W40" s="153"/>
+      <c r="X40" s="152"/>
+      <c r="Y40" s="152"/>
+      <c r="Z40" s="153"/>
+      <c r="AA40" s="152"/>
+      <c r="AB40" s="152"/>
+      <c r="AC40" s="153"/>
+      <c r="AD40" s="152"/>
+      <c r="AE40" s="152"/>
+      <c r="AI40" s="149"/>
+      <c r="AJ40" s="153"/>
+      <c r="AK40" s="149"/>
+      <c r="AL40" s="149"/>
+      <c r="AM40" s="152"/>
+      <c r="AN40" s="153"/>
+      <c r="AO40" s="152"/>
+      <c r="AP40" s="152"/>
+      <c r="AQ40" s="153"/>
+      <c r="AR40" s="152"/>
+      <c r="AS40" s="152"/>
+      <c r="AT40" s="153"/>
+      <c r="AU40" s="152"/>
+      <c r="AV40" s="152"/>
+      <c r="AY40" s="164"/>
+    </row>
+    <row r="41" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="A41" s="149"/>
+      <c r="B41" s="153"/>
+      <c r="C41" s="149"/>
+      <c r="D41" s="149"/>
+      <c r="E41" s="152"/>
+      <c r="F41" s="153"/>
+      <c r="G41" s="152"/>
+      <c r="H41" s="152"/>
+      <c r="I41" s="153"/>
+      <c r="J41" s="152"/>
+      <c r="K41" s="152"/>
+      <c r="L41" s="153"/>
+      <c r="M41" s="152"/>
+      <c r="N41" s="152"/>
+      <c r="R41" s="149"/>
+      <c r="S41" s="153"/>
+      <c r="T41" s="149"/>
+      <c r="U41" s="149"/>
+      <c r="V41" s="152"/>
+      <c r="W41" s="153"/>
+      <c r="X41" s="152"/>
+      <c r="Y41" s="152"/>
+      <c r="Z41" s="153"/>
+      <c r="AA41" s="152"/>
+      <c r="AB41" s="152"/>
+      <c r="AC41" s="153"/>
+      <c r="AD41" s="152"/>
+      <c r="AE41" s="152"/>
+      <c r="AI41" s="149"/>
+      <c r="AJ41" s="153"/>
+      <c r="AK41" s="149"/>
+      <c r="AL41" s="149"/>
+      <c r="AM41" s="152"/>
+      <c r="AN41" s="153"/>
+      <c r="AO41" s="152"/>
+      <c r="AP41" s="152"/>
+      <c r="AQ41" s="153"/>
+      <c r="AR41" s="152"/>
+      <c r="AS41" s="152"/>
+      <c r="AT41" s="153"/>
+      <c r="AU41" s="152"/>
+      <c r="AV41" s="152"/>
+      <c r="AY41" s="164"/>
+    </row>
+    <row r="42" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="A42" s="149"/>
+      <c r="B42" s="153"/>
+      <c r="C42" s="149"/>
+      <c r="D42" s="149"/>
+      <c r="E42" s="152"/>
+      <c r="F42" s="153"/>
+      <c r="G42" s="152"/>
+      <c r="H42" s="152"/>
+      <c r="I42" s="153"/>
+      <c r="J42" s="152"/>
+      <c r="K42" s="152"/>
+      <c r="L42" s="153"/>
+      <c r="M42" s="152"/>
+      <c r="N42" s="152"/>
+      <c r="R42" s="149"/>
+      <c r="S42" s="153"/>
+      <c r="T42" s="149"/>
+      <c r="U42" s="149"/>
+      <c r="V42" s="152"/>
+      <c r="W42" s="153"/>
+      <c r="X42" s="152"/>
+      <c r="Y42" s="152"/>
+      <c r="Z42" s="153"/>
+      <c r="AA42" s="152"/>
+      <c r="AB42" s="152"/>
+      <c r="AC42" s="153"/>
+      <c r="AD42" s="152"/>
+      <c r="AE42" s="152"/>
+      <c r="AI42" s="149"/>
+      <c r="AJ42" s="153"/>
+      <c r="AK42" s="149"/>
+      <c r="AL42" s="149"/>
+      <c r="AM42" s="152"/>
+      <c r="AN42" s="153"/>
+      <c r="AO42" s="152"/>
+      <c r="AP42" s="152"/>
+      <c r="AQ42" s="153"/>
+      <c r="AR42" s="152"/>
+      <c r="AS42" s="152"/>
+      <c r="AT42" s="153"/>
+      <c r="AU42" s="152"/>
+      <c r="AV42" s="152"/>
+      <c r="AY42" s="164"/>
+    </row>
+    <row r="43" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="A43" s="149"/>
+      <c r="B43" s="153"/>
+      <c r="C43" s="149"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="152"/>
+      <c r="F43" s="153"/>
+      <c r="G43" s="152"/>
+      <c r="H43" s="152"/>
+      <c r="I43" s="153"/>
+      <c r="J43" s="152"/>
+      <c r="K43" s="152"/>
+      <c r="L43" s="153"/>
+      <c r="M43" s="152"/>
+      <c r="N43" s="152"/>
+      <c r="R43" s="149"/>
+      <c r="S43" s="153"/>
+      <c r="T43" s="149"/>
+      <c r="U43" s="149"/>
+      <c r="V43" s="152"/>
+      <c r="W43" s="153"/>
+      <c r="X43" s="152"/>
+      <c r="Y43" s="152"/>
+      <c r="Z43" s="153"/>
+      <c r="AA43" s="152"/>
+      <c r="AB43" s="152"/>
+      <c r="AC43" s="153"/>
+      <c r="AD43" s="152"/>
+      <c r="AE43" s="152"/>
+      <c r="AI43" s="149"/>
+      <c r="AJ43" s="153"/>
+      <c r="AK43" s="149"/>
+      <c r="AL43" s="149"/>
+      <c r="AM43" s="152"/>
+      <c r="AN43" s="153"/>
+      <c r="AO43" s="152"/>
+      <c r="AP43" s="152"/>
+      <c r="AQ43" s="153"/>
+      <c r="AR43" s="152"/>
+      <c r="AS43" s="152"/>
+      <c r="AT43" s="153"/>
+      <c r="AU43" s="152"/>
+      <c r="AV43" s="152"/>
+      <c r="AY43" s="164"/>
+    </row>
+    <row r="44" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="A44" s="149"/>
+      <c r="B44" s="153"/>
+      <c r="C44" s="149"/>
+      <c r="D44" s="149"/>
+      <c r="E44" s="152"/>
+      <c r="F44" s="153"/>
+      <c r="G44" s="152"/>
+      <c r="H44" s="152"/>
+      <c r="I44" s="153"/>
+      <c r="J44" s="152"/>
+      <c r="K44" s="152"/>
+      <c r="L44" s="153"/>
+      <c r="M44" s="152"/>
+      <c r="N44" s="152"/>
+      <c r="R44" s="149"/>
+      <c r="S44" s="153"/>
+      <c r="T44" s="149"/>
+      <c r="U44" s="149"/>
+      <c r="V44" s="152"/>
+      <c r="W44" s="153"/>
+      <c r="X44" s="152"/>
+      <c r="Y44" s="152"/>
+      <c r="Z44" s="153"/>
+      <c r="AA44" s="152"/>
+      <c r="AB44" s="152"/>
+      <c r="AC44" s="153"/>
+      <c r="AD44" s="152"/>
+      <c r="AE44" s="152"/>
+      <c r="AI44" s="149"/>
+      <c r="AJ44" s="153"/>
+      <c r="AK44" s="149"/>
+      <c r="AL44" s="149"/>
+      <c r="AM44" s="152"/>
+      <c r="AN44" s="153"/>
+      <c r="AO44" s="152"/>
+      <c r="AP44" s="152"/>
+      <c r="AQ44" s="153"/>
+      <c r="AR44" s="152"/>
+      <c r="AS44" s="152"/>
+      <c r="AT44" s="153"/>
+      <c r="AU44" s="152"/>
+      <c r="AV44" s="152"/>
+      <c r="AY44" s="164"/>
+    </row>
+    <row r="45" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="A45" s="149"/>
+      <c r="B45" s="153"/>
+      <c r="C45" s="149"/>
+      <c r="D45" s="149"/>
+      <c r="E45" s="152"/>
+      <c r="F45" s="153"/>
+      <c r="G45" s="152"/>
+      <c r="H45" s="152"/>
+      <c r="I45" s="153"/>
+      <c r="J45" s="152"/>
+      <c r="K45" s="152"/>
+      <c r="L45" s="153"/>
+      <c r="M45" s="152"/>
+      <c r="N45" s="152"/>
+      <c r="R45" s="149"/>
+      <c r="S45" s="153"/>
+      <c r="T45" s="149"/>
+      <c r="U45" s="149"/>
+      <c r="V45" s="152"/>
+      <c r="W45" s="153"/>
+      <c r="X45" s="152"/>
+      <c r="Y45" s="152"/>
+      <c r="Z45" s="153"/>
+      <c r="AA45" s="152"/>
+      <c r="AB45" s="152"/>
+      <c r="AC45" s="153"/>
+      <c r="AD45" s="152"/>
+      <c r="AE45" s="152"/>
+      <c r="AI45" s="149"/>
+      <c r="AJ45" s="153"/>
+      <c r="AK45" s="149"/>
+      <c r="AL45" s="149"/>
+      <c r="AM45" s="152"/>
+      <c r="AN45" s="153"/>
+      <c r="AO45" s="152"/>
+      <c r="AP45" s="152"/>
+      <c r="AQ45" s="153"/>
+      <c r="AR45" s="152"/>
+      <c r="AS45" s="152"/>
+      <c r="AT45" s="153"/>
+      <c r="AU45" s="152"/>
+      <c r="AV45" s="152"/>
+      <c r="AY45" s="164"/>
+    </row>
+    <row r="46" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="A46" s="149"/>
+      <c r="B46" s="153"/>
+      <c r="C46" s="149"/>
+      <c r="D46" s="149"/>
+      <c r="E46" s="152"/>
+      <c r="F46" s="153"/>
+      <c r="G46" s="152"/>
+      <c r="H46" s="152"/>
+      <c r="I46" s="153"/>
+      <c r="J46" s="152"/>
+      <c r="K46" s="152"/>
+      <c r="L46" s="153"/>
+      <c r="M46" s="152"/>
+      <c r="N46" s="152"/>
+      <c r="R46" s="149"/>
+      <c r="S46" s="153"/>
+      <c r="T46" s="149"/>
+      <c r="U46" s="149"/>
+      <c r="V46" s="152"/>
+      <c r="W46" s="153"/>
+      <c r="X46" s="152"/>
+      <c r="Y46" s="152"/>
+      <c r="Z46" s="153"/>
+      <c r="AA46" s="152"/>
+      <c r="AB46" s="152"/>
+      <c r="AC46" s="153"/>
+      <c r="AD46" s="152"/>
+      <c r="AE46" s="152"/>
+      <c r="AI46" s="149"/>
+      <c r="AJ46" s="153"/>
+      <c r="AK46" s="149"/>
+      <c r="AL46" s="149"/>
+      <c r="AM46" s="152"/>
+      <c r="AN46" s="153"/>
+      <c r="AO46" s="152"/>
+      <c r="AP46" s="152"/>
+      <c r="AQ46" s="153"/>
+      <c r="AR46" s="152"/>
+      <c r="AS46" s="152"/>
+      <c r="AT46" s="153"/>
+      <c r="AU46" s="152"/>
+      <c r="AV46" s="152"/>
+      <c r="AY46" s="164"/>
+    </row>
+    <row r="47" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="A47" s="149"/>
+      <c r="B47" s="153"/>
+      <c r="C47" s="149"/>
+      <c r="D47" s="149"/>
+      <c r="E47" s="152"/>
+      <c r="F47" s="153"/>
+      <c r="G47" s="152"/>
+      <c r="H47" s="152"/>
+      <c r="I47" s="153"/>
+      <c r="J47" s="152"/>
+      <c r="K47" s="152"/>
+      <c r="L47" s="153"/>
+      <c r="M47" s="152"/>
+      <c r="N47" s="152"/>
+      <c r="R47" s="149"/>
+      <c r="S47" s="153"/>
+      <c r="T47" s="149"/>
+      <c r="U47" s="149"/>
+      <c r="V47" s="152"/>
+      <c r="W47" s="153"/>
+      <c r="X47" s="152"/>
+      <c r="Y47" s="152"/>
+      <c r="Z47" s="153"/>
+      <c r="AA47" s="152"/>
+      <c r="AB47" s="152"/>
+      <c r="AC47" s="153"/>
+      <c r="AD47" s="152"/>
+      <c r="AE47" s="152"/>
+      <c r="AI47" s="149"/>
+      <c r="AJ47" s="153"/>
+      <c r="AK47" s="149"/>
+      <c r="AL47" s="149"/>
+      <c r="AM47" s="152"/>
+      <c r="AN47" s="153"/>
+      <c r="AO47" s="152"/>
+      <c r="AP47" s="152"/>
+      <c r="AQ47" s="153"/>
+      <c r="AR47" s="152"/>
+      <c r="AS47" s="152"/>
+      <c r="AT47" s="153"/>
+      <c r="AU47" s="152"/>
+      <c r="AV47" s="152"/>
+      <c r="AY47" s="164"/>
+    </row>
+    <row r="48" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="A48" s="149"/>
+      <c r="B48" s="153"/>
+      <c r="C48" s="149"/>
+      <c r="D48" s="149"/>
+      <c r="E48" s="152"/>
+      <c r="F48" s="153"/>
+      <c r="G48" s="152"/>
+      <c r="H48" s="152"/>
+      <c r="I48" s="153"/>
+      <c r="J48" s="152"/>
+      <c r="K48" s="152"/>
+      <c r="L48" s="153"/>
+      <c r="M48" s="152"/>
+      <c r="N48" s="152"/>
+      <c r="R48" s="149"/>
+      <c r="S48" s="153"/>
+      <c r="T48" s="149"/>
+      <c r="U48" s="149"/>
+      <c r="V48" s="152"/>
+      <c r="W48" s="153"/>
+      <c r="X48" s="152"/>
+      <c r="Y48" s="152"/>
+      <c r="Z48" s="153"/>
+      <c r="AA48" s="152"/>
+      <c r="AB48" s="152"/>
+      <c r="AC48" s="153"/>
+      <c r="AD48" s="152"/>
+      <c r="AE48" s="152"/>
+      <c r="AI48" s="149"/>
+      <c r="AJ48" s="153"/>
+      <c r="AK48" s="149"/>
+      <c r="AL48" s="149"/>
+      <c r="AM48" s="152"/>
+      <c r="AN48" s="153"/>
+      <c r="AO48" s="152"/>
+      <c r="AP48" s="152"/>
+      <c r="AQ48" s="153"/>
+      <c r="AR48" s="152"/>
+      <c r="AS48" s="152"/>
+      <c r="AT48" s="153"/>
+      <c r="AU48" s="152"/>
+      <c r="AV48" s="152"/>
+      <c r="AY48" s="164"/>
+    </row>
+    <row r="49" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A49" s="149"/>
+      <c r="B49" s="153"/>
+      <c r="C49" s="149"/>
+      <c r="D49" s="149"/>
+      <c r="E49" s="152"/>
+      <c r="F49" s="153"/>
+      <c r="G49" s="152"/>
+      <c r="H49" s="152"/>
+      <c r="I49" s="153"/>
+      <c r="J49" s="152"/>
+      <c r="K49" s="152"/>
+      <c r="L49" s="153"/>
+      <c r="M49" s="152"/>
+      <c r="N49" s="152"/>
+      <c r="R49" s="149"/>
+      <c r="S49" s="153"/>
+      <c r="T49" s="149"/>
+      <c r="U49" s="149"/>
+      <c r="V49" s="152"/>
+      <c r="W49" s="153"/>
+      <c r="X49" s="152"/>
+      <c r="Y49" s="152"/>
+      <c r="Z49" s="153"/>
+      <c r="AA49" s="152"/>
+      <c r="AB49" s="152"/>
+      <c r="AC49" s="153"/>
+      <c r="AD49" s="152"/>
+      <c r="AE49" s="152"/>
+      <c r="AI49" s="149"/>
+      <c r="AJ49" s="153"/>
+      <c r="AK49" s="149"/>
+      <c r="AL49" s="149"/>
+      <c r="AM49" s="152"/>
+      <c r="AN49" s="153"/>
+      <c r="AO49" s="152"/>
+      <c r="AP49" s="152"/>
+      <c r="AQ49" s="153"/>
+      <c r="AR49" s="152"/>
+      <c r="AS49" s="152"/>
+      <c r="AT49" s="153"/>
+      <c r="AU49" s="152"/>
+      <c r="AV49" s="152"/>
+      <c r="AY49" s="164"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="BT9:BV9"/>
+    <mergeCell ref="BW9:BX9"/>
+    <mergeCell ref="BP28:BS28"/>
+    <mergeCell ref="BP25:BS25"/>
+    <mergeCell ref="AY6:AZ7"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="AL3:AN3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6:Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10249,13 +13918,13 @@
       <c r="A3" s="144" t="s">
         <v>333</v>
       </c>
-      <c r="D3" s="235" t="s">
+      <c r="D3" s="255" t="s">
         <v>344</v>
       </c>
-      <c r="E3" s="236"/>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
-      <c r="H3" s="237"/>
+      <c r="E3" s="256"/>
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="257"/>
       <c r="Q3" s="169" t="s">
         <v>345</v>
       </c>
@@ -10330,20 +13999,20 @@
         <v>338</v>
       </c>
       <c r="Q6" s="164"/>
-      <c r="R6" s="238" t="s">
+      <c r="R6" s="258" t="s">
         <v>346</v>
       </c>
-      <c r="S6" s="238"/>
+      <c r="S6" s="258"/>
       <c r="T6" s="165"/>
-      <c r="V6" s="239" t="s">
+      <c r="V6" s="253" t="s">
         <v>358</v>
       </c>
-      <c r="W6" s="239"/>
-      <c r="X6" s="239"/>
-      <c r="Y6" s="234" t="s">
+      <c r="W6" s="253"/>
+      <c r="X6" s="253"/>
+      <c r="Y6" s="254" t="s">
         <v>362</v>
       </c>
-      <c r="Z6" s="234"/>
+      <c r="Z6" s="254"/>
       <c r="AA6" s="150"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
@@ -12115,12 +15784,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA52"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W10" sqref="W10:AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12141,14 +15810,14 @@
       <c r="A3" s="144" t="s">
         <v>333</v>
       </c>
-      <c r="C3" s="240" t="s">
+      <c r="C3" s="259" t="s">
         <v>403</v>
       </c>
-      <c r="D3" s="241"/>
-      <c r="E3" s="241"/>
-      <c r="F3" s="241"/>
-      <c r="G3" s="241"/>
-      <c r="H3" s="242"/>
+      <c r="D3" s="260"/>
+      <c r="E3" s="260"/>
+      <c r="F3" s="260"/>
+      <c r="G3" s="260"/>
+      <c r="H3" s="261"/>
       <c r="Q3" s="169" t="s">
         <v>345</v>
       </c>
@@ -12212,10 +15881,10 @@
         <v>338</v>
       </c>
       <c r="Q6" s="164"/>
-      <c r="R6" s="238" t="s">
+      <c r="R6" s="258" t="s">
         <v>346</v>
       </c>
-      <c r="S6" s="238"/>
+      <c r="S6" s="258"/>
       <c r="T6" s="165"/>
       <c r="U6" s="151"/>
       <c r="W6" s="187" t="s">
@@ -13627,7 +17296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q43"/>
   <sheetViews>
@@ -13656,94 +17325,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="244"/>
-      <c r="B1" s="244"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
-      <c r="L1" s="215"/>
-      <c r="M1" s="215"/>
-      <c r="N1" s="215"/>
-      <c r="O1" s="215"/>
-      <c r="P1" s="215"/>
-      <c r="Q1" s="244"/>
+      <c r="A1" s="263"/>
+      <c r="B1" s="263"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="227"/>
+      <c r="I1" s="227"/>
+      <c r="J1" s="227"/>
+      <c r="K1" s="227"/>
+      <c r="L1" s="227"/>
+      <c r="M1" s="227"/>
+      <c r="N1" s="227"/>
+      <c r="O1" s="227"/>
+      <c r="P1" s="227"/>
+      <c r="Q1" s="263"/>
     </row>
     <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="215"/>
-      <c r="B2" s="251" t="s">
+      <c r="A2" s="227"/>
+      <c r="B2" s="262" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="249" t="s">
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="271" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="215"/>
-      <c r="G2" s="250" t="s">
+      <c r="F2" s="227"/>
+      <c r="G2" s="272" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
-      <c r="N2" s="215"/>
-      <c r="O2" s="215"/>
-      <c r="P2" s="215"/>
-      <c r="Q2" s="215"/>
+      <c r="H2" s="227"/>
+      <c r="I2" s="227"/>
+      <c r="J2" s="227"/>
+      <c r="K2" s="227"/>
+      <c r="L2" s="227"/>
+      <c r="M2" s="227"/>
+      <c r="N2" s="227"/>
+      <c r="O2" s="227"/>
+      <c r="P2" s="227"/>
+      <c r="Q2" s="227"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="215"/>
-      <c r="B3" s="244"/>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="215"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215"/>
-      <c r="J3" s="215"/>
-      <c r="K3" s="215"/>
-      <c r="L3" s="215"/>
-      <c r="M3" s="215"/>
-      <c r="N3" s="215"/>
-      <c r="O3" s="215"/>
-      <c r="P3" s="215"/>
-      <c r="Q3" s="215"/>
+      <c r="A3" s="227"/>
+      <c r="B3" s="263"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="263"/>
+      <c r="F3" s="227"/>
+      <c r="G3" s="227"/>
+      <c r="H3" s="227"/>
+      <c r="I3" s="227"/>
+      <c r="J3" s="227"/>
+      <c r="K3" s="227"/>
+      <c r="L3" s="227"/>
+      <c r="M3" s="227"/>
+      <c r="N3" s="227"/>
+      <c r="O3" s="227"/>
+      <c r="P3" s="227"/>
+      <c r="Q3" s="227"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="215"/>
-      <c r="B4" s="252"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="248" t="s">
+      <c r="A4" s="227"/>
+      <c r="B4" s="264"/>
+      <c r="C4" s="227"/>
+      <c r="D4" s="227"/>
+      <c r="E4" s="270" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="215"/>
-      <c r="J4" s="215"/>
-      <c r="K4" s="215"/>
-      <c r="L4" s="215"/>
-      <c r="M4" s="215"/>
-      <c r="N4" s="215"/>
-      <c r="O4" s="215"/>
-      <c r="P4" s="215"/>
-      <c r="Q4" s="215"/>
+      <c r="F4" s="227"/>
+      <c r="G4" s="227"/>
+      <c r="H4" s="227"/>
+      <c r="I4" s="227"/>
+      <c r="J4" s="227"/>
+      <c r="K4" s="227"/>
+      <c r="L4" s="227"/>
+      <c r="M4" s="227"/>
+      <c r="N4" s="227"/>
+      <c r="O4" s="227"/>
+      <c r="P4" s="227"/>
+      <c r="Q4" s="227"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="215"/>
+      <c r="A5" s="227"/>
       <c r="B5" s="11"/>
       <c r="C5" s="34"/>
-      <c r="D5" s="215"/>
+      <c r="D5" s="227"/>
       <c r="E5" s="35" t="s">
         <v>104</v>
       </c>
@@ -13780,13 +17449,13 @@
       <c r="P5" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="Q5" s="215"/>
+      <c r="Q5" s="227"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="215"/>
+      <c r="A6" s="227"/>
       <c r="B6" s="11"/>
       <c r="C6" s="34"/>
-      <c r="D6" s="215"/>
+      <c r="D6" s="227"/>
       <c r="E6" s="47">
         <v>0</v>
       </c>
@@ -13825,55 +17494,55 @@
       <c r="P6" s="47">
         <v>150</v>
       </c>
-      <c r="Q6" s="215"/>
+      <c r="Q6" s="227"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="215"/>
-      <c r="B7" s="253"/>
-      <c r="C7" s="215"/>
-      <c r="D7" s="215"/>
-      <c r="E7" s="244"/>
-      <c r="F7" s="215"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="215"/>
-      <c r="I7" s="215"/>
-      <c r="J7" s="215"/>
-      <c r="K7" s="215"/>
-      <c r="L7" s="215"/>
-      <c r="M7" s="215"/>
-      <c r="N7" s="215"/>
-      <c r="O7" s="215"/>
-      <c r="P7" s="215"/>
-      <c r="Q7" s="215"/>
+      <c r="A7" s="227"/>
+      <c r="B7" s="265"/>
+      <c r="C7" s="227"/>
+      <c r="D7" s="227"/>
+      <c r="E7" s="263"/>
+      <c r="F7" s="227"/>
+      <c r="G7" s="227"/>
+      <c r="H7" s="227"/>
+      <c r="I7" s="227"/>
+      <c r="J7" s="227"/>
+      <c r="K7" s="227"/>
+      <c r="L7" s="227"/>
+      <c r="M7" s="227"/>
+      <c r="N7" s="227"/>
+      <c r="O7" s="227"/>
+      <c r="P7" s="227"/>
+      <c r="Q7" s="227"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="215"/>
-      <c r="B8" s="252" t="s">
+      <c r="A8" s="227"/>
+      <c r="B8" s="264" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="215"/>
-      <c r="D8" s="215"/>
-      <c r="E8" s="243" t="s">
+      <c r="C8" s="227"/>
+      <c r="D8" s="227"/>
+      <c r="E8" s="266" t="s">
         <v>123</v>
       </c>
-      <c r="F8" s="215"/>
-      <c r="G8" s="215"/>
-      <c r="H8" s="215"/>
-      <c r="I8" s="215"/>
-      <c r="J8" s="215"/>
-      <c r="K8" s="215"/>
-      <c r="L8" s="215"/>
-      <c r="M8" s="215"/>
-      <c r="N8" s="215"/>
-      <c r="O8" s="215"/>
-      <c r="P8" s="215"/>
-      <c r="Q8" s="215"/>
+      <c r="F8" s="227"/>
+      <c r="G8" s="227"/>
+      <c r="H8" s="227"/>
+      <c r="I8" s="227"/>
+      <c r="J8" s="227"/>
+      <c r="K8" s="227"/>
+      <c r="L8" s="227"/>
+      <c r="M8" s="227"/>
+      <c r="N8" s="227"/>
+      <c r="O8" s="227"/>
+      <c r="P8" s="227"/>
+      <c r="Q8" s="227"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="215"/>
+      <c r="A9" s="227"/>
       <c r="B9" s="11"/>
       <c r="C9" s="54"/>
-      <c r="D9" s="215"/>
+      <c r="D9" s="227"/>
       <c r="E9" s="55">
         <v>1</v>
       </c>
@@ -13908,13 +17577,13 @@
       <c r="P9" s="59">
         <v>1</v>
       </c>
-      <c r="Q9" s="215"/>
+      <c r="Q9" s="227"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="215"/>
+      <c r="A10" s="227"/>
       <c r="B10" s="11"/>
       <c r="C10" s="54"/>
-      <c r="D10" s="215"/>
+      <c r="D10" s="227"/>
       <c r="E10" s="55">
         <v>2</v>
       </c>
@@ -13949,13 +17618,13 @@
       <c r="P10" s="59">
         <v>1.5</v>
       </c>
-      <c r="Q10" s="215"/>
+      <c r="Q10" s="227"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="215"/>
+      <c r="A11" s="227"/>
       <c r="B11" s="11"/>
       <c r="C11" s="54"/>
-      <c r="D11" s="215"/>
+      <c r="D11" s="227"/>
       <c r="E11" s="55">
         <v>3</v>
       </c>
@@ -13990,17 +17659,17 @@
       <c r="P11" s="59">
         <v>2</v>
       </c>
-      <c r="Q11" s="215"/>
+      <c r="Q11" s="227"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="215"/>
+      <c r="A12" s="227"/>
       <c r="B12" s="11" t="s">
         <v>161</v>
       </c>
       <c r="C12" s="54">
         <v>1</v>
       </c>
-      <c r="D12" s="215"/>
+      <c r="D12" s="227"/>
       <c r="E12" s="11" t="s">
         <v>162</v>
       </c>
@@ -14037,17 +17706,17 @@
       <c r="P12" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="Q12" s="215"/>
+      <c r="Q12" s="227"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="215"/>
+      <c r="A13" s="227"/>
       <c r="B13" s="11" t="s">
         <v>174</v>
       </c>
       <c r="C13" s="54">
         <v>1</v>
       </c>
-      <c r="D13" s="215"/>
+      <c r="D13" s="227"/>
       <c r="E13" s="55">
         <v>1</v>
       </c>
@@ -14095,17 +17764,17 @@
         <f t="shared" ref="P13:P15" si="5">P$6*P9</f>
         <v>150</v>
       </c>
-      <c r="Q13" s="215"/>
+      <c r="Q13" s="227"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="215"/>
+      <c r="A14" s="227"/>
       <c r="B14" s="11" t="s">
         <v>176</v>
       </c>
       <c r="C14" s="54">
         <v>1</v>
       </c>
-      <c r="D14" s="215"/>
+      <c r="D14" s="227"/>
       <c r="E14" s="55">
         <v>2</v>
       </c>
@@ -14150,13 +17819,13 @@
         <f t="shared" si="5"/>
         <v>225</v>
       </c>
-      <c r="Q14" s="215"/>
+      <c r="Q14" s="227"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="215"/>
+      <c r="A15" s="227"/>
       <c r="B15" s="11"/>
       <c r="C15" s="34"/>
-      <c r="D15" s="215"/>
+      <c r="D15" s="227"/>
       <c r="E15" s="55">
         <v>3</v>
       </c>
@@ -14201,55 +17870,55 @@
         <f t="shared" si="5"/>
         <v>300</v>
       </c>
-      <c r="Q15" s="215"/>
+      <c r="Q15" s="227"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="215"/>
-      <c r="B16" s="253"/>
-      <c r="C16" s="215"/>
-      <c r="D16" s="215"/>
-      <c r="E16" s="244"/>
-      <c r="F16" s="215"/>
-      <c r="G16" s="215"/>
-      <c r="H16" s="215"/>
-      <c r="I16" s="215"/>
-      <c r="J16" s="215"/>
-      <c r="K16" s="215"/>
-      <c r="L16" s="215"/>
-      <c r="M16" s="215"/>
+      <c r="A16" s="227"/>
+      <c r="B16" s="265"/>
+      <c r="C16" s="227"/>
+      <c r="D16" s="227"/>
+      <c r="E16" s="263"/>
+      <c r="F16" s="227"/>
+      <c r="G16" s="227"/>
+      <c r="H16" s="227"/>
+      <c r="I16" s="227"/>
+      <c r="J16" s="227"/>
+      <c r="K16" s="227"/>
+      <c r="L16" s="227"/>
+      <c r="M16" s="227"/>
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
-      <c r="Q16" s="215"/>
+      <c r="Q16" s="227"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="215"/>
-      <c r="B17" s="252" t="s">
+      <c r="A17" s="227"/>
+      <c r="B17" s="264" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="215"/>
-      <c r="D17" s="215"/>
-      <c r="E17" s="246" t="s">
+      <c r="C17" s="227"/>
+      <c r="D17" s="227"/>
+      <c r="E17" s="268" t="s">
         <v>183</v>
       </c>
-      <c r="F17" s="215"/>
-      <c r="G17" s="215"/>
-      <c r="H17" s="215"/>
-      <c r="I17" s="215"/>
-      <c r="J17" s="215"/>
-      <c r="K17" s="215"/>
-      <c r="L17" s="215"/>
-      <c r="M17" s="215"/>
-      <c r="N17" s="215"/>
-      <c r="O17" s="215"/>
-      <c r="P17" s="215"/>
-      <c r="Q17" s="215"/>
+      <c r="F17" s="227"/>
+      <c r="G17" s="227"/>
+      <c r="H17" s="227"/>
+      <c r="I17" s="227"/>
+      <c r="J17" s="227"/>
+      <c r="K17" s="227"/>
+      <c r="L17" s="227"/>
+      <c r="M17" s="227"/>
+      <c r="N17" s="227"/>
+      <c r="O17" s="227"/>
+      <c r="P17" s="227"/>
+      <c r="Q17" s="227"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="215"/>
+      <c r="A18" s="227"/>
       <c r="B18" s="11"/>
       <c r="C18" s="34"/>
-      <c r="D18" s="215"/>
+      <c r="D18" s="227"/>
       <c r="E18" s="42">
         <v>1</v>
       </c>
@@ -14278,13 +17947,13 @@
       <c r="P18" s="78">
         <v>2</v>
       </c>
-      <c r="Q18" s="215"/>
+      <c r="Q18" s="227"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="215"/>
+      <c r="A19" s="227"/>
       <c r="B19" s="11"/>
       <c r="C19" s="34"/>
-      <c r="D19" s="215"/>
+      <c r="D19" s="227"/>
       <c r="E19" s="42">
         <v>2</v>
       </c>
@@ -14313,13 +17982,13 @@
       <c r="P19" s="78">
         <v>3</v>
       </c>
-      <c r="Q19" s="215"/>
+      <c r="Q19" s="227"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="215"/>
+      <c r="A20" s="227"/>
       <c r="B20" s="11"/>
       <c r="C20" s="34"/>
-      <c r="D20" s="215"/>
+      <c r="D20" s="227"/>
       <c r="E20" s="42">
         <v>3</v>
       </c>
@@ -14348,13 +18017,13 @@
       <c r="P20" s="78">
         <v>4</v>
       </c>
-      <c r="Q20" s="215"/>
+      <c r="Q20" s="227"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="215"/>
+      <c r="A21" s="227"/>
       <c r="B21" s="11"/>
       <c r="C21" s="34"/>
-      <c r="D21" s="215"/>
+      <c r="D21" s="227"/>
       <c r="E21" s="20" t="s">
         <v>205</v>
       </c>
@@ -14389,13 +18058,13 @@
       <c r="P21" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="Q21" s="215"/>
+      <c r="Q21" s="227"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="215"/>
+      <c r="A22" s="227"/>
       <c r="B22" s="11"/>
       <c r="C22" s="34"/>
-      <c r="D22" s="215"/>
+      <c r="D22" s="227"/>
       <c r="E22" s="42">
         <v>1</v>
       </c>
@@ -14440,13 +18109,13 @@
         <f t="shared" ref="P22:P24" si="15">P$6*P18</f>
         <v>300</v>
       </c>
-      <c r="Q22" s="215"/>
+      <c r="Q22" s="227"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="215"/>
+      <c r="A23" s="227"/>
       <c r="B23" s="11"/>
       <c r="C23" s="34"/>
-      <c r="D23" s="215"/>
+      <c r="D23" s="227"/>
       <c r="E23" s="42">
         <v>2</v>
       </c>
@@ -14491,13 +18160,13 @@
         <f t="shared" si="15"/>
         <v>450</v>
       </c>
-      <c r="Q23" s="215"/>
+      <c r="Q23" s="227"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="215"/>
+      <c r="A24" s="227"/>
       <c r="B24" s="11"/>
       <c r="C24" s="34"/>
-      <c r="D24" s="215"/>
+      <c r="D24" s="227"/>
       <c r="E24" s="42">
         <v>3</v>
       </c>
@@ -14542,55 +18211,55 @@
         <f t="shared" si="15"/>
         <v>600</v>
       </c>
-      <c r="Q24" s="215"/>
+      <c r="Q24" s="227"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="215"/>
-      <c r="B25" s="253"/>
-      <c r="C25" s="215"/>
-      <c r="D25" s="215"/>
-      <c r="E25" s="244"/>
-      <c r="F25" s="215"/>
-      <c r="G25" s="215"/>
-      <c r="H25" s="215"/>
-      <c r="I25" s="215"/>
-      <c r="J25" s="215"/>
-      <c r="K25" s="215"/>
-      <c r="L25" s="215"/>
-      <c r="M25" s="215"/>
+      <c r="A25" s="227"/>
+      <c r="B25" s="265"/>
+      <c r="C25" s="227"/>
+      <c r="D25" s="227"/>
+      <c r="E25" s="263"/>
+      <c r="F25" s="227"/>
+      <c r="G25" s="227"/>
+      <c r="H25" s="227"/>
+      <c r="I25" s="227"/>
+      <c r="J25" s="227"/>
+      <c r="K25" s="227"/>
+      <c r="L25" s="227"/>
+      <c r="M25" s="227"/>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
-      <c r="Q25" s="215"/>
+      <c r="Q25" s="227"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="215"/>
-      <c r="B26" s="252" t="s">
+      <c r="A26" s="227"/>
+      <c r="B26" s="264" t="s">
         <v>216</v>
       </c>
-      <c r="C26" s="215"/>
-      <c r="D26" s="215"/>
-      <c r="E26" s="247" t="s">
+      <c r="C26" s="227"/>
+      <c r="D26" s="227"/>
+      <c r="E26" s="269" t="s">
         <v>217</v>
       </c>
-      <c r="F26" s="215"/>
-      <c r="G26" s="215"/>
-      <c r="H26" s="215"/>
-      <c r="I26" s="215"/>
-      <c r="J26" s="215"/>
-      <c r="K26" s="215"/>
-      <c r="L26" s="215"/>
-      <c r="M26" s="215"/>
-      <c r="N26" s="215"/>
-      <c r="O26" s="215"/>
-      <c r="P26" s="215"/>
-      <c r="Q26" s="215"/>
+      <c r="F26" s="227"/>
+      <c r="G26" s="227"/>
+      <c r="H26" s="227"/>
+      <c r="I26" s="227"/>
+      <c r="J26" s="227"/>
+      <c r="K26" s="227"/>
+      <c r="L26" s="227"/>
+      <c r="M26" s="227"/>
+      <c r="N26" s="227"/>
+      <c r="O26" s="227"/>
+      <c r="P26" s="227"/>
+      <c r="Q26" s="227"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="215"/>
+      <c r="A27" s="227"/>
       <c r="B27" s="11"/>
       <c r="C27" s="34"/>
-      <c r="D27" s="215"/>
+      <c r="D27" s="227"/>
       <c r="E27" s="72">
         <v>1</v>
       </c>
@@ -14613,13 +18282,13 @@
       </c>
       <c r="O27" s="92"/>
       <c r="P27" s="91"/>
-      <c r="Q27" s="215"/>
+      <c r="Q27" s="227"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="215"/>
+      <c r="A28" s="227"/>
       <c r="B28" s="11"/>
       <c r="C28" s="34"/>
-      <c r="D28" s="215"/>
+      <c r="D28" s="227"/>
       <c r="E28" s="72">
         <v>2</v>
       </c>
@@ -14642,13 +18311,13 @@
       </c>
       <c r="O28" s="92"/>
       <c r="P28" s="91"/>
-      <c r="Q28" s="215"/>
+      <c r="Q28" s="227"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="215"/>
+      <c r="A29" s="227"/>
       <c r="B29" s="11"/>
       <c r="C29" s="34"/>
-      <c r="D29" s="215"/>
+      <c r="D29" s="227"/>
       <c r="E29" s="72">
         <v>3</v>
       </c>
@@ -14671,13 +18340,13 @@
       </c>
       <c r="O29" s="92"/>
       <c r="P29" s="91"/>
-      <c r="Q29" s="215"/>
+      <c r="Q29" s="227"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="215"/>
+      <c r="A30" s="227"/>
       <c r="B30" s="11"/>
       <c r="C30" s="34"/>
-      <c r="D30" s="215"/>
+      <c r="D30" s="227"/>
       <c r="E30" s="3" t="s">
         <v>227</v>
       </c>
@@ -14712,13 +18381,13 @@
       <c r="P30" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="Q30" s="215"/>
+      <c r="Q30" s="227"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="215"/>
+      <c r="A31" s="227"/>
       <c r="B31" s="11"/>
       <c r="C31" s="34"/>
-      <c r="D31" s="215"/>
+      <c r="D31" s="227"/>
       <c r="E31" s="72">
         <v>1</v>
       </c>
@@ -14763,13 +18432,13 @@
         <f t="shared" ref="P31:P33" si="25">P$6*P27</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="215"/>
+      <c r="Q31" s="227"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="215"/>
+      <c r="A32" s="227"/>
       <c r="B32" s="11"/>
       <c r="C32" s="34"/>
-      <c r="D32" s="215"/>
+      <c r="D32" s="227"/>
       <c r="E32" s="72">
         <v>2</v>
       </c>
@@ -14814,13 +18483,13 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="215"/>
+      <c r="Q32" s="227"/>
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="215"/>
+      <c r="A33" s="227"/>
       <c r="B33" s="11"/>
       <c r="C33" s="34"/>
-      <c r="D33" s="215"/>
+      <c r="D33" s="227"/>
       <c r="E33" s="72">
         <v>3</v>
       </c>
@@ -14865,55 +18534,55 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="215"/>
+      <c r="Q33" s="227"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="215"/>
-      <c r="B34" s="253"/>
-      <c r="C34" s="215"/>
-      <c r="D34" s="215"/>
-      <c r="E34" s="244"/>
-      <c r="F34" s="215"/>
-      <c r="G34" s="215"/>
-      <c r="H34" s="215"/>
-      <c r="I34" s="215"/>
-      <c r="J34" s="215"/>
-      <c r="K34" s="215"/>
-      <c r="L34" s="215"/>
-      <c r="M34" s="215"/>
+      <c r="A34" s="227"/>
+      <c r="B34" s="265"/>
+      <c r="C34" s="227"/>
+      <c r="D34" s="227"/>
+      <c r="E34" s="263"/>
+      <c r="F34" s="227"/>
+      <c r="G34" s="227"/>
+      <c r="H34" s="227"/>
+      <c r="I34" s="227"/>
+      <c r="J34" s="227"/>
+      <c r="K34" s="227"/>
+      <c r="L34" s="227"/>
+      <c r="M34" s="227"/>
       <c r="N34" s="15"/>
       <c r="O34" s="15"/>
       <c r="P34" s="15"/>
-      <c r="Q34" s="215"/>
+      <c r="Q34" s="227"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="215"/>
-      <c r="B35" s="252" t="s">
+      <c r="A35" s="227"/>
+      <c r="B35" s="264" t="s">
         <v>246</v>
       </c>
-      <c r="C35" s="215"/>
-      <c r="D35" s="215"/>
-      <c r="E35" s="245" t="s">
+      <c r="C35" s="227"/>
+      <c r="D35" s="227"/>
+      <c r="E35" s="267" t="s">
         <v>247</v>
       </c>
-      <c r="F35" s="215"/>
-      <c r="G35" s="215"/>
-      <c r="H35" s="215"/>
-      <c r="I35" s="215"/>
-      <c r="J35" s="215"/>
-      <c r="K35" s="215"/>
-      <c r="L35" s="215"/>
-      <c r="M35" s="215"/>
-      <c r="N35" s="215"/>
-      <c r="O35" s="215"/>
-      <c r="P35" s="215"/>
-      <c r="Q35" s="215"/>
+      <c r="F35" s="227"/>
+      <c r="G35" s="227"/>
+      <c r="H35" s="227"/>
+      <c r="I35" s="227"/>
+      <c r="J35" s="227"/>
+      <c r="K35" s="227"/>
+      <c r="L35" s="227"/>
+      <c r="M35" s="227"/>
+      <c r="N35" s="227"/>
+      <c r="O35" s="227"/>
+      <c r="P35" s="227"/>
+      <c r="Q35" s="227"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="215"/>
+      <c r="A36" s="227"/>
       <c r="B36" s="11"/>
       <c r="C36" s="34"/>
-      <c r="D36" s="215"/>
+      <c r="D36" s="227"/>
       <c r="E36" s="102">
         <v>1</v>
       </c>
@@ -14936,13 +18605,13 @@
       </c>
       <c r="O36" s="104"/>
       <c r="P36" s="103"/>
-      <c r="Q36" s="215"/>
+      <c r="Q36" s="227"/>
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="215"/>
+      <c r="A37" s="227"/>
       <c r="B37" s="11"/>
       <c r="C37" s="34"/>
-      <c r="D37" s="215"/>
+      <c r="D37" s="227"/>
       <c r="E37" s="102">
         <v>2</v>
       </c>
@@ -14965,13 +18634,13 @@
       </c>
       <c r="O37" s="104"/>
       <c r="P37" s="103"/>
-      <c r="Q37" s="215"/>
+      <c r="Q37" s="227"/>
     </row>
     <row r="38" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="215"/>
+      <c r="A38" s="227"/>
       <c r="B38" s="11"/>
       <c r="C38" s="34"/>
-      <c r="D38" s="215"/>
+      <c r="D38" s="227"/>
       <c r="E38" s="102">
         <v>3</v>
       </c>
@@ -14994,13 +18663,13 @@
       </c>
       <c r="O38" s="104"/>
       <c r="P38" s="103"/>
-      <c r="Q38" s="215"/>
+      <c r="Q38" s="227"/>
     </row>
     <row r="39" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="215"/>
+      <c r="A39" s="227"/>
       <c r="B39" s="11"/>
       <c r="C39" s="34"/>
-      <c r="D39" s="215"/>
+      <c r="D39" s="227"/>
       <c r="E39" s="105" t="s">
         <v>257</v>
       </c>
@@ -15035,13 +18704,13 @@
       <c r="P39" s="105" t="s">
         <v>270</v>
       </c>
-      <c r="Q39" s="215"/>
+      <c r="Q39" s="227"/>
     </row>
     <row r="40" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="215"/>
+      <c r="A40" s="227"/>
       <c r="B40" s="11"/>
       <c r="C40" s="34"/>
-      <c r="D40" s="215"/>
+      <c r="D40" s="227"/>
       <c r="E40" s="102">
         <v>1</v>
       </c>
@@ -15086,13 +18755,13 @@
         <f t="shared" ref="P40:P42" si="35">P$6*P36</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="215"/>
+      <c r="Q40" s="227"/>
     </row>
     <row r="41" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="215"/>
+      <c r="A41" s="227"/>
       <c r="B41" s="11"/>
       <c r="C41" s="34"/>
-      <c r="D41" s="215"/>
+      <c r="D41" s="227"/>
       <c r="E41" s="102">
         <v>2</v>
       </c>
@@ -15137,13 +18806,13 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="215"/>
+      <c r="Q41" s="227"/>
     </row>
     <row r="42" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="215"/>
+      <c r="A42" s="227"/>
       <c r="B42" s="11"/>
       <c r="C42" s="34"/>
-      <c r="D42" s="215"/>
+      <c r="D42" s="227"/>
       <c r="E42" s="102">
         <v>3</v>
       </c>
@@ -15188,13 +18857,13 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="215"/>
+      <c r="Q42" s="227"/>
     </row>
     <row r="43" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="215"/>
+      <c r="A43" s="227"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="215"/>
+      <c r="D43" s="227"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
@@ -15207,10 +18876,24 @@
       <c r="N43" s="15"/>
       <c r="O43" s="15"/>
       <c r="P43" s="15"/>
-      <c r="Q43" s="215"/>
+      <c r="Q43" s="227"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="E7:P7"/>
+    <mergeCell ref="E16:M16"/>
+    <mergeCell ref="Q1:Q43"/>
+    <mergeCell ref="E25:M25"/>
+    <mergeCell ref="E35:P35"/>
+    <mergeCell ref="E17:P17"/>
+    <mergeCell ref="E26:P26"/>
+    <mergeCell ref="E4:P4"/>
+    <mergeCell ref="E3:P3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E1:P1"/>
+    <mergeCell ref="G2:P2"/>
+    <mergeCell ref="E34:M34"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B17:C17"/>
@@ -15225,20 +18908,6 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="E7:P7"/>
-    <mergeCell ref="E16:M16"/>
-    <mergeCell ref="Q1:Q43"/>
-    <mergeCell ref="E25:M25"/>
-    <mergeCell ref="E35:P35"/>
-    <mergeCell ref="E17:P17"/>
-    <mergeCell ref="E26:P26"/>
-    <mergeCell ref="E4:P4"/>
-    <mergeCell ref="E3:P3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E1:P1"/>
-    <mergeCell ref="G2:P2"/>
-    <mergeCell ref="E34:M34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15246,12 +18915,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15278,75 +18947,75 @@
       <c r="A1" s="140" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="258">
+      <c r="B1" s="216">
         <v>1.5</v>
       </c>
-      <c r="C1" s="259" t="s">
+      <c r="C1" s="273" t="s">
         <v>417</v>
       </c>
-      <c r="D1" s="260"/>
-      <c r="E1" s="260"/>
-      <c r="F1" s="260"/>
-      <c r="G1" s="260"/>
-      <c r="H1" s="260"/>
-      <c r="I1" s="261"/>
-      <c r="J1" s="259" t="s">
+      <c r="D1" s="274"/>
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="274"/>
+      <c r="H1" s="274"/>
+      <c r="I1" s="275"/>
+      <c r="J1" s="273" t="s">
         <v>418</v>
       </c>
-      <c r="K1" s="260"/>
-      <c r="L1" s="260"/>
-      <c r="M1" s="260"/>
-      <c r="N1" s="260"/>
-      <c r="O1" s="260"/>
-      <c r="P1" s="261"/>
+      <c r="K1" s="274"/>
+      <c r="L1" s="274"/>
+      <c r="M1" s="274"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="274"/>
+      <c r="P1" s="275"/>
     </row>
     <row r="2" spans="1:16" ht="27" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="257" t="s">
+      <c r="A2" s="215" t="s">
         <v>416</v>
       </c>
-      <c r="B2" s="257" t="s">
+      <c r="B2" s="215" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="257" t="s">
+      <c r="C2" s="215" t="s">
         <v>419</v>
       </c>
-      <c r="D2" s="257" t="s">
+      <c r="D2" s="215" t="s">
         <v>421</v>
       </c>
-      <c r="E2" s="257" t="s">
+      <c r="E2" s="215" t="s">
         <v>420</v>
       </c>
-      <c r="F2" s="257" t="s">
+      <c r="F2" s="215" t="s">
         <v>422</v>
       </c>
-      <c r="G2" s="257" t="s">
+      <c r="G2" s="215" t="s">
         <v>423</v>
       </c>
-      <c r="H2" s="257" t="s">
+      <c r="H2" s="215" t="s">
         <v>424</v>
       </c>
-      <c r="I2" s="257" t="s">
+      <c r="I2" s="215" t="s">
         <v>425</v>
       </c>
-      <c r="J2" s="257" t="s">
+      <c r="J2" s="215" t="s">
         <v>419</v>
       </c>
-      <c r="K2" s="257" t="s">
+      <c r="K2" s="215" t="s">
         <v>421</v>
       </c>
-      <c r="L2" s="257" t="s">
+      <c r="L2" s="215" t="s">
         <v>420</v>
       </c>
-      <c r="M2" s="257" t="s">
+      <c r="M2" s="215" t="s">
         <v>422</v>
       </c>
-      <c r="N2" s="257" t="s">
+      <c r="N2" s="215" t="s">
         <v>423</v>
       </c>
-      <c r="O2" s="257" t="s">
+      <c r="O2" s="215" t="s">
         <v>424</v>
       </c>
-      <c r="P2" s="257" t="s">
+      <c r="P2" s="215" t="s">
         <v>425</v>
       </c>
     </row>
@@ -15354,135 +19023,135 @@
       <c r="A3" s="119" t="s">
         <v>435</v>
       </c>
-      <c r="B3" s="263" t="s">
+      <c r="B3" s="218" t="s">
         <v>436</v>
       </c>
-      <c r="C3" s="258">
+      <c r="C3" s="216">
         <f>J3*B$1</f>
         <v>15</v>
       </c>
-      <c r="D3" s="258">
+      <c r="D3" s="216">
         <f>K3*B$1</f>
         <v>75</v>
       </c>
-      <c r="E3" s="258">
+      <c r="E3" s="216">
         <v>375</v>
       </c>
-      <c r="F3" s="258">
+      <c r="F3" s="216">
         <f>M3*B$1</f>
         <v>1500</v>
       </c>
-      <c r="G3" s="258">
+      <c r="G3" s="216">
         <f>N3*B$1</f>
         <v>1125</v>
       </c>
-      <c r="H3" s="258">
+      <c r="H3" s="216">
         <f>O3*B$1</f>
         <v>7500</v>
       </c>
-      <c r="I3" s="258">
+      <c r="I3" s="216">
         <f>P3*B$1</f>
         <v>1500</v>
       </c>
-      <c r="J3" s="258">
+      <c r="J3" s="216">
         <v>10</v>
       </c>
-      <c r="K3" s="258">
+      <c r="K3" s="216">
         <v>50</v>
       </c>
-      <c r="L3" s="258">
+      <c r="L3" s="216">
         <v>200</v>
       </c>
-      <c r="M3" s="258">
+      <c r="M3" s="216">
         <v>1000</v>
       </c>
-      <c r="N3" s="258">
+      <c r="N3" s="216">
         <v>750</v>
       </c>
-      <c r="O3" s="258">
+      <c r="O3" s="216">
         <v>5000</v>
       </c>
-      <c r="P3" s="258">
+      <c r="P3" s="216">
         <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="262"/>
-      <c r="C4" s="258"/>
-      <c r="D4" s="258"/>
-      <c r="E4" s="258"/>
-      <c r="F4" s="258"/>
-      <c r="G4" s="258"/>
-      <c r="H4" s="258"/>
-      <c r="I4" s="258"/>
-      <c r="J4" s="258"/>
-      <c r="K4" s="258"/>
-      <c r="L4" s="258"/>
-      <c r="M4" s="258"/>
-      <c r="N4" s="258"/>
-      <c r="O4" s="258"/>
-      <c r="P4" s="258"/>
+      <c r="B4" s="217"/>
+      <c r="C4" s="216"/>
+      <c r="D4" s="216"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="216"/>
+      <c r="H4" s="216"/>
+      <c r="I4" s="216"/>
+      <c r="J4" s="216"/>
+      <c r="K4" s="216"/>
+      <c r="L4" s="216"/>
+      <c r="M4" s="216"/>
+      <c r="N4" s="216"/>
+      <c r="O4" s="216"/>
+      <c r="P4" s="216"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="119" t="s">
         <v>426</v>
       </c>
-      <c r="B5" s="262">
+      <c r="B5" s="217">
         <v>2</v>
       </c>
-      <c r="C5" s="258">
+      <c r="C5" s="216">
         <f>C$3/B5</f>
         <v>7.5</v>
       </c>
-      <c r="D5" s="258">
+      <c r="D5" s="216">
         <f>D$3/B5</f>
         <v>37.5</v>
       </c>
-      <c r="E5" s="258">
+      <c r="E5" s="216">
         <f>E$3/B5</f>
         <v>187.5</v>
       </c>
-      <c r="F5" s="258">
+      <c r="F5" s="216">
         <f>F$3/B5</f>
         <v>750</v>
       </c>
-      <c r="G5" s="258">
+      <c r="G5" s="216">
         <f>G$3/B5</f>
         <v>562.5</v>
       </c>
-      <c r="H5" s="258">
+      <c r="H5" s="216">
         <f>H$3/B5</f>
         <v>3750</v>
       </c>
-      <c r="I5" s="258">
+      <c r="I5" s="216">
         <f>I$3/B5</f>
         <v>750</v>
       </c>
-      <c r="J5" s="258">
+      <c r="J5" s="216">
         <f>J$3/B5</f>
         <v>5</v>
       </c>
-      <c r="K5" s="258">
+      <c r="K5" s="216">
         <f>K$3/B5</f>
         <v>25</v>
       </c>
-      <c r="L5" s="258">
+      <c r="L5" s="216">
         <f>L$3/B5</f>
         <v>100</v>
       </c>
-      <c r="M5" s="258">
+      <c r="M5" s="216">
         <f>M$3/B5</f>
         <v>500</v>
       </c>
-      <c r="N5" s="258">
+      <c r="N5" s="216">
         <f>N$3/B5</f>
         <v>375</v>
       </c>
-      <c r="O5" s="258">
+      <c r="O5" s="216">
         <f>O$3/B5</f>
         <v>2500</v>
       </c>
-      <c r="P5" s="258">
+      <c r="P5" s="216">
         <f>P$3/B5</f>
         <v>500</v>
       </c>
@@ -15491,62 +19160,62 @@
       <c r="A6" s="119" t="s">
         <v>427</v>
       </c>
-      <c r="B6" s="262">
+      <c r="B6" s="217">
         <v>5</v>
       </c>
-      <c r="C6" s="258">
+      <c r="C6" s="216">
         <f t="shared" ref="C6:C25" si="0">C$3/B6</f>
         <v>3</v>
       </c>
-      <c r="D6" s="258">
+      <c r="D6" s="216">
         <f t="shared" ref="D6:D25" si="1">D$3/B6</f>
         <v>15</v>
       </c>
-      <c r="E6" s="258">
+      <c r="E6" s="216">
         <f t="shared" ref="E6:E25" si="2">E$3/B6</f>
         <v>75</v>
       </c>
-      <c r="F6" s="258">
+      <c r="F6" s="216">
         <f t="shared" ref="F6:F25" si="3">F$3/B6</f>
         <v>300</v>
       </c>
-      <c r="G6" s="258">
+      <c r="G6" s="216">
         <f t="shared" ref="G6:G25" si="4">G$3/B6</f>
         <v>225</v>
       </c>
-      <c r="H6" s="258">
+      <c r="H6" s="216">
         <f t="shared" ref="H6:H25" si="5">H$3/B6</f>
         <v>1500</v>
       </c>
-      <c r="I6" s="258">
+      <c r="I6" s="216">
         <f t="shared" ref="I6:I25" si="6">I$3/B6</f>
         <v>300</v>
       </c>
-      <c r="J6" s="258">
+      <c r="J6" s="216">
         <f t="shared" ref="J6:J25" si="7">J$3/B6</f>
         <v>2</v>
       </c>
-      <c r="K6" s="258">
+      <c r="K6" s="216">
         <f t="shared" ref="K6:K25" si="8">K$3/B6</f>
         <v>10</v>
       </c>
-      <c r="L6" s="258">
+      <c r="L6" s="216">
         <f t="shared" ref="L6:L25" si="9">L$3/B6</f>
         <v>40</v>
       </c>
-      <c r="M6" s="258">
+      <c r="M6" s="216">
         <f t="shared" ref="M6:M25" si="10">M$3/B6</f>
         <v>200</v>
       </c>
-      <c r="N6" s="258">
+      <c r="N6" s="216">
         <f t="shared" ref="N6:N25" si="11">N$3/B6</f>
         <v>150</v>
       </c>
-      <c r="O6" s="258">
+      <c r="O6" s="216">
         <f t="shared" ref="O6:O25" si="12">O$3/B6</f>
         <v>1000</v>
       </c>
-      <c r="P6" s="258">
+      <c r="P6" s="216">
         <f t="shared" ref="P6:P25" si="13">P$3/B6</f>
         <v>200</v>
       </c>
@@ -15555,63 +19224,63 @@
       <c r="A7" s="119" t="s">
         <v>428</v>
       </c>
-      <c r="B7" s="262">
+      <c r="B7" s="217">
         <f>12*4</f>
         <v>48</v>
       </c>
-      <c r="C7" s="258">
+      <c r="C7" s="216">
         <f t="shared" si="0"/>
         <v>0.3125</v>
       </c>
-      <c r="D7" s="258">
+      <c r="D7" s="216">
         <f t="shared" si="1"/>
         <v>1.5625</v>
       </c>
-      <c r="E7" s="258">
+      <c r="E7" s="216">
         <f t="shared" si="2"/>
         <v>7.8125</v>
       </c>
-      <c r="F7" s="258">
+      <c r="F7" s="216">
         <f t="shared" si="3"/>
         <v>31.25</v>
       </c>
-      <c r="G7" s="258">
+      <c r="G7" s="216">
         <f t="shared" si="4"/>
         <v>23.4375</v>
       </c>
-      <c r="H7" s="258">
+      <c r="H7" s="216">
         <f t="shared" si="5"/>
         <v>156.25</v>
       </c>
-      <c r="I7" s="258">
+      <c r="I7" s="216">
         <f t="shared" si="6"/>
         <v>31.25</v>
       </c>
-      <c r="J7" s="258">
+      <c r="J7" s="216">
         <f t="shared" si="7"/>
         <v>0.20833333333333334</v>
       </c>
-      <c r="K7" s="258">
+      <c r="K7" s="216">
         <f t="shared" si="8"/>
         <v>1.0416666666666667</v>
       </c>
-      <c r="L7" s="258">
+      <c r="L7" s="216">
         <f t="shared" si="9"/>
         <v>4.166666666666667</v>
       </c>
-      <c r="M7" s="258">
+      <c r="M7" s="216">
         <f t="shared" si="10"/>
         <v>20.833333333333332</v>
       </c>
-      <c r="N7" s="258">
+      <c r="N7" s="216">
         <f t="shared" si="11"/>
         <v>15.625</v>
       </c>
-      <c r="O7" s="258">
+      <c r="O7" s="216">
         <f t="shared" si="12"/>
         <v>104.16666666666667</v>
       </c>
-      <c r="P7" s="258">
+      <c r="P7" s="216">
         <f t="shared" si="13"/>
         <v>20.833333333333332</v>
       </c>
@@ -15620,63 +19289,63 @@
       <c r="A8" s="119" t="s">
         <v>429</v>
       </c>
-      <c r="B8" s="262">
+      <c r="B8" s="217">
         <f>16*6</f>
         <v>96</v>
       </c>
-      <c r="C8" s="258">
+      <c r="C8" s="216">
         <f t="shared" si="0"/>
         <v>0.15625</v>
       </c>
-      <c r="D8" s="258">
+      <c r="D8" s="216">
         <f t="shared" si="1"/>
         <v>0.78125</v>
       </c>
-      <c r="E8" s="258">
+      <c r="E8" s="216">
         <f t="shared" si="2"/>
         <v>3.90625</v>
       </c>
-      <c r="F8" s="258">
+      <c r="F8" s="216">
         <f t="shared" si="3"/>
         <v>15.625</v>
       </c>
-      <c r="G8" s="258">
+      <c r="G8" s="216">
         <f t="shared" si="4"/>
         <v>11.71875</v>
       </c>
-      <c r="H8" s="258">
+      <c r="H8" s="216">
         <f t="shared" si="5"/>
         <v>78.125</v>
       </c>
-      <c r="I8" s="258">
+      <c r="I8" s="216">
         <f t="shared" si="6"/>
         <v>15.625</v>
       </c>
-      <c r="J8" s="258">
+      <c r="J8" s="216">
         <f t="shared" si="7"/>
         <v>0.10416666666666667</v>
       </c>
-      <c r="K8" s="258">
+      <c r="K8" s="216">
         <f t="shared" si="8"/>
         <v>0.52083333333333337</v>
       </c>
-      <c r="L8" s="258">
+      <c r="L8" s="216">
         <f t="shared" si="9"/>
         <v>2.0833333333333335</v>
       </c>
-      <c r="M8" s="258">
+      <c r="M8" s="216">
         <f t="shared" si="10"/>
         <v>10.416666666666666</v>
       </c>
-      <c r="N8" s="258">
+      <c r="N8" s="216">
         <f t="shared" si="11"/>
         <v>7.8125</v>
       </c>
-      <c r="O8" s="258">
+      <c r="O8" s="216">
         <f t="shared" si="12"/>
         <v>52.083333333333336</v>
       </c>
-      <c r="P8" s="258">
+      <c r="P8" s="216">
         <f t="shared" si="13"/>
         <v>10.416666666666666</v>
       </c>
@@ -15685,62 +19354,62 @@
       <c r="A9" s="119" t="s">
         <v>430</v>
       </c>
-      <c r="B9" s="262">
+      <c r="B9" s="217">
         <v>60</v>
       </c>
-      <c r="C9" s="258">
+      <c r="C9" s="216">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="D9" s="258">
+      <c r="D9" s="216">
         <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
-      <c r="E9" s="258">
+      <c r="E9" s="216">
         <f t="shared" si="2"/>
         <v>6.25</v>
       </c>
-      <c r="F9" s="258">
+      <c r="F9" s="216">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="G9" s="258">
+      <c r="G9" s="216">
         <f t="shared" si="4"/>
         <v>18.75</v>
       </c>
-      <c r="H9" s="258">
+      <c r="H9" s="216">
         <f t="shared" si="5"/>
         <v>125</v>
       </c>
-      <c r="I9" s="258">
+      <c r="I9" s="216">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="J9" s="258">
+      <c r="J9" s="216">
         <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="K9" s="258">
+      <c r="K9" s="216">
         <f t="shared" si="8"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="L9" s="258">
+      <c r="L9" s="216">
         <f t="shared" si="9"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="M9" s="258">
+      <c r="M9" s="216">
         <f t="shared" si="10"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="N9" s="258">
+      <c r="N9" s="216">
         <f t="shared" si="11"/>
         <v>12.5</v>
       </c>
-      <c r="O9" s="258">
+      <c r="O9" s="216">
         <f t="shared" si="12"/>
         <v>83.333333333333329</v>
       </c>
-      <c r="P9" s="258">
+      <c r="P9" s="216">
         <f t="shared" si="13"/>
         <v>16.666666666666668</v>
       </c>
@@ -15749,62 +19418,62 @@
       <c r="A10" s="119" t="s">
         <v>431</v>
       </c>
-      <c r="B10" s="262">
+      <c r="B10" s="217">
         <v>40</v>
       </c>
-      <c r="C10" s="258">
+      <c r="C10" s="216">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="D10" s="258">
+      <c r="D10" s="216">
         <f t="shared" si="1"/>
         <v>1.875</v>
       </c>
-      <c r="E10" s="258">
+      <c r="E10" s="216">
         <f t="shared" si="2"/>
         <v>9.375</v>
       </c>
-      <c r="F10" s="258">
+      <c r="F10" s="216">
         <f t="shared" si="3"/>
         <v>37.5</v>
       </c>
-      <c r="G10" s="258">
+      <c r="G10" s="216">
         <f t="shared" si="4"/>
         <v>28.125</v>
       </c>
-      <c r="H10" s="258">
+      <c r="H10" s="216">
         <f t="shared" si="5"/>
         <v>187.5</v>
       </c>
-      <c r="I10" s="258">
+      <c r="I10" s="216">
         <f t="shared" si="6"/>
         <v>37.5</v>
       </c>
-      <c r="J10" s="258">
+      <c r="J10" s="216">
         <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="K10" s="258">
+      <c r="K10" s="216">
         <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
-      <c r="L10" s="258">
+      <c r="L10" s="216">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="M10" s="258">
+      <c r="M10" s="216">
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="N10" s="258">
+      <c r="N10" s="216">
         <f t="shared" si="11"/>
         <v>18.75</v>
       </c>
-      <c r="O10" s="258">
+      <c r="O10" s="216">
         <f t="shared" si="12"/>
         <v>125</v>
       </c>
-      <c r="P10" s="258">
+      <c r="P10" s="216">
         <f t="shared" si="13"/>
         <v>25</v>
       </c>
@@ -15813,63 +19482,63 @@
       <c r="A11" s="119" t="s">
         <v>434</v>
       </c>
-      <c r="B11" s="262">
+      <c r="B11" s="217">
         <f>8*20</f>
         <v>160</v>
       </c>
-      <c r="C11" s="258">
+      <c r="C11" s="216">
         <f t="shared" si="0"/>
         <v>9.375E-2</v>
       </c>
-      <c r="D11" s="258">
+      <c r="D11" s="216">
         <f t="shared" si="1"/>
         <v>0.46875</v>
       </c>
-      <c r="E11" s="258">
+      <c r="E11" s="216">
         <f t="shared" si="2"/>
         <v>2.34375</v>
       </c>
-      <c r="F11" s="258">
+      <c r="F11" s="216">
         <f t="shared" si="3"/>
         <v>9.375</v>
       </c>
-      <c r="G11" s="258">
+      <c r="G11" s="216">
         <f t="shared" si="4"/>
         <v>7.03125</v>
       </c>
-      <c r="H11" s="258">
+      <c r="H11" s="216">
         <f t="shared" si="5"/>
         <v>46.875</v>
       </c>
-      <c r="I11" s="258">
+      <c r="I11" s="216">
         <f t="shared" si="6"/>
         <v>9.375</v>
       </c>
-      <c r="J11" s="258">
+      <c r="J11" s="216">
         <f t="shared" si="7"/>
         <v>6.25E-2</v>
       </c>
-      <c r="K11" s="258">
+      <c r="K11" s="216">
         <f t="shared" si="8"/>
         <v>0.3125</v>
       </c>
-      <c r="L11" s="258">
+      <c r="L11" s="216">
         <f t="shared" si="9"/>
         <v>1.25</v>
       </c>
-      <c r="M11" s="258">
+      <c r="M11" s="216">
         <f t="shared" si="10"/>
         <v>6.25</v>
       </c>
-      <c r="N11" s="258">
+      <c r="N11" s="216">
         <f t="shared" si="11"/>
         <v>4.6875</v>
       </c>
-      <c r="O11" s="258">
+      <c r="O11" s="216">
         <f t="shared" si="12"/>
         <v>31.25</v>
       </c>
-      <c r="P11" s="258">
+      <c r="P11" s="216">
         <f t="shared" si="13"/>
         <v>6.25</v>
       </c>
@@ -15878,60 +19547,60 @@
       <c r="A12" s="119" t="s">
         <v>432</v>
       </c>
-      <c r="B12" s="262"/>
-      <c r="C12" s="258" t="e">
+      <c r="B12" s="217"/>
+      <c r="C12" s="216" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D12" s="258" t="e">
+      <c r="D12" s="216" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E12" s="258" t="e">
+      <c r="E12" s="216" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F12" s="258" t="e">
+      <c r="F12" s="216" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="258" t="e">
+      <c r="G12" s="216" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="258" t="e">
+      <c r="H12" s="216" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="258" t="e">
+      <c r="I12" s="216" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="258" t="e">
+      <c r="J12" s="216" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="258" t="e">
+      <c r="K12" s="216" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="258" t="e">
+      <c r="L12" s="216" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="258" t="e">
+      <c r="M12" s="216" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N12" s="258" t="e">
+      <c r="N12" s="216" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O12" s="258" t="e">
+      <c r="O12" s="216" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P12" s="258" t="e">
+      <c r="P12" s="216" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -15940,60 +19609,60 @@
       <c r="A13" s="119" t="s">
         <v>433</v>
       </c>
-      <c r="B13" s="262"/>
-      <c r="C13" s="258" t="e">
+      <c r="B13" s="217"/>
+      <c r="C13" s="216" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D13" s="258" t="e">
+      <c r="D13" s="216" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E13" s="258" t="e">
+      <c r="E13" s="216" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F13" s="258" t="e">
+      <c r="F13" s="216" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="258" t="e">
+      <c r="G13" s="216" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="258" t="e">
+      <c r="H13" s="216" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="258" t="e">
+      <c r="I13" s="216" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J13" s="258" t="e">
+      <c r="J13" s="216" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="258" t="e">
+      <c r="K13" s="216" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="258" t="e">
+      <c r="L13" s="216" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M13" s="258" t="e">
+      <c r="M13" s="216" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N13" s="258" t="e">
+      <c r="N13" s="216" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O13" s="258" t="e">
+      <c r="O13" s="216" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P13" s="258" t="e">
+      <c r="P13" s="216" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -16002,60 +19671,60 @@
       <c r="A14" s="119" t="s">
         <v>438</v>
       </c>
-      <c r="B14" s="262"/>
-      <c r="C14" s="258" t="e">
+      <c r="B14" s="217"/>
+      <c r="C14" s="216" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D14" s="258" t="e">
+      <c r="D14" s="216" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E14" s="258" t="e">
+      <c r="E14" s="216" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F14" s="258" t="e">
+      <c r="F14" s="216" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="258" t="e">
+      <c r="G14" s="216" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="258" t="e">
+      <c r="H14" s="216" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="258" t="e">
+      <c r="I14" s="216" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J14" s="258" t="e">
+      <c r="J14" s="216" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="258" t="e">
+      <c r="K14" s="216" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="258" t="e">
+      <c r="L14" s="216" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M14" s="258" t="e">
+      <c r="M14" s="216" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N14" s="258" t="e">
+      <c r="N14" s="216" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O14" s="258" t="e">
+      <c r="O14" s="216" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P14" s="258" t="e">
+      <c r="P14" s="216" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -16064,62 +19733,62 @@
       <c r="A15" s="119" t="s">
         <v>439</v>
       </c>
-      <c r="B15" s="262">
+      <c r="B15" s="217">
         <v>200</v>
       </c>
-      <c r="C15" s="258">
+      <c r="C15" s="216">
         <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D15" s="258">
+      <c r="D15" s="216">
         <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
-      <c r="E15" s="258">
+      <c r="E15" s="216">
         <f t="shared" si="2"/>
         <v>1.875</v>
       </c>
-      <c r="F15" s="258">
+      <c r="F15" s="216">
         <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
-      <c r="G15" s="258">
+      <c r="G15" s="216">
         <f t="shared" si="4"/>
         <v>5.625</v>
       </c>
-      <c r="H15" s="258">
+      <c r="H15" s="216">
         <f t="shared" si="5"/>
         <v>37.5</v>
       </c>
-      <c r="I15" s="258">
+      <c r="I15" s="216">
         <f t="shared" si="6"/>
         <v>7.5</v>
       </c>
-      <c r="J15" s="258">
+      <c r="J15" s="216">
         <f t="shared" si="7"/>
         <v>0.05</v>
       </c>
-      <c r="K15" s="258">
+      <c r="K15" s="216">
         <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
-      <c r="L15" s="258">
+      <c r="L15" s="216">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="M15" s="258">
+      <c r="M15" s="216">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="N15" s="258">
+      <c r="N15" s="216">
         <f t="shared" si="11"/>
         <v>3.75</v>
       </c>
-      <c r="O15" s="258">
+      <c r="O15" s="216">
         <f t="shared" si="12"/>
         <v>25</v>
       </c>
-      <c r="P15" s="258">
+      <c r="P15" s="216">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
@@ -16128,62 +19797,62 @@
       <c r="A16" s="119" t="s">
         <v>440</v>
       </c>
-      <c r="B16" s="262">
+      <c r="B16" s="217">
         <v>25</v>
       </c>
-      <c r="C16" s="258">
+      <c r="C16" s="216">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="D16" s="258">
+      <c r="D16" s="216">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E16" s="258">
+      <c r="E16" s="216">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="F16" s="258">
+      <c r="F16" s="216">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="G16" s="258">
+      <c r="G16" s="216">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="H16" s="258">
+      <c r="H16" s="216">
         <f t="shared" si="5"/>
         <v>300</v>
       </c>
-      <c r="I16" s="258">
+      <c r="I16" s="216">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="J16" s="258">
+      <c r="J16" s="216">
         <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
-      <c r="K16" s="258">
+      <c r="K16" s="216">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="L16" s="258">
+      <c r="L16" s="216">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="M16" s="258">
+      <c r="M16" s="216">
         <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="N16" s="258">
+      <c r="N16" s="216">
         <f t="shared" si="11"/>
         <v>30</v>
       </c>
-      <c r="O16" s="258">
+      <c r="O16" s="216">
         <f t="shared" si="12"/>
         <v>200</v>
       </c>
-      <c r="P16" s="258">
+      <c r="P16" s="216">
         <f t="shared" si="13"/>
         <v>40</v>
       </c>
@@ -16192,60 +19861,60 @@
       <c r="A17" s="119" t="s">
         <v>442</v>
       </c>
-      <c r="B17" s="262"/>
-      <c r="C17" s="258" t="e">
+      <c r="B17" s="217"/>
+      <c r="C17" s="216" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D17" s="258" t="e">
+      <c r="D17" s="216" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E17" s="258" t="e">
+      <c r="E17" s="216" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F17" s="258" t="e">
+      <c r="F17" s="216" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="258" t="e">
+      <c r="G17" s="216" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="258" t="e">
+      <c r="H17" s="216" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="258" t="e">
+      <c r="I17" s="216" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J17" s="258" t="e">
+      <c r="J17" s="216" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K17" s="258" t="e">
+      <c r="K17" s="216" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L17" s="258" t="e">
+      <c r="L17" s="216" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M17" s="258" t="e">
+      <c r="M17" s="216" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N17" s="258" t="e">
+      <c r="N17" s="216" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O17" s="258" t="e">
+      <c r="O17" s="216" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P17" s="258" t="e">
+      <c r="P17" s="216" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -16254,700 +19923,700 @@
       <c r="A18" s="119" t="s">
         <v>441</v>
       </c>
-      <c r="B18" s="262"/>
-      <c r="C18" s="258" t="e">
+      <c r="B18" s="217"/>
+      <c r="C18" s="216" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D18" s="258" t="e">
+      <c r="D18" s="216" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E18" s="258" t="e">
+      <c r="E18" s="216" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F18" s="258" t="e">
+      <c r="F18" s="216" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="258" t="e">
+      <c r="G18" s="216" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="258" t="e">
+      <c r="H18" s="216" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="258" t="e">
+      <c r="I18" s="216" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J18" s="258" t="e">
+      <c r="J18" s="216" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="258" t="e">
+      <c r="K18" s="216" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L18" s="258" t="e">
+      <c r="L18" s="216" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M18" s="258" t="e">
+      <c r="M18" s="216" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N18" s="258" t="e">
+      <c r="N18" s="216" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O18" s="258" t="e">
+      <c r="O18" s="216" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P18" s="258" t="e">
+      <c r="P18" s="216" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="262"/>
-      <c r="C19" s="258" t="e">
+      <c r="B19" s="217"/>
+      <c r="C19" s="216" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D19" s="258" t="e">
+      <c r="D19" s="216" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E19" s="258" t="e">
+      <c r="E19" s="216" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F19" s="258" t="e">
+      <c r="F19" s="216" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="258" t="e">
+      <c r="G19" s="216" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="258" t="e">
+      <c r="H19" s="216" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="258" t="e">
+      <c r="I19" s="216" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J19" s="258" t="e">
+      <c r="J19" s="216" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K19" s="258" t="e">
+      <c r="K19" s="216" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="258" t="e">
+      <c r="L19" s="216" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M19" s="258" t="e">
+      <c r="M19" s="216" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N19" s="258" t="e">
+      <c r="N19" s="216" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O19" s="258" t="e">
+      <c r="O19" s="216" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P19" s="258" t="e">
+      <c r="P19" s="216" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="262"/>
-      <c r="C20" s="258" t="e">
+      <c r="B20" s="217"/>
+      <c r="C20" s="216" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D20" s="258" t="e">
+      <c r="D20" s="216" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E20" s="258" t="e">
+      <c r="E20" s="216" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="258" t="e">
+      <c r="F20" s="216" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="258" t="e">
+      <c r="G20" s="216" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="258" t="e">
+      <c r="H20" s="216" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="258" t="e">
+      <c r="I20" s="216" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J20" s="258" t="e">
+      <c r="J20" s="216" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" s="258" t="e">
+      <c r="K20" s="216" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L20" s="258" t="e">
+      <c r="L20" s="216" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M20" s="258" t="e">
+      <c r="M20" s="216" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N20" s="258" t="e">
+      <c r="N20" s="216" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O20" s="258" t="e">
+      <c r="O20" s="216" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P20" s="258" t="e">
+      <c r="P20" s="216" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B21" s="262"/>
-      <c r="C21" s="258" t="e">
+      <c r="B21" s="217"/>
+      <c r="C21" s="216" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D21" s="258" t="e">
+      <c r="D21" s="216" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E21" s="258" t="e">
+      <c r="E21" s="216" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="258" t="e">
+      <c r="F21" s="216" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="258" t="e">
+      <c r="G21" s="216" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="258" t="e">
+      <c r="H21" s="216" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="258" t="e">
+      <c r="I21" s="216" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J21" s="258" t="e">
+      <c r="J21" s="216" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K21" s="258" t="e">
+      <c r="K21" s="216" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L21" s="258" t="e">
+      <c r="L21" s="216" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M21" s="258" t="e">
+      <c r="M21" s="216" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N21" s="258" t="e">
+      <c r="N21" s="216" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O21" s="258" t="e">
+      <c r="O21" s="216" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P21" s="258" t="e">
+      <c r="P21" s="216" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="262"/>
-      <c r="C22" s="258" t="e">
+      <c r="B22" s="217"/>
+      <c r="C22" s="216" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D22" s="258" t="e">
+      <c r="D22" s="216" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E22" s="258" t="e">
+      <c r="E22" s="216" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="258" t="e">
+      <c r="F22" s="216" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="258" t="e">
+      <c r="G22" s="216" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="258" t="e">
+      <c r="H22" s="216" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="258" t="e">
+      <c r="I22" s="216" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J22" s="258" t="e">
+      <c r="J22" s="216" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K22" s="258" t="e">
+      <c r="K22" s="216" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L22" s="258" t="e">
+      <c r="L22" s="216" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M22" s="258" t="e">
+      <c r="M22" s="216" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N22" s="258" t="e">
+      <c r="N22" s="216" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O22" s="258" t="e">
+      <c r="O22" s="216" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P22" s="258" t="e">
+      <c r="P22" s="216" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="262"/>
-      <c r="C23" s="258" t="e">
+      <c r="B23" s="217"/>
+      <c r="C23" s="216" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D23" s="258" t="e">
+      <c r="D23" s="216" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E23" s="258" t="e">
+      <c r="E23" s="216" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F23" s="258" t="e">
+      <c r="F23" s="216" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="258" t="e">
+      <c r="G23" s="216" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="258" t="e">
+      <c r="H23" s="216" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="258" t="e">
+      <c r="I23" s="216" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J23" s="258" t="e">
+      <c r="J23" s="216" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K23" s="258" t="e">
+      <c r="K23" s="216" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L23" s="258" t="e">
+      <c r="L23" s="216" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M23" s="258" t="e">
+      <c r="M23" s="216" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N23" s="258" t="e">
+      <c r="N23" s="216" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O23" s="258" t="e">
+      <c r="O23" s="216" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P23" s="258" t="e">
+      <c r="P23" s="216" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="262"/>
-      <c r="C24" s="258" t="e">
+      <c r="B24" s="217"/>
+      <c r="C24" s="216" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D24" s="258" t="e">
+      <c r="D24" s="216" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E24" s="258" t="e">
+      <c r="E24" s="216" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F24" s="258" t="e">
+      <c r="F24" s="216" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="258" t="e">
+      <c r="G24" s="216" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="258" t="e">
+      <c r="H24" s="216" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="258" t="e">
+      <c r="I24" s="216" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J24" s="258" t="e">
+      <c r="J24" s="216" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K24" s="258" t="e">
+      <c r="K24" s="216" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L24" s="258" t="e">
+      <c r="L24" s="216" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="258" t="e">
+      <c r="M24" s="216" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N24" s="258" t="e">
+      <c r="N24" s="216" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O24" s="258" t="e">
+      <c r="O24" s="216" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P24" s="258" t="e">
+      <c r="P24" s="216" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="262"/>
-      <c r="C25" s="258" t="e">
+      <c r="B25" s="217"/>
+      <c r="C25" s="216" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D25" s="258" t="e">
+      <c r="D25" s="216" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E25" s="258" t="e">
+      <c r="E25" s="216" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F25" s="258" t="e">
+      <c r="F25" s="216" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="258" t="e">
+      <c r="G25" s="216" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="258" t="e">
+      <c r="H25" s="216" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="258" t="e">
+      <c r="I25" s="216" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J25" s="258" t="e">
+      <c r="J25" s="216" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="258" t="e">
+      <c r="K25" s="216" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L25" s="258" t="e">
+      <c r="L25" s="216" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M25" s="258" t="e">
+      <c r="M25" s="216" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N25" s="258" t="e">
+      <c r="N25" s="216" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O25" s="258" t="e">
+      <c r="O25" s="216" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P25" s="258" t="e">
+      <c r="P25" s="216" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C26" s="258"/>
-      <c r="D26" s="258"/>
-      <c r="E26" s="258"/>
-      <c r="F26" s="258"/>
-      <c r="G26" s="258"/>
-      <c r="H26" s="258"/>
-      <c r="I26" s="258"/>
-      <c r="J26" s="258"/>
-      <c r="K26" s="258"/>
-      <c r="L26" s="258"/>
-      <c r="M26" s="258"/>
-      <c r="N26" s="258"/>
-      <c r="O26" s="258"/>
-      <c r="P26" s="258"/>
+      <c r="C26" s="216"/>
+      <c r="D26" s="216"/>
+      <c r="E26" s="216"/>
+      <c r="F26" s="216"/>
+      <c r="G26" s="216"/>
+      <c r="H26" s="216"/>
+      <c r="I26" s="216"/>
+      <c r="J26" s="216"/>
+      <c r="K26" s="216"/>
+      <c r="L26" s="216"/>
+      <c r="M26" s="216"/>
+      <c r="N26" s="216"/>
+      <c r="O26" s="216"/>
+      <c r="P26" s="216"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C27" s="258"/>
-      <c r="D27" s="258"/>
-      <c r="E27" s="258"/>
-      <c r="F27" s="258"/>
-      <c r="G27" s="258"/>
-      <c r="H27" s="258"/>
-      <c r="I27" s="258"/>
-      <c r="J27" s="258"/>
-      <c r="K27" s="258"/>
-      <c r="L27" s="258"/>
-      <c r="M27" s="258"/>
-      <c r="N27" s="258"/>
-      <c r="O27" s="258"/>
-      <c r="P27" s="258"/>
+      <c r="C27" s="216"/>
+      <c r="D27" s="216"/>
+      <c r="E27" s="216"/>
+      <c r="F27" s="216"/>
+      <c r="G27" s="216"/>
+      <c r="H27" s="216"/>
+      <c r="I27" s="216"/>
+      <c r="J27" s="216"/>
+      <c r="K27" s="216"/>
+      <c r="L27" s="216"/>
+      <c r="M27" s="216"/>
+      <c r="N27" s="216"/>
+      <c r="O27" s="216"/>
+      <c r="P27" s="216"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C28" s="258"/>
-      <c r="D28" s="258"/>
-      <c r="E28" s="258"/>
-      <c r="F28" s="258"/>
-      <c r="G28" s="258"/>
-      <c r="H28" s="258"/>
-      <c r="I28" s="258"/>
-      <c r="J28" s="258"/>
-      <c r="K28" s="258"/>
-      <c r="L28" s="258"/>
-      <c r="M28" s="258"/>
-      <c r="N28" s="258"/>
-      <c r="O28" s="258"/>
-      <c r="P28" s="258"/>
+      <c r="C28" s="216"/>
+      <c r="D28" s="216"/>
+      <c r="E28" s="216"/>
+      <c r="F28" s="216"/>
+      <c r="G28" s="216"/>
+      <c r="H28" s="216"/>
+      <c r="I28" s="216"/>
+      <c r="J28" s="216"/>
+      <c r="K28" s="216"/>
+      <c r="L28" s="216"/>
+      <c r="M28" s="216"/>
+      <c r="N28" s="216"/>
+      <c r="O28" s="216"/>
+      <c r="P28" s="216"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C29" s="258"/>
-      <c r="D29" s="258"/>
-      <c r="E29" s="258"/>
-      <c r="F29" s="258"/>
-      <c r="G29" s="258"/>
-      <c r="H29" s="258"/>
-      <c r="I29" s="258"/>
-      <c r="J29" s="258"/>
-      <c r="K29" s="258"/>
-      <c r="L29" s="258"/>
-      <c r="M29" s="258"/>
-      <c r="N29" s="258"/>
-      <c r="O29" s="258"/>
-      <c r="P29" s="258"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="216"/>
+      <c r="E29" s="216"/>
+      <c r="F29" s="216"/>
+      <c r="G29" s="216"/>
+      <c r="H29" s="216"/>
+      <c r="I29" s="216"/>
+      <c r="J29" s="216"/>
+      <c r="K29" s="216"/>
+      <c r="L29" s="216"/>
+      <c r="M29" s="216"/>
+      <c r="N29" s="216"/>
+      <c r="O29" s="216"/>
+      <c r="P29" s="216"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C30" s="258"/>
-      <c r="D30" s="258"/>
-      <c r="E30" s="258"/>
-      <c r="F30" s="258"/>
-      <c r="G30" s="258"/>
-      <c r="H30" s="258"/>
-      <c r="I30" s="258"/>
-      <c r="J30" s="258"/>
-      <c r="K30" s="258"/>
-      <c r="L30" s="258"/>
-      <c r="M30" s="258"/>
-      <c r="N30" s="258"/>
-      <c r="O30" s="258"/>
-      <c r="P30" s="258"/>
+      <c r="C30" s="216"/>
+      <c r="D30" s="216"/>
+      <c r="E30" s="216"/>
+      <c r="F30" s="216"/>
+      <c r="G30" s="216"/>
+      <c r="H30" s="216"/>
+      <c r="I30" s="216"/>
+      <c r="J30" s="216"/>
+      <c r="K30" s="216"/>
+      <c r="L30" s="216"/>
+      <c r="M30" s="216"/>
+      <c r="N30" s="216"/>
+      <c r="O30" s="216"/>
+      <c r="P30" s="216"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C31" s="258"/>
-      <c r="D31" s="258"/>
-      <c r="E31" s="258"/>
-      <c r="F31" s="258"/>
-      <c r="G31" s="258"/>
-      <c r="H31" s="258"/>
-      <c r="I31" s="258"/>
-      <c r="J31" s="258"/>
-      <c r="K31" s="258"/>
-      <c r="L31" s="258"/>
-      <c r="M31" s="258"/>
-      <c r="N31" s="258"/>
-      <c r="O31" s="258"/>
-      <c r="P31" s="258"/>
+      <c r="C31" s="216"/>
+      <c r="D31" s="216"/>
+      <c r="E31" s="216"/>
+      <c r="F31" s="216"/>
+      <c r="G31" s="216"/>
+      <c r="H31" s="216"/>
+      <c r="I31" s="216"/>
+      <c r="J31" s="216"/>
+      <c r="K31" s="216"/>
+      <c r="L31" s="216"/>
+      <c r="M31" s="216"/>
+      <c r="N31" s="216"/>
+      <c r="O31" s="216"/>
+      <c r="P31" s="216"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C32" s="258"/>
-      <c r="D32" s="258"/>
-      <c r="E32" s="258"/>
-      <c r="F32" s="258"/>
-      <c r="G32" s="258"/>
-      <c r="H32" s="258"/>
-      <c r="I32" s="258"/>
-      <c r="J32" s="258"/>
-      <c r="K32" s="258"/>
-      <c r="L32" s="258"/>
-      <c r="M32" s="258"/>
-      <c r="N32" s="258"/>
-      <c r="O32" s="258"/>
-      <c r="P32" s="258"/>
+      <c r="C32" s="216"/>
+      <c r="D32" s="216"/>
+      <c r="E32" s="216"/>
+      <c r="F32" s="216"/>
+      <c r="G32" s="216"/>
+      <c r="H32" s="216"/>
+      <c r="I32" s="216"/>
+      <c r="J32" s="216"/>
+      <c r="K32" s="216"/>
+      <c r="L32" s="216"/>
+      <c r="M32" s="216"/>
+      <c r="N32" s="216"/>
+      <c r="O32" s="216"/>
+      <c r="P32" s="216"/>
     </row>
     <row r="33" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C33" s="258"/>
-      <c r="D33" s="258"/>
-      <c r="E33" s="258"/>
-      <c r="F33" s="258"/>
-      <c r="G33" s="258"/>
-      <c r="H33" s="258"/>
-      <c r="I33" s="258"/>
-      <c r="J33" s="258"/>
-      <c r="K33" s="258"/>
-      <c r="L33" s="258"/>
-      <c r="M33" s="258"/>
-      <c r="N33" s="258"/>
-      <c r="O33" s="258"/>
-      <c r="P33" s="258"/>
+      <c r="C33" s="216"/>
+      <c r="D33" s="216"/>
+      <c r="E33" s="216"/>
+      <c r="F33" s="216"/>
+      <c r="G33" s="216"/>
+      <c r="H33" s="216"/>
+      <c r="I33" s="216"/>
+      <c r="J33" s="216"/>
+      <c r="K33" s="216"/>
+      <c r="L33" s="216"/>
+      <c r="M33" s="216"/>
+      <c r="N33" s="216"/>
+      <c r="O33" s="216"/>
+      <c r="P33" s="216"/>
     </row>
     <row r="34" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C34" s="258"/>
-      <c r="D34" s="258"/>
-      <c r="E34" s="258"/>
-      <c r="F34" s="258"/>
-      <c r="G34" s="258"/>
-      <c r="H34" s="258"/>
-      <c r="I34" s="258"/>
-      <c r="J34" s="258"/>
-      <c r="K34" s="258"/>
-      <c r="L34" s="258"/>
-      <c r="M34" s="258"/>
-      <c r="N34" s="258"/>
-      <c r="O34" s="258"/>
-      <c r="P34" s="258"/>
+      <c r="C34" s="216"/>
+      <c r="D34" s="216"/>
+      <c r="E34" s="216"/>
+      <c r="F34" s="216"/>
+      <c r="G34" s="216"/>
+      <c r="H34" s="216"/>
+      <c r="I34" s="216"/>
+      <c r="J34" s="216"/>
+      <c r="K34" s="216"/>
+      <c r="L34" s="216"/>
+      <c r="M34" s="216"/>
+      <c r="N34" s="216"/>
+      <c r="O34" s="216"/>
+      <c r="P34" s="216"/>
     </row>
     <row r="35" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C35" s="258"/>
-      <c r="D35" s="258"/>
-      <c r="E35" s="258"/>
-      <c r="F35" s="258"/>
-      <c r="G35" s="258"/>
-      <c r="H35" s="258"/>
-      <c r="I35" s="258"/>
-      <c r="J35" s="258"/>
-      <c r="K35" s="258"/>
-      <c r="L35" s="258"/>
-      <c r="M35" s="258"/>
-      <c r="N35" s="258"/>
-      <c r="O35" s="258"/>
-      <c r="P35" s="258"/>
+      <c r="C35" s="216"/>
+      <c r="D35" s="216"/>
+      <c r="E35" s="216"/>
+      <c r="F35" s="216"/>
+      <c r="G35" s="216"/>
+      <c r="H35" s="216"/>
+      <c r="I35" s="216"/>
+      <c r="J35" s="216"/>
+      <c r="K35" s="216"/>
+      <c r="L35" s="216"/>
+      <c r="M35" s="216"/>
+      <c r="N35" s="216"/>
+      <c r="O35" s="216"/>
+      <c r="P35" s="216"/>
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C36" s="258"/>
-      <c r="D36" s="258"/>
-      <c r="E36" s="258"/>
-      <c r="F36" s="258"/>
-      <c r="G36" s="258"/>
-      <c r="H36" s="258"/>
-      <c r="I36" s="258"/>
-      <c r="J36" s="258"/>
-      <c r="K36" s="258"/>
-      <c r="L36" s="258"/>
-      <c r="M36" s="258"/>
-      <c r="N36" s="258"/>
-      <c r="O36" s="258"/>
-      <c r="P36" s="258"/>
+      <c r="C36" s="216"/>
+      <c r="D36" s="216"/>
+      <c r="E36" s="216"/>
+      <c r="F36" s="216"/>
+      <c r="G36" s="216"/>
+      <c r="H36" s="216"/>
+      <c r="I36" s="216"/>
+      <c r="J36" s="216"/>
+      <c r="K36" s="216"/>
+      <c r="L36" s="216"/>
+      <c r="M36" s="216"/>
+      <c r="N36" s="216"/>
+      <c r="O36" s="216"/>
+      <c r="P36" s="216"/>
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C37" s="258"/>
-      <c r="D37" s="258"/>
-      <c r="E37" s="258"/>
-      <c r="F37" s="258"/>
-      <c r="G37" s="258"/>
-      <c r="H37" s="258"/>
-      <c r="I37" s="258"/>
-      <c r="J37" s="258"/>
-      <c r="K37" s="258"/>
-      <c r="L37" s="258"/>
-      <c r="M37" s="258"/>
-      <c r="N37" s="258"/>
-      <c r="O37" s="258"/>
-      <c r="P37" s="258"/>
+      <c r="C37" s="216"/>
+      <c r="D37" s="216"/>
+      <c r="E37" s="216"/>
+      <c r="F37" s="216"/>
+      <c r="G37" s="216"/>
+      <c r="H37" s="216"/>
+      <c r="I37" s="216"/>
+      <c r="J37" s="216"/>
+      <c r="K37" s="216"/>
+      <c r="L37" s="216"/>
+      <c r="M37" s="216"/>
+      <c r="N37" s="216"/>
+      <c r="O37" s="216"/>
+      <c r="P37" s="216"/>
     </row>
     <row r="38" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C38" s="258"/>
-      <c r="D38" s="258"/>
-      <c r="E38" s="258"/>
-      <c r="F38" s="258"/>
-      <c r="G38" s="258"/>
-      <c r="H38" s="258"/>
-      <c r="I38" s="258"/>
-      <c r="J38" s="258"/>
-      <c r="K38" s="258"/>
-      <c r="L38" s="258"/>
-      <c r="M38" s="258"/>
-      <c r="N38" s="258"/>
-      <c r="O38" s="258"/>
-      <c r="P38" s="258"/>
+      <c r="C38" s="216"/>
+      <c r="D38" s="216"/>
+      <c r="E38" s="216"/>
+      <c r="F38" s="216"/>
+      <c r="G38" s="216"/>
+      <c r="H38" s="216"/>
+      <c r="I38" s="216"/>
+      <c r="J38" s="216"/>
+      <c r="K38" s="216"/>
+      <c r="L38" s="216"/>
+      <c r="M38" s="216"/>
+      <c r="N38" s="216"/>
+      <c r="O38" s="216"/>
+      <c r="P38" s="216"/>
     </row>
     <row r="39" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C39" s="258"/>
-      <c r="D39" s="258"/>
-      <c r="E39" s="258"/>
-      <c r="F39" s="258"/>
-      <c r="G39" s="258"/>
-      <c r="H39" s="258"/>
-      <c r="I39" s="258"/>
-      <c r="J39" s="258"/>
-      <c r="K39" s="258"/>
-      <c r="L39" s="258"/>
-      <c r="M39" s="258"/>
-      <c r="N39" s="258"/>
-      <c r="O39" s="258"/>
-      <c r="P39" s="258"/>
+      <c r="C39" s="216"/>
+      <c r="D39" s="216"/>
+      <c r="E39" s="216"/>
+      <c r="F39" s="216"/>
+      <c r="G39" s="216"/>
+      <c r="H39" s="216"/>
+      <c r="I39" s="216"/>
+      <c r="J39" s="216"/>
+      <c r="K39" s="216"/>
+      <c r="L39" s="216"/>
+      <c r="M39" s="216"/>
+      <c r="N39" s="216"/>
+      <c r="O39" s="216"/>
+      <c r="P39" s="216"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -16959,7 +20628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A26:C36"/>
   <sheetViews>
@@ -16975,423 +20644,75 @@
   </cols>
   <sheetData>
     <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="230" t="s">
+      <c r="A26" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="215"/>
-      <c r="C26" s="215"/>
+      <c r="B26" s="227"/>
+      <c r="C26" s="227"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="228"/>
-      <c r="B27" s="215"/>
+      <c r="A27" s="243"/>
+      <c r="B27" s="227"/>
       <c r="C27" s="50"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="228"/>
-      <c r="B28" s="215"/>
+      <c r="A28" s="243"/>
+      <c r="B28" s="227"/>
       <c r="C28" s="51"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="228"/>
-      <c r="B29" s="215"/>
+      <c r="A29" s="243"/>
+      <c r="B29" s="227"/>
       <c r="C29" s="121"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="228"/>
-      <c r="B30" s="215"/>
+      <c r="A30" s="243"/>
+      <c r="B30" s="227"/>
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="228"/>
-      <c r="B31" s="215"/>
+      <c r="A31" s="243"/>
+      <c r="B31" s="227"/>
       <c r="C31" s="53"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="231"/>
-      <c r="B32" s="215"/>
+      <c r="A32" s="241"/>
+      <c r="B32" s="227"/>
       <c r="C32" s="121"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="229"/>
-      <c r="B33" s="215"/>
+      <c r="A33" s="240"/>
+      <c r="B33" s="227"/>
       <c r="C33" s="53"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="229"/>
-      <c r="B34" s="215"/>
+      <c r="A34" s="240"/>
+      <c r="B34" s="227"/>
       <c r="C34" s="53"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="229"/>
-      <c r="B35" s="215"/>
+      <c r="A35" s="240"/>
+      <c r="B35" s="227"/>
       <c r="C35" s="53"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="229"/>
-      <c r="B36" s="215"/>
+      <c r="A36" s="240"/>
+      <c r="B36" s="227"/>
       <c r="C36" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:P42"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12:L16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="143" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="143" customWidth="1"/>
-    <col min="3" max="8" width="9.140625" style="143"/>
-    <col min="9" max="9" width="15.7109375" style="143" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="143" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="143" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="143" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="143" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="143"/>
-    <col min="15" max="15" width="18.5703125" style="143" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="143"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="8:16" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="H4" s="183" t="s">
-        <v>364</v>
-      </c>
-      <c r="I4" s="119" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="5" spans="8:16" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="H5" s="183" t="s">
-        <v>371</v>
-      </c>
-      <c r="I5" s="119" t="s">
-        <v>366</v>
-      </c>
-      <c r="J5" s="119" t="s">
-        <v>367</v>
-      </c>
-      <c r="K5" s="119" t="s">
-        <v>368</v>
-      </c>
-      <c r="L5" s="119" t="s">
-        <v>369</v>
-      </c>
-      <c r="M5" s="119" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="6" spans="8:16" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="H6" s="183" t="s">
-        <v>382</v>
-      </c>
-      <c r="I6" s="119" t="s">
-        <v>372</v>
-      </c>
-      <c r="J6" s="119" t="s">
-        <v>373</v>
-      </c>
-      <c r="K6" s="119" t="s">
-        <v>374</v>
-      </c>
-      <c r="L6" s="119" t="s">
-        <v>375</v>
-      </c>
-      <c r="M6" s="119" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="7" spans="8:16" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="H7" s="183" t="s">
-        <v>383</v>
-      </c>
-      <c r="I7" s="119" t="s">
-        <v>377</v>
-      </c>
-      <c r="J7" s="119" t="s">
-        <v>378</v>
-      </c>
-      <c r="K7" s="119" t="s">
-        <v>379</v>
-      </c>
-      <c r="L7" s="119" t="s">
-        <v>380</v>
-      </c>
-      <c r="M7" s="119" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="10" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="I10" s="178" t="s">
-        <v>364</v>
-      </c>
-      <c r="K10" s="178" t="s">
-        <v>387</v>
-      </c>
-      <c r="M10" s="178" t="s">
-        <v>382</v>
-      </c>
-      <c r="O10" s="119" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="11" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="I11" s="184" t="s">
-        <v>384</v>
-      </c>
-      <c r="J11" s="184" t="s">
-        <v>385</v>
-      </c>
-      <c r="K11" s="184" t="s">
-        <v>388</v>
-      </c>
-      <c r="L11" s="184" t="s">
-        <v>385</v>
-      </c>
-      <c r="M11" s="184" t="s">
-        <v>388</v>
-      </c>
-      <c r="N11" s="184" t="s">
-        <v>385</v>
-      </c>
-      <c r="O11" s="184" t="s">
-        <v>388</v>
-      </c>
-      <c r="P11" s="184" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="12" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="I12" s="178" t="s">
-        <v>365</v>
-      </c>
-      <c r="J12" s="119" t="s">
-        <v>386</v>
-      </c>
-      <c r="K12" s="178" t="s">
-        <v>366</v>
-      </c>
-      <c r="L12" s="143">
-        <v>20</v>
-      </c>
-      <c r="M12" s="178" t="s">
-        <v>372</v>
-      </c>
-      <c r="N12" s="143">
-        <v>32</v>
-      </c>
-      <c r="O12" s="178" t="s">
-        <v>377</v>
-      </c>
-      <c r="P12" s="143">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="K13" s="178" t="s">
-        <v>367</v>
-      </c>
-      <c r="L13" s="143">
-        <v>35</v>
-      </c>
-      <c r="M13" s="178" t="s">
-        <v>373</v>
-      </c>
-      <c r="N13" s="143">
-        <v>56</v>
-      </c>
-      <c r="O13" s="178" t="s">
-        <v>378</v>
-      </c>
-      <c r="P13" s="143">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="K14" s="178" t="s">
-        <v>369</v>
-      </c>
-      <c r="L14" s="143">
-        <v>60</v>
-      </c>
-      <c r="M14" s="119" t="s">
-        <v>375</v>
-      </c>
-      <c r="N14" s="143">
-        <v>96</v>
-      </c>
-      <c r="O14" s="178" t="s">
-        <v>380</v>
-      </c>
-      <c r="P14" s="143">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="K15" s="178" t="s">
-        <v>368</v>
-      </c>
-      <c r="L15" s="143">
-        <v>100</v>
-      </c>
-      <c r="M15" s="178" t="s">
-        <v>374</v>
-      </c>
-      <c r="N15" s="143">
-        <v>160</v>
-      </c>
-      <c r="O15" s="178" t="s">
-        <v>379</v>
-      </c>
-      <c r="P15" s="143">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="16" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="K16" s="178" t="s">
-        <v>370</v>
-      </c>
-      <c r="L16" s="143">
-        <v>140</v>
-      </c>
-      <c r="M16" s="178" t="s">
-        <v>376</v>
-      </c>
-      <c r="N16" s="143">
-        <v>224</v>
-      </c>
-      <c r="O16" s="178" t="s">
-        <v>381</v>
-      </c>
-      <c r="P16" s="143">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="230" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="215"/>
-      <c r="C26" s="215"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="228"/>
-      <c r="B27" s="215"/>
-      <c r="C27" s="50"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="228"/>
-      <c r="B28" s="215"/>
-      <c r="C28" s="51"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="228"/>
-      <c r="B29" s="215"/>
-      <c r="C29" s="121"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="228"/>
-      <c r="B30" s="215"/>
-      <c r="C30" s="53"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="228"/>
-      <c r="B31" s="215"/>
-      <c r="C31" s="53"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="231"/>
-      <c r="B32" s="215"/>
-      <c r="C32" s="121"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="229"/>
-      <c r="B33" s="215"/>
-      <c r="C33" s="53"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="229"/>
-      <c r="B34" s="215"/>
-      <c r="C34" s="53"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="229"/>
-      <c r="B35" s="215"/>
-      <c r="C35" s="53"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="229"/>
-      <c r="B36" s="215"/>
-      <c r="C36" s="53"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="229"/>
-      <c r="B37" s="215"/>
-      <c r="C37" s="53"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="229"/>
-      <c r="B38" s="215"/>
-      <c r="C38" s="53"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="229"/>
-      <c r="B39" s="215"/>
-      <c r="C39" s="53"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="229"/>
-      <c r="B40" s="215"/>
-      <c r="C40" s="53"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="229"/>
-      <c r="B41" s="215"/>
-      <c r="C41" s="53"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="229"/>
-      <c r="B42" s="215"/>
-      <c r="C42" s="53"/>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/0 DyTech Informations/Dytech Balance.xlsx
+++ b/0 DyTech Informations/Dytech Balance.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\.FactorioModding\DyTech-master\0 DyTech Informations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\.Dytech\DyTech\0 DyTech Informations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12135" tabRatio="781" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12135" tabRatio="781" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
@@ -498,7 +498,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Energy used by the chemical processor to create the fuel stated in colum A</t>
+Energy used by the chemical processor to create the item stated in colum A</t>
         </r>
       </text>
     </comment>
@@ -1026,7 +1026,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="466">
   <si>
     <t>README</t>
   </si>
@@ -2405,9 +2405,6 @@
     <t>Copper Cable</t>
   </si>
   <si>
-    <t>Furnace used is electronic Furnace.</t>
-  </si>
-  <si>
     <t>leeg</t>
   </si>
   <si>
@@ -2418,6 +2415,15 @@
   </si>
   <si>
     <t>Copper ore</t>
+  </si>
+  <si>
+    <t>Furnace used is an electronic Furnace.</t>
+  </si>
+  <si>
+    <t>Electric Furnace</t>
+  </si>
+  <si>
+    <t>(2 speed)</t>
   </si>
 </sst>
 </file>
@@ -2915,7 +2921,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -3115,6 +3121,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3125,7 +3140,7 @@
     <xf numFmtId="0" fontId="14" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="279">
+  <cellXfs count="283">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3407,7 +3422,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1"/>
@@ -3464,9 +3478,6 @@
     <xf numFmtId="0" fontId="14" fillId="36" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="49" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3474,9 +3485,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="49" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="49" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3489,6 +3497,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="44" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3545,6 +3559,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="47" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="47" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -5884,68 +5907,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="238"/>
-      <c r="B1" s="235" t="s">
+      <c r="A1" s="237"/>
+      <c r="B1" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="227"/>
-      <c r="D1" s="235" t="s">
+      <c r="C1" s="226"/>
+      <c r="D1" s="234" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="235" t="s">
+      <c r="M1" s="234" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="227"/>
-      <c r="O1" s="227"/>
-      <c r="P1" s="227"/>
-      <c r="Q1" s="238"/>
+      <c r="N1" s="226"/>
+      <c r="O1" s="226"/>
+      <c r="P1" s="226"/>
+      <c r="Q1" s="237"/>
       <c r="U1" s="9"/>
-      <c r="V1" s="233"/>
-      <c r="W1" s="227"/>
-      <c r="X1" s="227"/>
+      <c r="V1" s="232"/>
+      <c r="W1" s="226"/>
+      <c r="X1" s="226"/>
     </row>
     <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="227"/>
-      <c r="B2" s="229" t="s">
+      <c r="A2" s="226"/>
+      <c r="B2" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="227"/>
-      <c r="D2" s="234" t="s">
+      <c r="C2" s="226"/>
+      <c r="D2" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="227"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="226"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="236"/>
-      <c r="M2" s="234" t="s">
+      <c r="L2" s="235"/>
+      <c r="M2" s="233" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="227"/>
-      <c r="O2" s="227"/>
-      <c r="P2" s="227"/>
-      <c r="Q2" s="227"/>
+      <c r="N2" s="226"/>
+      <c r="O2" s="226"/>
+      <c r="P2" s="226"/>
+      <c r="Q2" s="226"/>
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="226"/>
-      <c r="W2" s="227"/>
-      <c r="X2" s="227"/>
+      <c r="V2" s="225"/>
+      <c r="W2" s="226"/>
+      <c r="X2" s="226"/>
     </row>
     <row r="3" spans="1:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="227"/>
+      <c r="A3" s="226"/>
       <c r="B3" s="18" t="s">
         <v>23</v>
       </c>
@@ -5968,7 +5991,7 @@
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
-      <c r="L3" s="227"/>
+      <c r="L3" s="226"/>
       <c r="M3" s="24" t="s">
         <v>82</v>
       </c>
@@ -5979,7 +6002,7 @@
         <v>84</v>
       </c>
       <c r="P3" s="24"/>
-      <c r="Q3" s="227"/>
+      <c r="Q3" s="226"/>
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
@@ -5989,7 +6012,7 @@
       <c r="X3" s="27"/>
     </row>
     <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="227"/>
+      <c r="A4" s="226"/>
       <c r="B4" s="18" t="s">
         <v>101</v>
       </c>
@@ -6011,7 +6034,7 @@
       <c r="I4" s="36"/>
       <c r="J4" s="36"/>
       <c r="K4" s="36"/>
-      <c r="L4" s="227"/>
+      <c r="L4" s="226"/>
       <c r="M4" s="29">
         <v>1</v>
       </c>
@@ -6022,7 +6045,7 @@
         <v>0.1</v>
       </c>
       <c r="P4" s="42"/>
-      <c r="Q4" s="227"/>
+      <c r="Q4" s="226"/>
       <c r="R4" s="43"/>
       <c r="S4" s="39"/>
       <c r="U4" s="43"/>
@@ -6031,7 +6054,7 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="227"/>
+      <c r="A5" s="226"/>
       <c r="B5" s="18" t="s">
         <v>108</v>
       </c>
@@ -6057,7 +6080,7 @@
       <c r="I5" s="36"/>
       <c r="J5" s="36"/>
       <c r="K5" s="36"/>
-      <c r="L5" s="227"/>
+      <c r="L5" s="226"/>
       <c r="M5" s="29">
         <v>2</v>
       </c>
@@ -6068,7 +6091,7 @@
         <v>0.2</v>
       </c>
       <c r="P5" s="42"/>
-      <c r="Q5" s="227"/>
+      <c r="Q5" s="226"/>
       <c r="R5" s="43"/>
       <c r="S5" s="39"/>
       <c r="T5" s="10"/>
@@ -6078,7 +6101,7 @@
       <c r="X5" s="10"/>
     </row>
     <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="227"/>
+      <c r="A6" s="226"/>
       <c r="B6" s="14"/>
       <c r="C6" s="45"/>
       <c r="D6" s="29">
@@ -6102,7 +6125,7 @@
       <c r="I6" s="36"/>
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
-      <c r="L6" s="227"/>
+      <c r="L6" s="226"/>
       <c r="M6" s="29">
         <v>3</v>
       </c>
@@ -6113,7 +6136,7 @@
         <v>0.3</v>
       </c>
       <c r="P6" s="42"/>
-      <c r="Q6" s="227"/>
+      <c r="Q6" s="226"/>
       <c r="R6" s="43"/>
       <c r="S6" s="39"/>
       <c r="U6" s="43"/>
@@ -6122,7 +6145,7 @@
       <c r="X6" s="10"/>
     </row>
     <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="227"/>
+      <c r="A7" s="226"/>
       <c r="B7" s="14"/>
       <c r="C7" s="45"/>
       <c r="D7" s="29">
@@ -6144,7 +6167,7 @@
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
       <c r="K7" s="36"/>
-      <c r="L7" s="227"/>
+      <c r="L7" s="226"/>
       <c r="M7" s="29">
         <v>4</v>
       </c>
@@ -6155,14 +6178,14 @@
         <v>0.4</v>
       </c>
       <c r="P7" s="42"/>
-      <c r="Q7" s="227"/>
+      <c r="Q7" s="226"/>
       <c r="R7" s="43"/>
       <c r="S7" s="39"/>
       <c r="U7" s="43"/>
       <c r="V7" s="43"/>
     </row>
     <row r="8" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="227"/>
+      <c r="A8" s="226"/>
       <c r="B8" s="14"/>
       <c r="C8" s="45"/>
       <c r="D8" s="29">
@@ -6186,7 +6209,7 @@
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
-      <c r="L8" s="227"/>
+      <c r="L8" s="226"/>
       <c r="M8" s="29">
         <v>5</v>
       </c>
@@ -6197,14 +6220,14 @@
         <v>0.5</v>
       </c>
       <c r="P8" s="42"/>
-      <c r="Q8" s="227"/>
+      <c r="Q8" s="226"/>
       <c r="R8" s="43"/>
       <c r="S8" s="39"/>
       <c r="U8" s="43"/>
       <c r="V8" s="43"/>
     </row>
     <row r="9" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="227"/>
+      <c r="A9" s="226"/>
       <c r="B9" s="14"/>
       <c r="C9" s="45"/>
       <c r="D9" s="29">
@@ -6226,7 +6249,7 @@
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
-      <c r="L9" s="227"/>
+      <c r="L9" s="226"/>
       <c r="M9" s="29">
         <v>6</v>
       </c>
@@ -6237,14 +6260,14 @@
         <v>0.6</v>
       </c>
       <c r="P9" s="42"/>
-      <c r="Q9" s="227"/>
+      <c r="Q9" s="226"/>
       <c r="R9" s="43"/>
       <c r="S9" s="39"/>
       <c r="U9" s="43"/>
       <c r="V9" s="43"/>
     </row>
     <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="227"/>
+      <c r="A10" s="226"/>
       <c r="B10" s="14"/>
       <c r="C10" s="45"/>
       <c r="D10" s="29">
@@ -6268,7 +6291,7 @@
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
-      <c r="L10" s="227"/>
+      <c r="L10" s="226"/>
       <c r="M10" s="29">
         <v>7</v>
       </c>
@@ -6279,14 +6302,14 @@
         <v>0.7</v>
       </c>
       <c r="P10" s="42"/>
-      <c r="Q10" s="227"/>
+      <c r="Q10" s="226"/>
       <c r="R10" s="43"/>
       <c r="S10" s="39"/>
       <c r="U10" s="43"/>
       <c r="V10" s="43"/>
     </row>
     <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="227"/>
+      <c r="A11" s="226"/>
       <c r="B11" s="14"/>
       <c r="C11" s="45"/>
       <c r="D11" s="29">
@@ -6310,7 +6333,7 @@
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
-      <c r="L11" s="227"/>
+      <c r="L11" s="226"/>
       <c r="M11" s="29">
         <v>8</v>
       </c>
@@ -6321,30 +6344,30 @@
         <v>0.8</v>
       </c>
       <c r="P11" s="42"/>
-      <c r="Q11" s="227"/>
+      <c r="Q11" s="226"/>
       <c r="R11" s="43"/>
       <c r="S11" s="39"/>
       <c r="U11" s="43"/>
       <c r="V11" s="43"/>
     </row>
     <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="227"/>
-      <c r="B12" s="230"/>
-      <c r="C12" s="227"/>
-      <c r="D12" s="231"/>
-      <c r="E12" s="227"/>
-      <c r="F12" s="227"/>
-      <c r="G12" s="227"/>
+      <c r="A12" s="226"/>
+      <c r="B12" s="229"/>
+      <c r="C12" s="226"/>
+      <c r="D12" s="230"/>
+      <c r="E12" s="226"/>
+      <c r="F12" s="226"/>
+      <c r="G12" s="226"/>
       <c r="H12" s="56"/>
       <c r="I12" s="56"/>
       <c r="J12" s="56"/>
       <c r="K12" s="56"/>
-      <c r="L12" s="227"/>
-      <c r="M12" s="231"/>
-      <c r="N12" s="227"/>
-      <c r="O12" s="227"/>
-      <c r="P12" s="227"/>
-      <c r="Q12" s="227"/>
+      <c r="L12" s="226"/>
+      <c r="M12" s="230"/>
+      <c r="N12" s="226"/>
+      <c r="O12" s="226"/>
+      <c r="P12" s="226"/>
+      <c r="Q12" s="226"/>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
@@ -6354,37 +6377,37 @@
       <c r="X12" s="17"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="227"/>
-      <c r="B13" s="229"/>
-      <c r="C13" s="227"/>
-      <c r="D13" s="232" t="s">
+      <c r="A13" s="226"/>
+      <c r="B13" s="228"/>
+      <c r="C13" s="226"/>
+      <c r="D13" s="231" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="227"/>
-      <c r="F13" s="227"/>
-      <c r="G13" s="227"/>
+      <c r="E13" s="226"/>
+      <c r="F13" s="226"/>
+      <c r="G13" s="226"/>
       <c r="H13" s="58"/>
       <c r="I13" s="58"/>
       <c r="J13" s="58"/>
       <c r="K13" s="58"/>
-      <c r="L13" s="227"/>
-      <c r="M13" s="232" t="s">
+      <c r="L13" s="226"/>
+      <c r="M13" s="231" t="s">
         <v>144</v>
       </c>
-      <c r="N13" s="227"/>
-      <c r="O13" s="227"/>
-      <c r="P13" s="227"/>
-      <c r="Q13" s="227"/>
+      <c r="N13" s="226"/>
+      <c r="O13" s="226"/>
+      <c r="P13" s="226"/>
+      <c r="Q13" s="226"/>
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
-      <c r="V13" s="226"/>
-      <c r="W13" s="227"/>
-      <c r="X13" s="227"/>
+      <c r="V13" s="225"/>
+      <c r="W13" s="226"/>
+      <c r="X13" s="226"/>
     </row>
     <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="227"/>
+      <c r="A14" s="226"/>
       <c r="B14" s="14"/>
       <c r="C14" s="45"/>
       <c r="D14" s="60" t="s">
@@ -6405,7 +6428,7 @@
       <c r="I14" s="60"/>
       <c r="J14" s="60"/>
       <c r="K14" s="60"/>
-      <c r="L14" s="227"/>
+      <c r="L14" s="226"/>
       <c r="M14" s="60" t="s">
         <v>151</v>
       </c>
@@ -6414,7 +6437,7 @@
       </c>
       <c r="O14" s="60"/>
       <c r="P14" s="60"/>
-      <c r="Q14" s="227"/>
+      <c r="Q14" s="226"/>
       <c r="R14" s="27"/>
       <c r="S14" s="27"/>
       <c r="T14" s="27"/>
@@ -6424,7 +6447,7 @@
       <c r="X14" s="27"/>
     </row>
     <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="227"/>
+      <c r="A15" s="226"/>
       <c r="B15" s="14"/>
       <c r="C15" s="45"/>
       <c r="D15" s="62">
@@ -6444,7 +6467,7 @@
       <c r="I15" s="68"/>
       <c r="J15" s="68"/>
       <c r="K15" s="68"/>
-      <c r="L15" s="227"/>
+      <c r="L15" s="226"/>
       <c r="M15" s="62">
         <v>1</v>
       </c>
@@ -6453,7 +6476,7 @@
       </c>
       <c r="O15" s="65"/>
       <c r="P15" s="65"/>
-      <c r="Q15" s="227"/>
+      <c r="Q15" s="226"/>
       <c r="R15" s="43"/>
       <c r="S15" s="39"/>
       <c r="U15" s="43"/>
@@ -6461,7 +6484,7 @@
       <c r="W15" s="10"/>
     </row>
     <row r="16" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="227"/>
+      <c r="A16" s="226"/>
       <c r="B16" s="14"/>
       <c r="C16" s="45"/>
       <c r="D16" s="62">
@@ -6483,7 +6506,7 @@
       <c r="I16" s="68"/>
       <c r="J16" s="68"/>
       <c r="K16" s="68"/>
-      <c r="L16" s="227"/>
+      <c r="L16" s="226"/>
       <c r="M16" s="62">
         <v>2</v>
       </c>
@@ -6492,7 +6515,7 @@
       </c>
       <c r="O16" s="65"/>
       <c r="P16" s="65"/>
-      <c r="Q16" s="227"/>
+      <c r="Q16" s="226"/>
       <c r="R16" s="43"/>
       <c r="S16" s="39"/>
       <c r="U16" s="43"/>
@@ -6500,7 +6523,7 @@
       <c r="W16" s="10"/>
     </row>
     <row r="17" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="227"/>
+      <c r="A17" s="226"/>
       <c r="B17" s="14"/>
       <c r="C17" s="45"/>
       <c r="D17" s="62">
@@ -6524,7 +6547,7 @@
       <c r="I17" s="68"/>
       <c r="J17" s="68"/>
       <c r="K17" s="68"/>
-      <c r="L17" s="227"/>
+      <c r="L17" s="226"/>
       <c r="M17" s="62">
         <v>3</v>
       </c>
@@ -6533,7 +6556,7 @@
       </c>
       <c r="O17" s="65"/>
       <c r="P17" s="65"/>
-      <c r="Q17" s="227"/>
+      <c r="Q17" s="226"/>
       <c r="R17" s="43"/>
       <c r="S17" s="39"/>
       <c r="U17" s="43"/>
@@ -6541,7 +6564,7 @@
       <c r="W17" s="10"/>
     </row>
     <row r="18" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="227"/>
+      <c r="A18" s="226"/>
       <c r="B18" s="14"/>
       <c r="C18" s="45"/>
       <c r="D18" s="62">
@@ -6563,7 +6586,7 @@
       <c r="I18" s="68"/>
       <c r="J18" s="68"/>
       <c r="K18" s="68"/>
-      <c r="L18" s="227"/>
+      <c r="L18" s="226"/>
       <c r="M18" s="62">
         <v>4</v>
       </c>
@@ -6572,13 +6595,13 @@
       </c>
       <c r="O18" s="65"/>
       <c r="P18" s="65"/>
-      <c r="Q18" s="227"/>
+      <c r="Q18" s="226"/>
       <c r="R18" s="43"/>
       <c r="U18" s="43"/>
       <c r="V18" s="43"/>
     </row>
     <row r="19" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="227"/>
+      <c r="A19" s="226"/>
       <c r="B19" s="14"/>
       <c r="C19" s="45"/>
       <c r="D19" s="62">
@@ -6602,7 +6625,7 @@
       <c r="I19" s="68"/>
       <c r="J19" s="68"/>
       <c r="K19" s="68"/>
-      <c r="L19" s="227"/>
+      <c r="L19" s="226"/>
       <c r="M19" s="62">
         <v>5</v>
       </c>
@@ -6611,13 +6634,13 @@
       </c>
       <c r="O19" s="65"/>
       <c r="P19" s="65"/>
-      <c r="Q19" s="227"/>
+      <c r="Q19" s="226"/>
       <c r="R19" s="43"/>
       <c r="U19" s="43"/>
       <c r="V19" s="43"/>
     </row>
     <row r="20" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="227"/>
+      <c r="A20" s="226"/>
       <c r="B20" s="14"/>
       <c r="C20" s="45"/>
       <c r="D20" s="62">
@@ -6639,7 +6662,7 @@
       <c r="I20" s="68"/>
       <c r="J20" s="68"/>
       <c r="K20" s="68"/>
-      <c r="L20" s="227"/>
+      <c r="L20" s="226"/>
       <c r="M20" s="62">
         <v>6</v>
       </c>
@@ -6648,14 +6671,14 @@
       </c>
       <c r="O20" s="65"/>
       <c r="P20" s="65"/>
-      <c r="Q20" s="227"/>
+      <c r="Q20" s="226"/>
       <c r="R20" s="43"/>
       <c r="S20" s="39"/>
       <c r="U20" s="43"/>
       <c r="V20" s="43"/>
     </row>
     <row r="21" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="227"/>
+      <c r="A21" s="226"/>
       <c r="B21" s="14"/>
       <c r="C21" s="45"/>
       <c r="D21" s="62">
@@ -6679,7 +6702,7 @@
       <c r="I21" s="68"/>
       <c r="J21" s="68"/>
       <c r="K21" s="68"/>
-      <c r="L21" s="227"/>
+      <c r="L21" s="226"/>
       <c r="M21" s="62">
         <v>7</v>
       </c>
@@ -6688,14 +6711,14 @@
       </c>
       <c r="O21" s="65"/>
       <c r="P21" s="65"/>
-      <c r="Q21" s="227"/>
+      <c r="Q21" s="226"/>
       <c r="R21" s="43"/>
       <c r="S21" s="39"/>
       <c r="U21" s="43"/>
       <c r="V21" s="43"/>
     </row>
     <row r="22" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="227"/>
+      <c r="A22" s="226"/>
       <c r="B22" s="14"/>
       <c r="C22" s="45"/>
       <c r="D22" s="62">
@@ -6719,7 +6742,7 @@
       <c r="I22" s="68"/>
       <c r="J22" s="68"/>
       <c r="K22" s="68"/>
-      <c r="L22" s="227"/>
+      <c r="L22" s="226"/>
       <c r="M22" s="62">
         <v>8</v>
       </c>
@@ -6728,30 +6751,30 @@
       </c>
       <c r="O22" s="65"/>
       <c r="P22" s="65"/>
-      <c r="Q22" s="227"/>
+      <c r="Q22" s="226"/>
       <c r="R22" s="43"/>
       <c r="S22" s="39"/>
       <c r="U22" s="43"/>
       <c r="V22" s="43"/>
     </row>
     <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="227"/>
-      <c r="B23" s="230"/>
-      <c r="C23" s="227"/>
-      <c r="D23" s="231"/>
-      <c r="E23" s="227"/>
-      <c r="F23" s="227"/>
-      <c r="G23" s="227"/>
+      <c r="A23" s="226"/>
+      <c r="B23" s="229"/>
+      <c r="C23" s="226"/>
+      <c r="D23" s="230"/>
+      <c r="E23" s="226"/>
+      <c r="F23" s="226"/>
+      <c r="G23" s="226"/>
       <c r="H23" s="56"/>
       <c r="I23" s="56"/>
       <c r="J23" s="56"/>
       <c r="K23" s="56"/>
-      <c r="L23" s="227"/>
-      <c r="M23" s="231"/>
-      <c r="N23" s="227"/>
-      <c r="O23" s="227"/>
-      <c r="P23" s="227"/>
-      <c r="Q23" s="227"/>
+      <c r="L23" s="226"/>
+      <c r="M23" s="230"/>
+      <c r="N23" s="226"/>
+      <c r="O23" s="226"/>
+      <c r="P23" s="226"/>
+      <c r="Q23" s="226"/>
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
       <c r="T23" s="17"/>
@@ -6761,39 +6784,39 @@
       <c r="X23" s="17"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="227"/>
-      <c r="B24" s="229" t="s">
+      <c r="A24" s="226"/>
+      <c r="B24" s="228" t="s">
         <v>177</v>
       </c>
-      <c r="C24" s="227"/>
-      <c r="D24" s="228" t="s">
+      <c r="C24" s="226"/>
+      <c r="D24" s="227" t="s">
         <v>178</v>
       </c>
-      <c r="E24" s="227"/>
-      <c r="F24" s="227"/>
-      <c r="G24" s="227"/>
+      <c r="E24" s="226"/>
+      <c r="F24" s="226"/>
+      <c r="G24" s="226"/>
       <c r="H24" s="74"/>
       <c r="I24" s="74"/>
       <c r="J24" s="74"/>
       <c r="K24" s="74"/>
-      <c r="L24" s="227"/>
-      <c r="M24" s="228" t="s">
+      <c r="L24" s="226"/>
+      <c r="M24" s="227" t="s">
         <v>179</v>
       </c>
-      <c r="N24" s="227"/>
-      <c r="O24" s="227"/>
-      <c r="P24" s="227"/>
-      <c r="Q24" s="227"/>
+      <c r="N24" s="226"/>
+      <c r="O24" s="226"/>
+      <c r="P24" s="226"/>
+      <c r="Q24" s="226"/>
       <c r="R24" s="17"/>
       <c r="S24" s="17"/>
       <c r="T24" s="17"/>
       <c r="U24" s="17"/>
-      <c r="V24" s="226"/>
-      <c r="W24" s="227"/>
-      <c r="X24" s="227"/>
+      <c r="V24" s="225"/>
+      <c r="W24" s="226"/>
+      <c r="X24" s="226"/>
     </row>
     <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="227"/>
+      <c r="A25" s="226"/>
       <c r="B25" s="14" t="s">
         <v>180</v>
       </c>
@@ -6824,7 +6847,7 @@
       <c r="K25" s="76" t="s">
         <v>190</v>
       </c>
-      <c r="L25" s="227"/>
+      <c r="L25" s="226"/>
       <c r="M25" s="76" t="s">
         <v>191</v>
       </c>
@@ -6837,7 +6860,7 @@
       <c r="P25" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="Q25" s="227"/>
+      <c r="Q25" s="226"/>
       <c r="R25" s="27"/>
       <c r="S25" s="27"/>
       <c r="T25" s="27"/>
@@ -6847,7 +6870,7 @@
       <c r="X25" s="27"/>
     </row>
     <row r="26" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="227"/>
+      <c r="A26" s="226"/>
       <c r="B26" s="14" t="s">
         <v>195</v>
       </c>
@@ -6881,7 +6904,7 @@
         <f>E26/E26</f>
         <v>1</v>
       </c>
-      <c r="L26" s="227"/>
+      <c r="L26" s="226"/>
       <c r="M26" s="77">
         <v>1</v>
       </c>
@@ -6894,7 +6917,7 @@
       <c r="P26" s="81">
         <v>0.2</v>
       </c>
-      <c r="Q26" s="227"/>
+      <c r="Q26" s="226"/>
       <c r="R26" s="43"/>
       <c r="U26" s="43"/>
       <c r="V26" s="43"/>
@@ -6902,7 +6925,7 @@
       <c r="X26" s="10"/>
     </row>
     <row r="27" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="227"/>
+      <c r="A27" s="226"/>
       <c r="B27" s="14"/>
       <c r="C27" s="45"/>
       <c r="D27" s="77">
@@ -6933,7 +6956,7 @@
         <f t="shared" ref="K27:K33" si="11">E27/E$26</f>
         <v>2</v>
       </c>
-      <c r="L27" s="227"/>
+      <c r="L27" s="226"/>
       <c r="M27" s="77">
         <v>2</v>
       </c>
@@ -6946,7 +6969,7 @@
       <c r="P27" s="81">
         <v>0.4</v>
       </c>
-      <c r="Q27" s="227"/>
+      <c r="Q27" s="226"/>
       <c r="R27" s="43"/>
       <c r="U27" s="43"/>
       <c r="V27" s="43"/>
@@ -6954,7 +6977,7 @@
       <c r="X27" s="10"/>
     </row>
     <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="227"/>
+      <c r="A28" s="226"/>
       <c r="B28" s="14"/>
       <c r="C28" s="45"/>
       <c r="D28" s="77">
@@ -6987,7 +7010,7 @@
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="L28" s="227"/>
+      <c r="L28" s="226"/>
       <c r="M28" s="77">
         <v>3</v>
       </c>
@@ -7000,7 +7023,7 @@
       <c r="P28" s="81">
         <v>0.6</v>
       </c>
-      <c r="Q28" s="227"/>
+      <c r="Q28" s="226"/>
       <c r="R28" s="43"/>
       <c r="U28" s="43"/>
       <c r="V28" s="43"/>
@@ -7008,7 +7031,7 @@
       <c r="X28" s="10"/>
     </row>
     <row r="29" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="227"/>
+      <c r="A29" s="226"/>
       <c r="B29" s="14"/>
       <c r="C29" s="45"/>
       <c r="D29" s="77">
@@ -7039,7 +7062,7 @@
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="L29" s="227"/>
+      <c r="L29" s="226"/>
       <c r="M29" s="77">
         <v>4</v>
       </c>
@@ -7052,13 +7075,13 @@
       <c r="P29" s="81">
         <v>0.8</v>
       </c>
-      <c r="Q29" s="227"/>
+      <c r="Q29" s="226"/>
       <c r="R29" s="43"/>
       <c r="U29" s="43"/>
       <c r="V29" s="43"/>
     </row>
     <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="227"/>
+      <c r="A30" s="226"/>
       <c r="B30" s="14"/>
       <c r="C30" s="45"/>
       <c r="D30" s="77">
@@ -7091,7 +7114,7 @@
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="L30" s="227"/>
+      <c r="L30" s="226"/>
       <c r="M30" s="77">
         <v>5</v>
       </c>
@@ -7104,13 +7127,13 @@
       <c r="P30" s="81">
         <v>1</v>
       </c>
-      <c r="Q30" s="227"/>
+      <c r="Q30" s="226"/>
       <c r="R30" s="43"/>
       <c r="U30" s="43"/>
       <c r="V30" s="43"/>
     </row>
     <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="227"/>
+      <c r="A31" s="226"/>
       <c r="B31" s="14"/>
       <c r="C31" s="45"/>
       <c r="D31" s="77">
@@ -7141,7 +7164,7 @@
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="L31" s="227"/>
+      <c r="L31" s="226"/>
       <c r="M31" s="77">
         <v>6</v>
       </c>
@@ -7154,13 +7177,13 @@
       <c r="P31" s="81">
         <v>1.2</v>
       </c>
-      <c r="Q31" s="227"/>
+      <c r="Q31" s="226"/>
       <c r="R31" s="43"/>
       <c r="U31" s="43"/>
       <c r="V31" s="43"/>
     </row>
     <row r="32" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="227"/>
+      <c r="A32" s="226"/>
       <c r="B32" s="14"/>
       <c r="C32" s="45"/>
       <c r="D32" s="77">
@@ -7193,7 +7216,7 @@
         <f t="shared" si="11"/>
         <v>13.999999999999998</v>
       </c>
-      <c r="L32" s="227"/>
+      <c r="L32" s="226"/>
       <c r="M32" s="77">
         <v>7</v>
       </c>
@@ -7206,13 +7229,13 @@
       <c r="P32" s="81">
         <v>1.6</v>
       </c>
-      <c r="Q32" s="227"/>
+      <c r="Q32" s="226"/>
       <c r="R32" s="43"/>
       <c r="U32" s="43"/>
       <c r="V32" s="43"/>
     </row>
     <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="227"/>
+      <c r="A33" s="226"/>
       <c r="B33" s="14"/>
       <c r="C33" s="45"/>
       <c r="D33" s="77">
@@ -7245,7 +7268,7 @@
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="L33" s="227"/>
+      <c r="L33" s="226"/>
       <c r="M33" s="77">
         <v>8</v>
       </c>
@@ -7258,55 +7281,55 @@
       <c r="P33" s="81">
         <v>2</v>
       </c>
-      <c r="Q33" s="227"/>
+      <c r="Q33" s="226"/>
       <c r="R33" s="43"/>
       <c r="U33" s="43"/>
       <c r="V33" s="43"/>
     </row>
     <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="227"/>
-      <c r="B34" s="230"/>
-      <c r="C34" s="227"/>
-      <c r="D34" s="231"/>
-      <c r="E34" s="227"/>
-      <c r="F34" s="227"/>
-      <c r="G34" s="227"/>
+      <c r="A34" s="226"/>
+      <c r="B34" s="229"/>
+      <c r="C34" s="226"/>
+      <c r="D34" s="230"/>
+      <c r="E34" s="226"/>
+      <c r="F34" s="226"/>
+      <c r="G34" s="226"/>
       <c r="H34" s="56"/>
       <c r="I34" s="56"/>
       <c r="J34" s="56"/>
       <c r="K34" s="56"/>
-      <c r="L34" s="227"/>
-      <c r="M34" s="231"/>
-      <c r="N34" s="227"/>
-      <c r="O34" s="227"/>
-      <c r="P34" s="227"/>
-      <c r="Q34" s="227"/>
+      <c r="L34" s="226"/>
+      <c r="M34" s="230"/>
+      <c r="N34" s="226"/>
+      <c r="O34" s="226"/>
+      <c r="P34" s="226"/>
+      <c r="Q34" s="226"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="227"/>
-      <c r="B35" s="229"/>
-      <c r="C35" s="227"/>
-      <c r="D35" s="237" t="s">
+      <c r="A35" s="226"/>
+      <c r="B35" s="228"/>
+      <c r="C35" s="226"/>
+      <c r="D35" s="236" t="s">
         <v>238</v>
       </c>
-      <c r="E35" s="227"/>
-      <c r="F35" s="227"/>
-      <c r="G35" s="227"/>
+      <c r="E35" s="226"/>
+      <c r="F35" s="226"/>
+      <c r="G35" s="226"/>
       <c r="H35" s="96"/>
       <c r="I35" s="96"/>
       <c r="J35" s="96"/>
       <c r="K35" s="96"/>
-      <c r="L35" s="227"/>
-      <c r="M35" s="237" t="s">
+      <c r="L35" s="226"/>
+      <c r="M35" s="236" t="s">
         <v>239</v>
       </c>
-      <c r="N35" s="227"/>
-      <c r="O35" s="227"/>
-      <c r="P35" s="227"/>
-      <c r="Q35" s="227"/>
+      <c r="N35" s="226"/>
+      <c r="O35" s="226"/>
+      <c r="P35" s="226"/>
+      <c r="Q35" s="226"/>
     </row>
     <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="227"/>
+      <c r="A36" s="226"/>
       <c r="B36" s="14"/>
       <c r="C36" s="45"/>
       <c r="D36" s="97" t="s">
@@ -7325,7 +7348,7 @@
       <c r="I36" s="97"/>
       <c r="J36" s="97"/>
       <c r="K36" s="97"/>
-      <c r="L36" s="227"/>
+      <c r="L36" s="226"/>
       <c r="M36" s="97" t="s">
         <v>244</v>
       </c>
@@ -7334,10 +7357,10 @@
       </c>
       <c r="O36" s="97"/>
       <c r="P36" s="97"/>
-      <c r="Q36" s="227"/>
+      <c r="Q36" s="226"/>
     </row>
     <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="227"/>
+      <c r="A37" s="226"/>
       <c r="B37" s="14"/>
       <c r="C37" s="45"/>
       <c r="D37" s="99">
@@ -7355,7 +7378,7 @@
       <c r="I37" s="53"/>
       <c r="J37" s="53"/>
       <c r="K37" s="53"/>
-      <c r="L37" s="227"/>
+      <c r="L37" s="226"/>
       <c r="M37" s="99">
         <v>1</v>
       </c>
@@ -7364,10 +7387,10 @@
       </c>
       <c r="O37" s="53"/>
       <c r="P37" s="53"/>
-      <c r="Q37" s="227"/>
+      <c r="Q37" s="226"/>
     </row>
     <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="227"/>
+      <c r="A38" s="226"/>
       <c r="B38" s="14"/>
       <c r="C38" s="45"/>
       <c r="D38" s="99">
@@ -7386,7 +7409,7 @@
       <c r="I38" s="53"/>
       <c r="J38" s="53"/>
       <c r="K38" s="53"/>
-      <c r="L38" s="227"/>
+      <c r="L38" s="226"/>
       <c r="M38" s="99">
         <v>2</v>
       </c>
@@ -7395,10 +7418,10 @@
       </c>
       <c r="O38" s="53"/>
       <c r="P38" s="53"/>
-      <c r="Q38" s="227"/>
+      <c r="Q38" s="226"/>
     </row>
     <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="227"/>
+      <c r="A39" s="226"/>
       <c r="B39" s="14"/>
       <c r="C39" s="45"/>
       <c r="D39" s="99">
@@ -7419,7 +7442,7 @@
       <c r="I39" s="53"/>
       <c r="J39" s="53"/>
       <c r="K39" s="53"/>
-      <c r="L39" s="227"/>
+      <c r="L39" s="226"/>
       <c r="M39" s="99">
         <v>3</v>
       </c>
@@ -7428,10 +7451,10 @@
       </c>
       <c r="O39" s="53"/>
       <c r="P39" s="53"/>
-      <c r="Q39" s="227"/>
+      <c r="Q39" s="226"/>
     </row>
     <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="227"/>
+      <c r="A40" s="226"/>
       <c r="B40" s="14"/>
       <c r="C40" s="45"/>
       <c r="D40" s="99">
@@ -7450,7 +7473,7 @@
       <c r="I40" s="53"/>
       <c r="J40" s="53"/>
       <c r="K40" s="53"/>
-      <c r="L40" s="227"/>
+      <c r="L40" s="226"/>
       <c r="M40" s="99">
         <v>4</v>
       </c>
@@ -7459,10 +7482,10 @@
       </c>
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
-      <c r="Q40" s="227"/>
+      <c r="Q40" s="226"/>
     </row>
     <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="227"/>
+      <c r="A41" s="226"/>
       <c r="B41" s="14"/>
       <c r="C41" s="45"/>
       <c r="D41" s="99">
@@ -7483,7 +7506,7 @@
       <c r="I41" s="53"/>
       <c r="J41" s="53"/>
       <c r="K41" s="53"/>
-      <c r="L41" s="227"/>
+      <c r="L41" s="226"/>
       <c r="M41" s="99">
         <v>5</v>
       </c>
@@ -7492,10 +7515,10 @@
       </c>
       <c r="O41" s="53"/>
       <c r="P41" s="53"/>
-      <c r="Q41" s="227"/>
+      <c r="Q41" s="226"/>
     </row>
     <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="227"/>
+      <c r="A42" s="226"/>
       <c r="B42" s="14"/>
       <c r="C42" s="45"/>
       <c r="D42" s="99">
@@ -7514,7 +7537,7 @@
       <c r="I42" s="53"/>
       <c r="J42" s="53"/>
       <c r="K42" s="53"/>
-      <c r="L42" s="227"/>
+      <c r="L42" s="226"/>
       <c r="M42" s="99">
         <v>6</v>
       </c>
@@ -7523,10 +7546,10 @@
       </c>
       <c r="O42" s="53"/>
       <c r="P42" s="53"/>
-      <c r="Q42" s="227"/>
+      <c r="Q42" s="226"/>
     </row>
     <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="227"/>
+      <c r="A43" s="226"/>
       <c r="B43" s="14"/>
       <c r="C43" s="45"/>
       <c r="D43" s="99">
@@ -7547,7 +7570,7 @@
       <c r="I43" s="53"/>
       <c r="J43" s="53"/>
       <c r="K43" s="53"/>
-      <c r="L43" s="227"/>
+      <c r="L43" s="226"/>
       <c r="M43" s="99">
         <v>7</v>
       </c>
@@ -7556,10 +7579,10 @@
       </c>
       <c r="O43" s="53"/>
       <c r="P43" s="53"/>
-      <c r="Q43" s="227"/>
+      <c r="Q43" s="226"/>
     </row>
     <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="227"/>
+      <c r="A44" s="226"/>
       <c r="B44" s="14"/>
       <c r="C44" s="45"/>
       <c r="D44" s="99">
@@ -7580,7 +7603,7 @@
       <c r="I44" s="53"/>
       <c r="J44" s="53"/>
       <c r="K44" s="53"/>
-      <c r="L44" s="227"/>
+      <c r="L44" s="226"/>
       <c r="M44" s="99">
         <v>8</v>
       </c>
@@ -7589,52 +7612,52 @@
       </c>
       <c r="O44" s="53"/>
       <c r="P44" s="53"/>
-      <c r="Q44" s="227"/>
+      <c r="Q44" s="226"/>
     </row>
     <row r="45" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="227"/>
-      <c r="B45" s="230"/>
-      <c r="C45" s="227"/>
-      <c r="D45" s="231"/>
-      <c r="E45" s="227"/>
-      <c r="F45" s="227"/>
-      <c r="G45" s="227"/>
+      <c r="A45" s="226"/>
+      <c r="B45" s="229"/>
+      <c r="C45" s="226"/>
+      <c r="D45" s="230"/>
+      <c r="E45" s="226"/>
+      <c r="F45" s="226"/>
+      <c r="G45" s="226"/>
       <c r="H45" s="56"/>
       <c r="I45" s="56"/>
       <c r="J45" s="56"/>
       <c r="K45" s="56"/>
-      <c r="L45" s="227"/>
-      <c r="M45" s="231"/>
-      <c r="N45" s="227"/>
-      <c r="O45" s="227"/>
-      <c r="P45" s="227"/>
-      <c r="Q45" s="227"/>
+      <c r="L45" s="226"/>
+      <c r="M45" s="230"/>
+      <c r="N45" s="226"/>
+      <c r="O45" s="226"/>
+      <c r="P45" s="226"/>
+      <c r="Q45" s="226"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="227"/>
-      <c r="B46" s="229"/>
-      <c r="C46" s="227"/>
-      <c r="D46" s="239" t="s">
+      <c r="A46" s="226"/>
+      <c r="B46" s="228"/>
+      <c r="C46" s="226"/>
+      <c r="D46" s="238" t="s">
         <v>258</v>
       </c>
-      <c r="E46" s="227"/>
-      <c r="F46" s="227"/>
-      <c r="G46" s="227"/>
+      <c r="E46" s="226"/>
+      <c r="F46" s="226"/>
+      <c r="G46" s="226"/>
       <c r="H46" s="106"/>
       <c r="I46" s="106"/>
       <c r="J46" s="106"/>
       <c r="K46" s="106"/>
-      <c r="L46" s="227"/>
-      <c r="M46" s="239" t="s">
+      <c r="L46" s="226"/>
+      <c r="M46" s="238" t="s">
         <v>262</v>
       </c>
-      <c r="N46" s="227"/>
-      <c r="O46" s="227"/>
-      <c r="P46" s="227"/>
-      <c r="Q46" s="227"/>
+      <c r="N46" s="226"/>
+      <c r="O46" s="226"/>
+      <c r="P46" s="226"/>
+      <c r="Q46" s="226"/>
     </row>
     <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="227"/>
+      <c r="A47" s="226"/>
       <c r="B47" s="14"/>
       <c r="C47" s="45"/>
       <c r="D47" s="108" t="s">
@@ -7651,7 +7674,7 @@
       <c r="I47" s="108"/>
       <c r="J47" s="108"/>
       <c r="K47" s="108"/>
-      <c r="L47" s="227"/>
+      <c r="L47" s="226"/>
       <c r="M47" s="108" t="s">
         <v>273</v>
       </c>
@@ -7660,10 +7683,10 @@
       </c>
       <c r="O47" s="108"/>
       <c r="P47" s="108"/>
-      <c r="Q47" s="227"/>
+      <c r="Q47" s="226"/>
     </row>
     <row r="48" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="227"/>
+      <c r="A48" s="226"/>
       <c r="B48" s="14"/>
       <c r="C48" s="45"/>
       <c r="D48" s="110">
@@ -7678,7 +7701,7 @@
       <c r="I48" s="113"/>
       <c r="J48" s="113"/>
       <c r="K48" s="113"/>
-      <c r="L48" s="227"/>
+      <c r="L48" s="226"/>
       <c r="M48" s="110">
         <v>1</v>
       </c>
@@ -7687,10 +7710,10 @@
       </c>
       <c r="O48" s="113"/>
       <c r="P48" s="113"/>
-      <c r="Q48" s="227"/>
+      <c r="Q48" s="226"/>
     </row>
     <row r="49" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="227"/>
+      <c r="A49" s="226"/>
       <c r="B49" s="14"/>
       <c r="C49" s="45"/>
       <c r="D49" s="110">
@@ -7706,7 +7729,7 @@
       <c r="I49" s="113"/>
       <c r="J49" s="113"/>
       <c r="K49" s="113"/>
-      <c r="L49" s="227"/>
+      <c r="L49" s="226"/>
       <c r="M49" s="110">
         <v>2</v>
       </c>
@@ -7715,10 +7738,10 @@
       </c>
       <c r="O49" s="113"/>
       <c r="P49" s="113"/>
-      <c r="Q49" s="227"/>
+      <c r="Q49" s="226"/>
     </row>
     <row r="50" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="227"/>
+      <c r="A50" s="226"/>
       <c r="B50" s="14"/>
       <c r="C50" s="45"/>
       <c r="D50" s="110">
@@ -7736,7 +7759,7 @@
       <c r="I50" s="113"/>
       <c r="J50" s="113"/>
       <c r="K50" s="113"/>
-      <c r="L50" s="227"/>
+      <c r="L50" s="226"/>
       <c r="M50" s="110">
         <v>3</v>
       </c>
@@ -7745,10 +7768,10 @@
       </c>
       <c r="O50" s="113"/>
       <c r="P50" s="113"/>
-      <c r="Q50" s="227"/>
+      <c r="Q50" s="226"/>
     </row>
     <row r="51" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="227"/>
+      <c r="A51" s="226"/>
       <c r="B51" s="14"/>
       <c r="C51" s="45"/>
       <c r="D51" s="110">
@@ -7764,7 +7787,7 @@
       <c r="I51" s="113"/>
       <c r="J51" s="113"/>
       <c r="K51" s="113"/>
-      <c r="L51" s="227"/>
+      <c r="L51" s="226"/>
       <c r="M51" s="110">
         <v>4</v>
       </c>
@@ -7773,10 +7796,10 @@
       </c>
       <c r="O51" s="113"/>
       <c r="P51" s="113"/>
-      <c r="Q51" s="227"/>
+      <c r="Q51" s="226"/>
     </row>
     <row r="52" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="227"/>
+      <c r="A52" s="226"/>
       <c r="B52" s="14"/>
       <c r="C52" s="45"/>
       <c r="D52" s="110">
@@ -7794,7 +7817,7 @@
       <c r="I52" s="113"/>
       <c r="J52" s="113"/>
       <c r="K52" s="113"/>
-      <c r="L52" s="227"/>
+      <c r="L52" s="226"/>
       <c r="M52" s="110">
         <v>5</v>
       </c>
@@ -7803,10 +7826,10 @@
       </c>
       <c r="O52" s="113"/>
       <c r="P52" s="113"/>
-      <c r="Q52" s="227"/>
+      <c r="Q52" s="226"/>
     </row>
     <row r="53" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="227"/>
+      <c r="A53" s="226"/>
       <c r="B53" s="14"/>
       <c r="C53" s="45"/>
       <c r="D53" s="110">
@@ -7822,7 +7845,7 @@
       <c r="I53" s="113"/>
       <c r="J53" s="113"/>
       <c r="K53" s="113"/>
-      <c r="L53" s="227"/>
+      <c r="L53" s="226"/>
       <c r="M53" s="110">
         <v>6</v>
       </c>
@@ -7831,10 +7854,10 @@
       </c>
       <c r="O53" s="113"/>
       <c r="P53" s="113"/>
-      <c r="Q53" s="227"/>
+      <c r="Q53" s="226"/>
     </row>
     <row r="54" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="227"/>
+      <c r="A54" s="226"/>
       <c r="B54" s="14"/>
       <c r="C54" s="45"/>
       <c r="D54" s="110">
@@ -7852,7 +7875,7 @@
       <c r="I54" s="113"/>
       <c r="J54" s="113"/>
       <c r="K54" s="113"/>
-      <c r="L54" s="227"/>
+      <c r="L54" s="226"/>
       <c r="M54" s="110">
         <v>7</v>
       </c>
@@ -7861,10 +7884,10 @@
       </c>
       <c r="O54" s="113"/>
       <c r="P54" s="113"/>
-      <c r="Q54" s="227"/>
+      <c r="Q54" s="226"/>
     </row>
     <row r="55" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="227"/>
+      <c r="A55" s="226"/>
       <c r="B55" s="14"/>
       <c r="C55" s="45"/>
       <c r="D55" s="110">
@@ -7882,7 +7905,7 @@
       <c r="I55" s="113"/>
       <c r="J55" s="113"/>
       <c r="K55" s="113"/>
-      <c r="L55" s="227"/>
+      <c r="L55" s="226"/>
       <c r="M55" s="110">
         <v>8</v>
       </c>
@@ -7891,26 +7914,26 @@
       </c>
       <c r="O55" s="113"/>
       <c r="P55" s="113"/>
-      <c r="Q55" s="227"/>
+      <c r="Q55" s="226"/>
     </row>
     <row r="56" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="227"/>
+      <c r="A56" s="226"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="238"/>
-      <c r="E56" s="227"/>
-      <c r="F56" s="227"/>
-      <c r="G56" s="227"/>
-      <c r="H56" s="227"/>
-      <c r="I56" s="227"/>
-      <c r="J56" s="227"/>
-      <c r="K56" s="227"/>
-      <c r="L56" s="227"/>
-      <c r="M56" s="227"/>
-      <c r="N56" s="227"/>
-      <c r="O56" s="227"/>
-      <c r="P56" s="227"/>
-      <c r="Q56" s="227"/>
+      <c r="D56" s="237"/>
+      <c r="E56" s="226"/>
+      <c r="F56" s="226"/>
+      <c r="G56" s="226"/>
+      <c r="H56" s="226"/>
+      <c r="I56" s="226"/>
+      <c r="J56" s="226"/>
+      <c r="K56" s="226"/>
+      <c r="L56" s="226"/>
+      <c r="M56" s="226"/>
+      <c r="N56" s="226"/>
+      <c r="O56" s="226"/>
+      <c r="P56" s="226"/>
+      <c r="Q56" s="226"/>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -8197,90 +8220,90 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="244" t="s">
+      <c r="A26" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="227"/>
-      <c r="C26" s="227"/>
+      <c r="B26" s="226"/>
+      <c r="C26" s="226"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="243"/>
-      <c r="B27" s="227"/>
+      <c r="A27" s="242"/>
+      <c r="B27" s="226"/>
       <c r="C27" s="50"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="243"/>
-      <c r="B28" s="227"/>
+      <c r="A28" s="242"/>
+      <c r="B28" s="226"/>
       <c r="C28" s="51"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="243"/>
-      <c r="B29" s="227"/>
+      <c r="A29" s="242"/>
+      <c r="B29" s="226"/>
       <c r="C29" s="121"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="243"/>
-      <c r="B30" s="227"/>
+      <c r="A30" s="242"/>
+      <c r="B30" s="226"/>
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="243"/>
-      <c r="B31" s="227"/>
+      <c r="A31" s="242"/>
+      <c r="B31" s="226"/>
       <c r="C31" s="53"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="241"/>
-      <c r="B32" s="227"/>
+      <c r="A32" s="240"/>
+      <c r="B32" s="226"/>
       <c r="C32" s="121"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="240"/>
-      <c r="B33" s="227"/>
+      <c r="A33" s="239"/>
+      <c r="B33" s="226"/>
       <c r="C33" s="53"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="240"/>
-      <c r="B34" s="227"/>
+      <c r="A34" s="239"/>
+      <c r="B34" s="226"/>
       <c r="C34" s="53"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="240"/>
-      <c r="B35" s="227"/>
+      <c r="A35" s="239"/>
+      <c r="B35" s="226"/>
       <c r="C35" s="53"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="240"/>
-      <c r="B36" s="227"/>
+      <c r="A36" s="239"/>
+      <c r="B36" s="226"/>
       <c r="C36" s="53"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="240"/>
-      <c r="B37" s="227"/>
+      <c r="A37" s="239"/>
+      <c r="B37" s="226"/>
       <c r="C37" s="53"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="240"/>
-      <c r="B38" s="227"/>
+      <c r="A38" s="239"/>
+      <c r="B38" s="226"/>
       <c r="C38" s="53"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="240"/>
-      <c r="B39" s="227"/>
+      <c r="A39" s="239"/>
+      <c r="B39" s="226"/>
       <c r="C39" s="53"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="240"/>
-      <c r="B40" s="227"/>
+      <c r="A40" s="239"/>
+      <c r="B40" s="226"/>
       <c r="C40" s="53"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="240"/>
-      <c r="B41" s="227"/>
+      <c r="A41" s="239"/>
+      <c r="B41" s="226"/>
       <c r="C41" s="53"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="240"/>
-      <c r="B42" s="227"/>
+      <c r="A42" s="239"/>
+      <c r="B42" s="226"/>
       <c r="C42" s="53"/>
     </row>
   </sheetData>
@@ -8487,17 +8510,17 @@
       <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="277" t="s">
+      <c r="A3" s="276" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="227"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="227"/>
-      <c r="H3" s="227"/>
-      <c r="I3" s="227"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="226"/>
+      <c r="G3" s="226"/>
+      <c r="H3" s="226"/>
+      <c r="I3" s="226"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -8525,20 +8548,20 @@
       <c r="P4" s="19"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="234" t="s">
+      <c r="A5" s="233" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="227"/>
-      <c r="C5" s="227"/>
-      <c r="D5" s="227"/>
-      <c r="E5" s="227"/>
-      <c r="F5" s="227"/>
-      <c r="G5" s="227"/>
-      <c r="H5" s="227"/>
-      <c r="I5" s="227"/>
-      <c r="J5" s="227"/>
-      <c r="K5" s="227"/>
-      <c r="L5" s="227"/>
+      <c r="B5" s="226"/>
+      <c r="C5" s="226"/>
+      <c r="D5" s="226"/>
+      <c r="E5" s="226"/>
+      <c r="F5" s="226"/>
+      <c r="G5" s="226"/>
+      <c r="H5" s="226"/>
+      <c r="I5" s="226"/>
+      <c r="J5" s="226"/>
+      <c r="K5" s="226"/>
+      <c r="L5" s="226"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -8557,10 +8580,10 @@
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
-      <c r="K6" s="276" t="s">
+      <c r="K6" s="275" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="227"/>
+      <c r="L6" s="226"/>
       <c r="M6" s="23"/>
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
@@ -8927,20 +8950,20 @@
       <c r="P13" s="10"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="234" t="s">
+      <c r="A15" s="233" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="227"/>
-      <c r="C15" s="227"/>
-      <c r="D15" s="227"/>
-      <c r="E15" s="227"/>
-      <c r="F15" s="227"/>
-      <c r="G15" s="227"/>
-      <c r="H15" s="227"/>
-      <c r="I15" s="227"/>
-      <c r="J15" s="227"/>
-      <c r="K15" s="227"/>
-      <c r="L15" s="227"/>
+      <c r="B15" s="226"/>
+      <c r="C15" s="226"/>
+      <c r="D15" s="226"/>
+      <c r="E15" s="226"/>
+      <c r="F15" s="226"/>
+      <c r="G15" s="226"/>
+      <c r="H15" s="226"/>
+      <c r="I15" s="226"/>
+      <c r="J15" s="226"/>
+      <c r="K15" s="226"/>
+      <c r="L15" s="226"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
@@ -8971,10 +8994,10 @@
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="K16" s="276" t="s">
+      <c r="K16" s="275" t="s">
         <v>120</v>
       </c>
-      <c r="L16" s="227"/>
+      <c r="L16" s="226"/>
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
@@ -8988,10 +9011,10 @@
       <c r="W16" s="43"/>
       <c r="X16" s="43"/>
       <c r="Y16" s="43"/>
-      <c r="Z16" s="278"/>
-      <c r="AA16" s="227"/>
-      <c r="AB16" s="278"/>
-      <c r="AC16" s="227"/>
+      <c r="Z16" s="277"/>
+      <c r="AA16" s="226"/>
+      <c r="AB16" s="277"/>
+      <c r="AC16" s="226"/>
       <c r="AD16" s="57"/>
     </row>
     <row r="17" spans="1:28" ht="15" x14ac:dyDescent="0.25">
@@ -9819,18 +9842,18 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="234" t="s">
+      <c r="B1" s="233" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
       <c r="L1" s="12"/>
       <c r="M1" s="117"/>
       <c r="N1" s="117"/>
@@ -10229,11 +10252,11 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="244" t="s">
+      <c r="A9" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="227"/>
-      <c r="C9" s="227"/>
+      <c r="B9" s="226"/>
+      <c r="C9" s="226"/>
       <c r="M9" s="140" t="s">
         <v>293</v>
       </c>
@@ -10243,10 +10266,10 @@
       <c r="O9" s="140"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="243" t="s">
+      <c r="A10" s="242" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="227"/>
+      <c r="B10" s="226"/>
       <c r="C10" s="50">
         <f>C4*14/5100</f>
         <v>1.6016000000000001</v>
@@ -10258,20 +10281,20 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="243" t="s">
+      <c r="A11" s="242" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="227"/>
+      <c r="B11" s="226"/>
       <c r="C11" s="51">
         <v>1</v>
       </c>
       <c r="D11" s="51"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="243" t="s">
+      <c r="A12" s="242" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="227"/>
+      <c r="B12" s="226"/>
       <c r="C12" s="121">
         <v>1.55</v>
       </c>
@@ -10283,10 +10306,10 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="243" t="s">
+      <c r="A13" s="242" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="227"/>
+      <c r="B13" s="226"/>
       <c r="C13" s="53">
         <v>0.8</v>
       </c>
@@ -10302,10 +10325,10 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="243" t="s">
+      <c r="A14" s="242" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="227"/>
+      <c r="B14" s="226"/>
       <c r="C14" s="53">
         <v>10</v>
       </c>
@@ -10320,10 +10343,10 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="241" t="s">
+      <c r="A15" s="240" t="s">
         <v>311</v>
       </c>
-      <c r="B15" s="227"/>
+      <c r="B15" s="226"/>
       <c r="C15" s="121">
         <v>1.3</v>
       </c>
@@ -10342,10 +10365,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="242" t="s">
+      <c r="A16" s="241" t="s">
         <v>312</v>
       </c>
-      <c r="B16" s="227"/>
+      <c r="B16" s="226"/>
       <c r="C16" s="138">
         <v>1.1000000000000001</v>
       </c>
@@ -10361,10 +10384,10 @@
       <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="242" t="s">
+      <c r="A17" s="241" t="s">
         <v>310</v>
       </c>
-      <c r="B17" s="227"/>
+      <c r="B17" s="226"/>
       <c r="C17" s="138">
         <v>1</v>
       </c>
@@ -10380,8 +10403,8 @@
       <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="240"/>
-      <c r="B18" s="227"/>
+      <c r="A18" s="239"/>
+      <c r="B18" s="226"/>
       <c r="C18" s="53"/>
       <c r="D18" s="53"/>
       <c r="E18" s="10">
@@ -10395,8 +10418,8 @@
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="240"/>
-      <c r="B19" s="227"/>
+      <c r="A19" s="239"/>
+      <c r="B19" s="226"/>
       <c r="C19" s="53"/>
       <c r="D19" s="53"/>
     </row>
@@ -10526,13 +10549,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="D1" s="245" t="s">
+      <c r="D1" s="244" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
-      <c r="G1" s="245"/>
-      <c r="H1" s="245"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
+      <c r="H1" s="244"/>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="D2" s="130" t="s">
@@ -10856,92 +10879,92 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="244" t="s">
+      <c r="A26" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="227"/>
-      <c r="C26" s="227"/>
+      <c r="B26" s="226"/>
+      <c r="C26" s="226"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="241" t="s">
+      <c r="A27" s="240" t="s">
         <v>302</v>
       </c>
-      <c r="B27" s="227"/>
+      <c r="B27" s="226"/>
       <c r="C27" s="129">
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="241"/>
-      <c r="B28" s="227"/>
+      <c r="A28" s="240"/>
+      <c r="B28" s="226"/>
       <c r="C28" s="139"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="241" t="s">
+      <c r="A29" s="240" t="s">
         <v>303</v>
       </c>
-      <c r="B29" s="227"/>
+      <c r="B29" s="226"/>
       <c r="C29" s="121">
         <v>0.79</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="241" t="s">
+      <c r="A30" s="240" t="s">
         <v>299</v>
       </c>
-      <c r="B30" s="241"/>
+      <c r="B30" s="240"/>
       <c r="C30" s="138">
         <f>C29*C$34</f>
         <v>1.1850000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="241" t="s">
+      <c r="A31" s="240" t="s">
         <v>298</v>
       </c>
-      <c r="B31" s="241"/>
+      <c r="B31" s="240"/>
       <c r="C31" s="138">
         <f t="shared" ref="C31:C33" si="5">C30*C$34</f>
         <v>1.7775000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="241" t="s">
+      <c r="A32" s="240" t="s">
         <v>300</v>
       </c>
-      <c r="B32" s="241"/>
+      <c r="B32" s="240"/>
       <c r="C32" s="138">
         <f t="shared" si="5"/>
         <v>2.6662500000000002</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="242" t="s">
+      <c r="A33" s="241" t="s">
         <v>301</v>
       </c>
-      <c r="B33" s="240"/>
+      <c r="B33" s="239"/>
       <c r="C33" s="138">
         <f t="shared" si="5"/>
         <v>3.9993750000000006</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="242" t="s">
+      <c r="A34" s="241" t="s">
         <v>304</v>
       </c>
-      <c r="B34" s="227"/>
+      <c r="B34" s="226"/>
       <c r="C34" s="53">
         <v>1.5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="240"/>
-      <c r="B35" s="227"/>
+      <c r="A35" s="239"/>
+      <c r="B35" s="226"/>
       <c r="C35" s="53"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="240"/>
-      <c r="B36" s="227"/>
+      <c r="A36" s="239"/>
+      <c r="B36" s="226"/>
       <c r="C36" s="53"/>
     </row>
   </sheetData>
@@ -10967,8 +10990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BY49"/>
   <sheetViews>
-    <sheetView topLeftCell="AQ3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BO43" sqref="BO43"/>
+    <sheetView tabSelected="1" topLeftCell="AZ4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BE29" sqref="BE29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11001,22 +11024,22 @@
       <c r="A3" s="144" t="s">
         <v>333</v>
       </c>
-      <c r="D3" s="247" t="s">
+      <c r="D3" s="245" t="s">
         <v>419</v>
       </c>
-      <c r="E3" s="248"/>
-      <c r="F3" s="249"/>
-      <c r="G3" s="220"/>
-      <c r="U3" s="247" t="s">
+      <c r="E3" s="246"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="219"/>
+      <c r="U3" s="245" t="s">
         <v>443</v>
       </c>
-      <c r="V3" s="251"/>
-      <c r="W3" s="252"/>
-      <c r="AL3" s="247" t="s">
+      <c r="V3" s="248"/>
+      <c r="W3" s="249"/>
+      <c r="AL3" s="245" t="s">
         <v>420</v>
       </c>
-      <c r="AM3" s="251"/>
-      <c r="AN3" s="252"/>
+      <c r="AM3" s="248"/>
+      <c r="AN3" s="249"/>
     </row>
     <row r="6" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A6" s="147" t="s">
@@ -11115,10 +11138,10 @@
       <c r="AV6" s="174" t="s">
         <v>338</v>
       </c>
-      <c r="AY6" s="250" t="s">
+      <c r="AY6" s="253" t="s">
         <v>345</v>
       </c>
-      <c r="AZ6" s="250"/>
+      <c r="AZ6" s="253"/>
       <c r="BA6" s="166"/>
       <c r="BB6" s="166"/>
       <c r="BC6" s="166"/>
@@ -11224,8 +11247,8 @@
       <c r="AV7" s="175" t="s">
         <v>339</v>
       </c>
-      <c r="AY7" s="250"/>
-      <c r="AZ7" s="250"/>
+      <c r="AY7" s="253"/>
+      <c r="AZ7" s="253"/>
       <c r="BA7" s="166"/>
       <c r="BB7" s="166"/>
       <c r="BC7" s="166"/>
@@ -11303,7 +11326,7 @@
       <c r="AV8" s="152"/>
       <c r="AY8" s="164"/>
       <c r="BO8" s="119" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:77" x14ac:dyDescent="0.2">
@@ -11357,15 +11380,16 @@
       <c r="BP9" s="165"/>
       <c r="BQ9" s="165"/>
       <c r="BR9" s="165"/>
-      <c r="BT9" s="253" t="s">
+      <c r="BT9" s="250" t="s">
         <v>358</v>
       </c>
-      <c r="BU9" s="253"/>
-      <c r="BV9" s="253"/>
-      <c r="BW9" s="254" t="s">
+      <c r="BU9" s="250"/>
+      <c r="BV9" s="250"/>
+      <c r="BW9" s="281" t="s">
         <v>362</v>
       </c>
-      <c r="BX9" s="254"/>
+      <c r="BX9" s="279"/>
+      <c r="BY9" s="163"/>
     </row>
     <row r="10" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A10" s="149"/>
@@ -11455,8 +11479,9 @@
       <c r="BV10" s="168" t="s">
         <v>360</v>
       </c>
-      <c r="BW10" s="214"/>
-      <c r="BX10" s="214"/>
+      <c r="BW10" s="282"/>
+      <c r="BX10" s="280"/>
+      <c r="BY10" s="163"/>
     </row>
     <row r="11" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A11" s="149"/>
@@ -11542,8 +11567,9 @@
       <c r="BV11" s="154">
         <v>250</v>
       </c>
-      <c r="BW11" s="214"/>
-      <c r="BX11" s="214"/>
+      <c r="BW11" s="154"/>
+      <c r="BX11" s="154"/>
+      <c r="BY11" s="154"/>
     </row>
     <row r="12" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A12" s="149"/>
@@ -11594,20 +11620,31 @@
       </c>
       <c r="BB12" s="153"/>
       <c r="BC12" s="148" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="BD12" s="149"/>
       <c r="BE12" s="152">
         <v>1</v>
       </c>
       <c r="BF12" s="153"/>
-      <c r="BG12" s="152"/>
-      <c r="BH12" s="152"/>
+      <c r="BG12" s="152">
+        <f>BV12*BW12*BM12</f>
+        <v>90</v>
+      </c>
+      <c r="BH12" s="152">
+        <f>BG12*BE12</f>
+        <v>90</v>
+      </c>
       <c r="BI12" s="153"/>
       <c r="BJ12" s="152"/>
-      <c r="BK12" s="152"/>
+      <c r="BK12" s="152">
+        <f>BH12</f>
+        <v>90</v>
+      </c>
       <c r="BL12" s="153"/>
-      <c r="BM12" s="152"/>
+      <c r="BM12" s="152">
+        <v>0.5</v>
+      </c>
       <c r="BN12" s="152"/>
       <c r="BP12" s="162"/>
       <c r="BQ12" s="156"/>
@@ -11619,12 +11656,13 @@
       <c r="BV12" s="154">
         <v>90</v>
       </c>
-      <c r="BW12" s="214">
+      <c r="BW12" s="154">
         <v>2</v>
       </c>
-      <c r="BX12" s="119" t="s">
+      <c r="BX12" s="278" t="s">
         <v>363</v>
       </c>
+      <c r="BY12" s="154"/>
     </row>
     <row r="13" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A13" s="149"/>
@@ -11694,12 +11732,13 @@
       <c r="BV13" s="154">
         <v>150</v>
       </c>
-      <c r="BW13" s="219">
+      <c r="BW13" s="154">
         <v>1.5</v>
       </c>
-      <c r="BX13" s="119" t="s">
+      <c r="BX13" s="278" t="s">
         <v>405</v>
       </c>
+      <c r="BY13" s="154"/>
     </row>
     <row r="14" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A14" s="148" t="s">
@@ -11764,11 +11803,20 @@
       <c r="BP14" s="162"/>
       <c r="BQ14" s="156"/>
       <c r="BR14" s="156"/>
-      <c r="BT14" s="160"/>
+      <c r="BT14" s="160" t="s">
+        <v>464</v>
+      </c>
       <c r="BU14" s="160"/>
-      <c r="BV14" s="154"/>
-      <c r="BW14" s="214"/>
-      <c r="BX14" s="214"/>
+      <c r="BV14" s="154">
+        <v>180</v>
+      </c>
+      <c r="BW14" s="154">
+        <v>0.5</v>
+      </c>
+      <c r="BX14" s="154" t="s">
+        <v>465</v>
+      </c>
+      <c r="BY14" s="154"/>
     </row>
     <row r="15" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A15" s="149"/>
@@ -11819,20 +11867,31 @@
       </c>
       <c r="BB15" s="153"/>
       <c r="BC15" s="148" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="BD15" s="149"/>
       <c r="BE15" s="152">
         <v>1</v>
       </c>
       <c r="BF15" s="153"/>
-      <c r="BG15" s="152"/>
-      <c r="BH15" s="152"/>
+      <c r="BG15" s="152">
+        <f>BV12*BW12*BM15</f>
+        <v>90</v>
+      </c>
+      <c r="BH15" s="152">
+        <f>BG15*BE15</f>
+        <v>90</v>
+      </c>
       <c r="BI15" s="153"/>
       <c r="BJ15" s="152"/>
-      <c r="BK15" s="152"/>
+      <c r="BK15" s="152">
+        <f>BH15</f>
+        <v>90</v>
+      </c>
       <c r="BL15" s="153"/>
-      <c r="BM15" s="152"/>
+      <c r="BM15" s="152">
+        <v>0.5</v>
+      </c>
       <c r="BN15" s="152"/>
       <c r="BP15" s="162"/>
       <c r="BQ15" s="156"/>
@@ -11840,8 +11899,9 @@
       <c r="BT15" s="160"/>
       <c r="BU15" s="160"/>
       <c r="BV15" s="154"/>
-      <c r="BW15" s="214"/>
-      <c r="BX15" s="214"/>
+      <c r="BW15" s="154"/>
+      <c r="BX15" s="154"/>
+      <c r="BY15" s="154"/>
     </row>
     <row r="16" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A16" s="149"/>
@@ -11907,10 +11967,11 @@
       <c r="BT16" s="160"/>
       <c r="BU16" s="160"/>
       <c r="BV16" s="154"/>
-      <c r="BW16" s="214"/>
-      <c r="BX16" s="214"/>
-    </row>
-    <row r="17" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="BW16" s="154"/>
+      <c r="BX16" s="154"/>
+      <c r="BY16" s="154"/>
+    </row>
+    <row r="17" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A17" s="149"/>
       <c r="B17" s="153"/>
       <c r="C17" s="149"/>
@@ -11974,10 +12035,11 @@
       <c r="BT17" s="160"/>
       <c r="BU17" s="160"/>
       <c r="BV17" s="154"/>
-      <c r="BW17" s="214"/>
-      <c r="BX17" s="214"/>
-    </row>
-    <row r="18" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="BW17" s="154"/>
+      <c r="BX17" s="154"/>
+      <c r="BY17" s="154"/>
+    </row>
+    <row r="18" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A18" s="149"/>
       <c r="B18" s="153"/>
       <c r="C18" s="149"/>
@@ -12026,31 +12088,46 @@
       </c>
       <c r="BB18" s="153"/>
       <c r="BC18" s="148" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="BD18" s="149"/>
       <c r="BE18" s="152">
         <v>1</v>
       </c>
       <c r="BF18" s="153"/>
-      <c r="BG18" s="152"/>
-      <c r="BH18" s="152"/>
+      <c r="BG18" s="152">
+        <f>BV14*BW14*BM18</f>
+        <v>315</v>
+      </c>
+      <c r="BH18" s="152">
+        <f>BG18*BE18</f>
+        <v>315</v>
+      </c>
       <c r="BI18" s="153"/>
       <c r="BJ18" s="152"/>
-      <c r="BK18" s="152"/>
+      <c r="BK18" s="152">
+        <f>BH18+BK12</f>
+        <v>405</v>
+      </c>
       <c r="BL18" s="153"/>
-      <c r="BM18" s="152"/>
-      <c r="BN18" s="152"/>
+      <c r="BM18" s="152">
+        <v>3.5</v>
+      </c>
+      <c r="BN18" s="152">
+        <f>BM18*BW14</f>
+        <v>1.75</v>
+      </c>
       <c r="BP18" s="162"/>
       <c r="BQ18" s="156"/>
       <c r="BR18" s="156"/>
       <c r="BT18" s="159"/>
       <c r="BU18" s="160"/>
       <c r="BV18" s="154"/>
-      <c r="BW18" s="214"/>
-      <c r="BX18" s="214"/>
-    </row>
-    <row r="19" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="BW18" s="154"/>
+      <c r="BX18" s="154"/>
+      <c r="BY18" s="154"/>
+    </row>
+    <row r="19" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A19" s="149"/>
       <c r="B19" s="153"/>
       <c r="C19" s="149"/>
@@ -12114,10 +12191,11 @@
       <c r="BT19" s="160"/>
       <c r="BU19" s="160"/>
       <c r="BV19" s="154"/>
-      <c r="BW19" s="214"/>
-      <c r="BX19" s="214"/>
-    </row>
-    <row r="20" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="BW19" s="154"/>
+      <c r="BX19" s="154"/>
+      <c r="BY19" s="154"/>
+    </row>
+    <row r="20" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A20" s="149"/>
       <c r="B20" s="153"/>
       <c r="C20" s="149"/>
@@ -12178,10 +12256,11 @@
       <c r="BT20" s="160"/>
       <c r="BU20" s="160"/>
       <c r="BV20" s="154"/>
-      <c r="BW20" s="214"/>
-      <c r="BX20" s="214"/>
-    </row>
-    <row r="21" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="BW20" s="154"/>
+      <c r="BX20" s="154"/>
+      <c r="BY20" s="154"/>
+    </row>
+    <row r="21" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A21" s="149"/>
       <c r="B21" s="153"/>
       <c r="C21" s="149"/>
@@ -12230,28 +12309,43 @@
       </c>
       <c r="BB21" s="153"/>
       <c r="BC21" s="148" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="BD21" s="149"/>
       <c r="BE21" s="152">
         <v>1</v>
       </c>
       <c r="BF21" s="153"/>
-      <c r="BG21" s="152"/>
-      <c r="BH21" s="152"/>
+      <c r="BG21" s="152">
+        <f>BV14*BW14*BM21</f>
+        <v>315</v>
+      </c>
+      <c r="BH21" s="152">
+        <f>BG21*BE21</f>
+        <v>315</v>
+      </c>
       <c r="BI21" s="153"/>
       <c r="BJ21" s="152"/>
-      <c r="BK21" s="152"/>
+      <c r="BK21" s="152">
+        <f>BH21+BK15</f>
+        <v>405</v>
+      </c>
       <c r="BL21" s="153"/>
-      <c r="BM21" s="152"/>
-      <c r="BN21" s="152"/>
+      <c r="BM21" s="152">
+        <v>3.5</v>
+      </c>
+      <c r="BN21" s="152">
+        <f>BM21*BW14</f>
+        <v>1.75</v>
+      </c>
       <c r="BT21" s="160"/>
       <c r="BU21" s="160"/>
       <c r="BV21" s="154"/>
-      <c r="BW21" s="214"/>
-      <c r="BX21" s="214"/>
-    </row>
-    <row r="22" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="BW21" s="154"/>
+      <c r="BX21" s="154"/>
+      <c r="BY21" s="154"/>
+    </row>
+    <row r="22" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A22" s="149"/>
       <c r="B22" s="153"/>
       <c r="C22" s="149"/>
@@ -12315,7 +12409,7 @@
       <c r="BW22" s="214"/>
       <c r="BX22" s="214"/>
     </row>
-    <row r="23" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A23" s="149"/>
       <c r="B23" s="153"/>
       <c r="C23" s="149"/>
@@ -12373,15 +12467,13 @@
       <c r="BL23" s="153"/>
       <c r="BM23" s="152"/>
       <c r="BN23" s="152"/>
-      <c r="BT23" s="185" t="s">
-        <v>396</v>
-      </c>
+      <c r="BT23" s="185"/>
       <c r="BU23" s="214"/>
       <c r="BV23" s="214"/>
       <c r="BW23" s="214"/>
       <c r="BX23" s="214"/>
     </row>
-    <row r="24" spans="1:76" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:77" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="149"/>
       <c r="B24" s="153"/>
       <c r="C24" s="149"/>
@@ -12425,27 +12517,47 @@
       <c r="AU24" s="152"/>
       <c r="AV24" s="152"/>
       <c r="AY24" s="164"/>
-      <c r="BA24" s="149"/>
+      <c r="BA24" s="149" t="s">
+        <v>458</v>
+      </c>
       <c r="BB24" s="153"/>
-      <c r="BC24" s="149"/>
+      <c r="BC24" s="149" t="s">
+        <v>447</v>
+      </c>
       <c r="BD24" s="149"/>
-      <c r="BE24" s="152"/>
+      <c r="BE24" s="152">
+        <v>0.5</v>
+      </c>
       <c r="BF24" s="153"/>
-      <c r="BG24" s="152"/>
-      <c r="BH24" s="152"/>
+      <c r="BG24" s="152">
+        <f>BV13*BW13*BM24</f>
+        <v>112.5</v>
+      </c>
+      <c r="BH24" s="152">
+        <f>BG24*BE24</f>
+        <v>56.25</v>
+      </c>
       <c r="BI24" s="153"/>
       <c r="BJ24" s="152"/>
-      <c r="BK24" s="152"/>
+      <c r="BK24" s="152">
+        <f>BH24+BK21</f>
+        <v>461.25</v>
+      </c>
       <c r="BL24" s="153"/>
-      <c r="BM24" s="152"/>
-      <c r="BN24" s="152"/>
+      <c r="BM24" s="152">
+        <v>0.5</v>
+      </c>
+      <c r="BN24" s="152">
+        <f>BN21*BE24+BM24</f>
+        <v>1.375</v>
+      </c>
       <c r="BT24" s="214"/>
       <c r="BU24" s="214"/>
       <c r="BV24" s="214"/>
       <c r="BW24" s="214"/>
       <c r="BX24" s="214"/>
     </row>
-    <row r="25" spans="1:76" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:77" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="149"/>
       <c r="B25" s="153"/>
       <c r="C25" s="149"/>
@@ -12503,23 +12615,19 @@
       <c r="BL25" s="153"/>
       <c r="BM25" s="152"/>
       <c r="BN25" s="152"/>
-      <c r="BP25" s="247" t="s">
-        <v>459</v>
-      </c>
-      <c r="BQ25" s="248"/>
-      <c r="BR25" s="248"/>
-      <c r="BS25" s="249"/>
-      <c r="BT25" s="119" t="s">
-        <v>397</v>
-      </c>
+      <c r="BP25" s="245" t="s">
+        <v>463</v>
+      </c>
+      <c r="BQ25" s="246"/>
+      <c r="BR25" s="246"/>
+      <c r="BS25" s="247"/>
+      <c r="BT25" s="119"/>
       <c r="BU25" s="214"/>
-      <c r="BV25" s="119" t="s">
-        <v>398</v>
-      </c>
+      <c r="BV25" s="119"/>
       <c r="BW25" s="214"/>
       <c r="BX25" s="214"/>
     </row>
-    <row r="26" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A26" s="149"/>
       <c r="B26" s="153"/>
       <c r="C26" s="149"/>
@@ -12578,7 +12686,7 @@
       <c r="BM26" s="152"/>
       <c r="BN26" s="152"/>
     </row>
-    <row r="27" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A27" s="149"/>
       <c r="B27" s="153"/>
       <c r="C27" s="149"/>
@@ -12622,11 +12730,17 @@
       <c r="AU27" s="152"/>
       <c r="AV27" s="152"/>
       <c r="AY27" s="164"/>
-      <c r="BA27" s="149"/>
+      <c r="BA27" s="149" t="s">
+        <v>454</v>
+      </c>
       <c r="BB27" s="153"/>
-      <c r="BC27" s="149"/>
+      <c r="BC27" s="149" t="s">
+        <v>455</v>
+      </c>
       <c r="BD27" s="149"/>
-      <c r="BE27" s="152"/>
+      <c r="BE27" s="152">
+        <v>1</v>
+      </c>
       <c r="BF27" s="153"/>
       <c r="BG27" s="152"/>
       <c r="BH27" s="152"/>
@@ -12637,7 +12751,7 @@
       <c r="BM27" s="152"/>
       <c r="BN27" s="152"/>
     </row>
-    <row r="28" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A28" s="149"/>
       <c r="B28" s="153"/>
       <c r="C28" s="149"/>
@@ -12683,9 +12797,13 @@
       <c r="AY28" s="164"/>
       <c r="BA28" s="149"/>
       <c r="BB28" s="153"/>
-      <c r="BC28" s="149"/>
+      <c r="BC28" s="149" t="s">
+        <v>458</v>
+      </c>
       <c r="BD28" s="149"/>
-      <c r="BE28" s="152"/>
+      <c r="BE28" s="152">
+        <v>3</v>
+      </c>
       <c r="BF28" s="153"/>
       <c r="BG28" s="152"/>
       <c r="BH28" s="152"/>
@@ -12695,14 +12813,14 @@
       <c r="BL28" s="153"/>
       <c r="BM28" s="152"/>
       <c r="BN28" s="152"/>
-      <c r="BP28" s="246" t="s">
+      <c r="BP28" s="252" t="s">
         <v>453</v>
       </c>
-      <c r="BQ28" s="246"/>
-      <c r="BR28" s="246"/>
-      <c r="BS28" s="246"/>
-    </row>
-    <row r="29" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="BQ28" s="252"/>
+      <c r="BR28" s="252"/>
+      <c r="BS28" s="252"/>
+    </row>
+    <row r="29" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A29" s="149"/>
       <c r="B29" s="153"/>
       <c r="C29" s="149"/>
@@ -12760,16 +12878,16 @@
       <c r="BL29" s="153"/>
       <c r="BM29" s="152"/>
       <c r="BN29" s="152"/>
-      <c r="BP29" s="221"/>
-      <c r="BQ29" s="221"/>
-      <c r="BR29" s="224" t="s">
+      <c r="BP29" s="220"/>
+      <c r="BQ29" s="220"/>
+      <c r="BR29" s="223" t="s">
         <v>337</v>
       </c>
-      <c r="BS29" s="224" t="s">
+      <c r="BS29" s="223" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="30" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A30" s="149"/>
       <c r="B30" s="153"/>
       <c r="C30" s="149"/>
@@ -12827,14 +12945,14 @@
       <c r="BL30" s="153"/>
       <c r="BM30" s="152"/>
       <c r="BN30" s="152"/>
-      <c r="BP30" s="225" t="s">
+      <c r="BP30" s="224" t="s">
         <v>455</v>
       </c>
-      <c r="BQ30" s="223"/>
-      <c r="BR30" s="222"/>
-      <c r="BS30" s="222"/>
-    </row>
-    <row r="31" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="BQ30" s="222"/>
+      <c r="BR30" s="221"/>
+      <c r="BS30" s="221"/>
+    </row>
+    <row r="31" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A31" s="149"/>
       <c r="B31" s="153"/>
       <c r="C31" s="149"/>
@@ -12892,14 +13010,14 @@
       <c r="BL31" s="153"/>
       <c r="BM31" s="152"/>
       <c r="BN31" s="152"/>
-      <c r="BP31" s="225" t="s">
+      <c r="BP31" s="224" t="s">
         <v>456</v>
       </c>
-      <c r="BQ31" s="223"/>
-      <c r="BR31" s="222"/>
-      <c r="BS31" s="222"/>
-    </row>
-    <row r="32" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="BQ31" s="222"/>
+      <c r="BR31" s="221"/>
+      <c r="BS31" s="221"/>
+    </row>
+    <row r="32" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A32" s="149"/>
       <c r="B32" s="153"/>
       <c r="C32" s="149"/>
@@ -12957,12 +13075,12 @@
       <c r="BL32" s="153"/>
       <c r="BM32" s="152"/>
       <c r="BN32" s="152"/>
-      <c r="BP32" s="225" t="s">
+      <c r="BP32" s="224" t="s">
         <v>457</v>
       </c>
-      <c r="BQ32" s="223"/>
-      <c r="BR32" s="222"/>
-      <c r="BS32" s="222"/>
+      <c r="BQ32" s="222"/>
+      <c r="BR32" s="221"/>
+      <c r="BS32" s="221"/>
     </row>
     <row r="33" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A33" s="149"/>
@@ -13022,14 +13140,14 @@
       <c r="BL33" s="153"/>
       <c r="BM33" s="152"/>
       <c r="BN33" s="152"/>
-      <c r="BP33" s="225" t="s">
+      <c r="BP33" s="224" t="s">
         <v>458</v>
       </c>
-      <c r="BQ33" s="223"/>
-      <c r="BR33" s="222">
+      <c r="BQ33" s="222"/>
+      <c r="BR33" s="221">
         <v>0.5</v>
       </c>
-      <c r="BS33" s="222">
+      <c r="BS33" s="221">
         <f>BV13*BW13*BR33</f>
         <v>112.5</v>
       </c>
@@ -13092,12 +13210,12 @@
       <c r="BL34" s="153"/>
       <c r="BM34" s="152"/>
       <c r="BN34" s="152"/>
-      <c r="BP34" s="225" t="s">
+      <c r="BP34" s="224" t="s">
         <v>454</v>
       </c>
-      <c r="BQ34" s="223"/>
-      <c r="BR34" s="222"/>
-      <c r="BS34" s="222"/>
+      <c r="BQ34" s="222"/>
+      <c r="BR34" s="221"/>
+      <c r="BS34" s="221"/>
     </row>
     <row r="35" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A35" s="149"/>
@@ -13157,10 +13275,10 @@
       <c r="BL35" s="153"/>
       <c r="BM35" s="152"/>
       <c r="BN35" s="152"/>
-      <c r="BP35" s="223"/>
-      <c r="BQ35" s="223"/>
-      <c r="BR35" s="222"/>
-      <c r="BS35" s="222"/>
+      <c r="BP35" s="222"/>
+      <c r="BQ35" s="222"/>
+      <c r="BR35" s="221"/>
+      <c r="BS35" s="221"/>
     </row>
     <row r="36" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A36" s="149"/>
@@ -13220,10 +13338,10 @@
       <c r="BL36" s="153"/>
       <c r="BM36" s="152"/>
       <c r="BN36" s="152"/>
-      <c r="BP36" s="223"/>
-      <c r="BQ36" s="223"/>
-      <c r="BR36" s="222"/>
-      <c r="BS36" s="222"/>
+      <c r="BP36" s="222"/>
+      <c r="BQ36" s="222"/>
+      <c r="BR36" s="221"/>
+      <c r="BS36" s="221"/>
     </row>
     <row r="37" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A37" s="149"/>
@@ -13854,14 +13972,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="BT9:BV9"/>
-    <mergeCell ref="BW9:BX9"/>
     <mergeCell ref="BP28:BS28"/>
     <mergeCell ref="BP25:BS25"/>
     <mergeCell ref="AY6:AZ7"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="U3:W3"/>
     <mergeCell ref="AL3:AN3"/>
+    <mergeCell ref="BT9:BV9"/>
+    <mergeCell ref="BW9:BX9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -13874,7 +13992,7 @@
   <dimension ref="A1:AC64"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6:Z22"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13918,13 +14036,13 @@
       <c r="A3" s="144" t="s">
         <v>333</v>
       </c>
-      <c r="D3" s="255" t="s">
+      <c r="D3" s="254" t="s">
         <v>344</v>
       </c>
-      <c r="E3" s="256"/>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="257"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="256"/>
       <c r="Q3" s="169" t="s">
         <v>345</v>
       </c>
@@ -13999,20 +14117,20 @@
         <v>338</v>
       </c>
       <c r="Q6" s="164"/>
-      <c r="R6" s="258" t="s">
+      <c r="R6" s="257" t="s">
         <v>346</v>
       </c>
-      <c r="S6" s="258"/>
+      <c r="S6" s="257"/>
       <c r="T6" s="165"/>
-      <c r="V6" s="253" t="s">
+      <c r="V6" s="250" t="s">
         <v>358</v>
       </c>
-      <c r="W6" s="253"/>
-      <c r="X6" s="253"/>
-      <c r="Y6" s="254" t="s">
+      <c r="W6" s="250"/>
+      <c r="X6" s="250"/>
+      <c r="Y6" s="251" t="s">
         <v>362</v>
       </c>
-      <c r="Z6" s="254"/>
+      <c r="Z6" s="251"/>
       <c r="AA6" s="150"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
@@ -15789,7 +15907,7 @@
   <dimension ref="A2:AA52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W10" sqref="W10:AA10"/>
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15810,14 +15928,14 @@
       <c r="A3" s="144" t="s">
         <v>333</v>
       </c>
-      <c r="C3" s="259" t="s">
+      <c r="C3" s="258" t="s">
         <v>403</v>
       </c>
-      <c r="D3" s="260"/>
-      <c r="E3" s="260"/>
-      <c r="F3" s="260"/>
-      <c r="G3" s="260"/>
-      <c r="H3" s="261"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="259"/>
+      <c r="G3" s="259"/>
+      <c r="H3" s="260"/>
       <c r="Q3" s="169" t="s">
         <v>345</v>
       </c>
@@ -15881,10 +15999,10 @@
         <v>338</v>
       </c>
       <c r="Q6" s="164"/>
-      <c r="R6" s="258" t="s">
+      <c r="R6" s="257" t="s">
         <v>346</v>
       </c>
-      <c r="S6" s="258"/>
+      <c r="S6" s="257"/>
       <c r="T6" s="165"/>
       <c r="U6" s="151"/>
       <c r="W6" s="187" t="s">
@@ -17325,94 +17443,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="263"/>
-      <c r="B1" s="263"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="227"/>
-      <c r="N1" s="227"/>
-      <c r="O1" s="227"/>
-      <c r="P1" s="227"/>
-      <c r="Q1" s="263"/>
+      <c r="A1" s="262"/>
+      <c r="B1" s="262"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="262"/>
+      <c r="E1" s="262"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="226"/>
+      <c r="N1" s="226"/>
+      <c r="O1" s="226"/>
+      <c r="P1" s="226"/>
+      <c r="Q1" s="262"/>
     </row>
     <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="227"/>
-      <c r="B2" s="262" t="s">
+      <c r="A2" s="226"/>
+      <c r="B2" s="261" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="271" t="s">
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="270" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="227"/>
-      <c r="G2" s="272" t="s">
+      <c r="F2" s="226"/>
+      <c r="G2" s="271" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="227"/>
-      <c r="I2" s="227"/>
-      <c r="J2" s="227"/>
-      <c r="K2" s="227"/>
-      <c r="L2" s="227"/>
-      <c r="M2" s="227"/>
-      <c r="N2" s="227"/>
-      <c r="O2" s="227"/>
-      <c r="P2" s="227"/>
-      <c r="Q2" s="227"/>
+      <c r="H2" s="226"/>
+      <c r="I2" s="226"/>
+      <c r="J2" s="226"/>
+      <c r="K2" s="226"/>
+      <c r="L2" s="226"/>
+      <c r="M2" s="226"/>
+      <c r="N2" s="226"/>
+      <c r="O2" s="226"/>
+      <c r="P2" s="226"/>
+      <c r="Q2" s="226"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="227"/>
-      <c r="B3" s="263"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="263"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="227"/>
-      <c r="H3" s="227"/>
-      <c r="I3" s="227"/>
-      <c r="J3" s="227"/>
-      <c r="K3" s="227"/>
-      <c r="L3" s="227"/>
-      <c r="M3" s="227"/>
-      <c r="N3" s="227"/>
-      <c r="O3" s="227"/>
-      <c r="P3" s="227"/>
-      <c r="Q3" s="227"/>
+      <c r="A3" s="226"/>
+      <c r="B3" s="262"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="262"/>
+      <c r="F3" s="226"/>
+      <c r="G3" s="226"/>
+      <c r="H3" s="226"/>
+      <c r="I3" s="226"/>
+      <c r="J3" s="226"/>
+      <c r="K3" s="226"/>
+      <c r="L3" s="226"/>
+      <c r="M3" s="226"/>
+      <c r="N3" s="226"/>
+      <c r="O3" s="226"/>
+      <c r="P3" s="226"/>
+      <c r="Q3" s="226"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="227"/>
-      <c r="B4" s="264"/>
-      <c r="C4" s="227"/>
-      <c r="D4" s="227"/>
-      <c r="E4" s="270" t="s">
+      <c r="A4" s="226"/>
+      <c r="B4" s="263"/>
+      <c r="C4" s="226"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="269" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="227"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="227"/>
-      <c r="I4" s="227"/>
-      <c r="J4" s="227"/>
-      <c r="K4" s="227"/>
-      <c r="L4" s="227"/>
-      <c r="M4" s="227"/>
-      <c r="N4" s="227"/>
-      <c r="O4" s="227"/>
-      <c r="P4" s="227"/>
-      <c r="Q4" s="227"/>
+      <c r="F4" s="226"/>
+      <c r="G4" s="226"/>
+      <c r="H4" s="226"/>
+      <c r="I4" s="226"/>
+      <c r="J4" s="226"/>
+      <c r="K4" s="226"/>
+      <c r="L4" s="226"/>
+      <c r="M4" s="226"/>
+      <c r="N4" s="226"/>
+      <c r="O4" s="226"/>
+      <c r="P4" s="226"/>
+      <c r="Q4" s="226"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="227"/>
+      <c r="A5" s="226"/>
       <c r="B5" s="11"/>
       <c r="C5" s="34"/>
-      <c r="D5" s="227"/>
+      <c r="D5" s="226"/>
       <c r="E5" s="35" t="s">
         <v>104</v>
       </c>
@@ -17449,13 +17567,13 @@
       <c r="P5" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="Q5" s="227"/>
+      <c r="Q5" s="226"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="227"/>
+      <c r="A6" s="226"/>
       <c r="B6" s="11"/>
       <c r="C6" s="34"/>
-      <c r="D6" s="227"/>
+      <c r="D6" s="226"/>
       <c r="E6" s="47">
         <v>0</v>
       </c>
@@ -17494,55 +17612,55 @@
       <c r="P6" s="47">
         <v>150</v>
       </c>
-      <c r="Q6" s="227"/>
+      <c r="Q6" s="226"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="227"/>
-      <c r="B7" s="265"/>
-      <c r="C7" s="227"/>
-      <c r="D7" s="227"/>
-      <c r="E7" s="263"/>
-      <c r="F7" s="227"/>
-      <c r="G7" s="227"/>
-      <c r="H7" s="227"/>
-      <c r="I7" s="227"/>
-      <c r="J7" s="227"/>
-      <c r="K7" s="227"/>
-      <c r="L7" s="227"/>
-      <c r="M7" s="227"/>
-      <c r="N7" s="227"/>
-      <c r="O7" s="227"/>
-      <c r="P7" s="227"/>
-      <c r="Q7" s="227"/>
+      <c r="A7" s="226"/>
+      <c r="B7" s="264"/>
+      <c r="C7" s="226"/>
+      <c r="D7" s="226"/>
+      <c r="E7" s="262"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="226"/>
+      <c r="H7" s="226"/>
+      <c r="I7" s="226"/>
+      <c r="J7" s="226"/>
+      <c r="K7" s="226"/>
+      <c r="L7" s="226"/>
+      <c r="M7" s="226"/>
+      <c r="N7" s="226"/>
+      <c r="O7" s="226"/>
+      <c r="P7" s="226"/>
+      <c r="Q7" s="226"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="227"/>
-      <c r="B8" s="264" t="s">
+      <c r="A8" s="226"/>
+      <c r="B8" s="263" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="227"/>
-      <c r="D8" s="227"/>
-      <c r="E8" s="266" t="s">
+      <c r="C8" s="226"/>
+      <c r="D8" s="226"/>
+      <c r="E8" s="265" t="s">
         <v>123</v>
       </c>
-      <c r="F8" s="227"/>
-      <c r="G8" s="227"/>
-      <c r="H8" s="227"/>
-      <c r="I8" s="227"/>
-      <c r="J8" s="227"/>
-      <c r="K8" s="227"/>
-      <c r="L8" s="227"/>
-      <c r="M8" s="227"/>
-      <c r="N8" s="227"/>
-      <c r="O8" s="227"/>
-      <c r="P8" s="227"/>
-      <c r="Q8" s="227"/>
+      <c r="F8" s="226"/>
+      <c r="G8" s="226"/>
+      <c r="H8" s="226"/>
+      <c r="I8" s="226"/>
+      <c r="J8" s="226"/>
+      <c r="K8" s="226"/>
+      <c r="L8" s="226"/>
+      <c r="M8" s="226"/>
+      <c r="N8" s="226"/>
+      <c r="O8" s="226"/>
+      <c r="P8" s="226"/>
+      <c r="Q8" s="226"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="227"/>
+      <c r="A9" s="226"/>
       <c r="B9" s="11"/>
       <c r="C9" s="54"/>
-      <c r="D9" s="227"/>
+      <c r="D9" s="226"/>
       <c r="E9" s="55">
         <v>1</v>
       </c>
@@ -17577,13 +17695,13 @@
       <c r="P9" s="59">
         <v>1</v>
       </c>
-      <c r="Q9" s="227"/>
+      <c r="Q9" s="226"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="227"/>
+      <c r="A10" s="226"/>
       <c r="B10" s="11"/>
       <c r="C10" s="54"/>
-      <c r="D10" s="227"/>
+      <c r="D10" s="226"/>
       <c r="E10" s="55">
         <v>2</v>
       </c>
@@ -17618,13 +17736,13 @@
       <c r="P10" s="59">
         <v>1.5</v>
       </c>
-      <c r="Q10" s="227"/>
+      <c r="Q10" s="226"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="227"/>
+      <c r="A11" s="226"/>
       <c r="B11" s="11"/>
       <c r="C11" s="54"/>
-      <c r="D11" s="227"/>
+      <c r="D11" s="226"/>
       <c r="E11" s="55">
         <v>3</v>
       </c>
@@ -17659,17 +17777,17 @@
       <c r="P11" s="59">
         <v>2</v>
       </c>
-      <c r="Q11" s="227"/>
+      <c r="Q11" s="226"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="227"/>
+      <c r="A12" s="226"/>
       <c r="B12" s="11" t="s">
         <v>161</v>
       </c>
       <c r="C12" s="54">
         <v>1</v>
       </c>
-      <c r="D12" s="227"/>
+      <c r="D12" s="226"/>
       <c r="E12" s="11" t="s">
         <v>162</v>
       </c>
@@ -17706,17 +17824,17 @@
       <c r="P12" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="Q12" s="227"/>
+      <c r="Q12" s="226"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="227"/>
+      <c r="A13" s="226"/>
       <c r="B13" s="11" t="s">
         <v>174</v>
       </c>
       <c r="C13" s="54">
         <v>1</v>
       </c>
-      <c r="D13" s="227"/>
+      <c r="D13" s="226"/>
       <c r="E13" s="55">
         <v>1</v>
       </c>
@@ -17764,17 +17882,17 @@
         <f t="shared" ref="P13:P15" si="5">P$6*P9</f>
         <v>150</v>
       </c>
-      <c r="Q13" s="227"/>
+      <c r="Q13" s="226"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="227"/>
+      <c r="A14" s="226"/>
       <c r="B14" s="11" t="s">
         <v>176</v>
       </c>
       <c r="C14" s="54">
         <v>1</v>
       </c>
-      <c r="D14" s="227"/>
+      <c r="D14" s="226"/>
       <c r="E14" s="55">
         <v>2</v>
       </c>
@@ -17819,13 +17937,13 @@
         <f t="shared" si="5"/>
         <v>225</v>
       </c>
-      <c r="Q14" s="227"/>
+      <c r="Q14" s="226"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="227"/>
+      <c r="A15" s="226"/>
       <c r="B15" s="11"/>
       <c r="C15" s="34"/>
-      <c r="D15" s="227"/>
+      <c r="D15" s="226"/>
       <c r="E15" s="55">
         <v>3</v>
       </c>
@@ -17870,55 +17988,55 @@
         <f t="shared" si="5"/>
         <v>300</v>
       </c>
-      <c r="Q15" s="227"/>
+      <c r="Q15" s="226"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="227"/>
-      <c r="B16" s="265"/>
-      <c r="C16" s="227"/>
-      <c r="D16" s="227"/>
-      <c r="E16" s="263"/>
-      <c r="F16" s="227"/>
-      <c r="G16" s="227"/>
-      <c r="H16" s="227"/>
-      <c r="I16" s="227"/>
-      <c r="J16" s="227"/>
-      <c r="K16" s="227"/>
-      <c r="L16" s="227"/>
-      <c r="M16" s="227"/>
+      <c r="A16" s="226"/>
+      <c r="B16" s="264"/>
+      <c r="C16" s="226"/>
+      <c r="D16" s="226"/>
+      <c r="E16" s="262"/>
+      <c r="F16" s="226"/>
+      <c r="G16" s="226"/>
+      <c r="H16" s="226"/>
+      <c r="I16" s="226"/>
+      <c r="J16" s="226"/>
+      <c r="K16" s="226"/>
+      <c r="L16" s="226"/>
+      <c r="M16" s="226"/>
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
-      <c r="Q16" s="227"/>
+      <c r="Q16" s="226"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="227"/>
-      <c r="B17" s="264" t="s">
+      <c r="A17" s="226"/>
+      <c r="B17" s="263" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="227"/>
-      <c r="D17" s="227"/>
-      <c r="E17" s="268" t="s">
+      <c r="C17" s="226"/>
+      <c r="D17" s="226"/>
+      <c r="E17" s="267" t="s">
         <v>183</v>
       </c>
-      <c r="F17" s="227"/>
-      <c r="G17" s="227"/>
-      <c r="H17" s="227"/>
-      <c r="I17" s="227"/>
-      <c r="J17" s="227"/>
-      <c r="K17" s="227"/>
-      <c r="L17" s="227"/>
-      <c r="M17" s="227"/>
-      <c r="N17" s="227"/>
-      <c r="O17" s="227"/>
-      <c r="P17" s="227"/>
-      <c r="Q17" s="227"/>
+      <c r="F17" s="226"/>
+      <c r="G17" s="226"/>
+      <c r="H17" s="226"/>
+      <c r="I17" s="226"/>
+      <c r="J17" s="226"/>
+      <c r="K17" s="226"/>
+      <c r="L17" s="226"/>
+      <c r="M17" s="226"/>
+      <c r="N17" s="226"/>
+      <c r="O17" s="226"/>
+      <c r="P17" s="226"/>
+      <c r="Q17" s="226"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="227"/>
+      <c r="A18" s="226"/>
       <c r="B18" s="11"/>
       <c r="C18" s="34"/>
-      <c r="D18" s="227"/>
+      <c r="D18" s="226"/>
       <c r="E18" s="42">
         <v>1</v>
       </c>
@@ -17947,13 +18065,13 @@
       <c r="P18" s="78">
         <v>2</v>
       </c>
-      <c r="Q18" s="227"/>
+      <c r="Q18" s="226"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="227"/>
+      <c r="A19" s="226"/>
       <c r="B19" s="11"/>
       <c r="C19" s="34"/>
-      <c r="D19" s="227"/>
+      <c r="D19" s="226"/>
       <c r="E19" s="42">
         <v>2</v>
       </c>
@@ -17982,13 +18100,13 @@
       <c r="P19" s="78">
         <v>3</v>
       </c>
-      <c r="Q19" s="227"/>
+      <c r="Q19" s="226"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="227"/>
+      <c r="A20" s="226"/>
       <c r="B20" s="11"/>
       <c r="C20" s="34"/>
-      <c r="D20" s="227"/>
+      <c r="D20" s="226"/>
       <c r="E20" s="42">
         <v>3</v>
       </c>
@@ -18017,13 +18135,13 @@
       <c r="P20" s="78">
         <v>4</v>
       </c>
-      <c r="Q20" s="227"/>
+      <c r="Q20" s="226"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="227"/>
+      <c r="A21" s="226"/>
       <c r="B21" s="11"/>
       <c r="C21" s="34"/>
-      <c r="D21" s="227"/>
+      <c r="D21" s="226"/>
       <c r="E21" s="20" t="s">
         <v>205</v>
       </c>
@@ -18058,13 +18176,13 @@
       <c r="P21" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="Q21" s="227"/>
+      <c r="Q21" s="226"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="227"/>
+      <c r="A22" s="226"/>
       <c r="B22" s="11"/>
       <c r="C22" s="34"/>
-      <c r="D22" s="227"/>
+      <c r="D22" s="226"/>
       <c r="E22" s="42">
         <v>1</v>
       </c>
@@ -18109,13 +18227,13 @@
         <f t="shared" ref="P22:P24" si="15">P$6*P18</f>
         <v>300</v>
       </c>
-      <c r="Q22" s="227"/>
+      <c r="Q22" s="226"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="227"/>
+      <c r="A23" s="226"/>
       <c r="B23" s="11"/>
       <c r="C23" s="34"/>
-      <c r="D23" s="227"/>
+      <c r="D23" s="226"/>
       <c r="E23" s="42">
         <v>2</v>
       </c>
@@ -18160,13 +18278,13 @@
         <f t="shared" si="15"/>
         <v>450</v>
       </c>
-      <c r="Q23" s="227"/>
+      <c r="Q23" s="226"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="227"/>
+      <c r="A24" s="226"/>
       <c r="B24" s="11"/>
       <c r="C24" s="34"/>
-      <c r="D24" s="227"/>
+      <c r="D24" s="226"/>
       <c r="E24" s="42">
         <v>3</v>
       </c>
@@ -18211,55 +18329,55 @@
         <f t="shared" si="15"/>
         <v>600</v>
       </c>
-      <c r="Q24" s="227"/>
+      <c r="Q24" s="226"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="227"/>
-      <c r="B25" s="265"/>
-      <c r="C25" s="227"/>
-      <c r="D25" s="227"/>
-      <c r="E25" s="263"/>
-      <c r="F25" s="227"/>
-      <c r="G25" s="227"/>
-      <c r="H25" s="227"/>
-      <c r="I25" s="227"/>
-      <c r="J25" s="227"/>
-      <c r="K25" s="227"/>
-      <c r="L25" s="227"/>
-      <c r="M25" s="227"/>
+      <c r="A25" s="226"/>
+      <c r="B25" s="264"/>
+      <c r="C25" s="226"/>
+      <c r="D25" s="226"/>
+      <c r="E25" s="262"/>
+      <c r="F25" s="226"/>
+      <c r="G25" s="226"/>
+      <c r="H25" s="226"/>
+      <c r="I25" s="226"/>
+      <c r="J25" s="226"/>
+      <c r="K25" s="226"/>
+      <c r="L25" s="226"/>
+      <c r="M25" s="226"/>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
-      <c r="Q25" s="227"/>
+      <c r="Q25" s="226"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="227"/>
-      <c r="B26" s="264" t="s">
+      <c r="A26" s="226"/>
+      <c r="B26" s="263" t="s">
         <v>216</v>
       </c>
-      <c r="C26" s="227"/>
-      <c r="D26" s="227"/>
-      <c r="E26" s="269" t="s">
+      <c r="C26" s="226"/>
+      <c r="D26" s="226"/>
+      <c r="E26" s="268" t="s">
         <v>217</v>
       </c>
-      <c r="F26" s="227"/>
-      <c r="G26" s="227"/>
-      <c r="H26" s="227"/>
-      <c r="I26" s="227"/>
-      <c r="J26" s="227"/>
-      <c r="K26" s="227"/>
-      <c r="L26" s="227"/>
-      <c r="M26" s="227"/>
-      <c r="N26" s="227"/>
-      <c r="O26" s="227"/>
-      <c r="P26" s="227"/>
-      <c r="Q26" s="227"/>
+      <c r="F26" s="226"/>
+      <c r="G26" s="226"/>
+      <c r="H26" s="226"/>
+      <c r="I26" s="226"/>
+      <c r="J26" s="226"/>
+      <c r="K26" s="226"/>
+      <c r="L26" s="226"/>
+      <c r="M26" s="226"/>
+      <c r="N26" s="226"/>
+      <c r="O26" s="226"/>
+      <c r="P26" s="226"/>
+      <c r="Q26" s="226"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="227"/>
+      <c r="A27" s="226"/>
       <c r="B27" s="11"/>
       <c r="C27" s="34"/>
-      <c r="D27" s="227"/>
+      <c r="D27" s="226"/>
       <c r="E27" s="72">
         <v>1</v>
       </c>
@@ -18282,13 +18400,13 @@
       </c>
       <c r="O27" s="92"/>
       <c r="P27" s="91"/>
-      <c r="Q27" s="227"/>
+      <c r="Q27" s="226"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="227"/>
+      <c r="A28" s="226"/>
       <c r="B28" s="11"/>
       <c r="C28" s="34"/>
-      <c r="D28" s="227"/>
+      <c r="D28" s="226"/>
       <c r="E28" s="72">
         <v>2</v>
       </c>
@@ -18311,13 +18429,13 @@
       </c>
       <c r="O28" s="92"/>
       <c r="P28" s="91"/>
-      <c r="Q28" s="227"/>
+      <c r="Q28" s="226"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="227"/>
+      <c r="A29" s="226"/>
       <c r="B29" s="11"/>
       <c r="C29" s="34"/>
-      <c r="D29" s="227"/>
+      <c r="D29" s="226"/>
       <c r="E29" s="72">
         <v>3</v>
       </c>
@@ -18340,13 +18458,13 @@
       </c>
       <c r="O29" s="92"/>
       <c r="P29" s="91"/>
-      <c r="Q29" s="227"/>
+      <c r="Q29" s="226"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="227"/>
+      <c r="A30" s="226"/>
       <c r="B30" s="11"/>
       <c r="C30" s="34"/>
-      <c r="D30" s="227"/>
+      <c r="D30" s="226"/>
       <c r="E30" s="3" t="s">
         <v>227</v>
       </c>
@@ -18381,13 +18499,13 @@
       <c r="P30" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="Q30" s="227"/>
+      <c r="Q30" s="226"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="227"/>
+      <c r="A31" s="226"/>
       <c r="B31" s="11"/>
       <c r="C31" s="34"/>
-      <c r="D31" s="227"/>
+      <c r="D31" s="226"/>
       <c r="E31" s="72">
         <v>1</v>
       </c>
@@ -18432,13 +18550,13 @@
         <f t="shared" ref="P31:P33" si="25">P$6*P27</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="227"/>
+      <c r="Q31" s="226"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="227"/>
+      <c r="A32" s="226"/>
       <c r="B32" s="11"/>
       <c r="C32" s="34"/>
-      <c r="D32" s="227"/>
+      <c r="D32" s="226"/>
       <c r="E32" s="72">
         <v>2</v>
       </c>
@@ -18483,13 +18601,13 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="227"/>
+      <c r="Q32" s="226"/>
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="227"/>
+      <c r="A33" s="226"/>
       <c r="B33" s="11"/>
       <c r="C33" s="34"/>
-      <c r="D33" s="227"/>
+      <c r="D33" s="226"/>
       <c r="E33" s="72">
         <v>3</v>
       </c>
@@ -18534,55 +18652,55 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="227"/>
+      <c r="Q33" s="226"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="227"/>
-      <c r="B34" s="265"/>
-      <c r="C34" s="227"/>
-      <c r="D34" s="227"/>
-      <c r="E34" s="263"/>
-      <c r="F34" s="227"/>
-      <c r="G34" s="227"/>
-      <c r="H34" s="227"/>
-      <c r="I34" s="227"/>
-      <c r="J34" s="227"/>
-      <c r="K34" s="227"/>
-      <c r="L34" s="227"/>
-      <c r="M34" s="227"/>
+      <c r="A34" s="226"/>
+      <c r="B34" s="264"/>
+      <c r="C34" s="226"/>
+      <c r="D34" s="226"/>
+      <c r="E34" s="262"/>
+      <c r="F34" s="226"/>
+      <c r="G34" s="226"/>
+      <c r="H34" s="226"/>
+      <c r="I34" s="226"/>
+      <c r="J34" s="226"/>
+      <c r="K34" s="226"/>
+      <c r="L34" s="226"/>
+      <c r="M34" s="226"/>
       <c r="N34" s="15"/>
       <c r="O34" s="15"/>
       <c r="P34" s="15"/>
-      <c r="Q34" s="227"/>
+      <c r="Q34" s="226"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="227"/>
-      <c r="B35" s="264" t="s">
+      <c r="A35" s="226"/>
+      <c r="B35" s="263" t="s">
         <v>246</v>
       </c>
-      <c r="C35" s="227"/>
-      <c r="D35" s="227"/>
-      <c r="E35" s="267" t="s">
+      <c r="C35" s="226"/>
+      <c r="D35" s="226"/>
+      <c r="E35" s="266" t="s">
         <v>247</v>
       </c>
-      <c r="F35" s="227"/>
-      <c r="G35" s="227"/>
-      <c r="H35" s="227"/>
-      <c r="I35" s="227"/>
-      <c r="J35" s="227"/>
-      <c r="K35" s="227"/>
-      <c r="L35" s="227"/>
-      <c r="M35" s="227"/>
-      <c r="N35" s="227"/>
-      <c r="O35" s="227"/>
-      <c r="P35" s="227"/>
-      <c r="Q35" s="227"/>
+      <c r="F35" s="226"/>
+      <c r="G35" s="226"/>
+      <c r="H35" s="226"/>
+      <c r="I35" s="226"/>
+      <c r="J35" s="226"/>
+      <c r="K35" s="226"/>
+      <c r="L35" s="226"/>
+      <c r="M35" s="226"/>
+      <c r="N35" s="226"/>
+      <c r="O35" s="226"/>
+      <c r="P35" s="226"/>
+      <c r="Q35" s="226"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="227"/>
+      <c r="A36" s="226"/>
       <c r="B36" s="11"/>
       <c r="C36" s="34"/>
-      <c r="D36" s="227"/>
+      <c r="D36" s="226"/>
       <c r="E36" s="102">
         <v>1</v>
       </c>
@@ -18605,13 +18723,13 @@
       </c>
       <c r="O36" s="104"/>
       <c r="P36" s="103"/>
-      <c r="Q36" s="227"/>
+      <c r="Q36" s="226"/>
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="227"/>
+      <c r="A37" s="226"/>
       <c r="B37" s="11"/>
       <c r="C37" s="34"/>
-      <c r="D37" s="227"/>
+      <c r="D37" s="226"/>
       <c r="E37" s="102">
         <v>2</v>
       </c>
@@ -18634,13 +18752,13 @@
       </c>
       <c r="O37" s="104"/>
       <c r="P37" s="103"/>
-      <c r="Q37" s="227"/>
+      <c r="Q37" s="226"/>
     </row>
     <row r="38" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="227"/>
+      <c r="A38" s="226"/>
       <c r="B38" s="11"/>
       <c r="C38" s="34"/>
-      <c r="D38" s="227"/>
+      <c r="D38" s="226"/>
       <c r="E38" s="102">
         <v>3</v>
       </c>
@@ -18663,13 +18781,13 @@
       </c>
       <c r="O38" s="104"/>
       <c r="P38" s="103"/>
-      <c r="Q38" s="227"/>
+      <c r="Q38" s="226"/>
     </row>
     <row r="39" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="227"/>
+      <c r="A39" s="226"/>
       <c r="B39" s="11"/>
       <c r="C39" s="34"/>
-      <c r="D39" s="227"/>
+      <c r="D39" s="226"/>
       <c r="E39" s="105" t="s">
         <v>257</v>
       </c>
@@ -18704,13 +18822,13 @@
       <c r="P39" s="105" t="s">
         <v>270</v>
       </c>
-      <c r="Q39" s="227"/>
+      <c r="Q39" s="226"/>
     </row>
     <row r="40" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="227"/>
+      <c r="A40" s="226"/>
       <c r="B40" s="11"/>
       <c r="C40" s="34"/>
-      <c r="D40" s="227"/>
+      <c r="D40" s="226"/>
       <c r="E40" s="102">
         <v>1</v>
       </c>
@@ -18755,13 +18873,13 @@
         <f t="shared" ref="P40:P42" si="35">P$6*P36</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="227"/>
+      <c r="Q40" s="226"/>
     </row>
     <row r="41" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="227"/>
+      <c r="A41" s="226"/>
       <c r="B41" s="11"/>
       <c r="C41" s="34"/>
-      <c r="D41" s="227"/>
+      <c r="D41" s="226"/>
       <c r="E41" s="102">
         <v>2</v>
       </c>
@@ -18806,13 +18924,13 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="227"/>
+      <c r="Q41" s="226"/>
     </row>
     <row r="42" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="227"/>
+      <c r="A42" s="226"/>
       <c r="B42" s="11"/>
       <c r="C42" s="34"/>
-      <c r="D42" s="227"/>
+      <c r="D42" s="226"/>
       <c r="E42" s="102">
         <v>3</v>
       </c>
@@ -18857,13 +18975,13 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="227"/>
+      <c r="Q42" s="226"/>
     </row>
     <row r="43" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="227"/>
+      <c r="A43" s="226"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="227"/>
+      <c r="D43" s="226"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
@@ -18876,7 +18994,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="15"/>
       <c r="P43" s="15"/>
-      <c r="Q43" s="227"/>
+      <c r="Q43" s="226"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -18919,7 +19037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -18950,24 +19068,24 @@
       <c r="B1" s="216">
         <v>1.5</v>
       </c>
-      <c r="C1" s="273" t="s">
+      <c r="C1" s="272" t="s">
         <v>417</v>
       </c>
-      <c r="D1" s="274"/>
-      <c r="E1" s="274"/>
-      <c r="F1" s="274"/>
-      <c r="G1" s="274"/>
-      <c r="H1" s="274"/>
-      <c r="I1" s="275"/>
-      <c r="J1" s="273" t="s">
+      <c r="D1" s="273"/>
+      <c r="E1" s="273"/>
+      <c r="F1" s="273"/>
+      <c r="G1" s="273"/>
+      <c r="H1" s="273"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="272" t="s">
         <v>418</v>
       </c>
-      <c r="K1" s="274"/>
-      <c r="L1" s="274"/>
-      <c r="M1" s="274"/>
-      <c r="N1" s="274"/>
-      <c r="O1" s="274"/>
-      <c r="P1" s="275"/>
+      <c r="K1" s="273"/>
+      <c r="L1" s="273"/>
+      <c r="M1" s="273"/>
+      <c r="N1" s="273"/>
+      <c r="O1" s="273"/>
+      <c r="P1" s="274"/>
     </row>
     <row r="2" spans="1:16" ht="27" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="215" t="s">
@@ -20644,60 +20762,60 @@
   </cols>
   <sheetData>
     <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="244" t="s">
+      <c r="A26" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="227"/>
-      <c r="C26" s="227"/>
+      <c r="B26" s="226"/>
+      <c r="C26" s="226"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="243"/>
-      <c r="B27" s="227"/>
+      <c r="A27" s="242"/>
+      <c r="B27" s="226"/>
       <c r="C27" s="50"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="243"/>
-      <c r="B28" s="227"/>
+      <c r="A28" s="242"/>
+      <c r="B28" s="226"/>
       <c r="C28" s="51"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="243"/>
-      <c r="B29" s="227"/>
+      <c r="A29" s="242"/>
+      <c r="B29" s="226"/>
       <c r="C29" s="121"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="243"/>
-      <c r="B30" s="227"/>
+      <c r="A30" s="242"/>
+      <c r="B30" s="226"/>
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="243"/>
-      <c r="B31" s="227"/>
+      <c r="A31" s="242"/>
+      <c r="B31" s="226"/>
       <c r="C31" s="53"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="241"/>
-      <c r="B32" s="227"/>
+      <c r="A32" s="240"/>
+      <c r="B32" s="226"/>
       <c r="C32" s="121"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="240"/>
-      <c r="B33" s="227"/>
+      <c r="A33" s="239"/>
+      <c r="B33" s="226"/>
       <c r="C33" s="53"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="240"/>
-      <c r="B34" s="227"/>
+      <c r="A34" s="239"/>
+      <c r="B34" s="226"/>
       <c r="C34" s="53"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="240"/>
-      <c r="B35" s="227"/>
+      <c r="A35" s="239"/>
+      <c r="B35" s="226"/>
       <c r="C35" s="53"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="240"/>
-      <c r="B36" s="227"/>
+      <c r="A36" s="239"/>
+      <c r="B36" s="226"/>
       <c r="C36" s="53"/>
     </row>
   </sheetData>

--- a/0 DyTech Informations/Dytech Balance.xlsx
+++ b/0 DyTech Informations/Dytech Balance.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\.Dytech\DyTech\0 DyTech Informations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DyTech\0 DyTech Informations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12135" tabRatio="781" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12135" tabRatio="781" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="Nuclear Fuel" sheetId="11" r:id="rId5"/>
     <sheet name="Membranes" sheetId="16" r:id="rId6"/>
     <sheet name="Laser Turrets" sheetId="3" r:id="rId7"/>
-    <sheet name="Enemies" sheetId="17" r:id="rId8"/>
-    <sheet name="Empty Sheet" sheetId="9" r:id="rId9"/>
+    <sheet name="Empty Sheet" sheetId="9" r:id="rId8"/>
+    <sheet name="Enemies Spawn Chance" sheetId="19" r:id="rId9"/>
     <sheet name="Gems" sheetId="10" r:id="rId10"/>
     <sheet name="Msc" sheetId="5" r:id="rId11"/>
     <sheet name="Dytech Balance" sheetId="6" state="hidden" r:id="rId12"/>
@@ -882,7 +882,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="458">
   <si>
     <t>README</t>
   </si>
@@ -2132,87 +2132,12 @@
     <t>(minutes)</t>
   </si>
   <si>
-    <t>Weapon/Ammo</t>
-  </si>
-  <si>
-    <t>Biters</t>
-  </si>
-  <si>
-    <t>Spitter</t>
-  </si>
-  <si>
     <t>Small</t>
   </si>
   <si>
     <t>Large</t>
   </si>
   <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Berserker</t>
-  </si>
-  <si>
-    <t>Elder</t>
-  </si>
-  <si>
-    <t>King</t>
-  </si>
-  <si>
-    <t>Queen</t>
-  </si>
-  <si>
-    <t>Basic Ammo</t>
-  </si>
-  <si>
-    <t>Armor Piercing Ammo</t>
-  </si>
-  <si>
-    <t>Shotgun Shell</t>
-  </si>
-  <si>
-    <t>Piercing Shotgun Shell</t>
-  </si>
-  <si>
-    <t>Rocket</t>
-  </si>
-  <si>
-    <t>Explosive Rocket</t>
-  </si>
-  <si>
-    <t>Poison Capsule 2</t>
-  </si>
-  <si>
-    <t>Poison Capsule 3</t>
-  </si>
-  <si>
-    <t>Poison Capsule 1</t>
-  </si>
-  <si>
-    <t>Health Enemies</t>
-  </si>
-  <si>
-    <t>-------------------------</t>
-  </si>
-  <si>
-    <t>Biter Factor:</t>
-  </si>
-  <si>
-    <t>Flamethrower</t>
-  </si>
-  <si>
-    <t>Cannon Shell</t>
-  </si>
-  <si>
-    <t>Grenade 1</t>
-  </si>
-  <si>
-    <t>Grenade 3</t>
-  </si>
-  <si>
-    <t>Grenade 2</t>
-  </si>
-  <si>
     <t>Normal</t>
   </si>
   <si>
@@ -2244,6 +2169,93 @@
   </si>
   <si>
     <t>(+0,15)</t>
+  </si>
+  <si>
+    <t>Kolom1</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Evo Low</t>
+  </si>
+  <si>
+    <t>Evo High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Som</t>
+  </si>
+  <si>
+    <t>Gemiddelde</t>
+  </si>
+  <si>
+    <t>Voorlopig totaal</t>
+  </si>
+  <si>
+    <t>Aantal</t>
+  </si>
+  <si>
+    <t>10 Teen King Biter</t>
+  </si>
+  <si>
+    <t>11 Teen Queen Biter</t>
+  </si>
+  <si>
+    <t>01 Small Biter</t>
+  </si>
+  <si>
+    <t>02 Medium Biter</t>
+  </si>
+  <si>
+    <t>05 Young Elder Biter</t>
+  </si>
+  <si>
+    <t>04 Young Berserker Biter</t>
+  </si>
+  <si>
+    <t>03 Large Biter</t>
+  </si>
+  <si>
+    <t>06 Young King Biter</t>
+  </si>
+  <si>
+    <t>08 Teen Berserker Biter</t>
+  </si>
+  <si>
+    <t>09 Teen Elder Biter</t>
+  </si>
+  <si>
+    <t>07 Young Queen Biter</t>
+  </si>
+  <si>
+    <t>12 Adult Berserker Biter</t>
+  </si>
+  <si>
+    <t>13 Adult Elder Biter</t>
+  </si>
+  <si>
+    <t>14 Adult King Biter</t>
+  </si>
+  <si>
+    <t>15 Adult Queen Biter</t>
+  </si>
+  <si>
+    <t>evo =</t>
+  </si>
+  <si>
+    <t>amount of enemies</t>
+  </si>
+  <si>
+    <t>diveded:</t>
+  </si>
+  <si>
+    <t>divided by 100</t>
   </si>
 </sst>
 </file>
@@ -2259,7 +2271,7 @@
     <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2382,24 +2394,15 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="24"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="55">
@@ -2714,16 +2717,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2878,62 +2883,42 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
+      <left style="thin">
+        <color theme="0"/>
       </left>
       <right/>
-      <top style="thick">
-        <color auto="1"/>
+      <top style="thin">
+        <color theme="0"/>
       </top>
-      <bottom style="thick">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
       </top>
-      <bottom style="thick">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="281">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3208,28 +3193,41 @@
     <xf numFmtId="4" fontId="0" fillId="38" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="38" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="53" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3238,31 +3236,19 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="36" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3281,9 +3267,6 @@
     <xf numFmtId="0" fontId="0" fillId="49" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3299,6 +3282,9 @@
     <xf numFmtId="0" fontId="16" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="44" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3308,30 +3294,21 @@
     <xf numFmtId="0" fontId="15" fillId="44" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="54" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="54" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="54" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3341,23 +3318,50 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="53" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="53" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="54" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="54" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="53" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="54" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="5">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
     <cellStyle name="Accent3" xfId="4" builtinId="37"/>
-    <cellStyle name="Accent5" xfId="5" builtinId="45"/>
-    <cellStyle name="Accent6" xfId="6" builtinId="49"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Procent" xfId="2" builtinId="5"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3368,6 +3372,1399 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.4306213139266607"/>
+          <c:y val="1.7222818290452208E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:stockChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Enemies Spawn Chance'!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Evo Low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Enemies Spawn Chance'!$O$3:$O$17</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>01 Small Biter</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Medium Biter</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03 Large Biter</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04 Young Berserker Biter</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05 Young Elder Biter</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>06 Young King Biter</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>07 Young Queen Biter</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>08 Teen Berserker Biter</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>09 Teen Elder Biter</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10 Teen King Biter</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11 Teen Queen Biter</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12 Adult Berserker Biter</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13 Adult Elder Biter</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14 Adult King Biter</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15 Adult Queen Biter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Enemies Spawn Chance'!$P$3:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25555555555555559</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31111111111111117</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36666666666666675</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42222222222222233</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47777777777777791</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.53333333333333344</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58888888888888902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.70000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75555555555555576</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.81111111111111134</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.86666666666666692</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9222222222222225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Enemies Spawn Chance'!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Evo High</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Enemies Spawn Chance'!$O$3:$O$17</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>01 Small Biter</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Medium Biter</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03 Large Biter</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04 Young Berserker Biter</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05 Young Elder Biter</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>06 Young King Biter</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>07 Young Queen Biter</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>08 Teen Berserker Biter</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>09 Teen Elder Biter</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10 Teen King Biter</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11 Teen Queen Biter</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12 Adult Berserker Biter</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13 Adult Elder Biter</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14 Adult King Biter</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15 Adult Queen Biter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Enemies Spawn Chance'!$Q$3:$Q$17</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31854838709677419</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38709677419354838</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45564516129032256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52419354838709675</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.592741935483871</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66129032258064524</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72983870967741948</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79838709677419373</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86693548387096797</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.93548387096774221</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Enemies Spawn Chance'!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Enemies Spawn Chance'!$O$3:$O$17</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>01 Small Biter</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Medium Biter</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03 Large Biter</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04 Young Berserker Biter</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05 Young Elder Biter</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>06 Young King Biter</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>07 Young Queen Biter</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>08 Teen Berserker Biter</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>09 Teen Elder Biter</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10 Teen King Biter</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11 Teen Queen Biter</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12 Adult Berserker Biter</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13 Adult Elder Biter</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14 Adult King Biter</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15 Adult Queen Biter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Enemies Spawn Chance'!$R$3:$R$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25555555555555559</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31111111111111117</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36666666666666675</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42222222222222233</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47777777777777791</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.53333333333333344</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58888888888888902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.70000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75555555555555576</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.81111111111111134</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.86666666666666692</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9222222222222225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Enemies Spawn Chance'!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Enemies Spawn Chance'!$O$3:$O$17</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>01 Small Biter</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Medium Biter</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03 Large Biter</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04 Young Berserker Biter</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05 Young Elder Biter</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>06 Young King Biter</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>07 Young Queen Biter</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>08 Teen Berserker Biter</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>09 Teen Elder Biter</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10 Teen King Biter</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11 Teen Queen Biter</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12 Adult Berserker Biter</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13 Adult Elder Biter</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14 Adult King Biter</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15 Adult Queen Biter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Enemies Spawn Chance'!$S$3:$S$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31854838709677419</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38709677419354838</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45564516129032256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52419354838709675</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.592741935483871</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66129032258064524</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72983870967741948</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79838709677419373</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86693548387096797</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.93548387096774221</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:upDownBars>
+          <c:gapWidth val="150"/>
+          <c:upBars>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:upBars>
+          <c:downBars>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:downBars>
+        </c:upDownBars>
+        <c:axId val="409946304"/>
+        <c:axId val="409942776"/>
+      </c:stockChart>
+      <c:catAx>
+        <c:axId val="409946304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="409942776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="409942776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="409946304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4921,6 +6318,41 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>566737</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafiek 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -5396,6 +6828,23 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="O2:S17" totalsRowShown="0">
+  <autoFilter ref="O2:S17"/>
+  <sortState ref="O3:S17">
+    <sortCondition ref="O2:O17"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Name" dataDxfId="2"/>
+    <tableColumn id="2" name="Evo Low" dataDxfId="1" dataCellStyle="Procent"/>
+    <tableColumn id="4" name="Evo High" dataDxfId="0" dataCellStyle="Procent"/>
+    <tableColumn id="6" name=" " dataDxfId="4" dataCellStyle="Procent"/>
+    <tableColumn id="7" name="  " dataDxfId="3" dataCellStyle="Procent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
@@ -5686,68 +7135,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="222"/>
-      <c r="B1" s="229" t="s">
+      <c r="A1" s="235"/>
+      <c r="B1" s="232" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="221"/>
-      <c r="D1" s="229" t="s">
+      <c r="C1" s="224"/>
+      <c r="D1" s="232" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="221"/>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
+      <c r="E1" s="224"/>
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="229" t="s">
+      <c r="M1" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="221"/>
-      <c r="O1" s="221"/>
-      <c r="P1" s="221"/>
-      <c r="Q1" s="222"/>
+      <c r="N1" s="224"/>
+      <c r="O1" s="224"/>
+      <c r="P1" s="224"/>
+      <c r="Q1" s="235"/>
       <c r="U1" s="9"/>
-      <c r="V1" s="231"/>
-      <c r="W1" s="221"/>
-      <c r="X1" s="221"/>
+      <c r="V1" s="230"/>
+      <c r="W1" s="224"/>
+      <c r="X1" s="224"/>
     </row>
     <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="221"/>
-      <c r="B2" s="223" t="s">
+      <c r="A2" s="224"/>
+      <c r="B2" s="226" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="233" t="s">
+      <c r="C2" s="224"/>
+      <c r="D2" s="231" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="226"/>
-      <c r="M2" s="233" t="s">
+      <c r="L2" s="233"/>
+      <c r="M2" s="231" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="221"/>
-      <c r="O2" s="221"/>
-      <c r="P2" s="221"/>
-      <c r="Q2" s="221"/>
+      <c r="N2" s="224"/>
+      <c r="O2" s="224"/>
+      <c r="P2" s="224"/>
+      <c r="Q2" s="224"/>
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="232"/>
-      <c r="W2" s="221"/>
-      <c r="X2" s="221"/>
+      <c r="V2" s="223"/>
+      <c r="W2" s="224"/>
+      <c r="X2" s="224"/>
     </row>
     <row r="3" spans="1:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="221"/>
+      <c r="A3" s="224"/>
       <c r="B3" s="18" t="s">
         <v>23</v>
       </c>
@@ -5770,7 +7219,7 @@
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
-      <c r="L3" s="221"/>
+      <c r="L3" s="224"/>
       <c r="M3" s="24" t="s">
         <v>82</v>
       </c>
@@ -5781,7 +7230,7 @@
         <v>84</v>
       </c>
       <c r="P3" s="24"/>
-      <c r="Q3" s="221"/>
+      <c r="Q3" s="224"/>
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
@@ -5791,7 +7240,7 @@
       <c r="X3" s="27"/>
     </row>
     <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="221"/>
+      <c r="A4" s="224"/>
       <c r="B4" s="18" t="s">
         <v>101</v>
       </c>
@@ -5813,7 +7262,7 @@
       <c r="I4" s="36"/>
       <c r="J4" s="36"/>
       <c r="K4" s="36"/>
-      <c r="L4" s="221"/>
+      <c r="L4" s="224"/>
       <c r="M4" s="29">
         <v>1</v>
       </c>
@@ -5824,7 +7273,7 @@
         <v>0.1</v>
       </c>
       <c r="P4" s="42"/>
-      <c r="Q4" s="221"/>
+      <c r="Q4" s="224"/>
       <c r="R4" s="43"/>
       <c r="S4" s="39"/>
       <c r="U4" s="43"/>
@@ -5833,7 +7282,7 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="221"/>
+      <c r="A5" s="224"/>
       <c r="B5" s="18" t="s">
         <v>108</v>
       </c>
@@ -5859,7 +7308,7 @@
       <c r="I5" s="36"/>
       <c r="J5" s="36"/>
       <c r="K5" s="36"/>
-      <c r="L5" s="221"/>
+      <c r="L5" s="224"/>
       <c r="M5" s="29">
         <v>2</v>
       </c>
@@ -5870,7 +7319,7 @@
         <v>0.2</v>
       </c>
       <c r="P5" s="42"/>
-      <c r="Q5" s="221"/>
+      <c r="Q5" s="224"/>
       <c r="R5" s="43"/>
       <c r="S5" s="39"/>
       <c r="T5" s="10"/>
@@ -5880,7 +7329,7 @@
       <c r="X5" s="10"/>
     </row>
     <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="221"/>
+      <c r="A6" s="224"/>
       <c r="B6" s="14"/>
       <c r="C6" s="45"/>
       <c r="D6" s="29">
@@ -5904,7 +7353,7 @@
       <c r="I6" s="36"/>
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
-      <c r="L6" s="221"/>
+      <c r="L6" s="224"/>
       <c r="M6" s="29">
         <v>3</v>
       </c>
@@ -5915,7 +7364,7 @@
         <v>0.3</v>
       </c>
       <c r="P6" s="42"/>
-      <c r="Q6" s="221"/>
+      <c r="Q6" s="224"/>
       <c r="R6" s="43"/>
       <c r="S6" s="39"/>
       <c r="U6" s="43"/>
@@ -5924,7 +7373,7 @@
       <c r="X6" s="10"/>
     </row>
     <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="221"/>
+      <c r="A7" s="224"/>
       <c r="B7" s="14"/>
       <c r="C7" s="45"/>
       <c r="D7" s="29">
@@ -5946,7 +7395,7 @@
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
       <c r="K7" s="36"/>
-      <c r="L7" s="221"/>
+      <c r="L7" s="224"/>
       <c r="M7" s="29">
         <v>4</v>
       </c>
@@ -5957,14 +7406,14 @@
         <v>0.4</v>
       </c>
       <c r="P7" s="42"/>
-      <c r="Q7" s="221"/>
+      <c r="Q7" s="224"/>
       <c r="R7" s="43"/>
       <c r="S7" s="39"/>
       <c r="U7" s="43"/>
       <c r="V7" s="43"/>
     </row>
     <row r="8" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="221"/>
+      <c r="A8" s="224"/>
       <c r="B8" s="14"/>
       <c r="C8" s="45"/>
       <c r="D8" s="29">
@@ -5988,7 +7437,7 @@
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
-      <c r="L8" s="221"/>
+      <c r="L8" s="224"/>
       <c r="M8" s="29">
         <v>5</v>
       </c>
@@ -5999,14 +7448,14 @@
         <v>0.5</v>
       </c>
       <c r="P8" s="42"/>
-      <c r="Q8" s="221"/>
+      <c r="Q8" s="224"/>
       <c r="R8" s="43"/>
       <c r="S8" s="39"/>
       <c r="U8" s="43"/>
       <c r="V8" s="43"/>
     </row>
     <row r="9" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="221"/>
+      <c r="A9" s="224"/>
       <c r="B9" s="14"/>
       <c r="C9" s="45"/>
       <c r="D9" s="29">
@@ -6028,7 +7477,7 @@
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
-      <c r="L9" s="221"/>
+      <c r="L9" s="224"/>
       <c r="M9" s="29">
         <v>6</v>
       </c>
@@ -6039,14 +7488,14 @@
         <v>0.6</v>
       </c>
       <c r="P9" s="42"/>
-      <c r="Q9" s="221"/>
+      <c r="Q9" s="224"/>
       <c r="R9" s="43"/>
       <c r="S9" s="39"/>
       <c r="U9" s="43"/>
       <c r="V9" s="43"/>
     </row>
     <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="221"/>
+      <c r="A10" s="224"/>
       <c r="B10" s="14"/>
       <c r="C10" s="45"/>
       <c r="D10" s="29">
@@ -6070,7 +7519,7 @@
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
-      <c r="L10" s="221"/>
+      <c r="L10" s="224"/>
       <c r="M10" s="29">
         <v>7</v>
       </c>
@@ -6081,14 +7530,14 @@
         <v>0.7</v>
       </c>
       <c r="P10" s="42"/>
-      <c r="Q10" s="221"/>
+      <c r="Q10" s="224"/>
       <c r="R10" s="43"/>
       <c r="S10" s="39"/>
       <c r="U10" s="43"/>
       <c r="V10" s="43"/>
     </row>
     <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="221"/>
+      <c r="A11" s="224"/>
       <c r="B11" s="14"/>
       <c r="C11" s="45"/>
       <c r="D11" s="29">
@@ -6112,7 +7561,7 @@
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
-      <c r="L11" s="221"/>
+      <c r="L11" s="224"/>
       <c r="M11" s="29">
         <v>8</v>
       </c>
@@ -6123,30 +7572,30 @@
         <v>0.8</v>
       </c>
       <c r="P11" s="42"/>
-      <c r="Q11" s="221"/>
+      <c r="Q11" s="224"/>
       <c r="R11" s="43"/>
       <c r="S11" s="39"/>
       <c r="U11" s="43"/>
       <c r="V11" s="43"/>
     </row>
     <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="221"/>
-      <c r="B12" s="220"/>
-      <c r="C12" s="221"/>
-      <c r="D12" s="225"/>
-      <c r="E12" s="221"/>
-      <c r="F12" s="221"/>
-      <c r="G12" s="221"/>
+      <c r="A12" s="224"/>
+      <c r="B12" s="227"/>
+      <c r="C12" s="224"/>
+      <c r="D12" s="228"/>
+      <c r="E12" s="224"/>
+      <c r="F12" s="224"/>
+      <c r="G12" s="224"/>
       <c r="H12" s="56"/>
       <c r="I12" s="56"/>
       <c r="J12" s="56"/>
       <c r="K12" s="56"/>
-      <c r="L12" s="221"/>
-      <c r="M12" s="225"/>
-      <c r="N12" s="221"/>
-      <c r="O12" s="221"/>
-      <c r="P12" s="221"/>
-      <c r="Q12" s="221"/>
+      <c r="L12" s="224"/>
+      <c r="M12" s="228"/>
+      <c r="N12" s="224"/>
+      <c r="O12" s="224"/>
+      <c r="P12" s="224"/>
+      <c r="Q12" s="224"/>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
@@ -6156,37 +7605,37 @@
       <c r="X12" s="17"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="221"/>
-      <c r="B13" s="223"/>
-      <c r="C13" s="221"/>
-      <c r="D13" s="230" t="s">
+      <c r="A13" s="224"/>
+      <c r="B13" s="226"/>
+      <c r="C13" s="224"/>
+      <c r="D13" s="229" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="221"/>
-      <c r="F13" s="221"/>
-      <c r="G13" s="221"/>
+      <c r="E13" s="224"/>
+      <c r="F13" s="224"/>
+      <c r="G13" s="224"/>
       <c r="H13" s="58"/>
       <c r="I13" s="58"/>
       <c r="J13" s="58"/>
       <c r="K13" s="58"/>
-      <c r="L13" s="221"/>
-      <c r="M13" s="230" t="s">
+      <c r="L13" s="224"/>
+      <c r="M13" s="229" t="s">
         <v>144</v>
       </c>
-      <c r="N13" s="221"/>
-      <c r="O13" s="221"/>
-      <c r="P13" s="221"/>
-      <c r="Q13" s="221"/>
+      <c r="N13" s="224"/>
+      <c r="O13" s="224"/>
+      <c r="P13" s="224"/>
+      <c r="Q13" s="224"/>
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
-      <c r="V13" s="232"/>
-      <c r="W13" s="221"/>
-      <c r="X13" s="221"/>
+      <c r="V13" s="223"/>
+      <c r="W13" s="224"/>
+      <c r="X13" s="224"/>
     </row>
     <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="221"/>
+      <c r="A14" s="224"/>
       <c r="B14" s="14"/>
       <c r="C14" s="45"/>
       <c r="D14" s="60" t="s">
@@ -6207,7 +7656,7 @@
       <c r="I14" s="60"/>
       <c r="J14" s="60"/>
       <c r="K14" s="60"/>
-      <c r="L14" s="221"/>
+      <c r="L14" s="224"/>
       <c r="M14" s="60" t="s">
         <v>151</v>
       </c>
@@ -6216,7 +7665,7 @@
       </c>
       <c r="O14" s="60"/>
       <c r="P14" s="60"/>
-      <c r="Q14" s="221"/>
+      <c r="Q14" s="224"/>
       <c r="R14" s="27"/>
       <c r="S14" s="27"/>
       <c r="T14" s="27"/>
@@ -6226,7 +7675,7 @@
       <c r="X14" s="27"/>
     </row>
     <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="221"/>
+      <c r="A15" s="224"/>
       <c r="B15" s="14"/>
       <c r="C15" s="45"/>
       <c r="D15" s="62">
@@ -6246,7 +7695,7 @@
       <c r="I15" s="68"/>
       <c r="J15" s="68"/>
       <c r="K15" s="68"/>
-      <c r="L15" s="221"/>
+      <c r="L15" s="224"/>
       <c r="M15" s="62">
         <v>1</v>
       </c>
@@ -6255,7 +7704,7 @@
       </c>
       <c r="O15" s="65"/>
       <c r="P15" s="65"/>
-      <c r="Q15" s="221"/>
+      <c r="Q15" s="224"/>
       <c r="R15" s="43"/>
       <c r="S15" s="39"/>
       <c r="U15" s="43"/>
@@ -6263,7 +7712,7 @@
       <c r="W15" s="10"/>
     </row>
     <row r="16" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="221"/>
+      <c r="A16" s="224"/>
       <c r="B16" s="14"/>
       <c r="C16" s="45"/>
       <c r="D16" s="62">
@@ -6285,7 +7734,7 @@
       <c r="I16" s="68"/>
       <c r="J16" s="68"/>
       <c r="K16" s="68"/>
-      <c r="L16" s="221"/>
+      <c r="L16" s="224"/>
       <c r="M16" s="62">
         <v>2</v>
       </c>
@@ -6294,7 +7743,7 @@
       </c>
       <c r="O16" s="65"/>
       <c r="P16" s="65"/>
-      <c r="Q16" s="221"/>
+      <c r="Q16" s="224"/>
       <c r="R16" s="43"/>
       <c r="S16" s="39"/>
       <c r="U16" s="43"/>
@@ -6302,7 +7751,7 @@
       <c r="W16" s="10"/>
     </row>
     <row r="17" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="221"/>
+      <c r="A17" s="224"/>
       <c r="B17" s="14"/>
       <c r="C17" s="45"/>
       <c r="D17" s="62">
@@ -6326,7 +7775,7 @@
       <c r="I17" s="68"/>
       <c r="J17" s="68"/>
       <c r="K17" s="68"/>
-      <c r="L17" s="221"/>
+      <c r="L17" s="224"/>
       <c r="M17" s="62">
         <v>3</v>
       </c>
@@ -6335,7 +7784,7 @@
       </c>
       <c r="O17" s="65"/>
       <c r="P17" s="65"/>
-      <c r="Q17" s="221"/>
+      <c r="Q17" s="224"/>
       <c r="R17" s="43"/>
       <c r="S17" s="39"/>
       <c r="U17" s="43"/>
@@ -6343,7 +7792,7 @@
       <c r="W17" s="10"/>
     </row>
     <row r="18" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="221"/>
+      <c r="A18" s="224"/>
       <c r="B18" s="14"/>
       <c r="C18" s="45"/>
       <c r="D18" s="62">
@@ -6365,7 +7814,7 @@
       <c r="I18" s="68"/>
       <c r="J18" s="68"/>
       <c r="K18" s="68"/>
-      <c r="L18" s="221"/>
+      <c r="L18" s="224"/>
       <c r="M18" s="62">
         <v>4</v>
       </c>
@@ -6374,13 +7823,13 @@
       </c>
       <c r="O18" s="65"/>
       <c r="P18" s="65"/>
-      <c r="Q18" s="221"/>
+      <c r="Q18" s="224"/>
       <c r="R18" s="43"/>
       <c r="U18" s="43"/>
       <c r="V18" s="43"/>
     </row>
     <row r="19" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="221"/>
+      <c r="A19" s="224"/>
       <c r="B19" s="14"/>
       <c r="C19" s="45"/>
       <c r="D19" s="62">
@@ -6404,7 +7853,7 @@
       <c r="I19" s="68"/>
       <c r="J19" s="68"/>
       <c r="K19" s="68"/>
-      <c r="L19" s="221"/>
+      <c r="L19" s="224"/>
       <c r="M19" s="62">
         <v>5</v>
       </c>
@@ -6413,13 +7862,13 @@
       </c>
       <c r="O19" s="65"/>
       <c r="P19" s="65"/>
-      <c r="Q19" s="221"/>
+      <c r="Q19" s="224"/>
       <c r="R19" s="43"/>
       <c r="U19" s="43"/>
       <c r="V19" s="43"/>
     </row>
     <row r="20" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="221"/>
+      <c r="A20" s="224"/>
       <c r="B20" s="14"/>
       <c r="C20" s="45"/>
       <c r="D20" s="62">
@@ -6441,7 +7890,7 @@
       <c r="I20" s="68"/>
       <c r="J20" s="68"/>
       <c r="K20" s="68"/>
-      <c r="L20" s="221"/>
+      <c r="L20" s="224"/>
       <c r="M20" s="62">
         <v>6</v>
       </c>
@@ -6450,14 +7899,14 @@
       </c>
       <c r="O20" s="65"/>
       <c r="P20" s="65"/>
-      <c r="Q20" s="221"/>
+      <c r="Q20" s="224"/>
       <c r="R20" s="43"/>
       <c r="S20" s="39"/>
       <c r="U20" s="43"/>
       <c r="V20" s="43"/>
     </row>
     <row r="21" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="221"/>
+      <c r="A21" s="224"/>
       <c r="B21" s="14"/>
       <c r="C21" s="45"/>
       <c r="D21" s="62">
@@ -6481,7 +7930,7 @@
       <c r="I21" s="68"/>
       <c r="J21" s="68"/>
       <c r="K21" s="68"/>
-      <c r="L21" s="221"/>
+      <c r="L21" s="224"/>
       <c r="M21" s="62">
         <v>7</v>
       </c>
@@ -6490,14 +7939,14 @@
       </c>
       <c r="O21" s="65"/>
       <c r="P21" s="65"/>
-      <c r="Q21" s="221"/>
+      <c r="Q21" s="224"/>
       <c r="R21" s="43"/>
       <c r="S21" s="39"/>
       <c r="U21" s="43"/>
       <c r="V21" s="43"/>
     </row>
     <row r="22" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="221"/>
+      <c r="A22" s="224"/>
       <c r="B22" s="14"/>
       <c r="C22" s="45"/>
       <c r="D22" s="62">
@@ -6521,7 +7970,7 @@
       <c r="I22" s="68"/>
       <c r="J22" s="68"/>
       <c r="K22" s="68"/>
-      <c r="L22" s="221"/>
+      <c r="L22" s="224"/>
       <c r="M22" s="62">
         <v>8</v>
       </c>
@@ -6530,30 +7979,30 @@
       </c>
       <c r="O22" s="65"/>
       <c r="P22" s="65"/>
-      <c r="Q22" s="221"/>
+      <c r="Q22" s="224"/>
       <c r="R22" s="43"/>
       <c r="S22" s="39"/>
       <c r="U22" s="43"/>
       <c r="V22" s="43"/>
     </row>
     <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="221"/>
-      <c r="B23" s="220"/>
-      <c r="C23" s="221"/>
-      <c r="D23" s="225"/>
-      <c r="E23" s="221"/>
-      <c r="F23" s="221"/>
-      <c r="G23" s="221"/>
+      <c r="A23" s="224"/>
+      <c r="B23" s="227"/>
+      <c r="C23" s="224"/>
+      <c r="D23" s="228"/>
+      <c r="E23" s="224"/>
+      <c r="F23" s="224"/>
+      <c r="G23" s="224"/>
       <c r="H23" s="56"/>
       <c r="I23" s="56"/>
       <c r="J23" s="56"/>
       <c r="K23" s="56"/>
-      <c r="L23" s="221"/>
-      <c r="M23" s="225"/>
-      <c r="N23" s="221"/>
-      <c r="O23" s="221"/>
-      <c r="P23" s="221"/>
-      <c r="Q23" s="221"/>
+      <c r="L23" s="224"/>
+      <c r="M23" s="228"/>
+      <c r="N23" s="224"/>
+      <c r="O23" s="224"/>
+      <c r="P23" s="224"/>
+      <c r="Q23" s="224"/>
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
       <c r="T23" s="17"/>
@@ -6563,39 +8012,39 @@
       <c r="X23" s="17"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="221"/>
-      <c r="B24" s="223" t="s">
+      <c r="A24" s="224"/>
+      <c r="B24" s="226" t="s">
         <v>177</v>
       </c>
-      <c r="C24" s="221"/>
-      <c r="D24" s="228" t="s">
+      <c r="C24" s="224"/>
+      <c r="D24" s="225" t="s">
         <v>178</v>
       </c>
-      <c r="E24" s="221"/>
-      <c r="F24" s="221"/>
-      <c r="G24" s="221"/>
+      <c r="E24" s="224"/>
+      <c r="F24" s="224"/>
+      <c r="G24" s="224"/>
       <c r="H24" s="74"/>
       <c r="I24" s="74"/>
       <c r="J24" s="74"/>
       <c r="K24" s="74"/>
-      <c r="L24" s="221"/>
-      <c r="M24" s="228" t="s">
+      <c r="L24" s="224"/>
+      <c r="M24" s="225" t="s">
         <v>179</v>
       </c>
-      <c r="N24" s="221"/>
-      <c r="O24" s="221"/>
-      <c r="P24" s="221"/>
-      <c r="Q24" s="221"/>
+      <c r="N24" s="224"/>
+      <c r="O24" s="224"/>
+      <c r="P24" s="224"/>
+      <c r="Q24" s="224"/>
       <c r="R24" s="17"/>
       <c r="S24" s="17"/>
       <c r="T24" s="17"/>
       <c r="U24" s="17"/>
-      <c r="V24" s="232"/>
-      <c r="W24" s="221"/>
-      <c r="X24" s="221"/>
+      <c r="V24" s="223"/>
+      <c r="W24" s="224"/>
+      <c r="X24" s="224"/>
     </row>
     <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="221"/>
+      <c r="A25" s="224"/>
       <c r="B25" s="14" t="s">
         <v>180</v>
       </c>
@@ -6626,7 +8075,7 @@
       <c r="K25" s="76" t="s">
         <v>190</v>
       </c>
-      <c r="L25" s="221"/>
+      <c r="L25" s="224"/>
       <c r="M25" s="76" t="s">
         <v>191</v>
       </c>
@@ -6639,7 +8088,7 @@
       <c r="P25" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="Q25" s="221"/>
+      <c r="Q25" s="224"/>
       <c r="R25" s="27"/>
       <c r="S25" s="27"/>
       <c r="T25" s="27"/>
@@ -6649,7 +8098,7 @@
       <c r="X25" s="27"/>
     </row>
     <row r="26" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="221"/>
+      <c r="A26" s="224"/>
       <c r="B26" s="14" t="s">
         <v>195</v>
       </c>
@@ -6683,7 +8132,7 @@
         <f>E26/E26</f>
         <v>1</v>
       </c>
-      <c r="L26" s="221"/>
+      <c r="L26" s="224"/>
       <c r="M26" s="77">
         <v>1</v>
       </c>
@@ -6696,7 +8145,7 @@
       <c r="P26" s="81">
         <v>0.2</v>
       </c>
-      <c r="Q26" s="221"/>
+      <c r="Q26" s="224"/>
       <c r="R26" s="43"/>
       <c r="U26" s="43"/>
       <c r="V26" s="43"/>
@@ -6704,7 +8153,7 @@
       <c r="X26" s="10"/>
     </row>
     <row r="27" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="221"/>
+      <c r="A27" s="224"/>
       <c r="B27" s="14"/>
       <c r="C27" s="45"/>
       <c r="D27" s="77">
@@ -6735,7 +8184,7 @@
         <f t="shared" ref="K27:K33" si="11">E27/E$26</f>
         <v>2</v>
       </c>
-      <c r="L27" s="221"/>
+      <c r="L27" s="224"/>
       <c r="M27" s="77">
         <v>2</v>
       </c>
@@ -6748,7 +8197,7 @@
       <c r="P27" s="81">
         <v>0.4</v>
       </c>
-      <c r="Q27" s="221"/>
+      <c r="Q27" s="224"/>
       <c r="R27" s="43"/>
       <c r="U27" s="43"/>
       <c r="V27" s="43"/>
@@ -6756,7 +8205,7 @@
       <c r="X27" s="10"/>
     </row>
     <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="221"/>
+      <c r="A28" s="224"/>
       <c r="B28" s="14"/>
       <c r="C28" s="45"/>
       <c r="D28" s="77">
@@ -6789,7 +8238,7 @@
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="L28" s="221"/>
+      <c r="L28" s="224"/>
       <c r="M28" s="77">
         <v>3</v>
       </c>
@@ -6802,7 +8251,7 @@
       <c r="P28" s="81">
         <v>0.6</v>
       </c>
-      <c r="Q28" s="221"/>
+      <c r="Q28" s="224"/>
       <c r="R28" s="43"/>
       <c r="U28" s="43"/>
       <c r="V28" s="43"/>
@@ -6810,7 +8259,7 @@
       <c r="X28" s="10"/>
     </row>
     <row r="29" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="221"/>
+      <c r="A29" s="224"/>
       <c r="B29" s="14"/>
       <c r="C29" s="45"/>
       <c r="D29" s="77">
@@ -6841,7 +8290,7 @@
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="L29" s="221"/>
+      <c r="L29" s="224"/>
       <c r="M29" s="77">
         <v>4</v>
       </c>
@@ -6854,13 +8303,13 @@
       <c r="P29" s="81">
         <v>0.8</v>
       </c>
-      <c r="Q29" s="221"/>
+      <c r="Q29" s="224"/>
       <c r="R29" s="43"/>
       <c r="U29" s="43"/>
       <c r="V29" s="43"/>
     </row>
     <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="221"/>
+      <c r="A30" s="224"/>
       <c r="B30" s="14"/>
       <c r="C30" s="45"/>
       <c r="D30" s="77">
@@ -6893,7 +8342,7 @@
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="L30" s="221"/>
+      <c r="L30" s="224"/>
       <c r="M30" s="77">
         <v>5</v>
       </c>
@@ -6906,13 +8355,13 @@
       <c r="P30" s="81">
         <v>1</v>
       </c>
-      <c r="Q30" s="221"/>
+      <c r="Q30" s="224"/>
       <c r="R30" s="43"/>
       <c r="U30" s="43"/>
       <c r="V30" s="43"/>
     </row>
     <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="221"/>
+      <c r="A31" s="224"/>
       <c r="B31" s="14"/>
       <c r="C31" s="45"/>
       <c r="D31" s="77">
@@ -6943,7 +8392,7 @@
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="L31" s="221"/>
+      <c r="L31" s="224"/>
       <c r="M31" s="77">
         <v>6</v>
       </c>
@@ -6956,13 +8405,13 @@
       <c r="P31" s="81">
         <v>1.2</v>
       </c>
-      <c r="Q31" s="221"/>
+      <c r="Q31" s="224"/>
       <c r="R31" s="43"/>
       <c r="U31" s="43"/>
       <c r="V31" s="43"/>
     </row>
     <row r="32" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="221"/>
+      <c r="A32" s="224"/>
       <c r="B32" s="14"/>
       <c r="C32" s="45"/>
       <c r="D32" s="77">
@@ -6995,7 +8444,7 @@
         <f t="shared" si="11"/>
         <v>13.999999999999998</v>
       </c>
-      <c r="L32" s="221"/>
+      <c r="L32" s="224"/>
       <c r="M32" s="77">
         <v>7</v>
       </c>
@@ -7008,13 +8457,13 @@
       <c r="P32" s="81">
         <v>1.6</v>
       </c>
-      <c r="Q32" s="221"/>
+      <c r="Q32" s="224"/>
       <c r="R32" s="43"/>
       <c r="U32" s="43"/>
       <c r="V32" s="43"/>
     </row>
     <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="221"/>
+      <c r="A33" s="224"/>
       <c r="B33" s="14"/>
       <c r="C33" s="45"/>
       <c r="D33" s="77">
@@ -7047,7 +8496,7 @@
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="L33" s="221"/>
+      <c r="L33" s="224"/>
       <c r="M33" s="77">
         <v>8</v>
       </c>
@@ -7060,55 +8509,55 @@
       <c r="P33" s="81">
         <v>2</v>
       </c>
-      <c r="Q33" s="221"/>
+      <c r="Q33" s="224"/>
       <c r="R33" s="43"/>
       <c r="U33" s="43"/>
       <c r="V33" s="43"/>
     </row>
     <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="221"/>
-      <c r="B34" s="220"/>
-      <c r="C34" s="221"/>
-      <c r="D34" s="225"/>
-      <c r="E34" s="221"/>
-      <c r="F34" s="221"/>
-      <c r="G34" s="221"/>
+      <c r="A34" s="224"/>
+      <c r="B34" s="227"/>
+      <c r="C34" s="224"/>
+      <c r="D34" s="228"/>
+      <c r="E34" s="224"/>
+      <c r="F34" s="224"/>
+      <c r="G34" s="224"/>
       <c r="H34" s="56"/>
       <c r="I34" s="56"/>
       <c r="J34" s="56"/>
       <c r="K34" s="56"/>
-      <c r="L34" s="221"/>
-      <c r="M34" s="225"/>
-      <c r="N34" s="221"/>
-      <c r="O34" s="221"/>
-      <c r="P34" s="221"/>
-      <c r="Q34" s="221"/>
+      <c r="L34" s="224"/>
+      <c r="M34" s="228"/>
+      <c r="N34" s="224"/>
+      <c r="O34" s="224"/>
+      <c r="P34" s="224"/>
+      <c r="Q34" s="224"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="221"/>
-      <c r="B35" s="223"/>
-      <c r="C35" s="221"/>
-      <c r="D35" s="227" t="s">
+      <c r="A35" s="224"/>
+      <c r="B35" s="226"/>
+      <c r="C35" s="224"/>
+      <c r="D35" s="234" t="s">
         <v>238</v>
       </c>
-      <c r="E35" s="221"/>
-      <c r="F35" s="221"/>
-      <c r="G35" s="221"/>
+      <c r="E35" s="224"/>
+      <c r="F35" s="224"/>
+      <c r="G35" s="224"/>
       <c r="H35" s="96"/>
       <c r="I35" s="96"/>
       <c r="J35" s="96"/>
       <c r="K35" s="96"/>
-      <c r="L35" s="221"/>
-      <c r="M35" s="227" t="s">
+      <c r="L35" s="224"/>
+      <c r="M35" s="234" t="s">
         <v>239</v>
       </c>
-      <c r="N35" s="221"/>
-      <c r="O35" s="221"/>
-      <c r="P35" s="221"/>
-      <c r="Q35" s="221"/>
+      <c r="N35" s="224"/>
+      <c r="O35" s="224"/>
+      <c r="P35" s="224"/>
+      <c r="Q35" s="224"/>
     </row>
     <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="221"/>
+      <c r="A36" s="224"/>
       <c r="B36" s="14"/>
       <c r="C36" s="45"/>
       <c r="D36" s="97" t="s">
@@ -7127,7 +8576,7 @@
       <c r="I36" s="97"/>
       <c r="J36" s="97"/>
       <c r="K36" s="97"/>
-      <c r="L36" s="221"/>
+      <c r="L36" s="224"/>
       <c r="M36" s="97" t="s">
         <v>244</v>
       </c>
@@ -7136,10 +8585,10 @@
       </c>
       <c r="O36" s="97"/>
       <c r="P36" s="97"/>
-      <c r="Q36" s="221"/>
+      <c r="Q36" s="224"/>
     </row>
     <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="221"/>
+      <c r="A37" s="224"/>
       <c r="B37" s="14"/>
       <c r="C37" s="45"/>
       <c r="D37" s="99">
@@ -7157,7 +8606,7 @@
       <c r="I37" s="53"/>
       <c r="J37" s="53"/>
       <c r="K37" s="53"/>
-      <c r="L37" s="221"/>
+      <c r="L37" s="224"/>
       <c r="M37" s="99">
         <v>1</v>
       </c>
@@ -7166,10 +8615,10 @@
       </c>
       <c r="O37" s="53"/>
       <c r="P37" s="53"/>
-      <c r="Q37" s="221"/>
+      <c r="Q37" s="224"/>
     </row>
     <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="221"/>
+      <c r="A38" s="224"/>
       <c r="B38" s="14"/>
       <c r="C38" s="45"/>
       <c r="D38" s="99">
@@ -7188,7 +8637,7 @@
       <c r="I38" s="53"/>
       <c r="J38" s="53"/>
       <c r="K38" s="53"/>
-      <c r="L38" s="221"/>
+      <c r="L38" s="224"/>
       <c r="M38" s="99">
         <v>2</v>
       </c>
@@ -7197,10 +8646,10 @@
       </c>
       <c r="O38" s="53"/>
       <c r="P38" s="53"/>
-      <c r="Q38" s="221"/>
+      <c r="Q38" s="224"/>
     </row>
     <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="221"/>
+      <c r="A39" s="224"/>
       <c r="B39" s="14"/>
       <c r="C39" s="45"/>
       <c r="D39" s="99">
@@ -7221,7 +8670,7 @@
       <c r="I39" s="53"/>
       <c r="J39" s="53"/>
       <c r="K39" s="53"/>
-      <c r="L39" s="221"/>
+      <c r="L39" s="224"/>
       <c r="M39" s="99">
         <v>3</v>
       </c>
@@ -7230,10 +8679,10 @@
       </c>
       <c r="O39" s="53"/>
       <c r="P39" s="53"/>
-      <c r="Q39" s="221"/>
+      <c r="Q39" s="224"/>
     </row>
     <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="221"/>
+      <c r="A40" s="224"/>
       <c r="B40" s="14"/>
       <c r="C40" s="45"/>
       <c r="D40" s="99">
@@ -7252,7 +8701,7 @@
       <c r="I40" s="53"/>
       <c r="J40" s="53"/>
       <c r="K40" s="53"/>
-      <c r="L40" s="221"/>
+      <c r="L40" s="224"/>
       <c r="M40" s="99">
         <v>4</v>
       </c>
@@ -7261,10 +8710,10 @@
       </c>
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
-      <c r="Q40" s="221"/>
+      <c r="Q40" s="224"/>
     </row>
     <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="221"/>
+      <c r="A41" s="224"/>
       <c r="B41" s="14"/>
       <c r="C41" s="45"/>
       <c r="D41" s="99">
@@ -7285,7 +8734,7 @@
       <c r="I41" s="53"/>
       <c r="J41" s="53"/>
       <c r="K41" s="53"/>
-      <c r="L41" s="221"/>
+      <c r="L41" s="224"/>
       <c r="M41" s="99">
         <v>5</v>
       </c>
@@ -7294,10 +8743,10 @@
       </c>
       <c r="O41" s="53"/>
       <c r="P41" s="53"/>
-      <c r="Q41" s="221"/>
+      <c r="Q41" s="224"/>
     </row>
     <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="221"/>
+      <c r="A42" s="224"/>
       <c r="B42" s="14"/>
       <c r="C42" s="45"/>
       <c r="D42" s="99">
@@ -7316,7 +8765,7 @@
       <c r="I42" s="53"/>
       <c r="J42" s="53"/>
       <c r="K42" s="53"/>
-      <c r="L42" s="221"/>
+      <c r="L42" s="224"/>
       <c r="M42" s="99">
         <v>6</v>
       </c>
@@ -7325,10 +8774,10 @@
       </c>
       <c r="O42" s="53"/>
       <c r="P42" s="53"/>
-      <c r="Q42" s="221"/>
+      <c r="Q42" s="224"/>
     </row>
     <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="221"/>
+      <c r="A43" s="224"/>
       <c r="B43" s="14"/>
       <c r="C43" s="45"/>
       <c r="D43" s="99">
@@ -7349,7 +8798,7 @@
       <c r="I43" s="53"/>
       <c r="J43" s="53"/>
       <c r="K43" s="53"/>
-      <c r="L43" s="221"/>
+      <c r="L43" s="224"/>
       <c r="M43" s="99">
         <v>7</v>
       </c>
@@ -7358,10 +8807,10 @@
       </c>
       <c r="O43" s="53"/>
       <c r="P43" s="53"/>
-      <c r="Q43" s="221"/>
+      <c r="Q43" s="224"/>
     </row>
     <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="221"/>
+      <c r="A44" s="224"/>
       <c r="B44" s="14"/>
       <c r="C44" s="45"/>
       <c r="D44" s="99">
@@ -7382,7 +8831,7 @@
       <c r="I44" s="53"/>
       <c r="J44" s="53"/>
       <c r="K44" s="53"/>
-      <c r="L44" s="221"/>
+      <c r="L44" s="224"/>
       <c r="M44" s="99">
         <v>8</v>
       </c>
@@ -7391,52 +8840,52 @@
       </c>
       <c r="O44" s="53"/>
       <c r="P44" s="53"/>
-      <c r="Q44" s="221"/>
+      <c r="Q44" s="224"/>
     </row>
     <row r="45" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="221"/>
-      <c r="B45" s="220"/>
-      <c r="C45" s="221"/>
-      <c r="D45" s="225"/>
-      <c r="E45" s="221"/>
-      <c r="F45" s="221"/>
-      <c r="G45" s="221"/>
+      <c r="A45" s="224"/>
+      <c r="B45" s="227"/>
+      <c r="C45" s="224"/>
+      <c r="D45" s="228"/>
+      <c r="E45" s="224"/>
+      <c r="F45" s="224"/>
+      <c r="G45" s="224"/>
       <c r="H45" s="56"/>
       <c r="I45" s="56"/>
       <c r="J45" s="56"/>
       <c r="K45" s="56"/>
-      <c r="L45" s="221"/>
-      <c r="M45" s="225"/>
-      <c r="N45" s="221"/>
-      <c r="O45" s="221"/>
-      <c r="P45" s="221"/>
-      <c r="Q45" s="221"/>
+      <c r="L45" s="224"/>
+      <c r="M45" s="228"/>
+      <c r="N45" s="224"/>
+      <c r="O45" s="224"/>
+      <c r="P45" s="224"/>
+      <c r="Q45" s="224"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="221"/>
-      <c r="B46" s="223"/>
-      <c r="C46" s="221"/>
-      <c r="D46" s="224" t="s">
+      <c r="A46" s="224"/>
+      <c r="B46" s="226"/>
+      <c r="C46" s="224"/>
+      <c r="D46" s="236" t="s">
         <v>258</v>
       </c>
-      <c r="E46" s="221"/>
-      <c r="F46" s="221"/>
-      <c r="G46" s="221"/>
+      <c r="E46" s="224"/>
+      <c r="F46" s="224"/>
+      <c r="G46" s="224"/>
       <c r="H46" s="106"/>
       <c r="I46" s="106"/>
       <c r="J46" s="106"/>
       <c r="K46" s="106"/>
-      <c r="L46" s="221"/>
-      <c r="M46" s="224" t="s">
+      <c r="L46" s="224"/>
+      <c r="M46" s="236" t="s">
         <v>262</v>
       </c>
-      <c r="N46" s="221"/>
-      <c r="O46" s="221"/>
-      <c r="P46" s="221"/>
-      <c r="Q46" s="221"/>
+      <c r="N46" s="224"/>
+      <c r="O46" s="224"/>
+      <c r="P46" s="224"/>
+      <c r="Q46" s="224"/>
     </row>
     <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="221"/>
+      <c r="A47" s="224"/>
       <c r="B47" s="14"/>
       <c r="C47" s="45"/>
       <c r="D47" s="108" t="s">
@@ -7453,7 +8902,7 @@
       <c r="I47" s="108"/>
       <c r="J47" s="108"/>
       <c r="K47" s="108"/>
-      <c r="L47" s="221"/>
+      <c r="L47" s="224"/>
       <c r="M47" s="108" t="s">
         <v>273</v>
       </c>
@@ -7462,10 +8911,10 @@
       </c>
       <c r="O47" s="108"/>
       <c r="P47" s="108"/>
-      <c r="Q47" s="221"/>
+      <c r="Q47" s="224"/>
     </row>
     <row r="48" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="221"/>
+      <c r="A48" s="224"/>
       <c r="B48" s="14"/>
       <c r="C48" s="45"/>
       <c r="D48" s="110">
@@ -7480,7 +8929,7 @@
       <c r="I48" s="113"/>
       <c r="J48" s="113"/>
       <c r="K48" s="113"/>
-      <c r="L48" s="221"/>
+      <c r="L48" s="224"/>
       <c r="M48" s="110">
         <v>1</v>
       </c>
@@ -7489,10 +8938,10 @@
       </c>
       <c r="O48" s="113"/>
       <c r="P48" s="113"/>
-      <c r="Q48" s="221"/>
+      <c r="Q48" s="224"/>
     </row>
     <row r="49" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="221"/>
+      <c r="A49" s="224"/>
       <c r="B49" s="14"/>
       <c r="C49" s="45"/>
       <c r="D49" s="110">
@@ -7508,7 +8957,7 @@
       <c r="I49" s="113"/>
       <c r="J49" s="113"/>
       <c r="K49" s="113"/>
-      <c r="L49" s="221"/>
+      <c r="L49" s="224"/>
       <c r="M49" s="110">
         <v>2</v>
       </c>
@@ -7517,10 +8966,10 @@
       </c>
       <c r="O49" s="113"/>
       <c r="P49" s="113"/>
-      <c r="Q49" s="221"/>
+      <c r="Q49" s="224"/>
     </row>
     <row r="50" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="221"/>
+      <c r="A50" s="224"/>
       <c r="B50" s="14"/>
       <c r="C50" s="45"/>
       <c r="D50" s="110">
@@ -7538,7 +8987,7 @@
       <c r="I50" s="113"/>
       <c r="J50" s="113"/>
       <c r="K50" s="113"/>
-      <c r="L50" s="221"/>
+      <c r="L50" s="224"/>
       <c r="M50" s="110">
         <v>3</v>
       </c>
@@ -7547,10 +8996,10 @@
       </c>
       <c r="O50" s="113"/>
       <c r="P50" s="113"/>
-      <c r="Q50" s="221"/>
+      <c r="Q50" s="224"/>
     </row>
     <row r="51" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="221"/>
+      <c r="A51" s="224"/>
       <c r="B51" s="14"/>
       <c r="C51" s="45"/>
       <c r="D51" s="110">
@@ -7566,7 +9015,7 @@
       <c r="I51" s="113"/>
       <c r="J51" s="113"/>
       <c r="K51" s="113"/>
-      <c r="L51" s="221"/>
+      <c r="L51" s="224"/>
       <c r="M51" s="110">
         <v>4</v>
       </c>
@@ -7575,10 +9024,10 @@
       </c>
       <c r="O51" s="113"/>
       <c r="P51" s="113"/>
-      <c r="Q51" s="221"/>
+      <c r="Q51" s="224"/>
     </row>
     <row r="52" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="221"/>
+      <c r="A52" s="224"/>
       <c r="B52" s="14"/>
       <c r="C52" s="45"/>
       <c r="D52" s="110">
@@ -7596,7 +9045,7 @@
       <c r="I52" s="113"/>
       <c r="J52" s="113"/>
       <c r="K52" s="113"/>
-      <c r="L52" s="221"/>
+      <c r="L52" s="224"/>
       <c r="M52" s="110">
         <v>5</v>
       </c>
@@ -7605,10 +9054,10 @@
       </c>
       <c r="O52" s="113"/>
       <c r="P52" s="113"/>
-      <c r="Q52" s="221"/>
+      <c r="Q52" s="224"/>
     </row>
     <row r="53" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="221"/>
+      <c r="A53" s="224"/>
       <c r="B53" s="14"/>
       <c r="C53" s="45"/>
       <c r="D53" s="110">
@@ -7624,7 +9073,7 @@
       <c r="I53" s="113"/>
       <c r="J53" s="113"/>
       <c r="K53" s="113"/>
-      <c r="L53" s="221"/>
+      <c r="L53" s="224"/>
       <c r="M53" s="110">
         <v>6</v>
       </c>
@@ -7633,10 +9082,10 @@
       </c>
       <c r="O53" s="113"/>
       <c r="P53" s="113"/>
-      <c r="Q53" s="221"/>
+      <c r="Q53" s="224"/>
     </row>
     <row r="54" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="221"/>
+      <c r="A54" s="224"/>
       <c r="B54" s="14"/>
       <c r="C54" s="45"/>
       <c r="D54" s="110">
@@ -7654,7 +9103,7 @@
       <c r="I54" s="113"/>
       <c r="J54" s="113"/>
       <c r="K54" s="113"/>
-      <c r="L54" s="221"/>
+      <c r="L54" s="224"/>
       <c r="M54" s="110">
         <v>7</v>
       </c>
@@ -7663,10 +9112,10 @@
       </c>
       <c r="O54" s="113"/>
       <c r="P54" s="113"/>
-      <c r="Q54" s="221"/>
+      <c r="Q54" s="224"/>
     </row>
     <row r="55" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="221"/>
+      <c r="A55" s="224"/>
       <c r="B55" s="14"/>
       <c r="C55" s="45"/>
       <c r="D55" s="110">
@@ -7684,7 +9133,7 @@
       <c r="I55" s="113"/>
       <c r="J55" s="113"/>
       <c r="K55" s="113"/>
-      <c r="L55" s="221"/>
+      <c r="L55" s="224"/>
       <c r="M55" s="110">
         <v>8</v>
       </c>
@@ -7693,46 +9142,34 @@
       </c>
       <c r="O55" s="113"/>
       <c r="P55" s="113"/>
-      <c r="Q55" s="221"/>
+      <c r="Q55" s="224"/>
     </row>
     <row r="56" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="221"/>
+      <c r="A56" s="224"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="222"/>
-      <c r="E56" s="221"/>
-      <c r="F56" s="221"/>
-      <c r="G56" s="221"/>
-      <c r="H56" s="221"/>
-      <c r="I56" s="221"/>
-      <c r="J56" s="221"/>
-      <c r="K56" s="221"/>
-      <c r="L56" s="221"/>
-      <c r="M56" s="221"/>
-      <c r="N56" s="221"/>
-      <c r="O56" s="221"/>
-      <c r="P56" s="221"/>
-      <c r="Q56" s="221"/>
+      <c r="D56" s="235"/>
+      <c r="E56" s="224"/>
+      <c r="F56" s="224"/>
+      <c r="G56" s="224"/>
+      <c r="H56" s="224"/>
+      <c r="I56" s="224"/>
+      <c r="J56" s="224"/>
+      <c r="K56" s="224"/>
+      <c r="L56" s="224"/>
+      <c r="M56" s="224"/>
+      <c r="N56" s="224"/>
+      <c r="O56" s="224"/>
+      <c r="P56" s="224"/>
+      <c r="Q56" s="224"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D56:P56"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D45:G45"/>
     <mergeCell ref="M34:P34"/>
     <mergeCell ref="L2:L55"/>
     <mergeCell ref="M35:P35"/>
@@ -7749,11 +9186,23 @@
     <mergeCell ref="D35:G35"/>
     <mergeCell ref="M12:P12"/>
     <mergeCell ref="M13:P13"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D56:P56"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7999,94 +9448,99 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="236" t="s">
+      <c r="A26" s="241" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="221"/>
-      <c r="C26" s="221"/>
+      <c r="B26" s="224"/>
+      <c r="C26" s="224"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="234"/>
-      <c r="B27" s="221"/>
+      <c r="A27" s="240"/>
+      <c r="B27" s="224"/>
       <c r="C27" s="50"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="234"/>
-      <c r="B28" s="221"/>
+      <c r="A28" s="240"/>
+      <c r="B28" s="224"/>
       <c r="C28" s="51"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="234"/>
-      <c r="B29" s="221"/>
+      <c r="A29" s="240"/>
+      <c r="B29" s="224"/>
       <c r="C29" s="121"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="234"/>
-      <c r="B30" s="221"/>
+      <c r="A30" s="240"/>
+      <c r="B30" s="224"/>
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="234"/>
-      <c r="B31" s="221"/>
+      <c r="A31" s="240"/>
+      <c r="B31" s="224"/>
       <c r="C31" s="53"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="237"/>
-      <c r="B32" s="221"/>
+      <c r="A32" s="238"/>
+      <c r="B32" s="224"/>
       <c r="C32" s="121"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="235"/>
-      <c r="B33" s="221"/>
+      <c r="A33" s="237"/>
+      <c r="B33" s="224"/>
       <c r="C33" s="53"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="235"/>
-      <c r="B34" s="221"/>
+      <c r="A34" s="237"/>
+      <c r="B34" s="224"/>
       <c r="C34" s="53"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="235"/>
-      <c r="B35" s="221"/>
+      <c r="A35" s="237"/>
+      <c r="B35" s="224"/>
       <c r="C35" s="53"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="235"/>
-      <c r="B36" s="221"/>
+      <c r="A36" s="237"/>
+      <c r="B36" s="224"/>
       <c r="C36" s="53"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="235"/>
-      <c r="B37" s="221"/>
+      <c r="A37" s="237"/>
+      <c r="B37" s="224"/>
       <c r="C37" s="53"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="235"/>
-      <c r="B38" s="221"/>
+      <c r="A38" s="237"/>
+      <c r="B38" s="224"/>
       <c r="C38" s="53"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="235"/>
-      <c r="B39" s="221"/>
+      <c r="A39" s="237"/>
+      <c r="B39" s="224"/>
       <c r="C39" s="53"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="235"/>
-      <c r="B40" s="221"/>
+      <c r="A40" s="237"/>
+      <c r="B40" s="224"/>
       <c r="C40" s="53"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="235"/>
-      <c r="B41" s="221"/>
+      <c r="A41" s="237"/>
+      <c r="B41" s="224"/>
       <c r="C41" s="53"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="235"/>
-      <c r="B42" s="221"/>
+      <c r="A42" s="237"/>
+      <c r="B42" s="224"/>
       <c r="C42" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:B27"/>
@@ -8099,11 +9553,6 @@
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8292,14 +9741,14 @@
       <c r="A3" s="269" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="221"/>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
+      <c r="B3" s="224"/>
+      <c r="C3" s="224"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="224"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -8327,20 +9776,20 @@
       <c r="P4" s="19"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="233" t="s">
+      <c r="A5" s="231" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="221"/>
-      <c r="C5" s="221"/>
-      <c r="D5" s="221"/>
-      <c r="E5" s="221"/>
-      <c r="F5" s="221"/>
-      <c r="G5" s="221"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="221"/>
-      <c r="J5" s="221"/>
-      <c r="K5" s="221"/>
-      <c r="L5" s="221"/>
+      <c r="B5" s="224"/>
+      <c r="C5" s="224"/>
+      <c r="D5" s="224"/>
+      <c r="E5" s="224"/>
+      <c r="F5" s="224"/>
+      <c r="G5" s="224"/>
+      <c r="H5" s="224"/>
+      <c r="I5" s="224"/>
+      <c r="J5" s="224"/>
+      <c r="K5" s="224"/>
+      <c r="L5" s="224"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -8362,7 +9811,7 @@
       <c r="K6" s="268" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="221"/>
+      <c r="L6" s="224"/>
       <c r="M6" s="23"/>
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
@@ -8729,20 +10178,20 @@
       <c r="P13" s="10"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="233" t="s">
+      <c r="A15" s="231" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="221"/>
-      <c r="C15" s="221"/>
-      <c r="D15" s="221"/>
-      <c r="E15" s="221"/>
-      <c r="F15" s="221"/>
-      <c r="G15" s="221"/>
-      <c r="H15" s="221"/>
-      <c r="I15" s="221"/>
-      <c r="J15" s="221"/>
-      <c r="K15" s="221"/>
-      <c r="L15" s="221"/>
+      <c r="B15" s="224"/>
+      <c r="C15" s="224"/>
+      <c r="D15" s="224"/>
+      <c r="E15" s="224"/>
+      <c r="F15" s="224"/>
+      <c r="G15" s="224"/>
+      <c r="H15" s="224"/>
+      <c r="I15" s="224"/>
+      <c r="J15" s="224"/>
+      <c r="K15" s="224"/>
+      <c r="L15" s="224"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
@@ -8776,7 +10225,7 @@
       <c r="K16" s="268" t="s">
         <v>120</v>
       </c>
-      <c r="L16" s="221"/>
+      <c r="L16" s="224"/>
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
@@ -8791,9 +10240,9 @@
       <c r="X16" s="43"/>
       <c r="Y16" s="43"/>
       <c r="Z16" s="270"/>
-      <c r="AA16" s="221"/>
+      <c r="AA16" s="224"/>
       <c r="AB16" s="270"/>
-      <c r="AC16" s="221"/>
+      <c r="AC16" s="224"/>
       <c r="AD16" s="57"/>
     </row>
     <row r="17" spans="1:28" ht="15" x14ac:dyDescent="0.25">
@@ -9621,18 +11070,18 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="233" t="s">
+      <c r="B1" s="231" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="221"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221"/>
+      <c r="C1" s="224"/>
+      <c r="D1" s="224"/>
+      <c r="E1" s="224"/>
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="224"/>
+      <c r="K1" s="224"/>
       <c r="L1" s="12"/>
       <c r="M1" s="117"/>
       <c r="N1" s="117"/>
@@ -10031,11 +11480,11 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="236" t="s">
+      <c r="A9" s="241" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="221"/>
-      <c r="C9" s="221"/>
+      <c r="B9" s="224"/>
+      <c r="C9" s="224"/>
       <c r="M9" s="140" t="s">
         <v>293</v>
       </c>
@@ -10045,10 +11494,10 @@
       <c r="O9" s="140"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="234" t="s">
+      <c r="A10" s="240" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="221"/>
+      <c r="B10" s="224"/>
       <c r="C10" s="50">
         <f>C4*14/5100</f>
         <v>1.6016000000000001</v>
@@ -10060,20 +11509,20 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="234" t="s">
+      <c r="A11" s="240" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="221"/>
+      <c r="B11" s="224"/>
       <c r="C11" s="51">
         <v>1</v>
       </c>
       <c r="D11" s="51"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="234" t="s">
+      <c r="A12" s="240" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="221"/>
+      <c r="B12" s="224"/>
       <c r="C12" s="121">
         <v>1.55</v>
       </c>
@@ -10085,10 +11534,10 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="234" t="s">
+      <c r="A13" s="240" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="221"/>
+      <c r="B13" s="224"/>
       <c r="C13" s="53">
         <v>0.8</v>
       </c>
@@ -10104,10 +11553,10 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="234" t="s">
+      <c r="A14" s="240" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="221"/>
+      <c r="B14" s="224"/>
       <c r="C14" s="53">
         <v>10</v>
       </c>
@@ -10122,10 +11571,10 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="237" t="s">
+      <c r="A15" s="238" t="s">
         <v>311</v>
       </c>
-      <c r="B15" s="221"/>
+      <c r="B15" s="224"/>
       <c r="C15" s="121">
         <v>1.3</v>
       </c>
@@ -10144,10 +11593,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="238" t="s">
+      <c r="A16" s="239" t="s">
         <v>312</v>
       </c>
-      <c r="B16" s="221"/>
+      <c r="B16" s="224"/>
       <c r="C16" s="138">
         <v>1.1000000000000001</v>
       </c>
@@ -10163,10 +11612,10 @@
       <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="238" t="s">
+      <c r="A17" s="239" t="s">
         <v>310</v>
       </c>
-      <c r="B17" s="221"/>
+      <c r="B17" s="224"/>
       <c r="C17" s="138">
         <v>1</v>
       </c>
@@ -10182,8 +11631,8 @@
       <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="235"/>
-      <c r="B18" s="221"/>
+      <c r="A18" s="237"/>
+      <c r="B18" s="224"/>
       <c r="C18" s="53"/>
       <c r="D18" s="53"/>
       <c r="E18" s="10">
@@ -10197,8 +11646,8 @@
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="235"/>
-      <c r="B19" s="221"/>
+      <c r="A19" s="237"/>
+      <c r="B19" s="224"/>
       <c r="C19" s="53"/>
       <c r="D19" s="53"/>
     </row>
@@ -10288,11 +11737,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A10:B10"/>
@@ -10300,6 +11744,11 @@
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10328,13 +11777,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="D1" s="239" t="s">
+      <c r="D1" s="242" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="D2" s="130" t="s">
@@ -10418,7 +11867,7 @@
         <v>12074424.489795923</v>
       </c>
       <c r="H5" s="137">
-        <f t="shared" ref="H5:H7" si="2">E5/E$3</f>
+        <f t="shared" ref="H5:H6" si="2">E5/E$3</f>
         <v>7.6420408163265323</v>
       </c>
       <c r="I5" s="119" t="s">
@@ -10658,96 +12107,101 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="236" t="s">
+      <c r="A26" s="241" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="221"/>
-      <c r="C26" s="221"/>
+      <c r="B26" s="224"/>
+      <c r="C26" s="224"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="237" t="s">
+      <c r="A27" s="238" t="s">
         <v>302</v>
       </c>
-      <c r="B27" s="221"/>
+      <c r="B27" s="224"/>
       <c r="C27" s="129">
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="237"/>
-      <c r="B28" s="221"/>
+      <c r="A28" s="238"/>
+      <c r="B28" s="224"/>
       <c r="C28" s="139"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="237" t="s">
+      <c r="A29" s="238" t="s">
         <v>303</v>
       </c>
-      <c r="B29" s="221"/>
+      <c r="B29" s="224"/>
       <c r="C29" s="121">
         <v>0.79</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="237" t="s">
+      <c r="A30" s="238" t="s">
         <v>299</v>
       </c>
-      <c r="B30" s="237"/>
+      <c r="B30" s="238"/>
       <c r="C30" s="138">
         <f>C29*C$34</f>
         <v>1.1850000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="237" t="s">
+      <c r="A31" s="238" t="s">
         <v>298</v>
       </c>
-      <c r="B31" s="237"/>
+      <c r="B31" s="238"/>
       <c r="C31" s="138">
         <f t="shared" ref="C31:C33" si="4">C30*C$34</f>
         <v>1.7775000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="237" t="s">
+      <c r="A32" s="238" t="s">
         <v>300</v>
       </c>
-      <c r="B32" s="237"/>
+      <c r="B32" s="238"/>
       <c r="C32" s="138">
         <f t="shared" si="4"/>
         <v>2.6662500000000002</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="238" t="s">
+      <c r="A33" s="239" t="s">
         <v>301</v>
       </c>
-      <c r="B33" s="235"/>
+      <c r="B33" s="237"/>
       <c r="C33" s="138">
         <f t="shared" si="4"/>
         <v>3.9993750000000006</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="238" t="s">
+      <c r="A34" s="239" t="s">
         <v>304</v>
       </c>
-      <c r="B34" s="221"/>
+      <c r="B34" s="224"/>
       <c r="C34" s="53">
         <v>1.5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="235"/>
-      <c r="B35" s="221"/>
+      <c r="A35" s="237"/>
+      <c r="B35" s="224"/>
       <c r="C35" s="53"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="235"/>
-      <c r="B36" s="221"/>
+      <c r="A36" s="237"/>
+      <c r="B36" s="224"/>
       <c r="C36" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="D1:H1"/>
@@ -10755,11 +12209,6 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10769,7 +12218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AG3" sqref="AG3:AI3"/>
     </sheetView>
   </sheetViews>
@@ -10778,14 +12227,14 @@
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="1.7109375" customWidth="1"/>
-    <col min="4" max="4" width="1.7109375" style="219" customWidth="1"/>
+    <col min="4" max="4" width="1.7109375" style="215" customWidth="1"/>
     <col min="5" max="5" width="1.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.28515625" customWidth="1"/>
     <col min="10" max="10" width="4.28515625" customWidth="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1"/>
     <col min="17" max="19" width="1.7109375" customWidth="1"/>
     <col min="21" max="21" width="4.28515625" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="219" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="215" customWidth="1"/>
     <col min="23" max="23" width="9.140625" customWidth="1"/>
     <col min="24" max="24" width="4.28515625" customWidth="1"/>
     <col min="25" max="25" width="9.140625" customWidth="1"/>
@@ -10811,22 +12260,22 @@
       <c r="A3" s="144" t="s">
         <v>333</v>
       </c>
-      <c r="E3" s="240" t="s">
-        <v>419</v>
-      </c>
-      <c r="F3" s="241"/>
-      <c r="G3" s="242"/>
-      <c r="H3" s="218"/>
-      <c r="S3" s="240" t="s">
-        <v>443</v>
-      </c>
-      <c r="T3" s="243"/>
-      <c r="U3" s="244"/>
-      <c r="AG3" s="240" t="s">
-        <v>420</v>
-      </c>
-      <c r="AH3" s="243"/>
-      <c r="AI3" s="244"/>
+      <c r="E3" s="243" t="s">
+        <v>416</v>
+      </c>
+      <c r="F3" s="244"/>
+      <c r="G3" s="245"/>
+      <c r="H3" s="214"/>
+      <c r="S3" s="243" t="s">
+        <v>418</v>
+      </c>
+      <c r="T3" s="246"/>
+      <c r="U3" s="247"/>
+      <c r="AG3" s="243" t="s">
+        <v>417</v>
+      </c>
+      <c r="AH3" s="246"/>
+      <c r="AI3" s="247"/>
     </row>
     <row r="6" spans="1:79" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="147" t="s">
@@ -10834,7 +12283,7 @@
       </c>
       <c r="B6" s="146"/>
       <c r="C6" s="147" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="D6" s="147"/>
       <c r="E6" s="146"/>
@@ -10848,17 +12297,17 @@
       </c>
       <c r="J6" s="146"/>
       <c r="K6" s="174" t="s">
-        <v>452</v>
-      </c>
-      <c r="L6" s="271"/>
+        <v>427</v>
+      </c>
+      <c r="L6" s="217"/>
       <c r="M6" s="195"/>
-      <c r="N6" s="271"/>
+      <c r="N6" s="217"/>
       <c r="O6" s="147" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="P6" s="146"/>
       <c r="Q6" s="147" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="R6" s="147"/>
       <c r="S6" s="146"/>
@@ -10872,17 +12321,17 @@
       </c>
       <c r="X6" s="146"/>
       <c r="Y6" s="174" t="s">
-        <v>452</v>
-      </c>
-      <c r="Z6" s="271"/>
+        <v>427</v>
+      </c>
+      <c r="Z6" s="217"/>
       <c r="AA6" s="195"/>
-      <c r="AB6" s="271"/>
+      <c r="AB6" s="217"/>
       <c r="AC6" s="147" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="AD6" s="146"/>
       <c r="AE6" s="147" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="AF6" s="147"/>
       <c r="AG6" s="146"/>
@@ -10896,31 +12345,31 @@
       </c>
       <c r="AL6" s="146"/>
       <c r="AM6" s="174" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="AN6" s="195"/>
       <c r="AO6" s="194"/>
       <c r="AP6" s="195"/>
-      <c r="AQ6" s="271"/>
-      <c r="AR6" s="271"/>
+      <c r="AQ6" s="217"/>
+      <c r="AR6" s="217"/>
       <c r="AS6" s="195"/>
-      <c r="AT6" s="271"/>
-      <c r="AU6" s="271"/>
+      <c r="AT6" s="217"/>
+      <c r="AU6" s="217"/>
       <c r="AV6" s="195"/>
-      <c r="AW6" s="271"/>
-      <c r="AX6" s="271"/>
-      <c r="BA6" s="273"/>
-      <c r="BB6" s="273"/>
-      <c r="BC6" s="218"/>
-      <c r="BD6" s="218"/>
-      <c r="BE6" s="218"/>
-      <c r="BF6" s="218"/>
-      <c r="BG6" s="218"/>
-      <c r="BH6" s="218"/>
-      <c r="BI6" s="218"/>
-      <c r="BJ6" s="218"/>
-      <c r="BK6" s="218"/>
-      <c r="BL6" s="218"/>
+      <c r="AW6" s="217"/>
+      <c r="AX6" s="217"/>
+      <c r="BA6" s="219"/>
+      <c r="BB6" s="219"/>
+      <c r="BC6" s="214"/>
+      <c r="BD6" s="214"/>
+      <c r="BE6" s="214"/>
+      <c r="BF6" s="214"/>
+      <c r="BG6" s="214"/>
+      <c r="BH6" s="214"/>
+      <c r="BI6" s="214"/>
+      <c r="BJ6" s="214"/>
+      <c r="BK6" s="214"/>
+      <c r="BL6" s="214"/>
       <c r="BM6" s="195"/>
       <c r="BN6" s="195"/>
       <c r="BO6" s="195"/>
@@ -10955,7 +12404,7 @@
       </c>
       <c r="J7" s="153"/>
       <c r="K7" s="174"/>
-      <c r="L7" s="271"/>
+      <c r="L7" s="217"/>
       <c r="M7" s="195"/>
       <c r="N7" s="213"/>
       <c r="O7" s="146"/>
@@ -10975,7 +12424,7 @@
       </c>
       <c r="X7" s="153"/>
       <c r="Y7" s="174"/>
-      <c r="Z7" s="271"/>
+      <c r="Z7" s="217"/>
       <c r="AA7" s="195"/>
       <c r="AB7" s="213"/>
       <c r="AC7" s="146"/>
@@ -10995,31 +12444,31 @@
       </c>
       <c r="AL7" s="153"/>
       <c r="AM7" s="174" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="AN7" s="195"/>
       <c r="AO7" s="195"/>
       <c r="AP7" s="195"/>
-      <c r="AQ7" s="271"/>
+      <c r="AQ7" s="217"/>
       <c r="AR7" s="213"/>
       <c r="AS7" s="195"/>
-      <c r="AT7" s="271"/>
-      <c r="AU7" s="271"/>
+      <c r="AT7" s="217"/>
+      <c r="AU7" s="217"/>
       <c r="AV7" s="195"/>
       <c r="AW7" s="213"/>
       <c r="AX7" s="213"/>
-      <c r="BA7" s="273"/>
-      <c r="BB7" s="273"/>
-      <c r="BC7" s="218"/>
-      <c r="BD7" s="218"/>
-      <c r="BE7" s="218"/>
-      <c r="BF7" s="218"/>
-      <c r="BG7" s="218"/>
-      <c r="BH7" s="218"/>
-      <c r="BI7" s="218"/>
-      <c r="BJ7" s="218"/>
-      <c r="BK7" s="218"/>
-      <c r="BL7" s="218"/>
+      <c r="BA7" s="219"/>
+      <c r="BB7" s="219"/>
+      <c r="BC7" s="214"/>
+      <c r="BD7" s="214"/>
+      <c r="BE7" s="214"/>
+      <c r="BF7" s="214"/>
+      <c r="BG7" s="214"/>
+      <c r="BH7" s="214"/>
+      <c r="BI7" s="214"/>
+      <c r="BJ7" s="214"/>
+      <c r="BK7" s="214"/>
+      <c r="BL7" s="214"/>
       <c r="BM7" s="195"/>
       <c r="BN7" s="195"/>
       <c r="BO7" s="195"/>
@@ -11038,14 +12487,14 @@
     </row>
     <row r="8" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A8" s="148" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="B8" s="153"/>
       <c r="C8" s="148">
         <v>2</v>
       </c>
       <c r="D8" s="148" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="E8" s="149">
         <v>2</v>
@@ -11071,14 +12520,14 @@
       <c r="M8" s="195"/>
       <c r="N8" s="195"/>
       <c r="O8" s="148" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="P8" s="153"/>
       <c r="Q8" s="148">
         <v>3</v>
       </c>
       <c r="R8" s="148" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="S8" s="149">
         <v>3</v>
@@ -11103,14 +12552,14 @@
       <c r="AA8" s="195"/>
       <c r="AB8" s="195"/>
       <c r="AC8" s="148" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="AD8" s="153"/>
       <c r="AE8" s="148">
         <v>4</v>
       </c>
       <c r="AF8" s="148" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="AG8" s="149">
         <v>4</v>
@@ -11143,18 +12592,18 @@
       <c r="AV8" s="195"/>
       <c r="AW8" s="195"/>
       <c r="AX8" s="195"/>
-      <c r="BA8" s="218"/>
-      <c r="BB8" s="218"/>
-      <c r="BC8" s="218"/>
-      <c r="BD8" s="218"/>
-      <c r="BE8" s="218"/>
-      <c r="BF8" s="218"/>
-      <c r="BG8" s="218"/>
-      <c r="BH8" s="218"/>
-      <c r="BI8" s="218"/>
-      <c r="BJ8" s="218"/>
-      <c r="BK8" s="218"/>
-      <c r="BL8" s="218"/>
+      <c r="BA8" s="214"/>
+      <c r="BB8" s="214"/>
+      <c r="BC8" s="214"/>
+      <c r="BD8" s="214"/>
+      <c r="BE8" s="214"/>
+      <c r="BF8" s="214"/>
+      <c r="BG8" s="214"/>
+      <c r="BH8" s="214"/>
+      <c r="BI8" s="214"/>
+      <c r="BJ8" s="214"/>
+      <c r="BK8" s="214"/>
+      <c r="BL8" s="214"/>
       <c r="BM8" s="195"/>
       <c r="BN8" s="195"/>
       <c r="BO8" s="195"/>
@@ -11212,18 +12661,18 @@
       <c r="AV9" s="195"/>
       <c r="AW9" s="195"/>
       <c r="AX9" s="195"/>
-      <c r="BA9" s="218"/>
-      <c r="BB9" s="218"/>
-      <c r="BC9" s="218"/>
-      <c r="BD9" s="218"/>
-      <c r="BE9" s="218"/>
-      <c r="BF9" s="218"/>
-      <c r="BG9" s="274"/>
-      <c r="BH9" s="274"/>
-      <c r="BI9" s="274"/>
-      <c r="BJ9" s="272"/>
-      <c r="BK9" s="272"/>
-      <c r="BL9" s="218"/>
+      <c r="BA9" s="214"/>
+      <c r="BB9" s="214"/>
+      <c r="BC9" s="214"/>
+      <c r="BD9" s="214"/>
+      <c r="BE9" s="214"/>
+      <c r="BF9" s="214"/>
+      <c r="BG9" s="220"/>
+      <c r="BH9" s="220"/>
+      <c r="BI9" s="220"/>
+      <c r="BJ9" s="218"/>
+      <c r="BK9" s="218"/>
+      <c r="BL9" s="214"/>
       <c r="BM9" s="195"/>
       <c r="BN9" s="195"/>
       <c r="BO9" s="195"/>
@@ -11231,14 +12680,14 @@
     </row>
     <row r="10" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A10" s="148" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="B10" s="153"/>
       <c r="C10" s="148">
         <v>2</v>
       </c>
       <c r="D10" s="148" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="E10" s="149">
         <v>2</v>
@@ -11264,14 +12713,14 @@
       <c r="M10" s="195"/>
       <c r="N10" s="195"/>
       <c r="O10" s="148" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="P10" s="153"/>
       <c r="Q10" s="149">
         <v>3</v>
       </c>
       <c r="R10" s="148" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="S10" s="149">
         <v>3</v>
@@ -11296,14 +12745,14 @@
       <c r="AA10" s="195"/>
       <c r="AB10" s="195"/>
       <c r="AC10" s="148" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="AD10" s="153"/>
       <c r="AE10" s="149">
         <v>4</v>
       </c>
       <c r="AF10" s="148" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="AG10" s="149">
         <v>4</v>
@@ -11336,22 +12785,22 @@
       <c r="AV10" s="195"/>
       <c r="AW10" s="195"/>
       <c r="AX10" s="195"/>
-      <c r="BA10" s="218"/>
-      <c r="BB10" s="218"/>
-      <c r="BC10" s="218"/>
-      <c r="BD10" s="218"/>
-      <c r="BE10" s="218"/>
-      <c r="BF10" s="218"/>
-      <c r="BG10" s="218"/>
-      <c r="BH10" s="218"/>
-      <c r="BI10" s="275"/>
-      <c r="BJ10" s="218"/>
-      <c r="BK10" s="218"/>
-      <c r="BL10" s="218"/>
-      <c r="BM10" s="271"/>
+      <c r="BA10" s="214"/>
+      <c r="BB10" s="214"/>
+      <c r="BC10" s="214"/>
+      <c r="BD10" s="214"/>
+      <c r="BE10" s="214"/>
+      <c r="BF10" s="214"/>
+      <c r="BG10" s="214"/>
+      <c r="BH10" s="214"/>
+      <c r="BI10" s="221"/>
+      <c r="BJ10" s="214"/>
+      <c r="BK10" s="214"/>
+      <c r="BL10" s="214"/>
+      <c r="BM10" s="217"/>
       <c r="BN10" s="195"/>
-      <c r="BO10" s="271"/>
-      <c r="BP10" s="271"/>
+      <c r="BO10" s="217"/>
+      <c r="BP10" s="217"/>
     </row>
     <row r="11" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A11" s="149"/>
@@ -11404,33 +12853,33 @@
       <c r="AV11" s="195"/>
       <c r="AW11" s="195"/>
       <c r="AX11" s="195"/>
-      <c r="BA11" s="218"/>
-      <c r="BB11" s="218"/>
-      <c r="BC11" s="218"/>
-      <c r="BD11" s="218"/>
-      <c r="BE11" s="218"/>
-      <c r="BF11" s="218"/>
-      <c r="BG11" s="275"/>
-      <c r="BH11" s="218"/>
-      <c r="BI11" s="218"/>
-      <c r="BJ11" s="218"/>
-      <c r="BK11" s="218"/>
-      <c r="BL11" s="218"/>
-      <c r="BM11" s="271"/>
+      <c r="BA11" s="214"/>
+      <c r="BB11" s="214"/>
+      <c r="BC11" s="214"/>
+      <c r="BD11" s="214"/>
+      <c r="BE11" s="214"/>
+      <c r="BF11" s="214"/>
+      <c r="BG11" s="221"/>
+      <c r="BH11" s="214"/>
+      <c r="BI11" s="214"/>
+      <c r="BJ11" s="214"/>
+      <c r="BK11" s="214"/>
+      <c r="BL11" s="214"/>
+      <c r="BM11" s="217"/>
       <c r="BN11" s="195"/>
       <c r="BO11" s="213"/>
       <c r="BP11" s="213"/>
     </row>
     <row r="12" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A12" s="148" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="B12" s="153"/>
       <c r="C12" s="149">
         <v>2</v>
       </c>
       <c r="D12" s="148" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="E12" s="149">
         <v>2</v>
@@ -11456,14 +12905,14 @@
       <c r="M12" s="195"/>
       <c r="N12" s="195"/>
       <c r="O12" s="148" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="P12" s="153"/>
       <c r="Q12" s="149">
         <v>3</v>
       </c>
       <c r="R12" s="148" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="S12" s="149">
         <v>3</v>
@@ -11488,14 +12937,14 @@
       <c r="AA12" s="195"/>
       <c r="AB12" s="195"/>
       <c r="AC12" s="148" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="AD12" s="153"/>
       <c r="AE12" s="149">
         <v>4</v>
       </c>
       <c r="AF12" s="148" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="AG12" s="149">
         <v>4</v>
@@ -11528,18 +12977,18 @@
       <c r="AV12" s="195"/>
       <c r="AW12" s="195"/>
       <c r="AX12" s="195"/>
-      <c r="BA12" s="218"/>
-      <c r="BB12" s="218"/>
-      <c r="BC12" s="218"/>
-      <c r="BD12" s="218"/>
-      <c r="BE12" s="218"/>
-      <c r="BF12" s="218"/>
-      <c r="BG12" s="275"/>
-      <c r="BH12" s="218"/>
-      <c r="BI12" s="218"/>
-      <c r="BJ12" s="218"/>
-      <c r="BK12" s="275"/>
-      <c r="BL12" s="218"/>
+      <c r="BA12" s="214"/>
+      <c r="BB12" s="214"/>
+      <c r="BC12" s="214"/>
+      <c r="BD12" s="214"/>
+      <c r="BE12" s="214"/>
+      <c r="BF12" s="214"/>
+      <c r="BG12" s="221"/>
+      <c r="BH12" s="214"/>
+      <c r="BI12" s="214"/>
+      <c r="BJ12" s="214"/>
+      <c r="BK12" s="221"/>
+      <c r="BL12" s="214"/>
       <c r="BM12" s="195"/>
       <c r="BN12" s="195"/>
       <c r="BO12" s="195"/>
@@ -11596,18 +13045,18 @@
       <c r="AV13" s="195"/>
       <c r="AW13" s="195"/>
       <c r="AX13" s="195"/>
-      <c r="BA13" s="218"/>
-      <c r="BB13" s="218"/>
-      <c r="BC13" s="218"/>
-      <c r="BD13" s="218"/>
-      <c r="BE13" s="218"/>
-      <c r="BF13" s="218"/>
-      <c r="BG13" s="275"/>
-      <c r="BH13" s="218"/>
-      <c r="BI13" s="218"/>
-      <c r="BJ13" s="218"/>
-      <c r="BK13" s="275"/>
-      <c r="BL13" s="218"/>
+      <c r="BA13" s="214"/>
+      <c r="BB13" s="214"/>
+      <c r="BC13" s="214"/>
+      <c r="BD13" s="214"/>
+      <c r="BE13" s="214"/>
+      <c r="BF13" s="214"/>
+      <c r="BG13" s="221"/>
+      <c r="BH13" s="214"/>
+      <c r="BI13" s="214"/>
+      <c r="BJ13" s="214"/>
+      <c r="BK13" s="221"/>
+      <c r="BL13" s="214"/>
       <c r="BM13" s="195"/>
       <c r="BN13" s="195"/>
       <c r="BO13" s="195"/>
@@ -11615,14 +13064,14 @@
     </row>
     <row r="14" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A14" s="148" t="s">
-        <v>448</v>
+        <v>423</v>
       </c>
       <c r="B14" s="153"/>
       <c r="C14" s="149">
         <v>2</v>
       </c>
       <c r="D14" s="148" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="E14" s="149">
         <v>2</v>
@@ -11648,14 +13097,14 @@
       <c r="M14" s="195"/>
       <c r="N14" s="195"/>
       <c r="O14" s="148" t="s">
-        <v>448</v>
+        <v>423</v>
       </c>
       <c r="P14" s="153"/>
       <c r="Q14" s="149">
         <v>3</v>
       </c>
       <c r="R14" s="148" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="S14" s="149">
         <v>3</v>
@@ -11680,14 +13129,14 @@
       <c r="AA14" s="195"/>
       <c r="AB14" s="195"/>
       <c r="AC14" s="148" t="s">
-        <v>448</v>
+        <v>423</v>
       </c>
       <c r="AD14" s="153"/>
       <c r="AE14" s="149">
         <v>4</v>
       </c>
       <c r="AF14" s="148" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="AG14" s="149">
         <v>4</v>
@@ -11720,18 +13169,18 @@
       <c r="AV14" s="195"/>
       <c r="AW14" s="195"/>
       <c r="AX14" s="195"/>
-      <c r="BA14" s="218"/>
-      <c r="BB14" s="218"/>
-      <c r="BC14" s="218"/>
-      <c r="BD14" s="218"/>
-      <c r="BE14" s="218"/>
-      <c r="BF14" s="218"/>
-      <c r="BG14" s="218"/>
-      <c r="BH14" s="218"/>
-      <c r="BI14" s="218"/>
-      <c r="BJ14" s="218"/>
-      <c r="BK14" s="218"/>
-      <c r="BL14" s="218"/>
+      <c r="BA14" s="214"/>
+      <c r="BB14" s="214"/>
+      <c r="BC14" s="214"/>
+      <c r="BD14" s="214"/>
+      <c r="BE14" s="214"/>
+      <c r="BF14" s="214"/>
+      <c r="BG14" s="214"/>
+      <c r="BH14" s="214"/>
+      <c r="BI14" s="214"/>
+      <c r="BJ14" s="214"/>
+      <c r="BK14" s="214"/>
+      <c r="BL14" s="214"/>
       <c r="BM14" s="195"/>
       <c r="BN14" s="195"/>
       <c r="BO14" s="195"/>
@@ -11788,18 +13237,18 @@
       <c r="AV15" s="195"/>
       <c r="AW15" s="195"/>
       <c r="AX15" s="195"/>
-      <c r="BA15" s="218"/>
-      <c r="BB15" s="218"/>
-      <c r="BC15" s="218"/>
-      <c r="BD15" s="218"/>
-      <c r="BE15" s="218"/>
-      <c r="BF15" s="218"/>
-      <c r="BG15" s="218"/>
-      <c r="BH15" s="218"/>
-      <c r="BI15" s="218"/>
-      <c r="BJ15" s="218"/>
-      <c r="BK15" s="218"/>
-      <c r="BL15" s="218"/>
+      <c r="BA15" s="214"/>
+      <c r="BB15" s="214"/>
+      <c r="BC15" s="214"/>
+      <c r="BD15" s="214"/>
+      <c r="BE15" s="214"/>
+      <c r="BF15" s="214"/>
+      <c r="BG15" s="214"/>
+      <c r="BH15" s="214"/>
+      <c r="BI15" s="214"/>
+      <c r="BJ15" s="214"/>
+      <c r="BK15" s="214"/>
+      <c r="BL15" s="214"/>
       <c r="BM15" s="195"/>
       <c r="BN15" s="195"/>
       <c r="BO15" s="195"/>
@@ -11807,14 +13256,14 @@
     </row>
     <row r="16" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A16" s="148" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="B16" s="153"/>
       <c r="C16" s="149">
         <v>2</v>
       </c>
       <c r="D16" s="148" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="E16" s="149">
         <v>2</v>
@@ -11840,14 +13289,14 @@
       <c r="M16" s="195"/>
       <c r="N16" s="195"/>
       <c r="O16" s="148" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="P16" s="153"/>
       <c r="Q16" s="149">
         <v>3</v>
       </c>
       <c r="R16" s="148" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="S16" s="149">
         <v>3</v>
@@ -11872,14 +13321,14 @@
       <c r="AA16" s="195"/>
       <c r="AB16" s="195"/>
       <c r="AC16" s="148" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="AD16" s="153"/>
       <c r="AE16" s="149">
         <v>4</v>
       </c>
       <c r="AF16" s="148" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="AG16" s="149">
         <v>4</v>
@@ -11912,18 +13361,18 @@
       <c r="AV16" s="195"/>
       <c r="AW16" s="195"/>
       <c r="AX16" s="195"/>
-      <c r="BA16" s="218"/>
-      <c r="BB16" s="218"/>
-      <c r="BC16" s="218"/>
-      <c r="BD16" s="218"/>
-      <c r="BE16" s="218"/>
-      <c r="BF16" s="218"/>
-      <c r="BG16" s="218"/>
-      <c r="BH16" s="218"/>
-      <c r="BI16" s="218"/>
-      <c r="BJ16" s="218"/>
-      <c r="BK16" s="218"/>
-      <c r="BL16" s="218"/>
+      <c r="BA16" s="214"/>
+      <c r="BB16" s="214"/>
+      <c r="BC16" s="214"/>
+      <c r="BD16" s="214"/>
+      <c r="BE16" s="214"/>
+      <c r="BF16" s="214"/>
+      <c r="BG16" s="214"/>
+      <c r="BH16" s="214"/>
+      <c r="BI16" s="214"/>
+      <c r="BJ16" s="214"/>
+      <c r="BK16" s="214"/>
+      <c r="BL16" s="214"/>
       <c r="BM16" s="195"/>
       <c r="BN16" s="195"/>
       <c r="BO16" s="195"/>
@@ -11980,18 +13429,18 @@
       <c r="AV17" s="195"/>
       <c r="AW17" s="195"/>
       <c r="AX17" s="195"/>
-      <c r="BA17" s="218"/>
-      <c r="BB17" s="218"/>
-      <c r="BC17" s="218"/>
-      <c r="BD17" s="218"/>
-      <c r="BE17" s="218"/>
-      <c r="BF17" s="218"/>
-      <c r="BG17" s="218"/>
-      <c r="BH17" s="218"/>
-      <c r="BI17" s="218"/>
-      <c r="BJ17" s="218"/>
-      <c r="BK17" s="218"/>
-      <c r="BL17" s="218"/>
+      <c r="BA17" s="214"/>
+      <c r="BB17" s="214"/>
+      <c r="BC17" s="214"/>
+      <c r="BD17" s="214"/>
+      <c r="BE17" s="214"/>
+      <c r="BF17" s="214"/>
+      <c r="BG17" s="214"/>
+      <c r="BH17" s="214"/>
+      <c r="BI17" s="214"/>
+      <c r="BJ17" s="214"/>
+      <c r="BK17" s="214"/>
+      <c r="BL17" s="214"/>
       <c r="BM17" s="195"/>
       <c r="BN17" s="195"/>
       <c r="BO17" s="195"/>
@@ -12048,18 +13497,18 @@
       <c r="AV18" s="195"/>
       <c r="AW18" s="195"/>
       <c r="AX18" s="195"/>
-      <c r="BA18" s="218"/>
-      <c r="BB18" s="218"/>
-      <c r="BC18" s="218"/>
-      <c r="BD18" s="218"/>
-      <c r="BE18" s="218"/>
-      <c r="BF18" s="218"/>
-      <c r="BG18" s="275"/>
-      <c r="BH18" s="218"/>
-      <c r="BI18" s="218"/>
-      <c r="BJ18" s="218"/>
-      <c r="BK18" s="218"/>
-      <c r="BL18" s="218"/>
+      <c r="BA18" s="214"/>
+      <c r="BB18" s="214"/>
+      <c r="BC18" s="214"/>
+      <c r="BD18" s="214"/>
+      <c r="BE18" s="214"/>
+      <c r="BF18" s="214"/>
+      <c r="BG18" s="221"/>
+      <c r="BH18" s="214"/>
+      <c r="BI18" s="214"/>
+      <c r="BJ18" s="214"/>
+      <c r="BK18" s="214"/>
+      <c r="BL18" s="214"/>
       <c r="BM18" s="195"/>
       <c r="BN18" s="195"/>
       <c r="BO18" s="195"/>
@@ -12116,18 +13565,18 @@
       <c r="AV19" s="195"/>
       <c r="AW19" s="195"/>
       <c r="AX19" s="195"/>
-      <c r="BA19" s="218"/>
-      <c r="BB19" s="218"/>
-      <c r="BC19" s="218"/>
-      <c r="BD19" s="218"/>
-      <c r="BE19" s="218"/>
-      <c r="BF19" s="218"/>
-      <c r="BG19" s="218"/>
-      <c r="BH19" s="218"/>
-      <c r="BI19" s="218"/>
-      <c r="BJ19" s="218"/>
-      <c r="BK19" s="218"/>
-      <c r="BL19" s="218"/>
+      <c r="BA19" s="214"/>
+      <c r="BB19" s="214"/>
+      <c r="BC19" s="214"/>
+      <c r="BD19" s="214"/>
+      <c r="BE19" s="214"/>
+      <c r="BF19" s="214"/>
+      <c r="BG19" s="214"/>
+      <c r="BH19" s="214"/>
+      <c r="BI19" s="214"/>
+      <c r="BJ19" s="214"/>
+      <c r="BK19" s="214"/>
+      <c r="BL19" s="214"/>
       <c r="BM19" s="195"/>
       <c r="BN19" s="195"/>
       <c r="BO19" s="195"/>
@@ -12184,18 +13633,18 @@
       <c r="AV20" s="195"/>
       <c r="AW20" s="195"/>
       <c r="AX20" s="195"/>
-      <c r="BA20" s="218"/>
-      <c r="BB20" s="218"/>
-      <c r="BC20" s="218"/>
-      <c r="BD20" s="218"/>
-      <c r="BE20" s="218"/>
-      <c r="BF20" s="218"/>
-      <c r="BG20" s="218"/>
-      <c r="BH20" s="218"/>
-      <c r="BI20" s="218"/>
-      <c r="BJ20" s="218"/>
-      <c r="BK20" s="218"/>
-      <c r="BL20" s="218"/>
+      <c r="BA20" s="214"/>
+      <c r="BB20" s="214"/>
+      <c r="BC20" s="214"/>
+      <c r="BD20" s="214"/>
+      <c r="BE20" s="214"/>
+      <c r="BF20" s="214"/>
+      <c r="BG20" s="214"/>
+      <c r="BH20" s="214"/>
+      <c r="BI20" s="214"/>
+      <c r="BJ20" s="214"/>
+      <c r="BK20" s="214"/>
+      <c r="BL20" s="214"/>
       <c r="BM20" s="195"/>
       <c r="BN20" s="195"/>
       <c r="BO20" s="195"/>
@@ -12252,18 +13701,18 @@
       <c r="AV21" s="195"/>
       <c r="AW21" s="195"/>
       <c r="AX21" s="195"/>
-      <c r="BA21" s="218"/>
-      <c r="BB21" s="218"/>
-      <c r="BC21" s="218"/>
-      <c r="BD21" s="218"/>
-      <c r="BE21" s="218"/>
-      <c r="BF21" s="218"/>
-      <c r="BG21" s="218"/>
-      <c r="BH21" s="218"/>
-      <c r="BI21" s="218"/>
-      <c r="BJ21" s="218"/>
-      <c r="BK21" s="218"/>
-      <c r="BL21" s="218"/>
+      <c r="BA21" s="214"/>
+      <c r="BB21" s="214"/>
+      <c r="BC21" s="214"/>
+      <c r="BD21" s="214"/>
+      <c r="BE21" s="214"/>
+      <c r="BF21" s="214"/>
+      <c r="BG21" s="214"/>
+      <c r="BH21" s="214"/>
+      <c r="BI21" s="214"/>
+      <c r="BJ21" s="214"/>
+      <c r="BK21" s="214"/>
+      <c r="BL21" s="214"/>
       <c r="BM21" s="195"/>
       <c r="BN21" s="195"/>
       <c r="BO21" s="195"/>
@@ -12320,18 +13769,18 @@
       <c r="AV22" s="195"/>
       <c r="AW22" s="195"/>
       <c r="AX22" s="195"/>
-      <c r="BA22" s="218"/>
-      <c r="BB22" s="218"/>
-      <c r="BC22" s="218"/>
-      <c r="BD22" s="218"/>
-      <c r="BE22" s="218"/>
-      <c r="BF22" s="218"/>
-      <c r="BG22" s="218"/>
-      <c r="BH22" s="218"/>
-      <c r="BI22" s="218"/>
-      <c r="BJ22" s="218"/>
-      <c r="BK22" s="218"/>
-      <c r="BL22" s="218"/>
+      <c r="BA22" s="214"/>
+      <c r="BB22" s="214"/>
+      <c r="BC22" s="214"/>
+      <c r="BD22" s="214"/>
+      <c r="BE22" s="214"/>
+      <c r="BF22" s="214"/>
+      <c r="BG22" s="214"/>
+      <c r="BH22" s="214"/>
+      <c r="BI22" s="214"/>
+      <c r="BJ22" s="214"/>
+      <c r="BK22" s="214"/>
+      <c r="BL22" s="214"/>
       <c r="BM22" s="195"/>
       <c r="BN22" s="195"/>
       <c r="BO22" s="195"/>
@@ -12388,18 +13837,18 @@
       <c r="AV23" s="195"/>
       <c r="AW23" s="195"/>
       <c r="AX23" s="195"/>
-      <c r="BA23" s="218"/>
-      <c r="BB23" s="218"/>
-      <c r="BC23" s="218"/>
-      <c r="BD23" s="218"/>
-      <c r="BE23" s="218"/>
-      <c r="BF23" s="218"/>
-      <c r="BG23" s="276"/>
-      <c r="BH23" s="218"/>
-      <c r="BI23" s="218"/>
-      <c r="BJ23" s="218"/>
-      <c r="BK23" s="218"/>
-      <c r="BL23" s="218"/>
+      <c r="BA23" s="214"/>
+      <c r="BB23" s="214"/>
+      <c r="BC23" s="214"/>
+      <c r="BD23" s="214"/>
+      <c r="BE23" s="214"/>
+      <c r="BF23" s="214"/>
+      <c r="BG23" s="222"/>
+      <c r="BH23" s="214"/>
+      <c r="BI23" s="214"/>
+      <c r="BJ23" s="214"/>
+      <c r="BK23" s="214"/>
+      <c r="BL23" s="214"/>
       <c r="BM23" s="195"/>
       <c r="BN23" s="195"/>
       <c r="BO23" s="195"/>
@@ -12456,18 +13905,18 @@
       <c r="AW24" s="195"/>
       <c r="AX24" s="195"/>
       <c r="AY24" s="195"/>
-      <c r="BA24" s="218"/>
-      <c r="BB24" s="218"/>
-      <c r="BC24" s="218"/>
-      <c r="BD24" s="218"/>
-      <c r="BE24" s="218"/>
-      <c r="BF24" s="218"/>
-      <c r="BG24" s="218"/>
-      <c r="BH24" s="218"/>
-      <c r="BI24" s="218"/>
-      <c r="BJ24" s="218"/>
-      <c r="BK24" s="218"/>
-      <c r="BL24" s="218"/>
+      <c r="BA24" s="214"/>
+      <c r="BB24" s="214"/>
+      <c r="BC24" s="214"/>
+      <c r="BD24" s="214"/>
+      <c r="BE24" s="214"/>
+      <c r="BF24" s="214"/>
+      <c r="BG24" s="214"/>
+      <c r="BH24" s="214"/>
+      <c r="BI24" s="214"/>
+      <c r="BJ24" s="214"/>
+      <c r="BK24" s="214"/>
+      <c r="BL24" s="214"/>
       <c r="BM24" s="195"/>
       <c r="BN24" s="195"/>
       <c r="BO24" s="195"/>
@@ -12524,18 +13973,18 @@
       <c r="AW25" s="195"/>
       <c r="AX25" s="195"/>
       <c r="AY25" s="195"/>
-      <c r="BA25" s="218"/>
-      <c r="BB25" s="218"/>
-      <c r="BC25" s="272"/>
-      <c r="BD25" s="272"/>
-      <c r="BE25" s="272"/>
-      <c r="BF25" s="272"/>
-      <c r="BG25" s="275"/>
-      <c r="BH25" s="218"/>
-      <c r="BI25" s="275"/>
-      <c r="BJ25" s="218"/>
-      <c r="BK25" s="218"/>
-      <c r="BL25" s="218"/>
+      <c r="BA25" s="214"/>
+      <c r="BB25" s="214"/>
+      <c r="BC25" s="218"/>
+      <c r="BD25" s="218"/>
+      <c r="BE25" s="218"/>
+      <c r="BF25" s="218"/>
+      <c r="BG25" s="221"/>
+      <c r="BH25" s="214"/>
+      <c r="BI25" s="221"/>
+      <c r="BJ25" s="214"/>
+      <c r="BK25" s="214"/>
+      <c r="BL25" s="214"/>
       <c r="BM25" s="195"/>
       <c r="BN25" s="195"/>
       <c r="BO25" s="195"/>
@@ -12592,18 +14041,18 @@
       <c r="AW26" s="195"/>
       <c r="AX26" s="195"/>
       <c r="AY26" s="195"/>
-      <c r="BA26" s="218"/>
-      <c r="BB26" s="218"/>
-      <c r="BC26" s="218"/>
-      <c r="BD26" s="218"/>
-      <c r="BE26" s="218"/>
-      <c r="BF26" s="218"/>
-      <c r="BG26" s="218"/>
-      <c r="BH26" s="218"/>
-      <c r="BI26" s="218"/>
-      <c r="BJ26" s="218"/>
-      <c r="BK26" s="218"/>
-      <c r="BL26" s="218"/>
+      <c r="BA26" s="214"/>
+      <c r="BB26" s="214"/>
+      <c r="BC26" s="214"/>
+      <c r="BD26" s="214"/>
+      <c r="BE26" s="214"/>
+      <c r="BF26" s="214"/>
+      <c r="BG26" s="214"/>
+      <c r="BH26" s="214"/>
+      <c r="BI26" s="214"/>
+      <c r="BJ26" s="214"/>
+      <c r="BK26" s="214"/>
+      <c r="BL26" s="214"/>
       <c r="BM26" s="195"/>
       <c r="BN26" s="195"/>
       <c r="BO26" s="195"/>
@@ -12660,18 +14109,18 @@
       <c r="AW27" s="195"/>
       <c r="AX27" s="195"/>
       <c r="AY27" s="195"/>
-      <c r="BA27" s="218"/>
-      <c r="BB27" s="218"/>
-      <c r="BC27" s="218"/>
-      <c r="BD27" s="218"/>
-      <c r="BE27" s="218"/>
-      <c r="BF27" s="218"/>
-      <c r="BG27" s="218"/>
-      <c r="BH27" s="218"/>
-      <c r="BI27" s="218"/>
-      <c r="BJ27" s="218"/>
-      <c r="BK27" s="218"/>
-      <c r="BL27" s="218"/>
+      <c r="BA27" s="214"/>
+      <c r="BB27" s="214"/>
+      <c r="BC27" s="214"/>
+      <c r="BD27" s="214"/>
+      <c r="BE27" s="214"/>
+      <c r="BF27" s="214"/>
+      <c r="BG27" s="214"/>
+      <c r="BH27" s="214"/>
+      <c r="BI27" s="214"/>
+      <c r="BJ27" s="214"/>
+      <c r="BK27" s="214"/>
+      <c r="BL27" s="214"/>
       <c r="BM27" s="195"/>
       <c r="BN27" s="195"/>
       <c r="BO27" s="195"/>
@@ -12728,18 +14177,18 @@
       <c r="AW28" s="195"/>
       <c r="AX28" s="195"/>
       <c r="AY28" s="195"/>
-      <c r="BA28" s="218"/>
-      <c r="BB28" s="218"/>
-      <c r="BC28" s="274"/>
-      <c r="BD28" s="274"/>
-      <c r="BE28" s="274"/>
-      <c r="BF28" s="274"/>
-      <c r="BG28" s="218"/>
-      <c r="BH28" s="218"/>
-      <c r="BI28" s="218"/>
-      <c r="BJ28" s="218"/>
-      <c r="BK28" s="218"/>
-      <c r="BL28" s="218"/>
+      <c r="BA28" s="214"/>
+      <c r="BB28" s="214"/>
+      <c r="BC28" s="220"/>
+      <c r="BD28" s="220"/>
+      <c r="BE28" s="220"/>
+      <c r="BF28" s="220"/>
+      <c r="BG28" s="214"/>
+      <c r="BH28" s="214"/>
+      <c r="BI28" s="214"/>
+      <c r="BJ28" s="214"/>
+      <c r="BK28" s="214"/>
+      <c r="BL28" s="214"/>
       <c r="BM28" s="195"/>
       <c r="BN28" s="195"/>
       <c r="BO28" s="195"/>
@@ -12796,18 +14245,18 @@
       <c r="AW29" s="195"/>
       <c r="AX29" s="195"/>
       <c r="AY29" s="195"/>
-      <c r="BA29" s="218"/>
-      <c r="BB29" s="218"/>
-      <c r="BC29" s="218"/>
-      <c r="BD29" s="218"/>
-      <c r="BE29" s="275"/>
-      <c r="BF29" s="275"/>
-      <c r="BG29" s="218"/>
-      <c r="BH29" s="218"/>
-      <c r="BI29" s="218"/>
-      <c r="BJ29" s="218"/>
-      <c r="BK29" s="218"/>
-      <c r="BL29" s="218"/>
+      <c r="BA29" s="214"/>
+      <c r="BB29" s="214"/>
+      <c r="BC29" s="214"/>
+      <c r="BD29" s="214"/>
+      <c r="BE29" s="221"/>
+      <c r="BF29" s="221"/>
+      <c r="BG29" s="214"/>
+      <c r="BH29" s="214"/>
+      <c r="BI29" s="214"/>
+      <c r="BJ29" s="214"/>
+      <c r="BK29" s="214"/>
+      <c r="BL29" s="214"/>
       <c r="BM29" s="195"/>
       <c r="BN29" s="195"/>
       <c r="BO29" s="195"/>
@@ -12864,18 +14313,18 @@
       <c r="AW30" s="195"/>
       <c r="AX30" s="195"/>
       <c r="AY30" s="195"/>
-      <c r="BA30" s="218"/>
-      <c r="BB30" s="218"/>
-      <c r="BC30" s="275"/>
-      <c r="BD30" s="218"/>
-      <c r="BE30" s="218"/>
-      <c r="BF30" s="218"/>
-      <c r="BG30" s="218"/>
-      <c r="BH30" s="218"/>
-      <c r="BI30" s="218"/>
-      <c r="BJ30" s="218"/>
-      <c r="BK30" s="218"/>
-      <c r="BL30" s="218"/>
+      <c r="BA30" s="214"/>
+      <c r="BB30" s="214"/>
+      <c r="BC30" s="221"/>
+      <c r="BD30" s="214"/>
+      <c r="BE30" s="214"/>
+      <c r="BF30" s="214"/>
+      <c r="BG30" s="214"/>
+      <c r="BH30" s="214"/>
+      <c r="BI30" s="214"/>
+      <c r="BJ30" s="214"/>
+      <c r="BK30" s="214"/>
+      <c r="BL30" s="214"/>
       <c r="BM30" s="195"/>
       <c r="BN30" s="195"/>
       <c r="BO30" s="195"/>
@@ -12932,18 +14381,18 @@
       <c r="AW31" s="195"/>
       <c r="AX31" s="195"/>
       <c r="AY31" s="195"/>
-      <c r="BA31" s="218"/>
-      <c r="BB31" s="218"/>
-      <c r="BC31" s="275"/>
-      <c r="BD31" s="218"/>
-      <c r="BE31" s="218"/>
-      <c r="BF31" s="218"/>
-      <c r="BG31" s="218"/>
-      <c r="BH31" s="218"/>
-      <c r="BI31" s="218"/>
-      <c r="BJ31" s="218"/>
-      <c r="BK31" s="218"/>
-      <c r="BL31" s="218"/>
+      <c r="BA31" s="214"/>
+      <c r="BB31" s="214"/>
+      <c r="BC31" s="221"/>
+      <c r="BD31" s="214"/>
+      <c r="BE31" s="214"/>
+      <c r="BF31" s="214"/>
+      <c r="BG31" s="214"/>
+      <c r="BH31" s="214"/>
+      <c r="BI31" s="214"/>
+      <c r="BJ31" s="214"/>
+      <c r="BK31" s="214"/>
+      <c r="BL31" s="214"/>
       <c r="BM31" s="195"/>
       <c r="BN31" s="195"/>
       <c r="BO31" s="195"/>
@@ -13000,18 +14449,18 @@
       <c r="AW32" s="195"/>
       <c r="AX32" s="195"/>
       <c r="AY32" s="195"/>
-      <c r="BA32" s="218"/>
-      <c r="BB32" s="218"/>
-      <c r="BC32" s="275"/>
-      <c r="BD32" s="218"/>
-      <c r="BE32" s="218"/>
-      <c r="BF32" s="218"/>
-      <c r="BG32" s="218"/>
-      <c r="BH32" s="218"/>
-      <c r="BI32" s="218"/>
-      <c r="BJ32" s="218"/>
-      <c r="BK32" s="218"/>
-      <c r="BL32" s="218"/>
+      <c r="BA32" s="214"/>
+      <c r="BB32" s="214"/>
+      <c r="BC32" s="221"/>
+      <c r="BD32" s="214"/>
+      <c r="BE32" s="214"/>
+      <c r="BF32" s="214"/>
+      <c r="BG32" s="214"/>
+      <c r="BH32" s="214"/>
+      <c r="BI32" s="214"/>
+      <c r="BJ32" s="214"/>
+      <c r="BK32" s="214"/>
+      <c r="BL32" s="214"/>
       <c r="BM32" s="195"/>
       <c r="BN32" s="195"/>
       <c r="BO32" s="195"/>
@@ -13068,18 +14517,18 @@
       <c r="AW33" s="195"/>
       <c r="AX33" s="195"/>
       <c r="AY33" s="195"/>
-      <c r="BA33" s="218"/>
-      <c r="BB33" s="218"/>
-      <c r="BC33" s="275"/>
-      <c r="BD33" s="218"/>
-      <c r="BE33" s="218"/>
-      <c r="BF33" s="218"/>
-      <c r="BG33" s="218"/>
-      <c r="BH33" s="218"/>
-      <c r="BI33" s="218"/>
-      <c r="BJ33" s="218"/>
-      <c r="BK33" s="218"/>
-      <c r="BL33" s="218"/>
+      <c r="BA33" s="214"/>
+      <c r="BB33" s="214"/>
+      <c r="BC33" s="221"/>
+      <c r="BD33" s="214"/>
+      <c r="BE33" s="214"/>
+      <c r="BF33" s="214"/>
+      <c r="BG33" s="214"/>
+      <c r="BH33" s="214"/>
+      <c r="BI33" s="214"/>
+      <c r="BJ33" s="214"/>
+      <c r="BK33" s="214"/>
+      <c r="BL33" s="214"/>
       <c r="BM33" s="195"/>
       <c r="BN33" s="195"/>
       <c r="BO33" s="195"/>
@@ -14290,13 +15739,13 @@
       <c r="A3" s="144" t="s">
         <v>333</v>
       </c>
-      <c r="D3" s="247" t="s">
+      <c r="D3" s="249" t="s">
         <v>344</v>
       </c>
-      <c r="E3" s="248"/>
-      <c r="F3" s="248"/>
-      <c r="G3" s="248"/>
-      <c r="H3" s="249"/>
+      <c r="E3" s="250"/>
+      <c r="F3" s="250"/>
+      <c r="G3" s="250"/>
+      <c r="H3" s="251"/>
       <c r="Q3" s="169" t="s">
         <v>345</v>
       </c>
@@ -14371,20 +15820,20 @@
         <v>338</v>
       </c>
       <c r="Q6" s="164"/>
-      <c r="R6" s="250" t="s">
+      <c r="R6" s="252" t="s">
         <v>346</v>
       </c>
-      <c r="S6" s="250"/>
+      <c r="S6" s="252"/>
       <c r="T6" s="165"/>
-      <c r="V6" s="245" t="s">
+      <c r="V6" s="253" t="s">
         <v>358</v>
       </c>
-      <c r="W6" s="245"/>
-      <c r="X6" s="245"/>
-      <c r="Y6" s="246" t="s">
+      <c r="W6" s="253"/>
+      <c r="X6" s="253"/>
+      <c r="Y6" s="248" t="s">
         <v>362</v>
       </c>
-      <c r="Z6" s="246"/>
+      <c r="Z6" s="248"/>
       <c r="AA6" s="150"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
@@ -16182,14 +17631,14 @@
       <c r="A3" s="144" t="s">
         <v>333</v>
       </c>
-      <c r="C3" s="251" t="s">
+      <c r="C3" s="254" t="s">
         <v>403</v>
       </c>
-      <c r="D3" s="252"/>
-      <c r="E3" s="252"/>
-      <c r="F3" s="252"/>
-      <c r="G3" s="252"/>
-      <c r="H3" s="253"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="256"/>
       <c r="Q3" s="169" t="s">
         <v>345</v>
       </c>
@@ -16253,10 +17702,10 @@
         <v>338</v>
       </c>
       <c r="Q6" s="164"/>
-      <c r="R6" s="250" t="s">
+      <c r="R6" s="252" t="s">
         <v>346</v>
       </c>
-      <c r="S6" s="250"/>
+      <c r="S6" s="252"/>
       <c r="T6" s="165"/>
       <c r="U6" s="151"/>
       <c r="W6" s="187" t="s">
@@ -17697,94 +19146,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="255"/>
-      <c r="B1" s="255"/>
-      <c r="C1" s="221"/>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221"/>
-      <c r="L1" s="221"/>
-      <c r="M1" s="221"/>
-      <c r="N1" s="221"/>
-      <c r="O1" s="221"/>
-      <c r="P1" s="221"/>
-      <c r="Q1" s="255"/>
+      <c r="A1" s="258"/>
+      <c r="B1" s="258"/>
+      <c r="C1" s="224"/>
+      <c r="D1" s="258"/>
+      <c r="E1" s="258"/>
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="224"/>
+      <c r="K1" s="224"/>
+      <c r="L1" s="224"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="224"/>
+      <c r="O1" s="224"/>
+      <c r="P1" s="224"/>
+      <c r="Q1" s="258"/>
     </row>
     <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="221"/>
-      <c r="B2" s="262" t="s">
+      <c r="A2" s="224"/>
+      <c r="B2" s="257" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="260" t="s">
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="266" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="221"/>
-      <c r="G2" s="261" t="s">
+      <c r="F2" s="224"/>
+      <c r="G2" s="267" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="221"/>
-      <c r="O2" s="221"/>
-      <c r="P2" s="221"/>
-      <c r="Q2" s="221"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="224"/>
+      <c r="M2" s="224"/>
+      <c r="N2" s="224"/>
+      <c r="O2" s="224"/>
+      <c r="P2" s="224"/>
+      <c r="Q2" s="224"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="221"/>
-      <c r="B3" s="255"/>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="221"/>
-      <c r="L3" s="221"/>
-      <c r="M3" s="221"/>
-      <c r="N3" s="221"/>
-      <c r="O3" s="221"/>
-      <c r="P3" s="221"/>
-      <c r="Q3" s="221"/>
+      <c r="A3" s="224"/>
+      <c r="B3" s="258"/>
+      <c r="C3" s="224"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="258"/>
+      <c r="F3" s="224"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="224"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="224"/>
+      <c r="M3" s="224"/>
+      <c r="N3" s="224"/>
+      <c r="O3" s="224"/>
+      <c r="P3" s="224"/>
+      <c r="Q3" s="224"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="221"/>
-      <c r="B4" s="263"/>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="259" t="s">
+      <c r="A4" s="224"/>
+      <c r="B4" s="259"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="265" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="221"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="221"/>
-      <c r="L4" s="221"/>
-      <c r="M4" s="221"/>
-      <c r="N4" s="221"/>
-      <c r="O4" s="221"/>
-      <c r="P4" s="221"/>
-      <c r="Q4" s="221"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="224"/>
+      <c r="H4" s="224"/>
+      <c r="I4" s="224"/>
+      <c r="J4" s="224"/>
+      <c r="K4" s="224"/>
+      <c r="L4" s="224"/>
+      <c r="M4" s="224"/>
+      <c r="N4" s="224"/>
+      <c r="O4" s="224"/>
+      <c r="P4" s="224"/>
+      <c r="Q4" s="224"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="221"/>
+      <c r="A5" s="224"/>
       <c r="B5" s="11"/>
       <c r="C5" s="34"/>
-      <c r="D5" s="221"/>
+      <c r="D5" s="224"/>
       <c r="E5" s="35" t="s">
         <v>104</v>
       </c>
@@ -17821,13 +19270,13 @@
       <c r="P5" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="Q5" s="221"/>
+      <c r="Q5" s="224"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="221"/>
+      <c r="A6" s="224"/>
       <c r="B6" s="11"/>
       <c r="C6" s="34"/>
-      <c r="D6" s="221"/>
+      <c r="D6" s="224"/>
       <c r="E6" s="47">
         <v>0</v>
       </c>
@@ -17866,55 +19315,55 @@
       <c r="P6" s="47">
         <v>150</v>
       </c>
-      <c r="Q6" s="221"/>
+      <c r="Q6" s="224"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="221"/>
-      <c r="B7" s="264"/>
-      <c r="C7" s="221"/>
-      <c r="D7" s="221"/>
-      <c r="E7" s="255"/>
-      <c r="F7" s="221"/>
-      <c r="G7" s="221"/>
-      <c r="H7" s="221"/>
-      <c r="I7" s="221"/>
-      <c r="J7" s="221"/>
-      <c r="K7" s="221"/>
-      <c r="L7" s="221"/>
-      <c r="M7" s="221"/>
-      <c r="N7" s="221"/>
-      <c r="O7" s="221"/>
-      <c r="P7" s="221"/>
-      <c r="Q7" s="221"/>
+      <c r="A7" s="224"/>
+      <c r="B7" s="260"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="258"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="224"/>
+      <c r="I7" s="224"/>
+      <c r="J7" s="224"/>
+      <c r="K7" s="224"/>
+      <c r="L7" s="224"/>
+      <c r="M7" s="224"/>
+      <c r="N7" s="224"/>
+      <c r="O7" s="224"/>
+      <c r="P7" s="224"/>
+      <c r="Q7" s="224"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="221"/>
-      <c r="B8" s="263" t="s">
+      <c r="A8" s="224"/>
+      <c r="B8" s="259" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="221"/>
-      <c r="D8" s="221"/>
-      <c r="E8" s="254" t="s">
+      <c r="C8" s="224"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="261" t="s">
         <v>123</v>
       </c>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="221"/>
-      <c r="I8" s="221"/>
-      <c r="J8" s="221"/>
-      <c r="K8" s="221"/>
-      <c r="L8" s="221"/>
-      <c r="M8" s="221"/>
-      <c r="N8" s="221"/>
-      <c r="O8" s="221"/>
-      <c r="P8" s="221"/>
-      <c r="Q8" s="221"/>
+      <c r="F8" s="224"/>
+      <c r="G8" s="224"/>
+      <c r="H8" s="224"/>
+      <c r="I8" s="224"/>
+      <c r="J8" s="224"/>
+      <c r="K8" s="224"/>
+      <c r="L8" s="224"/>
+      <c r="M8" s="224"/>
+      <c r="N8" s="224"/>
+      <c r="O8" s="224"/>
+      <c r="P8" s="224"/>
+      <c r="Q8" s="224"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="221"/>
+      <c r="A9" s="224"/>
       <c r="B9" s="11"/>
       <c r="C9" s="54"/>
-      <c r="D9" s="221"/>
+      <c r="D9" s="224"/>
       <c r="E9" s="55">
         <v>1</v>
       </c>
@@ -17949,13 +19398,13 @@
       <c r="P9" s="59">
         <v>1</v>
       </c>
-      <c r="Q9" s="221"/>
+      <c r="Q9" s="224"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="221"/>
+      <c r="A10" s="224"/>
       <c r="B10" s="11"/>
       <c r="C10" s="54"/>
-      <c r="D10" s="221"/>
+      <c r="D10" s="224"/>
       <c r="E10" s="55">
         <v>2</v>
       </c>
@@ -17990,13 +19439,13 @@
       <c r="P10" s="59">
         <v>1.5</v>
       </c>
-      <c r="Q10" s="221"/>
+      <c r="Q10" s="224"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="221"/>
+      <c r="A11" s="224"/>
       <c r="B11" s="11"/>
       <c r="C11" s="54"/>
-      <c r="D11" s="221"/>
+      <c r="D11" s="224"/>
       <c r="E11" s="55">
         <v>3</v>
       </c>
@@ -18031,17 +19480,17 @@
       <c r="P11" s="59">
         <v>2</v>
       </c>
-      <c r="Q11" s="221"/>
+      <c r="Q11" s="224"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="221"/>
+      <c r="A12" s="224"/>
       <c r="B12" s="11" t="s">
         <v>161</v>
       </c>
       <c r="C12" s="54">
         <v>1</v>
       </c>
-      <c r="D12" s="221"/>
+      <c r="D12" s="224"/>
       <c r="E12" s="11" t="s">
         <v>162</v>
       </c>
@@ -18078,17 +19527,17 @@
       <c r="P12" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="Q12" s="221"/>
+      <c r="Q12" s="224"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="221"/>
+      <c r="A13" s="224"/>
       <c r="B13" s="11" t="s">
         <v>174</v>
       </c>
       <c r="C13" s="54">
         <v>1</v>
       </c>
-      <c r="D13" s="221"/>
+      <c r="D13" s="224"/>
       <c r="E13" s="55">
         <v>1</v>
       </c>
@@ -18136,17 +19585,17 @@
         <f t="shared" ref="P13:P15" si="5">P$6*P9</f>
         <v>150</v>
       </c>
-      <c r="Q13" s="221"/>
+      <c r="Q13" s="224"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="221"/>
+      <c r="A14" s="224"/>
       <c r="B14" s="11" t="s">
         <v>176</v>
       </c>
       <c r="C14" s="54">
         <v>1</v>
       </c>
-      <c r="D14" s="221"/>
+      <c r="D14" s="224"/>
       <c r="E14" s="55">
         <v>2</v>
       </c>
@@ -18191,13 +19640,13 @@
         <f t="shared" si="5"/>
         <v>225</v>
       </c>
-      <c r="Q14" s="221"/>
+      <c r="Q14" s="224"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="221"/>
+      <c r="A15" s="224"/>
       <c r="B15" s="11"/>
       <c r="C15" s="34"/>
-      <c r="D15" s="221"/>
+      <c r="D15" s="224"/>
       <c r="E15" s="55">
         <v>3</v>
       </c>
@@ -18242,55 +19691,55 @@
         <f t="shared" si="5"/>
         <v>300</v>
       </c>
-      <c r="Q15" s="221"/>
+      <c r="Q15" s="224"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="221"/>
-      <c r="B16" s="264"/>
-      <c r="C16" s="221"/>
-      <c r="D16" s="221"/>
-      <c r="E16" s="255"/>
-      <c r="F16" s="221"/>
-      <c r="G16" s="221"/>
-      <c r="H16" s="221"/>
-      <c r="I16" s="221"/>
-      <c r="J16" s="221"/>
-      <c r="K16" s="221"/>
-      <c r="L16" s="221"/>
-      <c r="M16" s="221"/>
+      <c r="A16" s="224"/>
+      <c r="B16" s="260"/>
+      <c r="C16" s="224"/>
+      <c r="D16" s="224"/>
+      <c r="E16" s="258"/>
+      <c r="F16" s="224"/>
+      <c r="G16" s="224"/>
+      <c r="H16" s="224"/>
+      <c r="I16" s="224"/>
+      <c r="J16" s="224"/>
+      <c r="K16" s="224"/>
+      <c r="L16" s="224"/>
+      <c r="M16" s="224"/>
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
-      <c r="Q16" s="221"/>
+      <c r="Q16" s="224"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="221"/>
-      <c r="B17" s="263" t="s">
+      <c r="A17" s="224"/>
+      <c r="B17" s="259" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="221"/>
-      <c r="D17" s="221"/>
-      <c r="E17" s="257" t="s">
+      <c r="C17" s="224"/>
+      <c r="D17" s="224"/>
+      <c r="E17" s="263" t="s">
         <v>183</v>
       </c>
-      <c r="F17" s="221"/>
-      <c r="G17" s="221"/>
-      <c r="H17" s="221"/>
-      <c r="I17" s="221"/>
-      <c r="J17" s="221"/>
-      <c r="K17" s="221"/>
-      <c r="L17" s="221"/>
-      <c r="M17" s="221"/>
-      <c r="N17" s="221"/>
-      <c r="O17" s="221"/>
-      <c r="P17" s="221"/>
-      <c r="Q17" s="221"/>
+      <c r="F17" s="224"/>
+      <c r="G17" s="224"/>
+      <c r="H17" s="224"/>
+      <c r="I17" s="224"/>
+      <c r="J17" s="224"/>
+      <c r="K17" s="224"/>
+      <c r="L17" s="224"/>
+      <c r="M17" s="224"/>
+      <c r="N17" s="224"/>
+      <c r="O17" s="224"/>
+      <c r="P17" s="224"/>
+      <c r="Q17" s="224"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="221"/>
+      <c r="A18" s="224"/>
       <c r="B18" s="11"/>
       <c r="C18" s="34"/>
-      <c r="D18" s="221"/>
+      <c r="D18" s="224"/>
       <c r="E18" s="42">
         <v>1</v>
       </c>
@@ -18319,13 +19768,13 @@
       <c r="P18" s="78">
         <v>2</v>
       </c>
-      <c r="Q18" s="221"/>
+      <c r="Q18" s="224"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="221"/>
+      <c r="A19" s="224"/>
       <c r="B19" s="11"/>
       <c r="C19" s="34"/>
-      <c r="D19" s="221"/>
+      <c r="D19" s="224"/>
       <c r="E19" s="42">
         <v>2</v>
       </c>
@@ -18354,13 +19803,13 @@
       <c r="P19" s="78">
         <v>3</v>
       </c>
-      <c r="Q19" s="221"/>
+      <c r="Q19" s="224"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="221"/>
+      <c r="A20" s="224"/>
       <c r="B20" s="11"/>
       <c r="C20" s="34"/>
-      <c r="D20" s="221"/>
+      <c r="D20" s="224"/>
       <c r="E20" s="42">
         <v>3</v>
       </c>
@@ -18389,13 +19838,13 @@
       <c r="P20" s="78">
         <v>4</v>
       </c>
-      <c r="Q20" s="221"/>
+      <c r="Q20" s="224"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="221"/>
+      <c r="A21" s="224"/>
       <c r="B21" s="11"/>
       <c r="C21" s="34"/>
-      <c r="D21" s="221"/>
+      <c r="D21" s="224"/>
       <c r="E21" s="20" t="s">
         <v>205</v>
       </c>
@@ -18430,13 +19879,13 @@
       <c r="P21" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="Q21" s="221"/>
+      <c r="Q21" s="224"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="221"/>
+      <c r="A22" s="224"/>
       <c r="B22" s="11"/>
       <c r="C22" s="34"/>
-      <c r="D22" s="221"/>
+      <c r="D22" s="224"/>
       <c r="E22" s="42">
         <v>1</v>
       </c>
@@ -18481,13 +19930,13 @@
         <f t="shared" ref="P22:P24" si="15">P$6*P18</f>
         <v>300</v>
       </c>
-      <c r="Q22" s="221"/>
+      <c r="Q22" s="224"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="221"/>
+      <c r="A23" s="224"/>
       <c r="B23" s="11"/>
       <c r="C23" s="34"/>
-      <c r="D23" s="221"/>
+      <c r="D23" s="224"/>
       <c r="E23" s="42">
         <v>2</v>
       </c>
@@ -18532,13 +19981,13 @@
         <f t="shared" si="15"/>
         <v>450</v>
       </c>
-      <c r="Q23" s="221"/>
+      <c r="Q23" s="224"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="221"/>
+      <c r="A24" s="224"/>
       <c r="B24" s="11"/>
       <c r="C24" s="34"/>
-      <c r="D24" s="221"/>
+      <c r="D24" s="224"/>
       <c r="E24" s="42">
         <v>3</v>
       </c>
@@ -18583,55 +20032,55 @@
         <f t="shared" si="15"/>
         <v>600</v>
       </c>
-      <c r="Q24" s="221"/>
+      <c r="Q24" s="224"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="221"/>
-      <c r="B25" s="264"/>
-      <c r="C25" s="221"/>
-      <c r="D25" s="221"/>
-      <c r="E25" s="255"/>
-      <c r="F25" s="221"/>
-      <c r="G25" s="221"/>
-      <c r="H25" s="221"/>
-      <c r="I25" s="221"/>
-      <c r="J25" s="221"/>
-      <c r="K25" s="221"/>
-      <c r="L25" s="221"/>
-      <c r="M25" s="221"/>
+      <c r="A25" s="224"/>
+      <c r="B25" s="260"/>
+      <c r="C25" s="224"/>
+      <c r="D25" s="224"/>
+      <c r="E25" s="258"/>
+      <c r="F25" s="224"/>
+      <c r="G25" s="224"/>
+      <c r="H25" s="224"/>
+      <c r="I25" s="224"/>
+      <c r="J25" s="224"/>
+      <c r="K25" s="224"/>
+      <c r="L25" s="224"/>
+      <c r="M25" s="224"/>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
-      <c r="Q25" s="221"/>
+      <c r="Q25" s="224"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="221"/>
-      <c r="B26" s="263" t="s">
+      <c r="A26" s="224"/>
+      <c r="B26" s="259" t="s">
         <v>216</v>
       </c>
-      <c r="C26" s="221"/>
-      <c r="D26" s="221"/>
-      <c r="E26" s="258" t="s">
+      <c r="C26" s="224"/>
+      <c r="D26" s="224"/>
+      <c r="E26" s="264" t="s">
         <v>217</v>
       </c>
-      <c r="F26" s="221"/>
-      <c r="G26" s="221"/>
-      <c r="H26" s="221"/>
-      <c r="I26" s="221"/>
-      <c r="J26" s="221"/>
-      <c r="K26" s="221"/>
-      <c r="L26" s="221"/>
-      <c r="M26" s="221"/>
-      <c r="N26" s="221"/>
-      <c r="O26" s="221"/>
-      <c r="P26" s="221"/>
-      <c r="Q26" s="221"/>
+      <c r="F26" s="224"/>
+      <c r="G26" s="224"/>
+      <c r="H26" s="224"/>
+      <c r="I26" s="224"/>
+      <c r="J26" s="224"/>
+      <c r="K26" s="224"/>
+      <c r="L26" s="224"/>
+      <c r="M26" s="224"/>
+      <c r="N26" s="224"/>
+      <c r="O26" s="224"/>
+      <c r="P26" s="224"/>
+      <c r="Q26" s="224"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="221"/>
+      <c r="A27" s="224"/>
       <c r="B27" s="11"/>
       <c r="C27" s="34"/>
-      <c r="D27" s="221"/>
+      <c r="D27" s="224"/>
       <c r="E27" s="72">
         <v>1</v>
       </c>
@@ -18654,13 +20103,13 @@
       </c>
       <c r="O27" s="92"/>
       <c r="P27" s="91"/>
-      <c r="Q27" s="221"/>
+      <c r="Q27" s="224"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="221"/>
+      <c r="A28" s="224"/>
       <c r="B28" s="11"/>
       <c r="C28" s="34"/>
-      <c r="D28" s="221"/>
+      <c r="D28" s="224"/>
       <c r="E28" s="72">
         <v>2</v>
       </c>
@@ -18683,13 +20132,13 @@
       </c>
       <c r="O28" s="92"/>
       <c r="P28" s="91"/>
-      <c r="Q28" s="221"/>
+      <c r="Q28" s="224"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="221"/>
+      <c r="A29" s="224"/>
       <c r="B29" s="11"/>
       <c r="C29" s="34"/>
-      <c r="D29" s="221"/>
+      <c r="D29" s="224"/>
       <c r="E29" s="72">
         <v>3</v>
       </c>
@@ -18712,13 +20161,13 @@
       </c>
       <c r="O29" s="92"/>
       <c r="P29" s="91"/>
-      <c r="Q29" s="221"/>
+      <c r="Q29" s="224"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="221"/>
+      <c r="A30" s="224"/>
       <c r="B30" s="11"/>
       <c r="C30" s="34"/>
-      <c r="D30" s="221"/>
+      <c r="D30" s="224"/>
       <c r="E30" s="3" t="s">
         <v>227</v>
       </c>
@@ -18753,13 +20202,13 @@
       <c r="P30" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="Q30" s="221"/>
+      <c r="Q30" s="224"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="221"/>
+      <c r="A31" s="224"/>
       <c r="B31" s="11"/>
       <c r="C31" s="34"/>
-      <c r="D31" s="221"/>
+      <c r="D31" s="224"/>
       <c r="E31" s="72">
         <v>1</v>
       </c>
@@ -18804,13 +20253,13 @@
         <f t="shared" ref="P31:P33" si="25">P$6*P27</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="221"/>
+      <c r="Q31" s="224"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="221"/>
+      <c r="A32" s="224"/>
       <c r="B32" s="11"/>
       <c r="C32" s="34"/>
-      <c r="D32" s="221"/>
+      <c r="D32" s="224"/>
       <c r="E32" s="72">
         <v>2</v>
       </c>
@@ -18855,13 +20304,13 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="221"/>
+      <c r="Q32" s="224"/>
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="221"/>
+      <c r="A33" s="224"/>
       <c r="B33" s="11"/>
       <c r="C33" s="34"/>
-      <c r="D33" s="221"/>
+      <c r="D33" s="224"/>
       <c r="E33" s="72">
         <v>3</v>
       </c>
@@ -18906,55 +20355,55 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="221"/>
+      <c r="Q33" s="224"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="221"/>
-      <c r="B34" s="264"/>
-      <c r="C34" s="221"/>
-      <c r="D34" s="221"/>
-      <c r="E34" s="255"/>
-      <c r="F34" s="221"/>
-      <c r="G34" s="221"/>
-      <c r="H34" s="221"/>
-      <c r="I34" s="221"/>
-      <c r="J34" s="221"/>
-      <c r="K34" s="221"/>
-      <c r="L34" s="221"/>
-      <c r="M34" s="221"/>
+      <c r="A34" s="224"/>
+      <c r="B34" s="260"/>
+      <c r="C34" s="224"/>
+      <c r="D34" s="224"/>
+      <c r="E34" s="258"/>
+      <c r="F34" s="224"/>
+      <c r="G34" s="224"/>
+      <c r="H34" s="224"/>
+      <c r="I34" s="224"/>
+      <c r="J34" s="224"/>
+      <c r="K34" s="224"/>
+      <c r="L34" s="224"/>
+      <c r="M34" s="224"/>
       <c r="N34" s="15"/>
       <c r="O34" s="15"/>
       <c r="P34" s="15"/>
-      <c r="Q34" s="221"/>
+      <c r="Q34" s="224"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="221"/>
-      <c r="B35" s="263" t="s">
+      <c r="A35" s="224"/>
+      <c r="B35" s="259" t="s">
         <v>246</v>
       </c>
-      <c r="C35" s="221"/>
-      <c r="D35" s="221"/>
-      <c r="E35" s="256" t="s">
+      <c r="C35" s="224"/>
+      <c r="D35" s="224"/>
+      <c r="E35" s="262" t="s">
         <v>247</v>
       </c>
-      <c r="F35" s="221"/>
-      <c r="G35" s="221"/>
-      <c r="H35" s="221"/>
-      <c r="I35" s="221"/>
-      <c r="J35" s="221"/>
-      <c r="K35" s="221"/>
-      <c r="L35" s="221"/>
-      <c r="M35" s="221"/>
-      <c r="N35" s="221"/>
-      <c r="O35" s="221"/>
-      <c r="P35" s="221"/>
-      <c r="Q35" s="221"/>
+      <c r="F35" s="224"/>
+      <c r="G35" s="224"/>
+      <c r="H35" s="224"/>
+      <c r="I35" s="224"/>
+      <c r="J35" s="224"/>
+      <c r="K35" s="224"/>
+      <c r="L35" s="224"/>
+      <c r="M35" s="224"/>
+      <c r="N35" s="224"/>
+      <c r="O35" s="224"/>
+      <c r="P35" s="224"/>
+      <c r="Q35" s="224"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="221"/>
+      <c r="A36" s="224"/>
       <c r="B36" s="11"/>
       <c r="C36" s="34"/>
-      <c r="D36" s="221"/>
+      <c r="D36" s="224"/>
       <c r="E36" s="102">
         <v>1</v>
       </c>
@@ -18977,13 +20426,13 @@
       </c>
       <c r="O36" s="104"/>
       <c r="P36" s="103"/>
-      <c r="Q36" s="221"/>
+      <c r="Q36" s="224"/>
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="221"/>
+      <c r="A37" s="224"/>
       <c r="B37" s="11"/>
       <c r="C37" s="34"/>
-      <c r="D37" s="221"/>
+      <c r="D37" s="224"/>
       <c r="E37" s="102">
         <v>2</v>
       </c>
@@ -19006,13 +20455,13 @@
       </c>
       <c r="O37" s="104"/>
       <c r="P37" s="103"/>
-      <c r="Q37" s="221"/>
+      <c r="Q37" s="224"/>
     </row>
     <row r="38" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="221"/>
+      <c r="A38" s="224"/>
       <c r="B38" s="11"/>
       <c r="C38" s="34"/>
-      <c r="D38" s="221"/>
+      <c r="D38" s="224"/>
       <c r="E38" s="102">
         <v>3</v>
       </c>
@@ -19035,13 +20484,13 @@
       </c>
       <c r="O38" s="104"/>
       <c r="P38" s="103"/>
-      <c r="Q38" s="221"/>
+      <c r="Q38" s="224"/>
     </row>
     <row r="39" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="221"/>
+      <c r="A39" s="224"/>
       <c r="B39" s="11"/>
       <c r="C39" s="34"/>
-      <c r="D39" s="221"/>
+      <c r="D39" s="224"/>
       <c r="E39" s="105" t="s">
         <v>257</v>
       </c>
@@ -19076,13 +20525,13 @@
       <c r="P39" s="105" t="s">
         <v>270</v>
       </c>
-      <c r="Q39" s="221"/>
+      <c r="Q39" s="224"/>
     </row>
     <row r="40" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="221"/>
+      <c r="A40" s="224"/>
       <c r="B40" s="11"/>
       <c r="C40" s="34"/>
-      <c r="D40" s="221"/>
+      <c r="D40" s="224"/>
       <c r="E40" s="102">
         <v>1</v>
       </c>
@@ -19127,13 +20576,13 @@
         <f t="shared" ref="P40:P42" si="35">P$6*P36</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="221"/>
+      <c r="Q40" s="224"/>
     </row>
     <row r="41" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="221"/>
+      <c r="A41" s="224"/>
       <c r="B41" s="11"/>
       <c r="C41" s="34"/>
-      <c r="D41" s="221"/>
+      <c r="D41" s="224"/>
       <c r="E41" s="102">
         <v>2</v>
       </c>
@@ -19178,13 +20627,13 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="221"/>
+      <c r="Q41" s="224"/>
     </row>
     <row r="42" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="221"/>
+      <c r="A42" s="224"/>
       <c r="B42" s="11"/>
       <c r="C42" s="34"/>
-      <c r="D42" s="221"/>
+      <c r="D42" s="224"/>
       <c r="E42" s="102">
         <v>3</v>
       </c>
@@ -19229,13 +20678,13 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="221"/>
+      <c r="Q42" s="224"/>
     </row>
     <row r="43" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="221"/>
+      <c r="A43" s="224"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="221"/>
+      <c r="D43" s="224"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
@@ -19248,10 +20697,24 @@
       <c r="N43" s="15"/>
       <c r="O43" s="15"/>
       <c r="P43" s="15"/>
-      <c r="Q43" s="221"/>
+      <c r="Q43" s="224"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="E7:P7"/>
+    <mergeCell ref="E16:M16"/>
+    <mergeCell ref="Q1:Q43"/>
+    <mergeCell ref="E25:M25"/>
+    <mergeCell ref="E35:P35"/>
+    <mergeCell ref="E17:P17"/>
+    <mergeCell ref="E26:P26"/>
+    <mergeCell ref="E4:P4"/>
+    <mergeCell ref="E3:P3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E1:P1"/>
+    <mergeCell ref="G2:P2"/>
+    <mergeCell ref="E34:M34"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B17:C17"/>
@@ -19266,20 +20729,6 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="E7:P7"/>
-    <mergeCell ref="E16:M16"/>
-    <mergeCell ref="Q1:Q43"/>
-    <mergeCell ref="E25:M25"/>
-    <mergeCell ref="E35:P35"/>
-    <mergeCell ref="E17:P17"/>
-    <mergeCell ref="E26:P26"/>
-    <mergeCell ref="E4:P4"/>
-    <mergeCell ref="E3:P3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E1:P1"/>
-    <mergeCell ref="G2:P2"/>
-    <mergeCell ref="E34:M34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19288,1719 +20737,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="140" t="s">
-        <v>437</v>
-      </c>
-      <c r="B1" s="215">
-        <v>1.5</v>
-      </c>
-      <c r="C1" s="265" t="s">
-        <v>417</v>
-      </c>
-      <c r="D1" s="266"/>
-      <c r="E1" s="266"/>
-      <c r="F1" s="266"/>
-      <c r="G1" s="266"/>
-      <c r="H1" s="266"/>
-      <c r="I1" s="267"/>
-      <c r="J1" s="265" t="s">
-        <v>418</v>
-      </c>
-      <c r="K1" s="266"/>
-      <c r="L1" s="266"/>
-      <c r="M1" s="266"/>
-      <c r="N1" s="266"/>
-      <c r="O1" s="266"/>
-      <c r="P1" s="267"/>
-    </row>
-    <row r="2" spans="1:16" ht="27" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="214" t="s">
-        <v>416</v>
-      </c>
-      <c r="B2" s="214" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="214" t="s">
-        <v>419</v>
-      </c>
-      <c r="D2" s="214" t="s">
-        <v>421</v>
-      </c>
-      <c r="E2" s="214" t="s">
-        <v>420</v>
-      </c>
-      <c r="F2" s="214" t="s">
-        <v>422</v>
-      </c>
-      <c r="G2" s="214" t="s">
-        <v>423</v>
-      </c>
-      <c r="H2" s="214" t="s">
-        <v>424</v>
-      </c>
-      <c r="I2" s="214" t="s">
-        <v>425</v>
-      </c>
-      <c r="J2" s="214" t="s">
-        <v>419</v>
-      </c>
-      <c r="K2" s="214" t="s">
-        <v>421</v>
-      </c>
-      <c r="L2" s="214" t="s">
-        <v>420</v>
-      </c>
-      <c r="M2" s="214" t="s">
-        <v>422</v>
-      </c>
-      <c r="N2" s="214" t="s">
-        <v>423</v>
-      </c>
-      <c r="O2" s="214" t="s">
-        <v>424</v>
-      </c>
-      <c r="P2" s="214" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="119" t="s">
-        <v>435</v>
-      </c>
-      <c r="B3" s="217" t="s">
-        <v>436</v>
-      </c>
-      <c r="C3" s="215">
-        <f>J3*B$1</f>
-        <v>15</v>
-      </c>
-      <c r="D3" s="215">
-        <f>K3*B$1</f>
-        <v>75</v>
-      </c>
-      <c r="E3" s="215">
-        <v>375</v>
-      </c>
-      <c r="F3" s="215">
-        <f>M3*B$1</f>
-        <v>1500</v>
-      </c>
-      <c r="G3" s="215">
-        <f>N3*B$1</f>
-        <v>1125</v>
-      </c>
-      <c r="H3" s="215">
-        <f>O3*B$1</f>
-        <v>7500</v>
-      </c>
-      <c r="I3" s="215">
-        <f>P3*B$1</f>
-        <v>1500</v>
-      </c>
-      <c r="J3" s="215">
-        <v>10</v>
-      </c>
-      <c r="K3" s="215">
-        <v>50</v>
-      </c>
-      <c r="L3" s="215">
-        <v>200</v>
-      </c>
-      <c r="M3" s="215">
-        <v>1000</v>
-      </c>
-      <c r="N3" s="215">
-        <v>750</v>
-      </c>
-      <c r="O3" s="215">
-        <v>5000</v>
-      </c>
-      <c r="P3" s="215">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="216"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="215"/>
-      <c r="J4" s="215"/>
-      <c r="K4" s="215"/>
-      <c r="L4" s="215"/>
-      <c r="M4" s="215"/>
-      <c r="N4" s="215"/>
-      <c r="O4" s="215"/>
-      <c r="P4" s="215"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="119" t="s">
-        <v>426</v>
-      </c>
-      <c r="B5" s="216">
-        <v>2</v>
-      </c>
-      <c r="C5" s="215">
-        <f>C$3/B5</f>
-        <v>7.5</v>
-      </c>
-      <c r="D5" s="215">
-        <f>D$3/B5</f>
-        <v>37.5</v>
-      </c>
-      <c r="E5" s="215">
-        <f>E$3/B5</f>
-        <v>187.5</v>
-      </c>
-      <c r="F5" s="215">
-        <f>F$3/B5</f>
-        <v>750</v>
-      </c>
-      <c r="G5" s="215">
-        <f>G$3/B5</f>
-        <v>562.5</v>
-      </c>
-      <c r="H5" s="215">
-        <f>H$3/B5</f>
-        <v>3750</v>
-      </c>
-      <c r="I5" s="215">
-        <f>I$3/B5</f>
-        <v>750</v>
-      </c>
-      <c r="J5" s="215">
-        <f>J$3/B5</f>
-        <v>5</v>
-      </c>
-      <c r="K5" s="215">
-        <f>K$3/B5</f>
-        <v>25</v>
-      </c>
-      <c r="L5" s="215">
-        <f>L$3/B5</f>
-        <v>100</v>
-      </c>
-      <c r="M5" s="215">
-        <f>M$3/B5</f>
-        <v>500</v>
-      </c>
-      <c r="N5" s="215">
-        <f>N$3/B5</f>
-        <v>375</v>
-      </c>
-      <c r="O5" s="215">
-        <f>O$3/B5</f>
-        <v>2500</v>
-      </c>
-      <c r="P5" s="215">
-        <f>P$3/B5</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="119" t="s">
-        <v>427</v>
-      </c>
-      <c r="B6" s="216">
-        <v>5</v>
-      </c>
-      <c r="C6" s="215">
-        <f t="shared" ref="C6:C25" si="0">C$3/B6</f>
-        <v>3</v>
-      </c>
-      <c r="D6" s="215">
-        <f t="shared" ref="D6:D25" si="1">D$3/B6</f>
-        <v>15</v>
-      </c>
-      <c r="E6" s="215">
-        <f t="shared" ref="E6:E25" si="2">E$3/B6</f>
-        <v>75</v>
-      </c>
-      <c r="F6" s="215">
-        <f t="shared" ref="F6:F25" si="3">F$3/B6</f>
-        <v>300</v>
-      </c>
-      <c r="G6" s="215">
-        <f t="shared" ref="G6:G25" si="4">G$3/B6</f>
-        <v>225</v>
-      </c>
-      <c r="H6" s="215">
-        <f t="shared" ref="H6:H25" si="5">H$3/B6</f>
-        <v>1500</v>
-      </c>
-      <c r="I6" s="215">
-        <f t="shared" ref="I6:I25" si="6">I$3/B6</f>
-        <v>300</v>
-      </c>
-      <c r="J6" s="215">
-        <f t="shared" ref="J6:J25" si="7">J$3/B6</f>
-        <v>2</v>
-      </c>
-      <c r="K6" s="215">
-        <f t="shared" ref="K6:K25" si="8">K$3/B6</f>
-        <v>10</v>
-      </c>
-      <c r="L6" s="215">
-        <f t="shared" ref="L6:L25" si="9">L$3/B6</f>
-        <v>40</v>
-      </c>
-      <c r="M6" s="215">
-        <f t="shared" ref="M6:M25" si="10">M$3/B6</f>
-        <v>200</v>
-      </c>
-      <c r="N6" s="215">
-        <f t="shared" ref="N6:N25" si="11">N$3/B6</f>
-        <v>150</v>
-      </c>
-      <c r="O6" s="215">
-        <f t="shared" ref="O6:O25" si="12">O$3/B6</f>
-        <v>1000</v>
-      </c>
-      <c r="P6" s="215">
-        <f t="shared" ref="P6:P25" si="13">P$3/B6</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="119" t="s">
-        <v>428</v>
-      </c>
-      <c r="B7" s="216">
-        <f>12*4</f>
-        <v>48</v>
-      </c>
-      <c r="C7" s="215">
-        <f t="shared" si="0"/>
-        <v>0.3125</v>
-      </c>
-      <c r="D7" s="215">
-        <f t="shared" si="1"/>
-        <v>1.5625</v>
-      </c>
-      <c r="E7" s="215">
-        <f t="shared" si="2"/>
-        <v>7.8125</v>
-      </c>
-      <c r="F7" s="215">
-        <f t="shared" si="3"/>
-        <v>31.25</v>
-      </c>
-      <c r="G7" s="215">
-        <f t="shared" si="4"/>
-        <v>23.4375</v>
-      </c>
-      <c r="H7" s="215">
-        <f t="shared" si="5"/>
-        <v>156.25</v>
-      </c>
-      <c r="I7" s="215">
-        <f t="shared" si="6"/>
-        <v>31.25</v>
-      </c>
-      <c r="J7" s="215">
-        <f t="shared" si="7"/>
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="K7" s="215">
-        <f t="shared" si="8"/>
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="L7" s="215">
-        <f t="shared" si="9"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="M7" s="215">
-        <f t="shared" si="10"/>
-        <v>20.833333333333332</v>
-      </c>
-      <c r="N7" s="215">
-        <f t="shared" si="11"/>
-        <v>15.625</v>
-      </c>
-      <c r="O7" s="215">
-        <f t="shared" si="12"/>
-        <v>104.16666666666667</v>
-      </c>
-      <c r="P7" s="215">
-        <f t="shared" si="13"/>
-        <v>20.833333333333332</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="119" t="s">
-        <v>429</v>
-      </c>
-      <c r="B8" s="216">
-        <f>16*6</f>
-        <v>96</v>
-      </c>
-      <c r="C8" s="215">
-        <f t="shared" si="0"/>
-        <v>0.15625</v>
-      </c>
-      <c r="D8" s="215">
-        <f t="shared" si="1"/>
-        <v>0.78125</v>
-      </c>
-      <c r="E8" s="215">
-        <f t="shared" si="2"/>
-        <v>3.90625</v>
-      </c>
-      <c r="F8" s="215">
-        <f t="shared" si="3"/>
-        <v>15.625</v>
-      </c>
-      <c r="G8" s="215">
-        <f t="shared" si="4"/>
-        <v>11.71875</v>
-      </c>
-      <c r="H8" s="215">
-        <f t="shared" si="5"/>
-        <v>78.125</v>
-      </c>
-      <c r="I8" s="215">
-        <f t="shared" si="6"/>
-        <v>15.625</v>
-      </c>
-      <c r="J8" s="215">
-        <f t="shared" si="7"/>
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="K8" s="215">
-        <f t="shared" si="8"/>
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="L8" s="215">
-        <f t="shared" si="9"/>
-        <v>2.0833333333333335</v>
-      </c>
-      <c r="M8" s="215">
-        <f t="shared" si="10"/>
-        <v>10.416666666666666</v>
-      </c>
-      <c r="N8" s="215">
-        <f t="shared" si="11"/>
-        <v>7.8125</v>
-      </c>
-      <c r="O8" s="215">
-        <f t="shared" si="12"/>
-        <v>52.083333333333336</v>
-      </c>
-      <c r="P8" s="215">
-        <f t="shared" si="13"/>
-        <v>10.416666666666666</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="119" t="s">
-        <v>430</v>
-      </c>
-      <c r="B9" s="216">
-        <v>60</v>
-      </c>
-      <c r="C9" s="215">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="D9" s="215">
-        <f t="shared" si="1"/>
-        <v>1.25</v>
-      </c>
-      <c r="E9" s="215">
-        <f t="shared" si="2"/>
-        <v>6.25</v>
-      </c>
-      <c r="F9" s="215">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="G9" s="215">
-        <f t="shared" si="4"/>
-        <v>18.75</v>
-      </c>
-      <c r="H9" s="215">
-        <f t="shared" si="5"/>
-        <v>125</v>
-      </c>
-      <c r="I9" s="215">
-        <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="J9" s="215">
-        <f t="shared" si="7"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K9" s="215">
-        <f t="shared" si="8"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="L9" s="215">
-        <f t="shared" si="9"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="M9" s="215">
-        <f t="shared" si="10"/>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="N9" s="215">
-        <f t="shared" si="11"/>
-        <v>12.5</v>
-      </c>
-      <c r="O9" s="215">
-        <f t="shared" si="12"/>
-        <v>83.333333333333329</v>
-      </c>
-      <c r="P9" s="215">
-        <f t="shared" si="13"/>
-        <v>16.666666666666668</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="119" t="s">
-        <v>431</v>
-      </c>
-      <c r="B10" s="216">
-        <v>40</v>
-      </c>
-      <c r="C10" s="215">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="D10" s="215">
-        <f t="shared" si="1"/>
-        <v>1.875</v>
-      </c>
-      <c r="E10" s="215">
-        <f t="shared" si="2"/>
-        <v>9.375</v>
-      </c>
-      <c r="F10" s="215">
-        <f t="shared" si="3"/>
-        <v>37.5</v>
-      </c>
-      <c r="G10" s="215">
-        <f t="shared" si="4"/>
-        <v>28.125</v>
-      </c>
-      <c r="H10" s="215">
-        <f t="shared" si="5"/>
-        <v>187.5</v>
-      </c>
-      <c r="I10" s="215">
-        <f t="shared" si="6"/>
-        <v>37.5</v>
-      </c>
-      <c r="J10" s="215">
-        <f t="shared" si="7"/>
-        <v>0.25</v>
-      </c>
-      <c r="K10" s="215">
-        <f t="shared" si="8"/>
-        <v>1.25</v>
-      </c>
-      <c r="L10" s="215">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="M10" s="215">
-        <f t="shared" si="10"/>
-        <v>25</v>
-      </c>
-      <c r="N10" s="215">
-        <f t="shared" si="11"/>
-        <v>18.75</v>
-      </c>
-      <c r="O10" s="215">
-        <f t="shared" si="12"/>
-        <v>125</v>
-      </c>
-      <c r="P10" s="215">
-        <f t="shared" si="13"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="119" t="s">
-        <v>434</v>
-      </c>
-      <c r="B11" s="216">
-        <f>8*20</f>
-        <v>160</v>
-      </c>
-      <c r="C11" s="215">
-        <f t="shared" si="0"/>
-        <v>9.375E-2</v>
-      </c>
-      <c r="D11" s="215">
-        <f t="shared" si="1"/>
-        <v>0.46875</v>
-      </c>
-      <c r="E11" s="215">
-        <f t="shared" si="2"/>
-        <v>2.34375</v>
-      </c>
-      <c r="F11" s="215">
-        <f t="shared" si="3"/>
-        <v>9.375</v>
-      </c>
-      <c r="G11" s="215">
-        <f t="shared" si="4"/>
-        <v>7.03125</v>
-      </c>
-      <c r="H11" s="215">
-        <f t="shared" si="5"/>
-        <v>46.875</v>
-      </c>
-      <c r="I11" s="215">
-        <f t="shared" si="6"/>
-        <v>9.375</v>
-      </c>
-      <c r="J11" s="215">
-        <f t="shared" si="7"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="K11" s="215">
-        <f t="shared" si="8"/>
-        <v>0.3125</v>
-      </c>
-      <c r="L11" s="215">
-        <f t="shared" si="9"/>
-        <v>1.25</v>
-      </c>
-      <c r="M11" s="215">
-        <f t="shared" si="10"/>
-        <v>6.25</v>
-      </c>
-      <c r="N11" s="215">
-        <f t="shared" si="11"/>
-        <v>4.6875</v>
-      </c>
-      <c r="O11" s="215">
-        <f t="shared" si="12"/>
-        <v>31.25</v>
-      </c>
-      <c r="P11" s="215">
-        <f t="shared" si="13"/>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="119" t="s">
-        <v>432</v>
-      </c>
-      <c r="B12" s="216"/>
-      <c r="C12" s="215" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" s="215" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="215" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="215" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" s="215" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="215" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="215" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="215" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K12" s="215" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L12" s="215" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" s="215" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" s="215" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O12" s="215" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P12" s="215" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="119" t="s">
-        <v>433</v>
-      </c>
-      <c r="B13" s="216"/>
-      <c r="C13" s="215" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" s="215" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="215" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="215" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="215" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H13" s="215" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" s="215" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" s="215" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K13" s="215" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L13" s="215" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M13" s="215" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N13" s="215" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O13" s="215" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P13" s="215" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="119" t="s">
-        <v>438</v>
-      </c>
-      <c r="B14" s="216"/>
-      <c r="C14" s="215" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D14" s="215" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E14" s="215" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" s="215" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G14" s="215" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H14" s="215" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="215" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" s="215" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K14" s="215" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L14" s="215" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M14" s="215" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N14" s="215" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O14" s="215" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P14" s="215" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="119" t="s">
-        <v>439</v>
-      </c>
-      <c r="B15" s="216">
-        <v>200</v>
-      </c>
-      <c r="C15" s="215">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D15" s="215">
-        <f t="shared" si="1"/>
-        <v>0.375</v>
-      </c>
-      <c r="E15" s="215">
-        <f t="shared" si="2"/>
-        <v>1.875</v>
-      </c>
-      <c r="F15" s="215">
-        <f t="shared" si="3"/>
-        <v>7.5</v>
-      </c>
-      <c r="G15" s="215">
-        <f t="shared" si="4"/>
-        <v>5.625</v>
-      </c>
-      <c r="H15" s="215">
-        <f t="shared" si="5"/>
-        <v>37.5</v>
-      </c>
-      <c r="I15" s="215">
-        <f t="shared" si="6"/>
-        <v>7.5</v>
-      </c>
-      <c r="J15" s="215">
-        <f t="shared" si="7"/>
-        <v>0.05</v>
-      </c>
-      <c r="K15" s="215">
-        <f t="shared" si="8"/>
-        <v>0.25</v>
-      </c>
-      <c r="L15" s="215">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M15" s="215">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="N15" s="215">
-        <f t="shared" si="11"/>
-        <v>3.75</v>
-      </c>
-      <c r="O15" s="215">
-        <f t="shared" si="12"/>
-        <v>25</v>
-      </c>
-      <c r="P15" s="215">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="119" t="s">
-        <v>440</v>
-      </c>
-      <c r="B16" s="216">
-        <v>25</v>
-      </c>
-      <c r="C16" s="215">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="D16" s="215">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E16" s="215">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="F16" s="215">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="G16" s="215">
-        <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="H16" s="215">
-        <f t="shared" si="5"/>
-        <v>300</v>
-      </c>
-      <c r="I16" s="215">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="J16" s="215">
-        <f t="shared" si="7"/>
-        <v>0.4</v>
-      </c>
-      <c r="K16" s="215">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="L16" s="215">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="M16" s="215">
-        <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="N16" s="215">
-        <f t="shared" si="11"/>
-        <v>30</v>
-      </c>
-      <c r="O16" s="215">
-        <f t="shared" si="12"/>
-        <v>200</v>
-      </c>
-      <c r="P16" s="215">
-        <f t="shared" si="13"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="119" t="s">
-        <v>442</v>
-      </c>
-      <c r="B17" s="216"/>
-      <c r="C17" s="215" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D17" s="215" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="215" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="215" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="215" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="215" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="215" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J17" s="215" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K17" s="215" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L17" s="215" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M17" s="215" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N17" s="215" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O17" s="215" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P17" s="215" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="119" t="s">
-        <v>441</v>
-      </c>
-      <c r="B18" s="216"/>
-      <c r="C18" s="215" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D18" s="215" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="215" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18" s="215" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="215" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" s="215" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="215" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J18" s="215" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K18" s="215" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L18" s="215" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M18" s="215" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N18" s="215" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O18" s="215" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P18" s="215" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="216"/>
-      <c r="C19" s="215" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D19" s="215" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="215" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="215" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="215" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H19" s="215" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="215" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="215" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K19" s="215" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L19" s="215" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M19" s="215" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N19" s="215" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O19" s="215" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P19" s="215" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="216"/>
-      <c r="C20" s="215" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D20" s="215" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E20" s="215" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="215" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="215" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="215" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="215" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="215" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" s="215" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20" s="215" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M20" s="215" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="215" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O20" s="215" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P20" s="215" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B21" s="216"/>
-      <c r="C21" s="215" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D21" s="215" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E21" s="215" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="215" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G21" s="215" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" s="215" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="215" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" s="215" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K21" s="215" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L21" s="215" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M21" s="215" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N21" s="215" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O21" s="215" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P21" s="215" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="216"/>
-      <c r="C22" s="215" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D22" s="215" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" s="215" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="215" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" s="215" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" s="215" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="215" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" s="215" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K22" s="215" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L22" s="215" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M22" s="215" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N22" s="215" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O22" s="215" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P22" s="215" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="216"/>
-      <c r="C23" s="215" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D23" s="215" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E23" s="215" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="215" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G23" s="215" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H23" s="215" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="215" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J23" s="215" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" s="215" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L23" s="215" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M23" s="215" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N23" s="215" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O23" s="215" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P23" s="215" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="216"/>
-      <c r="C24" s="215" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D24" s="215" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E24" s="215" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F24" s="215" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" s="215" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H24" s="215" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="215" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J24" s="215" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K24" s="215" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L24" s="215" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M24" s="215" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N24" s="215" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O24" s="215" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P24" s="215" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="216"/>
-      <c r="C25" s="215" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="215" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="215" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="215" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="215" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H25" s="215" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="215" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J25" s="215" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K25" s="215" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L25" s="215" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M25" s="215" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N25" s="215" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O25" s="215" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P25" s="215" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C26" s="215"/>
-      <c r="D26" s="215"/>
-      <c r="E26" s="215"/>
-      <c r="F26" s="215"/>
-      <c r="G26" s="215"/>
-      <c r="H26" s="215"/>
-      <c r="I26" s="215"/>
-      <c r="J26" s="215"/>
-      <c r="K26" s="215"/>
-      <c r="L26" s="215"/>
-      <c r="M26" s="215"/>
-      <c r="N26" s="215"/>
-      <c r="O26" s="215"/>
-      <c r="P26" s="215"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C27" s="215"/>
-      <c r="D27" s="215"/>
-      <c r="E27" s="215"/>
-      <c r="F27" s="215"/>
-      <c r="G27" s="215"/>
-      <c r="H27" s="215"/>
-      <c r="I27" s="215"/>
-      <c r="J27" s="215"/>
-      <c r="K27" s="215"/>
-      <c r="L27" s="215"/>
-      <c r="M27" s="215"/>
-      <c r="N27" s="215"/>
-      <c r="O27" s="215"/>
-      <c r="P27" s="215"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C28" s="215"/>
-      <c r="D28" s="215"/>
-      <c r="E28" s="215"/>
-      <c r="F28" s="215"/>
-      <c r="G28" s="215"/>
-      <c r="H28" s="215"/>
-      <c r="I28" s="215"/>
-      <c r="J28" s="215"/>
-      <c r="K28" s="215"/>
-      <c r="L28" s="215"/>
-      <c r="M28" s="215"/>
-      <c r="N28" s="215"/>
-      <c r="O28" s="215"/>
-      <c r="P28" s="215"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C29" s="215"/>
-      <c r="D29" s="215"/>
-      <c r="E29" s="215"/>
-      <c r="F29" s="215"/>
-      <c r="G29" s="215"/>
-      <c r="H29" s="215"/>
-      <c r="I29" s="215"/>
-      <c r="J29" s="215"/>
-      <c r="K29" s="215"/>
-      <c r="L29" s="215"/>
-      <c r="M29" s="215"/>
-      <c r="N29" s="215"/>
-      <c r="O29" s="215"/>
-      <c r="P29" s="215"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C30" s="215"/>
-      <c r="D30" s="215"/>
-      <c r="E30" s="215"/>
-      <c r="F30" s="215"/>
-      <c r="G30" s="215"/>
-      <c r="H30" s="215"/>
-      <c r="I30" s="215"/>
-      <c r="J30" s="215"/>
-      <c r="K30" s="215"/>
-      <c r="L30" s="215"/>
-      <c r="M30" s="215"/>
-      <c r="N30" s="215"/>
-      <c r="O30" s="215"/>
-      <c r="P30" s="215"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C31" s="215"/>
-      <c r="D31" s="215"/>
-      <c r="E31" s="215"/>
-      <c r="F31" s="215"/>
-      <c r="G31" s="215"/>
-      <c r="H31" s="215"/>
-      <c r="I31" s="215"/>
-      <c r="J31" s="215"/>
-      <c r="K31" s="215"/>
-      <c r="L31" s="215"/>
-      <c r="M31" s="215"/>
-      <c r="N31" s="215"/>
-      <c r="O31" s="215"/>
-      <c r="P31" s="215"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C32" s="215"/>
-      <c r="D32" s="215"/>
-      <c r="E32" s="215"/>
-      <c r="F32" s="215"/>
-      <c r="G32" s="215"/>
-      <c r="H32" s="215"/>
-      <c r="I32" s="215"/>
-      <c r="J32" s="215"/>
-      <c r="K32" s="215"/>
-      <c r="L32" s="215"/>
-      <c r="M32" s="215"/>
-      <c r="N32" s="215"/>
-      <c r="O32" s="215"/>
-      <c r="P32" s="215"/>
-    </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C33" s="215"/>
-      <c r="D33" s="215"/>
-      <c r="E33" s="215"/>
-      <c r="F33" s="215"/>
-      <c r="G33" s="215"/>
-      <c r="H33" s="215"/>
-      <c r="I33" s="215"/>
-      <c r="J33" s="215"/>
-      <c r="K33" s="215"/>
-      <c r="L33" s="215"/>
-      <c r="M33" s="215"/>
-      <c r="N33" s="215"/>
-      <c r="O33" s="215"/>
-      <c r="P33" s="215"/>
-    </row>
-    <row r="34" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C34" s="215"/>
-      <c r="D34" s="215"/>
-      <c r="E34" s="215"/>
-      <c r="F34" s="215"/>
-      <c r="G34" s="215"/>
-      <c r="H34" s="215"/>
-      <c r="I34" s="215"/>
-      <c r="J34" s="215"/>
-      <c r="K34" s="215"/>
-      <c r="L34" s="215"/>
-      <c r="M34" s="215"/>
-      <c r="N34" s="215"/>
-      <c r="O34" s="215"/>
-      <c r="P34" s="215"/>
-    </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C35" s="215"/>
-      <c r="D35" s="215"/>
-      <c r="E35" s="215"/>
-      <c r="F35" s="215"/>
-      <c r="G35" s="215"/>
-      <c r="H35" s="215"/>
-      <c r="I35" s="215"/>
-      <c r="J35" s="215"/>
-      <c r="K35" s="215"/>
-      <c r="L35" s="215"/>
-      <c r="M35" s="215"/>
-      <c r="N35" s="215"/>
-      <c r="O35" s="215"/>
-      <c r="P35" s="215"/>
-    </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C36" s="215"/>
-      <c r="D36" s="215"/>
-      <c r="E36" s="215"/>
-      <c r="F36" s="215"/>
-      <c r="G36" s="215"/>
-      <c r="H36" s="215"/>
-      <c r="I36" s="215"/>
-      <c r="J36" s="215"/>
-      <c r="K36" s="215"/>
-      <c r="L36" s="215"/>
-      <c r="M36" s="215"/>
-      <c r="N36" s="215"/>
-      <c r="O36" s="215"/>
-      <c r="P36" s="215"/>
-    </row>
-    <row r="37" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C37" s="215"/>
-      <c r="D37" s="215"/>
-      <c r="E37" s="215"/>
-      <c r="F37" s="215"/>
-      <c r="G37" s="215"/>
-      <c r="H37" s="215"/>
-      <c r="I37" s="215"/>
-      <c r="J37" s="215"/>
-      <c r="K37" s="215"/>
-      <c r="L37" s="215"/>
-      <c r="M37" s="215"/>
-      <c r="N37" s="215"/>
-      <c r="O37" s="215"/>
-      <c r="P37" s="215"/>
-    </row>
-    <row r="38" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C38" s="215"/>
-      <c r="D38" s="215"/>
-      <c r="E38" s="215"/>
-      <c r="F38" s="215"/>
-      <c r="G38" s="215"/>
-      <c r="H38" s="215"/>
-      <c r="I38" s="215"/>
-      <c r="J38" s="215"/>
-      <c r="K38" s="215"/>
-      <c r="L38" s="215"/>
-      <c r="M38" s="215"/>
-      <c r="N38" s="215"/>
-      <c r="O38" s="215"/>
-      <c r="P38" s="215"/>
-    </row>
-    <row r="39" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C39" s="215"/>
-      <c r="D39" s="215"/>
-      <c r="E39" s="215"/>
-      <c r="F39" s="215"/>
-      <c r="G39" s="215"/>
-      <c r="H39" s="215"/>
-      <c r="I39" s="215"/>
-      <c r="J39" s="215"/>
-      <c r="K39" s="215"/>
-      <c r="L39" s="215"/>
-      <c r="M39" s="215"/>
-      <c r="N39" s="215"/>
-      <c r="O39" s="215"/>
-      <c r="P39" s="215"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="J1:P1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A26:C36"/>
   <sheetViews>
@@ -21016,76 +20752,500 @@
   </cols>
   <sheetData>
     <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="236" t="s">
+      <c r="A26" s="241" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="221"/>
-      <c r="C26" s="221"/>
+      <c r="B26" s="224"/>
+      <c r="C26" s="224"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="234"/>
-      <c r="B27" s="221"/>
+      <c r="A27" s="240"/>
+      <c r="B27" s="224"/>
       <c r="C27" s="50"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="234"/>
-      <c r="B28" s="221"/>
+      <c r="A28" s="240"/>
+      <c r="B28" s="224"/>
       <c r="C28" s="51"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="234"/>
-      <c r="B29" s="221"/>
+      <c r="A29" s="240"/>
+      <c r="B29" s="224"/>
       <c r="C29" s="121"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="234"/>
-      <c r="B30" s="221"/>
+      <c r="A30" s="240"/>
+      <c r="B30" s="224"/>
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="234"/>
-      <c r="B31" s="221"/>
+      <c r="A31" s="240"/>
+      <c r="B31" s="224"/>
       <c r="C31" s="53"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="237"/>
-      <c r="B32" s="221"/>
+      <c r="A32" s="238"/>
+      <c r="B32" s="224"/>
       <c r="C32" s="121"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="235"/>
-      <c r="B33" s="221"/>
+      <c r="A33" s="237"/>
+      <c r="B33" s="224"/>
       <c r="C33" s="53"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="235"/>
-      <c r="B34" s="221"/>
+      <c r="A34" s="237"/>
+      <c r="B34" s="224"/>
       <c r="C34" s="53"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="235"/>
-      <c r="B35" s="221"/>
+      <c r="A35" s="237"/>
+      <c r="B35" s="224"/>
       <c r="C35" s="53"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="235"/>
-      <c r="B36" s="221"/>
+      <c r="A36" s="237"/>
+      <c r="B36" s="224"/>
       <c r="C36" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="O2:S32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O2" s="216" t="s">
+        <v>430</v>
+      </c>
+      <c r="P2" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>433</v>
+      </c>
+      <c r="R2" t="s">
+        <v>431</v>
+      </c>
+      <c r="S2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="3" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O3" t="s">
+        <v>441</v>
+      </c>
+      <c r="P3" s="271">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="272">
+        <v>0.25</v>
+      </c>
+      <c r="R3" s="271">
+        <f>Tabel1[[#This Row],[Evo Low]]</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="272">
+        <f>Tabel1[[#This Row],[Evo High]]</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O4" t="s">
+        <v>442</v>
+      </c>
+      <c r="P4" s="273">
+        <v>0.2</v>
+      </c>
+      <c r="Q4" s="274">
+        <f>Q3+Q$32</f>
+        <v>0.31854838709677419</v>
+      </c>
+      <c r="R4" s="273">
+        <f>Tabel1[[#This Row],[Evo Low]]</f>
+        <v>0.2</v>
+      </c>
+      <c r="S4" s="274">
+        <f>Tabel1[[#This Row],[Evo High]]</f>
+        <v>0.31854838709677419</v>
+      </c>
+    </row>
+    <row r="5" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O5" t="s">
+        <v>445</v>
+      </c>
+      <c r="P5" s="273">
+        <f t="shared" ref="P5:P17" si="0">P4+P$32</f>
+        <v>0.25555555555555559</v>
+      </c>
+      <c r="Q5" s="274">
+        <f t="shared" ref="Q5:Q17" si="1">Q4+Q$32</f>
+        <v>0.38709677419354838</v>
+      </c>
+      <c r="R5" s="271">
+        <f>Tabel1[[#This Row],[Evo Low]]</f>
+        <v>0.25555555555555559</v>
+      </c>
+      <c r="S5" s="272">
+        <f>Tabel1[[#This Row],[Evo High]]</f>
+        <v>0.38709677419354838</v>
+      </c>
+    </row>
+    <row r="6" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O6" t="s">
+        <v>444</v>
+      </c>
+      <c r="P6" s="273">
+        <f t="shared" si="0"/>
+        <v>0.31111111111111117</v>
+      </c>
+      <c r="Q6" s="274">
+        <f t="shared" si="1"/>
+        <v>0.45564516129032256</v>
+      </c>
+      <c r="R6" s="273">
+        <f>Tabel1[[#This Row],[Evo Low]]</f>
+        <v>0.31111111111111117</v>
+      </c>
+      <c r="S6" s="274">
+        <f>Tabel1[[#This Row],[Evo High]]</f>
+        <v>0.45564516129032256</v>
+      </c>
+    </row>
+    <row r="7" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O7" t="s">
+        <v>443</v>
+      </c>
+      <c r="P7" s="273">
+        <f t="shared" si="0"/>
+        <v>0.36666666666666675</v>
+      </c>
+      <c r="Q7" s="274">
+        <f t="shared" si="1"/>
+        <v>0.52419354838709675</v>
+      </c>
+      <c r="R7" s="271">
+        <f>Tabel1[[#This Row],[Evo Low]]</f>
+        <v>0.36666666666666675</v>
+      </c>
+      <c r="S7" s="272">
+        <f>Tabel1[[#This Row],[Evo High]]</f>
+        <v>0.52419354838709675</v>
+      </c>
+    </row>
+    <row r="8" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O8" t="s">
+        <v>446</v>
+      </c>
+      <c r="P8" s="273">
+        <f t="shared" si="0"/>
+        <v>0.42222222222222233</v>
+      </c>
+      <c r="Q8" s="274">
+        <f t="shared" si="1"/>
+        <v>0.592741935483871</v>
+      </c>
+      <c r="R8" s="275">
+        <f>Tabel1[[#This Row],[Evo Low]]</f>
+        <v>0.42222222222222233</v>
+      </c>
+      <c r="S8" s="276">
+        <f>Tabel1[[#This Row],[Evo High]]</f>
+        <v>0.592741935483871</v>
+      </c>
+    </row>
+    <row r="9" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O9" t="s">
+        <v>449</v>
+      </c>
+      <c r="P9" s="273">
+        <f t="shared" si="0"/>
+        <v>0.47777777777777791</v>
+      </c>
+      <c r="Q9" s="274">
+        <f t="shared" si="1"/>
+        <v>0.66129032258064524</v>
+      </c>
+      <c r="R9" s="275">
+        <f>Tabel1[[#This Row],[Evo Low]]</f>
+        <v>0.47777777777777791</v>
+      </c>
+      <c r="S9" s="276">
+        <f>Tabel1[[#This Row],[Evo High]]</f>
+        <v>0.66129032258064524</v>
+      </c>
+    </row>
+    <row r="10" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O10" t="s">
+        <v>447</v>
+      </c>
+      <c r="P10" s="273">
+        <f t="shared" si="0"/>
+        <v>0.53333333333333344</v>
+      </c>
+      <c r="Q10" s="274">
+        <f t="shared" si="1"/>
+        <v>0.72983870967741948</v>
+      </c>
+      <c r="R10" s="277">
+        <f>Tabel1[[#This Row],[Evo Low]]</f>
+        <v>0.53333333333333344</v>
+      </c>
+      <c r="S10" s="277">
+        <f>Tabel1[[#This Row],[Evo High]]</f>
+        <v>0.72983870967741948</v>
+      </c>
+    </row>
+    <row r="11" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O11" t="s">
+        <v>448</v>
+      </c>
+      <c r="P11" s="273">
+        <f t="shared" si="0"/>
+        <v>0.58888888888888902</v>
+      </c>
+      <c r="Q11" s="274">
+        <f t="shared" si="1"/>
+        <v>0.79838709677419373</v>
+      </c>
+      <c r="R11" s="278">
+        <f>Tabel1[[#This Row],[Evo Low]]</f>
+        <v>0.58888888888888902</v>
+      </c>
+      <c r="S11" s="278">
+        <f>Tabel1[[#This Row],[Evo High]]</f>
+        <v>0.79838709677419373</v>
+      </c>
+    </row>
+    <row r="12" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O12" t="s">
+        <v>439</v>
+      </c>
+      <c r="P12" s="273">
+        <f t="shared" si="0"/>
+        <v>0.6444444444444446</v>
+      </c>
+      <c r="Q12" s="274">
+        <f t="shared" si="1"/>
+        <v>0.86693548387096797</v>
+      </c>
+      <c r="R12" s="279">
+        <f>Tabel1[[#This Row],[Evo Low]]</f>
+        <v>0.6444444444444446</v>
+      </c>
+      <c r="S12" s="279">
+        <f>Tabel1[[#This Row],[Evo High]]</f>
+        <v>0.86693548387096797</v>
+      </c>
+    </row>
+    <row r="13" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O13" t="s">
+        <v>440</v>
+      </c>
+      <c r="P13" s="273">
+        <f t="shared" si="0"/>
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="Q13" s="274">
+        <f t="shared" si="1"/>
+        <v>0.93548387096774221</v>
+      </c>
+      <c r="R13" s="279">
+        <f>Tabel1[[#This Row],[Evo Low]]</f>
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="S13" s="279">
+        <f>Tabel1[[#This Row],[Evo High]]</f>
+        <v>0.93548387096774221</v>
+      </c>
+    </row>
+    <row r="14" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O14" t="s">
+        <v>450</v>
+      </c>
+      <c r="P14" s="273">
+        <f t="shared" si="0"/>
+        <v>0.75555555555555576</v>
+      </c>
+      <c r="Q14" s="274">
+        <v>1</v>
+      </c>
+      <c r="R14" s="280">
+        <f>Tabel1[[#This Row],[Evo Low]]</f>
+        <v>0.75555555555555576</v>
+      </c>
+      <c r="S14" s="280">
+        <f>Tabel1[[#This Row],[Evo High]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O15" t="s">
+        <v>451</v>
+      </c>
+      <c r="P15" s="273">
+        <f t="shared" si="0"/>
+        <v>0.81111111111111134</v>
+      </c>
+      <c r="Q15" s="274">
+        <f>Q14</f>
+        <v>1</v>
+      </c>
+      <c r="R15" s="279">
+        <f>Tabel1[[#This Row],[Evo Low]]</f>
+        <v>0.81111111111111134</v>
+      </c>
+      <c r="S15" s="279">
+        <f>Tabel1[[#This Row],[Evo High]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O16" t="s">
+        <v>452</v>
+      </c>
+      <c r="P16" s="273">
+        <f t="shared" si="0"/>
+        <v>0.86666666666666692</v>
+      </c>
+      <c r="Q16" s="274">
+        <f t="shared" ref="Q16:Q17" si="2">Q15</f>
+        <v>1</v>
+      </c>
+      <c r="R16" s="279">
+        <f>Tabel1[[#This Row],[Evo Low]]</f>
+        <v>0.86666666666666692</v>
+      </c>
+      <c r="S16" s="279">
+        <f>Tabel1[[#This Row],[Evo High]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O17" t="s">
+        <v>453</v>
+      </c>
+      <c r="P17" s="273">
+        <f t="shared" si="0"/>
+        <v>0.9222222222222225</v>
+      </c>
+      <c r="Q17" s="274">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R17" s="279">
+        <f>Tabel1[[#This Row],[Evo Low]]</f>
+        <v>0.9222222222222225</v>
+      </c>
+      <c r="S17" s="279">
+        <f>Tabel1[[#This Row],[Evo High]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O29" t="s">
+        <v>454</v>
+      </c>
+      <c r="P29">
+        <v>80</v>
+      </c>
+      <c r="Q29">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O30" t="s">
+        <v>455</v>
+      </c>
+      <c r="P30">
+        <v>18</v>
+      </c>
+      <c r="Q30">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="31" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O31" t="s">
+        <v>456</v>
+      </c>
+      <c r="P31">
+        <f>P29/P30</f>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="Q31">
+        <f>Q29/Q30</f>
+        <v>5.4838709677419351</v>
+      </c>
+    </row>
+    <row r="32" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O32" t="s">
+        <v>457</v>
+      </c>
+      <c r="P32">
+        <f>P31/P29</f>
+        <v>5.5555555555555559E-2</v>
+      </c>
+      <c r="Q32">
+        <f>Q31/P29</f>
+        <v>6.8548387096774188E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Enemies Spawn Chance'!P8:P8</xm:f>
+              <xm:sqref>A1</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/0 DyTech Informations/Dytech Balance.xlsx
+++ b/0 DyTech Informations/Dytech Balance.xlsx
@@ -2918,7 +2918,7 @@
     <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="281">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3328,6 +3328,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="54" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="23" fillId="53" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="23" fillId="53" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="23" fillId="54" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="23" fillId="54" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -3338,10 +3342,10 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="166" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="166" formatCode="0.000"/>
       <border outline="0">
         <right style="thin">
           <color theme="0"/>
@@ -3511,7 +3515,7 @@
             <c:numRef>
               <c:f>'Enemies Spawn Chance'!$P$3:$P$17</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3644,7 +3648,7 @@
             <c:numRef>
               <c:f>'Enemies Spawn Chance'!$Q$3:$Q$17</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.25</c:v>
@@ -4099,7 +4103,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -20830,8 +20834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="O2:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20864,10 +20868,10 @@
       <c r="O3" t="s">
         <v>441</v>
       </c>
-      <c r="P3" s="271">
+      <c r="P3" s="281">
         <v>0</v>
       </c>
-      <c r="Q3" s="272">
+      <c r="Q3" s="282">
         <v>0.25</v>
       </c>
       <c r="R3" s="271">
@@ -20883,10 +20887,10 @@
       <c r="O4" t="s">
         <v>442</v>
       </c>
-      <c r="P4" s="273">
+      <c r="P4" s="283">
         <v>0.2</v>
       </c>
-      <c r="Q4" s="274">
+      <c r="Q4" s="284">
         <f>Q3+Q$32</f>
         <v>0.31854838709677419</v>
       </c>
@@ -20903,11 +20907,11 @@
       <c r="O5" t="s">
         <v>445</v>
       </c>
-      <c r="P5" s="273">
+      <c r="P5" s="283">
         <f t="shared" ref="P5:P17" si="0">P4+P$32</f>
         <v>0.25555555555555559</v>
       </c>
-      <c r="Q5" s="274">
+      <c r="Q5" s="284">
         <f t="shared" ref="Q5:Q17" si="1">Q4+Q$32</f>
         <v>0.38709677419354838</v>
       </c>
@@ -20924,11 +20928,11 @@
       <c r="O6" t="s">
         <v>444</v>
       </c>
-      <c r="P6" s="273">
+      <c r="P6" s="283">
         <f t="shared" si="0"/>
         <v>0.31111111111111117</v>
       </c>
-      <c r="Q6" s="274">
+      <c r="Q6" s="284">
         <f t="shared" si="1"/>
         <v>0.45564516129032256</v>
       </c>
@@ -20945,11 +20949,11 @@
       <c r="O7" t="s">
         <v>443</v>
       </c>
-      <c r="P7" s="273">
+      <c r="P7" s="283">
         <f t="shared" si="0"/>
         <v>0.36666666666666675</v>
       </c>
-      <c r="Q7" s="274">
+      <c r="Q7" s="284">
         <f t="shared" si="1"/>
         <v>0.52419354838709675</v>
       </c>
@@ -20966,11 +20970,11 @@
       <c r="O8" t="s">
         <v>446</v>
       </c>
-      <c r="P8" s="273">
+      <c r="P8" s="283">
         <f t="shared" si="0"/>
         <v>0.42222222222222233</v>
       </c>
-      <c r="Q8" s="274">
+      <c r="Q8" s="284">
         <f t="shared" si="1"/>
         <v>0.592741935483871</v>
       </c>
@@ -20987,11 +20991,11 @@
       <c r="O9" t="s">
         <v>449</v>
       </c>
-      <c r="P9" s="273">
+      <c r="P9" s="283">
         <f t="shared" si="0"/>
         <v>0.47777777777777791</v>
       </c>
-      <c r="Q9" s="274">
+      <c r="Q9" s="284">
         <f t="shared" si="1"/>
         <v>0.66129032258064524</v>
       </c>
@@ -21008,11 +21012,11 @@
       <c r="O10" t="s">
         <v>447</v>
       </c>
-      <c r="P10" s="273">
+      <c r="P10" s="283">
         <f t="shared" si="0"/>
         <v>0.53333333333333344</v>
       </c>
-      <c r="Q10" s="274">
+      <c r="Q10" s="284">
         <f t="shared" si="1"/>
         <v>0.72983870967741948</v>
       </c>
@@ -21029,11 +21033,11 @@
       <c r="O11" t="s">
         <v>448</v>
       </c>
-      <c r="P11" s="273">
+      <c r="P11" s="283">
         <f t="shared" si="0"/>
         <v>0.58888888888888902</v>
       </c>
-      <c r="Q11" s="274">
+      <c r="Q11" s="284">
         <f t="shared" si="1"/>
         <v>0.79838709677419373</v>
       </c>
@@ -21050,11 +21054,11 @@
       <c r="O12" t="s">
         <v>439</v>
       </c>
-      <c r="P12" s="273">
+      <c r="P12" s="283">
         <f t="shared" si="0"/>
         <v>0.6444444444444446</v>
       </c>
-      <c r="Q12" s="274">
+      <c r="Q12" s="284">
         <f t="shared" si="1"/>
         <v>0.86693548387096797</v>
       </c>
@@ -21071,11 +21075,11 @@
       <c r="O13" t="s">
         <v>440</v>
       </c>
-      <c r="P13" s="273">
+      <c r="P13" s="283">
         <f t="shared" si="0"/>
         <v>0.70000000000000018</v>
       </c>
-      <c r="Q13" s="274">
+      <c r="Q13" s="284">
         <f t="shared" si="1"/>
         <v>0.93548387096774221</v>
       </c>
@@ -21092,11 +21096,11 @@
       <c r="O14" t="s">
         <v>450</v>
       </c>
-      <c r="P14" s="273">
+      <c r="P14" s="283">
         <f t="shared" si="0"/>
         <v>0.75555555555555576</v>
       </c>
-      <c r="Q14" s="274">
+      <c r="Q14" s="284">
         <v>1</v>
       </c>
       <c r="R14" s="280">
@@ -21112,11 +21116,11 @@
       <c r="O15" t="s">
         <v>451</v>
       </c>
-      <c r="P15" s="273">
+      <c r="P15" s="283">
         <f t="shared" si="0"/>
         <v>0.81111111111111134</v>
       </c>
-      <c r="Q15" s="274">
+      <c r="Q15" s="284">
         <f>Q14</f>
         <v>1</v>
       </c>
@@ -21133,11 +21137,11 @@
       <c r="O16" t="s">
         <v>452</v>
       </c>
-      <c r="P16" s="273">
+      <c r="P16" s="283">
         <f t="shared" si="0"/>
         <v>0.86666666666666692</v>
       </c>
-      <c r="Q16" s="274">
+      <c r="Q16" s="284">
         <f t="shared" ref="Q16:Q17" si="2">Q15</f>
         <v>1</v>
       </c>
@@ -21154,11 +21158,11 @@
       <c r="O17" t="s">
         <v>453</v>
       </c>
-      <c r="P17" s="273">
+      <c r="P17" s="283">
         <f t="shared" si="0"/>
         <v>0.9222222222222225</v>
       </c>
-      <c r="Q17" s="274">
+      <c r="Q17" s="284">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>

--- a/0 DyTech Informations/Dytech Balance.xlsx
+++ b/0 DyTech Informations/Dytech Balance.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\.Dytech\DyTech\0 DyTech Informations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DyTech\0 DyTech Informations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12135" tabRatio="781" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12132" tabRatio="781" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,9 @@
     <sheet name="Msc2" sheetId="7" r:id="rId10"/>
     <sheet name="Enemies Spawn Chance" sheetId="19" r:id="rId11"/>
     <sheet name="Gems" sheetId="10" r:id="rId12"/>
-    <sheet name="Msc" sheetId="5" r:id="rId13"/>
-    <sheet name="Dytech Balance" sheetId="6" state="hidden" r:id="rId14"/>
+    <sheet name="Spawners" sheetId="21" r:id="rId13"/>
+    <sheet name="Msc" sheetId="5" r:id="rId14"/>
+    <sheet name="Dytech Balance" sheetId="6" state="hidden" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -1325,7 +1326,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="486">
   <si>
     <t>README</t>
   </si>
@@ -2708,6 +2709,81 @@
   </si>
   <si>
     <t>Output</t>
+  </si>
+  <si>
+    <t>Difficulty 1 Factor</t>
+  </si>
+  <si>
+    <t>Difficulty 6 Factor</t>
+  </si>
+  <si>
+    <t>Difficulty 5 Factor</t>
+  </si>
+  <si>
+    <t>Difficulty 4 Factor</t>
+  </si>
+  <si>
+    <t>Difficulty 3 Factor</t>
+  </si>
+  <si>
+    <t>Difficulty 2 Factor</t>
+  </si>
+  <si>
+    <t>Base Edit Factor</t>
+  </si>
+  <si>
+    <t>Biter</t>
+  </si>
+  <si>
+    <t>Spitter</t>
+  </si>
+  <si>
+    <t>Berserker</t>
+  </si>
+  <si>
+    <t>Elder</t>
+  </si>
+  <si>
+    <t>Emerald King</t>
+  </si>
+  <si>
+    <t>Queen</t>
+  </si>
+  <si>
+    <t>Spawner:</t>
+  </si>
+  <si>
+    <t>Orginal Health</t>
+  </si>
+  <si>
+    <t>Difficulty 1</t>
+  </si>
+  <si>
+    <t>Difficulty 2</t>
+  </si>
+  <si>
+    <t>Difficulty 3</t>
+  </si>
+  <si>
+    <t>Difficulty 4</t>
+  </si>
+  <si>
+    <t>Difficulty 5</t>
+  </si>
+  <si>
+    <t>Difficulty 6</t>
+  </si>
+  <si>
+    <t>Without Base Edit</t>
+  </si>
+  <si>
+    <t>With Base Edit</t>
+  </si>
+  <si>
+    <t>Health of Spawners DyTech-War v2.0 and above</t>
+  </si>
+  <si>
+    <t>Dyzilla</t>
   </si>
 </sst>
 </file>
@@ -2723,7 +2799,7 @@
     <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2856,8 +2932,46 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="55">
+  <fills count="57">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3179,8 +3293,18 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -3362,15 +3486,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="55" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="316">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3669,20 +3950,33 @@
     <xf numFmtId="166" fontId="23" fillId="53" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="23" fillId="54" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="23" fillId="54" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3691,31 +3985,19 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="36" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3761,8 +4043,15 @@
     <xf numFmtId="0" fontId="15" fillId="44" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3771,13 +4060,6 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3785,13 +4067,100 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="49" borderId="15" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="55" borderId="2" xfId="8"/>
+    <xf numFmtId="0" fontId="24" fillId="52" borderId="17" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="52" borderId="18" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="52" borderId="19" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="52" borderId="20" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="52" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="52" borderId="21" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="52" borderId="22" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="52" borderId="15" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="52" borderId="23" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="52" borderId="20" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="52" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="52" borderId="21" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="27" fillId="55" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="26" fillId="52" borderId="20" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="56" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="56" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="52" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="52" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="52" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="25" fillId="52" borderId="22" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="25" fillId="52" borderId="15" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="25" fillId="52" borderId="23" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="52" borderId="1" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="52" borderId="21" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="56" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="56" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="52" borderId="27" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
     <cellStyle name="Accent3" xfId="4" builtinId="37"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Invoer" xfId="8" builtinId="20"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Kop 1" xfId="6" builtinId="16"/>
+    <cellStyle name="Kop 4" xfId="7" builtinId="19"/>
+    <cellStyle name="Procent" xfId="2" builtinId="5"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Titel" xfId="5" builtinId="15"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -3834,7 +4203,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4481,11 +4850,11 @@
             </c:spPr>
           </c:downBars>
         </c:upDownBars>
-        <c:axId val="1638977872"/>
-        <c:axId val="1638978416"/>
+        <c:axId val="493821816"/>
+        <c:axId val="493815544"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="1638977872"/>
+        <c:axId val="493821816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4528,7 +4897,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1638978416"/>
+        <c:crossAx val="493815544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4536,7 +4905,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1638978416"/>
+        <c:axId val="493815544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4587,7 +4956,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1638977872"/>
+        <c:crossAx val="493821816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7571,89 +7940,89 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" customWidth="1"/>
-    <col min="5" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="4.44140625" customWidth="1"/>
+    <col min="5" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="3.140625" customWidth="1"/>
-    <col min="13" max="13" width="4.28515625" customWidth="1"/>
-    <col min="14" max="15" width="14.28515625" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" customWidth="1"/>
-    <col min="17" max="17" width="3.140625" customWidth="1"/>
-    <col min="18" max="18" width="4.28515625" customWidth="1"/>
-    <col min="21" max="21" width="3.140625" customWidth="1"/>
-    <col min="22" max="22" width="4.28515625" customWidth="1"/>
+    <col min="9" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="3.109375" customWidth="1"/>
+    <col min="13" max="13" width="4.33203125" customWidth="1"/>
+    <col min="14" max="15" width="14.33203125" customWidth="1"/>
+    <col min="16" max="16" width="9.33203125" customWidth="1"/>
+    <col min="17" max="17" width="3.109375" customWidth="1"/>
+    <col min="18" max="18" width="4.33203125" customWidth="1"/>
+    <col min="21" max="21" width="3.109375" customWidth="1"/>
+    <col min="22" max="22" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="240"/>
-      <c r="B1" s="247" t="s">
+      <c r="A1" s="251"/>
+      <c r="B1" s="248" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="239"/>
-      <c r="D1" s="247" t="s">
+      <c r="C1" s="240"/>
+      <c r="D1" s="248" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="247" t="s">
+      <c r="M1" s="248" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="239"/>
-      <c r="O1" s="239"/>
-      <c r="P1" s="239"/>
-      <c r="Q1" s="240"/>
+      <c r="N1" s="240"/>
+      <c r="O1" s="240"/>
+      <c r="P1" s="240"/>
+      <c r="Q1" s="251"/>
       <c r="U1" s="9"/>
-      <c r="V1" s="249"/>
-      <c r="W1" s="239"/>
-      <c r="X1" s="239"/>
-    </row>
-    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="239"/>
-      <c r="B2" s="241" t="s">
+      <c r="V1" s="246"/>
+      <c r="W1" s="240"/>
+      <c r="X1" s="240"/>
+    </row>
+    <row r="2" spans="1:24" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="240"/>
+      <c r="B2" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="239"/>
-      <c r="D2" s="251" t="s">
+      <c r="C2" s="240"/>
+      <c r="D2" s="247" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="239"/>
-      <c r="F2" s="239"/>
-      <c r="G2" s="239"/>
+      <c r="E2" s="240"/>
+      <c r="F2" s="240"/>
+      <c r="G2" s="240"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="244"/>
-      <c r="M2" s="251" t="s">
+      <c r="L2" s="249"/>
+      <c r="M2" s="247" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="239"/>
-      <c r="O2" s="239"/>
-      <c r="P2" s="239"/>
-      <c r="Q2" s="239"/>
+      <c r="N2" s="240"/>
+      <c r="O2" s="240"/>
+      <c r="P2" s="240"/>
+      <c r="Q2" s="240"/>
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="250"/>
-      <c r="W2" s="239"/>
-      <c r="X2" s="239"/>
-    </row>
-    <row r="3" spans="1:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="239"/>
+      <c r="V2" s="239"/>
+      <c r="W2" s="240"/>
+      <c r="X2" s="240"/>
+    </row>
+    <row r="3" spans="1:24" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="240"/>
       <c r="B3" s="18" t="s">
         <v>23</v>
       </c>
@@ -7676,7 +8045,7 @@
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
-      <c r="L3" s="239"/>
+      <c r="L3" s="240"/>
       <c r="M3" s="24" t="s">
         <v>82</v>
       </c>
@@ -7687,7 +8056,7 @@
         <v>84</v>
       </c>
       <c r="P3" s="24"/>
-      <c r="Q3" s="239"/>
+      <c r="Q3" s="240"/>
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
@@ -7696,8 +8065,8 @@
       <c r="W3" s="27"/>
       <c r="X3" s="27"/>
     </row>
-    <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="239"/>
+    <row r="4" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="240"/>
       <c r="B4" s="18" t="s">
         <v>101</v>
       </c>
@@ -7719,7 +8088,7 @@
       <c r="I4" s="36"/>
       <c r="J4" s="36"/>
       <c r="K4" s="36"/>
-      <c r="L4" s="239"/>
+      <c r="L4" s="240"/>
       <c r="M4" s="29">
         <v>1</v>
       </c>
@@ -7730,7 +8099,7 @@
         <v>0.1</v>
       </c>
       <c r="P4" s="42"/>
-      <c r="Q4" s="239"/>
+      <c r="Q4" s="240"/>
       <c r="R4" s="43"/>
       <c r="S4" s="39"/>
       <c r="U4" s="43"/>
@@ -7738,8 +8107,8 @@
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
     </row>
-    <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="239"/>
+    <row r="5" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="240"/>
       <c r="B5" s="18" t="s">
         <v>108</v>
       </c>
@@ -7765,7 +8134,7 @@
       <c r="I5" s="36"/>
       <c r="J5" s="36"/>
       <c r="K5" s="36"/>
-      <c r="L5" s="239"/>
+      <c r="L5" s="240"/>
       <c r="M5" s="29">
         <v>2</v>
       </c>
@@ -7776,7 +8145,7 @@
         <v>0.2</v>
       </c>
       <c r="P5" s="42"/>
-      <c r="Q5" s="239"/>
+      <c r="Q5" s="240"/>
       <c r="R5" s="43"/>
       <c r="S5" s="39"/>
       <c r="T5" s="10"/>
@@ -7785,8 +8154,8 @@
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
     </row>
-    <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="239"/>
+    <row r="6" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="240"/>
       <c r="B6" s="14"/>
       <c r="C6" s="45"/>
       <c r="D6" s="29">
@@ -7810,7 +8179,7 @@
       <c r="I6" s="36"/>
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
-      <c r="L6" s="239"/>
+      <c r="L6" s="240"/>
       <c r="M6" s="29">
         <v>3</v>
       </c>
@@ -7821,7 +8190,7 @@
         <v>0.3</v>
       </c>
       <c r="P6" s="42"/>
-      <c r="Q6" s="239"/>
+      <c r="Q6" s="240"/>
       <c r="R6" s="43"/>
       <c r="S6" s="39"/>
       <c r="U6" s="43"/>
@@ -7829,8 +8198,8 @@
       <c r="W6" s="10"/>
       <c r="X6" s="10"/>
     </row>
-    <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="239"/>
+    <row r="7" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="240"/>
       <c r="B7" s="14"/>
       <c r="C7" s="45"/>
       <c r="D7" s="29">
@@ -7852,7 +8221,7 @@
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
       <c r="K7" s="36"/>
-      <c r="L7" s="239"/>
+      <c r="L7" s="240"/>
       <c r="M7" s="29">
         <v>4</v>
       </c>
@@ -7863,14 +8232,14 @@
         <v>0.4</v>
       </c>
       <c r="P7" s="42"/>
-      <c r="Q7" s="239"/>
+      <c r="Q7" s="240"/>
       <c r="R7" s="43"/>
       <c r="S7" s="39"/>
       <c r="U7" s="43"/>
       <c r="V7" s="43"/>
     </row>
-    <row r="8" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="239"/>
+    <row r="8" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="240"/>
       <c r="B8" s="14"/>
       <c r="C8" s="45"/>
       <c r="D8" s="29">
@@ -7894,7 +8263,7 @@
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
-      <c r="L8" s="239"/>
+      <c r="L8" s="240"/>
       <c r="M8" s="29">
         <v>5</v>
       </c>
@@ -7905,14 +8274,14 @@
         <v>0.5</v>
       </c>
       <c r="P8" s="42"/>
-      <c r="Q8" s="239"/>
+      <c r="Q8" s="240"/>
       <c r="R8" s="43"/>
       <c r="S8" s="39"/>
       <c r="U8" s="43"/>
       <c r="V8" s="43"/>
     </row>
-    <row r="9" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="239"/>
+    <row r="9" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="240"/>
       <c r="B9" s="14"/>
       <c r="C9" s="45"/>
       <c r="D9" s="29">
@@ -7934,7 +8303,7 @@
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
-      <c r="L9" s="239"/>
+      <c r="L9" s="240"/>
       <c r="M9" s="29">
         <v>6</v>
       </c>
@@ -7945,14 +8314,14 @@
         <v>0.6</v>
       </c>
       <c r="P9" s="42"/>
-      <c r="Q9" s="239"/>
+      <c r="Q9" s="240"/>
       <c r="R9" s="43"/>
       <c r="S9" s="39"/>
       <c r="U9" s="43"/>
       <c r="V9" s="43"/>
     </row>
-    <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="239"/>
+    <row r="10" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="240"/>
       <c r="B10" s="14"/>
       <c r="C10" s="45"/>
       <c r="D10" s="29">
@@ -7976,7 +8345,7 @@
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
-      <c r="L10" s="239"/>
+      <c r="L10" s="240"/>
       <c r="M10" s="29">
         <v>7</v>
       </c>
@@ -7987,14 +8356,14 @@
         <v>0.7</v>
       </c>
       <c r="P10" s="42"/>
-      <c r="Q10" s="239"/>
+      <c r="Q10" s="240"/>
       <c r="R10" s="43"/>
       <c r="S10" s="39"/>
       <c r="U10" s="43"/>
       <c r="V10" s="43"/>
     </row>
-    <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="239"/>
+    <row r="11" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="240"/>
       <c r="B11" s="14"/>
       <c r="C11" s="45"/>
       <c r="D11" s="29">
@@ -8018,7 +8387,7 @@
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
-      <c r="L11" s="239"/>
+      <c r="L11" s="240"/>
       <c r="M11" s="29">
         <v>8</v>
       </c>
@@ -8029,30 +8398,30 @@
         <v>0.8</v>
       </c>
       <c r="P11" s="42"/>
-      <c r="Q11" s="239"/>
+      <c r="Q11" s="240"/>
       <c r="R11" s="43"/>
       <c r="S11" s="39"/>
       <c r="U11" s="43"/>
       <c r="V11" s="43"/>
     </row>
     <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="239"/>
-      <c r="B12" s="238"/>
-      <c r="C12" s="239"/>
-      <c r="D12" s="243"/>
-      <c r="E12" s="239"/>
-      <c r="F12" s="239"/>
-      <c r="G12" s="239"/>
+      <c r="A12" s="240"/>
+      <c r="B12" s="243"/>
+      <c r="C12" s="240"/>
+      <c r="D12" s="244"/>
+      <c r="E12" s="240"/>
+      <c r="F12" s="240"/>
+      <c r="G12" s="240"/>
       <c r="H12" s="56"/>
       <c r="I12" s="56"/>
       <c r="J12" s="56"/>
       <c r="K12" s="56"/>
-      <c r="L12" s="239"/>
-      <c r="M12" s="243"/>
-      <c r="N12" s="239"/>
-      <c r="O12" s="239"/>
-      <c r="P12" s="239"/>
-      <c r="Q12" s="239"/>
+      <c r="L12" s="240"/>
+      <c r="M12" s="244"/>
+      <c r="N12" s="240"/>
+      <c r="O12" s="240"/>
+      <c r="P12" s="240"/>
+      <c r="Q12" s="240"/>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
@@ -8061,38 +8430,38 @@
       <c r="W12" s="17"/>
       <c r="X12" s="17"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="239"/>
-      <c r="B13" s="241"/>
-      <c r="C13" s="239"/>
-      <c r="D13" s="248" t="s">
+    <row r="13" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="240"/>
+      <c r="B13" s="242"/>
+      <c r="C13" s="240"/>
+      <c r="D13" s="245" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="239"/>
-      <c r="F13" s="239"/>
-      <c r="G13" s="239"/>
+      <c r="E13" s="240"/>
+      <c r="F13" s="240"/>
+      <c r="G13" s="240"/>
       <c r="H13" s="58"/>
       <c r="I13" s="58"/>
       <c r="J13" s="58"/>
       <c r="K13" s="58"/>
-      <c r="L13" s="239"/>
-      <c r="M13" s="248" t="s">
+      <c r="L13" s="240"/>
+      <c r="M13" s="245" t="s">
         <v>144</v>
       </c>
-      <c r="N13" s="239"/>
-      <c r="O13" s="239"/>
-      <c r="P13" s="239"/>
-      <c r="Q13" s="239"/>
+      <c r="N13" s="240"/>
+      <c r="O13" s="240"/>
+      <c r="P13" s="240"/>
+      <c r="Q13" s="240"/>
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
-      <c r="V13" s="250"/>
-      <c r="W13" s="239"/>
-      <c r="X13" s="239"/>
-    </row>
-    <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="239"/>
+      <c r="V13" s="239"/>
+      <c r="W13" s="240"/>
+      <c r="X13" s="240"/>
+    </row>
+    <row r="14" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="240"/>
       <c r="B14" s="14"/>
       <c r="C14" s="45"/>
       <c r="D14" s="60" t="s">
@@ -8113,7 +8482,7 @@
       <c r="I14" s="60"/>
       <c r="J14" s="60"/>
       <c r="K14" s="60"/>
-      <c r="L14" s="239"/>
+      <c r="L14" s="240"/>
       <c r="M14" s="60" t="s">
         <v>151</v>
       </c>
@@ -8122,7 +8491,7 @@
       </c>
       <c r="O14" s="60"/>
       <c r="P14" s="60"/>
-      <c r="Q14" s="239"/>
+      <c r="Q14" s="240"/>
       <c r="R14" s="27"/>
       <c r="S14" s="27"/>
       <c r="T14" s="27"/>
@@ -8131,8 +8500,8 @@
       <c r="W14" s="27"/>
       <c r="X14" s="27"/>
     </row>
-    <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="239"/>
+    <row r="15" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="240"/>
       <c r="B15" s="14"/>
       <c r="C15" s="45"/>
       <c r="D15" s="62">
@@ -8152,7 +8521,7 @@
       <c r="I15" s="68"/>
       <c r="J15" s="68"/>
       <c r="K15" s="68"/>
-      <c r="L15" s="239"/>
+      <c r="L15" s="240"/>
       <c r="M15" s="62">
         <v>1</v>
       </c>
@@ -8161,15 +8530,15 @@
       </c>
       <c r="O15" s="65"/>
       <c r="P15" s="65"/>
-      <c r="Q15" s="239"/>
+      <c r="Q15" s="240"/>
       <c r="R15" s="43"/>
       <c r="S15" s="39"/>
       <c r="U15" s="43"/>
       <c r="V15" s="43"/>
       <c r="W15" s="10"/>
     </row>
-    <row r="16" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="239"/>
+    <row r="16" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="240"/>
       <c r="B16" s="14"/>
       <c r="C16" s="45"/>
       <c r="D16" s="62">
@@ -8191,7 +8560,7 @@
       <c r="I16" s="68"/>
       <c r="J16" s="68"/>
       <c r="K16" s="68"/>
-      <c r="L16" s="239"/>
+      <c r="L16" s="240"/>
       <c r="M16" s="62">
         <v>2</v>
       </c>
@@ -8200,15 +8569,15 @@
       </c>
       <c r="O16" s="65"/>
       <c r="P16" s="65"/>
-      <c r="Q16" s="239"/>
+      <c r="Q16" s="240"/>
       <c r="R16" s="43"/>
       <c r="S16" s="39"/>
       <c r="U16" s="43"/>
       <c r="V16" s="43"/>
       <c r="W16" s="10"/>
     </row>
-    <row r="17" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="239"/>
+    <row r="17" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="240"/>
       <c r="B17" s="14"/>
       <c r="C17" s="45"/>
       <c r="D17" s="62">
@@ -8232,7 +8601,7 @@
       <c r="I17" s="68"/>
       <c r="J17" s="68"/>
       <c r="K17" s="68"/>
-      <c r="L17" s="239"/>
+      <c r="L17" s="240"/>
       <c r="M17" s="62">
         <v>3</v>
       </c>
@@ -8241,15 +8610,15 @@
       </c>
       <c r="O17" s="65"/>
       <c r="P17" s="65"/>
-      <c r="Q17" s="239"/>
+      <c r="Q17" s="240"/>
       <c r="R17" s="43"/>
       <c r="S17" s="39"/>
       <c r="U17" s="43"/>
       <c r="V17" s="43"/>
       <c r="W17" s="10"/>
     </row>
-    <row r="18" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="239"/>
+    <row r="18" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="240"/>
       <c r="B18" s="14"/>
       <c r="C18" s="45"/>
       <c r="D18" s="62">
@@ -8271,7 +8640,7 @@
       <c r="I18" s="68"/>
       <c r="J18" s="68"/>
       <c r="K18" s="68"/>
-      <c r="L18" s="239"/>
+      <c r="L18" s="240"/>
       <c r="M18" s="62">
         <v>4</v>
       </c>
@@ -8280,13 +8649,13 @@
       </c>
       <c r="O18" s="65"/>
       <c r="P18" s="65"/>
-      <c r="Q18" s="239"/>
+      <c r="Q18" s="240"/>
       <c r="R18" s="43"/>
       <c r="U18" s="43"/>
       <c r="V18" s="43"/>
     </row>
-    <row r="19" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="239"/>
+    <row r="19" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="240"/>
       <c r="B19" s="14"/>
       <c r="C19" s="45"/>
       <c r="D19" s="62">
@@ -8310,7 +8679,7 @@
       <c r="I19" s="68"/>
       <c r="J19" s="68"/>
       <c r="K19" s="68"/>
-      <c r="L19" s="239"/>
+      <c r="L19" s="240"/>
       <c r="M19" s="62">
         <v>5</v>
       </c>
@@ -8319,13 +8688,13 @@
       </c>
       <c r="O19" s="65"/>
       <c r="P19" s="65"/>
-      <c r="Q19" s="239"/>
+      <c r="Q19" s="240"/>
       <c r="R19" s="43"/>
       <c r="U19" s="43"/>
       <c r="V19" s="43"/>
     </row>
-    <row r="20" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="239"/>
+    <row r="20" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="240"/>
       <c r="B20" s="14"/>
       <c r="C20" s="45"/>
       <c r="D20" s="62">
@@ -8347,7 +8716,7 @@
       <c r="I20" s="68"/>
       <c r="J20" s="68"/>
       <c r="K20" s="68"/>
-      <c r="L20" s="239"/>
+      <c r="L20" s="240"/>
       <c r="M20" s="62">
         <v>6</v>
       </c>
@@ -8356,14 +8725,14 @@
       </c>
       <c r="O20" s="65"/>
       <c r="P20" s="65"/>
-      <c r="Q20" s="239"/>
+      <c r="Q20" s="240"/>
       <c r="R20" s="43"/>
       <c r="S20" s="39"/>
       <c r="U20" s="43"/>
       <c r="V20" s="43"/>
     </row>
-    <row r="21" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="239"/>
+    <row r="21" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="240"/>
       <c r="B21" s="14"/>
       <c r="C21" s="45"/>
       <c r="D21" s="62">
@@ -8387,7 +8756,7 @@
       <c r="I21" s="68"/>
       <c r="J21" s="68"/>
       <c r="K21" s="68"/>
-      <c r="L21" s="239"/>
+      <c r="L21" s="240"/>
       <c r="M21" s="62">
         <v>7</v>
       </c>
@@ -8396,14 +8765,14 @@
       </c>
       <c r="O21" s="65"/>
       <c r="P21" s="65"/>
-      <c r="Q21" s="239"/>
+      <c r="Q21" s="240"/>
       <c r="R21" s="43"/>
       <c r="S21" s="39"/>
       <c r="U21" s="43"/>
       <c r="V21" s="43"/>
     </row>
-    <row r="22" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="239"/>
+    <row r="22" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="240"/>
       <c r="B22" s="14"/>
       <c r="C22" s="45"/>
       <c r="D22" s="62">
@@ -8427,7 +8796,7 @@
       <c r="I22" s="68"/>
       <c r="J22" s="68"/>
       <c r="K22" s="68"/>
-      <c r="L22" s="239"/>
+      <c r="L22" s="240"/>
       <c r="M22" s="62">
         <v>8</v>
       </c>
@@ -8436,30 +8805,30 @@
       </c>
       <c r="O22" s="65"/>
       <c r="P22" s="65"/>
-      <c r="Q22" s="239"/>
+      <c r="Q22" s="240"/>
       <c r="R22" s="43"/>
       <c r="S22" s="39"/>
       <c r="U22" s="43"/>
       <c r="V22" s="43"/>
     </row>
     <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="239"/>
-      <c r="B23" s="238"/>
-      <c r="C23" s="239"/>
-      <c r="D23" s="243"/>
-      <c r="E23" s="239"/>
-      <c r="F23" s="239"/>
-      <c r="G23" s="239"/>
+      <c r="A23" s="240"/>
+      <c r="B23" s="243"/>
+      <c r="C23" s="240"/>
+      <c r="D23" s="244"/>
+      <c r="E23" s="240"/>
+      <c r="F23" s="240"/>
+      <c r="G23" s="240"/>
       <c r="H23" s="56"/>
       <c r="I23" s="56"/>
       <c r="J23" s="56"/>
       <c r="K23" s="56"/>
-      <c r="L23" s="239"/>
-      <c r="M23" s="243"/>
-      <c r="N23" s="239"/>
-      <c r="O23" s="239"/>
-      <c r="P23" s="239"/>
-      <c r="Q23" s="239"/>
+      <c r="L23" s="240"/>
+      <c r="M23" s="244"/>
+      <c r="N23" s="240"/>
+      <c r="O23" s="240"/>
+      <c r="P23" s="240"/>
+      <c r="Q23" s="240"/>
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
       <c r="T23" s="17"/>
@@ -8468,40 +8837,40 @@
       <c r="W23" s="17"/>
       <c r="X23" s="17"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="239"/>
-      <c r="B24" s="241" t="s">
+    <row r="24" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="240"/>
+      <c r="B24" s="242" t="s">
         <v>177</v>
       </c>
-      <c r="C24" s="239"/>
-      <c r="D24" s="246" t="s">
+      <c r="C24" s="240"/>
+      <c r="D24" s="241" t="s">
         <v>178</v>
       </c>
-      <c r="E24" s="239"/>
-      <c r="F24" s="239"/>
-      <c r="G24" s="239"/>
+      <c r="E24" s="240"/>
+      <c r="F24" s="240"/>
+      <c r="G24" s="240"/>
       <c r="H24" s="74"/>
       <c r="I24" s="74"/>
       <c r="J24" s="74"/>
       <c r="K24" s="74"/>
-      <c r="L24" s="239"/>
-      <c r="M24" s="246" t="s">
+      <c r="L24" s="240"/>
+      <c r="M24" s="241" t="s">
         <v>179</v>
       </c>
-      <c r="N24" s="239"/>
-      <c r="O24" s="239"/>
-      <c r="P24" s="239"/>
-      <c r="Q24" s="239"/>
+      <c r="N24" s="240"/>
+      <c r="O24" s="240"/>
+      <c r="P24" s="240"/>
+      <c r="Q24" s="240"/>
       <c r="R24" s="17"/>
       <c r="S24" s="17"/>
       <c r="T24" s="17"/>
       <c r="U24" s="17"/>
-      <c r="V24" s="250"/>
-      <c r="W24" s="239"/>
-      <c r="X24" s="239"/>
-    </row>
-    <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="239"/>
+      <c r="V24" s="239"/>
+      <c r="W24" s="240"/>
+      <c r="X24" s="240"/>
+    </row>
+    <row r="25" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="240"/>
       <c r="B25" s="14" t="s">
         <v>180</v>
       </c>
@@ -8532,7 +8901,7 @@
       <c r="K25" s="76" t="s">
         <v>190</v>
       </c>
-      <c r="L25" s="239"/>
+      <c r="L25" s="240"/>
       <c r="M25" s="76" t="s">
         <v>191</v>
       </c>
@@ -8545,7 +8914,7 @@
       <c r="P25" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="Q25" s="239"/>
+      <c r="Q25" s="240"/>
       <c r="R25" s="27"/>
       <c r="S25" s="27"/>
       <c r="T25" s="27"/>
@@ -8554,8 +8923,8 @@
       <c r="W25" s="27"/>
       <c r="X25" s="27"/>
     </row>
-    <row r="26" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="239"/>
+    <row r="26" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="240"/>
       <c r="B26" s="14" t="s">
         <v>195</v>
       </c>
@@ -8589,7 +8958,7 @@
         <f>E26/E26</f>
         <v>1</v>
       </c>
-      <c r="L26" s="239"/>
+      <c r="L26" s="240"/>
       <c r="M26" s="77">
         <v>1</v>
       </c>
@@ -8602,15 +8971,15 @@
       <c r="P26" s="81">
         <v>0.2</v>
       </c>
-      <c r="Q26" s="239"/>
+      <c r="Q26" s="240"/>
       <c r="R26" s="43"/>
       <c r="U26" s="43"/>
       <c r="V26" s="43"/>
       <c r="W26" s="10"/>
       <c r="X26" s="10"/>
     </row>
-    <row r="27" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="239"/>
+    <row r="27" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="240"/>
       <c r="B27" s="14"/>
       <c r="C27" s="45"/>
       <c r="D27" s="77">
@@ -8641,7 +9010,7 @@
         <f t="shared" ref="K27:K33" si="11">E27/E$26</f>
         <v>2</v>
       </c>
-      <c r="L27" s="239"/>
+      <c r="L27" s="240"/>
       <c r="M27" s="77">
         <v>2</v>
       </c>
@@ -8654,15 +9023,15 @@
       <c r="P27" s="81">
         <v>0.4</v>
       </c>
-      <c r="Q27" s="239"/>
+      <c r="Q27" s="240"/>
       <c r="R27" s="43"/>
       <c r="U27" s="43"/>
       <c r="V27" s="43"/>
       <c r="W27" s="10"/>
       <c r="X27" s="10"/>
     </row>
-    <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="239"/>
+    <row r="28" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="240"/>
       <c r="B28" s="14"/>
       <c r="C28" s="45"/>
       <c r="D28" s="77">
@@ -8695,7 +9064,7 @@
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="L28" s="239"/>
+      <c r="L28" s="240"/>
       <c r="M28" s="77">
         <v>3</v>
       </c>
@@ -8708,15 +9077,15 @@
       <c r="P28" s="81">
         <v>0.6</v>
       </c>
-      <c r="Q28" s="239"/>
+      <c r="Q28" s="240"/>
       <c r="R28" s="43"/>
       <c r="U28" s="43"/>
       <c r="V28" s="43"/>
       <c r="W28" s="10"/>
       <c r="X28" s="10"/>
     </row>
-    <row r="29" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="239"/>
+    <row r="29" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="240"/>
       <c r="B29" s="14"/>
       <c r="C29" s="45"/>
       <c r="D29" s="77">
@@ -8747,7 +9116,7 @@
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="L29" s="239"/>
+      <c r="L29" s="240"/>
       <c r="M29" s="77">
         <v>4</v>
       </c>
@@ -8760,13 +9129,13 @@
       <c r="P29" s="81">
         <v>0.8</v>
       </c>
-      <c r="Q29" s="239"/>
+      <c r="Q29" s="240"/>
       <c r="R29" s="43"/>
       <c r="U29" s="43"/>
       <c r="V29" s="43"/>
     </row>
-    <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="239"/>
+    <row r="30" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="240"/>
       <c r="B30" s="14"/>
       <c r="C30" s="45"/>
       <c r="D30" s="77">
@@ -8799,7 +9168,7 @@
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="L30" s="239"/>
+      <c r="L30" s="240"/>
       <c r="M30" s="77">
         <v>5</v>
       </c>
@@ -8812,13 +9181,13 @@
       <c r="P30" s="81">
         <v>1</v>
       </c>
-      <c r="Q30" s="239"/>
+      <c r="Q30" s="240"/>
       <c r="R30" s="43"/>
       <c r="U30" s="43"/>
       <c r="V30" s="43"/>
     </row>
-    <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="239"/>
+    <row r="31" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="240"/>
       <c r="B31" s="14"/>
       <c r="C31" s="45"/>
       <c r="D31" s="77">
@@ -8849,7 +9218,7 @@
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="L31" s="239"/>
+      <c r="L31" s="240"/>
       <c r="M31" s="77">
         <v>6</v>
       </c>
@@ -8862,13 +9231,13 @@
       <c r="P31" s="81">
         <v>1.2</v>
       </c>
-      <c r="Q31" s="239"/>
+      <c r="Q31" s="240"/>
       <c r="R31" s="43"/>
       <c r="U31" s="43"/>
       <c r="V31" s="43"/>
     </row>
-    <row r="32" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="239"/>
+    <row r="32" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="240"/>
       <c r="B32" s="14"/>
       <c r="C32" s="45"/>
       <c r="D32" s="77">
@@ -8901,7 +9270,7 @@
         <f t="shared" si="11"/>
         <v>13.999999999999998</v>
       </c>
-      <c r="L32" s="239"/>
+      <c r="L32" s="240"/>
       <c r="M32" s="77">
         <v>7</v>
       </c>
@@ -8914,13 +9283,13 @@
       <c r="P32" s="81">
         <v>1.6</v>
       </c>
-      <c r="Q32" s="239"/>
+      <c r="Q32" s="240"/>
       <c r="R32" s="43"/>
       <c r="U32" s="43"/>
       <c r="V32" s="43"/>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="239"/>
+    <row r="33" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="240"/>
       <c r="B33" s="14"/>
       <c r="C33" s="45"/>
       <c r="D33" s="77">
@@ -8953,7 +9322,7 @@
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="L33" s="239"/>
+      <c r="L33" s="240"/>
       <c r="M33" s="77">
         <v>8</v>
       </c>
@@ -8966,55 +9335,55 @@
       <c r="P33" s="81">
         <v>2</v>
       </c>
-      <c r="Q33" s="239"/>
+      <c r="Q33" s="240"/>
       <c r="R33" s="43"/>
       <c r="U33" s="43"/>
       <c r="V33" s="43"/>
     </row>
     <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="239"/>
-      <c r="B34" s="238"/>
-      <c r="C34" s="239"/>
-      <c r="D34" s="243"/>
-      <c r="E34" s="239"/>
-      <c r="F34" s="239"/>
-      <c r="G34" s="239"/>
+      <c r="A34" s="240"/>
+      <c r="B34" s="243"/>
+      <c r="C34" s="240"/>
+      <c r="D34" s="244"/>
+      <c r="E34" s="240"/>
+      <c r="F34" s="240"/>
+      <c r="G34" s="240"/>
       <c r="H34" s="56"/>
       <c r="I34" s="56"/>
       <c r="J34" s="56"/>
       <c r="K34" s="56"/>
-      <c r="L34" s="239"/>
-      <c r="M34" s="243"/>
-      <c r="N34" s="239"/>
-      <c r="O34" s="239"/>
-      <c r="P34" s="239"/>
-      <c r="Q34" s="239"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="239"/>
-      <c r="B35" s="241"/>
-      <c r="C35" s="239"/>
-      <c r="D35" s="245" t="s">
+      <c r="L34" s="240"/>
+      <c r="M34" s="244"/>
+      <c r="N34" s="240"/>
+      <c r="O34" s="240"/>
+      <c r="P34" s="240"/>
+      <c r="Q34" s="240"/>
+    </row>
+    <row r="35" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="240"/>
+      <c r="B35" s="242"/>
+      <c r="C35" s="240"/>
+      <c r="D35" s="250" t="s">
         <v>238</v>
       </c>
-      <c r="E35" s="239"/>
-      <c r="F35" s="239"/>
-      <c r="G35" s="239"/>
+      <c r="E35" s="240"/>
+      <c r="F35" s="240"/>
+      <c r="G35" s="240"/>
       <c r="H35" s="96"/>
       <c r="I35" s="96"/>
       <c r="J35" s="96"/>
       <c r="K35" s="96"/>
-      <c r="L35" s="239"/>
-      <c r="M35" s="245" t="s">
+      <c r="L35" s="240"/>
+      <c r="M35" s="250" t="s">
         <v>239</v>
       </c>
-      <c r="N35" s="239"/>
-      <c r="O35" s="239"/>
-      <c r="P35" s="239"/>
-      <c r="Q35" s="239"/>
-    </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="239"/>
+      <c r="N35" s="240"/>
+      <c r="O35" s="240"/>
+      <c r="P35" s="240"/>
+      <c r="Q35" s="240"/>
+    </row>
+    <row r="36" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A36" s="240"/>
       <c r="B36" s="14"/>
       <c r="C36" s="45"/>
       <c r="D36" s="97" t="s">
@@ -9033,7 +9402,7 @@
       <c r="I36" s="97"/>
       <c r="J36" s="97"/>
       <c r="K36" s="97"/>
-      <c r="L36" s="239"/>
+      <c r="L36" s="240"/>
       <c r="M36" s="97" t="s">
         <v>244</v>
       </c>
@@ -9042,10 +9411,10 @@
       </c>
       <c r="O36" s="97"/>
       <c r="P36" s="97"/>
-      <c r="Q36" s="239"/>
-    </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="239"/>
+      <c r="Q36" s="240"/>
+    </row>
+    <row r="37" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="240"/>
       <c r="B37" s="14"/>
       <c r="C37" s="45"/>
       <c r="D37" s="99">
@@ -9063,7 +9432,7 @@
       <c r="I37" s="53"/>
       <c r="J37" s="53"/>
       <c r="K37" s="53"/>
-      <c r="L37" s="239"/>
+      <c r="L37" s="240"/>
       <c r="M37" s="99">
         <v>1</v>
       </c>
@@ -9072,10 +9441,10 @@
       </c>
       <c r="O37" s="53"/>
       <c r="P37" s="53"/>
-      <c r="Q37" s="239"/>
-    </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="239"/>
+      <c r="Q37" s="240"/>
+    </row>
+    <row r="38" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A38" s="240"/>
       <c r="B38" s="14"/>
       <c r="C38" s="45"/>
       <c r="D38" s="99">
@@ -9094,7 +9463,7 @@
       <c r="I38" s="53"/>
       <c r="J38" s="53"/>
       <c r="K38" s="53"/>
-      <c r="L38" s="239"/>
+      <c r="L38" s="240"/>
       <c r="M38" s="99">
         <v>2</v>
       </c>
@@ -9103,10 +9472,10 @@
       </c>
       <c r="O38" s="53"/>
       <c r="P38" s="53"/>
-      <c r="Q38" s="239"/>
-    </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="239"/>
+      <c r="Q38" s="240"/>
+    </row>
+    <row r="39" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A39" s="240"/>
       <c r="B39" s="14"/>
       <c r="C39" s="45"/>
       <c r="D39" s="99">
@@ -9127,7 +9496,7 @@
       <c r="I39" s="53"/>
       <c r="J39" s="53"/>
       <c r="K39" s="53"/>
-      <c r="L39" s="239"/>
+      <c r="L39" s="240"/>
       <c r="M39" s="99">
         <v>3</v>
       </c>
@@ -9136,10 +9505,10 @@
       </c>
       <c r="O39" s="53"/>
       <c r="P39" s="53"/>
-      <c r="Q39" s="239"/>
-    </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="239"/>
+      <c r="Q39" s="240"/>
+    </row>
+    <row r="40" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A40" s="240"/>
       <c r="B40" s="14"/>
       <c r="C40" s="45"/>
       <c r="D40" s="99">
@@ -9158,7 +9527,7 @@
       <c r="I40" s="53"/>
       <c r="J40" s="53"/>
       <c r="K40" s="53"/>
-      <c r="L40" s="239"/>
+      <c r="L40" s="240"/>
       <c r="M40" s="99">
         <v>4</v>
       </c>
@@ -9167,10 +9536,10 @@
       </c>
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
-      <c r="Q40" s="239"/>
-    </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="239"/>
+      <c r="Q40" s="240"/>
+    </row>
+    <row r="41" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A41" s="240"/>
       <c r="B41" s="14"/>
       <c r="C41" s="45"/>
       <c r="D41" s="99">
@@ -9191,7 +9560,7 @@
       <c r="I41" s="53"/>
       <c r="J41" s="53"/>
       <c r="K41" s="53"/>
-      <c r="L41" s="239"/>
+      <c r="L41" s="240"/>
       <c r="M41" s="99">
         <v>5</v>
       </c>
@@ -9200,10 +9569,10 @@
       </c>
       <c r="O41" s="53"/>
       <c r="P41" s="53"/>
-      <c r="Q41" s="239"/>
-    </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="239"/>
+      <c r="Q41" s="240"/>
+    </row>
+    <row r="42" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A42" s="240"/>
       <c r="B42" s="14"/>
       <c r="C42" s="45"/>
       <c r="D42" s="99">
@@ -9222,7 +9591,7 @@
       <c r="I42" s="53"/>
       <c r="J42" s="53"/>
       <c r="K42" s="53"/>
-      <c r="L42" s="239"/>
+      <c r="L42" s="240"/>
       <c r="M42" s="99">
         <v>6</v>
       </c>
@@ -9231,10 +9600,10 @@
       </c>
       <c r="O42" s="53"/>
       <c r="P42" s="53"/>
-      <c r="Q42" s="239"/>
-    </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="239"/>
+      <c r="Q42" s="240"/>
+    </row>
+    <row r="43" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A43" s="240"/>
       <c r="B43" s="14"/>
       <c r="C43" s="45"/>
       <c r="D43" s="99">
@@ -9255,7 +9624,7 @@
       <c r="I43" s="53"/>
       <c r="J43" s="53"/>
       <c r="K43" s="53"/>
-      <c r="L43" s="239"/>
+      <c r="L43" s="240"/>
       <c r="M43" s="99">
         <v>7</v>
       </c>
@@ -9264,10 +9633,10 @@
       </c>
       <c r="O43" s="53"/>
       <c r="P43" s="53"/>
-      <c r="Q43" s="239"/>
-    </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="239"/>
+      <c r="Q43" s="240"/>
+    </row>
+    <row r="44" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="240"/>
       <c r="B44" s="14"/>
       <c r="C44" s="45"/>
       <c r="D44" s="99">
@@ -9288,7 +9657,7 @@
       <c r="I44" s="53"/>
       <c r="J44" s="53"/>
       <c r="K44" s="53"/>
-      <c r="L44" s="239"/>
+      <c r="L44" s="240"/>
       <c r="M44" s="99">
         <v>8</v>
       </c>
@@ -9297,52 +9666,52 @@
       </c>
       <c r="O44" s="53"/>
       <c r="P44" s="53"/>
-      <c r="Q44" s="239"/>
-    </row>
-    <row r="45" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="239"/>
-      <c r="B45" s="238"/>
-      <c r="C45" s="239"/>
-      <c r="D45" s="243"/>
-      <c r="E45" s="239"/>
-      <c r="F45" s="239"/>
-      <c r="G45" s="239"/>
+      <c r="Q44" s="240"/>
+    </row>
+    <row r="45" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A45" s="240"/>
+      <c r="B45" s="243"/>
+      <c r="C45" s="240"/>
+      <c r="D45" s="244"/>
+      <c r="E45" s="240"/>
+      <c r="F45" s="240"/>
+      <c r="G45" s="240"/>
       <c r="H45" s="56"/>
       <c r="I45" s="56"/>
       <c r="J45" s="56"/>
       <c r="K45" s="56"/>
-      <c r="L45" s="239"/>
-      <c r="M45" s="243"/>
-      <c r="N45" s="239"/>
-      <c r="O45" s="239"/>
-      <c r="P45" s="239"/>
-      <c r="Q45" s="239"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="239"/>
-      <c r="B46" s="241"/>
-      <c r="C46" s="239"/>
-      <c r="D46" s="242" t="s">
+      <c r="L45" s="240"/>
+      <c r="M45" s="244"/>
+      <c r="N45" s="240"/>
+      <c r="O45" s="240"/>
+      <c r="P45" s="240"/>
+      <c r="Q45" s="240"/>
+    </row>
+    <row r="46" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="240"/>
+      <c r="B46" s="242"/>
+      <c r="C46" s="240"/>
+      <c r="D46" s="252" t="s">
         <v>258</v>
       </c>
-      <c r="E46" s="239"/>
-      <c r="F46" s="239"/>
-      <c r="G46" s="239"/>
+      <c r="E46" s="240"/>
+      <c r="F46" s="240"/>
+      <c r="G46" s="240"/>
       <c r="H46" s="106"/>
       <c r="I46" s="106"/>
       <c r="J46" s="106"/>
       <c r="K46" s="106"/>
-      <c r="L46" s="239"/>
-      <c r="M46" s="242" t="s">
+      <c r="L46" s="240"/>
+      <c r="M46" s="252" t="s">
         <v>262</v>
       </c>
-      <c r="N46" s="239"/>
-      <c r="O46" s="239"/>
-      <c r="P46" s="239"/>
-      <c r="Q46" s="239"/>
-    </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="239"/>
+      <c r="N46" s="240"/>
+      <c r="O46" s="240"/>
+      <c r="P46" s="240"/>
+      <c r="Q46" s="240"/>
+    </row>
+    <row r="47" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A47" s="240"/>
       <c r="B47" s="14"/>
       <c r="C47" s="45"/>
       <c r="D47" s="108" t="s">
@@ -9359,7 +9728,7 @@
       <c r="I47" s="108"/>
       <c r="J47" s="108"/>
       <c r="K47" s="108"/>
-      <c r="L47" s="239"/>
+      <c r="L47" s="240"/>
       <c r="M47" s="108" t="s">
         <v>273</v>
       </c>
@@ -9368,10 +9737,10 @@
       </c>
       <c r="O47" s="108"/>
       <c r="P47" s="108"/>
-      <c r="Q47" s="239"/>
-    </row>
-    <row r="48" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="239"/>
+      <c r="Q47" s="240"/>
+    </row>
+    <row r="48" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A48" s="240"/>
       <c r="B48" s="14"/>
       <c r="C48" s="45"/>
       <c r="D48" s="110">
@@ -9386,7 +9755,7 @@
       <c r="I48" s="113"/>
       <c r="J48" s="113"/>
       <c r="K48" s="113"/>
-      <c r="L48" s="239"/>
+      <c r="L48" s="240"/>
       <c r="M48" s="110">
         <v>1</v>
       </c>
@@ -9395,10 +9764,10 @@
       </c>
       <c r="O48" s="113"/>
       <c r="P48" s="113"/>
-      <c r="Q48" s="239"/>
-    </row>
-    <row r="49" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="239"/>
+      <c r="Q48" s="240"/>
+    </row>
+    <row r="49" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A49" s="240"/>
       <c r="B49" s="14"/>
       <c r="C49" s="45"/>
       <c r="D49" s="110">
@@ -9414,7 +9783,7 @@
       <c r="I49" s="113"/>
       <c r="J49" s="113"/>
       <c r="K49" s="113"/>
-      <c r="L49" s="239"/>
+      <c r="L49" s="240"/>
       <c r="M49" s="110">
         <v>2</v>
       </c>
@@ -9423,10 +9792,10 @@
       </c>
       <c r="O49" s="113"/>
       <c r="P49" s="113"/>
-      <c r="Q49" s="239"/>
-    </row>
-    <row r="50" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="239"/>
+      <c r="Q49" s="240"/>
+    </row>
+    <row r="50" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A50" s="240"/>
       <c r="B50" s="14"/>
       <c r="C50" s="45"/>
       <c r="D50" s="110">
@@ -9444,7 +9813,7 @@
       <c r="I50" s="113"/>
       <c r="J50" s="113"/>
       <c r="K50" s="113"/>
-      <c r="L50" s="239"/>
+      <c r="L50" s="240"/>
       <c r="M50" s="110">
         <v>3</v>
       </c>
@@ -9453,10 +9822,10 @@
       </c>
       <c r="O50" s="113"/>
       <c r="P50" s="113"/>
-      <c r="Q50" s="239"/>
-    </row>
-    <row r="51" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="239"/>
+      <c r="Q50" s="240"/>
+    </row>
+    <row r="51" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A51" s="240"/>
       <c r="B51" s="14"/>
       <c r="C51" s="45"/>
       <c r="D51" s="110">
@@ -9472,7 +9841,7 @@
       <c r="I51" s="113"/>
       <c r="J51" s="113"/>
       <c r="K51" s="113"/>
-      <c r="L51" s="239"/>
+      <c r="L51" s="240"/>
       <c r="M51" s="110">
         <v>4</v>
       </c>
@@ -9481,10 +9850,10 @@
       </c>
       <c r="O51" s="113"/>
       <c r="P51" s="113"/>
-      <c r="Q51" s="239"/>
-    </row>
-    <row r="52" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="239"/>
+      <c r="Q51" s="240"/>
+    </row>
+    <row r="52" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A52" s="240"/>
       <c r="B52" s="14"/>
       <c r="C52" s="45"/>
       <c r="D52" s="110">
@@ -9502,7 +9871,7 @@
       <c r="I52" s="113"/>
       <c r="J52" s="113"/>
       <c r="K52" s="113"/>
-      <c r="L52" s="239"/>
+      <c r="L52" s="240"/>
       <c r="M52" s="110">
         <v>5</v>
       </c>
@@ -9511,10 +9880,10 @@
       </c>
       <c r="O52" s="113"/>
       <c r="P52" s="113"/>
-      <c r="Q52" s="239"/>
-    </row>
-    <row r="53" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="239"/>
+      <c r="Q52" s="240"/>
+    </row>
+    <row r="53" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A53" s="240"/>
       <c r="B53" s="14"/>
       <c r="C53" s="45"/>
       <c r="D53" s="110">
@@ -9530,7 +9899,7 @@
       <c r="I53" s="113"/>
       <c r="J53" s="113"/>
       <c r="K53" s="113"/>
-      <c r="L53" s="239"/>
+      <c r="L53" s="240"/>
       <c r="M53" s="110">
         <v>6</v>
       </c>
@@ -9539,10 +9908,10 @@
       </c>
       <c r="O53" s="113"/>
       <c r="P53" s="113"/>
-      <c r="Q53" s="239"/>
-    </row>
-    <row r="54" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="239"/>
+      <c r="Q53" s="240"/>
+    </row>
+    <row r="54" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A54" s="240"/>
       <c r="B54" s="14"/>
       <c r="C54" s="45"/>
       <c r="D54" s="110">
@@ -9560,7 +9929,7 @@
       <c r="I54" s="113"/>
       <c r="J54" s="113"/>
       <c r="K54" s="113"/>
-      <c r="L54" s="239"/>
+      <c r="L54" s="240"/>
       <c r="M54" s="110">
         <v>7</v>
       </c>
@@ -9569,10 +9938,10 @@
       </c>
       <c r="O54" s="113"/>
       <c r="P54" s="113"/>
-      <c r="Q54" s="239"/>
-    </row>
-    <row r="55" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="239"/>
+      <c r="Q54" s="240"/>
+    </row>
+    <row r="55" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A55" s="240"/>
       <c r="B55" s="14"/>
       <c r="C55" s="45"/>
       <c r="D55" s="110">
@@ -9590,7 +9959,7 @@
       <c r="I55" s="113"/>
       <c r="J55" s="113"/>
       <c r="K55" s="113"/>
-      <c r="L55" s="239"/>
+      <c r="L55" s="240"/>
       <c r="M55" s="110">
         <v>8</v>
       </c>
@@ -9599,46 +9968,34 @@
       </c>
       <c r="O55" s="113"/>
       <c r="P55" s="113"/>
-      <c r="Q55" s="239"/>
-    </row>
-    <row r="56" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="239"/>
+      <c r="Q55" s="240"/>
+    </row>
+    <row r="56" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A56" s="240"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="240"/>
-      <c r="E56" s="239"/>
-      <c r="F56" s="239"/>
-      <c r="G56" s="239"/>
-      <c r="H56" s="239"/>
-      <c r="I56" s="239"/>
-      <c r="J56" s="239"/>
-      <c r="K56" s="239"/>
-      <c r="L56" s="239"/>
-      <c r="M56" s="239"/>
-      <c r="N56" s="239"/>
-      <c r="O56" s="239"/>
-      <c r="P56" s="239"/>
-      <c r="Q56" s="239"/>
+      <c r="D56" s="251"/>
+      <c r="E56" s="240"/>
+      <c r="F56" s="240"/>
+      <c r="G56" s="240"/>
+      <c r="H56" s="240"/>
+      <c r="I56" s="240"/>
+      <c r="J56" s="240"/>
+      <c r="K56" s="240"/>
+      <c r="L56" s="240"/>
+      <c r="M56" s="240"/>
+      <c r="N56" s="240"/>
+      <c r="O56" s="240"/>
+      <c r="P56" s="240"/>
+      <c r="Q56" s="240"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D56:P56"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D45:G45"/>
     <mergeCell ref="M34:P34"/>
     <mergeCell ref="L2:L55"/>
     <mergeCell ref="M35:P35"/>
@@ -9655,11 +10012,23 @@
     <mergeCell ref="D35:G35"/>
     <mergeCell ref="M12:P12"/>
     <mergeCell ref="M13:P13"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D56:P56"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9673,12 +10042,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -9687,7 +10056,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -9696,7 +10065,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
@@ -9705,7 +10074,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
@@ -9714,7 +10083,7 @@
         <v>402.9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
@@ -9727,7 +10096,7 @@
         <v>966.96</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
@@ -9744,7 +10113,7 @@
         <v>1654.670306941342</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7">
         <f>D6/60</f>
         <v>27.577838449022366</v>
@@ -9758,7 +10127,7 @@
         <v>10483.199999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F8" s="10">
         <v>1.56</v>
       </c>
@@ -9775,7 +10144,7 @@
         <v>4043.5199999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
@@ -9799,7 +10168,7 @@
         <v>673.92</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>24</v>
       </c>
@@ -9821,7 +10190,7 @@
         <v>673.92</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>29</v>
       </c>
@@ -9837,7 +10206,7 @@
         <v>17.9712</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>32</v>
       </c>
@@ -9846,7 +10215,7 @@
         <v>218.4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G13" s="10" t="s">
         <v>34</v>
       </c>
@@ -9857,7 +10226,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F14" s="10" t="s">
         <v>37</v>
       </c>
@@ -9871,7 +10240,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F15" s="10" t="s">
         <v>39</v>
       </c>
@@ -9882,7 +10251,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10" t="s">
@@ -9896,7 +10265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>44</v>
       </c>
@@ -9912,7 +10281,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>46</v>
       </c>
@@ -9932,7 +10301,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>47</v>
       </c>
@@ -9949,7 +10318,7 @@
         <v>5104</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>49</v>
       </c>
@@ -9965,7 +10334,7 @@
         <v>39.6</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>53</v>
       </c>
@@ -9977,7 +10346,7 @@
         <v>158.4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>71</v>
       </c>
@@ -9994,7 +10363,7 @@
         <v>62.400000000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>100</v>
       </c>
@@ -10010,13 +10379,13 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G25">
         <f>G24/60/60</f>
         <v>34.444444444444443</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>1</v>
       </c>
@@ -10024,7 +10393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>390</v>
       </c>
@@ -10033,7 +10402,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E31" s="10">
         <v>390</v>
       </c>
@@ -10046,7 +10415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E32" s="10">
         <v>1</v>
       </c>
@@ -10054,13 +10423,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G34">
         <f>8*9</f>
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C40">
         <f>7.5/25*2.4</f>
         <v>0.72</v>
@@ -10079,16 +10448,16 @@
       <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="15:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O2" s="216" t="s">
         <v>429</v>
       </c>
@@ -10105,7 +10474,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="15:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O3" t="s">
         <v>436</v>
       </c>
@@ -10124,7 +10493,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="15:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O4" t="s">
         <v>437</v>
       </c>
@@ -10144,7 +10513,7 @@
         <v>0.31854838709677419</v>
       </c>
     </row>
-    <row r="5" spans="15:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O5" t="s">
         <v>440</v>
       </c>
@@ -10165,7 +10534,7 @@
         <v>0.38709677419354838</v>
       </c>
     </row>
-    <row r="6" spans="15:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O6" t="s">
         <v>439</v>
       </c>
@@ -10186,7 +10555,7 @@
         <v>0.45564516129032256</v>
       </c>
     </row>
-    <row r="7" spans="15:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O7" t="s">
         <v>438</v>
       </c>
@@ -10207,7 +10576,7 @@
         <v>0.52419354838709675</v>
       </c>
     </row>
-    <row r="8" spans="15:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O8" t="s">
         <v>441</v>
       </c>
@@ -10228,7 +10597,7 @@
         <v>0.592741935483871</v>
       </c>
     </row>
-    <row r="9" spans="15:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O9" t="s">
         <v>444</v>
       </c>
@@ -10249,7 +10618,7 @@
         <v>0.66129032258064524</v>
       </c>
     </row>
-    <row r="10" spans="15:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O10" t="s">
         <v>442</v>
       </c>
@@ -10270,7 +10639,7 @@
         <v>0.72983870967741948</v>
       </c>
     </row>
-    <row r="11" spans="15:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O11" t="s">
         <v>443</v>
       </c>
@@ -10291,7 +10660,7 @@
         <v>0.79838709677419373</v>
       </c>
     </row>
-    <row r="12" spans="15:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O12" t="s">
         <v>434</v>
       </c>
@@ -10312,7 +10681,7 @@
         <v>0.86693548387096797</v>
       </c>
     </row>
-    <row r="13" spans="15:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O13" t="s">
         <v>435</v>
       </c>
@@ -10333,7 +10702,7 @@
         <v>0.93548387096774221</v>
       </c>
     </row>
-    <row r="14" spans="15:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O14" t="s">
         <v>445</v>
       </c>
@@ -10353,7 +10722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="15:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O15" t="s">
         <v>446</v>
       </c>
@@ -10374,7 +10743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="15:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O16" t="s">
         <v>447</v>
       </c>
@@ -10395,7 +10764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="15:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O17" t="s">
         <v>448</v>
       </c>
@@ -10416,7 +10785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="15:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O29" t="s">
         <v>449</v>
       </c>
@@ -10427,7 +10796,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="15:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O30" t="s">
         <v>450</v>
       </c>
@@ -10438,7 +10807,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="31" spans="15:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O31" t="s">
         <v>451</v>
       </c>
@@ -10451,7 +10820,7 @@
         <v>5.4838709677419351</v>
       </c>
     </row>
-    <row r="32" spans="15:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O32" t="s">
         <v>452</v>
       </c>
@@ -10503,22 +10872,22 @@
       <selection activeCell="L12" sqref="L12:L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="143" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="143" customWidth="1"/>
-    <col min="3" max="8" width="9.140625" style="143"/>
-    <col min="9" max="9" width="15.7109375" style="143" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="143" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="143" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="143" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="143" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="143"/>
-    <col min="15" max="15" width="18.5703125" style="143" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="143"/>
+    <col min="1" max="1" width="14.44140625" style="143" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="143" customWidth="1"/>
+    <col min="3" max="8" width="9.109375" style="143"/>
+    <col min="9" max="9" width="15.6640625" style="143" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="143" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="143" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="143" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="143" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" style="143"/>
+    <col min="15" max="15" width="18.5546875" style="143" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="143"/>
   </cols>
   <sheetData>
-    <row r="4" spans="8:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="8:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="H4" s="183" t="s">
         <v>364</v>
       </c>
@@ -10526,7 +10895,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="5" spans="8:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="8:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="H5" s="183" t="s">
         <v>371</v>
       </c>
@@ -10546,7 +10915,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="6" spans="8:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="8:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="H6" s="183" t="s">
         <v>382</v>
       </c>
@@ -10566,7 +10935,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="7" spans="8:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="8:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="H7" s="183" t="s">
         <v>383</v>
       </c>
@@ -10586,7 +10955,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="10" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="8:16" x14ac:dyDescent="0.25">
       <c r="I10" s="178" t="s">
         <v>364</v>
       </c>
@@ -10600,7 +10969,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="11" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="8:16" x14ac:dyDescent="0.25">
       <c r="I11" s="184" t="s">
         <v>384</v>
       </c>
@@ -10626,7 +10995,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="12" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="8:16" x14ac:dyDescent="0.25">
       <c r="I12" s="178" t="s">
         <v>365</v>
       </c>
@@ -10652,7 +11021,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="8:16" x14ac:dyDescent="0.25">
       <c r="K13" s="178" t="s">
         <v>367</v>
       </c>
@@ -10672,7 +11041,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="8:16" x14ac:dyDescent="0.25">
       <c r="K14" s="178" t="s">
         <v>369</v>
       </c>
@@ -10692,7 +11061,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="8:16" x14ac:dyDescent="0.25">
       <c r="K15" s="178" t="s">
         <v>368</v>
       </c>
@@ -10712,7 +11081,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="16" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="8:16" x14ac:dyDescent="0.25">
       <c r="K16" s="178" t="s">
         <v>370</v>
       </c>
@@ -10732,95 +11101,100 @@
         <v>403</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="254" t="s">
+    <row r="26" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="257" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="239"/>
-      <c r="C26" s="239"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="252"/>
-      <c r="B27" s="239"/>
+      <c r="B26" s="240"/>
+      <c r="C26" s="240"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="256"/>
+      <c r="B27" s="240"/>
       <c r="C27" s="50"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="252"/>
-      <c r="B28" s="239"/>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="256"/>
+      <c r="B28" s="240"/>
       <c r="C28" s="51"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="252"/>
-      <c r="B29" s="239"/>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="256"/>
+      <c r="B29" s="240"/>
       <c r="C29" s="121"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="252"/>
-      <c r="B30" s="239"/>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="256"/>
+      <c r="B30" s="240"/>
       <c r="C30" s="53"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="252"/>
-      <c r="B31" s="239"/>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="256"/>
+      <c r="B31" s="240"/>
       <c r="C31" s="53"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="255"/>
-      <c r="B32" s="239"/>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="254"/>
+      <c r="B32" s="240"/>
       <c r="C32" s="121"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="253"/>
-      <c r="B33" s="239"/>
+      <c r="B33" s="240"/>
       <c r="C33" s="53"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="253"/>
-      <c r="B34" s="239"/>
+      <c r="B34" s="240"/>
       <c r="C34" s="53"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="253"/>
-      <c r="B35" s="239"/>
+      <c r="B35" s="240"/>
       <c r="C35" s="53"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="253"/>
-      <c r="B36" s="239"/>
+      <c r="B36" s="240"/>
       <c r="C36" s="53"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="253"/>
-      <c r="B37" s="239"/>
+      <c r="B37" s="240"/>
       <c r="C37" s="53"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="253"/>
-      <c r="B38" s="239"/>
+      <c r="B38" s="240"/>
       <c r="C38" s="53"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="253"/>
-      <c r="B39" s="239"/>
+      <c r="B39" s="240"/>
       <c r="C39" s="53"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="253"/>
-      <c r="B40" s="239"/>
+      <c r="B40" s="240"/>
       <c r="C40" s="53"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="253"/>
-      <c r="B41" s="239"/>
+      <c r="B41" s="240"/>
       <c r="C41" s="53"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="253"/>
-      <c r="B42" s="239"/>
+      <c r="B42" s="240"/>
       <c r="C42" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:B27"/>
@@ -10833,11 +11207,6 @@
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10845,15 +11214,671 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="287" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="287"/>
+      <c r="G1" s="289" t="s">
+        <v>484</v>
+      </c>
+      <c r="H1" s="290"/>
+      <c r="I1" s="290"/>
+      <c r="J1" s="290"/>
+      <c r="K1" s="290"/>
+      <c r="L1" s="290"/>
+      <c r="M1" s="290"/>
+      <c r="N1" s="291"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="166" t="s">
+        <v>467</v>
+      </c>
+      <c r="B2" s="288">
+        <v>3.5</v>
+      </c>
+      <c r="G2" s="292"/>
+      <c r="H2" s="293"/>
+      <c r="I2" s="293"/>
+      <c r="J2" s="293"/>
+      <c r="K2" s="293"/>
+      <c r="L2" s="293"/>
+      <c r="M2" s="293"/>
+      <c r="N2" s="294"/>
+    </row>
+    <row r="3" spans="1:14" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="166"/>
+      <c r="B3" s="288"/>
+      <c r="G3" s="295" t="s">
+        <v>482</v>
+      </c>
+      <c r="H3" s="296"/>
+      <c r="I3" s="296"/>
+      <c r="J3" s="296"/>
+      <c r="K3" s="296"/>
+      <c r="L3" s="296"/>
+      <c r="M3" s="296"/>
+      <c r="N3" s="297"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="166"/>
+      <c r="B4" s="288"/>
+      <c r="G4" s="298" t="s">
+        <v>474</v>
+      </c>
+      <c r="H4" s="299" t="s">
+        <v>475</v>
+      </c>
+      <c r="I4" s="299" t="s">
+        <v>476</v>
+      </c>
+      <c r="J4" s="299" t="s">
+        <v>477</v>
+      </c>
+      <c r="K4" s="299" t="s">
+        <v>478</v>
+      </c>
+      <c r="L4" s="299" t="s">
+        <v>479</v>
+      </c>
+      <c r="M4" s="299" t="s">
+        <v>480</v>
+      </c>
+      <c r="N4" s="300" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="166" t="s">
+        <v>461</v>
+      </c>
+      <c r="B5" s="301">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="302" t="s">
+        <v>468</v>
+      </c>
+      <c r="H5" s="303">
+        <v>250</v>
+      </c>
+      <c r="I5" s="303">
+        <f>H5*B$5</f>
+        <v>125</v>
+      </c>
+      <c r="J5" s="303">
+        <f>H5*B$6</f>
+        <v>250</v>
+      </c>
+      <c r="K5" s="303">
+        <f>H5*B$7</f>
+        <v>875</v>
+      </c>
+      <c r="L5" s="303">
+        <f>H5*B$8</f>
+        <v>3062.5</v>
+      </c>
+      <c r="M5" s="303">
+        <f>H5*B$9</f>
+        <v>10718.75</v>
+      </c>
+      <c r="N5" s="304">
+        <f>H5*B$10</f>
+        <v>37515.625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="166" t="s">
+        <v>466</v>
+      </c>
+      <c r="B6" s="301">
+        <v>1</v>
+      </c>
+      <c r="G6" s="302" t="s">
+        <v>469</v>
+      </c>
+      <c r="H6" s="303">
+        <v>350</v>
+      </c>
+      <c r="I6" s="303">
+        <f t="shared" ref="I6:I10" si="0">H6*B$5</f>
+        <v>175</v>
+      </c>
+      <c r="J6" s="303">
+        <f t="shared" ref="J6:J10" si="1">H6*B$6</f>
+        <v>350</v>
+      </c>
+      <c r="K6" s="303">
+        <f t="shared" ref="K6:K10" si="2">H6*B$7</f>
+        <v>1225</v>
+      </c>
+      <c r="L6" s="303">
+        <f t="shared" ref="L6:L10" si="3">H6*B$8</f>
+        <v>4287.5</v>
+      </c>
+      <c r="M6" s="303">
+        <f t="shared" ref="M6:M10" si="4">H6*B$9</f>
+        <v>15006.25</v>
+      </c>
+      <c r="N6" s="304">
+        <f t="shared" ref="N6:N10" si="5">H6*B$10</f>
+        <v>52521.875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="166" t="s">
+        <v>465</v>
+      </c>
+      <c r="B7" s="301">
+        <f>B6*B$2</f>
+        <v>3.5</v>
+      </c>
+      <c r="G7" s="302" t="s">
+        <v>470</v>
+      </c>
+      <c r="H7" s="303">
+        <v>750</v>
+      </c>
+      <c r="I7" s="303">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="J7" s="303">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+      <c r="K7" s="303">
+        <f t="shared" si="2"/>
+        <v>2625</v>
+      </c>
+      <c r="L7" s="303">
+        <f t="shared" si="3"/>
+        <v>9187.5</v>
+      </c>
+      <c r="M7" s="303">
+        <f t="shared" si="4"/>
+        <v>32156.25</v>
+      </c>
+      <c r="N7" s="304">
+        <f t="shared" si="5"/>
+        <v>112546.875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="166" t="s">
+        <v>464</v>
+      </c>
+      <c r="B8" s="301">
+        <f t="shared" ref="B8:B10" si="6">B7*B$2</f>
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="302" t="s">
+        <v>471</v>
+      </c>
+      <c r="H8" s="303">
+        <v>1250</v>
+      </c>
+      <c r="I8" s="303">
+        <f t="shared" si="0"/>
+        <v>625</v>
+      </c>
+      <c r="J8" s="303">
+        <f t="shared" si="1"/>
+        <v>1250</v>
+      </c>
+      <c r="K8" s="303">
+        <f t="shared" si="2"/>
+        <v>4375</v>
+      </c>
+      <c r="L8" s="303">
+        <f t="shared" si="3"/>
+        <v>15312.5</v>
+      </c>
+      <c r="M8" s="303">
+        <f t="shared" si="4"/>
+        <v>53593.75</v>
+      </c>
+      <c r="N8" s="304">
+        <f t="shared" si="5"/>
+        <v>187578.125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="166" t="s">
+        <v>463</v>
+      </c>
+      <c r="B9" s="301">
+        <f t="shared" si="6"/>
+        <v>42.875</v>
+      </c>
+      <c r="G9" s="302" t="s">
+        <v>472</v>
+      </c>
+      <c r="H9" s="303">
+        <v>2500</v>
+      </c>
+      <c r="I9" s="303">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+      <c r="J9" s="303">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+      <c r="K9" s="303">
+        <f t="shared" si="2"/>
+        <v>8750</v>
+      </c>
+      <c r="L9" s="303">
+        <f t="shared" si="3"/>
+        <v>30625</v>
+      </c>
+      <c r="M9" s="303">
+        <f t="shared" si="4"/>
+        <v>107187.5</v>
+      </c>
+      <c r="N9" s="304">
+        <f t="shared" si="5"/>
+        <v>375156.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="166" t="s">
+        <v>462</v>
+      </c>
+      <c r="B10" s="301">
+        <f t="shared" si="6"/>
+        <v>150.0625</v>
+      </c>
+      <c r="G10" s="302" t="s">
+        <v>473</v>
+      </c>
+      <c r="H10" s="303">
+        <v>2000</v>
+      </c>
+      <c r="I10" s="303">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="J10" s="303">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K10" s="303">
+        <f t="shared" si="2"/>
+        <v>7000</v>
+      </c>
+      <c r="L10" s="303">
+        <f t="shared" si="3"/>
+        <v>24500</v>
+      </c>
+      <c r="M10" s="303">
+        <f t="shared" si="4"/>
+        <v>85750</v>
+      </c>
+      <c r="N10" s="304">
+        <f t="shared" si="5"/>
+        <v>300125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="238" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="166"/>
+      <c r="B11" s="288"/>
+      <c r="G11" s="302" t="s">
+        <v>485</v>
+      </c>
+      <c r="H11" s="303">
+        <v>50000</v>
+      </c>
+      <c r="I11" s="303">
+        <f t="shared" ref="I11" si="7">H11*B$5</f>
+        <v>25000</v>
+      </c>
+      <c r="J11" s="303">
+        <f t="shared" ref="J11" si="8">H11*B$6</f>
+        <v>50000</v>
+      </c>
+      <c r="K11" s="303">
+        <f t="shared" ref="K11" si="9">H11*B$7</f>
+        <v>175000</v>
+      </c>
+      <c r="L11" s="303">
+        <f t="shared" ref="L11" si="10">H11*B$8</f>
+        <v>612500</v>
+      </c>
+      <c r="M11" s="303">
+        <f t="shared" ref="M11" si="11">H11*B$9</f>
+        <v>2143750</v>
+      </c>
+      <c r="N11" s="304">
+        <f t="shared" ref="N11" si="12">H11*B$10</f>
+        <v>7503125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="305"/>
+      <c r="H12" s="306"/>
+      <c r="I12" s="306"/>
+      <c r="J12" s="306"/>
+      <c r="K12" s="306"/>
+      <c r="L12" s="306"/>
+      <c r="M12" s="306"/>
+      <c r="N12" s="307"/>
+    </row>
+    <row r="13" spans="1:14" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G13" s="308" t="s">
+        <v>483</v>
+      </c>
+      <c r="H13" s="309"/>
+      <c r="I13" s="309"/>
+      <c r="J13" s="309"/>
+      <c r="K13" s="309"/>
+      <c r="L13" s="309"/>
+      <c r="M13" s="309"/>
+      <c r="N13" s="310"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="302" t="s">
+        <v>474</v>
+      </c>
+      <c r="H14" s="311" t="s">
+        <v>475</v>
+      </c>
+      <c r="I14" s="311" t="s">
+        <v>476</v>
+      </c>
+      <c r="J14" s="311" t="s">
+        <v>477</v>
+      </c>
+      <c r="K14" s="311" t="s">
+        <v>478</v>
+      </c>
+      <c r="L14" s="311" t="s">
+        <v>479</v>
+      </c>
+      <c r="M14" s="311" t="s">
+        <v>480</v>
+      </c>
+      <c r="N14" s="312" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="302" t="s">
+        <v>468</v>
+      </c>
+      <c r="H15" s="303">
+        <f>H5*B$2</f>
+        <v>875</v>
+      </c>
+      <c r="I15" s="303">
+        <f>H15*B$5</f>
+        <v>437.5</v>
+      </c>
+      <c r="J15" s="303">
+        <f>H15*B$6</f>
+        <v>875</v>
+      </c>
+      <c r="K15" s="303">
+        <f>H15*B$7</f>
+        <v>3062.5</v>
+      </c>
+      <c r="L15" s="303">
+        <f>H15*B$8</f>
+        <v>10718.75</v>
+      </c>
+      <c r="M15" s="303">
+        <f>H15*B$9</f>
+        <v>37515.625</v>
+      </c>
+      <c r="N15" s="304">
+        <f>H15*B$10</f>
+        <v>131304.6875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="302" t="s">
+        <v>469</v>
+      </c>
+      <c r="H16" s="303">
+        <f>H6*B$2</f>
+        <v>1225</v>
+      </c>
+      <c r="I16" s="303">
+        <f t="shared" ref="I16:I19" si="13">H16*B$5</f>
+        <v>612.5</v>
+      </c>
+      <c r="J16" s="303">
+        <f t="shared" ref="J16:J19" si="14">H16*B$6</f>
+        <v>1225</v>
+      </c>
+      <c r="K16" s="303">
+        <f t="shared" ref="K16:K19" si="15">H16*B$7</f>
+        <v>4287.5</v>
+      </c>
+      <c r="L16" s="303">
+        <f t="shared" ref="L16:L19" si="16">H16*B$8</f>
+        <v>15006.25</v>
+      </c>
+      <c r="M16" s="303">
+        <f t="shared" ref="M16:M19" si="17">H16*B$9</f>
+        <v>52521.875</v>
+      </c>
+      <c r="N16" s="304">
+        <f t="shared" ref="N16:N19" si="18">H16*B$10</f>
+        <v>183826.5625</v>
+      </c>
+    </row>
+    <row r="17" spans="7:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G17" s="302" t="s">
+        <v>470</v>
+      </c>
+      <c r="H17" s="303">
+        <f>H7*B$2</f>
+        <v>2625</v>
+      </c>
+      <c r="I17" s="303">
+        <f t="shared" si="13"/>
+        <v>1312.5</v>
+      </c>
+      <c r="J17" s="303">
+        <f t="shared" si="14"/>
+        <v>2625</v>
+      </c>
+      <c r="K17" s="303">
+        <f t="shared" si="15"/>
+        <v>9187.5</v>
+      </c>
+      <c r="L17" s="303">
+        <f t="shared" si="16"/>
+        <v>32156.25</v>
+      </c>
+      <c r="M17" s="303">
+        <f t="shared" si="17"/>
+        <v>112546.875</v>
+      </c>
+      <c r="N17" s="304">
+        <f t="shared" si="18"/>
+        <v>393914.0625</v>
+      </c>
+    </row>
+    <row r="18" spans="7:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G18" s="302" t="s">
+        <v>471</v>
+      </c>
+      <c r="H18" s="303">
+        <f>H8*B$2</f>
+        <v>4375</v>
+      </c>
+      <c r="I18" s="303">
+        <f t="shared" si="13"/>
+        <v>2187.5</v>
+      </c>
+      <c r="J18" s="303">
+        <f t="shared" si="14"/>
+        <v>4375</v>
+      </c>
+      <c r="K18" s="303">
+        <f t="shared" si="15"/>
+        <v>15312.5</v>
+      </c>
+      <c r="L18" s="303">
+        <f t="shared" si="16"/>
+        <v>53593.75</v>
+      </c>
+      <c r="M18" s="303">
+        <f t="shared" si="17"/>
+        <v>187578.125</v>
+      </c>
+      <c r="N18" s="304">
+        <f t="shared" si="18"/>
+        <v>656523.4375</v>
+      </c>
+    </row>
+    <row r="19" spans="7:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G19" s="302" t="s">
+        <v>472</v>
+      </c>
+      <c r="H19" s="303">
+        <f>H9*B$2</f>
+        <v>8750</v>
+      </c>
+      <c r="I19" s="303">
+        <f t="shared" si="13"/>
+        <v>4375</v>
+      </c>
+      <c r="J19" s="303">
+        <f t="shared" si="14"/>
+        <v>8750</v>
+      </c>
+      <c r="K19" s="303">
+        <f t="shared" si="15"/>
+        <v>30625</v>
+      </c>
+      <c r="L19" s="303">
+        <f t="shared" si="16"/>
+        <v>107187.5</v>
+      </c>
+      <c r="M19" s="303">
+        <f t="shared" si="17"/>
+        <v>375156.25</v>
+      </c>
+      <c r="N19" s="304">
+        <f t="shared" si="18"/>
+        <v>1313046.875</v>
+      </c>
+    </row>
+    <row r="20" spans="7:14" s="238" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G20" s="302" t="s">
+        <v>473</v>
+      </c>
+      <c r="H20" s="313">
+        <f>H10*B$2</f>
+        <v>7000</v>
+      </c>
+      <c r="I20" s="313">
+        <f>H20*B$5</f>
+        <v>3500</v>
+      </c>
+      <c r="J20" s="313">
+        <f>H20*B$6</f>
+        <v>7000</v>
+      </c>
+      <c r="K20" s="313">
+        <f>H20*B$7</f>
+        <v>24500</v>
+      </c>
+      <c r="L20" s="313">
+        <f>H20*B$8</f>
+        <v>85750</v>
+      </c>
+      <c r="M20" s="313">
+        <f>H20*B$9</f>
+        <v>300125</v>
+      </c>
+      <c r="N20" s="314">
+        <f>H20*B$10</f>
+        <v>1050437.5</v>
+      </c>
+    </row>
+    <row r="21" spans="7:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G21" s="315" t="s">
+        <v>485</v>
+      </c>
+      <c r="H21" s="313">
+        <f>H11*B$2</f>
+        <v>175000</v>
+      </c>
+      <c r="I21" s="313">
+        <f>H21*B$5</f>
+        <v>87500</v>
+      </c>
+      <c r="J21" s="313">
+        <f>H21*B$6</f>
+        <v>175000</v>
+      </c>
+      <c r="K21" s="313">
+        <f>H21*B$7</f>
+        <v>612500</v>
+      </c>
+      <c r="L21" s="313">
+        <f>H21*B$8</f>
+        <v>2143750</v>
+      </c>
+      <c r="M21" s="313">
+        <f>H21*B$9</f>
+        <v>7503125</v>
+      </c>
+      <c r="N21" s="314">
+        <f>H21*B$10</f>
+        <v>26260937.5</v>
+      </c>
+    </row>
+    <row r="22" spans="7:14" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="G3:N3"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="G1:N2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="14">
         <f>2.4*8*400/1000</f>
         <v>7.68</v>
@@ -10871,7 +11896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>A1/B1</f>
         <v>1.28</v>
@@ -10881,7 +11906,7 @@
         <v>0.78125</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>18</v>
       </c>
@@ -10889,7 +11914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>8.1</v>
       </c>
@@ -10897,13 +11922,13 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13">
         <f>160*5</f>
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G18">
         <f>240*5</f>
         <v>1200</v>
@@ -10913,7 +11938,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19">
         <f>160/240</f>
         <v>0.66666666666666663</v>
@@ -10926,7 +11951,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="20" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E20" s="10">
         <v>5200</v>
       </c>
@@ -10935,13 +11960,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23">
         <f>240/160</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E29" s="10">
         <v>240</v>
       </c>
@@ -10950,7 +11975,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E30" s="10">
         <v>160</v>
       </c>
@@ -10960,28 +11985,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" customWidth="1"/>
+    <col min="5" max="6" width="12.6640625" customWidth="1"/>
     <col min="7" max="8" width="17" customWidth="1"/>
-    <col min="9" max="10" width="15.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" customWidth="1"/>
-    <col min="12" max="13" width="20.28515625" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" customWidth="1"/>
+    <col min="9" max="10" width="15.5546875" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" customWidth="1"/>
+    <col min="12" max="13" width="20.33203125" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -11001,7 +12026,7 @@
       <c r="O1" s="5"/>
       <c r="P1" s="6"/>
     </row>
-    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -11022,18 +12047,18 @@
       <c r="P2" s="6"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="284" t="s">
+    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="285" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="239"/>
-      <c r="C3" s="239"/>
-      <c r="D3" s="239"/>
-      <c r="E3" s="239"/>
-      <c r="F3" s="239"/>
-      <c r="G3" s="239"/>
-      <c r="H3" s="239"/>
-      <c r="I3" s="239"/>
+      <c r="B3" s="240"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="240"/>
+      <c r="F3" s="240"/>
+      <c r="G3" s="240"/>
+      <c r="H3" s="240"/>
+      <c r="I3" s="240"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -11042,7 +12067,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="19"/>
     </row>
-    <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -11060,27 +12085,27 @@
       <c r="O4" s="5"/>
       <c r="P4" s="19"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="251" t="s">
+    <row r="5" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="239"/>
-      <c r="C5" s="239"/>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="239"/>
-      <c r="G5" s="239"/>
-      <c r="H5" s="239"/>
-      <c r="I5" s="239"/>
-      <c r="J5" s="239"/>
-      <c r="K5" s="239"/>
-      <c r="L5" s="239"/>
+      <c r="B5" s="240"/>
+      <c r="C5" s="240"/>
+      <c r="D5" s="240"/>
+      <c r="E5" s="240"/>
+      <c r="F5" s="240"/>
+      <c r="G5" s="240"/>
+      <c r="H5" s="240"/>
+      <c r="I5" s="240"/>
+      <c r="J5" s="240"/>
+      <c r="K5" s="240"/>
+      <c r="L5" s="240"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
       <c r="B6" s="20"/>
       <c r="C6" s="22" t="s">
@@ -11093,16 +12118,16 @@
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
-      <c r="K6" s="283" t="s">
+      <c r="K6" s="284" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="239"/>
+      <c r="L6" s="240"/>
       <c r="M6" s="23"/>
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
       <c r="P6" s="23"/>
     </row>
-    <row r="7" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>48</v>
       </c>
@@ -11146,7 +12171,7 @@
       <c r="O7" s="23"/>
       <c r="P7" s="23"/>
     </row>
-    <row r="8" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>66</v>
       </c>
@@ -11192,7 +12217,7 @@
       <c r="O8" s="23"/>
       <c r="P8" s="23"/>
     </row>
-    <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>1</v>
       </c>
@@ -11246,7 +12271,7 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2</v>
       </c>
@@ -11300,7 +12325,7 @@
       </c>
       <c r="P10" s="10"/>
     </row>
-    <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>3</v>
       </c>
@@ -11354,7 +12379,7 @@
       </c>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>4</v>
       </c>
@@ -11408,7 +12433,7 @@
       </c>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>5</v>
       </c>
@@ -11462,21 +12487,21 @@
       </c>
       <c r="P13" s="10"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="251" t="s">
+    <row r="15" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="247" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="239"/>
-      <c r="C15" s="239"/>
-      <c r="D15" s="239"/>
-      <c r="E15" s="239"/>
-      <c r="F15" s="239"/>
-      <c r="G15" s="239"/>
-      <c r="H15" s="239"/>
-      <c r="I15" s="239"/>
-      <c r="J15" s="239"/>
-      <c r="K15" s="239"/>
-      <c r="L15" s="239"/>
+      <c r="B15" s="240"/>
+      <c r="C15" s="240"/>
+      <c r="D15" s="240"/>
+      <c r="E15" s="240"/>
+      <c r="F15" s="240"/>
+      <c r="G15" s="240"/>
+      <c r="H15" s="240"/>
+      <c r="I15" s="240"/>
+      <c r="J15" s="240"/>
+      <c r="K15" s="240"/>
+      <c r="L15" s="240"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
@@ -11496,7 +12521,7 @@
       <c r="AC15" s="17"/>
       <c r="AD15" s="17"/>
     </row>
-    <row r="16" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -11507,10 +12532,10 @@
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="K16" s="283" t="s">
+      <c r="K16" s="284" t="s">
         <v>120</v>
       </c>
-      <c r="L16" s="239"/>
+      <c r="L16" s="240"/>
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
@@ -11524,13 +12549,13 @@
       <c r="W16" s="43"/>
       <c r="X16" s="43"/>
       <c r="Y16" s="43"/>
-      <c r="Z16" s="285"/>
-      <c r="AA16" s="239"/>
-      <c r="AB16" s="285"/>
-      <c r="AC16" s="239"/>
+      <c r="Z16" s="286"/>
+      <c r="AA16" s="240"/>
+      <c r="AB16" s="286"/>
+      <c r="AC16" s="240"/>
       <c r="AD16" s="57"/>
     </row>
-    <row r="17" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>130</v>
       </c>
@@ -11588,7 +12613,7 @@
       <c r="AA17" s="43"/>
       <c r="AB17" s="43"/>
     </row>
-    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>1</v>
       </c>
@@ -11648,7 +12673,7 @@
       <c r="AA18" s="28"/>
       <c r="AB18" s="37"/>
     </row>
-    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2</v>
       </c>
@@ -11709,7 +12734,7 @@
       <c r="AA19" s="28"/>
       <c r="AB19" s="37"/>
     </row>
-    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>3</v>
       </c>
@@ -11770,7 +12795,7 @@
       <c r="AA20" s="28"/>
       <c r="AB20" s="37"/>
     </row>
-    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>4</v>
       </c>
@@ -11831,7 +12856,7 @@
       <c r="AA21" s="28"/>
       <c r="AB21" s="37"/>
     </row>
-    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>5</v>
       </c>
@@ -11892,7 +12917,7 @@
       <c r="AA22" s="28"/>
       <c r="AB22" s="37"/>
     </row>
-    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="K23" s="10" t="s">
@@ -11903,10 +12928,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E24" s="10"/>
     </row>
-    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G26" s="73"/>
     </row>
   </sheetData>
@@ -11929,46 +12954,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="116"/>
-    <col min="7" max="7" width="14.42578125" style="116"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="116"/>
+    <col min="7" max="7" width="14.44140625" style="116"/>
     <col min="8" max="8" width="19" style="141" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="11" max="12" width="15.5703125" customWidth="1"/>
-    <col min="13" max="14" width="15.5703125" style="116" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" style="141" customWidth="1"/>
-    <col min="16" max="16" width="28.140625" customWidth="1"/>
+    <col min="11" max="12" width="15.5546875" customWidth="1"/>
+    <col min="13" max="14" width="15.5546875" style="116" customWidth="1"/>
+    <col min="15" max="15" width="15.5546875" style="141" customWidth="1"/>
+    <col min="16" max="16" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="251" t="s">
+      <c r="B1" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="239"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="240"/>
       <c r="L1" s="12"/>
       <c r="M1" s="117"/>
       <c r="N1" s="117"/>
       <c r="O1" s="142"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>28</v>
       </c>
@@ -12015,7 +13040,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>91</v>
       </c>
@@ -12065,7 +13090,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -12124,7 +13149,7 @@
         <v>2.4985029940119761</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2</v>
       </c>
@@ -12183,7 +13208,7 @@
         <v>2.4993726474278546</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -12234,7 +13259,7 @@
         <v>8.3289953149401352</v>
       </c>
       <c r="N6" s="126">
-        <f t="shared" ref="N5:N8" si="4">(B$34/G6)*K6</f>
+        <f t="shared" ref="N6:N8" si="4">(B$34/G6)*K6</f>
         <v>3.3319450229071221</v>
       </c>
       <c r="O6" s="126">
@@ -12242,7 +13267,7 @@
         <v>2.4997397188964081</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>4</v>
       </c>
@@ -12301,7 +13326,7 @@
         <v>2.499892657793044</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -12360,12 +13385,12 @@
         <v>2.4999339585259541</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="254" t="s">
+    <row r="9" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="257" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="239"/>
-      <c r="C9" s="239"/>
+      <c r="B9" s="240"/>
+      <c r="C9" s="240"/>
       <c r="M9" s="140" t="s">
         <v>293</v>
       </c>
@@ -12374,11 +13399,11 @@
       </c>
       <c r="O9" s="140"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="252" t="s">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="256" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="239"/>
+      <c r="B10" s="240"/>
       <c r="C10" s="50">
         <f>C4*14/5100</f>
         <v>1.6016000000000001</v>
@@ -12389,21 +13414,21 @@
         <v>24.305643058125018</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="252" t="s">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="256" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="239"/>
+      <c r="B11" s="240"/>
       <c r="C11" s="51">
         <v>1</v>
       </c>
       <c r="D11" s="51"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="252" t="s">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="256" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="239"/>
+      <c r="B12" s="240"/>
       <c r="C12" s="121">
         <v>1.55</v>
       </c>
@@ -12414,11 +13439,11 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="252" t="s">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="256" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="239"/>
+      <c r="B13" s="240"/>
       <c r="C13" s="53">
         <v>0.8</v>
       </c>
@@ -12433,11 +13458,11 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="252" t="s">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="256" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="239"/>
+      <c r="B14" s="240"/>
       <c r="C14" s="53">
         <v>10</v>
       </c>
@@ -12451,11 +13476,11 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="255" t="s">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="254" t="s">
         <v>311</v>
       </c>
-      <c r="B15" s="239"/>
+      <c r="B15" s="240"/>
       <c r="C15" s="121">
         <v>1.3</v>
       </c>
@@ -12473,11 +13498,11 @@
         <v>280</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="256" t="s">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="255" t="s">
         <v>312</v>
       </c>
-      <c r="B16" s="239"/>
+      <c r="B16" s="240"/>
       <c r="C16" s="138">
         <v>1.1000000000000001</v>
       </c>
@@ -12492,11 +13517,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="256" t="s">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="255" t="s">
         <v>310</v>
       </c>
-      <c r="B17" s="239"/>
+      <c r="B17" s="240"/>
       <c r="C17" s="138">
         <v>1</v>
       </c>
@@ -12511,9 +13536,9 @@
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="253"/>
-      <c r="B18" s="239"/>
+      <c r="B18" s="240"/>
       <c r="C18" s="53"/>
       <c r="D18" s="53"/>
       <c r="E18" s="10">
@@ -12526,13 +13551,13 @@
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="253"/>
-      <c r="B19" s="239"/>
+      <c r="B19" s="240"/>
       <c r="C19" s="53"/>
       <c r="D19" s="53"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="119" t="s">
         <v>275</v>
       </c>
@@ -12544,7 +13569,7 @@
       </c>
       <c r="H21" s="122"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="119" t="s">
         <v>276</v>
       </c>
@@ -12561,7 +13586,7 @@
       </c>
       <c r="H22" s="123"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="119" t="s">
         <v>277</v>
       </c>
@@ -12578,7 +13603,7 @@
       </c>
       <c r="H23" s="123"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="119"/>
       <c r="C24" s="124"/>
       <c r="D24" s="125"/>
@@ -12588,7 +13613,7 @@
       </c>
       <c r="H24" s="123"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="119"/>
       <c r="C25" s="124"/>
       <c r="D25" s="125"/>
@@ -12598,14 +13623,14 @@
       </c>
       <c r="H25" s="123"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G26" s="123">
         <f>E8/10</f>
         <v>0.46500000000000002</v>
       </c>
       <c r="H26" s="123"/>
     </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="119" t="s">
         <v>314</v>
       </c>
@@ -12613,16 +13638,11 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A10:B10"/>
@@ -12630,6 +13650,11 @@
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12646,27 +13671,27 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="D1" s="257" t="s">
+    <row r="1" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D1" s="258" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="E1" s="258"/>
+      <c r="F1" s="258"/>
+      <c r="G1" s="258"/>
+      <c r="H1" s="258"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D2" s="130" t="s">
         <v>66</v>
       </c>
@@ -12683,7 +13708,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D3" s="131">
         <v>1</v>
       </c>
@@ -12707,7 +13732,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D4" s="131">
         <v>2</v>
       </c>
@@ -12731,7 +13756,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D5" s="131">
         <v>3</v>
       </c>
@@ -12755,7 +13780,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D6" s="131">
         <v>4</v>
       </c>
@@ -12779,7 +13804,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D7" s="131">
         <v>5</v>
       </c>
@@ -12803,10 +13828,10 @@
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G8" s="136"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="119" t="s">
         <v>295</v>
       </c>
@@ -12815,7 +13840,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="119" t="s">
         <v>296</v>
       </c>
@@ -12824,7 +13849,7 @@
         <v>0.57142857142857151</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="119" t="s">
         <v>297</v>
       </c>
@@ -12833,21 +13858,21 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="124">
         <f>SUM(B11:B12)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="124"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="119" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="119" t="s">
         <v>286</v>
       </c>
@@ -12866,7 +13891,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="119" t="s">
         <v>288</v>
       </c>
@@ -12886,7 +13911,7 @@
         <v>seconds</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="119" t="s">
         <v>289</v>
       </c>
@@ -12906,7 +13931,7 @@
         <v>seconds</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="119" t="s">
         <v>290</v>
       </c>
@@ -12926,7 +13951,7 @@
         <v>seconds</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="119" t="s">
         <v>291</v>
       </c>
@@ -12946,7 +13971,7 @@
         <v>seconds</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="119" t="s">
         <v>284</v>
       </c>
@@ -12966,7 +13991,7 @@
         <v>seconds</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="119" t="s">
         <v>292</v>
       </c>
@@ -12987,68 +14012,68 @@
         <v>seconds</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="254" t="s">
+    <row r="26" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="257" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="239"/>
-      <c r="C26" s="239"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="255" t="s">
+      <c r="B26" s="240"/>
+      <c r="C26" s="240"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="254" t="s">
         <v>302</v>
       </c>
-      <c r="B27" s="239"/>
+      <c r="B27" s="240"/>
       <c r="C27" s="129">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="255"/>
-      <c r="B28" s="239"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="254"/>
+      <c r="B28" s="240"/>
       <c r="C28" s="139"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="255" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="254" t="s">
         <v>303</v>
       </c>
-      <c r="B29" s="239"/>
+      <c r="B29" s="240"/>
       <c r="C29" s="121">
         <v>0.79</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="255" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="254" t="s">
         <v>299</v>
       </c>
-      <c r="B30" s="255"/>
+      <c r="B30" s="254"/>
       <c r="C30" s="138">
         <f>C29*C$34</f>
         <v>1.1850000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="255" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="254" t="s">
         <v>298</v>
       </c>
-      <c r="B31" s="255"/>
+      <c r="B31" s="254"/>
       <c r="C31" s="138">
         <f t="shared" ref="C31:C33" si="4">C30*C$34</f>
         <v>1.7775000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="255" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="254" t="s">
         <v>300</v>
       </c>
-      <c r="B32" s="255"/>
+      <c r="B32" s="254"/>
       <c r="C32" s="138">
         <f t="shared" si="4"/>
         <v>2.6662500000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="256" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="255" t="s">
         <v>301</v>
       </c>
       <c r="B33" s="253"/>
@@ -13057,27 +14082,32 @@
         <v>3.9993750000000006</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="256" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="255" t="s">
         <v>304</v>
       </c>
-      <c r="B34" s="239"/>
+      <c r="B34" s="240"/>
       <c r="C34" s="53">
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="253"/>
-      <c r="B35" s="239"/>
+      <c r="B35" s="240"/>
       <c r="C35" s="53"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="253"/>
-      <c r="B36" s="239"/>
+      <c r="B36" s="240"/>
       <c r="C36" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="D1:H1"/>
@@ -13085,11 +14115,6 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13103,62 +14128,62 @@
       <selection activeCell="AG3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="1.7109375" customWidth="1"/>
-    <col min="4" max="4" width="1.7109375" style="215" customWidth="1"/>
-    <col min="5" max="5" width="1.7109375" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
-    <col min="17" max="19" width="1.7109375" customWidth="1"/>
-    <col min="21" max="21" width="4.28515625" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="215" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" customWidth="1"/>
-    <col min="24" max="24" width="4.28515625" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" customWidth="1"/>
-    <col min="31" max="33" width="1.7109375" customWidth="1"/>
-    <col min="35" max="35" width="4.28515625" customWidth="1"/>
-    <col min="37" max="37" width="9.140625" customWidth="1"/>
-    <col min="38" max="38" width="4.28515625" customWidth="1"/>
-    <col min="42" max="42" width="9.140625" customWidth="1"/>
-    <col min="45" max="45" width="9.140625" customWidth="1"/>
-    <col min="48" max="48" width="9.140625" customWidth="1"/>
-    <col min="55" max="55" width="9.140625" customWidth="1"/>
-    <col min="60" max="60" width="9.140625" customWidth="1"/>
-    <col min="63" max="63" width="9.140625" customWidth="1"/>
-    <col min="66" max="66" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="1.6640625" customWidth="1"/>
+    <col min="4" max="4" width="1.6640625" style="215" customWidth="1"/>
+    <col min="5" max="5" width="1.6640625" customWidth="1"/>
+    <col min="7" max="7" width="4.33203125" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" customWidth="1"/>
+    <col min="17" max="19" width="1.6640625" customWidth="1"/>
+    <col min="21" max="21" width="4.33203125" customWidth="1"/>
+    <col min="22" max="22" width="9.109375" style="215" customWidth="1"/>
+    <col min="23" max="23" width="9.109375" customWidth="1"/>
+    <col min="24" max="24" width="4.33203125" customWidth="1"/>
+    <col min="25" max="25" width="9.109375" customWidth="1"/>
+    <col min="28" max="28" width="9.109375" customWidth="1"/>
+    <col min="31" max="33" width="1.6640625" customWidth="1"/>
+    <col min="35" max="35" width="4.33203125" customWidth="1"/>
+    <col min="37" max="37" width="9.109375" customWidth="1"/>
+    <col min="38" max="38" width="4.33203125" customWidth="1"/>
+    <col min="42" max="42" width="9.109375" customWidth="1"/>
+    <col min="45" max="45" width="9.109375" customWidth="1"/>
+    <col min="48" max="48" width="9.109375" customWidth="1"/>
+    <col min="55" max="55" width="9.109375" customWidth="1"/>
+    <col min="60" max="60" width="9.109375" customWidth="1"/>
+    <col min="63" max="63" width="9.109375" customWidth="1"/>
+    <col min="66" max="66" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:79" x14ac:dyDescent="0.25">
       <c r="BP1" s="119"/>
     </row>
-    <row r="2" spans="1:79" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:79" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:79" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="144" t="s">
         <v>333</v>
       </c>
-      <c r="E3" s="258" t="s">
+      <c r="E3" s="259" t="s">
         <v>416</v>
       </c>
-      <c r="F3" s="259"/>
-      <c r="G3" s="260"/>
+      <c r="F3" s="260"/>
+      <c r="G3" s="261"/>
       <c r="H3" s="214"/>
-      <c r="S3" s="258" t="s">
+      <c r="S3" s="259" t="s">
         <v>418</v>
       </c>
-      <c r="T3" s="261"/>
-      <c r="U3" s="262"/>
-      <c r="AG3" s="258" t="s">
+      <c r="T3" s="262"/>
+      <c r="U3" s="263"/>
+      <c r="AG3" s="259" t="s">
         <v>417</v>
       </c>
-      <c r="AH3" s="261"/>
-      <c r="AI3" s="262"/>
-    </row>
-    <row r="6" spans="1:79" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AH3" s="262"/>
+      <c r="AI3" s="263"/>
+    </row>
+    <row r="6" spans="1:79" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="147" t="s">
         <v>384</v>
       </c>
@@ -13267,7 +14292,7 @@
       <c r="BZ6" s="195"/>
       <c r="CA6" s="195"/>
     </row>
-    <row r="7" spans="1:79" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:79" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="146"/>
       <c r="B7" s="153"/>
       <c r="C7" s="146"/>
@@ -13366,7 +14391,7 @@
       <c r="BZ7" s="195"/>
       <c r="CA7" s="195"/>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A8" s="148" t="s">
         <v>420</v>
       </c>
@@ -13491,7 +14516,7 @@
       <c r="BP8" s="195"/>
       <c r="BQ8" s="119"/>
     </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A9" s="149"/>
       <c r="B9" s="153"/>
       <c r="C9" s="148"/>
@@ -13559,7 +14584,7 @@
       <c r="BO9" s="195"/>
       <c r="BP9" s="195"/>
     </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A10" s="148" t="s">
         <v>421</v>
       </c>
@@ -13683,7 +14708,7 @@
       <c r="BO10" s="217"/>
       <c r="BP10" s="217"/>
     </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A11" s="149"/>
       <c r="B11" s="153"/>
       <c r="C11" s="148"/>
@@ -13751,7 +14776,7 @@
       <c r="BO11" s="213"/>
       <c r="BP11" s="213"/>
     </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A12" s="148" t="s">
         <v>422</v>
       </c>
@@ -13875,7 +14900,7 @@
       <c r="BO12" s="195"/>
       <c r="BP12" s="195"/>
     </row>
-    <row r="13" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A13" s="149"/>
       <c r="B13" s="153"/>
       <c r="C13" s="149"/>
@@ -13943,7 +14968,7 @@
       <c r="BO13" s="195"/>
       <c r="BP13" s="195"/>
     </row>
-    <row r="14" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A14" s="148" t="s">
         <v>423</v>
       </c>
@@ -14067,7 +15092,7 @@
       <c r="BO14" s="195"/>
       <c r="BP14" s="195"/>
     </row>
-    <row r="15" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A15" s="149"/>
       <c r="B15" s="153"/>
       <c r="C15" s="149"/>
@@ -14135,7 +15160,7 @@
       <c r="BO15" s="195"/>
       <c r="BP15" s="195"/>
     </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A16" s="148" t="s">
         <v>424</v>
       </c>
@@ -14259,7 +15284,7 @@
       <c r="BO16" s="195"/>
       <c r="BP16" s="195"/>
     </row>
-    <row r="17" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A17" s="149"/>
       <c r="B17" s="153"/>
       <c r="C17" s="149"/>
@@ -14327,7 +15352,7 @@
       <c r="BO17" s="195"/>
       <c r="BP17" s="195"/>
     </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A18" s="149"/>
       <c r="B18" s="153"/>
       <c r="C18" s="149"/>
@@ -14395,7 +15420,7 @@
       <c r="BO18" s="195"/>
       <c r="BP18" s="195"/>
     </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A19" s="149"/>
       <c r="B19" s="153"/>
       <c r="C19" s="149"/>
@@ -14463,7 +15488,7 @@
       <c r="BO19" s="195"/>
       <c r="BP19" s="195"/>
     </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A20" s="149"/>
       <c r="B20" s="153"/>
       <c r="C20" s="149"/>
@@ -14531,7 +15556,7 @@
       <c r="BO20" s="195"/>
       <c r="BP20" s="195"/>
     </row>
-    <row r="21" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A21" s="149"/>
       <c r="B21" s="153"/>
       <c r="C21" s="149"/>
@@ -14599,7 +15624,7 @@
       <c r="BO21" s="195"/>
       <c r="BP21" s="195"/>
     </row>
-    <row r="22" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A22" s="149"/>
       <c r="B22" s="153"/>
       <c r="C22" s="149"/>
@@ -14667,7 +15692,7 @@
       <c r="BO22" s="195"/>
       <c r="BP22" s="195"/>
     </row>
-    <row r="23" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A23" s="149"/>
       <c r="B23" s="153"/>
       <c r="C23" s="149"/>
@@ -14735,7 +15760,7 @@
       <c r="BO23" s="195"/>
       <c r="BP23" s="195"/>
     </row>
-    <row r="24" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A24" s="195"/>
       <c r="B24" s="195"/>
       <c r="C24" s="195"/>
@@ -14803,7 +15828,7 @@
       <c r="BO24" s="195"/>
       <c r="BP24" s="195"/>
     </row>
-    <row r="25" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A25" s="195"/>
       <c r="B25" s="195"/>
       <c r="C25" s="195"/>
@@ -14871,7 +15896,7 @@
       <c r="BO25" s="195"/>
       <c r="BP25" s="195"/>
     </row>
-    <row r="26" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A26" s="195"/>
       <c r="B26" s="195"/>
       <c r="C26" s="195"/>
@@ -14939,7 +15964,7 @@
       <c r="BO26" s="195"/>
       <c r="BP26" s="195"/>
     </row>
-    <row r="27" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A27" s="195"/>
       <c r="B27" s="195"/>
       <c r="C27" s="195"/>
@@ -15007,7 +16032,7 @@
       <c r="BO27" s="195"/>
       <c r="BP27" s="195"/>
     </row>
-    <row r="28" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A28" s="195"/>
       <c r="B28" s="195"/>
       <c r="C28" s="195"/>
@@ -15075,7 +16100,7 @@
       <c r="BO28" s="195"/>
       <c r="BP28" s="195"/>
     </row>
-    <row r="29" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A29" s="195"/>
       <c r="B29" s="195"/>
       <c r="C29" s="195"/>
@@ -15143,7 +16168,7 @@
       <c r="BO29" s="195"/>
       <c r="BP29" s="195"/>
     </row>
-    <row r="30" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A30" s="195"/>
       <c r="B30" s="195"/>
       <c r="C30" s="195"/>
@@ -15211,7 +16236,7 @@
       <c r="BO30" s="195"/>
       <c r="BP30" s="195"/>
     </row>
-    <row r="31" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A31" s="195"/>
       <c r="B31" s="195"/>
       <c r="C31" s="195"/>
@@ -15279,7 +16304,7 @@
       <c r="BO31" s="195"/>
       <c r="BP31" s="195"/>
     </row>
-    <row r="32" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A32" s="195"/>
       <c r="B32" s="195"/>
       <c r="C32" s="195"/>
@@ -15347,7 +16372,7 @@
       <c r="BO32" s="195"/>
       <c r="BP32" s="195"/>
     </row>
-    <row r="33" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A33" s="195"/>
       <c r="B33" s="195"/>
       <c r="C33" s="195"/>
@@ -15415,7 +16440,7 @@
       <c r="BO33" s="195"/>
       <c r="BP33" s="195"/>
     </row>
-    <row r="34" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A34" s="195"/>
       <c r="B34" s="195"/>
       <c r="C34" s="195"/>
@@ -15483,7 +16508,7 @@
       <c r="BO34" s="195"/>
       <c r="BP34" s="195"/>
     </row>
-    <row r="35" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A35" s="195"/>
       <c r="B35" s="195"/>
       <c r="C35" s="195"/>
@@ -15551,7 +16576,7 @@
       <c r="BO35" s="195"/>
       <c r="BP35" s="195"/>
     </row>
-    <row r="36" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A36" s="195"/>
       <c r="B36" s="195"/>
       <c r="C36" s="195"/>
@@ -15619,7 +16644,7 @@
       <c r="BO36" s="195"/>
       <c r="BP36" s="195"/>
     </row>
-    <row r="37" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A37" s="195"/>
       <c r="B37" s="195"/>
       <c r="C37" s="195"/>
@@ -15687,7 +16712,7 @@
       <c r="BO37" s="195"/>
       <c r="BP37" s="195"/>
     </row>
-    <row r="38" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A38" s="195"/>
       <c r="B38" s="195"/>
       <c r="C38" s="195"/>
@@ -15755,7 +16780,7 @@
       <c r="BO38" s="195"/>
       <c r="BP38" s="195"/>
     </row>
-    <row r="39" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A39" s="195"/>
       <c r="B39" s="195"/>
       <c r="C39" s="195"/>
@@ -15823,7 +16848,7 @@
       <c r="BO39" s="195"/>
       <c r="BP39" s="195"/>
     </row>
-    <row r="40" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A40" s="195"/>
       <c r="B40" s="195"/>
       <c r="C40" s="195"/>
@@ -15891,7 +16916,7 @@
       <c r="BO40" s="195"/>
       <c r="BP40" s="195"/>
     </row>
-    <row r="41" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A41" s="195"/>
       <c r="B41" s="195"/>
       <c r="C41" s="195"/>
@@ -15959,7 +16984,7 @@
       <c r="BO41" s="195"/>
       <c r="BP41" s="195"/>
     </row>
-    <row r="42" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A42" s="195"/>
       <c r="B42" s="195"/>
       <c r="C42" s="195"/>
@@ -16027,7 +17052,7 @@
       <c r="BO42" s="195"/>
       <c r="BP42" s="195"/>
     </row>
-    <row r="43" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A43" s="195"/>
       <c r="B43" s="195"/>
       <c r="C43" s="195"/>
@@ -16095,7 +17120,7 @@
       <c r="BO43" s="195"/>
       <c r="BP43" s="195"/>
     </row>
-    <row r="44" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A44" s="195"/>
       <c r="B44" s="195"/>
       <c r="C44" s="195"/>
@@ -16163,7 +17188,7 @@
       <c r="BO44" s="195"/>
       <c r="BP44" s="195"/>
     </row>
-    <row r="45" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A45" s="195"/>
       <c r="B45" s="195"/>
       <c r="C45" s="195"/>
@@ -16231,7 +17256,7 @@
       <c r="BO45" s="195"/>
       <c r="BP45" s="195"/>
     </row>
-    <row r="46" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A46" s="195"/>
       <c r="B46" s="195"/>
       <c r="C46" s="195"/>
@@ -16299,7 +17324,7 @@
       <c r="BO46" s="195"/>
       <c r="BP46" s="195"/>
     </row>
-    <row r="47" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A47" s="195"/>
       <c r="B47" s="195"/>
       <c r="C47" s="195"/>
@@ -16367,7 +17392,7 @@
       <c r="BO47" s="195"/>
       <c r="BP47" s="195"/>
     </row>
-    <row r="48" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A48" s="195"/>
       <c r="B48" s="195"/>
       <c r="C48" s="195"/>
@@ -16435,7 +17460,7 @@
       <c r="BO48" s="195"/>
       <c r="BP48" s="195"/>
     </row>
-    <row r="49" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A49" s="195"/>
       <c r="B49" s="195"/>
       <c r="C49" s="195"/>
@@ -16503,7 +17528,7 @@
       <c r="BO49" s="195"/>
       <c r="BP49" s="195"/>
     </row>
-    <row r="50" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:68" x14ac:dyDescent="0.25">
       <c r="AN50" s="195"/>
       <c r="AO50" s="195"/>
       <c r="AP50" s="195"/>
@@ -16517,7 +17542,7 @@
       <c r="AX50" s="195"/>
       <c r="AY50" s="195"/>
     </row>
-    <row r="51" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:68" x14ac:dyDescent="0.25">
       <c r="AN51" s="195"/>
       <c r="AO51" s="195"/>
       <c r="AP51" s="195"/>
@@ -16531,7 +17556,7 @@
       <c r="AX51" s="195"/>
       <c r="AY51" s="195"/>
     </row>
-    <row r="52" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:68" x14ac:dyDescent="0.25">
       <c r="AN52" s="195"/>
       <c r="AO52" s="195"/>
       <c r="AP52" s="195"/>
@@ -16545,7 +17570,7 @@
       <c r="AX52" s="195"/>
       <c r="AY52" s="195"/>
     </row>
-    <row r="53" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:68" x14ac:dyDescent="0.25">
       <c r="AN53" s="195"/>
       <c r="AO53" s="195"/>
       <c r="AP53" s="195"/>
@@ -16579,77 +17604,77 @@
       <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="223" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="223" customWidth="1"/>
-    <col min="3" max="5" width="1.7109375" style="223" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="223"/>
-    <col min="7" max="7" width="4.28515625" style="223" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="223"/>
-    <col min="10" max="10" width="4.28515625" style="223" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="223"/>
-    <col min="12" max="14" width="4.5703125" style="223" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="223" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="223"/>
-    <col min="17" max="19" width="1.7109375" style="223" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="223"/>
-    <col min="21" max="21" width="4.28515625" style="223" customWidth="1"/>
-    <col min="22" max="23" width="9.140625" style="223" customWidth="1"/>
-    <col min="24" max="24" width="4.28515625" style="223" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" style="223" customWidth="1"/>
-    <col min="26" max="28" width="4.5703125" style="223" customWidth="1"/>
-    <col min="29" max="29" width="11.42578125" style="223" customWidth="1"/>
-    <col min="30" max="30" width="9.140625" style="223"/>
-    <col min="31" max="33" width="1.7109375" style="223" customWidth="1"/>
-    <col min="34" max="34" width="9.140625" style="223"/>
-    <col min="35" max="35" width="4.28515625" style="223" customWidth="1"/>
-    <col min="36" max="36" width="9.140625" style="223"/>
-    <col min="37" max="37" width="9.140625" style="223" customWidth="1"/>
-    <col min="38" max="38" width="4.28515625" style="223" customWidth="1"/>
-    <col min="39" max="41" width="9.140625" style="223"/>
-    <col min="42" max="42" width="9.140625" style="223" customWidth="1"/>
-    <col min="43" max="44" width="9.140625" style="223"/>
-    <col min="45" max="45" width="9.140625" style="223" customWidth="1"/>
-    <col min="46" max="47" width="9.140625" style="223"/>
-    <col min="48" max="48" width="9.140625" style="223" customWidth="1"/>
-    <col min="49" max="54" width="9.140625" style="223"/>
-    <col min="55" max="55" width="9.140625" style="223" customWidth="1"/>
-    <col min="56" max="59" width="9.140625" style="223"/>
-    <col min="60" max="60" width="9.140625" style="223" customWidth="1"/>
-    <col min="61" max="62" width="9.140625" style="223"/>
-    <col min="63" max="63" width="9.140625" style="223" customWidth="1"/>
-    <col min="64" max="65" width="9.140625" style="223"/>
-    <col min="66" max="66" width="9.140625" style="223" customWidth="1"/>
-    <col min="67" max="16384" width="9.140625" style="223"/>
+    <col min="1" max="1" width="11.44140625" style="223" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="223" customWidth="1"/>
+    <col min="3" max="5" width="1.6640625" style="223" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="223"/>
+    <col min="7" max="7" width="4.33203125" style="223" customWidth="1"/>
+    <col min="8" max="9" width="9.109375" style="223"/>
+    <col min="10" max="10" width="4.33203125" style="223" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="223"/>
+    <col min="12" max="14" width="4.5546875" style="223" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="223" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" style="223"/>
+    <col min="17" max="19" width="1.6640625" style="223" customWidth="1"/>
+    <col min="20" max="20" width="9.109375" style="223"/>
+    <col min="21" max="21" width="4.33203125" style="223" customWidth="1"/>
+    <col min="22" max="23" width="9.109375" style="223" customWidth="1"/>
+    <col min="24" max="24" width="4.33203125" style="223" customWidth="1"/>
+    <col min="25" max="25" width="9.109375" style="223" customWidth="1"/>
+    <col min="26" max="28" width="4.5546875" style="223" customWidth="1"/>
+    <col min="29" max="29" width="11.44140625" style="223" customWidth="1"/>
+    <col min="30" max="30" width="9.109375" style="223"/>
+    <col min="31" max="33" width="1.6640625" style="223" customWidth="1"/>
+    <col min="34" max="34" width="9.109375" style="223"/>
+    <col min="35" max="35" width="4.33203125" style="223" customWidth="1"/>
+    <col min="36" max="36" width="9.109375" style="223"/>
+    <col min="37" max="37" width="9.109375" style="223" customWidth="1"/>
+    <col min="38" max="38" width="4.33203125" style="223" customWidth="1"/>
+    <col min="39" max="41" width="9.109375" style="223"/>
+    <col min="42" max="42" width="9.109375" style="223" customWidth="1"/>
+    <col min="43" max="44" width="9.109375" style="223"/>
+    <col min="45" max="45" width="9.109375" style="223" customWidth="1"/>
+    <col min="46" max="47" width="9.109375" style="223"/>
+    <col min="48" max="48" width="9.109375" style="223" customWidth="1"/>
+    <col min="49" max="54" width="9.109375" style="223"/>
+    <col min="55" max="55" width="9.109375" style="223" customWidth="1"/>
+    <col min="56" max="59" width="9.109375" style="223"/>
+    <col min="60" max="60" width="9.109375" style="223" customWidth="1"/>
+    <col min="61" max="62" width="9.109375" style="223"/>
+    <col min="63" max="63" width="9.109375" style="223" customWidth="1"/>
+    <col min="64" max="65" width="9.109375" style="223"/>
+    <col min="66" max="66" width="9.109375" style="223" customWidth="1"/>
+    <col min="67" max="16384" width="9.109375" style="223"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:79" x14ac:dyDescent="0.25">
       <c r="BP1" s="119"/>
     </row>
-    <row r="2" spans="1:79" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:79" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:79" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="144" t="s">
         <v>458</v>
       </c>
-      <c r="E3" s="258" t="s">
+      <c r="E3" s="259" t="s">
         <v>416</v>
       </c>
-      <c r="F3" s="259"/>
-      <c r="G3" s="260"/>
+      <c r="F3" s="260"/>
+      <c r="G3" s="261"/>
       <c r="H3" s="214"/>
-      <c r="S3" s="258" t="s">
+      <c r="S3" s="259" t="s">
         <v>418</v>
       </c>
-      <c r="T3" s="261"/>
-      <c r="U3" s="262"/>
-      <c r="AG3" s="258" t="s">
+      <c r="T3" s="262"/>
+      <c r="U3" s="263"/>
+      <c r="AG3" s="259" t="s">
         <v>417</v>
       </c>
-      <c r="AH3" s="261"/>
-      <c r="AI3" s="262"/>
-    </row>
-    <row r="6" spans="1:79" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AH3" s="262"/>
+      <c r="AI3" s="263"/>
+    </row>
+    <row r="6" spans="1:79" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="147" t="s">
         <v>455</v>
       </c>
@@ -16758,7 +17783,7 @@
       <c r="BZ6" s="195"/>
       <c r="CA6" s="195"/>
     </row>
-    <row r="7" spans="1:79" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:79" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="146"/>
       <c r="B7" s="153"/>
       <c r="C7" s="146"/>
@@ -16857,7 +17882,7 @@
       <c r="BZ7" s="195"/>
       <c r="CA7" s="195"/>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A8" s="148" t="s">
         <v>420</v>
       </c>
@@ -16982,7 +18007,7 @@
       <c r="BP8" s="195"/>
       <c r="BQ8" s="119"/>
     </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A9" s="149"/>
       <c r="B9" s="153"/>
       <c r="C9" s="148"/>
@@ -17050,7 +18075,7 @@
       <c r="BO9" s="195"/>
       <c r="BP9" s="195"/>
     </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A10" s="148" t="s">
         <v>421</v>
       </c>
@@ -17174,7 +18199,7 @@
       <c r="BO10" s="217"/>
       <c r="BP10" s="217"/>
     </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A11" s="149"/>
       <c r="B11" s="153"/>
       <c r="C11" s="148"/>
@@ -17242,7 +18267,7 @@
       <c r="BO11" s="213"/>
       <c r="BP11" s="213"/>
     </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A12" s="148" t="s">
         <v>422</v>
       </c>
@@ -17366,7 +18391,7 @@
       <c r="BO12" s="195"/>
       <c r="BP12" s="195"/>
     </row>
-    <row r="13" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A13" s="149"/>
       <c r="B13" s="153"/>
       <c r="C13" s="149"/>
@@ -17434,7 +18459,7 @@
       <c r="BO13" s="195"/>
       <c r="BP13" s="195"/>
     </row>
-    <row r="14" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A14" s="148" t="s">
         <v>423</v>
       </c>
@@ -17558,7 +18583,7 @@
       <c r="BO14" s="195"/>
       <c r="BP14" s="195"/>
     </row>
-    <row r="15" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A15" s="149"/>
       <c r="B15" s="153"/>
       <c r="C15" s="149"/>
@@ -17626,7 +18651,7 @@
       <c r="BO15" s="195"/>
       <c r="BP15" s="195"/>
     </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A16" s="148" t="s">
         <v>424</v>
       </c>
@@ -17750,7 +18775,7 @@
       <c r="BO16" s="195"/>
       <c r="BP16" s="195"/>
     </row>
-    <row r="17" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A17" s="149"/>
       <c r="B17" s="153"/>
       <c r="C17" s="149"/>
@@ -17818,7 +18843,7 @@
       <c r="BO17" s="195"/>
       <c r="BP17" s="195"/>
     </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A18" s="148" t="s">
         <v>456</v>
       </c>
@@ -17942,7 +18967,7 @@
       <c r="BO18" s="195"/>
       <c r="BP18" s="195"/>
     </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A19" s="149"/>
       <c r="B19" s="153"/>
       <c r="C19" s="149"/>
@@ -18010,7 +19035,7 @@
       <c r="BO19" s="195"/>
       <c r="BP19" s="195"/>
     </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A20" s="149"/>
       <c r="B20" s="153"/>
       <c r="C20" s="149"/>
@@ -18078,7 +19103,7 @@
       <c r="BO20" s="195"/>
       <c r="BP20" s="195"/>
     </row>
-    <row r="21" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A21" s="149"/>
       <c r="B21" s="153"/>
       <c r="C21" s="149"/>
@@ -18146,7 +19171,7 @@
       <c r="BO21" s="195"/>
       <c r="BP21" s="195"/>
     </row>
-    <row r="22" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A22" s="149"/>
       <c r="B22" s="153"/>
       <c r="C22" s="149"/>
@@ -18214,7 +19239,7 @@
       <c r="BO22" s="195"/>
       <c r="BP22" s="195"/>
     </row>
-    <row r="23" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A23" s="149"/>
       <c r="B23" s="153"/>
       <c r="C23" s="149"/>
@@ -18282,7 +19307,7 @@
       <c r="BO23" s="195"/>
       <c r="BP23" s="195"/>
     </row>
-    <row r="24" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A24" s="195"/>
       <c r="B24" s="195"/>
       <c r="C24" s="195"/>
@@ -18350,7 +19375,7 @@
       <c r="BO24" s="195"/>
       <c r="BP24" s="195"/>
     </row>
-    <row r="25" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A25" s="195"/>
       <c r="B25" s="195"/>
       <c r="C25" s="195"/>
@@ -18418,7 +19443,7 @@
       <c r="BO25" s="195"/>
       <c r="BP25" s="195"/>
     </row>
-    <row r="26" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A26" s="195"/>
       <c r="B26" s="195"/>
       <c r="C26" s="195"/>
@@ -18486,7 +19511,7 @@
       <c r="BO26" s="195"/>
       <c r="BP26" s="195"/>
     </row>
-    <row r="27" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A27" s="195"/>
       <c r="B27" s="195"/>
       <c r="C27" s="195"/>
@@ -18554,7 +19579,7 @@
       <c r="BO27" s="195"/>
       <c r="BP27" s="195"/>
     </row>
-    <row r="28" spans="1:68" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:68" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="195"/>
       <c r="B28" s="195"/>
       <c r="C28" s="195"/>
@@ -18622,26 +19647,26 @@
       <c r="BO28" s="195"/>
       <c r="BP28" s="195"/>
     </row>
-    <row r="29" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:68" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="144" t="s">
         <v>459</v>
       </c>
-      <c r="E29" s="258" t="s">
+      <c r="E29" s="259" t="s">
         <v>416</v>
       </c>
-      <c r="F29" s="259"/>
-      <c r="G29" s="260"/>
+      <c r="F29" s="260"/>
+      <c r="G29" s="261"/>
       <c r="H29" s="214"/>
-      <c r="S29" s="258" t="s">
+      <c r="S29" s="259" t="s">
         <v>418</v>
       </c>
-      <c r="T29" s="261"/>
-      <c r="U29" s="262"/>
-      <c r="AG29" s="258" t="s">
+      <c r="T29" s="262"/>
+      <c r="U29" s="263"/>
+      <c r="AG29" s="259" t="s">
         <v>417</v>
       </c>
-      <c r="AH29" s="261"/>
-      <c r="AI29" s="262"/>
+      <c r="AH29" s="262"/>
+      <c r="AI29" s="263"/>
       <c r="AN29" s="195"/>
       <c r="AO29" s="195"/>
       <c r="AP29" s="195"/>
@@ -18671,7 +19696,7 @@
       <c r="BO29" s="195"/>
       <c r="BP29" s="195"/>
     </row>
-    <row r="30" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:68" x14ac:dyDescent="0.25">
       <c r="AN30" s="195"/>
       <c r="AO30" s="195"/>
       <c r="AP30" s="195"/>
@@ -18701,7 +19726,7 @@
       <c r="BO30" s="195"/>
       <c r="BP30" s="195"/>
     </row>
-    <row r="31" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:68" x14ac:dyDescent="0.25">
       <c r="AN31" s="195"/>
       <c r="AO31" s="195"/>
       <c r="AP31" s="195"/>
@@ -18731,7 +19756,7 @@
       <c r="BO31" s="195"/>
       <c r="BP31" s="195"/>
     </row>
-    <row r="32" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A32" s="147" t="s">
         <v>455</v>
       </c>
@@ -18830,7 +19855,7 @@
       <c r="BO32" s="195"/>
       <c r="BP32" s="195"/>
     </row>
-    <row r="33" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A33" s="146"/>
       <c r="B33" s="153"/>
       <c r="C33" s="146"/>
@@ -18917,7 +19942,7 @@
       <c r="BO33" s="195"/>
       <c r="BP33" s="195"/>
     </row>
-    <row r="34" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A34" s="148" t="s">
         <v>420</v>
       </c>
@@ -19042,7 +20067,7 @@
       <c r="BO34" s="195"/>
       <c r="BP34" s="195"/>
     </row>
-    <row r="35" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A35" s="149"/>
       <c r="B35" s="153"/>
       <c r="C35" s="148"/>
@@ -19111,7 +20136,7 @@
       <c r="BO35" s="195"/>
       <c r="BP35" s="195"/>
     </row>
-    <row r="36" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A36" s="148" t="s">
         <v>421</v>
       </c>
@@ -19236,7 +20261,7 @@
       <c r="BO36" s="195"/>
       <c r="BP36" s="195"/>
     </row>
-    <row r="37" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A37" s="149"/>
       <c r="B37" s="153"/>
       <c r="C37" s="148"/>
@@ -19305,7 +20330,7 @@
       <c r="BO37" s="195"/>
       <c r="BP37" s="195"/>
     </row>
-    <row r="38" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A38" s="148" t="s">
         <v>422</v>
       </c>
@@ -19430,7 +20455,7 @@
       <c r="BO38" s="195"/>
       <c r="BP38" s="195"/>
     </row>
-    <row r="39" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A39" s="149"/>
       <c r="B39" s="153"/>
       <c r="C39" s="149"/>
@@ -19499,7 +20524,7 @@
       <c r="BO39" s="195"/>
       <c r="BP39" s="195"/>
     </row>
-    <row r="40" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A40" s="148" t="s">
         <v>423</v>
       </c>
@@ -19624,7 +20649,7 @@
       <c r="BO40" s="195"/>
       <c r="BP40" s="195"/>
     </row>
-    <row r="41" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A41" s="149"/>
       <c r="B41" s="153"/>
       <c r="C41" s="149"/>
@@ -19693,7 +20718,7 @@
       <c r="BO41" s="195"/>
       <c r="BP41" s="195"/>
     </row>
-    <row r="42" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A42" s="148" t="s">
         <v>424</v>
       </c>
@@ -19818,7 +20843,7 @@
       <c r="BO42" s="195"/>
       <c r="BP42" s="195"/>
     </row>
-    <row r="43" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A43" s="149"/>
       <c r="B43" s="153"/>
       <c r="C43" s="149"/>
@@ -19887,7 +20912,7 @@
       <c r="BO43" s="195"/>
       <c r="BP43" s="195"/>
     </row>
-    <row r="44" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A44" s="148" t="s">
         <v>456</v>
       </c>
@@ -20012,7 +21037,7 @@
       <c r="BO44" s="195"/>
       <c r="BP44" s="195"/>
     </row>
-    <row r="45" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A45" s="149"/>
       <c r="B45" s="153"/>
       <c r="C45" s="149"/>
@@ -20081,7 +21106,7 @@
       <c r="BO45" s="195"/>
       <c r="BP45" s="195"/>
     </row>
-    <row r="46" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A46" s="149"/>
       <c r="B46" s="153"/>
       <c r="C46" s="149"/>
@@ -20150,7 +21175,7 @@
       <c r="BO46" s="195"/>
       <c r="BP46" s="195"/>
     </row>
-    <row r="47" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A47" s="149"/>
       <c r="B47" s="153"/>
       <c r="C47" s="149"/>
@@ -20219,7 +21244,7 @@
       <c r="BO47" s="195"/>
       <c r="BP47" s="195"/>
     </row>
-    <row r="48" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A48" s="149"/>
       <c r="B48" s="153"/>
       <c r="C48" s="149"/>
@@ -20288,7 +21313,7 @@
       <c r="BO48" s="195"/>
       <c r="BP48" s="195"/>
     </row>
-    <row r="49" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A49" s="149"/>
       <c r="B49" s="153"/>
       <c r="C49" s="149"/>
@@ -20357,7 +21382,7 @@
       <c r="BO49" s="195"/>
       <c r="BP49" s="195"/>
     </row>
-    <row r="50" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:68" x14ac:dyDescent="0.25">
       <c r="AN50" s="195"/>
       <c r="AO50" s="195"/>
       <c r="AP50" s="195"/>
@@ -20371,7 +21396,7 @@
       <c r="AX50" s="195"/>
       <c r="AY50" s="195"/>
     </row>
-    <row r="51" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:68" x14ac:dyDescent="0.25">
       <c r="AN51" s="195"/>
       <c r="AO51" s="195"/>
       <c r="AP51" s="195"/>
@@ -20385,7 +21410,7 @@
       <c r="AX51" s="195"/>
       <c r="AY51" s="195"/>
     </row>
-    <row r="52" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:68" x14ac:dyDescent="0.25">
       <c r="AN52" s="195"/>
       <c r="AO52" s="195"/>
       <c r="AP52" s="195"/>
@@ -20399,7 +21424,7 @@
       <c r="AX52" s="195"/>
       <c r="AY52" s="195"/>
     </row>
-    <row r="53" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:68" x14ac:dyDescent="0.25">
       <c r="AN53" s="195"/>
       <c r="AO53" s="195"/>
       <c r="AP53" s="195"/>
@@ -20413,29 +21438,29 @@
       <c r="AX53" s="195"/>
       <c r="AY53" s="195"/>
     </row>
-    <row r="54" spans="1:68" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:68" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:68" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="144" t="s">
         <v>460</v>
       </c>
-      <c r="E55" s="258" t="s">
+      <c r="E55" s="259" t="s">
         <v>416</v>
       </c>
-      <c r="F55" s="259"/>
-      <c r="G55" s="260"/>
+      <c r="F55" s="260"/>
+      <c r="G55" s="261"/>
       <c r="H55" s="214"/>
-      <c r="S55" s="258" t="s">
+      <c r="S55" s="259" t="s">
         <v>418</v>
       </c>
-      <c r="T55" s="261"/>
-      <c r="U55" s="262"/>
-      <c r="AG55" s="258" t="s">
+      <c r="T55" s="262"/>
+      <c r="U55" s="263"/>
+      <c r="AG55" s="259" t="s">
         <v>417</v>
       </c>
-      <c r="AH55" s="261"/>
-      <c r="AI55" s="262"/>
-    </row>
-    <row r="58" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="AH55" s="262"/>
+      <c r="AI55" s="263"/>
+    </row>
+    <row r="58" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A58" s="147" t="s">
         <v>455</v>
       </c>
@@ -20506,7 +21531,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="59" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A59" s="146"/>
       <c r="B59" s="153"/>
       <c r="C59" s="146"/>
@@ -20565,7 +21590,7 @@
       <c r="AL59" s="153"/>
       <c r="AM59" s="174"/>
     </row>
-    <row r="60" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A60" s="148" t="s">
         <v>420</v>
       </c>
@@ -20662,7 +21687,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="61" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A61" s="149"/>
       <c r="B61" s="153"/>
       <c r="C61" s="148"/>
@@ -20703,7 +21728,7 @@
       <c r="AL61" s="153"/>
       <c r="AM61" s="152"/>
     </row>
-    <row r="62" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A62" s="148" t="s">
         <v>421</v>
       </c>
@@ -20800,7 +21825,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="63" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A63" s="149"/>
       <c r="B63" s="153"/>
       <c r="C63" s="148"/>
@@ -20841,7 +21866,7 @@
       <c r="AL63" s="153"/>
       <c r="AM63" s="152"/>
     </row>
-    <row r="64" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A64" s="148" t="s">
         <v>422</v>
       </c>
@@ -20938,7 +21963,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65" s="149"/>
       <c r="B65" s="153"/>
       <c r="C65" s="149"/>
@@ -20979,7 +22004,7 @@
       <c r="AL65" s="153"/>
       <c r="AM65" s="152"/>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A66" s="148" t="s">
         <v>423</v>
       </c>
@@ -21076,7 +22101,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A67" s="149"/>
       <c r="B67" s="153"/>
       <c r="C67" s="149"/>
@@ -21117,7 +22142,7 @@
       <c r="AL67" s="153"/>
       <c r="AM67" s="152"/>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A68" s="148" t="s">
         <v>424</v>
       </c>
@@ -21214,7 +22239,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A69" s="149"/>
       <c r="B69" s="153"/>
       <c r="C69" s="149"/>
@@ -21255,7 +22280,7 @@
       <c r="AL69" s="153"/>
       <c r="AM69" s="152"/>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A70" s="148" t="s">
         <v>456</v>
       </c>
@@ -21352,7 +22377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A71" s="149"/>
       <c r="B71" s="153"/>
       <c r="C71" s="149"/>
@@ -21393,7 +22418,7 @@
       <c r="AL71" s="153"/>
       <c r="AM71" s="152"/>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A72" s="149"/>
       <c r="B72" s="153"/>
       <c r="C72" s="149"/>
@@ -21434,7 +22459,7 @@
       <c r="AL72" s="153"/>
       <c r="AM72" s="152"/>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A73" s="149"/>
       <c r="B73" s="153"/>
       <c r="C73" s="149"/>
@@ -21475,7 +22500,7 @@
       <c r="AL73" s="153"/>
       <c r="AM73" s="152"/>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A74" s="149"/>
       <c r="B74" s="153"/>
       <c r="C74" s="149"/>
@@ -21516,7 +22541,7 @@
       <c r="AL74" s="153"/>
       <c r="AM74" s="152"/>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A75" s="149"/>
       <c r="B75" s="153"/>
       <c r="C75" s="149"/>
@@ -21582,22 +22607,22 @@
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="173" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="173" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="173" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" style="173" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="173"/>
-    <col min="18" max="18" width="10.7109375" customWidth="1"/>
-    <col min="19" max="20" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="173" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="173" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" style="173" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" style="173" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="173"/>
+    <col min="18" max="18" width="10.6640625" customWidth="1"/>
+    <col min="19" max="20" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="W1" s="119"/>
       <c r="Y1" s="119"/>
       <c r="Z1" s="119"/>
@@ -21605,7 +22630,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q2" s="150"/>
       <c r="R2" s="150"/>
       <c r="S2" s="150"/>
@@ -21619,17 +22644,17 @@
       <c r="AA2" s="150"/>
       <c r="AB2" s="150"/>
     </row>
-    <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="144" t="s">
         <v>333</v>
       </c>
-      <c r="D3" s="264" t="s">
+      <c r="D3" s="265" t="s">
         <v>344</v>
       </c>
-      <c r="E3" s="265"/>
-      <c r="F3" s="265"/>
-      <c r="G3" s="265"/>
-      <c r="H3" s="266"/>
+      <c r="E3" s="266"/>
+      <c r="F3" s="266"/>
+      <c r="G3" s="266"/>
+      <c r="H3" s="267"/>
       <c r="Q3" s="169" t="s">
         <v>345</v>
       </c>
@@ -21644,7 +22669,7 @@
       <c r="Z3" s="166"/>
       <c r="AA3" s="150"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="Q4" s="170"/>
       <c r="R4" s="166"/>
       <c r="S4" s="166"/>
@@ -21657,7 +22682,7 @@
       <c r="Z4" s="166"/>
       <c r="AA4" s="150"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="Q5" s="164"/>
       <c r="R5" s="150"/>
       <c r="S5" s="150"/>
@@ -21670,7 +22695,7 @@
       <c r="Z5" s="150"/>
       <c r="AA5" s="150"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="145" t="s">
         <v>322</v>
       </c>
@@ -21704,23 +22729,23 @@
         <v>338</v>
       </c>
       <c r="Q6" s="164"/>
-      <c r="R6" s="267" t="s">
+      <c r="R6" s="268" t="s">
         <v>346</v>
       </c>
-      <c r="S6" s="267"/>
+      <c r="S6" s="268"/>
       <c r="T6" s="165"/>
-      <c r="V6" s="268" t="s">
+      <c r="V6" s="269" t="s">
         <v>358</v>
       </c>
-      <c r="W6" s="268"/>
-      <c r="X6" s="268"/>
-      <c r="Y6" s="263" t="s">
+      <c r="W6" s="269"/>
+      <c r="X6" s="269"/>
+      <c r="Y6" s="264" t="s">
         <v>362</v>
       </c>
-      <c r="Z6" s="263"/>
+      <c r="Z6" s="264"/>
       <c r="AA6" s="150"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="147"/>
       <c r="B7" s="153"/>
       <c r="C7" s="147"/>
@@ -21762,7 +22787,7 @@
       <c r="Z7" s="150"/>
       <c r="AA7" s="150"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="148" t="s">
         <v>323</v>
       </c>
@@ -21816,7 +22841,7 @@
       <c r="Z8" s="150"/>
       <c r="AA8" s="150"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="149"/>
       <c r="B9" s="153"/>
       <c r="C9" s="180" t="s">
@@ -21867,7 +22892,7 @@
       </c>
       <c r="AA9" s="150"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="149"/>
       <c r="B10" s="153"/>
       <c r="C10" s="149"/>
@@ -21902,7 +22927,7 @@
       <c r="Z10" s="150"/>
       <c r="AA10" s="150"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="148" t="s">
         <v>324</v>
       </c>
@@ -21952,7 +22977,7 @@
       <c r="Z11" s="150"/>
       <c r="AA11" s="150"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="149"/>
       <c r="B12" s="153"/>
       <c r="C12" s="148"/>
@@ -21992,7 +23017,7 @@
       <c r="Z12" s="150"/>
       <c r="AA12" s="150"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="149"/>
       <c r="B13" s="153"/>
       <c r="C13" s="149"/>
@@ -22036,7 +23061,7 @@
       <c r="Z13" s="150"/>
       <c r="AA13" s="150"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="149"/>
       <c r="B14" s="153"/>
       <c r="C14" s="149"/>
@@ -22068,7 +23093,7 @@
       <c r="Z14" s="150"/>
       <c r="AA14" s="150"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="149" t="s">
         <v>325</v>
       </c>
@@ -22118,7 +23143,7 @@
       <c r="Z15" s="150"/>
       <c r="AA15" s="150"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="149"/>
       <c r="B16" s="153"/>
       <c r="C16" s="149"/>
@@ -22158,7 +23183,7 @@
       <c r="Z16" s="150"/>
       <c r="AA16" s="150"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="149"/>
       <c r="B17" s="153"/>
       <c r="C17" s="149"/>
@@ -22202,7 +23227,7 @@
       <c r="Z17" s="150"/>
       <c r="AA17" s="150"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="149"/>
       <c r="B18" s="153"/>
       <c r="C18" s="149"/>
@@ -22233,7 +23258,7 @@
       <c r="Z18" s="150"/>
       <c r="AA18" s="150"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="148" t="s">
         <v>326</v>
       </c>
@@ -22277,7 +23302,7 @@
       <c r="Z19" s="150"/>
       <c r="AA19" s="150"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="149"/>
       <c r="B20" s="153"/>
       <c r="C20" s="148"/>
@@ -22315,7 +23340,7 @@
       <c r="Z20" s="150"/>
       <c r="AA20" s="150"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="149"/>
       <c r="B21" s="153"/>
       <c r="C21" s="149"/>
@@ -22355,7 +23380,7 @@
       <c r="Z21" s="150"/>
       <c r="AA21" s="150"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="149"/>
       <c r="B22" s="153"/>
       <c r="C22" s="149"/>
@@ -22387,7 +23412,7 @@
       <c r="Z22" s="150"/>
       <c r="AA22" s="150"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="148" t="s">
         <v>327</v>
       </c>
@@ -22434,7 +23459,7 @@
       <c r="Z23" s="150"/>
       <c r="AA23" s="150"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="149"/>
       <c r="B24" s="153"/>
       <c r="C24" s="148"/>
@@ -22471,7 +23496,7 @@
       <c r="Z24" s="150"/>
       <c r="AA24" s="150"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="149"/>
       <c r="B25" s="153"/>
       <c r="C25" s="149"/>
@@ -22512,7 +23537,7 @@
       <c r="Z25" s="150"/>
       <c r="AA25" s="150"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="149"/>
       <c r="B26" s="153"/>
       <c r="C26" s="149"/>
@@ -22541,7 +23566,7 @@
       <c r="Z26" s="150"/>
       <c r="AA26" s="150"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="148" t="s">
         <v>328</v>
       </c>
@@ -22588,7 +23613,7 @@
       <c r="Z27" s="150"/>
       <c r="AA27" s="150"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="149"/>
       <c r="B28" s="153"/>
       <c r="C28" s="148"/>
@@ -22625,7 +23650,7 @@
       <c r="Z28" s="150"/>
       <c r="AA28" s="150"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="149"/>
       <c r="B29" s="153"/>
       <c r="C29" s="149"/>
@@ -22666,7 +23691,7 @@
       <c r="Z29" s="150"/>
       <c r="AA29" s="150"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="149"/>
       <c r="B30" s="153"/>
       <c r="C30" s="149"/>
@@ -22693,7 +23718,7 @@
       <c r="Z30" s="150"/>
       <c r="AA30" s="150"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="148" t="s">
         <v>329</v>
       </c>
@@ -22738,7 +23763,7 @@
       <c r="Z31" s="150"/>
       <c r="AA31" s="150"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="149"/>
       <c r="B32" s="153"/>
       <c r="C32" s="149"/>
@@ -22772,7 +23797,7 @@
       <c r="Z32" s="150"/>
       <c r="AA32" s="150"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="149"/>
       <c r="B33" s="153"/>
       <c r="C33" s="149"/>
@@ -22812,7 +23837,7 @@
       <c r="AA33" s="150"/>
       <c r="AB33" s="150"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="149"/>
       <c r="B34" s="153"/>
       <c r="C34" s="149"/>
@@ -22840,7 +23865,7 @@
       <c r="AA34" s="150"/>
       <c r="AB34" s="150"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="148" t="s">
         <v>330</v>
       </c>
@@ -22886,7 +23911,7 @@
       <c r="AA35" s="150"/>
       <c r="AB35" s="150"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="149"/>
       <c r="B36" s="153"/>
       <c r="C36" s="149"/>
@@ -22909,7 +23934,7 @@
       </c>
       <c r="N36" s="177"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="149"/>
       <c r="B37" s="153"/>
       <c r="C37" s="149"/>
@@ -22937,7 +23962,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="149"/>
       <c r="B38" s="153"/>
       <c r="C38" s="149"/>
@@ -22953,7 +23978,7 @@
       <c r="M38" s="172"/>
       <c r="N38" s="172"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="148" t="s">
         <v>331</v>
       </c>
@@ -22987,7 +24012,7 @@
       </c>
       <c r="N39" s="172"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="149"/>
       <c r="B40" s="153"/>
       <c r="C40" s="149"/>
@@ -23010,7 +24035,7 @@
       </c>
       <c r="N40" s="177"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="149"/>
       <c r="B41" s="153"/>
       <c r="C41" s="149"/>
@@ -23038,7 +24063,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="149"/>
       <c r="B42" s="153"/>
       <c r="C42" s="149"/>
@@ -23054,7 +24079,7 @@
       <c r="M42" s="172"/>
       <c r="N42" s="172"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="148" t="s">
         <v>332</v>
       </c>
@@ -23088,7 +24113,7 @@
       </c>
       <c r="N43" s="172"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="149"/>
       <c r="B44" s="153"/>
       <c r="C44" s="149"/>
@@ -23111,7 +24136,7 @@
       </c>
       <c r="N44" s="177"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="149"/>
       <c r="B45" s="153"/>
       <c r="C45" s="149"/>
@@ -23139,7 +24164,7 @@
         <v>4290</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="149"/>
       <c r="B46" s="153"/>
       <c r="C46" s="149"/>
@@ -23155,7 +24180,7 @@
       <c r="M46" s="172"/>
       <c r="N46" s="172"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="149"/>
       <c r="B47" s="153"/>
       <c r="C47" s="149"/>
@@ -23171,7 +24196,7 @@
       <c r="M47" s="172"/>
       <c r="N47" s="172"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="149"/>
       <c r="B48" s="153"/>
       <c r="C48" s="149"/>
@@ -23187,7 +24212,7 @@
       <c r="M48" s="172"/>
       <c r="N48" s="172"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="149"/>
       <c r="B49" s="153"/>
       <c r="C49" s="149"/>
@@ -23207,7 +24232,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="149"/>
       <c r="B50" s="153"/>
       <c r="C50" s="149"/>
@@ -23231,7 +24256,7 @@
         <v>4290</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="149"/>
       <c r="B51" s="153"/>
       <c r="C51" s="149"/>
@@ -23258,7 +24283,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="149"/>
       <c r="B52" s="153"/>
       <c r="C52" s="149"/>
@@ -23274,7 +24299,7 @@
       <c r="M52" s="172"/>
       <c r="N52" s="186"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="149"/>
       <c r="B53" s="153"/>
       <c r="C53" s="149"/>
@@ -23290,7 +24315,7 @@
       <c r="M53" s="172"/>
       <c r="N53" s="172"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="149"/>
       <c r="B54" s="153"/>
       <c r="C54" s="149"/>
@@ -23311,7 +24336,7 @@
       <c r="M54" s="172"/>
       <c r="N54" s="172"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="149"/>
       <c r="B55" s="153"/>
       <c r="C55" s="149"/>
@@ -23332,7 +24357,7 @@
       <c r="M55" s="172"/>
       <c r="N55" s="172"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="149"/>
       <c r="B56" s="153"/>
       <c r="C56" s="149"/>
@@ -23348,7 +24373,7 @@
       <c r="M56" s="172"/>
       <c r="N56" s="172"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="149"/>
       <c r="B57" s="153"/>
       <c r="C57" s="149"/>
@@ -23364,7 +24389,7 @@
       <c r="M57" s="172"/>
       <c r="N57" s="172"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="149"/>
       <c r="B58" s="153"/>
       <c r="C58" s="149"/>
@@ -23380,7 +24405,7 @@
       <c r="M58" s="172"/>
       <c r="N58" s="172"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="149"/>
       <c r="B59" s="153"/>
       <c r="C59" s="149"/>
@@ -23396,7 +24421,7 @@
       <c r="M59" s="172"/>
       <c r="N59" s="172"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="149"/>
       <c r="B60" s="153"/>
       <c r="C60" s="149"/>
@@ -23412,7 +24437,7 @@
       <c r="M60" s="172"/>
       <c r="N60" s="172"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="149"/>
       <c r="B61" s="153"/>
       <c r="C61" s="149"/>
@@ -23428,7 +24453,7 @@
       <c r="M61" s="172"/>
       <c r="N61" s="172"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="149"/>
       <c r="B62" s="153"/>
       <c r="C62" s="149"/>
@@ -23444,7 +24469,7 @@
       <c r="M62" s="172"/>
       <c r="N62" s="172"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="149"/>
       <c r="B63" s="153"/>
       <c r="C63" s="149"/>
@@ -23460,7 +24485,7 @@
       <c r="M63" s="172"/>
       <c r="N63" s="172"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="149"/>
       <c r="B64" s="153"/>
       <c r="C64" s="149"/>
@@ -23497,32 +24522,32 @@
       <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="173"/>
-    <col min="9" max="9" width="5.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="173"/>
-    <col min="11" max="11" width="10.140625" style="173" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="173"/>
-    <col min="18" max="18" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" customWidth="1"/>
+    <col min="7" max="8" width="9.109375" style="173"/>
+    <col min="9" max="9" width="5.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="173"/>
+    <col min="11" max="11" width="10.109375" style="173" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" customWidth="1"/>
+    <col min="13" max="14" width="9.109375" style="173"/>
+    <col min="18" max="18" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:27" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="144" t="s">
         <v>333</v>
       </c>
-      <c r="C3" s="269" t="s">
+      <c r="C3" s="270" t="s">
         <v>403</v>
       </c>
-      <c r="D3" s="270"/>
-      <c r="E3" s="270"/>
-      <c r="F3" s="270"/>
-      <c r="G3" s="270"/>
-      <c r="H3" s="271"/>
+      <c r="D3" s="271"/>
+      <c r="E3" s="271"/>
+      <c r="F3" s="271"/>
+      <c r="G3" s="271"/>
+      <c r="H3" s="272"/>
       <c r="Q3" s="169" t="s">
         <v>345</v>
       </c>
@@ -23536,7 +24561,7 @@
       <c r="Y3" s="166"/>
       <c r="Z3" s="166"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="119"/>
       <c r="Q4" s="170"/>
       <c r="R4" s="166"/>
@@ -23549,10 +24574,10 @@
       <c r="Y4" s="166"/>
       <c r="Z4" s="166"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="Q5" s="164"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="145" t="s">
         <v>399</v>
       </c>
@@ -23586,10 +24611,10 @@
         <v>338</v>
       </c>
       <c r="Q6" s="164"/>
-      <c r="R6" s="267" t="s">
+      <c r="R6" s="268" t="s">
         <v>346</v>
       </c>
-      <c r="S6" s="267"/>
+      <c r="S6" s="268"/>
       <c r="T6" s="165"/>
       <c r="U6" s="151"/>
       <c r="W6" s="187" t="s">
@@ -23602,7 +24627,7 @@
       </c>
       <c r="AA6" s="136"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="146"/>
       <c r="B7" s="153"/>
       <c r="C7" s="146"/>
@@ -23644,7 +24669,7 @@
       <c r="Z7" s="151"/>
       <c r="AA7" s="151"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="148" t="s">
         <v>401</v>
       </c>
@@ -23701,7 +24726,7 @@
       <c r="Z8" s="151"/>
       <c r="AA8" s="151"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="149"/>
       <c r="B9" s="190"/>
       <c r="C9" s="148"/>
@@ -23754,7 +24779,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="196"/>
       <c r="B10" s="197"/>
       <c r="C10" s="196"/>
@@ -23807,7 +24832,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="149"/>
       <c r="B11" s="190"/>
       <c r="C11" s="149"/>
@@ -23843,7 +24868,7 @@
       <c r="Z11" s="151"/>
       <c r="AA11" s="151"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="204" t="s">
         <v>400</v>
       </c>
@@ -23897,7 +24922,7 @@
       <c r="Z12" s="151"/>
       <c r="AA12" s="151"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="149"/>
       <c r="B13" s="190"/>
       <c r="C13" s="148" t="s">
@@ -23946,7 +24971,7 @@
       <c r="Z13" s="151"/>
       <c r="AA13" s="151"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="149"/>
       <c r="B14" s="190"/>
       <c r="C14" s="149"/>
@@ -23983,7 +25008,7 @@
       <c r="Z14" s="151"/>
       <c r="AA14" s="151"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="149"/>
       <c r="B15" s="190"/>
       <c r="C15" s="149"/>
@@ -24023,7 +25048,7 @@
       <c r="Z15" s="151"/>
       <c r="AA15" s="151"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="149"/>
       <c r="B16" s="190"/>
       <c r="C16" s="149"/>
@@ -24049,7 +25074,7 @@
       <c r="Z16" s="151"/>
       <c r="AA16" s="151"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="148" t="s">
         <v>406</v>
       </c>
@@ -24097,7 +25122,7 @@
       <c r="Z17" s="151"/>
       <c r="AA17" s="151"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="149"/>
       <c r="B18" s="190"/>
       <c r="C18" s="148" t="s">
@@ -24140,7 +25165,7 @@
       <c r="Z18" s="151"/>
       <c r="AA18" s="151"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="149"/>
       <c r="B19" s="190"/>
       <c r="C19" s="149"/>
@@ -24176,7 +25201,7 @@
       <c r="Z19" s="151"/>
       <c r="AA19" s="151"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="149"/>
       <c r="B20" s="190"/>
       <c r="C20" s="149"/>
@@ -24220,7 +25245,7 @@
       <c r="Z20" s="151"/>
       <c r="AA20" s="151"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="149"/>
       <c r="B21" s="190"/>
       <c r="C21" s="149"/>
@@ -24250,7 +25275,7 @@
       <c r="Z21" s="151"/>
       <c r="AA21" s="151"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="148" t="s">
         <v>407</v>
       </c>
@@ -24298,7 +25323,7 @@
       <c r="Z22" s="151"/>
       <c r="AA22" s="151"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="149"/>
       <c r="B23" s="190"/>
       <c r="C23" s="148" t="s">
@@ -24337,7 +25362,7 @@
       <c r="Z23" s="151"/>
       <c r="AA23" s="151"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="149"/>
       <c r="B24" s="190"/>
       <c r="C24" s="149"/>
@@ -24369,7 +25394,7 @@
       <c r="Z24" s="151"/>
       <c r="AA24" s="151"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="149"/>
       <c r="B25" s="190"/>
       <c r="C25" s="149"/>
@@ -24407,7 +25432,7 @@
       <c r="Z25" s="151"/>
       <c r="AA25" s="151"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="149"/>
       <c r="B26" s="190"/>
       <c r="C26" s="149"/>
@@ -24432,7 +25457,7 @@
       <c r="Z26" s="151"/>
       <c r="AA26" s="151"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="148" t="s">
         <v>408</v>
       </c>
@@ -24475,7 +25500,7 @@
       <c r="Y27" s="151"/>
       <c r="Z27" s="151"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="149"/>
       <c r="B28" s="190"/>
       <c r="C28" s="148" t="s">
@@ -24513,7 +25538,7 @@
       <c r="Y28" s="151"/>
       <c r="Z28" s="151"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="149"/>
       <c r="B29" s="190"/>
       <c r="C29" s="149"/>
@@ -24544,7 +25569,7 @@
       <c r="Y29" s="151"/>
       <c r="Z29" s="151"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="149"/>
       <c r="B30" s="190"/>
       <c r="C30" s="149"/>
@@ -24581,7 +25606,7 @@
       <c r="Y30" s="151"/>
       <c r="Z30" s="151"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="149"/>
       <c r="B31" s="190"/>
       <c r="C31" s="149"/>
@@ -24606,7 +25631,7 @@
       <c r="Y31" s="151"/>
       <c r="Z31" s="151"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="148" t="s">
         <v>409</v>
       </c>
@@ -24640,7 +25665,7 @@
       </c>
       <c r="N32" s="207"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="149"/>
       <c r="B33" s="190"/>
       <c r="C33" s="148" t="s">
@@ -24669,7 +25694,7 @@
       </c>
       <c r="N33" s="207"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="149"/>
       <c r="B34" s="190"/>
       <c r="C34" s="149"/>
@@ -24691,7 +25716,7 @@
       </c>
       <c r="N34" s="211"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="149"/>
       <c r="B35" s="190"/>
       <c r="C35" s="149"/>
@@ -24719,7 +25744,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="149"/>
       <c r="B36" s="190"/>
       <c r="C36" s="149"/>
@@ -24735,7 +25760,7 @@
       <c r="M36" s="207"/>
       <c r="N36" s="207"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="149"/>
       <c r="B37" s="190"/>
       <c r="C37" s="149"/>
@@ -24751,7 +25776,7 @@
       <c r="M37" s="207"/>
       <c r="N37" s="207"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="149"/>
       <c r="B38" s="190"/>
       <c r="C38" s="149"/>
@@ -24767,7 +25792,7 @@
       <c r="M38" s="207"/>
       <c r="N38" s="207"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="195"/>
       <c r="B39" s="195"/>
       <c r="C39" s="195"/>
@@ -24783,7 +25808,7 @@
       <c r="M39" s="213"/>
       <c r="N39" s="213"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="195"/>
       <c r="B40" s="195"/>
       <c r="C40" s="195"/>
@@ -24799,7 +25824,7 @@
       <c r="M40" s="213"/>
       <c r="N40" s="213"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="195"/>
       <c r="B41" s="195"/>
       <c r="C41" s="195"/>
@@ -24815,7 +25840,7 @@
       <c r="M41" s="213"/>
       <c r="N41" s="213"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="195"/>
       <c r="B42" s="195"/>
       <c r="C42" s="195"/>
@@ -24831,7 +25856,7 @@
       <c r="M42" s="213"/>
       <c r="N42" s="213"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="195"/>
       <c r="B43" s="195"/>
       <c r="C43" s="195"/>
@@ -24847,7 +25872,7 @@
       <c r="M43" s="213"/>
       <c r="N43" s="213"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="195"/>
       <c r="B44" s="195"/>
       <c r="C44" s="195"/>
@@ -24863,7 +25888,7 @@
       <c r="M44" s="213"/>
       <c r="N44" s="213"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="195"/>
       <c r="B45" s="195"/>
       <c r="C45" s="195"/>
@@ -24879,7 +25904,7 @@
       <c r="M45" s="213"/>
       <c r="N45" s="213"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="195"/>
       <c r="B46" s="195"/>
       <c r="C46" s="195"/>
@@ -24895,7 +25920,7 @@
       <c r="M46" s="213"/>
       <c r="N46" s="213"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="195"/>
       <c r="B47" s="195"/>
       <c r="C47" s="195"/>
@@ -24911,7 +25936,7 @@
       <c r="M47" s="213"/>
       <c r="N47" s="213"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="195"/>
       <c r="B48" s="195"/>
       <c r="C48" s="195"/>
@@ -24927,7 +25952,7 @@
       <c r="M48" s="213"/>
       <c r="N48" s="213"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="195"/>
       <c r="B49" s="195"/>
       <c r="C49" s="195"/>
@@ -24943,7 +25968,7 @@
       <c r="M49" s="213"/>
       <c r="N49" s="213"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="195"/>
       <c r="B50" s="195"/>
       <c r="C50" s="195"/>
@@ -24959,7 +25984,7 @@
       <c r="M50" s="213"/>
       <c r="N50" s="213"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="195"/>
       <c r="B51" s="195"/>
       <c r="C51" s="195"/>
@@ -24975,7 +26000,7 @@
       <c r="M51" s="213"/>
       <c r="N51" s="213"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="195"/>
       <c r="B52" s="195"/>
       <c r="C52" s="195"/>
@@ -25009,115 +26034,115 @@
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="3" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" customWidth="1"/>
+    <col min="8" max="8" width="4.88671875" customWidth="1"/>
+    <col min="9" max="9" width="6.5546875" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="15" width="11.7109375" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="14" max="15" width="11.6640625" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" customWidth="1"/>
     <col min="17" max="17" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="273"/>
-      <c r="B1" s="273"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="273"/>
-      <c r="E1" s="273"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="239"/>
-      <c r="L1" s="239"/>
-      <c r="M1" s="239"/>
-      <c r="N1" s="239"/>
-      <c r="O1" s="239"/>
-      <c r="P1" s="239"/>
-      <c r="Q1" s="273"/>
-    </row>
-    <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="239"/>
-      <c r="B2" s="280" t="s">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="274"/>
+      <c r="B1" s="274"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="274"/>
+      <c r="E1" s="274"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="240"/>
+      <c r="L1" s="240"/>
+      <c r="M1" s="240"/>
+      <c r="N1" s="240"/>
+      <c r="O1" s="240"/>
+      <c r="P1" s="240"/>
+      <c r="Q1" s="274"/>
+    </row>
+    <row r="2" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="240"/>
+      <c r="B2" s="273" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="239"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="278" t="s">
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="282" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="239"/>
-      <c r="G2" s="279" t="s">
+      <c r="F2" s="240"/>
+      <c r="G2" s="283" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="239"/>
-      <c r="I2" s="239"/>
-      <c r="J2" s="239"/>
-      <c r="K2" s="239"/>
-      <c r="L2" s="239"/>
-      <c r="M2" s="239"/>
-      <c r="N2" s="239"/>
-      <c r="O2" s="239"/>
-      <c r="P2" s="239"/>
-      <c r="Q2" s="239"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="239"/>
-      <c r="B3" s="273"/>
-      <c r="C3" s="239"/>
-      <c r="D3" s="239"/>
-      <c r="E3" s="273"/>
-      <c r="F3" s="239"/>
-      <c r="G3" s="239"/>
-      <c r="H3" s="239"/>
-      <c r="I3" s="239"/>
-      <c r="J3" s="239"/>
-      <c r="K3" s="239"/>
-      <c r="L3" s="239"/>
-      <c r="M3" s="239"/>
-      <c r="N3" s="239"/>
-      <c r="O3" s="239"/>
-      <c r="P3" s="239"/>
-      <c r="Q3" s="239"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="239"/>
-      <c r="B4" s="281"/>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="277" t="s">
+      <c r="H2" s="240"/>
+      <c r="I2" s="240"/>
+      <c r="J2" s="240"/>
+      <c r="K2" s="240"/>
+      <c r="L2" s="240"/>
+      <c r="M2" s="240"/>
+      <c r="N2" s="240"/>
+      <c r="O2" s="240"/>
+      <c r="P2" s="240"/>
+      <c r="Q2" s="240"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="240"/>
+      <c r="B3" s="274"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="274"/>
+      <c r="F3" s="240"/>
+      <c r="G3" s="240"/>
+      <c r="H3" s="240"/>
+      <c r="I3" s="240"/>
+      <c r="J3" s="240"/>
+      <c r="K3" s="240"/>
+      <c r="L3" s="240"/>
+      <c r="M3" s="240"/>
+      <c r="N3" s="240"/>
+      <c r="O3" s="240"/>
+      <c r="P3" s="240"/>
+      <c r="Q3" s="240"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="240"/>
+      <c r="B4" s="275"/>
+      <c r="C4" s="240"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="281" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="239"/>
-      <c r="G4" s="239"/>
-      <c r="H4" s="239"/>
-      <c r="I4" s="239"/>
-      <c r="J4" s="239"/>
-      <c r="K4" s="239"/>
-      <c r="L4" s="239"/>
-      <c r="M4" s="239"/>
-      <c r="N4" s="239"/>
-      <c r="O4" s="239"/>
-      <c r="P4" s="239"/>
-      <c r="Q4" s="239"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="239"/>
+      <c r="F4" s="240"/>
+      <c r="G4" s="240"/>
+      <c r="H4" s="240"/>
+      <c r="I4" s="240"/>
+      <c r="J4" s="240"/>
+      <c r="K4" s="240"/>
+      <c r="L4" s="240"/>
+      <c r="M4" s="240"/>
+      <c r="N4" s="240"/>
+      <c r="O4" s="240"/>
+      <c r="P4" s="240"/>
+      <c r="Q4" s="240"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="240"/>
       <c r="B5" s="11"/>
       <c r="C5" s="34"/>
-      <c r="D5" s="239"/>
+      <c r="D5" s="240"/>
       <c r="E5" s="35" t="s">
         <v>104</v>
       </c>
@@ -25154,13 +26179,13 @@
       <c r="P5" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="Q5" s="239"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="239"/>
+      <c r="Q5" s="240"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="240"/>
       <c r="B6" s="11"/>
       <c r="C6" s="34"/>
-      <c r="D6" s="239"/>
+      <c r="D6" s="240"/>
       <c r="E6" s="47">
         <v>0</v>
       </c>
@@ -25199,55 +26224,55 @@
       <c r="P6" s="47">
         <v>150</v>
       </c>
-      <c r="Q6" s="239"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="239"/>
-      <c r="B7" s="282"/>
-      <c r="C7" s="239"/>
-      <c r="D7" s="239"/>
-      <c r="E7" s="273"/>
-      <c r="F7" s="239"/>
-      <c r="G7" s="239"/>
-      <c r="H7" s="239"/>
-      <c r="I7" s="239"/>
-      <c r="J7" s="239"/>
-      <c r="K7" s="239"/>
-      <c r="L7" s="239"/>
-      <c r="M7" s="239"/>
-      <c r="N7" s="239"/>
-      <c r="O7" s="239"/>
-      <c r="P7" s="239"/>
-      <c r="Q7" s="239"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="239"/>
-      <c r="B8" s="281" t="s">
+      <c r="Q6" s="240"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="240"/>
+      <c r="B7" s="276"/>
+      <c r="C7" s="240"/>
+      <c r="D7" s="240"/>
+      <c r="E7" s="274"/>
+      <c r="F7" s="240"/>
+      <c r="G7" s="240"/>
+      <c r="H7" s="240"/>
+      <c r="I7" s="240"/>
+      <c r="J7" s="240"/>
+      <c r="K7" s="240"/>
+      <c r="L7" s="240"/>
+      <c r="M7" s="240"/>
+      <c r="N7" s="240"/>
+      <c r="O7" s="240"/>
+      <c r="P7" s="240"/>
+      <c r="Q7" s="240"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="240"/>
+      <c r="B8" s="275" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="239"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="272" t="s">
+      <c r="C8" s="240"/>
+      <c r="D8" s="240"/>
+      <c r="E8" s="277" t="s">
         <v>123</v>
       </c>
-      <c r="F8" s="239"/>
-      <c r="G8" s="239"/>
-      <c r="H8" s="239"/>
-      <c r="I8" s="239"/>
-      <c r="J8" s="239"/>
-      <c r="K8" s="239"/>
-      <c r="L8" s="239"/>
-      <c r="M8" s="239"/>
-      <c r="N8" s="239"/>
-      <c r="O8" s="239"/>
-      <c r="P8" s="239"/>
-      <c r="Q8" s="239"/>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="239"/>
+      <c r="F8" s="240"/>
+      <c r="G8" s="240"/>
+      <c r="H8" s="240"/>
+      <c r="I8" s="240"/>
+      <c r="J8" s="240"/>
+      <c r="K8" s="240"/>
+      <c r="L8" s="240"/>
+      <c r="M8" s="240"/>
+      <c r="N8" s="240"/>
+      <c r="O8" s="240"/>
+      <c r="P8" s="240"/>
+      <c r="Q8" s="240"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="240"/>
       <c r="B9" s="11"/>
       <c r="C9" s="54"/>
-      <c r="D9" s="239"/>
+      <c r="D9" s="240"/>
       <c r="E9" s="55">
         <v>1</v>
       </c>
@@ -25282,13 +26307,13 @@
       <c r="P9" s="59">
         <v>1</v>
       </c>
-      <c r="Q9" s="239"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="239"/>
+      <c r="Q9" s="240"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="240"/>
       <c r="B10" s="11"/>
       <c r="C10" s="54"/>
-      <c r="D10" s="239"/>
+      <c r="D10" s="240"/>
       <c r="E10" s="55">
         <v>2</v>
       </c>
@@ -25323,13 +26348,13 @@
       <c r="P10" s="59">
         <v>1.5</v>
       </c>
-      <c r="Q10" s="239"/>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="239"/>
+      <c r="Q10" s="240"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="240"/>
       <c r="B11" s="11"/>
       <c r="C11" s="54"/>
-      <c r="D11" s="239"/>
+      <c r="D11" s="240"/>
       <c r="E11" s="55">
         <v>3</v>
       </c>
@@ -25364,17 +26389,17 @@
       <c r="P11" s="59">
         <v>2</v>
       </c>
-      <c r="Q11" s="239"/>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="239"/>
+      <c r="Q11" s="240"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="240"/>
       <c r="B12" s="11" t="s">
         <v>161</v>
       </c>
       <c r="C12" s="54">
         <v>1</v>
       </c>
-      <c r="D12" s="239"/>
+      <c r="D12" s="240"/>
       <c r="E12" s="11" t="s">
         <v>162</v>
       </c>
@@ -25411,17 +26436,17 @@
       <c r="P12" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="Q12" s="239"/>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="239"/>
+      <c r="Q12" s="240"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="240"/>
       <c r="B13" s="11" t="s">
         <v>174</v>
       </c>
       <c r="C13" s="54">
         <v>1</v>
       </c>
-      <c r="D13" s="239"/>
+      <c r="D13" s="240"/>
       <c r="E13" s="55">
         <v>1</v>
       </c>
@@ -25469,17 +26494,17 @@
         <f t="shared" ref="P13:P15" si="5">P$6*P9</f>
         <v>150</v>
       </c>
-      <c r="Q13" s="239"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="239"/>
+      <c r="Q13" s="240"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="240"/>
       <c r="B14" s="11" t="s">
         <v>176</v>
       </c>
       <c r="C14" s="54">
         <v>1</v>
       </c>
-      <c r="D14" s="239"/>
+      <c r="D14" s="240"/>
       <c r="E14" s="55">
         <v>2</v>
       </c>
@@ -25524,13 +26549,13 @@
         <f t="shared" si="5"/>
         <v>225</v>
       </c>
-      <c r="Q14" s="239"/>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="239"/>
+      <c r="Q14" s="240"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="240"/>
       <c r="B15" s="11"/>
       <c r="C15" s="34"/>
-      <c r="D15" s="239"/>
+      <c r="D15" s="240"/>
       <c r="E15" s="55">
         <v>3</v>
       </c>
@@ -25575,55 +26600,55 @@
         <f t="shared" si="5"/>
         <v>300</v>
       </c>
-      <c r="Q15" s="239"/>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="239"/>
-      <c r="B16" s="282"/>
-      <c r="C16" s="239"/>
-      <c r="D16" s="239"/>
-      <c r="E16" s="273"/>
-      <c r="F16" s="239"/>
-      <c r="G16" s="239"/>
-      <c r="H16" s="239"/>
-      <c r="I16" s="239"/>
-      <c r="J16" s="239"/>
-      <c r="K16" s="239"/>
-      <c r="L16" s="239"/>
-      <c r="M16" s="239"/>
+      <c r="Q15" s="240"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="240"/>
+      <c r="B16" s="276"/>
+      <c r="C16" s="240"/>
+      <c r="D16" s="240"/>
+      <c r="E16" s="274"/>
+      <c r="F16" s="240"/>
+      <c r="G16" s="240"/>
+      <c r="H16" s="240"/>
+      <c r="I16" s="240"/>
+      <c r="J16" s="240"/>
+      <c r="K16" s="240"/>
+      <c r="L16" s="240"/>
+      <c r="M16" s="240"/>
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
-      <c r="Q16" s="239"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="239"/>
-      <c r="B17" s="281" t="s">
+      <c r="Q16" s="240"/>
+    </row>
+    <row r="17" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="240"/>
+      <c r="B17" s="275" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="239"/>
-      <c r="D17" s="239"/>
-      <c r="E17" s="275" t="s">
+      <c r="C17" s="240"/>
+      <c r="D17" s="240"/>
+      <c r="E17" s="279" t="s">
         <v>183</v>
       </c>
-      <c r="F17" s="239"/>
-      <c r="G17" s="239"/>
-      <c r="H17" s="239"/>
-      <c r="I17" s="239"/>
-      <c r="J17" s="239"/>
-      <c r="K17" s="239"/>
-      <c r="L17" s="239"/>
-      <c r="M17" s="239"/>
-      <c r="N17" s="239"/>
-      <c r="O17" s="239"/>
-      <c r="P17" s="239"/>
-      <c r="Q17" s="239"/>
-    </row>
-    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="239"/>
+      <c r="F17" s="240"/>
+      <c r="G17" s="240"/>
+      <c r="H17" s="240"/>
+      <c r="I17" s="240"/>
+      <c r="J17" s="240"/>
+      <c r="K17" s="240"/>
+      <c r="L17" s="240"/>
+      <c r="M17" s="240"/>
+      <c r="N17" s="240"/>
+      <c r="O17" s="240"/>
+      <c r="P17" s="240"/>
+      <c r="Q17" s="240"/>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="240"/>
       <c r="B18" s="11"/>
       <c r="C18" s="34"/>
-      <c r="D18" s="239"/>
+      <c r="D18" s="240"/>
       <c r="E18" s="42">
         <v>1</v>
       </c>
@@ -25652,13 +26677,13 @@
       <c r="P18" s="78">
         <v>2</v>
       </c>
-      <c r="Q18" s="239"/>
-    </row>
-    <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="239"/>
+      <c r="Q18" s="240"/>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="240"/>
       <c r="B19" s="11"/>
       <c r="C19" s="34"/>
-      <c r="D19" s="239"/>
+      <c r="D19" s="240"/>
       <c r="E19" s="42">
         <v>2</v>
       </c>
@@ -25687,13 +26712,13 @@
       <c r="P19" s="78">
         <v>3</v>
       </c>
-      <c r="Q19" s="239"/>
-    </row>
-    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="239"/>
+      <c r="Q19" s="240"/>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="240"/>
       <c r="B20" s="11"/>
       <c r="C20" s="34"/>
-      <c r="D20" s="239"/>
+      <c r="D20" s="240"/>
       <c r="E20" s="42">
         <v>3</v>
       </c>
@@ -25722,13 +26747,13 @@
       <c r="P20" s="78">
         <v>4</v>
       </c>
-      <c r="Q20" s="239"/>
-    </row>
-    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="239"/>
+      <c r="Q20" s="240"/>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="240"/>
       <c r="B21" s="11"/>
       <c r="C21" s="34"/>
-      <c r="D21" s="239"/>
+      <c r="D21" s="240"/>
       <c r="E21" s="20" t="s">
         <v>205</v>
       </c>
@@ -25763,13 +26788,13 @@
       <c r="P21" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="Q21" s="239"/>
-    </row>
-    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="239"/>
+      <c r="Q21" s="240"/>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="240"/>
       <c r="B22" s="11"/>
       <c r="C22" s="34"/>
-      <c r="D22" s="239"/>
+      <c r="D22" s="240"/>
       <c r="E22" s="42">
         <v>1</v>
       </c>
@@ -25814,13 +26839,13 @@
         <f t="shared" ref="P22:P24" si="15">P$6*P18</f>
         <v>300</v>
       </c>
-      <c r="Q22" s="239"/>
-    </row>
-    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="239"/>
+      <c r="Q22" s="240"/>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="240"/>
       <c r="B23" s="11"/>
       <c r="C23" s="34"/>
-      <c r="D23" s="239"/>
+      <c r="D23" s="240"/>
       <c r="E23" s="42">
         <v>2</v>
       </c>
@@ -25865,13 +26890,13 @@
         <f t="shared" si="15"/>
         <v>450</v>
       </c>
-      <c r="Q23" s="239"/>
-    </row>
-    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="239"/>
+      <c r="Q23" s="240"/>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="240"/>
       <c r="B24" s="11"/>
       <c r="C24" s="34"/>
-      <c r="D24" s="239"/>
+      <c r="D24" s="240"/>
       <c r="E24" s="42">
         <v>3</v>
       </c>
@@ -25916,55 +26941,55 @@
         <f t="shared" si="15"/>
         <v>600</v>
       </c>
-      <c r="Q24" s="239"/>
-    </row>
-    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="239"/>
-      <c r="B25" s="282"/>
-      <c r="C25" s="239"/>
-      <c r="D25" s="239"/>
-      <c r="E25" s="273"/>
-      <c r="F25" s="239"/>
-      <c r="G25" s="239"/>
-      <c r="H25" s="239"/>
-      <c r="I25" s="239"/>
-      <c r="J25" s="239"/>
-      <c r="K25" s="239"/>
-      <c r="L25" s="239"/>
-      <c r="M25" s="239"/>
+      <c r="Q24" s="240"/>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="240"/>
+      <c r="B25" s="276"/>
+      <c r="C25" s="240"/>
+      <c r="D25" s="240"/>
+      <c r="E25" s="274"/>
+      <c r="F25" s="240"/>
+      <c r="G25" s="240"/>
+      <c r="H25" s="240"/>
+      <c r="I25" s="240"/>
+      <c r="J25" s="240"/>
+      <c r="K25" s="240"/>
+      <c r="L25" s="240"/>
+      <c r="M25" s="240"/>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
-      <c r="Q25" s="239"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="239"/>
-      <c r="B26" s="281" t="s">
+      <c r="Q25" s="240"/>
+    </row>
+    <row r="26" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="240"/>
+      <c r="B26" s="275" t="s">
         <v>216</v>
       </c>
-      <c r="C26" s="239"/>
-      <c r="D26" s="239"/>
-      <c r="E26" s="276" t="s">
+      <c r="C26" s="240"/>
+      <c r="D26" s="240"/>
+      <c r="E26" s="280" t="s">
         <v>217</v>
       </c>
-      <c r="F26" s="239"/>
-      <c r="G26" s="239"/>
-      <c r="H26" s="239"/>
-      <c r="I26" s="239"/>
-      <c r="J26" s="239"/>
-      <c r="K26" s="239"/>
-      <c r="L26" s="239"/>
-      <c r="M26" s="239"/>
-      <c r="N26" s="239"/>
-      <c r="O26" s="239"/>
-      <c r="P26" s="239"/>
-      <c r="Q26" s="239"/>
-    </row>
-    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="239"/>
+      <c r="F26" s="240"/>
+      <c r="G26" s="240"/>
+      <c r="H26" s="240"/>
+      <c r="I26" s="240"/>
+      <c r="J26" s="240"/>
+      <c r="K26" s="240"/>
+      <c r="L26" s="240"/>
+      <c r="M26" s="240"/>
+      <c r="N26" s="240"/>
+      <c r="O26" s="240"/>
+      <c r="P26" s="240"/>
+      <c r="Q26" s="240"/>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="240"/>
       <c r="B27" s="11"/>
       <c r="C27" s="34"/>
-      <c r="D27" s="239"/>
+      <c r="D27" s="240"/>
       <c r="E27" s="72">
         <v>1</v>
       </c>
@@ -25987,13 +27012,13 @@
       </c>
       <c r="O27" s="92"/>
       <c r="P27" s="91"/>
-      <c r="Q27" s="239"/>
-    </row>
-    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="239"/>
+      <c r="Q27" s="240"/>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="240"/>
       <c r="B28" s="11"/>
       <c r="C28" s="34"/>
-      <c r="D28" s="239"/>
+      <c r="D28" s="240"/>
       <c r="E28" s="72">
         <v>2</v>
       </c>
@@ -26016,13 +27041,13 @@
       </c>
       <c r="O28" s="92"/>
       <c r="P28" s="91"/>
-      <c r="Q28" s="239"/>
-    </row>
-    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="239"/>
+      <c r="Q28" s="240"/>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="240"/>
       <c r="B29" s="11"/>
       <c r="C29" s="34"/>
-      <c r="D29" s="239"/>
+      <c r="D29" s="240"/>
       <c r="E29" s="72">
         <v>3</v>
       </c>
@@ -26045,13 +27070,13 @@
       </c>
       <c r="O29" s="92"/>
       <c r="P29" s="91"/>
-      <c r="Q29" s="239"/>
-    </row>
-    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="239"/>
+      <c r="Q29" s="240"/>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="240"/>
       <c r="B30" s="11"/>
       <c r="C30" s="34"/>
-      <c r="D30" s="239"/>
+      <c r="D30" s="240"/>
       <c r="E30" s="3" t="s">
         <v>227</v>
       </c>
@@ -26086,13 +27111,13 @@
       <c r="P30" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="Q30" s="239"/>
-    </row>
-    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="239"/>
+      <c r="Q30" s="240"/>
+    </row>
+    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="240"/>
       <c r="B31" s="11"/>
       <c r="C31" s="34"/>
-      <c r="D31" s="239"/>
+      <c r="D31" s="240"/>
       <c r="E31" s="72">
         <v>1</v>
       </c>
@@ -26137,13 +27162,13 @@
         <f t="shared" ref="P31:P33" si="25">P$6*P27</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="239"/>
-    </row>
-    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="239"/>
+      <c r="Q31" s="240"/>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="240"/>
       <c r="B32" s="11"/>
       <c r="C32" s="34"/>
-      <c r="D32" s="239"/>
+      <c r="D32" s="240"/>
       <c r="E32" s="72">
         <v>2</v>
       </c>
@@ -26188,13 +27213,13 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="239"/>
-    </row>
-    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="239"/>
+      <c r="Q32" s="240"/>
+    </row>
+    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="240"/>
       <c r="B33" s="11"/>
       <c r="C33" s="34"/>
-      <c r="D33" s="239"/>
+      <c r="D33" s="240"/>
       <c r="E33" s="72">
         <v>3</v>
       </c>
@@ -26239,55 +27264,55 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="239"/>
-    </row>
-    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="239"/>
-      <c r="B34" s="282"/>
-      <c r="C34" s="239"/>
-      <c r="D34" s="239"/>
-      <c r="E34" s="273"/>
-      <c r="F34" s="239"/>
-      <c r="G34" s="239"/>
-      <c r="H34" s="239"/>
-      <c r="I34" s="239"/>
-      <c r="J34" s="239"/>
-      <c r="K34" s="239"/>
-      <c r="L34" s="239"/>
-      <c r="M34" s="239"/>
+      <c r="Q33" s="240"/>
+    </row>
+    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="240"/>
+      <c r="B34" s="276"/>
+      <c r="C34" s="240"/>
+      <c r="D34" s="240"/>
+      <c r="E34" s="274"/>
+      <c r="F34" s="240"/>
+      <c r="G34" s="240"/>
+      <c r="H34" s="240"/>
+      <c r="I34" s="240"/>
+      <c r="J34" s="240"/>
+      <c r="K34" s="240"/>
+      <c r="L34" s="240"/>
+      <c r="M34" s="240"/>
       <c r="N34" s="15"/>
       <c r="O34" s="15"/>
       <c r="P34" s="15"/>
-      <c r="Q34" s="239"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="239"/>
-      <c r="B35" s="281" t="s">
+      <c r="Q34" s="240"/>
+    </row>
+    <row r="35" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="240"/>
+      <c r="B35" s="275" t="s">
         <v>246</v>
       </c>
-      <c r="C35" s="239"/>
-      <c r="D35" s="239"/>
-      <c r="E35" s="274" t="s">
+      <c r="C35" s="240"/>
+      <c r="D35" s="240"/>
+      <c r="E35" s="278" t="s">
         <v>247</v>
       </c>
-      <c r="F35" s="239"/>
-      <c r="G35" s="239"/>
-      <c r="H35" s="239"/>
-      <c r="I35" s="239"/>
-      <c r="J35" s="239"/>
-      <c r="K35" s="239"/>
-      <c r="L35" s="239"/>
-      <c r="M35" s="239"/>
-      <c r="N35" s="239"/>
-      <c r="O35" s="239"/>
-      <c r="P35" s="239"/>
-      <c r="Q35" s="239"/>
-    </row>
-    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="239"/>
+      <c r="F35" s="240"/>
+      <c r="G35" s="240"/>
+      <c r="H35" s="240"/>
+      <c r="I35" s="240"/>
+      <c r="J35" s="240"/>
+      <c r="K35" s="240"/>
+      <c r="L35" s="240"/>
+      <c r="M35" s="240"/>
+      <c r="N35" s="240"/>
+      <c r="O35" s="240"/>
+      <c r="P35" s="240"/>
+      <c r="Q35" s="240"/>
+    </row>
+    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="240"/>
       <c r="B36" s="11"/>
       <c r="C36" s="34"/>
-      <c r="D36" s="239"/>
+      <c r="D36" s="240"/>
       <c r="E36" s="102">
         <v>1</v>
       </c>
@@ -26310,13 +27335,13 @@
       </c>
       <c r="O36" s="104"/>
       <c r="P36" s="103"/>
-      <c r="Q36" s="239"/>
-    </row>
-    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="239"/>
+      <c r="Q36" s="240"/>
+    </row>
+    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="240"/>
       <c r="B37" s="11"/>
       <c r="C37" s="34"/>
-      <c r="D37" s="239"/>
+      <c r="D37" s="240"/>
       <c r="E37" s="102">
         <v>2</v>
       </c>
@@ -26339,13 +27364,13 @@
       </c>
       <c r="O37" s="104"/>
       <c r="P37" s="103"/>
-      <c r="Q37" s="239"/>
-    </row>
-    <row r="38" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="239"/>
+      <c r="Q37" s="240"/>
+    </row>
+    <row r="38" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="240"/>
       <c r="B38" s="11"/>
       <c r="C38" s="34"/>
-      <c r="D38" s="239"/>
+      <c r="D38" s="240"/>
       <c r="E38" s="102">
         <v>3</v>
       </c>
@@ -26368,13 +27393,13 @@
       </c>
       <c r="O38" s="104"/>
       <c r="P38" s="103"/>
-      <c r="Q38" s="239"/>
-    </row>
-    <row r="39" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="239"/>
+      <c r="Q38" s="240"/>
+    </row>
+    <row r="39" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A39" s="240"/>
       <c r="B39" s="11"/>
       <c r="C39" s="34"/>
-      <c r="D39" s="239"/>
+      <c r="D39" s="240"/>
       <c r="E39" s="105" t="s">
         <v>257</v>
       </c>
@@ -26409,13 +27434,13 @@
       <c r="P39" s="105" t="s">
         <v>270</v>
       </c>
-      <c r="Q39" s="239"/>
-    </row>
-    <row r="40" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="239"/>
+      <c r="Q39" s="240"/>
+    </row>
+    <row r="40" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A40" s="240"/>
       <c r="B40" s="11"/>
       <c r="C40" s="34"/>
-      <c r="D40" s="239"/>
+      <c r="D40" s="240"/>
       <c r="E40" s="102">
         <v>1</v>
       </c>
@@ -26460,13 +27485,13 @@
         <f t="shared" ref="P40:P42" si="35">P$6*P36</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="239"/>
-    </row>
-    <row r="41" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="239"/>
+      <c r="Q40" s="240"/>
+    </row>
+    <row r="41" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A41" s="240"/>
       <c r="B41" s="11"/>
       <c r="C41" s="34"/>
-      <c r="D41" s="239"/>
+      <c r="D41" s="240"/>
       <c r="E41" s="102">
         <v>2</v>
       </c>
@@ -26511,13 +27536,13 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="239"/>
-    </row>
-    <row r="42" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="239"/>
+      <c r="Q41" s="240"/>
+    </row>
+    <row r="42" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A42" s="240"/>
       <c r="B42" s="11"/>
       <c r="C42" s="34"/>
-      <c r="D42" s="239"/>
+      <c r="D42" s="240"/>
       <c r="E42" s="102">
         <v>3</v>
       </c>
@@ -26562,13 +27587,13 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="239"/>
-    </row>
-    <row r="43" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="239"/>
+      <c r="Q42" s="240"/>
+    </row>
+    <row r="43" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="240"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="239"/>
+      <c r="D43" s="240"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
@@ -26581,10 +27606,24 @@
       <c r="N43" s="15"/>
       <c r="O43" s="15"/>
       <c r="P43" s="15"/>
-      <c r="Q43" s="239"/>
+      <c r="Q43" s="240"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="E7:P7"/>
+    <mergeCell ref="E16:M16"/>
+    <mergeCell ref="Q1:Q43"/>
+    <mergeCell ref="E25:M25"/>
+    <mergeCell ref="E35:P35"/>
+    <mergeCell ref="E17:P17"/>
+    <mergeCell ref="E26:P26"/>
+    <mergeCell ref="E4:P4"/>
+    <mergeCell ref="E3:P3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E1:P1"/>
+    <mergeCell ref="G2:P2"/>
+    <mergeCell ref="E34:M34"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B17:C17"/>
@@ -26599,20 +27638,6 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="E7:P7"/>
-    <mergeCell ref="E16:M16"/>
-    <mergeCell ref="Q1:Q43"/>
-    <mergeCell ref="E25:M25"/>
-    <mergeCell ref="E35:P35"/>
-    <mergeCell ref="E17:P17"/>
-    <mergeCell ref="E26:P26"/>
-    <mergeCell ref="E4:P4"/>
-    <mergeCell ref="E3:P3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E1:P1"/>
-    <mergeCell ref="G2:P2"/>
-    <mergeCell ref="E34:M34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -26628,83 +27653,83 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="116" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="116" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="116"/>
+    <col min="1" max="1" width="14.44140625" style="116" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="116" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="116"/>
   </cols>
   <sheetData>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="254" t="s">
+    <row r="26" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="257" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="239"/>
-      <c r="C26" s="239"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="252"/>
-      <c r="B27" s="239"/>
+      <c r="B26" s="240"/>
+      <c r="C26" s="240"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="256"/>
+      <c r="B27" s="240"/>
       <c r="C27" s="50"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="252"/>
-      <c r="B28" s="239"/>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="256"/>
+      <c r="B28" s="240"/>
       <c r="C28" s="51"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="252"/>
-      <c r="B29" s="239"/>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="256"/>
+      <c r="B29" s="240"/>
       <c r="C29" s="121"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="252"/>
-      <c r="B30" s="239"/>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="256"/>
+      <c r="B30" s="240"/>
       <c r="C30" s="53"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="252"/>
-      <c r="B31" s="239"/>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="256"/>
+      <c r="B31" s="240"/>
       <c r="C31" s="53"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="255"/>
-      <c r="B32" s="239"/>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="254"/>
+      <c r="B32" s="240"/>
       <c r="C32" s="121"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="253"/>
-      <c r="B33" s="239"/>
+      <c r="B33" s="240"/>
       <c r="C33" s="53"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="253"/>
-      <c r="B34" s="239"/>
+      <c r="B34" s="240"/>
       <c r="C34" s="53"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="253"/>
-      <c r="B35" s="239"/>
+      <c r="B35" s="240"/>
       <c r="C35" s="53"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="253"/>
-      <c r="B36" s="239"/>
+      <c r="B36" s="240"/>
       <c r="C36" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
